--- a/Deliverables/CT/USDM_CT.xlsx
+++ b/Deliverables/CT/USDM_CT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhlbradtee\Desktop\CDISC\DDF\DDF_Phase 2\CT Work Sprint 1\Data Dictionary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhlbradtee\Documents\GitHub\DDF-RA\Deliverables\CT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE70858E-D5A4-4055-B7E7-2D562D38FF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480ABD48-22BB-42AA-902C-56FFA933E32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1640" yWindow="320" windowWidth="17720" windowHeight="9730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2170" yWindow="1050" windowWidth="16590" windowHeight="8590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DDF Entities&amp;Attributes" sheetId="4" r:id="rId1"/>
@@ -2648,7 +2648,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2753,6 +2753,20 @@
     <font>
       <sz val="10"/>
       <color indexed="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2875,7 +2889,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3095,6 +3109,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3391,7 +3420,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.35"/>
@@ -5359,56 +5388,56 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A78" s="48">
+      <c r="A78" s="74">
         <v>77</v>
       </c>
-      <c r="B78" s="60" t="s">
+      <c r="B78" s="75" t="s">
         <v>685</v>
       </c>
-      <c r="C78" s="62" t="s">
+      <c r="C78" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="D78" s="68" t="s">
+      <c r="D78" s="77" t="s">
         <v>577</v>
       </c>
-      <c r="E78" s="61" t="s">
+      <c r="E78" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="F78" s="61" t="s">
+      <c r="F78" s="78" t="s">
         <v>832</v>
       </c>
-      <c r="G78" s="61"/>
-      <c r="H78" s="61" t="s">
+      <c r="G78" s="78"/>
+      <c r="H78" s="78" t="s">
         <v>833</v>
       </c>
-      <c r="I78" s="62" t="s">
+      <c r="I78" s="76" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A79" s="48">
+      <c r="A79" s="74">
         <v>78</v>
       </c>
-      <c r="B79" s="60" t="s">
+      <c r="B79" s="75" t="s">
         <v>685</v>
       </c>
-      <c r="C79" s="62" t="s">
+      <c r="C79" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="D79" s="68" t="s">
+      <c r="D79" s="77" t="s">
         <v>578</v>
       </c>
-      <c r="E79" s="61" t="s">
+      <c r="E79" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="F79" s="61" t="s">
+      <c r="F79" s="78" t="s">
         <v>834</v>
       </c>
-      <c r="G79" s="61"/>
-      <c r="H79" s="61" t="s">
+      <c r="G79" s="78"/>
+      <c r="H79" s="78" t="s">
         <v>835</v>
       </c>
-      <c r="I79" s="62" t="s">
+      <c r="I79" s="76" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5532,56 +5561,56 @@
       <c r="I84" s="4"/>
     </row>
     <row r="85" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A85" s="48">
+      <c r="A85" s="74">
         <v>84</v>
       </c>
-      <c r="B85" s="60" t="s">
+      <c r="B85" s="75" t="s">
         <v>687</v>
       </c>
-      <c r="C85" s="62" t="s">
+      <c r="C85" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="D85" s="68" t="s">
+      <c r="D85" s="77" t="s">
         <v>577</v>
       </c>
-      <c r="E85" s="61" t="s">
+      <c r="E85" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="F85" s="61" t="s">
+      <c r="F85" s="78" t="s">
         <v>832</v>
       </c>
-      <c r="G85" s="61"/>
-      <c r="H85" s="61" t="s">
+      <c r="G85" s="78"/>
+      <c r="H85" s="78" t="s">
         <v>833</v>
       </c>
-      <c r="I85" s="62" t="s">
+      <c r="I85" s="76" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A86" s="48">
+      <c r="A86" s="74">
         <v>85</v>
       </c>
-      <c r="B86" s="60" t="s">
+      <c r="B86" s="75" t="s">
         <v>687</v>
       </c>
-      <c r="C86" s="62" t="s">
+      <c r="C86" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="D86" s="68" t="s">
+      <c r="D86" s="77" t="s">
         <v>578</v>
       </c>
-      <c r="E86" s="61" t="s">
+      <c r="E86" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="F86" s="61" t="s">
+      <c r="F86" s="78" t="s">
         <v>834</v>
       </c>
-      <c r="G86" s="61"/>
-      <c r="H86" s="61" t="s">
+      <c r="G86" s="78"/>
+      <c r="H86" s="78" t="s">
         <v>835</v>
       </c>
-      <c r="I86" s="62" t="s">
+      <c r="I86" s="76" t="s">
         <v>95</v>
       </c>
     </row>
@@ -7352,7 +7381,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="21" customFormat="1" ht="25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" s="21" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A24" s="22" t="s">
         <v>160</v>
       </c>
@@ -7426,7 +7455,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="21" customFormat="1" ht="25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" s="21" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A27" s="22" t="s">
         <v>160</v>
       </c>
@@ -7450,7 +7479,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="21" customFormat="1" ht="25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" s="21" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A28" s="22" t="s">
         <v>160</v>
       </c>
@@ -9819,24 +9848,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D9A8E34D4601248B4650C3759D604D8" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c234dc030e1d129322a3d56f76335218">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="de0c653c-2bd3-43b1-95fa-012c57f61cfe" xmlns:ns3="848a8810-16a6-4d79-96d3-e3dfb86099b7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a56d1a68c4d05b5a1e5a3c0b3fb5b1a8" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -10058,33 +10069,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6744B0D-B7F9-4CA7-A5DC-23D611E8ED20}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="de0c653c-2bd3-43b1-95fa-012c57f61cfe"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="848a8810-16a6-4d79-96d3-e3dfb86099b7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B4CE896-D144-40A9-85D3-0684E5DFDA36}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19245E31-480A-4933-AB52-6FC5778D0ABF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10102,4 +10105,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B4CE896-D144-40A9-85D3-0684E5DFDA36}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6744B0D-B7F9-4CA7-A5DC-23D611E8ED20}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="de0c653c-2bd3-43b1-95fa-012c57f61cfe"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="848a8810-16a6-4d79-96d3-e3dfb86099b7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Deliverables/CT/USDM_CT.xlsx
+++ b/Deliverables/CT/USDM_CT.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhlbradtee\Documents\GitHub\DDF-RA\Deliverables\CT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3962B56D-F068-422E-B76F-3B8DC0A10BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C6E312-1FD1-4FC5-B272-4809CB46B790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="16590" windowHeight="8590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="830" yWindow="880" windowWidth="16590" windowHeight="8590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DDF Entities&amp;Attributes" sheetId="4" r:id="rId1"/>
     <sheet name="DDF valid value sets" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DDF Entities&amp;Attributes'!$A$1:$I$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DDF Entities&amp;Attributes'!$A$1:$I$140</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DDF valid value sets'!$A$6:$N$124</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="849">
   <si>
     <t>Preferred Term</t>
   </si>
@@ -2580,6 +2580,27 @@
     </r>
   </si>
   <si>
+    <t>activities</t>
+  </si>
+  <si>
+    <t>studyDesignName</t>
+  </si>
+  <si>
+    <t>Study Design Name</t>
+  </si>
+  <si>
+    <t>The literal identifier (i.e., distinctive designation) of the study design.</t>
+  </si>
+  <si>
+    <t>studyDesignDesc</t>
+  </si>
+  <si>
+    <t>Study Design Description</t>
+  </si>
+  <si>
+    <t>The textual representation of the study design.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <strike/>
@@ -2596,15 +2617,43 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-A categorization of a disease, disorder, or other condition based on common characteristics and often associated with a medical specialty focusing on research and development of specific therapeutic interventions for the purpose of treatment and prevention.</t>
+</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>A categorization of a disease, disorder, or other condition based on common characteristics and often associated with a medical specialty focusing on research and development of specific therapeutic interventions for the purpose of treatment and prevention.</t>
+    </r>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>AliasCode</t>
+  </si>
+  <si>
+    <t>Alias Code</t>
+  </si>
+  <si>
+    <t>An alternative symbol or combination of symbols which is assigned to the members of a collection.</t>
+  </si>
+  <si>
+    <t>standardCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">standardCodeAliases
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2677,6 +2726,25 @@
     <font>
       <strike/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2793,7 +2861,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2900,21 +2968,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2945,9 +2998,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2962,6 +3012,51 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3254,7 +3349,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I133"/>
+  <dimension ref="A1:I140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3274,11 +3369,11 @@
     <col min="10" max="16384" width="9.1796875" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="45" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:9" s="40" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="39" t="s">
         <v>670</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -3303,7 +3398,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A2" s="33">
         <v>1</v>
       </c>
@@ -3313,7 +3408,7 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="41" t="s">
         <v>671</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -3330,7 +3425,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="33">
         <v>2</v>
       </c>
@@ -3340,7 +3435,7 @@
       <c r="C3" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="42" t="s">
         <v>619</v>
       </c>
       <c r="E3" s="1"/>
@@ -3349,7 +3444,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="33">
         <v>3</v>
       </c>
@@ -3359,7 +3454,7 @@
       <c r="C4" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="42" t="s">
         <v>620</v>
       </c>
       <c r="E4" s="1"/>
@@ -3368,7 +3463,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="33">
         <v>4</v>
       </c>
@@ -3378,7 +3473,7 @@
       <c r="C5" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="42" t="s">
         <v>621</v>
       </c>
       <c r="E5" s="1"/>
@@ -3416,7 +3511,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="33">
         <v>6</v>
       </c>
@@ -3538,7 +3633,7 @@
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="41" t="s">
         <v>672</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -3568,16 +3663,16 @@
       <c r="D12" s="31" t="s">
         <v>626</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="43" t="s">
         <v>540</v>
       </c>
-      <c r="F12" s="48" t="s">
+      <c r="F12" s="43" t="s">
         <v>537</v>
       </c>
-      <c r="G12" s="48" t="s">
+      <c r="G12" s="43" t="s">
         <v>538</v>
       </c>
-      <c r="H12" s="48" t="s">
+      <c r="H12" s="43" t="s">
         <v>539</v>
       </c>
       <c r="I12" s="4" t="s">
@@ -3597,14 +3692,14 @@
       <c r="D13" s="31" t="s">
         <v>627</v>
       </c>
-      <c r="E13" s="48" t="s">
+      <c r="E13" s="43" t="s">
         <v>547</v>
       </c>
-      <c r="F13" s="48" t="s">
+      <c r="F13" s="43" t="s">
         <v>541</v>
       </c>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48" t="s">
+      <c r="G13" s="43"/>
+      <c r="H13" s="43" t="s">
         <v>542</v>
       </c>
       <c r="I13" s="4" t="s">
@@ -3624,14 +3719,14 @@
       <c r="D14" s="31" t="s">
         <v>628</v>
       </c>
-      <c r="E14" s="48" t="s">
+      <c r="E14" s="43" t="s">
         <v>548</v>
       </c>
-      <c r="F14" s="48" t="s">
+      <c r="F14" s="43" t="s">
         <v>543</v>
       </c>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48" t="s">
+      <c r="G14" s="43"/>
+      <c r="H14" s="43" t="s">
         <v>544</v>
       </c>
       <c r="I14" s="4" t="s">
@@ -3651,14 +3746,14 @@
       <c r="D15" s="31" t="s">
         <v>629</v>
       </c>
-      <c r="E15" s="48" t="s">
+      <c r="E15" s="43" t="s">
         <v>549</v>
       </c>
-      <c r="F15" s="48" t="s">
+      <c r="F15" s="43" t="s">
         <v>545</v>
       </c>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48" t="s">
+      <c r="G15" s="43"/>
+      <c r="H15" s="43" t="s">
         <v>546</v>
       </c>
       <c r="I15" s="4" t="s">
@@ -3783,7 +3878,7 @@
       <c r="C20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="46" t="s">
+      <c r="D20" s="41" t="s">
         <v>673</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -3810,7 +3905,7 @@
       <c r="C21" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="D21" s="47" t="s">
+      <c r="D21" s="42" t="s">
         <v>634</v>
       </c>
       <c r="E21" s="4"/>
@@ -3856,7 +3951,7 @@
       <c r="C23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="46" t="s">
+      <c r="D23" s="41" t="s">
         <v>536</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -3873,7 +3968,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A24" s="33">
         <v>23</v>
       </c>
@@ -3981,7 +4076,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="50" x14ac:dyDescent="0.35">
       <c r="A28" s="33">
         <v>27</v>
       </c>
@@ -3991,7 +4086,7 @@
       <c r="C28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="46" t="s">
+      <c r="D28" s="41" t="s">
         <v>674</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -4008,7 +4103,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="33">
         <v>28</v>
       </c>
@@ -4018,7 +4113,7 @@
       <c r="C29" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="D29" s="47" t="s">
+      <c r="D29" s="42" t="s">
         <v>639</v>
       </c>
       <c r="E29" s="29"/>
@@ -4027,7 +4122,7 @@
       <c r="H29" s="28"/>
       <c r="I29" s="29"/>
     </row>
-    <row r="30" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="33">
         <v>29</v>
       </c>
@@ -4037,7 +4132,7 @@
       <c r="C30" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="D30" s="47" t="s">
+      <c r="D30" s="42" t="s">
         <v>640</v>
       </c>
       <c r="E30" s="29"/>
@@ -4046,7 +4141,7 @@
       <c r="H30" s="28"/>
       <c r="I30" s="29"/>
     </row>
-    <row r="31" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="33">
         <v>30</v>
       </c>
@@ -4056,7 +4151,7 @@
       <c r="C31" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="D31" s="47" t="s">
+      <c r="D31" s="42" t="s">
         <v>641</v>
       </c>
       <c r="E31" s="29"/>
@@ -4065,7 +4160,7 @@
       <c r="H31" s="28"/>
       <c r="I31" s="29"/>
     </row>
-    <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="33">
         <v>31</v>
       </c>
@@ -4075,7 +4170,7 @@
       <c r="C32" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="D32" s="47" t="s">
+      <c r="D32" s="42" t="s">
         <v>565</v>
       </c>
       <c r="E32" s="29"/>
@@ -4084,7 +4179,7 @@
       <c r="H32" s="28"/>
       <c r="I32" s="29"/>
     </row>
-    <row r="33" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="33">
         <v>32</v>
       </c>
@@ -4094,7 +4189,7 @@
       <c r="C33" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="D33" s="47" t="s">
+      <c r="D33" s="42" t="s">
         <v>642</v>
       </c>
       <c r="E33" s="29"/>
@@ -4103,7 +4198,7 @@
       <c r="H33" s="28"/>
       <c r="I33" s="29"/>
     </row>
-    <row r="34" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="33">
         <v>33</v>
       </c>
@@ -4113,7 +4208,7 @@
       <c r="C34" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="D34" s="47" t="s">
+      <c r="D34" s="42" t="s">
         <v>557</v>
       </c>
       <c r="E34" s="29"/>
@@ -4122,7 +4217,7 @@
       <c r="H34" s="28"/>
       <c r="I34" s="29"/>
     </row>
-    <row r="35" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="33">
         <v>34</v>
       </c>
@@ -4132,7 +4227,7 @@
       <c r="C35" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="D35" s="47" t="s">
+      <c r="D35" s="42" t="s">
         <v>556</v>
       </c>
       <c r="E35" s="29"/>
@@ -4141,65 +4236,45 @@
       <c r="H35" s="28"/>
       <c r="I35" s="29"/>
     </row>
-    <row r="36" spans="1:9" s="50" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="33">
         <v>35</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="56" t="s">
         <v>674</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D36" s="31" t="s">
-        <v>643</v>
-      </c>
-      <c r="E36" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G36" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="H36" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="I36" s="29" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" s="50" customFormat="1" ht="25" x14ac:dyDescent="0.35">
+      <c r="C36" s="56" t="s">
+        <v>669</v>
+      </c>
+      <c r="D36" s="57" t="s">
+        <v>574</v>
+      </c>
+      <c r="E36" s="29"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="29"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="33">
         <v>36</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="56" t="s">
         <v>674</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D37" s="31" t="s">
-        <v>644</v>
-      </c>
-      <c r="E37" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G37" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="56" t="s">
+        <v>669</v>
+      </c>
+      <c r="D37" s="57" t="s">
+        <v>835</v>
+      </c>
+      <c r="E37" s="29"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="29"/>
+    </row>
+    <row r="38" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
       <c r="A38" s="33">
         <v>37</v>
       </c>
@@ -4210,23 +4285,25 @@
         <v>96</v>
       </c>
       <c r="D38" s="31" t="s">
-        <v>645</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>48</v>
+        <v>643</v>
+      </c>
+      <c r="E38" s="44" t="s">
+        <v>46</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="50" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="G38" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="H38" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="I38" s="29" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
       <c r="A39" s="33">
         <v>38</v>
       </c>
@@ -4237,362 +4314,372 @@
         <v>96</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>825</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>835</v>
+        <v>644</v>
+      </c>
+      <c r="E39" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G39" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="H39" s="43" t="s">
+        <v>39</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="62.5" x14ac:dyDescent="0.35">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
       <c r="A40" s="33">
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="46" t="s">
-        <v>675</v>
+        <v>96</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>645</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="G40" s="4"/>
-      <c r="H40" s="3" t="s">
-        <v>28</v>
+      <c r="H40" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="62.5" x14ac:dyDescent="0.35">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="45" customFormat="1" ht="112.5" x14ac:dyDescent="0.35">
       <c r="A41" s="33">
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>646</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>757</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>668</v>
-      </c>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4" t="s">
-        <v>713</v>
+        <v>825</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>842</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
       <c r="A42" s="33">
         <v>41</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>675</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="B42" s="61" t="s">
+        <v>674</v>
+      </c>
+      <c r="C42" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="D42" s="31" t="s">
-        <v>647</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="I42" s="1" t="s">
+      <c r="D42" s="58" t="s">
+        <v>836</v>
+      </c>
+      <c r="E42" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="59" t="s">
+        <v>837</v>
+      </c>
+      <c r="G42" s="60"/>
+      <c r="H42" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="I42" s="56" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" s="45" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" s="33">
         <v>42</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>676</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43" s="46" t="s">
-        <v>676</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I43" s="1" t="s">
+      <c r="B43" s="61" t="s">
+        <v>674</v>
+      </c>
+      <c r="C43" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="58" t="s">
+        <v>839</v>
+      </c>
+      <c r="E43" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="G43" s="60"/>
+      <c r="H43" s="59" t="s">
+        <v>841</v>
+      </c>
+      <c r="I43" s="56" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="75" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A44" s="33">
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D44" s="31" t="s">
-        <v>646</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>759</v>
+        <v>4</v>
+      </c>
+      <c r="D44" s="41" t="s">
+        <v>675</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>667</v>
+        <v>27</v>
       </c>
       <c r="G44" s="4"/>
-      <c r="H44" s="4" t="s">
-        <v>714</v>
+      <c r="H44" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="75" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A45" s="33">
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>34</v>
+        <v>757</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>103</v>
+        <v>668</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4" t="s">
-        <v>33</v>
+        <v>713</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" s="50" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A46" s="33">
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46" s="46" t="s">
-        <v>677</v>
+        <v>96</v>
+      </c>
+      <c r="D46" s="31" t="s">
+        <v>647</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4" t="s">
-        <v>663</v>
+        <v>126</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="50" customFormat="1" ht="25" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A47" s="33">
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D47" s="31" t="s">
-        <v>559</v>
+        <v>4</v>
+      </c>
+      <c r="D47" s="41" t="s">
+        <v>676</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>760</v>
+        <v>34</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="I47" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="I47" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" ht="75" x14ac:dyDescent="0.35">
       <c r="A48" s="33">
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="46" t="s">
-        <v>678</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>22</v>
+        <v>96</v>
+      </c>
+      <c r="D48" s="31" t="s">
+        <v>646</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>759</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>20</v>
+        <v>667</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4" t="s">
-        <v>21</v>
+        <v>714</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="75" x14ac:dyDescent="0.35">
       <c r="A49" s="33">
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="D49" s="47" t="s">
-        <v>649</v>
-      </c>
-      <c r="E49" s="1"/>
-      <c r="F49" s="4"/>
+        <v>96</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>648</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H49" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
       <c r="A50" s="33">
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D50" s="31" t="s">
-        <v>650</v>
+        <v>4</v>
+      </c>
+      <c r="D50" s="41" t="s">
+        <v>677</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4" t="s">
-        <v>125</v>
+        <v>663</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
       <c r="A51" s="33">
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>651</v>
+        <v>559</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="94.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+      <c r="I51" s="43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A52" s="33">
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D52" s="46" t="s">
-        <v>679</v>
+      <c r="D52" s="41" t="s">
+        <v>678</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G52" s="4"/>
-      <c r="H52" s="3" t="s">
-        <v>24</v>
+      <c r="H52" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>95</v>
@@ -4603,50 +4690,42 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D53" s="30" t="s">
-        <v>652</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>761</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G53" s="3"/>
-      <c r="H53" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="I53" s="48" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+        <v>669</v>
+      </c>
+      <c r="D53" s="42" t="s">
+        <v>649</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="33">
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D54" s="31" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>762</v>
+        <v>124</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>95</v>
@@ -4657,50 +4736,50 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D55" s="31" t="s">
-        <v>654</v>
-      </c>
-      <c r="E55" s="48" t="s">
-        <v>763</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+        <v>651</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="87.5" x14ac:dyDescent="0.35">
       <c r="A56" s="33">
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D56" s="46" t="s">
-        <v>680</v>
+      <c r="D56" s="41" t="s">
+        <v>679</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>764</v>
+        <v>25</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="G56" s="4"/>
-      <c r="H56" s="4" t="s">
-        <v>665</v>
+      <c r="H56" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>95</v>
@@ -4711,80 +4790,104 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="D57" s="47" t="s">
-        <v>655</v>
-      </c>
-      <c r="E57" s="1"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+      <c r="D57" s="30" t="s">
+        <v>652</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G57" s="3"/>
+      <c r="H57" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I57" s="43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A58" s="33">
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="D58" s="47" t="s">
-        <v>573</v>
-      </c>
-      <c r="E58" s="1"/>
-      <c r="F58" s="4"/>
+        <v>96</v>
+      </c>
+      <c r="D58" s="31" t="s">
+        <v>653</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="G58" s="4"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H58" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A59" s="33">
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="D59" s="47" t="s">
-        <v>587</v>
-      </c>
-      <c r="E59" s="1"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+      <c r="D59" s="31" t="s">
+        <v>654</v>
+      </c>
+      <c r="E59" s="43" t="s">
+        <v>763</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A60" s="33">
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D60" s="46" t="s">
-        <v>681</v>
+      <c r="D60" s="41" t="s">
+        <v>680</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>55</v>
+        <v>764</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4" t="s">
-        <v>54</v>
+        <v>665</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>95</v>
@@ -4795,83 +4898,59 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D61" s="31" t="s">
-        <v>656</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>107</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="D61" s="42" t="s">
+        <v>655</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="4"/>
       <c r="G61" s="4"/>
-      <c r="H61" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="H61" s="4"/>
+      <c r="I61" s="1"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="33">
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D62" s="31" t="s">
-        <v>657</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>106</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="D62" s="42" t="s">
+        <v>573</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="4"/>
       <c r="G62" s="4"/>
-      <c r="H62" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="H62" s="3"/>
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="33">
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D63" s="31" t="s">
-        <v>658</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>765</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>524</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="D63" s="42" t="s">
+        <v>587</v>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="4"/>
       <c r="G63" s="4"/>
-      <c r="H63" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="H63" s="4"/>
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="1:9" ht="50" x14ac:dyDescent="0.35">
       <c r="A64" s="33">
         <v>63</v>
       </c>
@@ -4879,26 +4958,26 @@
         <v>681</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D64" s="31" t="s">
-        <v>659</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>766</v>
+        <v>4</v>
+      </c>
+      <c r="D64" s="41" t="s">
+        <v>681</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>149</v>
+        <v>53</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="I64" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="I64" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="33">
         <v>64</v>
       </c>
@@ -4909,123 +4988,131 @@
         <v>96</v>
       </c>
       <c r="D65" s="31" t="s">
-        <v>660</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>767</v>
+        <v>656</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="G65" s="4"/>
-      <c r="H65" s="3" t="s">
-        <v>56</v>
+      <c r="H65" s="4" t="s">
+        <v>511</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="33">
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D66" s="46" t="s">
-        <v>682</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>64</v>
+        <v>96</v>
+      </c>
+      <c r="D66" s="31" t="s">
+        <v>657</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="G66" s="4"/>
-      <c r="H66" s="3" t="s">
-        <v>63</v>
+      <c r="H66" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A67" s="33">
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="D67" s="47" t="s">
-        <v>574</v>
-      </c>
-      <c r="E67" s="1"/>
-      <c r="F67" s="4"/>
+        <v>96</v>
+      </c>
+      <c r="D67" s="31" t="s">
+        <v>658</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>524</v>
+      </c>
       <c r="G67" s="4"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+      <c r="H67" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A68" s="33">
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D68" s="31" t="s">
-        <v>568</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>66</v>
+        <v>659</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>766</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="G68" s="4"/>
-      <c r="H68" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="I68" s="1" t="s">
+      <c r="H68" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I68" s="43" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A69" s="33">
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D69" s="31" t="s">
-        <v>569</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>768</v>
+        <v>660</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>767</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="G69" s="4"/>
-      <c r="H69" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="I69" s="48" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+      <c r="H69" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A70" s="33">
         <v>69</v>
       </c>
@@ -5033,26 +5120,26 @@
         <v>682</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D70" s="31" t="s">
-        <v>570</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>769</v>
+        <v>4</v>
+      </c>
+      <c r="D70" s="41" t="s">
+        <v>682</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G70" s="4"/>
-      <c r="H70" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H70" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="33">
         <v>70</v>
       </c>
@@ -5060,26 +5147,18 @@
         <v>682</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D71" s="31" t="s">
-        <v>571</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>770</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>585</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="D71" s="42" t="s">
+        <v>574</v>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="4"/>
       <c r="G71" s="4"/>
-      <c r="H71" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="I71" s="48" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H71" s="3"/>
+      <c r="I71" s="1"/>
+    </row>
+    <row r="72" spans="1:9" ht="50" x14ac:dyDescent="0.35">
       <c r="A72" s="33">
         <v>71</v>
       </c>
@@ -5090,115 +5169,131 @@
         <v>96</v>
       </c>
       <c r="D72" s="31" t="s">
-        <v>572</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>771</v>
+        <v>568</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>586</v>
+        <v>65</v>
       </c>
       <c r="G72" s="4"/>
-      <c r="H72" s="4" t="s">
-        <v>736</v>
-      </c>
-      <c r="I72" s="48" t="s">
+      <c r="H72" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="I72" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="33">
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D73" s="46" t="s">
-        <v>683</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>51</v>
+        <v>96</v>
+      </c>
+      <c r="D73" s="31" t="s">
+        <v>569</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>768</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I73" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I73" s="43" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" ht="50" x14ac:dyDescent="0.35">
       <c r="A74" s="33">
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="D74" s="47" t="s">
-        <v>575</v>
-      </c>
-      <c r="E74" s="1"/>
-      <c r="F74" s="4"/>
+        <v>96</v>
+      </c>
+      <c r="D74" s="31" t="s">
+        <v>570</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="1"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H74" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A75" s="33">
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="D75" s="47" t="s">
-        <v>576</v>
-      </c>
-      <c r="E75" s="1"/>
-      <c r="F75" s="4"/>
+        <v>96</v>
+      </c>
+      <c r="D75" s="31" t="s">
+        <v>571</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>585</v>
+      </c>
       <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="1"/>
+      <c r="H75" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="I75" s="43" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="76" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A76" s="33">
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D76" s="31" t="s">
-        <v>588</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>772</v>
+        <v>572</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>771</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>52</v>
+        <v>586</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="I76" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="I76" s="43" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" ht="50" x14ac:dyDescent="0.35">
       <c r="A77" s="33">
         <v>76</v>
       </c>
@@ -5206,253 +5301,253 @@
         <v>683</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D77" s="31" t="s">
-        <v>589</v>
+        <v>4</v>
+      </c>
+      <c r="D77" s="41" t="s">
+        <v>683</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>773</v>
+        <v>51</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="4" t="s">
-        <v>136</v>
+        <v>50</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A78" s="51">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A78" s="33">
         <v>77</v>
       </c>
-      <c r="B78" s="52" t="s">
+      <c r="B78" s="4" t="s">
         <v>683</v>
       </c>
-      <c r="C78" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="D78" s="54" t="s">
+      <c r="C78" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="D78" s="42" t="s">
         <v>575</v>
       </c>
-      <c r="E78" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="F78" s="55" t="s">
-        <v>829</v>
-      </c>
-      <c r="G78" s="55"/>
-      <c r="H78" s="55" t="s">
-        <v>830</v>
-      </c>
-      <c r="I78" s="53" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A79" s="51">
+      <c r="E78" s="1"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="1"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79" s="33">
         <v>78</v>
       </c>
-      <c r="B79" s="52" t="s">
+      <c r="B79" s="4" t="s">
         <v>683</v>
       </c>
-      <c r="C79" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="D79" s="54" t="s">
+      <c r="C79" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="D79" s="42" t="s">
         <v>576</v>
       </c>
-      <c r="E79" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="F79" s="55" t="s">
-        <v>831</v>
-      </c>
-      <c r="G79" s="55"/>
-      <c r="H79" s="55" t="s">
-        <v>832</v>
-      </c>
-      <c r="I79" s="53" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E79" s="1"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="1"/>
+    </row>
+    <row r="80" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A80" s="33">
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D80" s="46" t="s">
-        <v>684</v>
+        <v>96</v>
+      </c>
+      <c r="D80" s="31" t="s">
+        <v>588</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>82</v>
+        <v>772</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="4" t="s">
-        <v>81</v>
+        <v>513</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A81" s="33">
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D81" s="31" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A82" s="33">
         <v>81</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>685</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D82" s="46" t="s">
-        <v>685</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G82" s="4"/>
-      <c r="H82" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="I82" s="1" t="s">
+      <c r="B82" s="46" t="s">
+        <v>683</v>
+      </c>
+      <c r="C82" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="D82" s="48" t="s">
+        <v>575</v>
+      </c>
+      <c r="E82" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F82" s="49" t="s">
+        <v>829</v>
+      </c>
+      <c r="G82" s="49"/>
+      <c r="H82" s="49" t="s">
+        <v>830</v>
+      </c>
+      <c r="I82" s="47" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A83" s="33">
         <v>82</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>685</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="D83" s="47" t="s">
-        <v>575</v>
-      </c>
-      <c r="E83" s="1"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="1"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B83" s="46" t="s">
+        <v>683</v>
+      </c>
+      <c r="C83" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="D83" s="48" t="s">
+        <v>576</v>
+      </c>
+      <c r="E83" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F83" s="49" t="s">
+        <v>831</v>
+      </c>
+      <c r="G83" s="49"/>
+      <c r="H83" s="49" t="s">
+        <v>832</v>
+      </c>
+      <c r="I83" s="47" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A84" s="33">
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84" s="41" t="s">
+        <v>684</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A85" s="33">
+        <v>84</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D85" s="31" t="s">
+        <v>590</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A86" s="33">
+        <v>85</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="D84" s="47" t="s">
-        <v>576</v>
-      </c>
-      <c r="E84" s="1"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="1"/>
-    </row>
-    <row r="85" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A85" s="51">
-        <v>84</v>
-      </c>
-      <c r="B85" s="52" t="s">
+      <c r="C86" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" s="41" t="s">
         <v>685</v>
       </c>
-      <c r="C85" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="D85" s="54" t="s">
-        <v>575</v>
-      </c>
-      <c r="E85" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="F85" s="55" t="s">
-        <v>829</v>
-      </c>
-      <c r="G85" s="55"/>
-      <c r="H85" s="55" t="s">
-        <v>830</v>
-      </c>
-      <c r="I85" s="53" t="s">
+      <c r="E86" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G86" s="4"/>
+      <c r="H86" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="I86" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A86" s="51">
-        <v>85</v>
-      </c>
-      <c r="B86" s="52" t="s">
-        <v>685</v>
-      </c>
-      <c r="C86" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="D86" s="54" t="s">
-        <v>576</v>
-      </c>
-      <c r="E86" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="F86" s="55" t="s">
-        <v>831</v>
-      </c>
-      <c r="G86" s="55"/>
-      <c r="H86" s="55" t="s">
-        <v>832</v>
-      </c>
-      <c r="I86" s="53" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="33">
         <v>86</v>
       </c>
@@ -5460,26 +5555,18 @@
         <v>685</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D87" s="31" t="s">
-        <v>577</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>121</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="D87" s="42" t="s">
+        <v>575</v>
+      </c>
+      <c r="E87" s="1"/>
+      <c r="F87" s="4"/>
       <c r="G87" s="4"/>
-      <c r="H87" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H87" s="3"/>
+      <c r="I87" s="1"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="33">
         <v>87</v>
       </c>
@@ -5487,80 +5574,72 @@
         <v>685</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D88" s="31" t="s">
-        <v>578</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>775</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>122</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="D88" s="42" t="s">
+        <v>576</v>
+      </c>
+      <c r="E88" s="1"/>
+      <c r="F88" s="4"/>
       <c r="G88" s="4"/>
-      <c r="H88" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I88" s="48" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H88" s="3"/>
+      <c r="I88" s="1"/>
+    </row>
+    <row r="89" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A89" s="33">
         <v>88</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="46" t="s">
         <v>685</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="D89" s="31" t="s">
-        <v>582</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>776</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="I89" s="48" t="s">
+      <c r="D89" s="48" t="s">
+        <v>575</v>
+      </c>
+      <c r="E89" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F89" s="49" t="s">
+        <v>829</v>
+      </c>
+      <c r="G89" s="49"/>
+      <c r="H89" s="49" t="s">
+        <v>830</v>
+      </c>
+      <c r="I89" s="47" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A90" s="33">
         <v>89</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="46" t="s">
         <v>685</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="D90" s="31" t="s">
-        <v>583</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>777</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>593</v>
-      </c>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4" t="s">
-        <v>738</v>
-      </c>
-      <c r="I90" s="48" t="s">
+      <c r="D90" s="48" t="s">
+        <v>576</v>
+      </c>
+      <c r="E90" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F90" s="49" t="s">
+        <v>831</v>
+      </c>
+      <c r="G90" s="49"/>
+      <c r="H90" s="49" t="s">
+        <v>832</v>
+      </c>
+      <c r="I90" s="47" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A91" s="33">
         <v>90</v>
       </c>
@@ -5571,20 +5650,20 @@
         <v>96</v>
       </c>
       <c r="D91" s="31" t="s">
-        <v>579</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>778</v>
+        <v>577</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="G91" s="4"/>
-      <c r="H91" s="3" t="s">
-        <v>70</v>
+      <c r="H91" s="4" t="s">
+        <v>514</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>808</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -5598,20 +5677,20 @@
         <v>96</v>
       </c>
       <c r="D92" s="31" t="s">
-        <v>580</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>779</v>
+        <v>578</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>775</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>724</v>
+        <v>123</v>
+      </c>
+      <c r="I92" s="43" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -5625,115 +5704,131 @@
         <v>96</v>
       </c>
       <c r="D93" s="31" t="s">
-        <v>581</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>780</v>
+        <v>582</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>776</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>74</v>
+        <v>592</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+        <v>737</v>
+      </c>
+      <c r="I93" s="43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A94" s="33">
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D94" s="46" t="s">
-        <v>686</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
+      </c>
+      <c r="D94" s="31" t="s">
+        <v>583</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>777</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>60</v>
+        <v>593</v>
       </c>
       <c r="G94" s="4"/>
-      <c r="H94" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I94" s="1" t="s">
+      <c r="H94" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="I94" s="43" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A95" s="33">
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="D95" s="47" t="s">
-        <v>595</v>
-      </c>
-      <c r="E95" s="1"/>
-      <c r="F95" s="4"/>
+        <v>96</v>
+      </c>
+      <c r="D95" s="31" t="s">
+        <v>579</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="G95" s="4"/>
-      <c r="H95" s="3"/>
-      <c r="I95" s="1"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H95" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A96" s="33">
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="D96" s="47" t="s">
-        <v>596</v>
-      </c>
-      <c r="E96" s="1"/>
-      <c r="F96" s="4"/>
+        <v>96</v>
+      </c>
+      <c r="D96" s="31" t="s">
+        <v>580</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="G96" s="4"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="1"/>
+      <c r="H96" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>724</v>
+      </c>
     </row>
     <row r="97" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A97" s="33">
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D97" s="31" t="s">
-        <v>597</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>781</v>
+        <v>581</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>780</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>605</v>
+        <v>74</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="4" t="s">
-        <v>717</v>
-      </c>
-      <c r="I97" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A98" s="33">
         <v>97</v>
       </c>
@@ -5741,26 +5836,26 @@
         <v>686</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D98" s="31" t="s">
-        <v>598</v>
+        <v>4</v>
+      </c>
+      <c r="D98" s="41" t="s">
+        <v>686</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>553</v>
+        <v>89</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>554</v>
+        <v>60</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="I98" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I98" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="33">
         <v>98</v>
       </c>
@@ -5768,26 +5863,18 @@
         <v>686</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D99" s="31" t="s">
-        <v>599</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>782</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>601</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="D99" s="42" t="s">
+        <v>595</v>
+      </c>
+      <c r="E99" s="1"/>
+      <c r="F99" s="4"/>
       <c r="G99" s="4"/>
-      <c r="H99" s="4" t="s">
-        <v>739</v>
-      </c>
-      <c r="I99" s="48" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="H99" s="3"/>
+      <c r="I99" s="1"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="33">
         <v>99</v>
       </c>
@@ -5795,49 +5882,41 @@
         <v>686</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D100" s="31" t="s">
-        <v>600</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>783</v>
-      </c>
-      <c r="F100" s="4" t="s">
-        <v>602</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="D100" s="42" t="s">
+        <v>596</v>
+      </c>
+      <c r="E100" s="1"/>
+      <c r="F100" s="4"/>
       <c r="G100" s="4"/>
-      <c r="H100" s="4" t="s">
-        <v>740</v>
-      </c>
-      <c r="I100" s="48" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H100" s="3"/>
+      <c r="I100" s="1"/>
+    </row>
+    <row r="101" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A101" s="33">
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D101" s="46" t="s">
-        <v>687</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>784</v>
+        <v>96</v>
+      </c>
+      <c r="D101" s="31" t="s">
+        <v>597</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>781</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>76</v>
+        <v>605</v>
       </c>
       <c r="G101" s="4"/>
-      <c r="H101" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I101" s="1" t="s">
+      <c r="H101" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="I101" s="4" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5846,25 +5925,25 @@
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D102" s="31" t="s">
-        <v>603</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>785</v>
+        <v>598</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>553</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>152</v>
+        <v>554</v>
       </c>
       <c r="G102" s="4"/>
-      <c r="H102" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="I102" s="48" t="s">
+      <c r="H102" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="I102" s="4" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5873,25 +5952,25 @@
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D103" s="31" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>153</v>
+        <v>601</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="I103" s="48" t="s">
+        <v>739</v>
+      </c>
+      <c r="I103" s="43" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5900,302 +5979,318 @@
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D104" s="31" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>666</v>
+        <v>602</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="4" t="s">
-        <v>734</v>
-      </c>
-      <c r="I104" s="48" t="s">
+        <v>740</v>
+      </c>
+      <c r="I104" s="43" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="33">
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>90</v>
+        <v>687</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D105" s="46" t="s">
-        <v>90</v>
+      <c r="D105" s="41" t="s">
+        <v>687</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>79</v>
+        <v>784</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="G105" s="4"/>
-      <c r="H105" s="4" t="s">
-        <v>78</v>
+      <c r="H105" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A106" s="33">
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>90</v>
+        <v>687</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D106" s="31" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="4" t="s">
-        <v>715</v>
-      </c>
-      <c r="I106" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="I106" s="43" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A107" s="33">
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>90</v>
+        <v>687</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D107" s="31" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>141</v>
+        <v>786</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="G107" s="4"/>
       <c r="H107" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+      <c r="I107" s="43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A108" s="33">
         <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>611</v>
+        <v>687</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D108" s="46" t="s">
-        <v>611</v>
+        <v>96</v>
+      </c>
+      <c r="D108" s="31" t="s">
+        <v>606</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>610</v>
+        <v>787</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>611</v>
+        <v>666</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="I108" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="I108" s="43" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A109" s="33">
         <v>108</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>611</v>
+        <v>90</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="D109" s="47" t="s">
-        <v>612</v>
-      </c>
-      <c r="E109" s="4"/>
-      <c r="F109" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="D109" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="G109" s="4"/>
-      <c r="H109" s="4"/>
-      <c r="I109" s="4"/>
+      <c r="H109" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="33">
         <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>611</v>
+        <v>90</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D110" s="31" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="I110" s="48" t="s">
+        <v>715</v>
+      </c>
+      <c r="I110" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" ht="50" x14ac:dyDescent="0.35">
       <c r="A111" s="33">
         <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>688</v>
-      </c>
-      <c r="C111" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="D111" s="46" t="s">
-        <v>688</v>
+        <v>90</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D111" s="31" t="s">
+        <v>608</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>790</v>
+        <v>141</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G111" s="4"/>
       <c r="H111" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="50" x14ac:dyDescent="0.35">
       <c r="A112" s="33">
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>688</v>
+        <v>611</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="D112" s="47" t="s">
-        <v>591</v>
-      </c>
-      <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="D112" s="41" t="s">
+        <v>611</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>611</v>
+      </c>
       <c r="G112" s="4"/>
-      <c r="H112" s="4"/>
-      <c r="I112" s="48"/>
+      <c r="H112" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="33">
         <v>112</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>688</v>
+        <v>611</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="D113" s="47" t="s">
-        <v>594</v>
+      <c r="D113" s="42" t="s">
+        <v>612</v>
       </c>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
-      <c r="I113" s="48"/>
+      <c r="I113" s="4"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="33">
         <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>688</v>
+        <v>611</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D114" s="30" t="s">
-        <v>614</v>
+      <c r="D114" s="31" t="s">
+        <v>613</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>790</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>111</v>
+        <v>789</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="G114" s="4"/>
       <c r="H114" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="I114" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="I114" s="43" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="33">
         <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D115" s="30" t="s">
-        <v>615</v>
+      <c r="C115" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D115" s="41" t="s">
+        <v>688</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>617</v>
+        <v>111</v>
       </c>
       <c r="G115" s="4"/>
       <c r="H115" s="4" t="s">
-        <v>741</v>
-      </c>
-      <c r="I115" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="I115" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="33">
         <v>115</v>
       </c>
@@ -6203,110 +6298,118 @@
         <v>688</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D116" s="30" t="s">
-        <v>616</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>792</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>618</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="D116" s="42" t="s">
+        <v>591</v>
+      </c>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
       <c r="G116" s="4"/>
-      <c r="H116" s="4" t="s">
-        <v>742</v>
-      </c>
-      <c r="I116" s="48" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="H116" s="4"/>
+      <c r="I116" s="43"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="33">
         <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>83</v>
+        <v>688</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D117" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="F117" s="4" t="s">
-        <v>83</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="D117" s="42" t="s">
+        <v>594</v>
+      </c>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
       <c r="G117" s="4"/>
-      <c r="H117" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I117" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="H117" s="4"/>
+      <c r="I117" s="43"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="33">
         <v>117</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>83</v>
+        <v>688</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="D118" s="47" t="s">
-        <v>558</v>
-      </c>
-      <c r="E118" s="1"/>
-      <c r="F118" s="4"/>
+        <v>96</v>
+      </c>
+      <c r="D118" s="30" t="s">
+        <v>614</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="G118" s="4"/>
-      <c r="H118" s="4"/>
-      <c r="I118" s="1"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H118" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I118" s="43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A119" s="33">
         <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>83</v>
+        <v>688</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="D119" s="47" t="s">
-        <v>560</v>
-      </c>
-      <c r="E119" s="1"/>
-      <c r="F119" s="4"/>
+        <v>96</v>
+      </c>
+      <c r="D119" s="30" t="s">
+        <v>615</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>617</v>
+      </c>
       <c r="G119" s="4"/>
-      <c r="H119" s="4"/>
-      <c r="I119" s="1"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H119" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="I119" s="43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A120" s="33">
         <v>119</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>83</v>
+        <v>688</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="D120" s="47" t="s">
-        <v>567</v>
-      </c>
-      <c r="E120" s="1"/>
-      <c r="F120" s="4"/>
+        <v>96</v>
+      </c>
+      <c r="D120" s="30" t="s">
+        <v>616</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>618</v>
+      </c>
       <c r="G120" s="4"/>
-      <c r="H120" s="4"/>
-      <c r="I120" s="1"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H120" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="I120" s="43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A121" s="33">
         <v>120</v>
       </c>
@@ -6314,18 +6417,26 @@
         <v>83</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="D121" s="47" t="s">
-        <v>566</v>
-      </c>
-      <c r="E121" s="1"/>
-      <c r="F121" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="D121" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="G121" s="4"/>
-      <c r="H121" s="4"/>
-      <c r="I121" s="1"/>
-    </row>
-    <row r="122" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="H121" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="33">
         <v>121</v>
       </c>
@@ -6333,296 +6444,264 @@
         <v>83</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D122" s="31" t="s">
-        <v>564</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="F122" s="4" t="s">
-        <v>85</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="D122" s="42" t="s">
+        <v>558</v>
+      </c>
+      <c r="E122" s="1"/>
+      <c r="F122" s="4"/>
       <c r="G122" s="4"/>
-      <c r="H122" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="I122" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="75" x14ac:dyDescent="0.35">
+      <c r="H122" s="4"/>
+      <c r="I122" s="1"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="33">
         <v>122</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>689</v>
+        <v>83</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D123" s="46" t="s">
-        <v>689</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="F123" s="4" t="s">
-        <v>87</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="D123" s="42" t="s">
+        <v>560</v>
+      </c>
+      <c r="E123" s="1"/>
+      <c r="F123" s="4"/>
       <c r="G123" s="4"/>
-      <c r="H123" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="I123" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H123" s="4"/>
+      <c r="I123" s="1"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="33">
         <v>123</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>689</v>
+        <v>83</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D124" s="31" t="s">
-        <v>559</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="F124" s="4" t="s">
-        <v>148</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="D124" s="42" t="s">
+        <v>567</v>
+      </c>
+      <c r="E124" s="1"/>
+      <c r="F124" s="4"/>
       <c r="G124" s="4"/>
-      <c r="H124" s="4" t="s">
-        <v>664</v>
-      </c>
-      <c r="I124" s="48" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+      <c r="H124" s="4"/>
+      <c r="I124" s="1"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="33">
         <v>124</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>690</v>
+        <v>83</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D125" s="46" t="s">
-        <v>690</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="F125" s="4" t="s">
-        <v>32</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="D125" s="42" t="s">
+        <v>566</v>
+      </c>
+      <c r="E125" s="1"/>
+      <c r="F125" s="4"/>
       <c r="G125" s="4"/>
-      <c r="H125" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="I125" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H125" s="4"/>
+      <c r="I125" s="1"/>
+    </row>
+    <row r="126" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A126" s="33">
         <v>125</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>690</v>
+        <v>83</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D126" s="31" t="s">
-        <v>561</v>
-      </c>
-      <c r="E126" s="4" t="s">
-        <v>797</v>
+        <v>564</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>794</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="G126" s="4"/>
       <c r="H126" s="4" t="s">
-        <v>515</v>
-      </c>
-      <c r="I126" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="I126" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" ht="75" x14ac:dyDescent="0.35">
       <c r="A127" s="33">
         <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D127" s="31" t="s">
-        <v>562</v>
-      </c>
-      <c r="E127" s="4" t="s">
-        <v>798</v>
+        <v>4</v>
+      </c>
+      <c r="D127" s="41" t="s">
+        <v>689</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>795</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="G127" s="4"/>
       <c r="H127" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="I127" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="I127" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A128" s="33">
         <v>127</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D128" s="56" t="s">
-        <v>563</v>
-      </c>
-      <c r="E128" s="33" t="s">
-        <v>799</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="G128" s="33"/>
+      <c r="D128" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G128" s="4"/>
       <c r="H128" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="I128" s="48" t="s">
+        <v>664</v>
+      </c>
+      <c r="I128" s="43" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" ht="50" x14ac:dyDescent="0.35">
       <c r="A129" s="33">
         <v>128</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D129" s="46" t="s">
-        <v>693</v>
-      </c>
-      <c r="E129" s="4" t="s">
-        <v>699</v>
+      <c r="D129" s="41" t="s">
+        <v>690</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>796</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>693</v>
-      </c>
-      <c r="G129" s="35"/>
+        <v>32</v>
+      </c>
+      <c r="G129" s="4"/>
       <c r="H129" s="4" t="s">
-        <v>698</v>
-      </c>
-      <c r="I129" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="I129" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A130" s="33">
         <v>129</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D130" s="31" t="s">
-        <v>694</v>
+        <v>561</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>728</v>
-      </c>
-      <c r="G130" s="35"/>
+        <v>114</v>
+      </c>
+      <c r="G130" s="4"/>
       <c r="H130" s="4" t="s">
-        <v>729</v>
-      </c>
-      <c r="I130" s="48" t="s">
+        <v>515</v>
+      </c>
+      <c r="I130" s="43" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A131" s="33">
         <v>130</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D131" s="31" t="s">
-        <v>695</v>
+        <v>562</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>727</v>
+        <v>115</v>
       </c>
       <c r="G131" s="4"/>
       <c r="H131" s="4" t="s">
-        <v>730</v>
-      </c>
-      <c r="I131" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="I131" s="43" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A132" s="33">
         <v>131</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D132" s="31" t="s">
-        <v>696</v>
-      </c>
-      <c r="E132" s="4" t="s">
-        <v>802</v>
-      </c>
-      <c r="F132" s="4" t="s">
-        <v>700</v>
-      </c>
-      <c r="G132" s="4"/>
+      <c r="D132" s="50" t="s">
+        <v>563</v>
+      </c>
+      <c r="E132" s="33" t="s">
+        <v>799</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="G132" s="33"/>
       <c r="H132" s="4" t="s">
-        <v>731</v>
-      </c>
-      <c r="I132" s="48" t="s">
+        <v>733</v>
+      </c>
+      <c r="I132" s="43" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A133" s="33">
         <v>132</v>
       </c>
@@ -6630,27 +6709,200 @@
         <v>693</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D133" s="31" t="s">
-        <v>697</v>
+        <v>4</v>
+      </c>
+      <c r="D133" s="41" t="s">
+        <v>693</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>803</v>
+        <v>699</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>716</v>
+        <v>693</v>
       </c>
       <c r="G133" s="35"/>
       <c r="H133" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="I133" s="43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A134" s="33">
+        <v>133</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D134" s="31" t="s">
+        <v>694</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="G134" s="35"/>
+      <c r="H134" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="I134" s="43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A135" s="33">
+        <v>134</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D135" s="31" t="s">
+        <v>695</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="G135" s="4"/>
+      <c r="H135" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="I135" s="43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A136" s="33">
+        <v>135</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D136" s="31" t="s">
+        <v>696</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="G136" s="4"/>
+      <c r="H136" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="I136" s="43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A137" s="33">
+        <v>136</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D137" s="31" t="s">
+        <v>697</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="G137" s="35"/>
+      <c r="H137" s="4" t="s">
         <v>732</v>
       </c>
-      <c r="I133" s="48" t="s">
+      <c r="I137" s="43" t="s">
         <v>95</v>
       </c>
     </row>
+    <row r="138" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A138" s="33">
+        <v>137</v>
+      </c>
+      <c r="B138" s="56" t="s">
+        <v>844</v>
+      </c>
+      <c r="C138" s="62" t="s">
+        <v>843</v>
+      </c>
+      <c r="D138" s="63" t="s">
+        <v>844</v>
+      </c>
+      <c r="E138" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="F138" s="62" t="s">
+        <v>845</v>
+      </c>
+      <c r="G138" s="62"/>
+      <c r="H138" s="56" t="s">
+        <v>846</v>
+      </c>
+      <c r="I138" s="62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A139" s="33">
+        <v>138</v>
+      </c>
+      <c r="B139" s="56" t="s">
+        <v>844</v>
+      </c>
+      <c r="C139" s="62" t="s">
+        <v>669</v>
+      </c>
+      <c r="D139" s="65" t="s">
+        <v>847</v>
+      </c>
+      <c r="E139" s="64"/>
+      <c r="F139" s="33"/>
+      <c r="G139" s="33"/>
+      <c r="H139" s="33"/>
+      <c r="I139" s="64"/>
+    </row>
+    <row r="140" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A140" s="33">
+        <v>139</v>
+      </c>
+      <c r="B140" s="56" t="s">
+        <v>844</v>
+      </c>
+      <c r="C140" s="62" t="s">
+        <v>669</v>
+      </c>
+      <c r="D140" s="65" t="s">
+        <v>848</v>
+      </c>
+      <c r="E140" s="64"/>
+      <c r="F140" s="33"/>
+      <c r="G140" s="33"/>
+      <c r="H140" s="33"/>
+      <c r="I140" s="64"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I133" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I140" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6678,14 +6930,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="51" t="s">
         <v>508</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
       <c r="I1" s="6"/>
@@ -6696,16 +6948,16 @@
       <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:14" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="53" t="s">
         <v>507</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -6714,11 +6966,11 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:14" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="51" t="s">
         <v>509</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="32"/>
       <c r="E3" s="24"/>
       <c r="F3" s="20"/>
@@ -6742,10 +6994,10 @@
       <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:14" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="B5" s="40"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
       <c r="E5" s="25"/>
@@ -6789,13 +7041,13 @@
       <c r="A7" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="36" t="s">
         <v>671</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="37" t="s">
         <v>624</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="37" t="s">
         <v>702</v>
       </c>
       <c r="E7" s="15" t="s">
@@ -6813,13 +7065,13 @@
       <c r="A8" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="36" t="s">
         <v>671</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="37" t="s">
         <v>624</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="37" t="s">
         <v>702</v>
       </c>
       <c r="E8" s="15" t="s">
@@ -6837,13 +7089,13 @@
       <c r="A9" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="36" t="s">
         <v>671</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="37" t="s">
         <v>624</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="37" t="s">
         <v>702</v>
       </c>
       <c r="E9" s="15" t="s">
@@ -6861,13 +7113,13 @@
       <c r="A10" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="36" t="s">
         <v>671</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="37" t="s">
         <v>624</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="37" t="s">
         <v>702</v>
       </c>
       <c r="E10" s="15" t="s">
@@ -6885,7 +7137,7 @@
       <c r="A11" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="36" t="s">
         <v>671</v>
       </c>
       <c r="C11" s="19" t="s">
@@ -6911,7 +7163,7 @@
       <c r="A12" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="36" t="s">
         <v>671</v>
       </c>
       <c r="C12" s="19" t="s">
@@ -6937,7 +7189,7 @@
       <c r="A13" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="36" t="s">
         <v>671</v>
       </c>
       <c r="C13" s="19" t="s">
@@ -6963,7 +7215,7 @@
       <c r="A14" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="36" t="s">
         <v>671</v>
       </c>
       <c r="C14" s="19" t="s">
@@ -6989,7 +7241,7 @@
       <c r="A15" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="36" t="s">
         <v>671</v>
       </c>
       <c r="C15" s="19" t="s">
@@ -7015,7 +7267,7 @@
       <c r="A16" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="36" t="s">
         <v>671</v>
       </c>
       <c r="C16" s="19" t="s">
@@ -7041,7 +7293,7 @@
       <c r="A17" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="36" t="s">
         <v>671</v>
       </c>
       <c r="C17" s="19" t="s">
@@ -7067,7 +7319,7 @@
       <c r="A18" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="36" t="s">
         <v>671</v>
       </c>
       <c r="C18" s="19" t="s">
@@ -7093,7 +7345,7 @@
       <c r="A19" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="36" t="s">
         <v>671</v>
       </c>
       <c r="C19" s="19" t="s">
@@ -7119,7 +7371,7 @@
       <c r="A20" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="36" t="s">
         <v>671</v>
       </c>
       <c r="C20" s="19" t="s">
@@ -7145,7 +7397,7 @@
       <c r="A21" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="36" t="s">
         <v>671</v>
       </c>
       <c r="C21" s="19" t="s">
@@ -7171,7 +7423,7 @@
       <c r="A22" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="36" t="s">
         <v>671</v>
       </c>
       <c r="C22" s="19" t="s">
@@ -7197,7 +7449,7 @@
       <c r="A23" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="36" t="s">
         <v>671</v>
       </c>
       <c r="C23" s="19" t="s">
@@ -7223,13 +7475,13 @@
       <c r="A24" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="36" t="s">
         <v>672</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="38" t="s">
         <v>633</v>
       </c>
-      <c r="D24" s="43" t="s">
+      <c r="D24" s="38" t="s">
         <v>810</v>
       </c>
       <c r="E24" s="15" t="s">
@@ -7247,13 +7499,13 @@
       <c r="A25" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="36" t="s">
         <v>672</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="38" t="s">
         <v>633</v>
       </c>
-      <c r="D25" s="43" t="s">
+      <c r="D25" s="38" t="s">
         <v>810</v>
       </c>
       <c r="E25" s="15" t="s">
@@ -7273,13 +7525,13 @@
       <c r="A26" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="36" t="s">
         <v>672</v>
       </c>
-      <c r="C26" s="43" t="s">
+      <c r="C26" s="38" t="s">
         <v>633</v>
       </c>
-      <c r="D26" s="43" t="s">
+      <c r="D26" s="38" t="s">
         <v>810</v>
       </c>
       <c r="E26" s="15" t="s">
@@ -7297,13 +7549,13 @@
       <c r="A27" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="36" t="s">
         <v>672</v>
       </c>
-      <c r="C27" s="43" t="s">
+      <c r="C27" s="38" t="s">
         <v>633</v>
       </c>
-      <c r="D27" s="43" t="s">
+      <c r="D27" s="38" t="s">
         <v>810</v>
       </c>
       <c r="E27" s="15" t="s">
@@ -7321,13 +7573,13 @@
       <c r="A28" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="36" t="s">
         <v>672</v>
       </c>
-      <c r="C28" s="43" t="s">
+      <c r="C28" s="38" t="s">
         <v>633</v>
       </c>
-      <c r="D28" s="43" t="s">
+      <c r="D28" s="38" t="s">
         <v>810</v>
       </c>
       <c r="E28" s="15" t="s">
@@ -7345,13 +7597,13 @@
       <c r="A29" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="36" t="s">
         <v>536</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="38" t="s">
         <v>638</v>
       </c>
-      <c r="D29" s="43" t="s">
+      <c r="D29" s="38" t="s">
         <v>811</v>
       </c>
       <c r="E29" s="15" t="s">
@@ -7369,13 +7621,13 @@
       <c r="A30" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="36" t="s">
         <v>536</v>
       </c>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="38" t="s">
         <v>638</v>
       </c>
-      <c r="D30" s="43" t="s">
+      <c r="D30" s="38" t="s">
         <v>811</v>
       </c>
       <c r="E30" s="15" t="s">
@@ -7393,13 +7645,13 @@
       <c r="A31" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="36" t="s">
         <v>536</v>
       </c>
-      <c r="C31" s="43" t="s">
+      <c r="C31" s="38" t="s">
         <v>638</v>
       </c>
-      <c r="D31" s="43" t="s">
+      <c r="D31" s="38" t="s">
         <v>811</v>
       </c>
       <c r="E31" s="15" t="s">
@@ -7419,7 +7671,7 @@
       <c r="A32" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="36" t="s">
         <v>674</v>
       </c>
       <c r="C32" s="15" t="s">
@@ -7445,7 +7697,7 @@
       <c r="A33" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="36" t="s">
         <v>674</v>
       </c>
       <c r="C33" s="15" t="s">
@@ -7469,7 +7721,7 @@
       <c r="A34" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="36" t="s">
         <v>674</v>
       </c>
       <c r="C34" s="15" t="s">
@@ -7493,7 +7745,7 @@
       <c r="A35" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="36" t="s">
         <v>674</v>
       </c>
       <c r="C35" s="15" t="s">
@@ -7517,7 +7769,7 @@
       <c r="A36" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="36" t="s">
         <v>674</v>
       </c>
       <c r="C36" s="15" t="s">
@@ -7541,7 +7793,7 @@
       <c r="A37" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B37" s="41" t="s">
+      <c r="B37" s="36" t="s">
         <v>674</v>
       </c>
       <c r="C37" s="15" t="s">
@@ -7565,7 +7817,7 @@
       <c r="A38" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B38" s="41" t="s">
+      <c r="B38" s="36" t="s">
         <v>674</v>
       </c>
       <c r="C38" s="15" t="s">
@@ -7589,7 +7841,7 @@
       <c r="A39" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B39" s="41" t="s">
+      <c r="B39" s="36" t="s">
         <v>674</v>
       </c>
       <c r="C39" s="15" t="s">
@@ -7615,7 +7867,7 @@
       <c r="A40" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B40" s="41" t="s">
+      <c r="B40" s="36" t="s">
         <v>674</v>
       </c>
       <c r="C40" s="15" t="s">
@@ -7639,7 +7891,7 @@
       <c r="A41" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B41" s="41" t="s">
+      <c r="B41" s="36" t="s">
         <v>674</v>
       </c>
       <c r="C41" s="15" t="s">
@@ -7663,7 +7915,7 @@
       <c r="A42" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B42" s="41" t="s">
+      <c r="B42" s="36" t="s">
         <v>674</v>
       </c>
       <c r="C42" s="15" t="s">
@@ -7689,7 +7941,7 @@
       <c r="A43" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B43" s="41" t="s">
+      <c r="B43" s="36" t="s">
         <v>674</v>
       </c>
       <c r="C43" s="19" t="s">
@@ -7713,7 +7965,7 @@
       <c r="A44" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B44" s="41" t="s">
+      <c r="B44" s="36" t="s">
         <v>674</v>
       </c>
       <c r="C44" s="19" t="s">
@@ -7737,7 +7989,7 @@
       <c r="A45" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B45" s="41" t="s">
+      <c r="B45" s="36" t="s">
         <v>674</v>
       </c>
       <c r="C45" s="19" t="s">
@@ -7761,7 +8013,7 @@
       <c r="A46" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B46" s="41" t="s">
+      <c r="B46" s="36" t="s">
         <v>674</v>
       </c>
       <c r="C46" s="19" t="s">
@@ -7785,7 +8037,7 @@
       <c r="A47" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B47" s="41" t="s">
+      <c r="B47" s="36" t="s">
         <v>674</v>
       </c>
       <c r="C47" s="19" t="s">
@@ -7809,7 +8061,7 @@
       <c r="A48" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B48" s="41" t="s">
+      <c r="B48" s="36" t="s">
         <v>674</v>
       </c>
       <c r="C48" s="19" t="s">
@@ -7833,7 +8085,7 @@
       <c r="A49" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B49" s="41" t="s">
+      <c r="B49" s="36" t="s">
         <v>674</v>
       </c>
       <c r="C49" s="19" t="s">
@@ -7857,7 +8109,7 @@
       <c r="A50" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B50" s="41" t="s">
+      <c r="B50" s="36" t="s">
         <v>674</v>
       </c>
       <c r="C50" s="19" t="s">
@@ -7881,7 +8133,7 @@
       <c r="A51" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B51" s="41" t="s">
+      <c r="B51" s="36" t="s">
         <v>674</v>
       </c>
       <c r="C51" s="19" t="s">
@@ -7905,7 +8157,7 @@
       <c r="A52" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B52" s="41" t="s">
+      <c r="B52" s="36" t="s">
         <v>674</v>
       </c>
       <c r="C52" s="19" t="s">
@@ -7929,7 +8181,7 @@
       <c r="A53" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B53" s="41" t="s">
+      <c r="B53" s="36" t="s">
         <v>674</v>
       </c>
       <c r="C53" s="19" t="s">
@@ -7953,7 +8205,7 @@
       <c r="A54" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B54" s="41" t="s">
+      <c r="B54" s="36" t="s">
         <v>674</v>
       </c>
       <c r="C54" s="19" t="s">
@@ -7979,7 +8231,7 @@
       <c r="A55" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B55" s="41" t="s">
+      <c r="B55" s="36" t="s">
         <v>674</v>
       </c>
       <c r="C55" s="19" t="s">
@@ -8003,7 +8255,7 @@
       <c r="A56" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B56" s="41" t="s">
+      <c r="B56" s="36" t="s">
         <v>674</v>
       </c>
       <c r="C56" s="19" t="s">
@@ -8027,7 +8279,7 @@
       <c r="A57" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B57" s="41" t="s">
+      <c r="B57" s="36" t="s">
         <v>674</v>
       </c>
       <c r="C57" s="19" t="s">
@@ -8051,7 +8303,7 @@
       <c r="A58" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B58" s="41" t="s">
+      <c r="B58" s="36" t="s">
         <v>674</v>
       </c>
       <c r="C58" s="19" t="s">
@@ -8075,7 +8327,7 @@
       <c r="A59" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B59" s="41" t="s">
+      <c r="B59" s="36" t="s">
         <v>674</v>
       </c>
       <c r="C59" s="19" t="s">
@@ -8099,7 +8351,7 @@
       <c r="A60" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B60" s="41" t="s">
+      <c r="B60" s="36" t="s">
         <v>674</v>
       </c>
       <c r="C60" s="19" t="s">
@@ -8123,7 +8375,7 @@
       <c r="A61" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B61" s="41" t="s">
+      <c r="B61" s="36" t="s">
         <v>674</v>
       </c>
       <c r="C61" s="19" t="s">
@@ -8147,7 +8399,7 @@
       <c r="A62" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B62" s="41" t="s">
+      <c r="B62" s="36" t="s">
         <v>674</v>
       </c>
       <c r="C62" s="19" t="s">
@@ -8171,7 +8423,7 @@
       <c r="A63" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B63" s="41" t="s">
+      <c r="B63" s="36" t="s">
         <v>674</v>
       </c>
       <c r="C63" s="19" t="s">
@@ -8195,7 +8447,7 @@
       <c r="A64" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B64" s="41" t="s">
+      <c r="B64" s="36" t="s">
         <v>674</v>
       </c>
       <c r="C64" s="19" t="s">
@@ -8221,7 +8473,7 @@
       <c r="A65" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B65" s="41" t="s">
+      <c r="B65" s="36" t="s">
         <v>674</v>
       </c>
       <c r="C65" s="19" t="s">
@@ -8245,7 +8497,7 @@
       <c r="A66" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B66" s="41" t="s">
+      <c r="B66" s="36" t="s">
         <v>674</v>
       </c>
       <c r="C66" s="19" t="s">
@@ -8269,7 +8521,7 @@
       <c r="A67" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B67" s="41" t="s">
+      <c r="B67" s="36" t="s">
         <v>674</v>
       </c>
       <c r="C67" s="19" t="s">
@@ -8293,7 +8545,7 @@
       <c r="A68" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B68" s="41" t="s">
+      <c r="B68" s="36" t="s">
         <v>674</v>
       </c>
       <c r="C68" s="19" t="s">
@@ -8319,7 +8571,7 @@
       <c r="A69" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B69" s="41" t="s">
+      <c r="B69" s="36" t="s">
         <v>674</v>
       </c>
       <c r="C69" s="19" t="s">
@@ -8343,7 +8595,7 @@
       <c r="A70" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B70" s="41" t="s">
+      <c r="B70" s="36" t="s">
         <v>674</v>
       </c>
       <c r="C70" s="19" t="s">
@@ -8369,7 +8621,7 @@
       <c r="A71" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B71" s="41" t="s">
+      <c r="B71" s="36" t="s">
         <v>674</v>
       </c>
       <c r="C71" s="19" t="s">
@@ -8393,7 +8645,7 @@
       <c r="A72" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B72" s="41" t="s">
+      <c r="B72" s="36" t="s">
         <v>674</v>
       </c>
       <c r="C72" s="19" t="s">
@@ -8417,7 +8669,7 @@
       <c r="A73" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B73" s="41" t="s">
+      <c r="B73" s="36" t="s">
         <v>674</v>
       </c>
       <c r="C73" s="19" t="s">
@@ -8441,7 +8693,7 @@
       <c r="A74" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B74" s="41" t="s">
+      <c r="B74" s="36" t="s">
         <v>674</v>
       </c>
       <c r="C74" s="19" t="s">
@@ -8465,7 +8717,7 @@
       <c r="A75" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B75" s="41" t="s">
+      <c r="B75" s="36" t="s">
         <v>674</v>
       </c>
       <c r="C75" s="19" t="s">
@@ -8489,7 +8741,7 @@
       <c r="A76" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B76" s="41" t="s">
+      <c r="B76" s="36" t="s">
         <v>674</v>
       </c>
       <c r="C76" s="19" t="s">
@@ -8513,7 +8765,7 @@
       <c r="A77" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B77" s="41" t="s">
+      <c r="B77" s="36" t="s">
         <v>674</v>
       </c>
       <c r="C77" s="19" t="s">
@@ -8537,7 +8789,7 @@
       <c r="A78" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B78" s="41" t="s">
+      <c r="B78" s="36" t="s">
         <v>678</v>
       </c>
       <c r="C78" s="19" t="s">
@@ -8563,7 +8815,7 @@
       <c r="A79" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B79" s="41" t="s">
+      <c r="B79" s="36" t="s">
         <v>678</v>
       </c>
       <c r="C79" s="19" t="s">
@@ -8589,7 +8841,7 @@
       <c r="A80" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B80" s="41" t="s">
+      <c r="B80" s="36" t="s">
         <v>679</v>
       </c>
       <c r="C80" s="19" t="s">
@@ -8613,7 +8865,7 @@
       <c r="A81" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B81" s="41" t="s">
+      <c r="B81" s="36" t="s">
         <v>679</v>
       </c>
       <c r="C81" s="19" t="s">
@@ -8637,7 +8889,7 @@
       <c r="A82" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B82" s="41" t="s">
+      <c r="B82" s="36" t="s">
         <v>679</v>
       </c>
       <c r="C82" s="19" t="s">
@@ -8661,7 +8913,7 @@
       <c r="A83" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B83" s="41" t="s">
+      <c r="B83" s="36" t="s">
         <v>681</v>
       </c>
       <c r="C83" s="19" t="s">
@@ -8685,7 +8937,7 @@
       <c r="A84" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B84" s="41" t="s">
+      <c r="B84" s="36" t="s">
         <v>681</v>
       </c>
       <c r="C84" s="19" t="s">
@@ -8709,7 +8961,7 @@
       <c r="A85" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B85" s="41" t="s">
+      <c r="B85" s="36" t="s">
         <v>681</v>
       </c>
       <c r="C85" s="19" t="s">
@@ -8733,7 +8985,7 @@
       <c r="A86" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B86" s="41" t="s">
+      <c r="B86" s="36" t="s">
         <v>681</v>
       </c>
       <c r="C86" s="19" t="s">
@@ -8757,7 +9009,7 @@
       <c r="A87" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B87" s="41" t="s">
+      <c r="B87" s="36" t="s">
         <v>681</v>
       </c>
       <c r="C87" s="19" t="s">
@@ -8781,7 +9033,7 @@
       <c r="A88" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B88" s="41" t="s">
+      <c r="B88" s="36" t="s">
         <v>682</v>
       </c>
       <c r="C88" s="19" t="s">
@@ -8805,7 +9057,7 @@
       <c r="A89" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B89" s="41" t="s">
+      <c r="B89" s="36" t="s">
         <v>682</v>
       </c>
       <c r="C89" s="19" t="s">
@@ -8829,7 +9081,7 @@
       <c r="A90" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B90" s="41" t="s">
+      <c r="B90" s="36" t="s">
         <v>682</v>
       </c>
       <c r="C90" s="19" t="s">
@@ -8855,7 +9107,7 @@
       <c r="A91" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B91" s="41" t="s">
+      <c r="B91" s="36" t="s">
         <v>682</v>
       </c>
       <c r="C91" s="19" t="s">
@@ -8879,7 +9131,7 @@
       <c r="A92" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B92" s="41" t="s">
+      <c r="B92" s="36" t="s">
         <v>682</v>
       </c>
       <c r="C92" s="19" t="s">
@@ -8905,7 +9157,7 @@
       <c r="A93" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B93" s="41" t="s">
+      <c r="B93" s="36" t="s">
         <v>682</v>
       </c>
       <c r="C93" s="19" t="s">
@@ -8929,7 +9181,7 @@
       <c r="A94" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B94" s="41" t="s">
+      <c r="B94" s="36" t="s">
         <v>682</v>
       </c>
       <c r="C94" s="19" t="s">
@@ -8953,7 +9205,7 @@
       <c r="A95" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B95" s="41" t="s">
+      <c r="B95" s="36" t="s">
         <v>682</v>
       </c>
       <c r="C95" s="19" t="s">
@@ -8977,7 +9229,7 @@
       <c r="A96" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B96" s="41" t="s">
+      <c r="B96" s="36" t="s">
         <v>682</v>
       </c>
       <c r="C96" s="19" t="s">
@@ -9001,7 +9253,7 @@
       <c r="A97" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B97" s="41" t="s">
+      <c r="B97" s="36" t="s">
         <v>682</v>
       </c>
       <c r="C97" s="19" t="s">
@@ -9025,7 +9277,7 @@
       <c r="A98" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B98" s="41" t="s">
+      <c r="B98" s="36" t="s">
         <v>682</v>
       </c>
       <c r="C98" s="19" t="s">
@@ -9049,7 +9301,7 @@
       <c r="A99" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B99" s="41" t="s">
+      <c r="B99" s="36" t="s">
         <v>682</v>
       </c>
       <c r="C99" s="19" t="s">
@@ -9073,7 +9325,7 @@
       <c r="A100" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B100" s="41" t="s">
+      <c r="B100" s="36" t="s">
         <v>685</v>
       </c>
       <c r="C100" s="15" t="s">
@@ -9097,7 +9349,7 @@
       <c r="A101" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B101" s="41" t="s">
+      <c r="B101" s="36" t="s">
         <v>685</v>
       </c>
       <c r="C101" s="15" t="s">
@@ -9121,7 +9373,7 @@
       <c r="A102" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B102" s="41" t="s">
+      <c r="B102" s="36" t="s">
         <v>685</v>
       </c>
       <c r="C102" s="15" t="s">
@@ -9145,7 +9397,7 @@
       <c r="A103" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B103" s="41" t="s">
+      <c r="B103" s="36" t="s">
         <v>685</v>
       </c>
       <c r="C103" s="15" t="s">
@@ -9169,7 +9421,7 @@
       <c r="A104" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B104" s="41" t="s">
+      <c r="B104" s="36" t="s">
         <v>685</v>
       </c>
       <c r="C104" s="15" t="s">
@@ -9193,7 +9445,7 @@
       <c r="A105" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B105" s="41" t="s">
+      <c r="B105" s="36" t="s">
         <v>685</v>
       </c>
       <c r="C105" s="15" t="s">
@@ -9217,7 +9469,7 @@
       <c r="A106" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B106" s="41" t="s">
+      <c r="B106" s="36" t="s">
         <v>685</v>
       </c>
       <c r="C106" s="15" t="s">
@@ -9241,7 +9493,7 @@
       <c r="A107" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B107" s="41" t="s">
+      <c r="B107" s="36" t="s">
         <v>685</v>
       </c>
       <c r="C107" s="15" t="s">
@@ -9265,7 +9517,7 @@
       <c r="A108" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B108" s="41" t="s">
+      <c r="B108" s="36" t="s">
         <v>685</v>
       </c>
       <c r="C108" s="15" t="s">
@@ -9289,7 +9541,7 @@
       <c r="A109" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B109" s="41" t="s">
+      <c r="B109" s="36" t="s">
         <v>685</v>
       </c>
       <c r="C109" s="15" t="s">
@@ -9313,7 +9565,7 @@
       <c r="A110" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B110" s="41" t="s">
+      <c r="B110" s="36" t="s">
         <v>685</v>
       </c>
       <c r="C110" s="15" t="s">
@@ -9337,7 +9589,7 @@
       <c r="A111" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B111" s="41" t="s">
+      <c r="B111" s="36" t="s">
         <v>685</v>
       </c>
       <c r="C111" s="15" t="s">
@@ -9361,7 +9613,7 @@
       <c r="A112" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B112" s="41" t="s">
+      <c r="B112" s="36" t="s">
         <v>685</v>
       </c>
       <c r="C112" s="15" t="s">
@@ -9385,7 +9637,7 @@
       <c r="A113" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B113" s="41" t="s">
+      <c r="B113" s="36" t="s">
         <v>685</v>
       </c>
       <c r="C113" s="15" t="s">
@@ -9409,7 +9661,7 @@
       <c r="A114" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B114" s="41" t="s">
+      <c r="B114" s="36" t="s">
         <v>685</v>
       </c>
       <c r="C114" s="15" t="s">
@@ -9433,7 +9685,7 @@
       <c r="A115" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B115" s="41" t="s">
+      <c r="B115" s="36" t="s">
         <v>685</v>
       </c>
       <c r="C115" s="15" t="s">
@@ -9457,7 +9709,7 @@
       <c r="A116" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B116" s="41" t="s">
+      <c r="B116" s="36" t="s">
         <v>685</v>
       </c>
       <c r="C116" s="15" t="s">
@@ -9481,7 +9733,7 @@
       <c r="A117" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B117" s="41" t="s">
+      <c r="B117" s="36" t="s">
         <v>685</v>
       </c>
       <c r="C117" s="15" t="s">
@@ -9505,7 +9757,7 @@
       <c r="A118" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B118" s="41" t="s">
+      <c r="B118" s="36" t="s">
         <v>685</v>
       </c>
       <c r="C118" s="15" t="s">
@@ -9529,7 +9781,7 @@
       <c r="A119" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B119" s="41" t="s">
+      <c r="B119" s="36" t="s">
         <v>685</v>
       </c>
       <c r="C119" s="15" t="s">
@@ -9555,7 +9807,7 @@
       <c r="A120" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B120" s="41" t="s">
+      <c r="B120" s="36" t="s">
         <v>685</v>
       </c>
       <c r="C120" s="15" t="s">
@@ -9581,7 +9833,7 @@
       <c r="A121" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B121" s="41" t="s">
+      <c r="B121" s="36" t="s">
         <v>685</v>
       </c>
       <c r="C121" s="15" t="s">
@@ -9605,7 +9857,7 @@
       <c r="A122" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B122" s="41" t="s">
+      <c r="B122" s="36" t="s">
         <v>685</v>
       </c>
       <c r="C122" s="15" t="s">
@@ -9629,7 +9881,7 @@
       <c r="A123" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B123" s="41" t="s">
+      <c r="B123" s="36" t="s">
         <v>685</v>
       </c>
       <c r="C123" s="15" t="s">
@@ -9653,7 +9905,7 @@
       <c r="A124" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B124" s="41" t="s">
+      <c r="B124" s="36" t="s">
         <v>685</v>
       </c>
       <c r="C124" s="15" t="s">
@@ -9695,15 +9947,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D9A8E34D4601248B4650C3759D604D8" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c234dc030e1d129322a3d56f76335218">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="de0c653c-2bd3-43b1-95fa-012c57f61cfe" xmlns:ns3="848a8810-16a6-4d79-96d3-e3dfb86099b7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a56d1a68c4d05b5a1e5a3c0b3fb5b1a8" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -9925,6 +10168,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6744B0D-B7F9-4CA7-A5DC-23D611E8ED20}">
   <ds:schemaRefs>
@@ -9944,14 +10196,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B4CE896-D144-40A9-85D3-0684E5DFDA36}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19245E31-480A-4933-AB52-6FC5778D0ABF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9969,4 +10213,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B4CE896-D144-40A9-85D3-0684E5DFDA36}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Deliverables/CT/USDM_CT.xlsx
+++ b/Deliverables/CT/USDM_CT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhlbradtee\Documents\GitHub\DDF-RA\Deliverables\CT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C6E312-1FD1-4FC5-B272-4809CB46B790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDAD830-5F21-419F-8630-5BA21C376DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="830" yWindow="880" windowWidth="16590" windowHeight="8590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="17790" windowHeight="8850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DDF Entities&amp;Attributes" sheetId="4" r:id="rId1"/>
@@ -1718,18 +1718,12 @@
     <t>analysisPopulation</t>
   </si>
   <si>
-    <t>populationDesc</t>
-  </si>
-  <si>
     <t>intercurrentEvents</t>
   </si>
   <si>
     <t>intercurrentEventName</t>
   </si>
   <si>
-    <t>intercurrentEventDesc</t>
-  </si>
-  <si>
     <t>intercurrentEventStrategy</t>
   </si>
   <si>
@@ -1748,9 +1742,6 @@
     <t>studyEpochName</t>
   </si>
   <si>
-    <t>studyEpochDesc</t>
-  </si>
-  <si>
     <t>studyEpochType</t>
   </si>
   <si>
@@ -1775,9 +1766,6 @@
     <t>encounterName</t>
   </si>
   <si>
-    <t>encounterDesc</t>
-  </si>
-  <si>
     <t>encounterType</t>
   </si>
   <si>
@@ -1808,12 +1796,6 @@
     <t>studyElementName</t>
   </si>
   <si>
-    <t>studyElementDesc</t>
-  </si>
-  <si>
-    <t>transitionRuleDesc</t>
-  </si>
-  <si>
     <t>workflowItemEncounter</t>
   </si>
   <si>
@@ -1835,9 +1817,6 @@
     <t>activityName</t>
   </si>
   <si>
-    <t>activityDesc</t>
-  </si>
-  <si>
     <t>previousActivityID</t>
   </si>
   <si>
@@ -1853,9 +1832,6 @@
     <t>studyDataName</t>
   </si>
   <si>
-    <t>studyDataDesc</t>
-  </si>
-  <si>
     <t>Clinical Study Activity Name</t>
   </si>
   <si>
@@ -1880,12 +1856,6 @@
     <t>workflowItems</t>
   </si>
   <si>
-    <t>workflowDesc</t>
-  </si>
-  <si>
-    <t>workflowItemDesc</t>
-  </si>
-  <si>
     <t>previousWorkflowItemId</t>
   </si>
   <si>
@@ -1982,27 +1952,12 @@
     <t>codes</t>
   </si>
   <si>
-    <t>interventionDesc</t>
-  </si>
-  <si>
-    <t>indicationDesc</t>
-  </si>
-  <si>
     <t>objectiveEndpoints</t>
   </si>
   <si>
-    <t>objectiveDesc</t>
-  </si>
-  <si>
     <t>objectiveLevel</t>
   </si>
   <si>
-    <t>endpointDesc</t>
-  </si>
-  <si>
-    <t>endpointPurposeDesc</t>
-  </si>
-  <si>
     <t>endpointLevel</t>
   </si>
   <si>
@@ -2012,13 +1967,7 @@
     <t>studyArmName</t>
   </si>
   <si>
-    <t>studyArmDesc</t>
-  </si>
-  <si>
     <t>studyArmType</t>
-  </si>
-  <si>
-    <t>studyArmDataOriginDesc</t>
   </si>
   <si>
     <t>studyArmDataOriginType</t>
@@ -2590,9 +2539,6 @@
   </si>
   <si>
     <t>The literal identifier (i.e., distinctive designation) of the study design.</t>
-  </si>
-  <si>
-    <t>studyDesignDesc</t>
   </si>
   <si>
     <t>Study Design Description</t>
@@ -2647,6 +2593,502 @@
   <si>
     <t xml:space="preserve">standardCodeAliases
 </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>interventionDesc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>interventionDescription</t>
+    </r>
+  </si>
+  <si>
+    <t>studyDesignDescription</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>indicationDesc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>indicationDescription</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>populationDesc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>populationDescription</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>objectiveDesc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>objectiveDescription</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>endpointDesc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>endpointDescription</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>endpointPurposeDesc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>endpointPurposeDescription</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>studyArmDesc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>studyArmDescription</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>studyArmDataOriginDesc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>studyArmDataOriginDescription</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>studyEpochDesc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>studyEpochDescription</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>studyElementDesc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>studyElementDescription</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>transitionRuleDesc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>transitionRuleDescription</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>encounterDesc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>encounterDescription</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>activityDesc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>activityDescription</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>studyDataDesc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>studyDataDescription</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>workflowDesc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>workflowDescription</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>workflowItemDesc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>workflowItemDescription</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>intercurrentEventDesc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>intercurrentEventDescription</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3013,21 +3455,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3057,6 +3484,21 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3374,13 +3816,13 @@
         <v>97</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>670</v>
+        <v>653</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>661</v>
+        <v>644</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>116</v>
@@ -3403,13 +3845,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>671</v>
+        <v>654</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>671</v>
+        <v>654</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
@@ -3430,13 +3872,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>671</v>
+        <v>654</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>669</v>
+        <v>652</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="4"/>
@@ -3449,13 +3891,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>671</v>
+        <v>654</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>669</v>
+        <v>652</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="4"/>
@@ -3468,13 +3910,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>671</v>
+        <v>654</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>669</v>
+        <v>652</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="4"/>
@@ -3487,13 +3929,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>671</v>
+        <v>654</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>15</v>
@@ -3516,16 +3958,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>671</v>
+        <v>654</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>752</v>
+        <v>735</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>550</v>
@@ -3543,13 +3985,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>671</v>
+        <v>654</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>36</v>
@@ -3564,7 +4006,7 @@
         <v>35</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>718</v>
+        <v>701</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="100" x14ac:dyDescent="0.35">
@@ -3572,13 +4014,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>671</v>
+        <v>654</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>19</v>
@@ -3593,7 +4035,7 @@
         <v>18</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>719</v>
+        <v>702</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -3601,26 +4043,26 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>671</v>
+        <v>654</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>821</v>
+        <v>804</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>822</v>
+        <v>805</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="1" t="s">
-        <v>823</v>
+        <v>806</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>824</v>
+        <v>807</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="62.5" x14ac:dyDescent="0.35">
@@ -3628,13 +4070,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>672</v>
+        <v>655</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>672</v>
+        <v>655</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>8</v>
@@ -3655,13 +4097,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>672</v>
+        <v>655</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="E12" s="43" t="s">
         <v>540</v>
@@ -3684,13 +4126,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>672</v>
+        <v>655</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="E13" s="43" t="s">
         <v>547</v>
@@ -3711,13 +4153,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>672</v>
+        <v>655</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="E14" s="43" t="s">
         <v>548</v>
@@ -3738,13 +4180,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>672</v>
+        <v>655</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="E15" s="43" t="s">
         <v>549</v>
@@ -3765,13 +4207,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>672</v>
+        <v>655</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>8</v>
@@ -3792,13 +4234,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>672</v>
+        <v>655</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>11</v>
@@ -3819,16 +4261,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>672</v>
+        <v>655</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>753</v>
+        <v>736</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>154</v>
@@ -3846,16 +4288,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>672</v>
+        <v>655</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>754</v>
+        <v>737</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>91</v>
@@ -3865,7 +4307,7 @@
         <v>143</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>804</v>
+        <v>787</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -3873,13 +4315,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>673</v>
+        <v>656</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="41" t="s">
-        <v>673</v>
+        <v>656</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>92</v>
@@ -3900,13 +4342,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>673</v>
+        <v>656</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>669</v>
+        <v>652</v>
       </c>
       <c r="D21" s="42" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -3919,13 +4361,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>673</v>
+        <v>656</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>92</v>
@@ -3979,13 +4421,13 @@
         <v>96</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>755</v>
+        <v>738</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>662</v>
+        <v>645</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4" t="s">
@@ -4006,7 +4448,7 @@
         <v>96</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>528</v>
@@ -4033,7 +4475,7 @@
         <v>96</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>531</v>
@@ -4060,10 +4502,10 @@
         <v>96</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>756</v>
+        <v>739</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>534</v>
@@ -4073,7 +4515,7 @@
         <v>535</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>805</v>
+        <v>788</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="50" x14ac:dyDescent="0.35">
@@ -4081,13 +4523,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="41" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>43</v>
@@ -4108,13 +4550,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>669</v>
+        <v>652</v>
       </c>
       <c r="D29" s="42" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="E29" s="29"/>
       <c r="F29" s="4"/>
@@ -4127,13 +4569,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>669</v>
+        <v>652</v>
       </c>
       <c r="D30" s="42" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="E30" s="29"/>
       <c r="F30" s="4"/>
@@ -4146,13 +4588,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>669</v>
+        <v>652</v>
       </c>
       <c r="D31" s="42" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="E31" s="29"/>
       <c r="F31" s="4"/>
@@ -4165,13 +4607,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>669</v>
+        <v>652</v>
       </c>
       <c r="D32" s="42" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E32" s="29"/>
       <c r="F32" s="4"/>
@@ -4184,13 +4626,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>669</v>
+        <v>652</v>
       </c>
       <c r="D33" s="42" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="E33" s="29"/>
       <c r="F33" s="4"/>
@@ -4203,10 +4645,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>669</v>
+        <v>652</v>
       </c>
       <c r="D34" s="42" t="s">
         <v>557</v>
@@ -4222,10 +4664,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>669</v>
+        <v>652</v>
       </c>
       <c r="D35" s="42" t="s">
         <v>556</v>
@@ -4240,14 +4682,14 @@
       <c r="A36" s="33">
         <v>35</v>
       </c>
-      <c r="B36" s="56" t="s">
-        <v>674</v>
-      </c>
-      <c r="C36" s="56" t="s">
-        <v>669</v>
-      </c>
-      <c r="D36" s="57" t="s">
-        <v>574</v>
+      <c r="B36" s="51" t="s">
+        <v>657</v>
+      </c>
+      <c r="C36" s="51" t="s">
+        <v>652</v>
+      </c>
+      <c r="D36" s="52" t="s">
+        <v>571</v>
       </c>
       <c r="E36" s="29"/>
       <c r="F36" s="4"/>
@@ -4259,14 +4701,14 @@
       <c r="A37" s="33">
         <v>36</v>
       </c>
-      <c r="B37" s="56" t="s">
-        <v>674</v>
-      </c>
-      <c r="C37" s="56" t="s">
-        <v>669</v>
-      </c>
-      <c r="D37" s="57" t="s">
-        <v>835</v>
+      <c r="B37" s="51" t="s">
+        <v>657</v>
+      </c>
+      <c r="C37" s="51" t="s">
+        <v>652</v>
+      </c>
+      <c r="D37" s="52" t="s">
+        <v>818</v>
       </c>
       <c r="E37" s="29"/>
       <c r="F37" s="4"/>
@@ -4279,13 +4721,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D38" s="31" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="E38" s="44" t="s">
         <v>46</v>
@@ -4300,7 +4742,7 @@
         <v>45</v>
       </c>
       <c r="I38" s="29" t="s">
-        <v>720</v>
+        <v>703</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
@@ -4308,13 +4750,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="E39" s="44" t="s">
         <v>40</v>
@@ -4329,7 +4771,7 @@
         <v>39</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>721</v>
+        <v>704</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
@@ -4337,13 +4779,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>48</v>
@@ -4356,7 +4798,7 @@
         <v>47</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>722</v>
+        <v>705</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="45" customFormat="1" ht="112.5" x14ac:dyDescent="0.35">
@@ -4364,54 +4806,54 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>825</v>
+        <v>808</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>826</v>
+        <v>809</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>827</v>
+        <v>810</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>828</v>
+        <v>811</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>842</v>
+        <v>824</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>824</v>
+        <v>807</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
       <c r="A42" s="33">
         <v>41</v>
       </c>
-      <c r="B42" s="61" t="s">
-        <v>674</v>
-      </c>
-      <c r="C42" s="56" t="s">
+      <c r="B42" s="56" t="s">
+        <v>657</v>
+      </c>
+      <c r="C42" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="D42" s="58" t="s">
-        <v>836</v>
-      </c>
-      <c r="E42" s="59" t="s">
+      <c r="D42" s="53" t="s">
+        <v>819</v>
+      </c>
+      <c r="E42" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="F42" s="59" t="s">
-        <v>837</v>
-      </c>
-      <c r="G42" s="60"/>
-      <c r="H42" s="59" t="s">
-        <v>838</v>
-      </c>
-      <c r="I42" s="56" t="s">
+      <c r="F42" s="54" t="s">
+        <v>820</v>
+      </c>
+      <c r="G42" s="55"/>
+      <c r="H42" s="54" t="s">
+        <v>821</v>
+      </c>
+      <c r="I42" s="51" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4419,26 +4861,26 @@
       <c r="A43" s="33">
         <v>42</v>
       </c>
-      <c r="B43" s="61" t="s">
-        <v>674</v>
-      </c>
-      <c r="C43" s="56" t="s">
+      <c r="B43" s="56" t="s">
+        <v>657</v>
+      </c>
+      <c r="C43" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="D43" s="58" t="s">
-        <v>839</v>
-      </c>
-      <c r="E43" s="59" t="s">
+      <c r="D43" s="53" t="s">
+        <v>832</v>
+      </c>
+      <c r="E43" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="59" t="s">
-        <v>840</v>
-      </c>
-      <c r="G43" s="60"/>
-      <c r="H43" s="59" t="s">
-        <v>841</v>
-      </c>
-      <c r="I43" s="56" t="s">
+      <c r="F43" s="54" t="s">
+        <v>822</v>
+      </c>
+      <c r="G43" s="55"/>
+      <c r="H43" s="54" t="s">
+        <v>823</v>
+      </c>
+      <c r="I43" s="51" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4447,13 +4889,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>675</v>
+        <v>658</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D44" s="41" t="s">
-        <v>675</v>
+        <v>658</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>29</v>
@@ -4474,26 +4916,26 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>675</v>
+        <v>658</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>757</v>
+        <v>740</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>668</v>
+        <v>651</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4" t="s">
-        <v>713</v>
+        <v>696</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>691</v>
+        <v>674</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -4501,13 +4943,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>675</v>
+        <v>658</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>647</v>
+        <v>831</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>102</v>
@@ -4528,13 +4970,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>676</v>
+        <v>659</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D47" s="41" t="s">
-        <v>676</v>
+        <v>659</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>34</v>
@@ -4555,26 +4997,26 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>676</v>
+        <v>659</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>759</v>
+        <v>742</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>667</v>
+        <v>650</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4" t="s">
-        <v>714</v>
+        <v>697</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="75" x14ac:dyDescent="0.35">
@@ -4582,13 +5024,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>676</v>
+        <v>659</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>648</v>
+        <v>833</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>34</v>
@@ -4601,7 +5043,7 @@
         <v>33</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
@@ -4609,13 +5051,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>677</v>
+        <v>660</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D50" s="41" t="s">
-        <v>677</v>
+        <v>660</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>31</v>
@@ -4625,7 +5067,7 @@
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>95</v>
@@ -4636,16 +5078,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>677</v>
+        <v>660</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>559</v>
+        <v>834</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>760</v>
+        <v>743</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>147</v>
@@ -4663,13 +5105,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>678</v>
+        <v>661</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D52" s="41" t="s">
-        <v>678</v>
+        <v>661</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>22</v>
@@ -4690,13 +5132,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>678</v>
+        <v>661</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>669</v>
+        <v>652</v>
       </c>
       <c r="D53" s="42" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="4"/>
@@ -4704,18 +5146,18 @@
       <c r="H53" s="4"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A54" s="33">
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>678</v>
+        <v>661</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D54" s="31" t="s">
-        <v>650</v>
+        <v>835</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>124</v>
@@ -4736,16 +5178,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>678</v>
+        <v>661</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D55" s="31" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>758</v>
+        <v>741</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>155</v>
@@ -4755,7 +5197,7 @@
         <v>518</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>806</v>
+        <v>789</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="87.5" x14ac:dyDescent="0.35">
@@ -4763,13 +5205,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>679</v>
+        <v>662</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D56" s="41" t="s">
-        <v>679</v>
+        <v>662</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>25</v>
@@ -4785,21 +5227,21 @@
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A57" s="33">
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>679</v>
+        <v>662</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>652</v>
+        <v>836</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>761</v>
+        <v>744</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>146</v>
@@ -4817,16 +5259,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>679</v>
+        <v>662</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D58" s="31" t="s">
-        <v>653</v>
+        <v>837</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>762</v>
+        <v>745</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>105</v>
@@ -4844,16 +5286,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>679</v>
+        <v>662</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D59" s="31" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
       <c r="E59" s="43" t="s">
-        <v>763</v>
+        <v>746</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>26</v>
@@ -4863,7 +5305,7 @@
         <v>510</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>807</v>
+        <v>790</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
@@ -4871,23 +5313,23 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>680</v>
+        <v>663</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D60" s="41" t="s">
-        <v>680</v>
+        <v>663</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>764</v>
+        <v>747</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>57</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4" t="s">
-        <v>665</v>
+        <v>648</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>95</v>
@@ -4898,13 +5340,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>680</v>
+        <v>663</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>669</v>
+        <v>652</v>
       </c>
       <c r="D61" s="42" t="s">
-        <v>655</v>
+        <v>640</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="4"/>
@@ -4917,13 +5359,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>680</v>
+        <v>663</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>669</v>
+        <v>652</v>
       </c>
       <c r="D62" s="42" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="4"/>
@@ -4936,13 +5378,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>680</v>
+        <v>663</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>669</v>
+        <v>652</v>
       </c>
       <c r="D63" s="42" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="4"/>
@@ -4955,13 +5397,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D64" s="41" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>55</v>
@@ -4982,13 +5424,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D65" s="31" t="s">
-        <v>656</v>
+        <v>641</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>140</v>
@@ -5004,18 +5446,18 @@
         <v>95</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A66" s="33">
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D66" s="31" t="s">
-        <v>657</v>
+        <v>838</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>139</v>
@@ -5036,16 +5478,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D67" s="31" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>765</v>
+        <v>748</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>524</v>
@@ -5063,16 +5505,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D68" s="31" t="s">
-        <v>659</v>
+        <v>839</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>766</v>
+        <v>749</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>149</v>
@@ -5090,16 +5532,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D69" s="31" t="s">
-        <v>660</v>
+        <v>643</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>767</v>
+        <v>750</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>150</v>
@@ -5109,7 +5551,7 @@
         <v>56</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>809</v>
+        <v>792</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
@@ -5117,13 +5559,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D70" s="41" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>64</v>
@@ -5144,13 +5586,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>669</v>
+        <v>652</v>
       </c>
       <c r="D71" s="42" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="4"/>
@@ -5163,13 +5605,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D72" s="31" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>66</v>
@@ -5185,21 +5627,21 @@
         <v>95</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A73" s="33">
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D73" s="31" t="s">
-        <v>569</v>
+        <v>840</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>768</v>
+        <v>751</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>108</v>
@@ -5217,16 +5659,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D74" s="31" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>769</v>
+        <v>752</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>67</v>
@@ -5236,7 +5678,7 @@
         <v>68</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>723</v>
+        <v>706</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -5244,23 +5686,23 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D75" s="31" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>770</v>
+        <v>753</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="4" t="s">
-        <v>735</v>
+        <v>718</v>
       </c>
       <c r="I75" s="43" t="s">
         <v>95</v>
@@ -5271,23 +5713,23 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D76" s="31" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>771</v>
+        <v>754</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="4" t="s">
-        <v>736</v>
+        <v>719</v>
       </c>
       <c r="I76" s="43" t="s">
         <v>95</v>
@@ -5298,13 +5740,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D77" s="41" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>51</v>
@@ -5325,13 +5767,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>669</v>
+        <v>652</v>
       </c>
       <c r="D78" s="42" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="4"/>
@@ -5344,13 +5786,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>669</v>
+        <v>652</v>
       </c>
       <c r="D79" s="42" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="4"/>
@@ -5363,16 +5805,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D80" s="31" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>772</v>
+        <v>755</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>52</v>
@@ -5390,16 +5832,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D81" s="31" t="s">
-        <v>589</v>
+        <v>841</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>773</v>
+        <v>756</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>109</v>
@@ -5417,23 +5859,23 @@
         <v>81</v>
       </c>
       <c r="B82" s="46" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="C82" s="47" t="s">
         <v>96</v>
       </c>
       <c r="D82" s="48" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E82" s="49" t="s">
         <v>16</v>
       </c>
       <c r="F82" s="49" t="s">
-        <v>829</v>
+        <v>812</v>
       </c>
       <c r="G82" s="49"/>
       <c r="H82" s="49" t="s">
-        <v>830</v>
+        <v>813</v>
       </c>
       <c r="I82" s="47" t="s">
         <v>95</v>
@@ -5444,23 +5886,23 @@
         <v>82</v>
       </c>
       <c r="B83" s="46" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="C83" s="47" t="s">
         <v>96</v>
       </c>
       <c r="D83" s="48" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="E83" s="49" t="s">
         <v>16</v>
       </c>
       <c r="F83" s="49" t="s">
-        <v>831</v>
+        <v>814</v>
       </c>
       <c r="G83" s="49"/>
       <c r="H83" s="49" t="s">
-        <v>832</v>
+        <v>815</v>
       </c>
       <c r="I83" s="47" t="s">
         <v>95</v>
@@ -5471,13 +5913,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D84" s="41" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>82</v>
@@ -5493,21 +5935,21 @@
         <v>95</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A85" s="33">
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D85" s="31" t="s">
-        <v>590</v>
+        <v>842</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>774</v>
+        <v>757</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>110</v>
@@ -5525,13 +5967,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D86" s="41" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>59</v>
@@ -5541,7 +5983,7 @@
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="3" t="s">
-        <v>726</v>
+        <v>709</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>95</v>
@@ -5552,13 +5994,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>669</v>
+        <v>652</v>
       </c>
       <c r="D87" s="42" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="4"/>
@@ -5571,13 +6013,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>669</v>
+        <v>652</v>
       </c>
       <c r="D88" s="42" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="4"/>
@@ -5590,23 +6032,23 @@
         <v>88</v>
       </c>
       <c r="B89" s="46" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C89" s="47" t="s">
         <v>96</v>
       </c>
       <c r="D89" s="48" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E89" s="49" t="s">
         <v>16</v>
       </c>
       <c r="F89" s="49" t="s">
-        <v>829</v>
+        <v>812</v>
       </c>
       <c r="G89" s="49"/>
       <c r="H89" s="49" t="s">
-        <v>830</v>
+        <v>813</v>
       </c>
       <c r="I89" s="47" t="s">
         <v>95</v>
@@ -5617,23 +6059,23 @@
         <v>89</v>
       </c>
       <c r="B90" s="46" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C90" s="47" t="s">
         <v>96</v>
       </c>
       <c r="D90" s="48" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="E90" s="49" t="s">
         <v>16</v>
       </c>
       <c r="F90" s="49" t="s">
-        <v>831</v>
+        <v>814</v>
       </c>
       <c r="G90" s="49"/>
       <c r="H90" s="49" t="s">
-        <v>832</v>
+        <v>815</v>
       </c>
       <c r="I90" s="47" t="s">
         <v>95</v>
@@ -5644,13 +6086,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D91" s="31" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>120</v>
@@ -5671,16 +6113,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D92" s="31" t="s">
-        <v>578</v>
+        <v>843</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>775</v>
+        <v>758</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>122</v>
@@ -5698,23 +6140,23 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D93" s="31" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>776</v>
+        <v>759</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="4" t="s">
-        <v>737</v>
+        <v>720</v>
       </c>
       <c r="I93" s="43" t="s">
         <v>95</v>
@@ -5725,23 +6167,23 @@
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D94" s="31" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>777</v>
+        <v>760</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="4" t="s">
-        <v>738</v>
+        <v>721</v>
       </c>
       <c r="I94" s="43" t="s">
         <v>95</v>
@@ -5752,16 +6194,16 @@
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D95" s="31" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>778</v>
+        <v>761</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>69</v>
@@ -5771,7 +6213,7 @@
         <v>70</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>808</v>
+        <v>791</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -5779,16 +6221,16 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D96" s="31" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>779</v>
+        <v>762</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>72</v>
@@ -5798,7 +6240,7 @@
         <v>73</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>724</v>
+        <v>707</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -5806,16 +6248,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D97" s="31" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>780</v>
+        <v>763</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>74</v>
@@ -5825,7 +6267,7 @@
         <v>75</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>725</v>
+        <v>708</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
@@ -5833,13 +6275,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D98" s="41" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>89</v>
@@ -5860,13 +6302,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>669</v>
+        <v>652</v>
       </c>
       <c r="D99" s="42" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="4"/>
@@ -5879,13 +6321,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>669</v>
+        <v>652</v>
       </c>
       <c r="D100" s="42" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="4"/>
@@ -5898,23 +6340,23 @@
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D101" s="31" t="s">
+        <v>591</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="F101" s="4" t="s">
         <v>597</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>781</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>605</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="4" t="s">
-        <v>717</v>
+        <v>700</v>
       </c>
       <c r="I101" s="4" t="s">
         <v>95</v>
@@ -5925,13 +6367,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D102" s="31" t="s">
-        <v>598</v>
+        <v>844</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>553</v>
@@ -5952,23 +6394,23 @@
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D103" s="31" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>782</v>
+        <v>765</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="4" t="s">
-        <v>739</v>
+        <v>722</v>
       </c>
       <c r="I103" s="43" t="s">
         <v>95</v>
@@ -5979,23 +6421,23 @@
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D104" s="31" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>783</v>
+        <v>766</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="4" t="s">
-        <v>740</v>
+        <v>723</v>
       </c>
       <c r="I104" s="43" t="s">
         <v>95</v>
@@ -6006,16 +6448,16 @@
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D105" s="41" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>784</v>
+        <v>767</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>76</v>
@@ -6033,16 +6475,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D106" s="31" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>785</v>
+        <v>768</v>
       </c>
       <c r="F106" s="4" t="s">
         <v>152</v>
@@ -6060,16 +6502,16 @@
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D107" s="31" t="s">
-        <v>604</v>
+        <v>845</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>786</v>
+        <v>769</v>
       </c>
       <c r="F107" s="4" t="s">
         <v>153</v>
@@ -6087,23 +6529,23 @@
         <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D108" s="31" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>787</v>
+        <v>770</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>666</v>
+        <v>649</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="4" t="s">
-        <v>734</v>
+        <v>717</v>
       </c>
       <c r="I108" s="43" t="s">
         <v>95</v>
@@ -6147,17 +6589,17 @@
         <v>96</v>
       </c>
       <c r="D110" s="31" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>788</v>
+        <v>771</v>
       </c>
       <c r="F110" s="4" t="s">
         <v>119</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="4" t="s">
-        <v>715</v>
+        <v>698</v>
       </c>
       <c r="I110" s="4" t="s">
         <v>95</v>
@@ -6174,7 +6616,7 @@
         <v>96</v>
       </c>
       <c r="D111" s="31" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>141</v>
@@ -6195,23 +6637,23 @@
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D112" s="41" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="G112" s="4"/>
       <c r="H112" s="4" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>95</v>
@@ -6222,13 +6664,13 @@
         <v>112</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>669</v>
+        <v>652</v>
       </c>
       <c r="D113" s="42" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
@@ -6236,21 +6678,21 @@
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A114" s="33">
         <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D114" s="31" t="s">
-        <v>613</v>
+        <v>846</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>789</v>
+        <v>772</v>
       </c>
       <c r="F114" s="4" t="s">
         <v>118</v>
@@ -6268,16 +6710,16 @@
         <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>688</v>
+        <v>671</v>
       </c>
       <c r="C115" s="43" t="s">
         <v>4</v>
       </c>
       <c r="D115" s="41" t="s">
-        <v>688</v>
+        <v>671</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>790</v>
+        <v>773</v>
       </c>
       <c r="F115" s="4" t="s">
         <v>111</v>
@@ -6295,13 +6737,13 @@
         <v>115</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>688</v>
+        <v>671</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>669</v>
+        <v>652</v>
       </c>
       <c r="D116" s="42" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
@@ -6314,13 +6756,13 @@
         <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>688</v>
+        <v>671</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>669</v>
+        <v>652</v>
       </c>
       <c r="D117" s="42" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
@@ -6328,21 +6770,21 @@
       <c r="H117" s="4"/>
       <c r="I117" s="43"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A118" s="33">
         <v>117</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>688</v>
+        <v>671</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D118" s="30" t="s">
-        <v>614</v>
+        <v>847</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>790</v>
+        <v>773</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>111</v>
@@ -6360,23 +6802,23 @@
         <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>688</v>
+        <v>671</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D119" s="30" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>791</v>
+        <v>774</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="G119" s="4"/>
       <c r="H119" s="4" t="s">
-        <v>741</v>
+        <v>724</v>
       </c>
       <c r="I119" s="43" t="s">
         <v>95</v>
@@ -6387,23 +6829,23 @@
         <v>119</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>688</v>
+        <v>671</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D120" s="30" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>792</v>
+        <v>775</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="G120" s="4"/>
       <c r="H120" s="4" t="s">
-        <v>742</v>
+        <v>725</v>
       </c>
       <c r="I120" s="43" t="s">
         <v>95</v>
@@ -6423,7 +6865,7 @@
         <v>83</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>793</v>
+        <v>776</v>
       </c>
       <c r="F121" s="4" t="s">
         <v>83</v>
@@ -6444,7 +6886,7 @@
         <v>83</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>669</v>
+        <v>652</v>
       </c>
       <c r="D122" s="42" t="s">
         <v>558</v>
@@ -6463,10 +6905,10 @@
         <v>83</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>669</v>
+        <v>652</v>
       </c>
       <c r="D123" s="42" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="4"/>
@@ -6482,10 +6924,10 @@
         <v>83</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>669</v>
+        <v>652</v>
       </c>
       <c r="D124" s="42" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E124" s="1"/>
       <c r="F124" s="4"/>
@@ -6501,10 +6943,10 @@
         <v>83</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>669</v>
+        <v>652</v>
       </c>
       <c r="D125" s="42" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="4"/>
@@ -6523,10 +6965,10 @@
         <v>96</v>
       </c>
       <c r="D126" s="31" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>794</v>
+        <v>777</v>
       </c>
       <c r="F126" s="4" t="s">
         <v>85</v>
@@ -6544,16 +6986,16 @@
         <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>689</v>
+        <v>672</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D127" s="41" t="s">
-        <v>689</v>
+        <v>672</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>795</v>
+        <v>778</v>
       </c>
       <c r="F127" s="4" t="s">
         <v>87</v>
@@ -6571,23 +7013,23 @@
         <v>127</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>689</v>
+        <v>672</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D128" s="31" t="s">
-        <v>559</v>
+        <v>834</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>795</v>
+        <v>778</v>
       </c>
       <c r="F128" s="4" t="s">
         <v>148</v>
       </c>
       <c r="G128" s="4"/>
       <c r="H128" s="4" t="s">
-        <v>664</v>
+        <v>647</v>
       </c>
       <c r="I128" s="43" t="s">
         <v>95</v>
@@ -6598,16 +7040,16 @@
         <v>128</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>690</v>
+        <v>673</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D129" s="41" t="s">
-        <v>690</v>
+        <v>673</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>796</v>
+        <v>779</v>
       </c>
       <c r="F129" s="4" t="s">
         <v>32</v>
@@ -6625,16 +7067,16 @@
         <v>129</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>690</v>
+        <v>673</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D130" s="31" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>797</v>
+        <v>780</v>
       </c>
       <c r="F130" s="4" t="s">
         <v>114</v>
@@ -6652,16 +7094,16 @@
         <v>130</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>690</v>
+        <v>673</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D131" s="31" t="s">
-        <v>562</v>
+        <v>848</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>798</v>
+        <v>781</v>
       </c>
       <c r="F131" s="4" t="s">
         <v>115</v>
@@ -6679,23 +7121,23 @@
         <v>131</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>690</v>
+        <v>673</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D132" s="50" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E132" s="33" t="s">
-        <v>799</v>
+        <v>782</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G132" s="33"/>
       <c r="H132" s="4" t="s">
-        <v>733</v>
+        <v>716</v>
       </c>
       <c r="I132" s="43" t="s">
         <v>95</v>
@@ -6706,23 +7148,23 @@
         <v>132</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>693</v>
+        <v>676</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D133" s="41" t="s">
-        <v>693</v>
+        <v>676</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>693</v>
+        <v>676</v>
       </c>
       <c r="G133" s="35"/>
       <c r="H133" s="4" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="I133" s="43" t="s">
         <v>95</v>
@@ -6733,23 +7175,23 @@
         <v>133</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>693</v>
+        <v>676</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D134" s="31" t="s">
-        <v>694</v>
+        <v>677</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>800</v>
+        <v>783</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="G134" s="35"/>
       <c r="H134" s="4" t="s">
-        <v>729</v>
+        <v>712</v>
       </c>
       <c r="I134" s="43" t="s">
         <v>95</v>
@@ -6760,23 +7202,23 @@
         <v>134</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>693</v>
+        <v>676</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D135" s="31" t="s">
-        <v>695</v>
+        <v>678</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>801</v>
+        <v>784</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>727</v>
+        <v>710</v>
       </c>
       <c r="G135" s="4"/>
       <c r="H135" s="4" t="s">
-        <v>730</v>
+        <v>713</v>
       </c>
       <c r="I135" s="43" t="s">
         <v>95</v>
@@ -6787,23 +7229,23 @@
         <v>135</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>693</v>
+        <v>676</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D136" s="31" t="s">
-        <v>696</v>
+        <v>679</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>802</v>
+        <v>785</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>700</v>
+        <v>683</v>
       </c>
       <c r="G136" s="4"/>
       <c r="H136" s="4" t="s">
-        <v>731</v>
+        <v>714</v>
       </c>
       <c r="I136" s="43" t="s">
         <v>95</v>
@@ -6814,23 +7256,23 @@
         <v>136</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>693</v>
+        <v>676</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D137" s="31" t="s">
-        <v>697</v>
+        <v>680</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>803</v>
+        <v>786</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>716</v>
+        <v>699</v>
       </c>
       <c r="G137" s="35"/>
       <c r="H137" s="4" t="s">
-        <v>732</v>
+        <v>715</v>
       </c>
       <c r="I137" s="43" t="s">
         <v>95</v>
@@ -6840,26 +7282,26 @@
       <c r="A138" s="33">
         <v>137</v>
       </c>
-      <c r="B138" s="56" t="s">
-        <v>844</v>
-      </c>
-      <c r="C138" s="62" t="s">
-        <v>843</v>
-      </c>
-      <c r="D138" s="63" t="s">
-        <v>844</v>
-      </c>
-      <c r="E138" s="62" t="s">
+      <c r="B138" s="51" t="s">
+        <v>826</v>
+      </c>
+      <c r="C138" s="57" t="s">
+        <v>825</v>
+      </c>
+      <c r="D138" s="58" t="s">
+        <v>826</v>
+      </c>
+      <c r="E138" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="F138" s="62" t="s">
-        <v>845</v>
-      </c>
-      <c r="G138" s="62"/>
-      <c r="H138" s="56" t="s">
-        <v>846</v>
-      </c>
-      <c r="I138" s="62" t="s">
+      <c r="F138" s="57" t="s">
+        <v>827</v>
+      </c>
+      <c r="G138" s="57"/>
+      <c r="H138" s="51" t="s">
+        <v>828</v>
+      </c>
+      <c r="I138" s="57" t="s">
         <v>95</v>
       </c>
     </row>
@@ -6867,39 +7309,39 @@
       <c r="A139" s="33">
         <v>138</v>
       </c>
-      <c r="B139" s="56" t="s">
-        <v>844</v>
-      </c>
-      <c r="C139" s="62" t="s">
-        <v>669</v>
-      </c>
-      <c r="D139" s="65" t="s">
-        <v>847</v>
-      </c>
-      <c r="E139" s="64"/>
+      <c r="B139" s="51" t="s">
+        <v>826</v>
+      </c>
+      <c r="C139" s="57" t="s">
+        <v>652</v>
+      </c>
+      <c r="D139" s="60" t="s">
+        <v>829</v>
+      </c>
+      <c r="E139" s="59"/>
       <c r="F139" s="33"/>
       <c r="G139" s="33"/>
       <c r="H139" s="33"/>
-      <c r="I139" s="64"/>
+      <c r="I139" s="59"/>
     </row>
     <row r="140" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A140" s="33">
         <v>139</v>
       </c>
-      <c r="B140" s="56" t="s">
-        <v>844</v>
-      </c>
-      <c r="C140" s="62" t="s">
-        <v>669</v>
-      </c>
-      <c r="D140" s="65" t="s">
-        <v>848</v>
-      </c>
-      <c r="E140" s="64"/>
+      <c r="B140" s="51" t="s">
+        <v>826</v>
+      </c>
+      <c r="C140" s="57" t="s">
+        <v>652</v>
+      </c>
+      <c r="D140" s="60" t="s">
+        <v>830</v>
+      </c>
+      <c r="E140" s="59"/>
       <c r="F140" s="33"/>
       <c r="G140" s="33"/>
       <c r="H140" s="33"/>
-      <c r="I140" s="64"/>
+      <c r="I140" s="59"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I140" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -6930,14 +7372,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="61" t="s">
         <v>508</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
       <c r="I1" s="6"/>
@@ -6948,16 +7390,16 @@
       <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:14" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="63" t="s">
         <v>507</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -6966,11 +7408,11 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:14" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="61" t="s">
         <v>509</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="32"/>
       <c r="E3" s="24"/>
       <c r="F3" s="20"/>
@@ -6994,10 +7436,10 @@
       <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:14" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="64" t="s">
         <v>158</v>
       </c>
-      <c r="B5" s="55"/>
+      <c r="B5" s="65"/>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
       <c r="E5" s="25"/>
@@ -7022,10 +7464,10 @@
         <v>96</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>701</v>
+        <v>684</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>712</v>
+        <v>695</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>0</v>
@@ -7042,13 +7484,13 @@
         <v>160</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>671</v>
+        <v>654</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>702</v>
+        <v>685</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>181</v>
@@ -7066,13 +7508,13 @@
         <v>160</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>671</v>
+        <v>654</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>702</v>
+        <v>685</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>182</v>
@@ -7090,13 +7532,13 @@
         <v>160</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>671</v>
+        <v>654</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>702</v>
+        <v>685</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>183</v>
@@ -7114,13 +7556,13 @@
         <v>160</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>671</v>
+        <v>654</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>702</v>
+        <v>685</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>184</v>
@@ -7138,13 +7580,13 @@
         <v>160</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>671</v>
+        <v>654</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>703</v>
+        <v>686</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>228</v>
@@ -7164,13 +7606,13 @@
         <v>160</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>671</v>
+        <v>654</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>703</v>
+        <v>686</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>229</v>
@@ -7190,13 +7632,13 @@
         <v>160</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>671</v>
+        <v>654</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>703</v>
+        <v>686</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>230</v>
@@ -7216,13 +7658,13 @@
         <v>160</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>671</v>
+        <v>654</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>703</v>
+        <v>686</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>231</v>
@@ -7242,13 +7684,13 @@
         <v>160</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>671</v>
+        <v>654</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>703</v>
+        <v>686</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>232</v>
@@ -7268,13 +7710,13 @@
         <v>160</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>671</v>
+        <v>654</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>703</v>
+        <v>686</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>233</v>
@@ -7294,13 +7736,13 @@
         <v>160</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>671</v>
+        <v>654</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>703</v>
+        <v>686</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>234</v>
@@ -7320,13 +7762,13 @@
         <v>160</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>671</v>
+        <v>654</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>703</v>
+        <v>686</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>235</v>
@@ -7346,13 +7788,13 @@
         <v>160</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>671</v>
+        <v>654</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>703</v>
+        <v>686</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>236</v>
@@ -7372,13 +7814,13 @@
         <v>160</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>671</v>
+        <v>654</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>703</v>
+        <v>686</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>237</v>
@@ -7398,13 +7840,13 @@
         <v>160</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>671</v>
+        <v>654</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>703</v>
+        <v>686</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>238</v>
@@ -7424,13 +7866,13 @@
         <v>160</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>671</v>
+        <v>654</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>703</v>
+        <v>686</v>
       </c>
       <c r="E22" s="19" t="s">
         <v>239</v>
@@ -7450,13 +7892,13 @@
         <v>160</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>671</v>
+        <v>654</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>703</v>
+        <v>686</v>
       </c>
       <c r="E23" s="19" t="s">
         <v>240</v>
@@ -7476,13 +7918,13 @@
         <v>160</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>672</v>
+        <v>655</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>810</v>
+        <v>793</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>173</v>
@@ -7500,16 +7942,16 @@
         <v>160</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>672</v>
+        <v>655</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>810</v>
+        <v>793</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>816</v>
+        <v>799</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>164</v>
@@ -7526,13 +7968,13 @@
         <v>160</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>672</v>
+        <v>655</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>810</v>
+        <v>793</v>
       </c>
       <c r="E26" s="15" t="s">
         <v>174</v>
@@ -7550,13 +7992,13 @@
         <v>160</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>672</v>
+        <v>655</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>810</v>
+        <v>793</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>175</v>
@@ -7574,13 +8016,13 @@
         <v>160</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>672</v>
+        <v>655</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>810</v>
+        <v>793</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>176</v>
@@ -7601,20 +8043,20 @@
         <v>536</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>811</v>
+        <v>794</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>747</v>
+        <v>730</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>744</v>
+        <v>727</v>
       </c>
       <c r="G29" s="15"/>
       <c r="H29" s="15" t="s">
-        <v>743</v>
+        <v>726</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="14" customFormat="1" ht="25" x14ac:dyDescent="0.35">
@@ -7625,20 +8067,20 @@
         <v>536</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>811</v>
+        <v>794</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>746</v>
+        <v>729</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>745</v>
+        <v>728</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="15" t="s">
-        <v>750</v>
+        <v>733</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="14" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.35">
@@ -7649,22 +8091,22 @@
         <v>536</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>811</v>
+        <v>794</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>817</v>
+        <v>800</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>748</v>
+        <v>731</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>751</v>
+        <v>734</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="14" customFormat="1" ht="25" x14ac:dyDescent="0.35">
@@ -7672,13 +8114,13 @@
         <v>160</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>704</v>
+        <v>687</v>
       </c>
       <c r="E32" s="19" t="s">
         <v>411</v>
@@ -7698,13 +8140,13 @@
         <v>160</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>704</v>
+        <v>687</v>
       </c>
       <c r="E33" s="19" t="s">
         <v>412</v>
@@ -7722,13 +8164,13 @@
         <v>160</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>704</v>
+        <v>687</v>
       </c>
       <c r="E34" s="19" t="s">
         <v>413</v>
@@ -7746,13 +8188,13 @@
         <v>160</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>704</v>
+        <v>687</v>
       </c>
       <c r="E35" s="19" t="s">
         <v>414</v>
@@ -7770,13 +8212,13 @@
         <v>160</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>704</v>
+        <v>687</v>
       </c>
       <c r="E36" s="19" t="s">
         <v>415</v>
@@ -7794,13 +8236,13 @@
         <v>160</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>704</v>
+        <v>687</v>
       </c>
       <c r="E37" s="19" t="s">
         <v>416</v>
@@ -7818,13 +8260,13 @@
         <v>160</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>704</v>
+        <v>687</v>
       </c>
       <c r="E38" s="19" t="s">
         <v>417</v>
@@ -7842,13 +8284,13 @@
         <v>160</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>704</v>
+        <v>687</v>
       </c>
       <c r="E39" s="19" t="s">
         <v>418</v>
@@ -7868,13 +8310,13 @@
         <v>160</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>704</v>
+        <v>687</v>
       </c>
       <c r="E40" s="19" t="s">
         <v>419</v>
@@ -7892,13 +8334,13 @@
         <v>160</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>704</v>
+        <v>687</v>
       </c>
       <c r="E41" s="19" t="s">
         <v>420</v>
@@ -7916,13 +8358,13 @@
         <v>160</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>704</v>
+        <v>687</v>
       </c>
       <c r="E42" s="19" t="s">
         <v>421</v>
@@ -7942,13 +8384,13 @@
         <v>160</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="E43" s="19" t="s">
         <v>478</v>
@@ -7966,13 +8408,13 @@
         <v>160</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="E44" s="19" t="s">
         <v>479</v>
@@ -7990,13 +8432,13 @@
         <v>160</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="E45" s="19" t="s">
         <v>480</v>
@@ -8014,13 +8456,13 @@
         <v>160</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="E46" s="19" t="s">
         <v>481</v>
@@ -8038,13 +8480,13 @@
         <v>160</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="E47" s="19" t="s">
         <v>482</v>
@@ -8062,13 +8504,13 @@
         <v>160</v>
       </c>
       <c r="B48" s="36" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="E48" s="19" t="s">
         <v>483</v>
@@ -8086,13 +8528,13 @@
         <v>160</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="E49" s="19" t="s">
         <v>414</v>
@@ -8110,13 +8552,13 @@
         <v>160</v>
       </c>
       <c r="B50" s="36" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="E50" s="19" t="s">
         <v>484</v>
@@ -8134,13 +8576,13 @@
         <v>160</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="E51" s="19" t="s">
         <v>485</v>
@@ -8158,13 +8600,13 @@
         <v>160</v>
       </c>
       <c r="B52" s="36" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="E52" s="19" t="s">
         <v>486</v>
@@ -8182,13 +8624,13 @@
         <v>160</v>
       </c>
       <c r="B53" s="36" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="E53" s="19" t="s">
         <v>487</v>
@@ -8206,13 +8648,13 @@
         <v>160</v>
       </c>
       <c r="B54" s="36" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="E54" s="19" t="s">
         <v>488</v>
@@ -8232,13 +8674,13 @@
         <v>160</v>
       </c>
       <c r="B55" s="36" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="E55" s="19" t="s">
         <v>489</v>
@@ -8256,13 +8698,13 @@
         <v>160</v>
       </c>
       <c r="B56" s="36" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="E56" s="19" t="s">
         <v>490</v>
@@ -8280,13 +8722,13 @@
         <v>160</v>
       </c>
       <c r="B57" s="36" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="E57" s="19" t="s">
         <v>491</v>
@@ -8304,13 +8746,13 @@
         <v>160</v>
       </c>
       <c r="B58" s="36" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="E58" s="19" t="s">
         <v>492</v>
@@ -8328,13 +8770,13 @@
         <v>160</v>
       </c>
       <c r="B59" s="36" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="E59" s="19" t="s">
         <v>493</v>
@@ -8352,13 +8794,13 @@
         <v>160</v>
       </c>
       <c r="B60" s="36" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="E60" s="19" t="s">
         <v>494</v>
@@ -8376,13 +8818,13 @@
         <v>160</v>
       </c>
       <c r="B61" s="36" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="E61" s="19" t="s">
         <v>495</v>
@@ -8400,13 +8842,13 @@
         <v>160</v>
       </c>
       <c r="B62" s="36" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="E62" s="19" t="s">
         <v>496</v>
@@ -8424,13 +8866,13 @@
         <v>160</v>
       </c>
       <c r="B63" s="36" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="E63" s="19" t="s">
         <v>497</v>
@@ -8448,13 +8890,13 @@
         <v>160</v>
       </c>
       <c r="B64" s="36" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="E64" s="19" t="s">
         <v>418</v>
@@ -8474,13 +8916,13 @@
         <v>160</v>
       </c>
       <c r="B65" s="36" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="E65" s="19" t="s">
         <v>498</v>
@@ -8498,13 +8940,13 @@
         <v>160</v>
       </c>
       <c r="B66" s="36" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="E66" s="19" t="s">
         <v>499</v>
@@ -8522,13 +8964,13 @@
         <v>160</v>
       </c>
       <c r="B67" s="36" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="E67" s="19" t="s">
         <v>500</v>
@@ -8546,13 +8988,13 @@
         <v>160</v>
       </c>
       <c r="B68" s="36" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="E68" s="19" t="s">
         <v>501</v>
@@ -8572,13 +9014,13 @@
         <v>160</v>
       </c>
       <c r="B69" s="36" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="E69" s="19" t="s">
         <v>502</v>
@@ -8596,13 +9038,13 @@
         <v>160</v>
       </c>
       <c r="B70" s="36" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="E70" s="19" t="s">
         <v>421</v>
@@ -8622,13 +9064,13 @@
         <v>160</v>
       </c>
       <c r="B71" s="36" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="E71" s="19" t="s">
         <v>503</v>
@@ -8646,13 +9088,13 @@
         <v>160</v>
       </c>
       <c r="B72" s="36" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="E72" s="19" t="s">
         <v>504</v>
@@ -8670,13 +9112,13 @@
         <v>160</v>
       </c>
       <c r="B73" s="36" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>706</v>
+        <v>689</v>
       </c>
       <c r="E73" s="19" t="s">
         <v>251</v>
@@ -8694,13 +9136,13 @@
         <v>160</v>
       </c>
       <c r="B74" s="36" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>706</v>
+        <v>689</v>
       </c>
       <c r="E74" s="19" t="s">
         <v>252</v>
@@ -8718,13 +9160,13 @@
         <v>160</v>
       </c>
       <c r="B75" s="36" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="D75" s="19" t="s">
-        <v>706</v>
+        <v>689</v>
       </c>
       <c r="E75" s="19" t="s">
         <v>253</v>
@@ -8742,13 +9184,13 @@
         <v>160</v>
       </c>
       <c r="B76" s="36" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>706</v>
+        <v>689</v>
       </c>
       <c r="E76" s="19" t="s">
         <v>254</v>
@@ -8766,13 +9208,13 @@
         <v>160</v>
       </c>
       <c r="B77" s="36" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>706</v>
+        <v>689</v>
       </c>
       <c r="E77" s="19" t="s">
         <v>255</v>
@@ -8790,13 +9232,13 @@
         <v>160</v>
       </c>
       <c r="B78" s="36" t="s">
-        <v>678</v>
+        <v>661</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>812</v>
+        <v>795</v>
       </c>
       <c r="E78" s="15" t="s">
         <v>505</v>
@@ -8808,7 +9250,7 @@
         <v>522</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>833</v>
+        <v>816</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="25" x14ac:dyDescent="0.35">
@@ -8816,13 +9258,13 @@
         <v>160</v>
       </c>
       <c r="B79" s="36" t="s">
-        <v>678</v>
+        <v>661</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>812</v>
+        <v>795</v>
       </c>
       <c r="E79" s="15" t="s">
         <v>519</v>
@@ -8834,7 +9276,7 @@
         <v>523</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>834</v>
+        <v>817</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="37.5" x14ac:dyDescent="0.35">
@@ -8842,13 +9284,13 @@
         <v>160</v>
       </c>
       <c r="B80" s="36" t="s">
-        <v>679</v>
+        <v>662</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>813</v>
+        <v>796</v>
       </c>
       <c r="E80" s="19" t="s">
         <v>262</v>
@@ -8866,13 +9308,13 @@
         <v>160</v>
       </c>
       <c r="B81" s="36" t="s">
-        <v>679</v>
+        <v>662</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>813</v>
+        <v>796</v>
       </c>
       <c r="E81" s="19" t="s">
         <v>263</v>
@@ -8890,13 +9332,13 @@
         <v>160</v>
       </c>
       <c r="B82" s="36" t="s">
-        <v>679</v>
+        <v>662</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>813</v>
+        <v>796</v>
       </c>
       <c r="E82" s="19" t="s">
         <v>264</v>
@@ -8914,16 +9356,16 @@
         <v>160</v>
       </c>
       <c r="B83" s="36" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>660</v>
+        <v>643</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>814</v>
+        <v>797</v>
       </c>
       <c r="E83" s="19" t="s">
-        <v>818</v>
+        <v>801</v>
       </c>
       <c r="F83" s="19" t="s">
         <v>265</v>
@@ -8938,13 +9380,13 @@
         <v>160</v>
       </c>
       <c r="B84" s="36" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>660</v>
+        <v>643</v>
       </c>
       <c r="D84" s="19" t="s">
-        <v>814</v>
+        <v>797</v>
       </c>
       <c r="E84" s="19" t="s">
         <v>274</v>
@@ -8962,13 +9404,13 @@
         <v>160</v>
       </c>
       <c r="B85" s="36" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>660</v>
+        <v>643</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>814</v>
+        <v>797</v>
       </c>
       <c r="E85" s="19" t="s">
         <v>275</v>
@@ -8986,16 +9428,16 @@
         <v>160</v>
       </c>
       <c r="B86" s="36" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>660</v>
+        <v>643</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>814</v>
+        <v>797</v>
       </c>
       <c r="E86" s="19" t="s">
-        <v>819</v>
+        <v>802</v>
       </c>
       <c r="F86" s="19" t="s">
         <v>270</v>
@@ -9010,16 +9452,16 @@
         <v>160</v>
       </c>
       <c r="B87" s="36" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>660</v>
+        <v>643</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>814</v>
+        <v>797</v>
       </c>
       <c r="E87" s="19" t="s">
-        <v>820</v>
+        <v>803</v>
       </c>
       <c r="F87" s="19" t="s">
         <v>272</v>
@@ -9034,13 +9476,13 @@
         <v>160</v>
       </c>
       <c r="B88" s="36" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>707</v>
+        <v>690</v>
       </c>
       <c r="E88" s="19" t="s">
         <v>300</v>
@@ -9058,13 +9500,13 @@
         <v>160</v>
       </c>
       <c r="B89" s="36" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>707</v>
+        <v>690</v>
       </c>
       <c r="E89" s="19" t="s">
         <v>301</v>
@@ -9082,13 +9524,13 @@
         <v>160</v>
       </c>
       <c r="B90" s="36" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>707</v>
+        <v>690</v>
       </c>
       <c r="E90" s="19" t="s">
         <v>302</v>
@@ -9108,13 +9550,13 @@
         <v>160</v>
       </c>
       <c r="B91" s="36" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>707</v>
+        <v>690</v>
       </c>
       <c r="E91" s="19" t="s">
         <v>303</v>
@@ -9132,13 +9574,13 @@
         <v>160</v>
       </c>
       <c r="B92" s="36" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>707</v>
+        <v>690</v>
       </c>
       <c r="E92" s="19" t="s">
         <v>304</v>
@@ -9158,13 +9600,13 @@
         <v>160</v>
       </c>
       <c r="B93" s="36" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>707</v>
+        <v>690</v>
       </c>
       <c r="E93" s="19" t="s">
         <v>305</v>
@@ -9182,13 +9624,13 @@
         <v>160</v>
       </c>
       <c r="B94" s="36" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>707</v>
+        <v>690</v>
       </c>
       <c r="E94" s="19" t="s">
         <v>306</v>
@@ -9206,13 +9648,13 @@
         <v>160</v>
       </c>
       <c r="B95" s="36" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>707</v>
+        <v>690</v>
       </c>
       <c r="E95" s="19" t="s">
         <v>307</v>
@@ -9230,13 +9672,13 @@
         <v>160</v>
       </c>
       <c r="B96" s="36" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>707</v>
+        <v>690</v>
       </c>
       <c r="E96" s="19" t="s">
         <v>308</v>
@@ -9254,13 +9696,13 @@
         <v>160</v>
       </c>
       <c r="B97" s="36" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>707</v>
+        <v>690</v>
       </c>
       <c r="E97" s="19" t="s">
         <v>309</v>
@@ -9278,13 +9720,13 @@
         <v>160</v>
       </c>
       <c r="B98" s="36" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>707</v>
+        <v>690</v>
       </c>
       <c r="E98" s="19" t="s">
         <v>310</v>
@@ -9294,7 +9736,7 @@
       </c>
       <c r="G98" s="19"/>
       <c r="H98" s="19" t="s">
-        <v>708</v>
+        <v>691</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="37.5" x14ac:dyDescent="0.35">
@@ -9302,13 +9744,13 @@
         <v>160</v>
       </c>
       <c r="B99" s="36" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>707</v>
+        <v>690</v>
       </c>
       <c r="E99" s="19" t="s">
         <v>311</v>
@@ -9318,7 +9760,7 @@
       </c>
       <c r="G99" s="19"/>
       <c r="H99" s="19" t="s">
-        <v>709</v>
+        <v>692</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="25" x14ac:dyDescent="0.35">
@@ -9326,13 +9768,13 @@
         <v>160</v>
       </c>
       <c r="B100" s="36" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>815</v>
+        <v>798</v>
       </c>
       <c r="E100" s="19" t="s">
         <v>386</v>
@@ -9350,13 +9792,13 @@
         <v>160</v>
       </c>
       <c r="B101" s="36" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D101" s="19" t="s">
-        <v>710</v>
+        <v>693</v>
       </c>
       <c r="E101" s="19" t="s">
         <v>368</v>
@@ -9374,13 +9816,13 @@
         <v>160</v>
       </c>
       <c r="B102" s="36" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D102" s="19" t="s">
-        <v>710</v>
+        <v>693</v>
       </c>
       <c r="E102" s="19" t="s">
         <v>369</v>
@@ -9398,13 +9840,13 @@
         <v>160</v>
       </c>
       <c r="B103" s="36" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>710</v>
+        <v>693</v>
       </c>
       <c r="E103" s="19" t="s">
         <v>370</v>
@@ -9422,13 +9864,13 @@
         <v>160</v>
       </c>
       <c r="B104" s="36" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D104" s="19" t="s">
-        <v>710</v>
+        <v>693</v>
       </c>
       <c r="E104" s="19" t="s">
         <v>371</v>
@@ -9446,13 +9888,13 @@
         <v>160</v>
       </c>
       <c r="B105" s="36" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D105" s="19" t="s">
-        <v>710</v>
+        <v>693</v>
       </c>
       <c r="E105" s="19" t="s">
         <v>372</v>
@@ -9470,13 +9912,13 @@
         <v>160</v>
       </c>
       <c r="B106" s="36" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>710</v>
+        <v>693</v>
       </c>
       <c r="E106" s="19" t="s">
         <v>373</v>
@@ -9494,13 +9936,13 @@
         <v>160</v>
       </c>
       <c r="B107" s="36" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>710</v>
+        <v>693</v>
       </c>
       <c r="E107" s="19" t="s">
         <v>374</v>
@@ -9518,13 +9960,13 @@
         <v>160</v>
       </c>
       <c r="B108" s="36" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D108" s="19" t="s">
-        <v>710</v>
+        <v>693</v>
       </c>
       <c r="E108" s="19" t="s">
         <v>375</v>
@@ -9542,13 +9984,13 @@
         <v>160</v>
       </c>
       <c r="B109" s="36" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D109" s="19" t="s">
-        <v>710</v>
+        <v>693</v>
       </c>
       <c r="E109" s="19" t="s">
         <v>376</v>
@@ -9566,13 +10008,13 @@
         <v>160</v>
       </c>
       <c r="B110" s="36" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D110" s="19" t="s">
-        <v>710</v>
+        <v>693</v>
       </c>
       <c r="E110" s="19" t="s">
         <v>377</v>
@@ -9590,13 +10032,13 @@
         <v>160</v>
       </c>
       <c r="B111" s="36" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>710</v>
+        <v>693</v>
       </c>
       <c r="E111" s="19" t="s">
         <v>378</v>
@@ -9614,13 +10056,13 @@
         <v>160</v>
       </c>
       <c r="B112" s="36" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D112" s="19" t="s">
-        <v>710</v>
+        <v>693</v>
       </c>
       <c r="E112" s="19" t="s">
         <v>379</v>
@@ -9638,13 +10080,13 @@
         <v>160</v>
       </c>
       <c r="B113" s="36" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D113" s="19" t="s">
-        <v>710</v>
+        <v>693</v>
       </c>
       <c r="E113" s="19" t="s">
         <v>380</v>
@@ -9662,13 +10104,13 @@
         <v>160</v>
       </c>
       <c r="B114" s="36" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D114" s="19" t="s">
-        <v>710</v>
+        <v>693</v>
       </c>
       <c r="E114" s="19" t="s">
         <v>381</v>
@@ -9686,13 +10128,13 @@
         <v>160</v>
       </c>
       <c r="B115" s="36" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>710</v>
+        <v>693</v>
       </c>
       <c r="E115" s="19" t="s">
         <v>382</v>
@@ -9710,13 +10152,13 @@
         <v>160</v>
       </c>
       <c r="B116" s="36" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>710</v>
+        <v>693</v>
       </c>
       <c r="E116" s="19" t="s">
         <v>383</v>
@@ -9734,13 +10176,13 @@
         <v>160</v>
       </c>
       <c r="B117" s="36" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>710</v>
+        <v>693</v>
       </c>
       <c r="E117" s="19" t="s">
         <v>384</v>
@@ -9758,13 +10200,13 @@
         <v>160</v>
       </c>
       <c r="B118" s="36" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>710</v>
+        <v>693</v>
       </c>
       <c r="E118" s="19" t="s">
         <v>385</v>
@@ -9782,13 +10224,13 @@
         <v>160</v>
       </c>
       <c r="B119" s="36" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="E119" s="19" t="s">
         <v>326</v>
@@ -9808,13 +10250,13 @@
         <v>160</v>
       </c>
       <c r="B120" s="36" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C120" s="15" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="E120" s="19" t="s">
         <v>327</v>
@@ -9834,13 +10276,13 @@
         <v>160</v>
       </c>
       <c r="B121" s="36" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="E121" s="19" t="s">
         <v>328</v>
@@ -9858,13 +10300,13 @@
         <v>160</v>
       </c>
       <c r="B122" s="36" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C122" s="15" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="E122" s="19" t="s">
         <v>329</v>
@@ -9882,13 +10324,13 @@
         <v>160</v>
       </c>
       <c r="B123" s="36" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="E123" s="19" t="s">
         <v>330</v>
@@ -9906,13 +10348,13 @@
         <v>160</v>
       </c>
       <c r="B124" s="36" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C124" s="15" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D124" s="19" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="E124" s="19" t="s">
         <v>331</v>
@@ -9938,12 +10380,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10169,28 +10611,18 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6744B0D-B7F9-4CA7-A5DC-23D611E8ED20}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B4CE896-D144-40A9-85D3-0684E5DFDA36}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="de0c653c-2bd3-43b1-95fa-012c57f61cfe"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="848a8810-16a6-4d79-96d3-e3dfb86099b7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10216,9 +10648,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B4CE896-D144-40A9-85D3-0684E5DFDA36}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6744B0D-B7F9-4CA7-A5DC-23D611E8ED20}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="de0c653c-2bd3-43b1-95fa-012c57f61cfe"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="848a8810-16a6-4d79-96d3-e3dfb86099b7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Deliverables/CT/USDM_CT.xlsx
+++ b/Deliverables/CT/USDM_CT.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhlbradtee\Documents\GitHub\DDF-RA\Deliverables\CT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDAD830-5F21-419F-8630-5BA21C376DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E9CBD2-FFE5-4B46-B626-9CD8438180FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="17790" windowHeight="8850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="440" yWindow="470" windowWidth="18430" windowHeight="9680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DDF Entities&amp;Attributes" sheetId="4" r:id="rId1"/>
     <sheet name="DDF valid value sets" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DDF Entities&amp;Attributes'!$A$1:$I$140</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DDF Entities&amp;Attributes'!$A$1:$I$136</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DDF valid value sets'!$A$6:$N$124</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="845">
   <si>
     <t>Preferred Term</t>
   </si>
@@ -2475,18 +2475,6 @@
   </si>
   <si>
     <t>Therapeutic Area</t>
-  </si>
-  <si>
-    <t>Transition Start Rule</t>
-  </si>
-  <si>
-    <t>A criterion that establishes the beginning of a subject transition within a study workflow.</t>
-  </si>
-  <si>
-    <t>Transition End Rule</t>
-  </si>
-  <si>
-    <t>A criterion that establishes the end of a subject transition within a study workflow.</t>
   </si>
   <si>
     <r>
@@ -2595,507 +2583,65 @@
 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>interventionDesc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>interventionDescription</t>
-    </r>
-  </si>
-  <si>
     <t>studyDesignDescription</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>indicationDesc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>indicationDescription</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>populationDesc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>populationDescription</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>objectiveDesc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>objectiveDescription</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>endpointDesc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>endpointDescription</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>endpointPurposeDesc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>endpointPurposeDescription</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>studyArmDesc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>studyArmDescription</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>studyArmDataOriginDesc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>studyArmDataOriginDescription</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>studyEpochDesc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>studyEpochDescription</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>studyElementDesc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>studyElementDescription</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>transitionRuleDesc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>transitionRuleDescription</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>encounterDesc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>encounterDescription</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>activityDesc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>activityDescription</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>studyDataDesc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>studyDataDescription</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>workflowDesc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>workflowDescription</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>workflowItemDesc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>workflowItemDescription</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>intercurrentEventDesc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>intercurrentEventDescription</t>
-    </r>
+    <t>intercurrentEventDescription</t>
+  </si>
+  <si>
+    <t>populationDescription</t>
+  </si>
+  <si>
+    <t>workflowItemDescription</t>
+  </si>
+  <si>
+    <t>workflowDescription</t>
+  </si>
+  <si>
+    <t>studyDataDescription</t>
+  </si>
+  <si>
+    <t>activityDescription</t>
+  </si>
+  <si>
+    <t>encounterDescription</t>
+  </si>
+  <si>
+    <t>transitionRuleDescription</t>
+  </si>
+  <si>
+    <t>studyElementDescription</t>
+  </si>
+  <si>
+    <t>studyEpochDescription</t>
+  </si>
+  <si>
+    <t>studyArmDataOriginDescription</t>
+  </si>
+  <si>
+    <t>studyArmDescription</t>
+  </si>
+  <si>
+    <t>endpointPurposeDescription</t>
+  </si>
+  <si>
+    <t>endpointDescription</t>
+  </si>
+  <si>
+    <t>objectiveDescription</t>
+  </si>
+  <si>
+    <t>indicationDescription</t>
+  </si>
+  <si>
+    <t>interventionDescription</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3172,23 +2718,16 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -3303,7 +2842,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3440,50 +2979,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3499,6 +2996,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3791,7 +3294,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I140"/>
+  <dimension ref="A1:I136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4682,13 +4185,13 @@
       <c r="A36" s="33">
         <v>35</v>
       </c>
-      <c r="B36" s="51" t="s">
+      <c r="B36" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="C36" s="51" t="s">
+      <c r="C36" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="D36" s="52" t="s">
+      <c r="D36" s="42" t="s">
         <v>571</v>
       </c>
       <c r="E36" s="29"/>
@@ -4701,14 +4204,14 @@
       <c r="A37" s="33">
         <v>36</v>
       </c>
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="C37" s="51" t="s">
+      <c r="C37" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="D37" s="52" t="s">
-        <v>818</v>
+      <c r="D37" s="42" t="s">
+        <v>814</v>
       </c>
       <c r="E37" s="29"/>
       <c r="F37" s="4"/>
@@ -4824,7 +4327,7 @@
         <v>811</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>807</v>
@@ -4834,26 +4337,26 @@
       <c r="A42" s="33">
         <v>41</v>
       </c>
-      <c r="B42" s="56" t="s">
+      <c r="B42" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="C42" s="51" t="s">
+      <c r="C42" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D42" s="53" t="s">
-        <v>819</v>
-      </c>
-      <c r="E42" s="54" t="s">
+      <c r="D42" s="31" t="s">
+        <v>815</v>
+      </c>
+      <c r="E42" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F42" s="54" t="s">
-        <v>820</v>
-      </c>
-      <c r="G42" s="55"/>
-      <c r="H42" s="54" t="s">
-        <v>821</v>
-      </c>
-      <c r="I42" s="51" t="s">
+      <c r="F42" s="43" t="s">
+        <v>816</v>
+      </c>
+      <c r="G42" s="52"/>
+      <c r="H42" s="43" t="s">
+        <v>817</v>
+      </c>
+      <c r="I42" s="1" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4861,26 +4364,26 @@
       <c r="A43" s="33">
         <v>42</v>
       </c>
-      <c r="B43" s="56" t="s">
+      <c r="B43" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="C43" s="51" t="s">
+      <c r="C43" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D43" s="53" t="s">
-        <v>832</v>
-      </c>
-      <c r="E43" s="54" t="s">
+      <c r="D43" s="31" t="s">
+        <v>827</v>
+      </c>
+      <c r="E43" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="54" t="s">
-        <v>822</v>
-      </c>
-      <c r="G43" s="55"/>
-      <c r="H43" s="54" t="s">
-        <v>823</v>
-      </c>
-      <c r="I43" s="51" t="s">
+      <c r="F43" s="43" t="s">
+        <v>818</v>
+      </c>
+      <c r="G43" s="52"/>
+      <c r="H43" s="43" t="s">
+        <v>819</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4949,7 +4452,7 @@
         <v>96</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>831</v>
+        <v>844</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>102</v>
@@ -5030,7 +4533,7 @@
         <v>96</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>833</v>
+        <v>843</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>34</v>
@@ -5084,7 +4587,7 @@
         <v>96</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>743</v>
@@ -5146,7 +4649,7 @@
       <c r="H53" s="4"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="33">
         <v>53</v>
       </c>
@@ -5157,7 +4660,7 @@
         <v>96</v>
       </c>
       <c r="D54" s="31" t="s">
-        <v>835</v>
+        <v>842</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>124</v>
@@ -5227,7 +4730,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="33">
         <v>56</v>
       </c>
@@ -5238,7 +4741,7 @@
         <v>96</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>744</v>
@@ -5265,7 +4768,7 @@
         <v>96</v>
       </c>
       <c r="D58" s="31" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>745</v>
@@ -5446,7 +4949,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="33">
         <v>65</v>
       </c>
@@ -5457,7 +4960,7 @@
         <v>96</v>
       </c>
       <c r="D66" s="31" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>139</v>
@@ -5511,7 +5014,7 @@
         <v>96</v>
       </c>
       <c r="D68" s="31" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>749</v>
@@ -5627,7 +5130,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="33">
         <v>72</v>
       </c>
@@ -5638,7 +5141,7 @@
         <v>96</v>
       </c>
       <c r="D73" s="31" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>751</v>
@@ -5838,7 +5341,7 @@
         <v>96</v>
       </c>
       <c r="D81" s="31" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>756</v>
@@ -5854,57 +5357,57 @@
         <v>95</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A82" s="33">
         <v>81</v>
       </c>
-      <c r="B82" s="46" t="s">
-        <v>666</v>
-      </c>
-      <c r="C82" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="D82" s="48" t="s">
-        <v>572</v>
-      </c>
-      <c r="E82" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="F82" s="49" t="s">
-        <v>812</v>
-      </c>
-      <c r="G82" s="49"/>
-      <c r="H82" s="49" t="s">
-        <v>813</v>
-      </c>
-      <c r="I82" s="47" t="s">
+      <c r="B82" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" s="41" t="s">
+        <v>667</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I82" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="33">
         <v>82</v>
       </c>
-      <c r="B83" s="46" t="s">
-        <v>666</v>
-      </c>
-      <c r="C83" s="47" t="s">
+      <c r="B83" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D83" s="48" t="s">
-        <v>573</v>
-      </c>
-      <c r="E83" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="F83" s="49" t="s">
-        <v>814</v>
-      </c>
-      <c r="G83" s="49"/>
-      <c r="H83" s="49" t="s">
-        <v>815</v>
-      </c>
-      <c r="I83" s="47" t="s">
+      <c r="D83" s="31" t="s">
+        <v>835</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I83" s="1" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5913,56 +5416,48 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D84" s="41" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="G84" s="4"/>
-      <c r="H84" s="4" t="s">
-        <v>81</v>
+      <c r="H84" s="3" t="s">
+        <v>709</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="33">
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D85" s="31" t="s">
-        <v>842</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>110</v>
-      </c>
+        <v>652</v>
+      </c>
+      <c r="D85" s="42" t="s">
+        <v>572</v>
+      </c>
+      <c r="E85" s="1"/>
+      <c r="F85" s="4"/>
       <c r="G85" s="4"/>
-      <c r="H85" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="H85" s="3"/>
+      <c r="I85" s="1"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="33">
         <v>85</v>
       </c>
@@ -5970,26 +5465,18 @@
         <v>668</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D86" s="41" t="s">
-        <v>668</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>58</v>
-      </c>
+        <v>652</v>
+      </c>
+      <c r="D86" s="42" t="s">
+        <v>573</v>
+      </c>
+      <c r="E86" s="1"/>
+      <c r="F86" s="4"/>
       <c r="G86" s="4"/>
-      <c r="H86" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H86" s="3"/>
+      <c r="I86" s="1"/>
+    </row>
+    <row r="87" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A87" s="33">
         <v>86</v>
       </c>
@@ -5997,18 +5484,26 @@
         <v>668</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="D87" s="42" t="s">
-        <v>572</v>
-      </c>
-      <c r="E87" s="1"/>
-      <c r="F87" s="4"/>
+        <v>96</v>
+      </c>
+      <c r="D87" s="31" t="s">
+        <v>574</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="G87" s="4"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="1"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H87" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A88" s="33">
         <v>87</v>
       </c>
@@ -6016,41 +5511,49 @@
         <v>668</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="D88" s="42" t="s">
-        <v>573</v>
-      </c>
-      <c r="E88" s="1"/>
-      <c r="F88" s="4"/>
+        <v>96</v>
+      </c>
+      <c r="D88" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="G88" s="4"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="1"/>
+      <c r="H88" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I88" s="43" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="89" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A89" s="33">
         <v>88</v>
       </c>
-      <c r="B89" s="46" t="s">
+      <c r="B89" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="C89" s="47" t="s">
+      <c r="C89" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D89" s="48" t="s">
-        <v>572</v>
-      </c>
-      <c r="E89" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="F89" s="49" t="s">
-        <v>812</v>
-      </c>
-      <c r="G89" s="49"/>
-      <c r="H89" s="49" t="s">
-        <v>813</v>
-      </c>
-      <c r="I89" s="47" t="s">
+      <c r="D89" s="31" t="s">
+        <v>578</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="I89" s="43" t="s">
         <v>95</v>
       </c>
     </row>
@@ -6058,30 +5561,30 @@
       <c r="A90" s="33">
         <v>89</v>
       </c>
-      <c r="B90" s="46" t="s">
+      <c r="B90" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="C90" s="47" t="s">
+      <c r="C90" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D90" s="48" t="s">
-        <v>573</v>
-      </c>
-      <c r="E90" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="F90" s="49" t="s">
-        <v>814</v>
-      </c>
-      <c r="G90" s="49"/>
-      <c r="H90" s="49" t="s">
-        <v>815</v>
-      </c>
-      <c r="I90" s="47" t="s">
+      <c r="D90" s="31" t="s">
+        <v>579</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="I90" s="43" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A91" s="33">
         <v>90</v>
       </c>
@@ -6092,20 +5595,20 @@
         <v>96</v>
       </c>
       <c r="D91" s="31" t="s">
-        <v>574</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>120</v>
+        <v>575</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>761</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="G91" s="4"/>
-      <c r="H91" s="4" t="s">
-        <v>514</v>
+      <c r="H91" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>95</v>
+        <v>791</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -6119,20 +5622,20 @@
         <v>96</v>
       </c>
       <c r="D92" s="31" t="s">
-        <v>843</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>758</v>
+        <v>576</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>762</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I92" s="43" t="s">
-        <v>95</v>
+        <v>73</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -6146,131 +5649,115 @@
         <v>96</v>
       </c>
       <c r="D93" s="31" t="s">
-        <v>578</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>759</v>
+        <v>577</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>763</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>586</v>
+        <v>74</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="4" t="s">
-        <v>720</v>
-      </c>
-      <c r="I93" s="43" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A94" s="33">
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D94" s="31" t="s">
-        <v>579</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>760</v>
+        <v>4</v>
+      </c>
+      <c r="D94" s="41" t="s">
+        <v>669</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>587</v>
+        <v>60</v>
       </c>
       <c r="G94" s="4"/>
-      <c r="H94" s="4" t="s">
-        <v>721</v>
-      </c>
-      <c r="I94" s="43" t="s">
+      <c r="H94" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I94" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="33">
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D95" s="31" t="s">
-        <v>575</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>69</v>
-      </c>
+        <v>652</v>
+      </c>
+      <c r="D95" s="42" t="s">
+        <v>589</v>
+      </c>
+      <c r="E95" s="1"/>
+      <c r="F95" s="4"/>
       <c r="G95" s="4"/>
-      <c r="H95" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="H95" s="3"/>
+      <c r="I95" s="1"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="33">
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D96" s="31" t="s">
-        <v>576</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>72</v>
-      </c>
+        <v>652</v>
+      </c>
+      <c r="D96" s="42" t="s">
+        <v>590</v>
+      </c>
+      <c r="E96" s="1"/>
+      <c r="F96" s="4"/>
       <c r="G96" s="4"/>
-      <c r="H96" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>707</v>
-      </c>
+      <c r="H96" s="3"/>
+      <c r="I96" s="1"/>
     </row>
     <row r="97" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A97" s="33">
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D97" s="31" t="s">
-        <v>577</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>763</v>
+        <v>591</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>764</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>74</v>
+        <v>597</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+        <v>700</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A98" s="33">
         <v>97</v>
       </c>
@@ -6278,26 +5765,26 @@
         <v>669</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D98" s="41" t="s">
-        <v>669</v>
+        <v>96</v>
+      </c>
+      <c r="D98" s="31" t="s">
+        <v>833</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>89</v>
+        <v>553</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>60</v>
+        <v>554</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I98" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="I98" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A99" s="33">
         <v>98</v>
       </c>
@@ -6305,18 +5792,26 @@
         <v>669</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="D99" s="42" t="s">
-        <v>589</v>
-      </c>
-      <c r="E99" s="1"/>
-      <c r="F99" s="4"/>
+        <v>96</v>
+      </c>
+      <c r="D99" s="31" t="s">
+        <v>592</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>594</v>
+      </c>
       <c r="G99" s="4"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="1"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H99" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="I99" s="43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A100" s="33">
         <v>99</v>
       </c>
@@ -6324,41 +5819,49 @@
         <v>669</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="D100" s="42" t="s">
-        <v>590</v>
-      </c>
-      <c r="E100" s="1"/>
-      <c r="F100" s="4"/>
+        <v>96</v>
+      </c>
+      <c r="D100" s="31" t="s">
+        <v>593</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>595</v>
+      </c>
       <c r="G100" s="4"/>
-      <c r="H100" s="3"/>
-      <c r="I100" s="1"/>
-    </row>
-    <row r="101" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="H100" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="I100" s="43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="33">
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D101" s="31" t="s">
-        <v>591</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>764</v>
+        <v>4</v>
+      </c>
+      <c r="D101" s="41" t="s">
+        <v>670</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>767</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>597</v>
+        <v>76</v>
       </c>
       <c r="G101" s="4"/>
-      <c r="H101" s="4" t="s">
-        <v>700</v>
-      </c>
-      <c r="I101" s="4" t="s">
+      <c r="H101" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I101" s="1" t="s">
         <v>95</v>
       </c>
     </row>
@@ -6367,25 +5870,25 @@
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D102" s="31" t="s">
-        <v>844</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>553</v>
+        <v>596</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>768</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>554</v>
+        <v>152</v>
       </c>
       <c r="G102" s="4"/>
-      <c r="H102" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="I102" s="4" t="s">
+      <c r="H102" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="I102" s="43" t="s">
         <v>95</v>
       </c>
     </row>
@@ -6394,23 +5897,23 @@
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D103" s="31" t="s">
-        <v>592</v>
+        <v>832</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>594</v>
+        <v>153</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="4" t="s">
-        <v>722</v>
+        <v>128</v>
       </c>
       <c r="I103" s="43" t="s">
         <v>95</v>
@@ -6421,318 +5924,302 @@
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D104" s="31" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>595</v>
+        <v>649</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="4" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="I104" s="43" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A105" s="33">
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>670</v>
+        <v>90</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D105" s="41" t="s">
-        <v>670</v>
+        <v>90</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>767</v>
+        <v>79</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="G105" s="4"/>
-      <c r="H105" s="3" t="s">
-        <v>77</v>
+      <c r="H105" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="33">
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>670</v>
+        <v>90</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D106" s="31" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="I106" s="43" t="s">
+        <v>698</v>
+      </c>
+      <c r="I106" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" ht="50" x14ac:dyDescent="0.35">
       <c r="A107" s="33">
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>670</v>
+        <v>90</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D107" s="31" t="s">
-        <v>845</v>
+        <v>600</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>769</v>
+        <v>141</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="G107" s="4"/>
       <c r="H107" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="I107" s="43" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="50" x14ac:dyDescent="0.35">
       <c r="A108" s="33">
         <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>670</v>
+        <v>603</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D108" s="31" t="s">
-        <v>598</v>
+        <v>4</v>
+      </c>
+      <c r="D108" s="41" t="s">
+        <v>603</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>770</v>
+        <v>602</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>649</v>
+        <v>603</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="4" t="s">
-        <v>717</v>
-      </c>
-      <c r="I108" s="43" t="s">
+        <v>601</v>
+      </c>
+      <c r="I108" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="33">
         <v>108</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>90</v>
+        <v>603</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D109" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>90</v>
-      </c>
+        <v>652</v>
+      </c>
+      <c r="D109" s="42" t="s">
+        <v>604</v>
+      </c>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
       <c r="G109" s="4"/>
-      <c r="H109" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="33">
         <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>90</v>
+        <v>603</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D110" s="31" t="s">
-        <v>599</v>
+        <v>831</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="4" t="s">
-        <v>698</v>
-      </c>
-      <c r="I110" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I110" s="43" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="33">
         <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D111" s="31" t="s">
-        <v>600</v>
+        <v>671</v>
+      </c>
+      <c r="C111" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D111" s="41" t="s">
+        <v>671</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>141</v>
+        <v>773</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G111" s="4"/>
       <c r="H111" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="33">
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>603</v>
+        <v>671</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D112" s="41" t="s">
-        <v>603</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>603</v>
-      </c>
+        <v>652</v>
+      </c>
+      <c r="D112" s="42" t="s">
+        <v>585</v>
+      </c>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
       <c r="G112" s="4"/>
-      <c r="H112" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="H112" s="4"/>
+      <c r="I112" s="43"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="33">
         <v>112</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>603</v>
+        <v>671</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>652</v>
       </c>
       <c r="D113" s="42" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
-      <c r="I113" s="4"/>
-    </row>
-    <row r="114" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="I113" s="43"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="33">
         <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>603</v>
+        <v>671</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D114" s="31" t="s">
-        <v>846</v>
+      <c r="D114" s="30" t="s">
+        <v>830</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>772</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>118</v>
+        <v>773</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="G114" s="4"/>
       <c r="H114" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="I114" s="43" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A115" s="33">
         <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="C115" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D115" s="41" t="s">
-        <v>671</v>
+      <c r="C115" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D115" s="30" t="s">
+        <v>605</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>111</v>
+        <v>607</v>
       </c>
       <c r="G115" s="4"/>
       <c r="H115" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="I115" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I115" s="43" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A116" s="33">
         <v>115</v>
       </c>
@@ -6740,118 +6227,110 @@
         <v>671</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="D116" s="42" t="s">
-        <v>585</v>
-      </c>
-      <c r="E116" s="4"/>
-      <c r="F116" s="4"/>
+        <v>96</v>
+      </c>
+      <c r="D116" s="30" t="s">
+        <v>606</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>608</v>
+      </c>
       <c r="G116" s="4"/>
-      <c r="H116" s="4"/>
-      <c r="I116" s="43"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H116" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="I116" s="43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A117" s="33">
         <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>671</v>
+        <v>83</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="D117" s="42" t="s">
-        <v>588</v>
-      </c>
-      <c r="E117" s="4"/>
-      <c r="F117" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="D117" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="G117" s="4"/>
-      <c r="H117" s="4"/>
-      <c r="I117" s="43"/>
-    </row>
-    <row r="118" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="H117" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="33">
         <v>117</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>671</v>
+        <v>83</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D118" s="30" t="s">
-        <v>847</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>773</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>111</v>
-      </c>
+        <v>652</v>
+      </c>
+      <c r="D118" s="42" t="s">
+        <v>558</v>
+      </c>
+      <c r="E118" s="1"/>
+      <c r="F118" s="4"/>
       <c r="G118" s="4"/>
-      <c r="H118" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="I118" s="43" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="H118" s="4"/>
+      <c r="I118" s="1"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="33">
         <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>671</v>
+        <v>83</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D119" s="30" t="s">
-        <v>605</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>774</v>
-      </c>
-      <c r="F119" s="4" t="s">
-        <v>607</v>
-      </c>
+        <v>652</v>
+      </c>
+      <c r="D119" s="42" t="s">
+        <v>559</v>
+      </c>
+      <c r="E119" s="1"/>
+      <c r="F119" s="4"/>
       <c r="G119" s="4"/>
-      <c r="H119" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="I119" s="43" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="H119" s="4"/>
+      <c r="I119" s="1"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="33">
         <v>119</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>671</v>
+        <v>83</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D120" s="30" t="s">
-        <v>606</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>775</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>608</v>
-      </c>
+        <v>652</v>
+      </c>
+      <c r="D120" s="42" t="s">
+        <v>565</v>
+      </c>
+      <c r="E120" s="1"/>
+      <c r="F120" s="4"/>
       <c r="G120" s="4"/>
-      <c r="H120" s="4" t="s">
-        <v>725</v>
-      </c>
-      <c r="I120" s="43" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="H120" s="4"/>
+      <c r="I120" s="1"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="33">
         <v>120</v>
       </c>
@@ -6859,26 +6338,18 @@
         <v>83</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D121" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="F121" s="4" t="s">
-        <v>83</v>
-      </c>
+        <v>652</v>
+      </c>
+      <c r="D121" s="42" t="s">
+        <v>564</v>
+      </c>
+      <c r="E121" s="1"/>
+      <c r="F121" s="4"/>
       <c r="G121" s="4"/>
-      <c r="H121" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I121" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H121" s="4"/>
+      <c r="I121" s="1"/>
+    </row>
+    <row r="122" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A122" s="33">
         <v>121</v>
       </c>
@@ -6886,125 +6357,157 @@
         <v>83</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="D122" s="42" t="s">
-        <v>558</v>
-      </c>
-      <c r="E122" s="1"/>
-      <c r="F122" s="4"/>
+        <v>96</v>
+      </c>
+      <c r="D122" s="31" t="s">
+        <v>562</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="G122" s="4"/>
-      <c r="H122" s="4"/>
-      <c r="I122" s="1"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H122" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="75" x14ac:dyDescent="0.35">
       <c r="A123" s="33">
         <v>122</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>83</v>
+        <v>672</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="D123" s="42" t="s">
-        <v>559</v>
-      </c>
-      <c r="E123" s="1"/>
-      <c r="F123" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="D123" s="41" t="s">
+        <v>672</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="G123" s="4"/>
-      <c r="H123" s="4"/>
-      <c r="I123" s="1"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H123" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A124" s="33">
         <v>123</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>83</v>
+        <v>672</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="D124" s="42" t="s">
-        <v>565</v>
-      </c>
-      <c r="E124" s="1"/>
-      <c r="F124" s="4"/>
+        <v>96</v>
+      </c>
+      <c r="D124" s="31" t="s">
+        <v>829</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="G124" s="4"/>
-      <c r="H124" s="4"/>
-      <c r="I124" s="1"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H124" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="I124" s="43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="50" x14ac:dyDescent="0.35">
       <c r="A125" s="33">
         <v>124</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>83</v>
+        <v>673</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="D125" s="42" t="s">
-        <v>564</v>
-      </c>
-      <c r="E125" s="1"/>
-      <c r="F125" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="D125" s="41" t="s">
+        <v>673</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="G125" s="4"/>
-      <c r="H125" s="4"/>
-      <c r="I125" s="1"/>
+      <c r="H125" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="126" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A126" s="33">
         <v>125</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>83</v>
+        <v>673</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D126" s="31" t="s">
-        <v>562</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>777</v>
+        <v>560</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>780</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="G126" s="4"/>
       <c r="H126" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="I126" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="I126" s="43" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="75" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A127" s="33">
         <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D127" s="41" t="s">
-        <v>672</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>778</v>
+        <v>96</v>
+      </c>
+      <c r="D127" s="31" t="s">
+        <v>828</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>781</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="G127" s="4"/>
       <c r="H127" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="I127" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I127" s="43" t="s">
         <v>95</v>
       </c>
     </row>
@@ -7013,77 +6516,77 @@
         <v>127</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D128" s="31" t="s">
-        <v>834</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="G128" s="4"/>
+      <c r="D128" s="46" t="s">
+        <v>561</v>
+      </c>
+      <c r="E128" s="33" t="s">
+        <v>782</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="G128" s="33"/>
       <c r="H128" s="4" t="s">
-        <v>647</v>
+        <v>716</v>
       </c>
       <c r="I128" s="43" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A129" s="33">
         <v>128</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D129" s="41" t="s">
-        <v>673</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>779</v>
+        <v>676</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>682</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G129" s="4"/>
+        <v>676</v>
+      </c>
+      <c r="G129" s="35"/>
       <c r="H129" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="I129" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="I129" s="43" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="33">
         <v>129</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D130" s="31" t="s">
-        <v>560</v>
+        <v>677</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G130" s="4"/>
+        <v>711</v>
+      </c>
+      <c r="G130" s="35"/>
       <c r="H130" s="4" t="s">
-        <v>515</v>
+        <v>712</v>
       </c>
       <c r="I130" s="43" t="s">
         <v>95</v>
@@ -7094,50 +6597,50 @@
         <v>130</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D131" s="31" t="s">
-        <v>848</v>
+        <v>678</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>115</v>
+        <v>710</v>
       </c>
       <c r="G131" s="4"/>
       <c r="H131" s="4" t="s">
-        <v>129</v>
+        <v>713</v>
       </c>
       <c r="I131" s="43" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="33">
         <v>131</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D132" s="50" t="s">
-        <v>561</v>
-      </c>
-      <c r="E132" s="33" t="s">
-        <v>782</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="G132" s="33"/>
+      <c r="D132" s="31" t="s">
+        <v>679</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="G132" s="4"/>
       <c r="H132" s="4" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="I132" s="43" t="s">
         <v>95</v>
@@ -7151,200 +6654,92 @@
         <v>676</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D133" s="41" t="s">
-        <v>676</v>
+        <v>96</v>
+      </c>
+      <c r="D133" s="31" t="s">
+        <v>680</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>682</v>
+        <v>786</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>676</v>
+        <v>699</v>
       </c>
       <c r="G133" s="35"/>
       <c r="H133" s="4" t="s">
-        <v>681</v>
+        <v>715</v>
       </c>
       <c r="I133" s="43" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A134" s="33">
         <v>133</v>
       </c>
-      <c r="B134" s="4" t="s">
-        <v>676</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D134" s="31" t="s">
-        <v>677</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>783</v>
-      </c>
-      <c r="F134" s="4" t="s">
-        <v>711</v>
-      </c>
-      <c r="G134" s="35"/>
-      <c r="H134" s="4" t="s">
-        <v>712</v>
-      </c>
-      <c r="I134" s="43" t="s">
+      <c r="B134" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="C134" s="33" t="s">
+        <v>821</v>
+      </c>
+      <c r="D134" s="41" t="s">
+        <v>822</v>
+      </c>
+      <c r="E134" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F134" s="33" t="s">
+        <v>823</v>
+      </c>
+      <c r="G134" s="33"/>
+      <c r="H134" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="I134" s="33" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="33">
         <v>134</v>
       </c>
-      <c r="B135" s="4" t="s">
-        <v>676</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D135" s="31" t="s">
-        <v>678</v>
-      </c>
-      <c r="E135" s="4" t="s">
-        <v>784</v>
-      </c>
-      <c r="F135" s="4" t="s">
-        <v>710</v>
-      </c>
-      <c r="G135" s="4"/>
-      <c r="H135" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="I135" s="43" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B135" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="C135" s="33" t="s">
+        <v>652</v>
+      </c>
+      <c r="D135" s="53" t="s">
+        <v>825</v>
+      </c>
+      <c r="E135" s="33"/>
+      <c r="F135" s="33"/>
+      <c r="G135" s="33"/>
+      <c r="H135" s="33"/>
+      <c r="I135" s="33"/>
+    </row>
+    <row r="136" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A136" s="33">
         <v>135</v>
       </c>
-      <c r="B136" s="4" t="s">
-        <v>676</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D136" s="31" t="s">
-        <v>679</v>
-      </c>
-      <c r="E136" s="4" t="s">
-        <v>785</v>
-      </c>
-      <c r="F136" s="4" t="s">
-        <v>683</v>
-      </c>
-      <c r="G136" s="4"/>
-      <c r="H136" s="4" t="s">
-        <v>714</v>
-      </c>
-      <c r="I136" s="43" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A137" s="33">
-        <v>136</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>676</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D137" s="31" t="s">
-        <v>680</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>786</v>
-      </c>
-      <c r="F137" s="4" t="s">
-        <v>699</v>
-      </c>
-      <c r="G137" s="35"/>
-      <c r="H137" s="4" t="s">
-        <v>715</v>
-      </c>
-      <c r="I137" s="43" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A138" s="33">
-        <v>137</v>
-      </c>
-      <c r="B138" s="51" t="s">
+      <c r="B136" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="C136" s="33" t="s">
+        <v>652</v>
+      </c>
+      <c r="D136" s="53" t="s">
         <v>826</v>
       </c>
-      <c r="C138" s="57" t="s">
-        <v>825</v>
-      </c>
-      <c r="D138" s="58" t="s">
-        <v>826</v>
-      </c>
-      <c r="E138" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F138" s="57" t="s">
-        <v>827</v>
-      </c>
-      <c r="G138" s="57"/>
-      <c r="H138" s="51" t="s">
-        <v>828</v>
-      </c>
-      <c r="I138" s="57" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A139" s="33">
-        <v>138</v>
-      </c>
-      <c r="B139" s="51" t="s">
-        <v>826</v>
-      </c>
-      <c r="C139" s="57" t="s">
-        <v>652</v>
-      </c>
-      <c r="D139" s="60" t="s">
-        <v>829</v>
-      </c>
-      <c r="E139" s="59"/>
-      <c r="F139" s="33"/>
-      <c r="G139" s="33"/>
-      <c r="H139" s="33"/>
-      <c r="I139" s="59"/>
-    </row>
-    <row r="140" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A140" s="33">
-        <v>139</v>
-      </c>
-      <c r="B140" s="51" t="s">
-        <v>826</v>
-      </c>
-      <c r="C140" s="57" t="s">
-        <v>652</v>
-      </c>
-      <c r="D140" s="60" t="s">
-        <v>830</v>
-      </c>
-      <c r="E140" s="59"/>
-      <c r="F140" s="33"/>
-      <c r="G140" s="33"/>
-      <c r="H140" s="33"/>
-      <c r="I140" s="59"/>
+      <c r="E136" s="33"/>
+      <c r="F136" s="33"/>
+      <c r="G136" s="33"/>
+      <c r="H136" s="33"/>
+      <c r="I136" s="33"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I140" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I136" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7372,14 +6767,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="47" t="s">
         <v>508</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
       <c r="I1" s="6"/>
@@ -7390,16 +6785,16 @@
       <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:14" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="49" t="s">
         <v>507</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -7408,11 +6803,11 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:14" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="47" t="s">
         <v>509</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
       <c r="D3" s="32"/>
       <c r="E3" s="24"/>
       <c r="F3" s="20"/>
@@ -7436,10 +6831,10 @@
       <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:14" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="B5" s="65"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
       <c r="E5" s="25"/>
@@ -9250,7 +8645,7 @@
         <v>522</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="25" x14ac:dyDescent="0.35">
@@ -9276,7 +8671,7 @@
         <v>523</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="37.5" x14ac:dyDescent="0.35">
@@ -10389,6 +9784,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D9A8E34D4601248B4650C3759D604D8" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c234dc030e1d129322a3d56f76335218">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="de0c653c-2bd3-43b1-95fa-012c57f61cfe" xmlns:ns3="848a8810-16a6-4d79-96d3-e3dfb86099b7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a56d1a68c4d05b5a1e5a3c0b3fb5b1a8" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -10610,15 +10014,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B4CE896-D144-40A9-85D3-0684E5DFDA36}">
   <ds:schemaRefs>
@@ -10628,6 +10023,24 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6744B0D-B7F9-4CA7-A5DC-23D611E8ED20}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="de0c653c-2bd3-43b1-95fa-012c57f61cfe"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="848a8810-16a6-4d79-96d3-e3dfb86099b7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19245E31-480A-4933-AB52-6FC5778D0ABF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10645,22 +10058,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6744B0D-B7F9-4CA7-A5DC-23D611E8ED20}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="de0c653c-2bd3-43b1-95fa-012c57f61cfe"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="848a8810-16a6-4d79-96d3-e3dfb86099b7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Deliverables/CT/USDM_CT.xlsx
+++ b/Deliverables/CT/USDM_CT.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhlbradtee\Documents\GitHub\DDF-RA\Deliverables\CT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E9CBD2-FFE5-4B46-B626-9CD8438180FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D21E3F0-FFD9-4509-B24A-8358FB7934D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="470" windowWidth="18430" windowHeight="9680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="100" yWindow="130" windowWidth="18430" windowHeight="7600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DDF Entities&amp;Attributes" sheetId="4" r:id="rId1"/>
     <sheet name="DDF valid value sets" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DDF Entities&amp;Attributes'!$A$1:$I$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DDF Entities&amp;Attributes'!$A$1:$I$138</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DDF valid value sets'!$A$6:$N$124</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="853">
   <si>
     <t>Preferred Term</t>
   </si>
@@ -1869,12 +1869,6 @@
   </si>
   <si>
     <t>studyIdentifier</t>
-  </si>
-  <si>
-    <t>studyProtocolVersion</t>
-  </si>
-  <si>
-    <t>studyDesign</t>
   </si>
   <si>
     <t>studyTitle</t>
@@ -2636,12 +2630,146 @@
   <si>
     <t>interventionDescription</t>
   </si>
+  <si>
+    <t>activityIsOptional</t>
+  </si>
+  <si>
+    <t>Study Activity is Optional</t>
+  </si>
+  <si>
+    <t>An indication as to whether the study activity is available to be performed but is not obligatory.</t>
+  </si>
+  <si>
+    <t>Study Procedure is Optional</t>
+  </si>
+  <si>
+    <t>An indication as to whether the study procedure is available to be performed but is not obligatory.</t>
+  </si>
+  <si>
+    <t>procedureIsOptional</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>encounterContactMode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>encounterContactModes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>studyIdentifier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>studyIdentifiers</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>studyProtocolVersion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>studyProtocolVersions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>studyDesign</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>studyDesigns</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2725,6 +2853,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2842,7 +2977,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2982,6 +3117,27 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2997,10 +3153,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3294,7 +3447,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I136"/>
+  <dimension ref="A1:I138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3319,13 +3472,13 @@
         <v>97</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>116</v>
@@ -3348,13 +3501,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
@@ -3370,18 +3523,18 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A3" s="33">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>609</v>
+        <v>850</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="4"/>
@@ -3389,18 +3542,18 @@
       <c r="H3" s="4"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A4" s="33">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>610</v>
+        <v>851</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="4"/>
@@ -3408,18 +3561,18 @@
       <c r="H4" s="4"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A5" s="33">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>611</v>
+        <v>852</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="4"/>
@@ -3432,13 +3585,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>15</v>
@@ -3461,16 +3614,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>550</v>
@@ -3488,13 +3641,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>36</v>
@@ -3509,7 +3662,7 @@
         <v>35</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="100" x14ac:dyDescent="0.35">
@@ -3517,13 +3670,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>19</v>
@@ -3538,7 +3691,7 @@
         <v>18</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -3546,26 +3699,26 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="62.5" x14ac:dyDescent="0.35">
@@ -3573,13 +3726,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>8</v>
@@ -3600,13 +3753,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E12" s="43" t="s">
         <v>540</v>
@@ -3629,13 +3782,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E13" s="43" t="s">
         <v>547</v>
@@ -3656,13 +3809,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E14" s="43" t="s">
         <v>548</v>
@@ -3683,13 +3836,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E15" s="43" t="s">
         <v>549</v>
@@ -3710,13 +3863,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>8</v>
@@ -3737,13 +3890,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>11</v>
@@ -3764,16 +3917,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>154</v>
@@ -3791,16 +3944,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>91</v>
@@ -3810,7 +3963,7 @@
         <v>143</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -3818,13 +3971,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="41" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>92</v>
@@ -3845,13 +3998,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D21" s="42" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -3864,7 +4017,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>96</v>
@@ -3924,13 +4077,13 @@
         <v>96</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4" t="s">
@@ -3951,7 +4104,7 @@
         <v>96</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>528</v>
@@ -3978,7 +4131,7 @@
         <v>96</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>531</v>
@@ -4005,10 +4158,10 @@
         <v>96</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>534</v>
@@ -4018,7 +4171,7 @@
         <v>535</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="50" x14ac:dyDescent="0.35">
@@ -4026,13 +4179,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="41" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>43</v>
@@ -4053,13 +4206,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D29" s="42" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E29" s="29"/>
       <c r="F29" s="4"/>
@@ -4072,13 +4225,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D30" s="42" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E30" s="29"/>
       <c r="F30" s="4"/>
@@ -4091,13 +4244,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D31" s="42" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E31" s="29"/>
       <c r="F31" s="4"/>
@@ -4110,10 +4263,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D32" s="42" t="s">
         <v>563</v>
@@ -4129,13 +4282,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D33" s="42" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E33" s="29"/>
       <c r="F33" s="4"/>
@@ -4148,10 +4301,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D34" s="42" t="s">
         <v>557</v>
@@ -4167,10 +4320,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D35" s="42" t="s">
         <v>556</v>
@@ -4186,10 +4339,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D36" s="42" t="s">
         <v>571</v>
@@ -4205,13 +4358,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D37" s="42" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E37" s="29"/>
       <c r="F37" s="4"/>
@@ -4224,13 +4377,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D38" s="31" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E38" s="44" t="s">
         <v>46</v>
@@ -4245,7 +4398,7 @@
         <v>45</v>
       </c>
       <c r="I38" s="29" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
@@ -4253,13 +4406,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E39" s="44" t="s">
         <v>40</v>
@@ -4274,7 +4427,7 @@
         <v>39</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
@@ -4282,13 +4435,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>48</v>
@@ -4301,7 +4454,7 @@
         <v>47</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="45" customFormat="1" ht="112.5" x14ac:dyDescent="0.35">
@@ -4309,28 +4462,28 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D41" s="31" t="s">
+        <v>806</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>811</v>
-      </c>
       <c r="H41" s="1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
@@ -4338,23 +4491,23 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D42" s="31" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E42" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F42" s="43" t="s">
-        <v>816</v>
-      </c>
-      <c r="G42" s="52"/>
+        <v>814</v>
+      </c>
+      <c r="G42" s="47"/>
       <c r="H42" s="43" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>95</v>
@@ -4365,23 +4518,23 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E43" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F43" s="43" t="s">
-        <v>818</v>
-      </c>
-      <c r="G43" s="52"/>
+        <v>816</v>
+      </c>
+      <c r="G43" s="47"/>
       <c r="H43" s="43" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>95</v>
@@ -4392,13 +4545,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D44" s="41" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>29</v>
@@ -4419,26 +4572,26 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -4446,13 +4599,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>102</v>
@@ -4473,13 +4626,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D47" s="41" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>34</v>
@@ -4500,26 +4653,26 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="75" x14ac:dyDescent="0.35">
@@ -4527,13 +4680,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>34</v>
@@ -4546,7 +4699,7 @@
         <v>33</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
@@ -4554,13 +4707,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D50" s="41" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>31</v>
@@ -4570,7 +4723,7 @@
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>95</v>
@@ -4581,16 +4734,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>147</v>
@@ -4608,13 +4761,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D52" s="41" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>22</v>
@@ -4635,13 +4788,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D53" s="42" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="4"/>
@@ -4654,13 +4807,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D54" s="31" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>124</v>
@@ -4681,16 +4834,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D55" s="31" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>155</v>
@@ -4700,7 +4853,7 @@
         <v>518</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="87.5" x14ac:dyDescent="0.35">
@@ -4708,13 +4861,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D56" s="41" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>25</v>
@@ -4735,16 +4888,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>146</v>
@@ -4762,16 +4915,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D58" s="31" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>105</v>
@@ -4789,16 +4942,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D59" s="31" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E59" s="43" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>26</v>
@@ -4808,7 +4961,7 @@
         <v>510</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
@@ -4816,23 +4969,23 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D60" s="41" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>57</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>95</v>
@@ -4843,13 +4996,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D61" s="42" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="4"/>
@@ -4862,10 +5015,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D62" s="42" t="s">
         <v>570</v>
@@ -4881,10 +5034,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D63" s="42" t="s">
         <v>583</v>
@@ -4900,13 +5053,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D64" s="41" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>55</v>
@@ -4927,13 +5080,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D65" s="31" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>140</v>
@@ -4954,13 +5107,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D66" s="31" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>139</v>
@@ -4981,16 +5134,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D67" s="31" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>524</v>
@@ -5008,16 +5161,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D68" s="31" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>149</v>
@@ -5035,16 +5188,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D69" s="31" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>150</v>
@@ -5054,7 +5207,7 @@
         <v>56</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
@@ -5062,13 +5215,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D70" s="41" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>64</v>
@@ -5089,10 +5242,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D71" s="42" t="s">
         <v>571</v>
@@ -5108,7 +5261,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>96</v>
@@ -5135,16 +5288,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D73" s="31" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>108</v>
@@ -5162,7 +5315,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>96</v>
@@ -5171,7 +5324,7 @@
         <v>567</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>67</v>
@@ -5181,7 +5334,7 @@
         <v>68</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -5189,7 +5342,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>96</v>
@@ -5198,14 +5351,14 @@
         <v>568</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>581</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="4" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="I75" s="43" t="s">
         <v>95</v>
@@ -5216,7 +5369,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>96</v>
@@ -5225,14 +5378,14 @@
         <v>569</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>582</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="4" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="I76" s="43" t="s">
         <v>95</v>
@@ -5243,13 +5396,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D77" s="41" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>51</v>
@@ -5270,10 +5423,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D78" s="42" t="s">
         <v>572</v>
@@ -5289,10 +5442,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D79" s="42" t="s">
         <v>573</v>
@@ -5308,7 +5461,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>96</v>
@@ -5317,7 +5470,7 @@
         <v>584</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>52</v>
@@ -5335,16 +5488,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D81" s="31" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>109</v>
@@ -5362,13 +5515,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D82" s="41" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>82</v>
@@ -5389,16 +5542,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D83" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>110</v>
@@ -5416,13 +5569,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D84" s="41" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>59</v>
@@ -5432,7 +5585,7 @@
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="3" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>95</v>
@@ -5443,10 +5596,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D85" s="42" t="s">
         <v>572</v>
@@ -5462,10 +5615,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D86" s="42" t="s">
         <v>573</v>
@@ -5481,7 +5634,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>96</v>
@@ -5508,16 +5661,16 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D88" s="31" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>122</v>
@@ -5535,7 +5688,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>96</v>
@@ -5544,14 +5697,14 @@
         <v>578</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>586</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="4" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="I89" s="43" t="s">
         <v>95</v>
@@ -5562,7 +5715,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>96</v>
@@ -5571,14 +5724,14 @@
         <v>579</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>587</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="4" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="I90" s="43" t="s">
         <v>95</v>
@@ -5589,7 +5742,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>96</v>
@@ -5598,7 +5751,7 @@
         <v>575</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>69</v>
@@ -5608,7 +5761,7 @@
         <v>70</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -5616,7 +5769,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>96</v>
@@ -5625,7 +5778,7 @@
         <v>576</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>72</v>
@@ -5635,7 +5788,7 @@
         <v>73</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -5643,16 +5796,16 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D93" s="31" t="s">
-        <v>577</v>
+        <v>849</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>74</v>
@@ -5662,7 +5815,7 @@
         <v>75</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
@@ -5670,13 +5823,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D94" s="41" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>89</v>
@@ -5697,10 +5850,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D95" s="42" t="s">
         <v>589</v>
@@ -5716,10 +5869,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D96" s="42" t="s">
         <v>590</v>
@@ -5735,7 +5888,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>96</v>
@@ -5744,14 +5897,14 @@
         <v>591</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>597</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="4" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="I97" s="4" t="s">
         <v>95</v>
@@ -5762,13 +5915,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D98" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>553</v>
@@ -5789,7 +5942,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>96</v>
@@ -5798,14 +5951,14 @@
         <v>592</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>594</v>
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="4" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="I99" s="43" t="s">
         <v>95</v>
@@ -5816,7 +5969,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>96</v>
@@ -5825,70 +5978,70 @@
         <v>593</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>595</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="4" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="I100" s="43" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A101" s="33">
         <v>100</v>
       </c>
-      <c r="B101" s="4" t="s">
-        <v>670</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D101" s="41" t="s">
-        <v>670</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G101" s="4"/>
-      <c r="H101" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I101" s="1" t="s">
+      <c r="B101" s="49" t="s">
+        <v>667</v>
+      </c>
+      <c r="C101" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="D101" s="51" t="s">
+        <v>843</v>
+      </c>
+      <c r="E101" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="F101" s="52" t="s">
+        <v>844</v>
+      </c>
+      <c r="G101" s="53"/>
+      <c r="H101" s="52" t="s">
+        <v>845</v>
+      </c>
+      <c r="I101" s="59" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="33">
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D102" s="31" t="s">
-        <v>596</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>768</v>
+        <v>4</v>
+      </c>
+      <c r="D102" s="41" t="s">
+        <v>668</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>765</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="G102" s="4"/>
-      <c r="H102" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="I102" s="43" t="s">
+      <c r="H102" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I102" s="1" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5897,23 +6050,23 @@
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D103" s="31" t="s">
-        <v>832</v>
+        <v>596</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="4" t="s">
-        <v>128</v>
+        <v>516</v>
       </c>
       <c r="I103" s="43" t="s">
         <v>95</v>
@@ -5924,56 +6077,56 @@
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D104" s="31" t="s">
-        <v>598</v>
+        <v>830</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>649</v>
+        <v>153</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="4" t="s">
-        <v>717</v>
+        <v>128</v>
       </c>
       <c r="I104" s="43" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A105" s="33">
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>90</v>
+        <v>668</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D105" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>79</v>
+        <v>96</v>
+      </c>
+      <c r="D105" s="31" t="s">
+        <v>598</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>768</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>90</v>
+        <v>647</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I105" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="I105" s="43" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A106" s="33">
         <v>105</v>
       </c>
@@ -5981,26 +6134,26 @@
         <v>90</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D106" s="31" t="s">
-        <v>599</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>771</v>
+        <v>4</v>
+      </c>
+      <c r="D106" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="4" t="s">
-        <v>698</v>
-      </c>
-      <c r="I106" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I106" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="33">
         <v>106</v>
       </c>
@@ -6011,20 +6164,20 @@
         <v>96</v>
       </c>
       <c r="D107" s="31" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>141</v>
+        <v>769</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G107" s="4"/>
       <c r="H107" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>113</v>
+        <v>696</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="50" x14ac:dyDescent="0.35">
@@ -6032,48 +6185,56 @@
         <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>603</v>
+        <v>90</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D108" s="41" t="s">
-        <v>603</v>
+        <v>96</v>
+      </c>
+      <c r="D108" s="31" t="s">
+        <v>600</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>602</v>
+        <v>141</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>603</v>
+        <v>112</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="4" t="s">
-        <v>601</v>
+        <v>142</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A109" s="33">
         <v>108</v>
       </c>
-      <c r="B109" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="D109" s="42" t="s">
-        <v>604</v>
-      </c>
-      <c r="E109" s="4"/>
-      <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
-      <c r="H109" s="4"/>
-      <c r="I109" s="4"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B109" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="C109" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="D109" s="51" t="s">
+        <v>848</v>
+      </c>
+      <c r="E109" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="F109" s="52" t="s">
+        <v>846</v>
+      </c>
+      <c r="G109" s="53"/>
+      <c r="H109" s="52" t="s">
+        <v>847</v>
+      </c>
+      <c r="I109" s="49" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="50" x14ac:dyDescent="0.35">
       <c r="A110" s="33">
         <v>109</v>
       </c>
@@ -6081,22 +6242,22 @@
         <v>603</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D110" s="31" t="s">
-        <v>831</v>
+        <v>4</v>
+      </c>
+      <c r="D110" s="41" t="s">
+        <v>603</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>772</v>
+        <v>602</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>118</v>
+        <v>603</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="I110" s="43" t="s">
+        <v>601</v>
+      </c>
+      <c r="I110" s="1" t="s">
         <v>95</v>
       </c>
     </row>
@@ -6105,194 +6266,194 @@
         <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>671</v>
-      </c>
-      <c r="C111" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D111" s="41" t="s">
-        <v>671</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>773</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>111</v>
-      </c>
+        <v>603</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="D111" s="42" t="s">
+        <v>604</v>
+      </c>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
       <c r="G111" s="4"/>
-      <c r="H111" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="33">
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>671</v>
+        <v>603</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="D112" s="42" t="s">
-        <v>585</v>
-      </c>
-      <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
+        <v>96</v>
+      </c>
+      <c r="D112" s="31" t="s">
+        <v>829</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>118</v>
+      </c>
       <c r="G112" s="4"/>
-      <c r="H112" s="4"/>
-      <c r="I112" s="43"/>
+      <c r="H112" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I112" s="43" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="33">
         <v>112</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>671</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="D113" s="42" t="s">
-        <v>588</v>
-      </c>
-      <c r="E113" s="4"/>
-      <c r="F113" s="4"/>
+        <v>669</v>
+      </c>
+      <c r="C113" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D113" s="41" t="s">
+        <v>669</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="G113" s="4"/>
-      <c r="H113" s="4"/>
-      <c r="I113" s="43"/>
+      <c r="H113" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="33">
         <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D114" s="30" t="s">
-        <v>830</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>773</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>111</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="D114" s="42" t="s">
+        <v>585</v>
+      </c>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
       <c r="G114" s="4"/>
-      <c r="H114" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="I114" s="43" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="H114" s="4"/>
+      <c r="I114" s="43"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="33">
         <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D115" s="30" t="s">
-        <v>605</v>
-      </c>
-      <c r="E115" s="4" t="s">
-        <v>774</v>
-      </c>
-      <c r="F115" s="4" t="s">
-        <v>607</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="D115" s="42" t="s">
+        <v>588</v>
+      </c>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
       <c r="G115" s="4"/>
-      <c r="H115" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="I115" s="43" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="H115" s="4"/>
+      <c r="I115" s="43"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="33">
         <v>115</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D116" s="30" t="s">
-        <v>606</v>
+        <v>828</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>775</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>608</v>
+        <v>771</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="4" t="s">
-        <v>725</v>
+        <v>138</v>
       </c>
       <c r="I116" s="43" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A117" s="33">
         <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>83</v>
+        <v>669</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D117" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>776</v>
+        <v>96</v>
+      </c>
+      <c r="D117" s="30" t="s">
+        <v>605</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>772</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>83</v>
+        <v>607</v>
       </c>
       <c r="G117" s="4"/>
       <c r="H117" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I117" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="I117" s="43" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A118" s="33">
         <v>117</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>83</v>
+        <v>669</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="D118" s="42" t="s">
-        <v>558</v>
-      </c>
-      <c r="E118" s="1"/>
-      <c r="F118" s="4"/>
+        <v>96</v>
+      </c>
+      <c r="D118" s="30" t="s">
+        <v>606</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>608</v>
+      </c>
       <c r="G118" s="4"/>
-      <c r="H118" s="4"/>
-      <c r="I118" s="1"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H118" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="I118" s="43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A119" s="33">
         <v>118</v>
       </c>
@@ -6300,16 +6461,24 @@
         <v>83</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="D119" s="42" t="s">
-        <v>559</v>
-      </c>
-      <c r="E119" s="1"/>
-      <c r="F119" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="D119" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="G119" s="4"/>
-      <c r="H119" s="4"/>
-      <c r="I119" s="1"/>
+      <c r="H119" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="33">
@@ -6319,10 +6488,10 @@
         <v>83</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D120" s="42" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="4"/>
@@ -6338,10 +6507,10 @@
         <v>83</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D121" s="42" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="E121" s="1"/>
       <c r="F121" s="4"/>
@@ -6349,7 +6518,7 @@
       <c r="H121" s="4"/>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="33">
         <v>121</v>
       </c>
@@ -6357,101 +6526,85 @@
         <v>83</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D122" s="31" t="s">
-        <v>562</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="F122" s="4" t="s">
-        <v>85</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="D122" s="42" t="s">
+        <v>565</v>
+      </c>
+      <c r="E122" s="1"/>
+      <c r="F122" s="4"/>
       <c r="G122" s="4"/>
-      <c r="H122" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="I122" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="75" x14ac:dyDescent="0.35">
+      <c r="H122" s="4"/>
+      <c r="I122" s="1"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="33">
         <v>122</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>672</v>
+        <v>83</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D123" s="41" t="s">
-        <v>672</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="F123" s="4" t="s">
-        <v>87</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="D123" s="42" t="s">
+        <v>564</v>
+      </c>
+      <c r="E123" s="1"/>
+      <c r="F123" s="4"/>
       <c r="G123" s="4"/>
-      <c r="H123" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="I123" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="H123" s="4"/>
+      <c r="I123" s="1"/>
     </row>
     <row r="124" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A124" s="33">
         <v>123</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>672</v>
+        <v>83</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D124" s="31" t="s">
-        <v>829</v>
+        <v>562</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="G124" s="4"/>
       <c r="H124" s="4" t="s">
-        <v>647</v>
-      </c>
-      <c r="I124" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="I124" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" ht="75" x14ac:dyDescent="0.35">
       <c r="A125" s="33">
         <v>124</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D125" s="41" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="G125" s="4"/>
       <c r="H125" s="4" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="I125" s="1" t="s">
         <v>95</v>
@@ -6462,52 +6615,52 @@
         <v>125</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D126" s="31" t="s">
-        <v>560</v>
-      </c>
-      <c r="E126" s="4" t="s">
-        <v>780</v>
+        <v>827</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>776</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="G126" s="4"/>
       <c r="H126" s="4" t="s">
-        <v>515</v>
+        <v>645</v>
       </c>
       <c r="I126" s="43" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" ht="50" x14ac:dyDescent="0.35">
       <c r="A127" s="33">
         <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D127" s="31" t="s">
-        <v>828</v>
-      </c>
-      <c r="E127" s="4" t="s">
-        <v>781</v>
+        <v>4</v>
+      </c>
+      <c r="D127" s="41" t="s">
+        <v>671</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>777</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="G127" s="4"/>
       <c r="H127" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="I127" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="I127" s="1" t="s">
         <v>95</v>
       </c>
     </row>
@@ -6516,23 +6669,23 @@
         <v>127</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D128" s="46" t="s">
-        <v>561</v>
-      </c>
-      <c r="E128" s="33" t="s">
-        <v>782</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="G128" s="33"/>
+      <c r="D128" s="31" t="s">
+        <v>560</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G128" s="4"/>
       <c r="H128" s="4" t="s">
-        <v>716</v>
+        <v>515</v>
       </c>
       <c r="I128" s="43" t="s">
         <v>95</v>
@@ -6543,50 +6696,50 @@
         <v>128</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D129" s="41" t="s">
-        <v>676</v>
+        <v>96</v>
+      </c>
+      <c r="D129" s="31" t="s">
+        <v>826</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>682</v>
+        <v>779</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>676</v>
-      </c>
-      <c r="G129" s="35"/>
+        <v>115</v>
+      </c>
+      <c r="G129" s="4"/>
       <c r="H129" s="4" t="s">
-        <v>681</v>
+        <v>129</v>
       </c>
       <c r="I129" s="43" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A130" s="33">
         <v>129</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D130" s="31" t="s">
-        <v>677</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>783</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>711</v>
-      </c>
-      <c r="G130" s="35"/>
+      <c r="D130" s="46" t="s">
+        <v>561</v>
+      </c>
+      <c r="E130" s="33" t="s">
+        <v>780</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="G130" s="33"/>
       <c r="H130" s="4" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="I130" s="43" t="s">
         <v>95</v>
@@ -6597,23 +6750,23 @@
         <v>130</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D131" s="31" t="s">
-        <v>678</v>
+        <v>4</v>
+      </c>
+      <c r="D131" s="41" t="s">
+        <v>674</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>784</v>
+        <v>680</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>710</v>
-      </c>
-      <c r="G131" s="4"/>
+        <v>674</v>
+      </c>
+      <c r="G131" s="35"/>
       <c r="H131" s="4" t="s">
-        <v>713</v>
+        <v>679</v>
       </c>
       <c r="I131" s="43" t="s">
         <v>95</v>
@@ -6624,23 +6777,23 @@
         <v>131</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D132" s="31" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>683</v>
-      </c>
-      <c r="G132" s="4"/>
+        <v>709</v>
+      </c>
+      <c r="G132" s="35"/>
       <c r="H132" s="4" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="I132" s="43" t="s">
         <v>95</v>
@@ -6651,95 +6804,149 @@
         <v>132</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D133" s="31" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>699</v>
-      </c>
-      <c r="G133" s="35"/>
+        <v>708</v>
+      </c>
+      <c r="G133" s="4"/>
       <c r="H133" s="4" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="I133" s="43" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" s="33">
         <v>133</v>
       </c>
-      <c r="B134" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="C134" s="33" t="s">
-        <v>821</v>
-      </c>
-      <c r="D134" s="41" t="s">
-        <v>822</v>
-      </c>
-      <c r="E134" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="F134" s="33" t="s">
-        <v>823</v>
-      </c>
-      <c r="G134" s="33"/>
-      <c r="H134" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="I134" s="33" t="s">
+      <c r="B134" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D134" s="31" t="s">
+        <v>677</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="G134" s="4"/>
+      <c r="H134" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="I134" s="43" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A135" s="33">
         <v>134</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="C135" s="33" t="s">
-        <v>652</v>
-      </c>
-      <c r="D135" s="53" t="s">
-        <v>825</v>
-      </c>
-      <c r="E135" s="33"/>
-      <c r="F135" s="33"/>
-      <c r="G135" s="33"/>
-      <c r="H135" s="33"/>
-      <c r="I135" s="33"/>
+      <c r="B135" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D135" s="31" t="s">
+        <v>678</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="G135" s="35"/>
+      <c r="H135" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="I135" s="43" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="136" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A136" s="33">
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="C136" s="33" t="s">
+        <v>819</v>
+      </c>
+      <c r="D136" s="41" t="s">
+        <v>820</v>
+      </c>
+      <c r="E136" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F136" s="33" t="s">
+        <v>821</v>
+      </c>
+      <c r="G136" s="33"/>
+      <c r="H136" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="C136" s="33" t="s">
-        <v>652</v>
-      </c>
-      <c r="D136" s="53" t="s">
-        <v>826</v>
-      </c>
-      <c r="E136" s="33"/>
-      <c r="F136" s="33"/>
-      <c r="G136" s="33"/>
-      <c r="H136" s="33"/>
-      <c r="I136" s="33"/>
+      <c r="I136" s="33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A137" s="33">
+        <v>136</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="C137" s="33" t="s">
+        <v>650</v>
+      </c>
+      <c r="D137" s="48" t="s">
+        <v>823</v>
+      </c>
+      <c r="E137" s="33"/>
+      <c r="F137" s="33"/>
+      <c r="G137" s="33"/>
+      <c r="H137" s="33"/>
+      <c r="I137" s="33"/>
+    </row>
+    <row r="138" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A138" s="33">
+        <v>137</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="C138" s="33" t="s">
+        <v>650</v>
+      </c>
+      <c r="D138" s="48" t="s">
+        <v>824</v>
+      </c>
+      <c r="E138" s="33"/>
+      <c r="F138" s="33"/>
+      <c r="G138" s="33"/>
+      <c r="H138" s="33"/>
+      <c r="I138" s="33"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I136" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I138" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6751,7 +6958,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:F1"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.35"/>
@@ -6767,14 +6974,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="54" t="s">
         <v>508</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
       <c r="I1" s="6"/>
@@ -6785,16 +6992,16 @@
       <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:14" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="56" t="s">
         <v>507</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -6803,11 +7010,11 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:14" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="54" t="s">
         <v>509</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="32"/>
       <c r="E3" s="24"/>
       <c r="F3" s="20"/>
@@ -6831,10 +7038,10 @@
       <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:14" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="B5" s="51"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
       <c r="E5" s="25"/>
@@ -6859,10 +7066,10 @@
         <v>96</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>0</v>
@@ -6879,13 +7086,13 @@
         <v>160</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>181</v>
@@ -6903,13 +7110,13 @@
         <v>160</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>182</v>
@@ -6927,13 +7134,13 @@
         <v>160</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>183</v>
@@ -6951,13 +7158,13 @@
         <v>160</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>184</v>
@@ -6975,13 +7182,13 @@
         <v>160</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>228</v>
@@ -7001,13 +7208,13 @@
         <v>160</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>229</v>
@@ -7027,13 +7234,13 @@
         <v>160</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>230</v>
@@ -7053,13 +7260,13 @@
         <v>160</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>231</v>
@@ -7079,13 +7286,13 @@
         <v>160</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>232</v>
@@ -7105,13 +7312,13 @@
         <v>160</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>233</v>
@@ -7131,13 +7338,13 @@
         <v>160</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>234</v>
@@ -7157,13 +7364,13 @@
         <v>160</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>235</v>
@@ -7183,13 +7390,13 @@
         <v>160</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>236</v>
@@ -7209,13 +7416,13 @@
         <v>160</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>237</v>
@@ -7235,13 +7442,13 @@
         <v>160</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>238</v>
@@ -7261,13 +7468,13 @@
         <v>160</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E22" s="19" t="s">
         <v>239</v>
@@ -7287,13 +7494,13 @@
         <v>160</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E23" s="19" t="s">
         <v>240</v>
@@ -7313,13 +7520,13 @@
         <v>160</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>173</v>
@@ -7337,16 +7544,16 @@
         <v>160</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>164</v>
@@ -7363,13 +7570,13 @@
         <v>160</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E26" s="15" t="s">
         <v>174</v>
@@ -7387,13 +7594,13 @@
         <v>160</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>175</v>
@@ -7411,13 +7618,13 @@
         <v>160</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>176</v>
@@ -7438,20 +7645,20 @@
         <v>536</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="G29" s="15"/>
       <c r="H29" s="15" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="14" customFormat="1" ht="25" x14ac:dyDescent="0.35">
@@ -7462,20 +7669,20 @@
         <v>536</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="15" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="14" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.35">
@@ -7486,22 +7693,22 @@
         <v>536</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="G31" s="15" t="s">
+        <v>730</v>
+      </c>
+      <c r="H31" s="15" t="s">
         <v>732</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="14" customFormat="1" ht="25" x14ac:dyDescent="0.35">
@@ -7509,13 +7716,13 @@
         <v>160</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E32" s="19" t="s">
         <v>411</v>
@@ -7535,13 +7742,13 @@
         <v>160</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E33" s="19" t="s">
         <v>412</v>
@@ -7559,13 +7766,13 @@
         <v>160</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E34" s="19" t="s">
         <v>413</v>
@@ -7583,13 +7790,13 @@
         <v>160</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E35" s="19" t="s">
         <v>414</v>
@@ -7607,13 +7814,13 @@
         <v>160</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E36" s="19" t="s">
         <v>415</v>
@@ -7631,13 +7838,13 @@
         <v>160</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E37" s="19" t="s">
         <v>416</v>
@@ -7655,13 +7862,13 @@
         <v>160</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E38" s="19" t="s">
         <v>417</v>
@@ -7679,13 +7886,13 @@
         <v>160</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E39" s="19" t="s">
         <v>418</v>
@@ -7705,13 +7912,13 @@
         <v>160</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E40" s="19" t="s">
         <v>419</v>
@@ -7729,13 +7936,13 @@
         <v>160</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E41" s="19" t="s">
         <v>420</v>
@@ -7753,13 +7960,13 @@
         <v>160</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E42" s="19" t="s">
         <v>421</v>
@@ -7779,13 +7986,13 @@
         <v>160</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E43" s="19" t="s">
         <v>478</v>
@@ -7803,13 +8010,13 @@
         <v>160</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E44" s="19" t="s">
         <v>479</v>
@@ -7827,13 +8034,13 @@
         <v>160</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E45" s="19" t="s">
         <v>480</v>
@@ -7851,13 +8058,13 @@
         <v>160</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E46" s="19" t="s">
         <v>481</v>
@@ -7875,13 +8082,13 @@
         <v>160</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E47" s="19" t="s">
         <v>482</v>
@@ -7899,13 +8106,13 @@
         <v>160</v>
       </c>
       <c r="B48" s="36" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E48" s="19" t="s">
         <v>483</v>
@@ -7923,13 +8130,13 @@
         <v>160</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E49" s="19" t="s">
         <v>414</v>
@@ -7947,13 +8154,13 @@
         <v>160</v>
       </c>
       <c r="B50" s="36" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E50" s="19" t="s">
         <v>484</v>
@@ -7971,13 +8178,13 @@
         <v>160</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E51" s="19" t="s">
         <v>485</v>
@@ -7995,13 +8202,13 @@
         <v>160</v>
       </c>
       <c r="B52" s="36" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E52" s="19" t="s">
         <v>486</v>
@@ -8019,13 +8226,13 @@
         <v>160</v>
       </c>
       <c r="B53" s="36" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E53" s="19" t="s">
         <v>487</v>
@@ -8043,13 +8250,13 @@
         <v>160</v>
       </c>
       <c r="B54" s="36" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E54" s="19" t="s">
         <v>488</v>
@@ -8069,13 +8276,13 @@
         <v>160</v>
       </c>
       <c r="B55" s="36" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E55" s="19" t="s">
         <v>489</v>
@@ -8093,13 +8300,13 @@
         <v>160</v>
       </c>
       <c r="B56" s="36" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E56" s="19" t="s">
         <v>490</v>
@@ -8117,13 +8324,13 @@
         <v>160</v>
       </c>
       <c r="B57" s="36" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E57" s="19" t="s">
         <v>491</v>
@@ -8141,13 +8348,13 @@
         <v>160</v>
       </c>
       <c r="B58" s="36" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E58" s="19" t="s">
         <v>492</v>
@@ -8165,13 +8372,13 @@
         <v>160</v>
       </c>
       <c r="B59" s="36" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E59" s="19" t="s">
         <v>493</v>
@@ -8189,13 +8396,13 @@
         <v>160</v>
       </c>
       <c r="B60" s="36" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E60" s="19" t="s">
         <v>494</v>
@@ -8213,13 +8420,13 @@
         <v>160</v>
       </c>
       <c r="B61" s="36" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E61" s="19" t="s">
         <v>495</v>
@@ -8237,13 +8444,13 @@
         <v>160</v>
       </c>
       <c r="B62" s="36" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E62" s="19" t="s">
         <v>496</v>
@@ -8261,13 +8468,13 @@
         <v>160</v>
       </c>
       <c r="B63" s="36" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E63" s="19" t="s">
         <v>497</v>
@@ -8285,13 +8492,13 @@
         <v>160</v>
       </c>
       <c r="B64" s="36" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E64" s="19" t="s">
         <v>418</v>
@@ -8311,13 +8518,13 @@
         <v>160</v>
       </c>
       <c r="B65" s="36" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E65" s="19" t="s">
         <v>498</v>
@@ -8335,13 +8542,13 @@
         <v>160</v>
       </c>
       <c r="B66" s="36" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E66" s="19" t="s">
         <v>499</v>
@@ -8359,13 +8566,13 @@
         <v>160</v>
       </c>
       <c r="B67" s="36" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E67" s="19" t="s">
         <v>500</v>
@@ -8383,13 +8590,13 @@
         <v>160</v>
       </c>
       <c r="B68" s="36" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E68" s="19" t="s">
         <v>501</v>
@@ -8409,13 +8616,13 @@
         <v>160</v>
       </c>
       <c r="B69" s="36" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E69" s="19" t="s">
         <v>502</v>
@@ -8433,13 +8640,13 @@
         <v>160</v>
       </c>
       <c r="B70" s="36" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E70" s="19" t="s">
         <v>421</v>
@@ -8459,13 +8666,13 @@
         <v>160</v>
       </c>
       <c r="B71" s="36" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E71" s="19" t="s">
         <v>503</v>
@@ -8483,13 +8690,13 @@
         <v>160</v>
       </c>
       <c r="B72" s="36" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E72" s="19" t="s">
         <v>504</v>
@@ -8507,13 +8714,13 @@
         <v>160</v>
       </c>
       <c r="B73" s="36" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E73" s="19" t="s">
         <v>251</v>
@@ -8531,13 +8738,13 @@
         <v>160</v>
       </c>
       <c r="B74" s="36" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E74" s="19" t="s">
         <v>252</v>
@@ -8555,13 +8762,13 @@
         <v>160</v>
       </c>
       <c r="B75" s="36" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D75" s="19" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E75" s="19" t="s">
         <v>253</v>
@@ -8579,13 +8786,13 @@
         <v>160</v>
       </c>
       <c r="B76" s="36" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E76" s="19" t="s">
         <v>254</v>
@@ -8603,13 +8810,13 @@
         <v>160</v>
       </c>
       <c r="B77" s="36" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E77" s="19" t="s">
         <v>255</v>
@@ -8627,13 +8834,13 @@
         <v>160</v>
       </c>
       <c r="B78" s="36" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E78" s="15" t="s">
         <v>505</v>
@@ -8645,7 +8852,7 @@
         <v>522</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="25" x14ac:dyDescent="0.35">
@@ -8653,13 +8860,13 @@
         <v>160</v>
       </c>
       <c r="B79" s="36" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E79" s="15" t="s">
         <v>519</v>
@@ -8671,7 +8878,7 @@
         <v>523</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="37.5" x14ac:dyDescent="0.35">
@@ -8679,13 +8886,13 @@
         <v>160</v>
       </c>
       <c r="B80" s="36" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E80" s="19" t="s">
         <v>262</v>
@@ -8703,13 +8910,13 @@
         <v>160</v>
       </c>
       <c r="B81" s="36" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E81" s="19" t="s">
         <v>263</v>
@@ -8727,13 +8934,13 @@
         <v>160</v>
       </c>
       <c r="B82" s="36" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E82" s="19" t="s">
         <v>264</v>
@@ -8751,16 +8958,16 @@
         <v>160</v>
       </c>
       <c r="B83" s="36" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E83" s="19" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F83" s="19" t="s">
         <v>265</v>
@@ -8775,13 +8982,13 @@
         <v>160</v>
       </c>
       <c r="B84" s="36" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D84" s="19" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E84" s="19" t="s">
         <v>274</v>
@@ -8799,13 +9006,13 @@
         <v>160</v>
       </c>
       <c r="B85" s="36" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E85" s="19" t="s">
         <v>275</v>
@@ -8823,16 +9030,16 @@
         <v>160</v>
       </c>
       <c r="B86" s="36" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E86" s="19" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="F86" s="19" t="s">
         <v>270</v>
@@ -8847,16 +9054,16 @@
         <v>160</v>
       </c>
       <c r="B87" s="36" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E87" s="19" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="F87" s="19" t="s">
         <v>272</v>
@@ -8871,13 +9078,13 @@
         <v>160</v>
       </c>
       <c r="B88" s="36" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C88" s="19" t="s">
         <v>567</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E88" s="19" t="s">
         <v>300</v>
@@ -8895,13 +9102,13 @@
         <v>160</v>
       </c>
       <c r="B89" s="36" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C89" s="19" t="s">
         <v>567</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E89" s="19" t="s">
         <v>301</v>
@@ -8919,13 +9126,13 @@
         <v>160</v>
       </c>
       <c r="B90" s="36" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C90" s="19" t="s">
         <v>567</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E90" s="19" t="s">
         <v>302</v>
@@ -8945,13 +9152,13 @@
         <v>160</v>
       </c>
       <c r="B91" s="36" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C91" s="19" t="s">
         <v>567</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E91" s="19" t="s">
         <v>303</v>
@@ -8969,13 +9176,13 @@
         <v>160</v>
       </c>
       <c r="B92" s="36" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C92" s="19" t="s">
         <v>567</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E92" s="19" t="s">
         <v>304</v>
@@ -8995,13 +9202,13 @@
         <v>160</v>
       </c>
       <c r="B93" s="36" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C93" s="19" t="s">
         <v>567</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E93" s="19" t="s">
         <v>305</v>
@@ -9019,13 +9226,13 @@
         <v>160</v>
       </c>
       <c r="B94" s="36" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C94" s="19" t="s">
         <v>567</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E94" s="19" t="s">
         <v>306</v>
@@ -9043,13 +9250,13 @@
         <v>160</v>
       </c>
       <c r="B95" s="36" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C95" s="19" t="s">
         <v>567</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E95" s="19" t="s">
         <v>307</v>
@@ -9067,13 +9274,13 @@
         <v>160</v>
       </c>
       <c r="B96" s="36" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C96" s="19" t="s">
         <v>567</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E96" s="19" t="s">
         <v>308</v>
@@ -9091,13 +9298,13 @@
         <v>160</v>
       </c>
       <c r="B97" s="36" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C97" s="19" t="s">
         <v>567</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E97" s="19" t="s">
         <v>309</v>
@@ -9115,13 +9322,13 @@
         <v>160</v>
       </c>
       <c r="B98" s="36" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C98" s="19" t="s">
         <v>567</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E98" s="19" t="s">
         <v>310</v>
@@ -9131,7 +9338,7 @@
       </c>
       <c r="G98" s="19"/>
       <c r="H98" s="19" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="37.5" x14ac:dyDescent="0.35">
@@ -9139,13 +9346,13 @@
         <v>160</v>
       </c>
       <c r="B99" s="36" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C99" s="19" t="s">
         <v>567</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E99" s="19" t="s">
         <v>311</v>
@@ -9155,7 +9362,7 @@
       </c>
       <c r="G99" s="19"/>
       <c r="H99" s="19" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="25" x14ac:dyDescent="0.35">
@@ -9163,13 +9370,13 @@
         <v>160</v>
       </c>
       <c r="B100" s="36" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C100" s="15" t="s">
         <v>575</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="E100" s="19" t="s">
         <v>386</v>
@@ -9187,13 +9394,13 @@
         <v>160</v>
       </c>
       <c r="B101" s="36" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C101" s="15" t="s">
         <v>576</v>
       </c>
       <c r="D101" s="19" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E101" s="19" t="s">
         <v>368</v>
@@ -9211,13 +9418,13 @@
         <v>160</v>
       </c>
       <c r="B102" s="36" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C102" s="15" t="s">
         <v>576</v>
       </c>
       <c r="D102" s="19" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E102" s="19" t="s">
         <v>369</v>
@@ -9235,13 +9442,13 @@
         <v>160</v>
       </c>
       <c r="B103" s="36" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C103" s="15" t="s">
         <v>576</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E103" s="19" t="s">
         <v>370</v>
@@ -9259,13 +9466,13 @@
         <v>160</v>
       </c>
       <c r="B104" s="36" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C104" s="15" t="s">
         <v>576</v>
       </c>
       <c r="D104" s="19" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E104" s="19" t="s">
         <v>371</v>
@@ -9283,13 +9490,13 @@
         <v>160</v>
       </c>
       <c r="B105" s="36" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C105" s="15" t="s">
         <v>576</v>
       </c>
       <c r="D105" s="19" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E105" s="19" t="s">
         <v>372</v>
@@ -9307,13 +9514,13 @@
         <v>160</v>
       </c>
       <c r="B106" s="36" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C106" s="15" t="s">
         <v>576</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E106" s="19" t="s">
         <v>373</v>
@@ -9331,13 +9538,13 @@
         <v>160</v>
       </c>
       <c r="B107" s="36" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C107" s="15" t="s">
         <v>576</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E107" s="19" t="s">
         <v>374</v>
@@ -9355,13 +9562,13 @@
         <v>160</v>
       </c>
       <c r="B108" s="36" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C108" s="15" t="s">
         <v>576</v>
       </c>
       <c r="D108" s="19" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E108" s="19" t="s">
         <v>375</v>
@@ -9379,13 +9586,13 @@
         <v>160</v>
       </c>
       <c r="B109" s="36" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C109" s="15" t="s">
         <v>576</v>
       </c>
       <c r="D109" s="19" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E109" s="19" t="s">
         <v>376</v>
@@ -9403,13 +9610,13 @@
         <v>160</v>
       </c>
       <c r="B110" s="36" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C110" s="15" t="s">
         <v>576</v>
       </c>
       <c r="D110" s="19" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E110" s="19" t="s">
         <v>377</v>
@@ -9427,13 +9634,13 @@
         <v>160</v>
       </c>
       <c r="B111" s="36" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C111" s="15" t="s">
         <v>576</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E111" s="19" t="s">
         <v>378</v>
@@ -9451,13 +9658,13 @@
         <v>160</v>
       </c>
       <c r="B112" s="36" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C112" s="15" t="s">
         <v>576</v>
       </c>
       <c r="D112" s="19" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E112" s="19" t="s">
         <v>379</v>
@@ -9475,13 +9682,13 @@
         <v>160</v>
       </c>
       <c r="B113" s="36" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C113" s="15" t="s">
         <v>576</v>
       </c>
       <c r="D113" s="19" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E113" s="19" t="s">
         <v>380</v>
@@ -9499,13 +9706,13 @@
         <v>160</v>
       </c>
       <c r="B114" s="36" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C114" s="15" t="s">
         <v>576</v>
       </c>
       <c r="D114" s="19" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E114" s="19" t="s">
         <v>381</v>
@@ -9523,13 +9730,13 @@
         <v>160</v>
       </c>
       <c r="B115" s="36" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C115" s="15" t="s">
         <v>576</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E115" s="19" t="s">
         <v>382</v>
@@ -9547,13 +9754,13 @@
         <v>160</v>
       </c>
       <c r="B116" s="36" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C116" s="15" t="s">
         <v>576</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E116" s="19" t="s">
         <v>383</v>
@@ -9571,13 +9778,13 @@
         <v>160</v>
       </c>
       <c r="B117" s="36" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C117" s="15" t="s">
         <v>576</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E117" s="19" t="s">
         <v>384</v>
@@ -9595,13 +9802,13 @@
         <v>160</v>
       </c>
       <c r="B118" s="36" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C118" s="15" t="s">
         <v>576</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E118" s="19" t="s">
         <v>385</v>
@@ -9619,13 +9826,13 @@
         <v>160</v>
       </c>
       <c r="B119" s="36" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C119" s="15" t="s">
         <v>577</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E119" s="19" t="s">
         <v>326</v>
@@ -9645,13 +9852,13 @@
         <v>160</v>
       </c>
       <c r="B120" s="36" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C120" s="15" t="s">
         <v>577</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E120" s="19" t="s">
         <v>327</v>
@@ -9671,13 +9878,13 @@
         <v>160</v>
       </c>
       <c r="B121" s="36" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C121" s="15" t="s">
         <v>577</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E121" s="19" t="s">
         <v>328</v>
@@ -9695,13 +9902,13 @@
         <v>160</v>
       </c>
       <c r="B122" s="36" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C122" s="15" t="s">
         <v>577</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E122" s="19" t="s">
         <v>329</v>
@@ -9719,13 +9926,13 @@
         <v>160</v>
       </c>
       <c r="B123" s="36" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C123" s="15" t="s">
         <v>577</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E123" s="19" t="s">
         <v>330</v>
@@ -9743,13 +9950,13 @@
         <v>160</v>
       </c>
       <c r="B124" s="36" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C124" s="15" t="s">
         <v>577</v>
       </c>
       <c r="D124" s="19" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E124" s="19" t="s">
         <v>331</v>

--- a/Deliverables/CT/USDM_CT.xlsx
+++ b/Deliverables/CT/USDM_CT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhlbradtee\Documents\GitHub\DDF-RA\Deliverables\CT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D21E3F0-FFD9-4509-B24A-8358FB7934D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C152DDEF-C658-45DA-B414-EAD2A519C74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="130" windowWidth="18430" windowHeight="7600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="660" windowWidth="13500" windowHeight="7750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DDF Entities&amp;Attributes" sheetId="4" r:id="rId1"/>
@@ -2649,127 +2649,23 @@
     <t>procedureIsOptional</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>encounterContactMode</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>encounterContactModes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>studyIdentifier</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>studyIdentifiers</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>studyProtocolVersion</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>studyProtocolVersions</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>studyDesign</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>studyDesigns</t>
-    </r>
+    <t>studyIdentifiers</t>
+  </si>
+  <si>
+    <t>studyProtocolVersions</t>
+  </si>
+  <si>
+    <t>studyDesigns</t>
+  </si>
+  <si>
+    <t>encounterContactModes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2853,13 +2749,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2977,7 +2866,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3123,21 +3012,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3152,9 +3026,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3523,7 +3394,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="33">
         <v>2</v>
       </c>
@@ -3534,7 +3405,7 @@
         <v>650</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="4"/>
@@ -3542,7 +3413,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="33">
         <v>3</v>
       </c>
@@ -3553,7 +3424,7 @@
         <v>650</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="4"/>
@@ -3561,7 +3432,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="33">
         <v>4</v>
       </c>
@@ -3572,7 +3443,7 @@
         <v>650</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="4"/>
@@ -5802,7 +5673,7 @@
         <v>96</v>
       </c>
       <c r="D93" s="31" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>761</v>
@@ -5995,26 +5866,26 @@
       <c r="A101" s="33">
         <v>100</v>
       </c>
-      <c r="B101" s="49" t="s">
+      <c r="B101" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="C101" s="50" t="s">
+      <c r="C101" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D101" s="51" t="s">
+      <c r="D101" s="31" t="s">
         <v>843</v>
       </c>
-      <c r="E101" s="52" t="s">
+      <c r="E101" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F101" s="52" t="s">
+      <c r="F101" s="43" t="s">
         <v>844</v>
       </c>
-      <c r="G101" s="53"/>
-      <c r="H101" s="52" t="s">
+      <c r="G101" s="47"/>
+      <c r="H101" s="43" t="s">
         <v>845</v>
       </c>
-      <c r="I101" s="59" t="s">
+      <c r="I101" s="3" t="s">
         <v>95</v>
       </c>
     </row>
@@ -6211,26 +6082,26 @@
       <c r="A109" s="33">
         <v>108</v>
       </c>
-      <c r="B109" s="49" t="s">
+      <c r="B109" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C109" s="50" t="s">
+      <c r="C109" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D109" s="51" t="s">
+      <c r="D109" s="31" t="s">
         <v>848</v>
       </c>
-      <c r="E109" s="52" t="s">
+      <c r="E109" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F109" s="52" t="s">
+      <c r="F109" s="43" t="s">
         <v>846</v>
       </c>
-      <c r="G109" s="53"/>
-      <c r="H109" s="52" t="s">
+      <c r="G109" s="47"/>
+      <c r="H109" s="43" t="s">
         <v>847</v>
       </c>
-      <c r="I109" s="49" t="s">
+      <c r="I109" s="4" t="s">
         <v>95</v>
       </c>
     </row>
@@ -6958,7 +6829,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.35"/>
@@ -6974,14 +6845,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="49" t="s">
         <v>508</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
       <c r="I1" s="6"/>
@@ -6992,16 +6863,16 @@
       <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:14" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="51" t="s">
         <v>507</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -7010,11 +6881,11 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:14" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="49" t="s">
         <v>509</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="32"/>
       <c r="E3" s="24"/>
       <c r="F3" s="20"/>
@@ -7038,10 +6909,10 @@
       <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:14" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="B5" s="58"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
       <c r="E5" s="25"/>
@@ -9982,24 +9853,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D9A8E34D4601248B4650C3759D604D8" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c234dc030e1d129322a3d56f76335218">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="de0c653c-2bd3-43b1-95fa-012c57f61cfe" xmlns:ns3="848a8810-16a6-4d79-96d3-e3dfb86099b7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a56d1a68c4d05b5a1e5a3c0b3fb5b1a8" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -10221,10 +10074,40 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B4CE896-D144-40A9-85D3-0684E5DFDA36}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19245E31-480A-4933-AB52-6FC5778D0ABF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="de0c653c-2bd3-43b1-95fa-012c57f61cfe"/>
+    <ds:schemaRef ds:uri="848a8810-16a6-4d79-96d3-e3dfb86099b7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10248,21 +10131,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19245E31-480A-4933-AB52-6FC5778D0ABF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B4CE896-D144-40A9-85D3-0684E5DFDA36}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="de0c653c-2bd3-43b1-95fa-012c57f61cfe"/>
-    <ds:schemaRef ds:uri="848a8810-16a6-4d79-96d3-e3dfb86099b7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Deliverables/CT/USDM_CT.xlsx
+++ b/Deliverables/CT/USDM_CT.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhlbradtee\Documents\GitHub\DDF-RA\Deliverables\CT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C152DDEF-C658-45DA-B414-EAD2A519C74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DA6A01-0EFB-407E-9DA6-6E34A95A1BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="660" windowWidth="13500" windowHeight="7750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1840" yWindow="1280" windowWidth="13500" windowHeight="7750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DDF Entities&amp;Attributes" sheetId="4" r:id="rId1"/>
     <sheet name="DDF valid value sets" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DDF Entities&amp;Attributes'!$A$1:$I$138</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DDF Entities&amp;Attributes'!$A$1:$I$140</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DDF valid value sets'!$A$6:$N$124</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="859">
   <si>
     <t>Preferred Term</t>
   </si>
@@ -2660,12 +2660,30 @@
   <si>
     <t>encounterContactModes</t>
   </si>
+  <si>
+    <t>activityIsOptionalReason</t>
+  </si>
+  <si>
+    <t>Study Activity is Optional Reason</t>
+  </si>
+  <si>
+    <t>The explanation for why the study activity is available to be performed but is not obligatory.</t>
+  </si>
+  <si>
+    <t>procedureIsOptionalReason</t>
+  </si>
+  <si>
+    <t>Study Procedure is Optional Reason</t>
+  </si>
+  <si>
+    <t>The explanation for why the study procedure is available to be performed but is not obligatory.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2749,6 +2767,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2866,7 +2891,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3026,6 +3051,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3318,7 +3361,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I138"/>
+  <dimension ref="A1:I140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5889,34 +5932,34 @@
         <v>95</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A102" s="33">
         <v>101</v>
       </c>
-      <c r="B102" s="4" t="s">
-        <v>668</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D102" s="41" t="s">
-        <v>668</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G102" s="4"/>
-      <c r="H102" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I102" s="1" t="s">
+      <c r="B102" s="54" t="s">
+        <v>667</v>
+      </c>
+      <c r="C102" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="D102" s="56" t="s">
+        <v>853</v>
+      </c>
+      <c r="E102" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F102" s="57" t="s">
+        <v>854</v>
+      </c>
+      <c r="G102" s="58"/>
+      <c r="H102" s="57" t="s">
+        <v>855</v>
+      </c>
+      <c r="I102" s="59" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="33">
         <v>102</v>
       </c>
@@ -5924,22 +5967,22 @@
         <v>668</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D103" s="31" t="s">
-        <v>596</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>766</v>
+        <v>4</v>
+      </c>
+      <c r="D103" s="41" t="s">
+        <v>668</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>765</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="G103" s="4"/>
-      <c r="H103" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="I103" s="43" t="s">
+      <c r="H103" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I103" s="1" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5954,17 +5997,17 @@
         <v>96</v>
       </c>
       <c r="D104" s="31" t="s">
-        <v>830</v>
+        <v>596</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="4" t="s">
-        <v>128</v>
+        <v>516</v>
       </c>
       <c r="I104" s="43" t="s">
         <v>95</v>
@@ -5981,50 +6024,50 @@
         <v>96</v>
       </c>
       <c r="D105" s="31" t="s">
-        <v>598</v>
+        <v>830</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>647</v>
+        <v>153</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="4" t="s">
-        <v>715</v>
+        <v>128</v>
       </c>
       <c r="I105" s="43" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A106" s="33">
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>90</v>
+        <v>668</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D106" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>79</v>
+        <v>96</v>
+      </c>
+      <c r="D106" s="31" t="s">
+        <v>598</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>768</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>90</v>
+        <v>647</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I106" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="I106" s="43" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A107" s="33">
         <v>106</v>
       </c>
@@ -6032,26 +6075,26 @@
         <v>90</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D107" s="31" t="s">
-        <v>599</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>769</v>
+        <v>4</v>
+      </c>
+      <c r="D107" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="G107" s="4"/>
       <c r="H107" s="4" t="s">
-        <v>696</v>
-      </c>
-      <c r="I107" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I107" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="33">
         <v>107</v>
       </c>
@@ -6062,23 +6105,23 @@
         <v>96</v>
       </c>
       <c r="D108" s="31" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>141</v>
+        <v>769</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+        <v>696</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="50" x14ac:dyDescent="0.35">
       <c r="A109" s="33">
         <v>108</v>
       </c>
@@ -6089,69 +6132,77 @@
         <v>96</v>
       </c>
       <c r="D109" s="31" t="s">
-        <v>848</v>
-      </c>
-      <c r="E109" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F109" s="43" t="s">
-        <v>846</v>
-      </c>
-      <c r="G109" s="47"/>
-      <c r="H109" s="43" t="s">
-        <v>847</v>
-      </c>
-      <c r="I109" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+        <v>600</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A110" s="33">
         <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>603</v>
+        <v>90</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D110" s="41" t="s">
-        <v>603</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="G110" s="4"/>
-      <c r="H110" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="I110" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D110" s="31" t="s">
+        <v>848</v>
+      </c>
+      <c r="E110" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F110" s="43" t="s">
+        <v>846</v>
+      </c>
+      <c r="G110" s="47"/>
+      <c r="H110" s="43" t="s">
+        <v>847</v>
+      </c>
+      <c r="I110" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A111" s="33">
         <v>110</v>
       </c>
-      <c r="B111" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="D111" s="42" t="s">
-        <v>604</v>
-      </c>
-      <c r="E111" s="4"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
-      <c r="H111" s="4"/>
-      <c r="I111" s="4"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B111" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="C111" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="D111" s="56" t="s">
+        <v>856</v>
+      </c>
+      <c r="E111" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F111" s="57" t="s">
+        <v>857</v>
+      </c>
+      <c r="G111" s="58"/>
+      <c r="H111" s="57" t="s">
+        <v>858</v>
+      </c>
+      <c r="I111" s="54" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="50" x14ac:dyDescent="0.35">
       <c r="A112" s="33">
         <v>111</v>
       </c>
@@ -6159,22 +6210,22 @@
         <v>603</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D112" s="31" t="s">
-        <v>829</v>
+        <v>4</v>
+      </c>
+      <c r="D112" s="41" t="s">
+        <v>603</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>770</v>
+        <v>602</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>118</v>
+        <v>603</v>
       </c>
       <c r="G112" s="4"/>
       <c r="H112" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="I112" s="43" t="s">
+        <v>601</v>
+      </c>
+      <c r="I112" s="1" t="s">
         <v>95</v>
       </c>
     </row>
@@ -6183,46 +6234,46 @@
         <v>112</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>669</v>
-      </c>
-      <c r="C113" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D113" s="41" t="s">
-        <v>669</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>771</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>111</v>
-      </c>
+        <v>603</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="D113" s="42" t="s">
+        <v>604</v>
+      </c>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
       <c r="G113" s="4"/>
-      <c r="H113" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="33">
         <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>669</v>
+        <v>603</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="D114" s="42" t="s">
-        <v>585</v>
-      </c>
-      <c r="E114" s="4"/>
-      <c r="F114" s="4"/>
+        <v>96</v>
+      </c>
+      <c r="D114" s="31" t="s">
+        <v>829</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>118</v>
+      </c>
       <c r="G114" s="4"/>
-      <c r="H114" s="4"/>
-      <c r="I114" s="43"/>
+      <c r="H114" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I114" s="43" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="33">
@@ -6231,17 +6282,25 @@
       <c r="B115" s="4" t="s">
         <v>669</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="D115" s="42" t="s">
-        <v>588</v>
-      </c>
-      <c r="E115" s="4"/>
-      <c r="F115" s="4"/>
+      <c r="C115" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D115" s="41" t="s">
+        <v>669</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="G115" s="4"/>
-      <c r="H115" s="4"/>
-      <c r="I115" s="43"/>
+      <c r="H115" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="33">
@@ -6251,26 +6310,18 @@
         <v>669</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D116" s="30" t="s">
-        <v>828</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>771</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>111</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="D116" s="42" t="s">
+        <v>585</v>
+      </c>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
       <c r="G116" s="4"/>
-      <c r="H116" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="I116" s="43" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="H116" s="4"/>
+      <c r="I116" s="43"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="33">
         <v>116</v>
       </c>
@@ -6278,26 +6329,18 @@
         <v>669</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D117" s="30" t="s">
-        <v>605</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>772</v>
-      </c>
-      <c r="F117" s="4" t="s">
-        <v>607</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="D117" s="42" t="s">
+        <v>588</v>
+      </c>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
       <c r="G117" s="4"/>
-      <c r="H117" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="I117" s="43" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="H117" s="4"/>
+      <c r="I117" s="43"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="33">
         <v>117</v>
       </c>
@@ -6308,69 +6351,77 @@
         <v>96</v>
       </c>
       <c r="D118" s="30" t="s">
-        <v>606</v>
+        <v>828</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>773</v>
-      </c>
-      <c r="F118" s="4" t="s">
-        <v>608</v>
+        <v>771</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="G118" s="4"/>
       <c r="H118" s="4" t="s">
-        <v>723</v>
+        <v>138</v>
       </c>
       <c r="I118" s="43" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A119" s="33">
         <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>83</v>
+        <v>669</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D119" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>774</v>
+        <v>96</v>
+      </c>
+      <c r="D119" s="30" t="s">
+        <v>605</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>772</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>83</v>
+        <v>607</v>
       </c>
       <c r="G119" s="4"/>
       <c r="H119" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I119" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="I119" s="43" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A120" s="33">
         <v>119</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>83</v>
+        <v>669</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="D120" s="42" t="s">
-        <v>558</v>
-      </c>
-      <c r="E120" s="1"/>
-      <c r="F120" s="4"/>
+        <v>96</v>
+      </c>
+      <c r="D120" s="30" t="s">
+        <v>606</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>608</v>
+      </c>
       <c r="G120" s="4"/>
-      <c r="H120" s="4"/>
-      <c r="I120" s="1"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H120" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="I120" s="43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A121" s="33">
         <v>120</v>
       </c>
@@ -6378,16 +6429,24 @@
         <v>83</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="D121" s="42" t="s">
-        <v>559</v>
-      </c>
-      <c r="E121" s="1"/>
-      <c r="F121" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="D121" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="G121" s="4"/>
-      <c r="H121" s="4"/>
-      <c r="I121" s="1"/>
+      <c r="H121" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="33">
@@ -6400,7 +6459,7 @@
         <v>650</v>
       </c>
       <c r="D122" s="42" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="E122" s="1"/>
       <c r="F122" s="4"/>
@@ -6419,7 +6478,7 @@
         <v>650</v>
       </c>
       <c r="D123" s="42" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="4"/>
@@ -6427,7 +6486,7 @@
       <c r="H123" s="4"/>
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="33">
         <v>123</v>
       </c>
@@ -6435,101 +6494,85 @@
         <v>83</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D124" s="31" t="s">
-        <v>562</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="F124" s="4" t="s">
-        <v>85</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="D124" s="42" t="s">
+        <v>565</v>
+      </c>
+      <c r="E124" s="1"/>
+      <c r="F124" s="4"/>
       <c r="G124" s="4"/>
-      <c r="H124" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="I124" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="75" x14ac:dyDescent="0.35">
+      <c r="H124" s="4"/>
+      <c r="I124" s="1"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="33">
         <v>124</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>670</v>
+        <v>83</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D125" s="41" t="s">
-        <v>670</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="F125" s="4" t="s">
-        <v>87</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="D125" s="42" t="s">
+        <v>564</v>
+      </c>
+      <c r="E125" s="1"/>
+      <c r="F125" s="4"/>
       <c r="G125" s="4"/>
-      <c r="H125" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="I125" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="H125" s="4"/>
+      <c r="I125" s="1"/>
     </row>
     <row r="126" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A126" s="33">
         <v>125</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>670</v>
+        <v>83</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D126" s="31" t="s">
-        <v>827</v>
+        <v>562</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="G126" s="4"/>
       <c r="H126" s="4" t="s">
-        <v>645</v>
-      </c>
-      <c r="I126" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="I126" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" ht="75" x14ac:dyDescent="0.35">
       <c r="A127" s="33">
         <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D127" s="41" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="G127" s="4"/>
       <c r="H127" s="4" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="I127" s="1" t="s">
         <v>95</v>
@@ -6540,29 +6583,29 @@
         <v>127</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D128" s="31" t="s">
-        <v>560</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>778</v>
+        <v>827</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>776</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="G128" s="4"/>
       <c r="H128" s="4" t="s">
-        <v>515</v>
+        <v>645</v>
       </c>
       <c r="I128" s="43" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" ht="50" x14ac:dyDescent="0.35">
       <c r="A129" s="33">
         <v>128</v>
       </c>
@@ -6570,22 +6613,22 @@
         <v>671</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D129" s="31" t="s">
-        <v>826</v>
-      </c>
-      <c r="E129" s="4" t="s">
-        <v>779</v>
+        <v>4</v>
+      </c>
+      <c r="D129" s="41" t="s">
+        <v>671</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>777</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="G129" s="4"/>
       <c r="H129" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="I129" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="I129" s="1" t="s">
         <v>95</v>
       </c>
     </row>
@@ -6599,18 +6642,18 @@
       <c r="C130" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D130" s="46" t="s">
-        <v>561</v>
-      </c>
-      <c r="E130" s="33" t="s">
-        <v>780</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="G130" s="33"/>
+      <c r="D130" s="31" t="s">
+        <v>560</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G130" s="4"/>
       <c r="H130" s="4" t="s">
-        <v>714</v>
+        <v>515</v>
       </c>
       <c r="I130" s="43" t="s">
         <v>95</v>
@@ -6621,50 +6664,50 @@
         <v>130</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D131" s="41" t="s">
-        <v>674</v>
+        <v>96</v>
+      </c>
+      <c r="D131" s="31" t="s">
+        <v>826</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>680</v>
+        <v>779</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>674</v>
-      </c>
-      <c r="G131" s="35"/>
+        <v>115</v>
+      </c>
+      <c r="G131" s="4"/>
       <c r="H131" s="4" t="s">
-        <v>679</v>
+        <v>129</v>
       </c>
       <c r="I131" s="43" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A132" s="33">
         <v>131</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D132" s="31" t="s">
-        <v>675</v>
-      </c>
-      <c r="E132" s="4" t="s">
-        <v>781</v>
-      </c>
-      <c r="F132" s="4" t="s">
-        <v>709</v>
-      </c>
-      <c r="G132" s="35"/>
+      <c r="D132" s="46" t="s">
+        <v>561</v>
+      </c>
+      <c r="E132" s="33" t="s">
+        <v>780</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="G132" s="33"/>
       <c r="H132" s="4" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="I132" s="43" t="s">
         <v>95</v>
@@ -6678,20 +6721,20 @@
         <v>674</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D133" s="31" t="s">
-        <v>676</v>
+        <v>4</v>
+      </c>
+      <c r="D133" s="41" t="s">
+        <v>674</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>782</v>
+        <v>680</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="G133" s="4"/>
+        <v>674</v>
+      </c>
+      <c r="G133" s="35"/>
       <c r="H133" s="4" t="s">
-        <v>711</v>
+        <v>679</v>
       </c>
       <c r="I133" s="43" t="s">
         <v>95</v>
@@ -6708,17 +6751,17 @@
         <v>96</v>
       </c>
       <c r="D134" s="31" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>681</v>
-      </c>
-      <c r="G134" s="4"/>
+        <v>709</v>
+      </c>
+      <c r="G134" s="35"/>
       <c r="H134" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="I134" s="43" t="s">
         <v>95</v>
@@ -6735,67 +6778,75 @@
         <v>96</v>
       </c>
       <c r="D135" s="31" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="G135" s="35"/>
+        <v>708</v>
+      </c>
+      <c r="G135" s="4"/>
       <c r="H135" s="4" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="I135" s="43" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="33">
         <v>135</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="C136" s="33" t="s">
-        <v>819</v>
-      </c>
-      <c r="D136" s="41" t="s">
-        <v>820</v>
-      </c>
-      <c r="E136" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="F136" s="33" t="s">
-        <v>821</v>
-      </c>
-      <c r="G136" s="33"/>
-      <c r="H136" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="I136" s="33" t="s">
+      <c r="B136" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D136" s="31" t="s">
+        <v>677</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="G136" s="4"/>
+      <c r="H136" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="I136" s="43" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A137" s="33">
         <v>136</v>
       </c>
-      <c r="B137" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="C137" s="33" t="s">
-        <v>650</v>
-      </c>
-      <c r="D137" s="48" t="s">
-        <v>823</v>
-      </c>
-      <c r="E137" s="33"/>
-      <c r="F137" s="33"/>
-      <c r="G137" s="33"/>
-      <c r="H137" s="33"/>
-      <c r="I137" s="33"/>
+      <c r="B137" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D137" s="31" t="s">
+        <v>678</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="G137" s="35"/>
+      <c r="H137" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="I137" s="43" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="138" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A138" s="33">
@@ -6805,19 +6856,65 @@
         <v>820</v>
       </c>
       <c r="C138" s="33" t="s">
+        <v>819</v>
+      </c>
+      <c r="D138" s="41" t="s">
+        <v>820</v>
+      </c>
+      <c r="E138" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F138" s="33" t="s">
+        <v>821</v>
+      </c>
+      <c r="G138" s="33"/>
+      <c r="H138" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="I138" s="33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A139" s="33">
+        <v>138</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="C139" s="33" t="s">
         <v>650</v>
       </c>
-      <c r="D138" s="48" t="s">
+      <c r="D139" s="48" t="s">
+        <v>823</v>
+      </c>
+      <c r="E139" s="33"/>
+      <c r="F139" s="33"/>
+      <c r="G139" s="33"/>
+      <c r="H139" s="33"/>
+      <c r="I139" s="33"/>
+    </row>
+    <row r="140" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A140" s="33">
+        <v>139</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="C140" s="33" t="s">
+        <v>650</v>
+      </c>
+      <c r="D140" s="48" t="s">
         <v>824</v>
       </c>
-      <c r="E138" s="33"/>
-      <c r="F138" s="33"/>
-      <c r="G138" s="33"/>
-      <c r="H138" s="33"/>
-      <c r="I138" s="33"/>
+      <c r="E140" s="33"/>
+      <c r="F140" s="33"/>
+      <c r="G140" s="33"/>
+      <c r="H140" s="33"/>
+      <c r="I140" s="33"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I138" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I140" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9853,6 +9950,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D9A8E34D4601248B4650C3759D604D8" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c234dc030e1d129322a3d56f76335218">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="de0c653c-2bd3-43b1-95fa-012c57f61cfe" xmlns:ns3="848a8810-16a6-4d79-96d3-e3dfb86099b7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a56d1a68c4d05b5a1e5a3c0b3fb5b1a8" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -10074,40 +10189,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19245E31-480A-4933-AB52-6FC5778D0ABF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B4CE896-D144-40A9-85D3-0684E5DFDA36}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="de0c653c-2bd3-43b1-95fa-012c57f61cfe"/>
-    <ds:schemaRef ds:uri="848a8810-16a6-4d79-96d3-e3dfb86099b7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10131,9 +10216,21 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B4CE896-D144-40A9-85D3-0684E5DFDA36}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19245E31-480A-4933-AB52-6FC5778D0ABF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="de0c653c-2bd3-43b1-95fa-012c57f61cfe"/>
+    <ds:schemaRef ds:uri="848a8810-16a6-4d79-96d3-e3dfb86099b7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Deliverables/CT/USDM_CT.xlsx
+++ b/Deliverables/CT/USDM_CT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhlbradtee\Documents\GitHub\DDF-RA\Deliverables\CT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DA6A01-0EFB-407E-9DA6-6E34A95A1BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC2EDA9-2049-4D20-97E8-4B31F56C26CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="1280" windowWidth="13500" windowHeight="7750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1010" yWindow="360" windowWidth="16240" windowHeight="9230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DDF Entities&amp;Attributes" sheetId="4" r:id="rId1"/>
@@ -2683,7 +2683,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2767,13 +2767,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2891,7 +2884,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3051,24 +3044,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5936,26 +5911,26 @@
       <c r="A102" s="33">
         <v>101</v>
       </c>
-      <c r="B102" s="54" t="s">
+      <c r="B102" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="C102" s="55" t="s">
+      <c r="C102" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D102" s="56" t="s">
+      <c r="D102" s="31" t="s">
         <v>853</v>
       </c>
-      <c r="E102" s="57" t="s">
+      <c r="E102" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F102" s="57" t="s">
+      <c r="F102" s="43" t="s">
         <v>854</v>
       </c>
-      <c r="G102" s="58"/>
-      <c r="H102" s="57" t="s">
+      <c r="G102" s="47"/>
+      <c r="H102" s="43" t="s">
         <v>855</v>
       </c>
-      <c r="I102" s="59" t="s">
+      <c r="I102" s="3" t="s">
         <v>95</v>
       </c>
     </row>
@@ -6179,26 +6154,26 @@
       <c r="A111" s="33">
         <v>110</v>
       </c>
-      <c r="B111" s="54" t="s">
+      <c r="B111" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C111" s="55" t="s">
+      <c r="C111" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D111" s="56" t="s">
+      <c r="D111" s="31" t="s">
         <v>856</v>
       </c>
-      <c r="E111" s="57" t="s">
+      <c r="E111" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F111" s="57" t="s">
+      <c r="F111" s="43" t="s">
         <v>857</v>
       </c>
-      <c r="G111" s="58"/>
-      <c r="H111" s="57" t="s">
+      <c r="G111" s="47"/>
+      <c r="H111" s="43" t="s">
         <v>858</v>
       </c>
-      <c r="I111" s="54" t="s">
+      <c r="I111" s="4" t="s">
         <v>95</v>
       </c>
     </row>
@@ -9950,24 +9925,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D9A8E34D4601248B4650C3759D604D8" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c234dc030e1d129322a3d56f76335218">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="de0c653c-2bd3-43b1-95fa-012c57f61cfe" xmlns:ns3="848a8810-16a6-4d79-96d3-e3dfb86099b7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a56d1a68c4d05b5a1e5a3c0b3fb5b1a8" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -10189,10 +10146,40 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B4CE896-D144-40A9-85D3-0684E5DFDA36}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19245E31-480A-4933-AB52-6FC5778D0ABF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="de0c653c-2bd3-43b1-95fa-012c57f61cfe"/>
+    <ds:schemaRef ds:uri="848a8810-16a6-4d79-96d3-e3dfb86099b7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10216,21 +10203,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19245E31-480A-4933-AB52-6FC5778D0ABF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B4CE896-D144-40A9-85D3-0684E5DFDA36}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="de0c653c-2bd3-43b1-95fa-012c57f61cfe"/>
-    <ds:schemaRef ds:uri="848a8810-16a6-4d79-96d3-e3dfb86099b7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Deliverables/CT/USDM_CT.xlsx
+++ b/Deliverables/CT/USDM_CT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhlbradtee\Documents\GitHub\DDF-RA\Deliverables\CT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C8D25E-63DE-4D13-9D83-E94DE2B3A8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DD8333-EC84-47DC-89E4-EF30117F3121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1010" yWindow="360" windowWidth="16290" windowHeight="9230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="460" yWindow="980" windowWidth="18740" windowHeight="9220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DDF Entities&amp;Attributes" sheetId="4" r:id="rId1"/>
@@ -2847,106 +2847,23 @@
     <t>Y (C66732)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>A defined variable intended to reflect an outcome measure of interest that is statistically analyzed to address a particular research question. NOTE: A precise definition of an endpoint typically specifies the type of assessments made, the timing of those assessments, the assessment tools used, and possibly other details, as applicable, such as how multiple assessments within an individual are to be combined. [After BEST Resource] (CDISC Glossary)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>A defined variable intended to reflect an outcome of interest that is statistically analyzed to address a particular research question. NOTE: A precise definition of an endpoint typically specifies the type of assessments made, the timing of those assessments, the assessment tools used, and possibly other details, as applicable, such as how multiple assessments within an individual are to be combined. [After BEST Resource] (CDISC Glossary)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>The drug, device, therapy, or process under investigation in a clinical study that is believed to have an effect on outcomes of interest in a study. [After https://grants.nih.gov/grants/policy/faq_clinical_trial_definition.htm#5224] (CDISC-Glossary)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>The drug, device, therapy, or process under investigation in a clinical study that is believed to have an effect on outcomes of interest in a study (e.g., health-related quality of life, efficacy, safety, pharmacoeconomics). [After https://grants.nih.gov/grants/policy/faq_clinical_trial_definition.htm#5224]</t>
-    </r>
-  </si>
-  <si>
     <t>Clinical Study Sponsor; Sponsor; Study Sponsor</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>An entity that is responsible for the initiation, management, and/or financing of a clinical study.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>An individual, company, institution, or organization that takes responsibility for the initiation, management, and/or financing of a clinical study. [After ICH E6, WHO, 21 CFR 50.3 (e), and after IDMP]</t>
-    </r>
+    <t>The drug, device, therapy, or process under investigation in a clinical study that is believed to have an effect on outcomes of interest in a study (e.g., health-related quality of life, efficacy, safety, pharmacoeconomics). [After https://grants.nih.gov/grants/policy/faq_clinical_trial_definition.htm#5224]</t>
+  </si>
+  <si>
+    <t>A defined variable intended to reflect an outcome of interest that is statistically analyzed to address a particular research question. NOTE: A precise definition of an endpoint typically specifies the type of assessments made, the timing of those assessments, the assessment tools used, and possibly other details, as applicable, such as how multiple assessments within an individual are to be combined. [After BEST Resource] (CDISC Glossary)</t>
+  </si>
+  <si>
+    <t>An individual, company, institution, or organization that takes responsibility for the initiation, management, and/or financing of a clinical study. [After ICH E6, WHO, 21 CFR 50.3 (e), and after IDMP]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3030,13 +2947,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3173,7 +3083,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3319,6 +3229,21 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3334,50 +3259,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3948,26 +3834,26 @@
       <c r="A11" s="33">
         <v>10</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="31" t="s">
         <v>856</v>
       </c>
-      <c r="E11" s="57" t="s">
+      <c r="E11" s="59" t="s">
         <v>858</v>
       </c>
-      <c r="F11" s="58" t="s">
+      <c r="F11" s="43" t="s">
         <v>859</v>
       </c>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58" t="s">
+      <c r="G11" s="43"/>
+      <c r="H11" s="43" t="s">
         <v>860</v>
       </c>
-      <c r="I11" s="55" t="s">
+      <c r="I11" s="1" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3975,26 +3861,26 @@
       <c r="A12" s="33">
         <v>11</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="31" t="s">
         <v>857</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="E12" s="59" t="s">
         <v>861</v>
       </c>
-      <c r="F12" s="58" t="s">
+      <c r="F12" s="43" t="s">
         <v>862</v>
       </c>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58" t="s">
+      <c r="G12" s="43"/>
+      <c r="H12" s="43" t="s">
         <v>863</v>
       </c>
-      <c r="I12" s="55" t="s">
+      <c r="I12" s="1" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4343,24 +4229,24 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="33">
         <v>25</v>
       </c>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="D26" s="60" t="s">
+      <c r="D26" s="42" t="s">
         <v>864</v>
       </c>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="55"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="50"/>
     </row>
     <row r="27" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A27" s="33">
@@ -4836,34 +4722,34 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="66" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" s="52" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A47" s="33">
         <v>46</v>
       </c>
-      <c r="B47" s="54" t="s">
+      <c r="B47" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="C47" s="55" t="s">
+      <c r="C47" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D47" s="56" t="s">
+      <c r="D47" s="31" t="s">
         <v>897</v>
       </c>
-      <c r="E47" s="57" t="s">
+      <c r="E47" s="59" t="s">
         <v>894</v>
       </c>
-      <c r="F47" s="58" t="s">
+      <c r="F47" s="43" t="s">
         <v>895</v>
       </c>
-      <c r="G47" s="58"/>
-      <c r="H47" s="58" t="s">
+      <c r="G47" s="43"/>
+      <c r="H47" s="43" t="s">
         <v>896</v>
       </c>
-      <c r="I47" s="55" t="s">
+      <c r="I47" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="139.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" ht="75" x14ac:dyDescent="0.35">
       <c r="A48" s="33">
         <v>47</v>
       </c>
@@ -5083,23 +4969,23 @@
       <c r="A56" s="33">
         <v>55</v>
       </c>
-      <c r="B56" s="54" t="s">
+      <c r="B56" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="C56" s="55" t="s">
+      <c r="C56" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D56" s="65" t="s">
+      <c r="D56" s="30" t="s">
         <v>898</v>
       </c>
-      <c r="E56" s="57" t="s">
+      <c r="E56" s="59" t="s">
         <v>902</v>
       </c>
-      <c r="F56" s="58" t="s">
+      <c r="F56" s="43" t="s">
         <v>903</v>
       </c>
-      <c r="G56" s="58"/>
-      <c r="H56" s="58" t="s">
+      <c r="G56" s="43"/>
+      <c r="H56" s="43" t="s">
         <v>904</v>
       </c>
       <c r="I56" s="43" t="s">
@@ -5110,23 +4996,23 @@
       <c r="A57" s="33">
         <v>56</v>
       </c>
-      <c r="B57" s="54" t="s">
+      <c r="B57" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="C57" s="55" t="s">
+      <c r="C57" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D57" s="65" t="s">
+      <c r="D57" s="30" t="s">
         <v>899</v>
       </c>
-      <c r="E57" s="57" t="s">
+      <c r="E57" s="59" t="s">
         <v>905</v>
       </c>
-      <c r="F57" s="58" t="s">
+      <c r="F57" s="43" t="s">
         <v>906</v>
       </c>
-      <c r="G57" s="58"/>
-      <c r="H57" s="58" t="s">
+      <c r="G57" s="43"/>
+      <c r="H57" s="43" t="s">
         <v>907</v>
       </c>
       <c r="I57" s="43" t="s">
@@ -5137,23 +5023,23 @@
       <c r="A58" s="33">
         <v>57</v>
       </c>
-      <c r="B58" s="54" t="s">
+      <c r="B58" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="C58" s="55" t="s">
+      <c r="C58" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D58" s="65" t="s">
+      <c r="D58" s="30" t="s">
         <v>900</v>
       </c>
-      <c r="E58" s="57" t="s">
+      <c r="E58" s="59" t="s">
         <v>908</v>
       </c>
-      <c r="F58" s="58" t="s">
+      <c r="F58" s="43" t="s">
         <v>909</v>
       </c>
-      <c r="G58" s="58"/>
-      <c r="H58" s="58" t="s">
+      <c r="G58" s="43"/>
+      <c r="H58" s="43" t="s">
         <v>910</v>
       </c>
       <c r="I58" s="43" t="s">
@@ -5164,26 +5050,26 @@
       <c r="A59" s="33">
         <v>58</v>
       </c>
-      <c r="B59" s="54" t="s">
+      <c r="B59" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="C59" s="55" t="s">
+      <c r="C59" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D59" s="65" t="s">
+      <c r="D59" s="30" t="s">
         <v>901</v>
       </c>
-      <c r="E59" s="57" t="s">
+      <c r="E59" s="59" t="s">
         <v>911</v>
       </c>
-      <c r="F59" s="58" t="s">
+      <c r="F59" s="43" t="s">
         <v>912</v>
       </c>
-      <c r="G59" s="58"/>
-      <c r="H59" s="58" t="s">
+      <c r="G59" s="43"/>
+      <c r="H59" s="43" t="s">
         <v>913</v>
       </c>
-      <c r="I59" s="58" t="s">
+      <c r="I59" s="43" t="s">
         <v>914</v>
       </c>
     </row>
@@ -5287,7 +5173,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="189.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" ht="100" x14ac:dyDescent="0.35">
       <c r="A64" s="33">
         <v>63</v>
       </c>
@@ -5308,7 +5194,7 @@
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="43" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>93</v>
@@ -7434,219 +7320,219 @@
         <v>93</v>
       </c>
     </row>
-    <row r="149" spans="1:9" s="61" customFormat="1" ht="25" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" s="51" customFormat="1" ht="25" x14ac:dyDescent="0.35">
       <c r="A149" s="33">
         <v>148</v>
       </c>
-      <c r="B149" s="59" t="s">
+      <c r="B149" s="33" t="s">
         <v>865</v>
       </c>
-      <c r="C149" s="62" t="s">
+      <c r="C149" s="60" t="s">
         <v>816</v>
       </c>
-      <c r="D149" s="63" t="s">
+      <c r="D149" s="41" t="s">
         <v>817</v>
       </c>
-      <c r="E149" s="57" t="s">
+      <c r="E149" s="59" t="s">
         <v>892</v>
       </c>
-      <c r="F149" s="58" t="s">
+      <c r="F149" s="43" t="s">
         <v>865</v>
       </c>
-      <c r="G149" s="64"/>
-      <c r="H149" s="58" t="s">
+      <c r="G149" s="47"/>
+      <c r="H149" s="43" t="s">
         <v>893</v>
       </c>
-      <c r="I149" s="59" t="s">
+      <c r="I149" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="150" spans="1:9" s="61" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" s="51" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A150" s="33">
         <v>149</v>
       </c>
-      <c r="B150" s="59" t="s">
+      <c r="B150" s="33" t="s">
         <v>865</v>
       </c>
-      <c r="C150" s="62" t="s">
+      <c r="C150" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="D150" s="65" t="s">
+      <c r="D150" s="30" t="s">
         <v>866</v>
       </c>
-      <c r="E150" s="57" t="s">
+      <c r="E150" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="F150" s="58" t="s">
+      <c r="F150" s="43" t="s">
         <v>873</v>
       </c>
-      <c r="G150" s="64"/>
-      <c r="H150" s="58" t="s">
+      <c r="G150" s="47"/>
+      <c r="H150" s="43" t="s">
         <v>874</v>
       </c>
-      <c r="I150" s="59" t="s">
+      <c r="I150" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="151" spans="1:9" s="61" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" s="51" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A151" s="33">
         <v>150</v>
       </c>
-      <c r="B151" s="59" t="s">
+      <c r="B151" s="33" t="s">
         <v>865</v>
       </c>
-      <c r="C151" s="62" t="s">
+      <c r="C151" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="D151" s="65" t="s">
+      <c r="D151" s="30" t="s">
         <v>867</v>
       </c>
-      <c r="E151" s="58" t="s">
+      <c r="E151" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F151" s="58" t="s">
+      <c r="F151" s="43" t="s">
         <v>875</v>
       </c>
-      <c r="G151" s="64"/>
-      <c r="H151" s="58" t="s">
+      <c r="G151" s="47"/>
+      <c r="H151" s="43" t="s">
         <v>876</v>
       </c>
-      <c r="I151" s="59" t="s">
+      <c r="I151" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="152" spans="1:9" s="61" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" s="51" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A152" s="33">
         <v>151</v>
       </c>
-      <c r="B152" s="59" t="s">
+      <c r="B152" s="33" t="s">
         <v>865</v>
       </c>
-      <c r="C152" s="62" t="s">
+      <c r="C152" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="D152" s="65" t="s">
+      <c r="D152" s="30" t="s">
         <v>868</v>
       </c>
-      <c r="E152" s="57" t="s">
+      <c r="E152" s="59" t="s">
         <v>877</v>
       </c>
-      <c r="F152" s="58" t="s">
+      <c r="F152" s="43" t="s">
         <v>878</v>
       </c>
-      <c r="G152" s="64"/>
-      <c r="H152" s="58" t="s">
+      <c r="G152" s="47"/>
+      <c r="H152" s="43" t="s">
         <v>879</v>
       </c>
-      <c r="I152" s="59" t="s">
+      <c r="I152" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="153" spans="1:9" s="61" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" s="51" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A153" s="33">
         <v>152</v>
       </c>
-      <c r="B153" s="59" t="s">
+      <c r="B153" s="33" t="s">
         <v>865</v>
       </c>
-      <c r="C153" s="62" t="s">
+      <c r="C153" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="D153" s="65" t="s">
+      <c r="D153" s="30" t="s">
         <v>869</v>
       </c>
-      <c r="E153" s="57" t="s">
+      <c r="E153" s="59" t="s">
         <v>880</v>
       </c>
-      <c r="F153" s="58" t="s">
+      <c r="F153" s="43" t="s">
         <v>881</v>
       </c>
-      <c r="G153" s="64"/>
-      <c r="H153" s="58" t="s">
+      <c r="G153" s="47"/>
+      <c r="H153" s="43" t="s">
         <v>882</v>
       </c>
-      <c r="I153" s="59" t="s">
+      <c r="I153" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="154" spans="1:9" s="61" customFormat="1" ht="50" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" s="51" customFormat="1" ht="50" x14ac:dyDescent="0.35">
       <c r="A154" s="33">
         <v>153</v>
       </c>
-      <c r="B154" s="59" t="s">
+      <c r="B154" s="33" t="s">
         <v>865</v>
       </c>
-      <c r="C154" s="62" t="s">
+      <c r="C154" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="D154" s="65" t="s">
+      <c r="D154" s="30" t="s">
         <v>870</v>
       </c>
-      <c r="E154" s="57" t="s">
+      <c r="E154" s="59" t="s">
         <v>883</v>
       </c>
-      <c r="F154" s="58" t="s">
+      <c r="F154" s="43" t="s">
         <v>884</v>
       </c>
-      <c r="G154" s="64"/>
-      <c r="H154" s="58" t="s">
+      <c r="G154" s="47"/>
+      <c r="H154" s="43" t="s">
         <v>885</v>
       </c>
-      <c r="I154" s="59" t="s">
+      <c r="I154" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="155" spans="1:9" s="61" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" s="51" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A155" s="33">
         <v>154</v>
       </c>
-      <c r="B155" s="59" t="s">
+      <c r="B155" s="33" t="s">
         <v>865</v>
       </c>
-      <c r="C155" s="62" t="s">
+      <c r="C155" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="D155" s="65" t="s">
+      <c r="D155" s="30" t="s">
         <v>871</v>
       </c>
-      <c r="E155" s="57" t="s">
+      <c r="E155" s="59" t="s">
         <v>886</v>
       </c>
-      <c r="F155" s="58" t="s">
+      <c r="F155" s="43" t="s">
         <v>887</v>
       </c>
-      <c r="G155" s="64"/>
-      <c r="H155" s="58" t="s">
+      <c r="G155" s="47"/>
+      <c r="H155" s="43" t="s">
         <v>888</v>
       </c>
-      <c r="I155" s="59" t="s">
+      <c r="I155" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="156" spans="1:9" s="61" customFormat="1" ht="25" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" s="51" customFormat="1" ht="25" x14ac:dyDescent="0.35">
       <c r="A156" s="33">
         <v>155</v>
       </c>
-      <c r="B156" s="59" t="s">
+      <c r="B156" s="33" t="s">
         <v>865</v>
       </c>
-      <c r="C156" s="62" t="s">
+      <c r="C156" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="D156" s="65" t="s">
+      <c r="D156" s="30" t="s">
         <v>872</v>
       </c>
-      <c r="E156" s="57" t="s">
+      <c r="E156" s="59" t="s">
         <v>889</v>
       </c>
-      <c r="F156" s="58" t="s">
+      <c r="F156" s="43" t="s">
         <v>890</v>
       </c>
-      <c r="G156" s="64"/>
-      <c r="H156" s="58" t="s">
+      <c r="G156" s="47"/>
+      <c r="H156" s="43" t="s">
         <v>891</v>
       </c>
-      <c r="I156" s="59" t="s">
+      <c r="I156" s="33" t="s">
         <v>93</v>
       </c>
     </row>
@@ -7662,8 +7548,8 @@
   <dimension ref="A1:N124"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.35"/>
@@ -7679,14 +7565,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="54" t="s">
         <v>506</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
       <c r="I1" s="6"/>
@@ -7697,16 +7583,16 @@
       <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:14" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="56" t="s">
         <v>505</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -7715,11 +7601,11 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:14" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="54" t="s">
         <v>507</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="32"/>
       <c r="E3" s="24"/>
       <c r="F3" s="20"/>
@@ -7743,10 +7629,10 @@
       <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:14" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="B5" s="53"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
       <c r="E5" s="25"/>
@@ -8342,7 +8228,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="14" customFormat="1" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" s="14" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A29" s="15" t="s">
         <v>158</v>
       </c>
@@ -8358,11 +8244,11 @@
       <c r="E29" s="15" t="s">
         <v>725</v>
       </c>
-      <c r="F29" s="67" t="s">
+      <c r="F29" s="53" t="s">
         <v>722</v>
       </c>
-      <c r="G29" s="68" t="s">
-        <v>917</v>
+      <c r="G29" s="19" t="s">
+        <v>915</v>
       </c>
       <c r="H29" s="19" t="s">
         <v>918</v>
@@ -9122,7 +9008,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="14" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" s="14" customFormat="1" ht="25" x14ac:dyDescent="0.35">
       <c r="A61" s="15" t="s">
         <v>158</v>
       </c>
@@ -10689,24 +10575,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D9A8E34D4601248B4650C3759D604D8" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c234dc030e1d129322a3d56f76335218">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="de0c653c-2bd3-43b1-95fa-012c57f61cfe" xmlns:ns3="848a8810-16a6-4d79-96d3-e3dfb86099b7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a56d1a68c4d05b5a1e5a3c0b3fb5b1a8" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -10928,10 +10796,40 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B4CE896-D144-40A9-85D3-0684E5DFDA36}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19245E31-480A-4933-AB52-6FC5778D0ABF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="de0c653c-2bd3-43b1-95fa-012c57f61cfe"/>
+    <ds:schemaRef ds:uri="848a8810-16a6-4d79-96d3-e3dfb86099b7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10955,21 +10853,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19245E31-480A-4933-AB52-6FC5778D0ABF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B4CE896-D144-40A9-85D3-0684E5DFDA36}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="de0c653c-2bd3-43b1-95fa-012c57f61cfe"/>
-    <ds:schemaRef ds:uri="848a8810-16a6-4d79-96d3-e3dfb86099b7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Deliverables/CT/USDM_CT.xlsx
+++ b/Deliverables/CT/USDM_CT.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhlbradtee\Documents\GitHub\DDF-RA\Deliverables\CT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DD8333-EC84-47DC-89E4-EF30117F3121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7736F939-4CF7-4C10-ADCC-CBD5A32FA39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="980" windowWidth="18740" windowHeight="9220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="200" yWindow="330" windowWidth="18740" windowHeight="9220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DDF Entities&amp;Attributes" sheetId="4" r:id="rId1"/>
     <sheet name="DDF valid value sets" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DDF Entities&amp;Attributes'!$A$1:$I$148</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DDF Entities&amp;Attributes'!$A$1:$I$161</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DDF valid value sets'!$A$6:$N$124</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="919">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1907" uniqueCount="956">
   <si>
     <t>Preferred Term</t>
   </si>
@@ -2858,12 +2858,123 @@
   <si>
     <t>An individual, company, institution, or organization that takes responsibility for the initiation, management, and/or financing of a clinical study. [After ICH E6, WHO, 21 CFR 50.3 (e), and after IDMP]</t>
   </si>
+  <si>
+    <t>Y - ISO 3166-1 Alpha-3 Country code</t>
+  </si>
+  <si>
+    <t>studyDesignBlindingScheme</t>
+  </si>
+  <si>
+    <t>C49658</t>
+  </si>
+  <si>
+    <t>Trial Blinding Schema</t>
+  </si>
+  <si>
+    <t>Study Blinding Design; Study Blinding Schema; Study Masking Design; Trial Blinding Design; Trial Blinding Schema; Trial Masking Design</t>
+  </si>
+  <si>
+    <t>The type of experimental design used to describe the level of awareness of the study subjects and/ or study personnel as it relates to the respective intervention(s) or assessments being observed, received or administered.</t>
+  </si>
+  <si>
+    <t>Y - C66735</t>
+  </si>
+  <si>
+    <t>C15228</t>
+  </si>
+  <si>
+    <t>DOUBLE BLIND</t>
+  </si>
+  <si>
+    <t>Double Masked; Double-Masked</t>
+  </si>
+  <si>
+    <t>A study in which neither the subject nor the study personnel interacting with the subject or data during the study knows what intervention a subject is receiving.</t>
+  </si>
+  <si>
+    <t>C187674</t>
+  </si>
+  <si>
+    <t>OBSERVER BLIND</t>
+  </si>
+  <si>
+    <t>A study in which the study personnel who measure, record, or assess the subject do not know which intervention the subject is receiving or, in the context of observational studies, do not know the external factors to which a subject has been exposed.</t>
+  </si>
+  <si>
+    <t>C156592</t>
+  </si>
+  <si>
+    <t>OPEN LABEL TO TREATMENT AND DOUBLE BLIND TO IMP DOSE</t>
+  </si>
+  <si>
+    <t>A study in which the therapeutic treatment is open label but the dosing information of the investigational medicinal product (IMP) is double-blinded.</t>
+  </si>
+  <si>
+    <t>C49659</t>
+  </si>
+  <si>
+    <t>OPEN LABEL</t>
+  </si>
+  <si>
+    <t>A study in which subjects and study personnel know which intervention each subject is receiving.</t>
+  </si>
+  <si>
+    <t>C28233</t>
+  </si>
+  <si>
+    <t>SINGLE BLIND</t>
+  </si>
+  <si>
+    <t>Single Masked; Single-Masked</t>
+  </si>
+  <si>
+    <t>A study in which one party, either the subject or study personnel, does not know which intervention is administered to the subject.</t>
+  </si>
+  <si>
+    <t>C66735</t>
+  </si>
+  <si>
+    <t>Study Activity is Conditional</t>
+  </si>
+  <si>
+    <t>An indication as to whether the study activity is subject to or dependent upon something else.</t>
+  </si>
+  <si>
+    <t>Study Activity is Conditional Reason</t>
+  </si>
+  <si>
+    <t>activityIsConditional</t>
+  </si>
+  <si>
+    <t>activityIsConditionalReason</t>
+  </si>
+  <si>
+    <t>The explanation for why the study activity is subject to or dependent upon something else.</t>
+  </si>
+  <si>
+    <t>Study Procedure is Conditional</t>
+  </si>
+  <si>
+    <t>Study Procedure is Conditional Reason</t>
+  </si>
+  <si>
+    <t>An indication as to whether the study procedure is subject to or dependent upon something else.</t>
+  </si>
+  <si>
+    <t>The explanation for why the study procedure is subject to or dependent upon something else.</t>
+  </si>
+  <si>
+    <t>procedureIsConditional</t>
+  </si>
+  <si>
+    <t>procedureIsConditionalReason</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2956,6 +3067,20 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -3083,7 +3208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3244,6 +3369,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3259,11 +3390,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3556,7 +3717,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I156"/>
+  <dimension ref="A1:I161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3843,7 +4004,7 @@
       <c r="D11" s="31" t="s">
         <v>856</v>
       </c>
-      <c r="E11" s="59" t="s">
+      <c r="E11" s="54" t="s">
         <v>858</v>
       </c>
       <c r="F11" s="43" t="s">
@@ -3870,7 +4031,7 @@
       <c r="D12" s="31" t="s">
         <v>857</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="54" t="s">
         <v>861</v>
       </c>
       <c r="F12" s="43" t="s">
@@ -4735,7 +4896,7 @@
       <c r="D47" s="31" t="s">
         <v>897</v>
       </c>
-      <c r="E47" s="59" t="s">
+      <c r="E47" s="54" t="s">
         <v>894</v>
       </c>
       <c r="F47" s="43" t="s">
@@ -4749,34 +4910,36 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="75" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" s="52" customFormat="1" ht="75" x14ac:dyDescent="0.35">
       <c r="A48" s="33">
         <v>47</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="41" t="s">
-        <v>654</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G48" s="4"/>
-      <c r="H48" s="43" t="s">
-        <v>916</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="B48" s="49" t="s">
+        <v>653</v>
+      </c>
+      <c r="C48" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" s="67" t="s">
+        <v>920</v>
+      </c>
+      <c r="E48" s="68" t="s">
+        <v>921</v>
+      </c>
+      <c r="F48" s="68" t="s">
+        <v>922</v>
+      </c>
+      <c r="G48" s="68" t="s">
+        <v>923</v>
+      </c>
+      <c r="H48" s="68" t="s">
+        <v>924</v>
+      </c>
+      <c r="I48" s="68" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="75" x14ac:dyDescent="0.35">
       <c r="A49" s="33">
         <v>48</v>
       </c>
@@ -4784,26 +4947,26 @@
         <v>654</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D49" s="31" t="s">
-        <v>632</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>735</v>
+        <v>4</v>
+      </c>
+      <c r="D49" s="41" t="s">
+        <v>654</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>647</v>
+        <v>26</v>
       </c>
       <c r="G49" s="4"/>
-      <c r="H49" s="4" t="s">
-        <v>692</v>
+      <c r="H49" s="43" t="s">
+        <v>916</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A50" s="33">
         <v>49</v>
       </c>
@@ -4814,20 +4977,20 @@
         <v>94</v>
       </c>
       <c r="D50" s="31" t="s">
-        <v>839</v>
+        <v>632</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>100</v>
+        <v>735</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>99</v>
+        <v>647</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4" t="s">
-        <v>124</v>
+        <v>692</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>93</v>
+        <v>670</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -4835,29 +4998,29 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" s="41" t="s">
-        <v>655</v>
+        <v>94</v>
+      </c>
+      <c r="D51" s="31" t="s">
+        <v>839</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="75" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A52" s="33">
         <v>51</v>
       </c>
@@ -4865,23 +5028,23 @@
         <v>655</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D52" s="31" t="s">
-        <v>632</v>
+        <v>4</v>
+      </c>
+      <c r="D52" s="41" t="s">
+        <v>655</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>737</v>
+        <v>32</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>646</v>
+        <v>101</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4" t="s">
-        <v>693</v>
+        <v>31</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>671</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="75" x14ac:dyDescent="0.35">
@@ -4895,47 +5058,47 @@
         <v>94</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>838</v>
+        <v>632</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>32</v>
+        <v>737</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>101</v>
+        <v>646</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4" t="s">
-        <v>31</v>
+        <v>693</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" ht="75" x14ac:dyDescent="0.35">
       <c r="A54" s="33">
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D54" s="41" t="s">
-        <v>656</v>
+        <v>94</v>
+      </c>
+      <c r="D54" s="31" t="s">
+        <v>838</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4" t="s">
-        <v>642</v>
+        <v>31</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>93</v>
+        <v>671</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
@@ -4946,22 +5109,22 @@
         <v>656</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D55" s="31" t="s">
-        <v>824</v>
+        <v>4</v>
+      </c>
+      <c r="D55" s="41" t="s">
+        <v>656</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>738</v>
+        <v>29</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="I55" s="43" t="s">
+        <v>642</v>
+      </c>
+      <c r="I55" s="1" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4975,18 +5138,18 @@
       <c r="C56" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D56" s="30" t="s">
-        <v>898</v>
-      </c>
-      <c r="E56" s="59" t="s">
-        <v>902</v>
-      </c>
-      <c r="F56" s="43" t="s">
-        <v>903</v>
-      </c>
-      <c r="G56" s="43"/>
-      <c r="H56" s="43" t="s">
-        <v>904</v>
+      <c r="D56" s="31" t="s">
+        <v>824</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="I56" s="43" t="s">
         <v>93</v>
@@ -5003,17 +5166,17 @@
         <v>94</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>899</v>
-      </c>
-      <c r="E57" s="59" t="s">
-        <v>905</v>
+        <v>898</v>
+      </c>
+      <c r="E57" s="54" t="s">
+        <v>902</v>
       </c>
       <c r="F57" s="43" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="G57" s="43"/>
       <c r="H57" s="43" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="I57" s="43" t="s">
         <v>93</v>
@@ -5030,17 +5193,17 @@
         <v>94</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>900</v>
-      </c>
-      <c r="E58" s="59" t="s">
-        <v>908</v>
+        <v>899</v>
+      </c>
+      <c r="E58" s="54" t="s">
+        <v>905</v>
       </c>
       <c r="F58" s="43" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="G58" s="43"/>
       <c r="H58" s="43" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="I58" s="43" t="s">
         <v>93</v>
@@ -5057,50 +5220,50 @@
         <v>94</v>
       </c>
       <c r="D59" s="30" t="s">
-        <v>901</v>
-      </c>
-      <c r="E59" s="59" t="s">
-        <v>911</v>
+        <v>900</v>
+      </c>
+      <c r="E59" s="54" t="s">
+        <v>908</v>
       </c>
       <c r="F59" s="43" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="G59" s="43"/>
       <c r="H59" s="43" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="I59" s="43" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
       <c r="A60" s="33">
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D60" s="41" t="s">
-        <v>657</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+      <c r="D60" s="30" t="s">
+        <v>901</v>
+      </c>
+      <c r="E60" s="54" t="s">
+        <v>911</v>
+      </c>
+      <c r="F60" s="43" t="s">
+        <v>912</v>
+      </c>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43" t="s">
+        <v>913</v>
+      </c>
+      <c r="I60" s="43" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A61" s="33">
         <v>60</v>
       </c>
@@ -5108,16 +5271,24 @@
         <v>657</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="D61" s="42" t="s">
-        <v>633</v>
-      </c>
-      <c r="E61" s="1"/>
-      <c r="F61" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="D61" s="41" t="s">
+        <v>657</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="1"/>
+      <c r="H61" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="33">
@@ -5127,26 +5298,18 @@
         <v>657</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D62" s="31" t="s">
-        <v>837</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>98</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="D62" s="42" t="s">
+        <v>633</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="4"/>
       <c r="G62" s="4"/>
-      <c r="H62" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="H62" s="4"/>
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="33">
         <v>62</v>
       </c>
@@ -5157,50 +5320,50 @@
         <v>94</v>
       </c>
       <c r="D63" s="31" t="s">
-        <v>634</v>
+        <v>837</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>736</v>
+        <v>122</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="100" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A64" s="33">
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D64" s="41" t="s">
-        <v>658</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>24</v>
+        <v>94</v>
+      </c>
+      <c r="D64" s="31" t="s">
+        <v>634</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>736</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>23</v>
+        <v>153</v>
       </c>
       <c r="G64" s="4"/>
-      <c r="H64" s="43" t="s">
-        <v>917</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H64" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="87.5" x14ac:dyDescent="0.35">
       <c r="A65" s="33">
         <v>64</v>
       </c>
@@ -5208,26 +5371,26 @@
         <v>658</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D65" s="30" t="s">
-        <v>836</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>739</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G65" s="3"/>
-      <c r="H65" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="I65" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="41" t="s">
+        <v>658</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G65" s="4"/>
+      <c r="H65" s="43" t="s">
+        <v>917</v>
+      </c>
+      <c r="I65" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="33">
         <v>65</v>
       </c>
@@ -5237,24 +5400,24 @@
       <c r="C66" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D66" s="31" t="s">
-        <v>835</v>
+      <c r="D66" s="30" t="s">
+        <v>836</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>740</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G66" s="4"/>
+        <v>739</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G66" s="3"/>
       <c r="H66" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="I66" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I66" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A67" s="33">
         <v>66</v>
       </c>
@@ -5265,20 +5428,20 @@
         <v>94</v>
       </c>
       <c r="D67" s="31" t="s">
-        <v>635</v>
-      </c>
-      <c r="E67" s="43" t="s">
-        <v>741</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3" t="s">
-        <v>508</v>
+        <v>835</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>785</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
@@ -5286,29 +5449,29 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D68" s="41" t="s">
-        <v>659</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4" t="s">
-        <v>644</v>
+        <v>94</v>
+      </c>
+      <c r="D68" s="31" t="s">
+        <v>635</v>
+      </c>
+      <c r="E68" s="43" t="s">
+        <v>741</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3" t="s">
+        <v>508</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A69" s="33">
         <v>68</v>
       </c>
@@ -5316,16 +5479,24 @@
         <v>659</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="D69" s="42" t="s">
-        <v>636</v>
-      </c>
-      <c r="E69" s="1"/>
-      <c r="F69" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="D69" s="41" t="s">
+        <v>659</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="1"/>
+      <c r="H69" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="33">
@@ -5338,12 +5509,12 @@
         <v>648</v>
       </c>
       <c r="D70" s="42" t="s">
-        <v>568</v>
+        <v>636</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
-      <c r="H70" s="3"/>
+      <c r="H70" s="4"/>
       <c r="I70" s="1"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
@@ -5357,42 +5528,34 @@
         <v>648</v>
       </c>
       <c r="D71" s="42" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
+      <c r="H71" s="3"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="33">
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D72" s="41" t="s">
-        <v>660</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>51</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="D72" s="42" t="s">
+        <v>581</v>
+      </c>
+      <c r="E72" s="1"/>
+      <c r="F72" s="4"/>
       <c r="G72" s="4"/>
-      <c r="H72" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H72" s="4"/>
+      <c r="I72" s="1"/>
+    </row>
+    <row r="73" spans="1:9" ht="50" x14ac:dyDescent="0.35">
       <c r="A73" s="33">
         <v>72</v>
       </c>
@@ -5400,20 +5563,20 @@
         <v>660</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D73" s="31" t="s">
-        <v>637</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>138</v>
+        <v>4</v>
+      </c>
+      <c r="D73" s="41" t="s">
+        <v>660</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="4" t="s">
-        <v>509</v>
+        <v>52</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>93</v>
@@ -5430,23 +5593,23 @@
         <v>94</v>
       </c>
       <c r="D74" s="31" t="s">
-        <v>834</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>137</v>
+        <v>637</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="4" t="s">
-        <v>132</v>
+        <v>509</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="33">
         <v>74</v>
       </c>
@@ -5457,17 +5620,17 @@
         <v>94</v>
       </c>
       <c r="D75" s="31" t="s">
-        <v>638</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>743</v>
+        <v>834</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>522</v>
+        <v>104</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="4" t="s">
-        <v>523</v>
+        <v>132</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>93</v>
@@ -5484,19 +5647,19 @@
         <v>94</v>
       </c>
       <c r="D76" s="31" t="s">
-        <v>833</v>
+        <v>638</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>147</v>
+        <v>522</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="I76" s="43" t="s">
+        <v>523</v>
+      </c>
+      <c r="I76" s="1" t="s">
         <v>93</v>
       </c>
     </row>
@@ -5511,50 +5674,50 @@
         <v>94</v>
       </c>
       <c r="D77" s="31" t="s">
-        <v>639</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>745</v>
+        <v>833</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>744</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G77" s="4"/>
-      <c r="H77" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="H77" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="I77" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A78" s="33">
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D78" s="41" t="s">
-        <v>661</v>
+        <v>94</v>
+      </c>
+      <c r="D78" s="31" t="s">
+        <v>639</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>62</v>
+        <v>745</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A79" s="33">
         <v>78</v>
       </c>
@@ -5562,18 +5725,26 @@
         <v>661</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="D79" s="42" t="s">
-        <v>569</v>
-      </c>
-      <c r="E79" s="1"/>
-      <c r="F79" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="D79" s="41" t="s">
+        <v>661</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G79" s="4"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+      <c r="H79" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="33">
         <v>79</v>
       </c>
@@ -5581,26 +5752,18 @@
         <v>661</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D80" s="31" t="s">
-        <v>564</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>63</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="D80" s="42" t="s">
+        <v>569</v>
+      </c>
+      <c r="E80" s="1"/>
+      <c r="F80" s="4"/>
       <c r="G80" s="4"/>
-      <c r="H80" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H80" s="3"/>
+      <c r="I80" s="1"/>
+    </row>
+    <row r="81" spans="1:9" ht="50" x14ac:dyDescent="0.35">
       <c r="A81" s="33">
         <v>80</v>
       </c>
@@ -5611,23 +5774,23 @@
         <v>94</v>
       </c>
       <c r="D81" s="31" t="s">
-        <v>832</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>746</v>
+        <v>564</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="G81" s="4"/>
-      <c r="H81" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="I81" s="43" t="s">
+      <c r="H81" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="I81" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="33">
         <v>81</v>
       </c>
@@ -5638,23 +5801,23 @@
         <v>94</v>
       </c>
       <c r="D82" s="31" t="s">
-        <v>565</v>
+        <v>832</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I82" s="4" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+      <c r="I82" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="50" x14ac:dyDescent="0.35">
       <c r="A83" s="33">
         <v>82</v>
       </c>
@@ -5665,20 +5828,20 @@
         <v>94</v>
       </c>
       <c r="D83" s="31" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>579</v>
+        <v>65</v>
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="4" t="s">
-        <v>714</v>
-      </c>
-      <c r="I83" s="43" t="s">
-        <v>93</v>
+        <v>66</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -5692,50 +5855,50 @@
         <v>94</v>
       </c>
       <c r="D84" s="31" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="I84" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A85" s="33">
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D85" s="41" t="s">
-        <v>662</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>49</v>
+        <v>94</v>
+      </c>
+      <c r="D85" s="31" t="s">
+        <v>567</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>749</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>47</v>
+        <v>580</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I85" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="I85" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" ht="50" x14ac:dyDescent="0.35">
       <c r="A86" s="33">
         <v>85</v>
       </c>
@@ -5743,16 +5906,24 @@
         <v>662</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="D86" s="42" t="s">
-        <v>570</v>
-      </c>
-      <c r="E86" s="1"/>
-      <c r="F86" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="D86" s="41" t="s">
+        <v>662</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="1"/>
+      <c r="H86" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="33">
@@ -5765,7 +5936,7 @@
         <v>648</v>
       </c>
       <c r="D87" s="42" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="4"/>
@@ -5773,7 +5944,7 @@
       <c r="H87" s="4"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="33">
         <v>87</v>
       </c>
@@ -5781,24 +5952,16 @@
         <v>662</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D88" s="31" t="s">
-        <v>582</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>50</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="D88" s="42" t="s">
+        <v>571</v>
+      </c>
+      <c r="E88" s="1"/>
+      <c r="F88" s="4"/>
       <c r="G88" s="4"/>
-      <c r="H88" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="H88" s="4"/>
+      <c r="I88" s="1"/>
     </row>
     <row r="89" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A89" s="33">
@@ -5811,50 +5974,50 @@
         <v>94</v>
       </c>
       <c r="D89" s="31" t="s">
-        <v>831</v>
+        <v>582</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="4" t="s">
-        <v>134</v>
+        <v>511</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A90" s="33">
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D90" s="41" t="s">
-        <v>663</v>
+        <v>94</v>
+      </c>
+      <c r="D90" s="31" t="s">
+        <v>831</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>80</v>
+        <v>751</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="4" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="I90" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A91" s="33">
         <v>90</v>
       </c>
@@ -5862,53 +6025,53 @@
         <v>663</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D91" s="31" t="s">
-        <v>830</v>
+        <v>4</v>
+      </c>
+      <c r="D91" s="41" t="s">
+        <v>663</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>752</v>
+        <v>80</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="4" t="s">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="33">
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D92" s="41" t="s">
-        <v>664</v>
+        <v>94</v>
+      </c>
+      <c r="D92" s="31" t="s">
+        <v>830</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>57</v>
+        <v>752</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="G92" s="4"/>
-      <c r="H92" s="3" t="s">
-        <v>705</v>
+      <c r="H92" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A93" s="33">
         <v>92</v>
       </c>
@@ -5916,16 +6079,24 @@
         <v>664</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="D93" s="42" t="s">
-        <v>570</v>
-      </c>
-      <c r="E93" s="1"/>
-      <c r="F93" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="D93" s="41" t="s">
+        <v>664</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="G93" s="4"/>
-      <c r="H93" s="3"/>
-      <c r="I93" s="1"/>
+      <c r="H93" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="33">
@@ -5938,7 +6109,7 @@
         <v>648</v>
       </c>
       <c r="D94" s="42" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="4"/>
@@ -5946,7 +6117,7 @@
       <c r="H94" s="3"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="33">
         <v>94</v>
       </c>
@@ -5954,24 +6125,16 @@
         <v>664</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D95" s="31" t="s">
-        <v>572</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>119</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="D95" s="42" t="s">
+        <v>571</v>
+      </c>
+      <c r="E95" s="1"/>
+      <c r="F95" s="4"/>
       <c r="G95" s="4"/>
-      <c r="H95" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="H95" s="3"/>
+      <c r="I95" s="1"/>
     </row>
     <row r="96" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A96" s="33">
@@ -5984,19 +6147,19 @@
         <v>94</v>
       </c>
       <c r="D96" s="31" t="s">
-        <v>829</v>
+        <v>572</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>753</v>
+        <v>118</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="I96" s="43" t="s">
+        <v>512</v>
+      </c>
+      <c r="I96" s="1" t="s">
         <v>93</v>
       </c>
     </row>
@@ -6011,17 +6174,17 @@
         <v>94</v>
       </c>
       <c r="D97" s="31" t="s">
-        <v>576</v>
+        <v>829</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>584</v>
+        <v>120</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="4" t="s">
-        <v>716</v>
+        <v>121</v>
       </c>
       <c r="I97" s="43" t="s">
         <v>93</v>
@@ -6038,23 +6201,23 @@
         <v>94</v>
       </c>
       <c r="D98" s="31" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="I98" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A99" s="33">
         <v>98</v>
       </c>
@@ -6065,23 +6228,23 @@
         <v>94</v>
       </c>
       <c r="D99" s="31" t="s">
-        <v>573</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>756</v>
+        <v>577</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>755</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>67</v>
+        <v>585</v>
       </c>
       <c r="G99" s="4"/>
-      <c r="H99" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="H99" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="I99" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A100" s="33">
         <v>99</v>
       </c>
@@ -6092,20 +6255,20 @@
         <v>94</v>
       </c>
       <c r="D100" s="31" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G100" s="4"/>
-      <c r="H100" s="4" t="s">
-        <v>71</v>
+      <c r="H100" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>703</v>
+        <v>786</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -6119,50 +6282,50 @@
         <v>94</v>
       </c>
       <c r="D101" s="31" t="s">
-        <v>849</v>
+        <v>574</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A102" s="33">
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D102" s="41" t="s">
-        <v>665</v>
+        <v>94</v>
+      </c>
+      <c r="D102" s="31" t="s">
+        <v>849</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>87</v>
+        <v>758</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="G102" s="4"/>
-      <c r="H102" s="3" t="s">
-        <v>59</v>
+      <c r="H102" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A103" s="33">
         <v>102</v>
       </c>
@@ -6170,16 +6333,24 @@
         <v>665</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="D103" s="42" t="s">
-        <v>587</v>
-      </c>
-      <c r="E103" s="1"/>
-      <c r="F103" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="D103" s="41" t="s">
+        <v>665</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="G103" s="4"/>
-      <c r="H103" s="3"/>
-      <c r="I103" s="1"/>
+      <c r="H103" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="33">
@@ -6192,7 +6363,7 @@
         <v>648</v>
       </c>
       <c r="D104" s="42" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="4"/>
@@ -6200,7 +6371,7 @@
       <c r="H104" s="3"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="33">
         <v>104</v>
       </c>
@@ -6208,24 +6379,16 @@
         <v>665</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D105" s="31" t="s">
-        <v>589</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>759</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>595</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="D105" s="42" t="s">
+        <v>588</v>
+      </c>
+      <c r="E105" s="1"/>
+      <c r="F105" s="4"/>
       <c r="G105" s="4"/>
-      <c r="H105" s="4" t="s">
-        <v>696</v>
-      </c>
-      <c r="I105" s="4" t="s">
-        <v>93</v>
-      </c>
+      <c r="H105" s="3"/>
+      <c r="I105" s="1"/>
     </row>
     <row r="106" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A106" s="33">
@@ -6238,17 +6401,17 @@
         <v>94</v>
       </c>
       <c r="D106" s="31" t="s">
-        <v>828</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>551</v>
+        <v>589</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>759</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>552</v>
+        <v>595</v>
       </c>
       <c r="G106" s="4"/>
-      <c r="H106" s="3" t="s">
-        <v>553</v>
+      <c r="H106" s="4" t="s">
+        <v>696</v>
       </c>
       <c r="I106" s="4" t="s">
         <v>93</v>
@@ -6265,19 +6428,19 @@
         <v>94</v>
       </c>
       <c r="D107" s="31" t="s">
-        <v>590</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>760</v>
+        <v>828</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>551</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>592</v>
+        <v>552</v>
       </c>
       <c r="G107" s="4"/>
-      <c r="H107" s="4" t="s">
-        <v>718</v>
-      </c>
-      <c r="I107" s="43" t="s">
+      <c r="H107" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="I107" s="4" t="s">
         <v>93</v>
       </c>
     </row>
@@ -6292,17 +6455,17 @@
         <v>94</v>
       </c>
       <c r="D108" s="31" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I108" s="43" t="s">
         <v>93</v>
@@ -6319,19 +6482,19 @@
         <v>94</v>
       </c>
       <c r="D109" s="31" t="s">
-        <v>840</v>
-      </c>
-      <c r="E109" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F109" s="43" t="s">
-        <v>841</v>
-      </c>
-      <c r="G109" s="47"/>
-      <c r="H109" s="43" t="s">
-        <v>842</v>
-      </c>
-      <c r="I109" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="I109" s="43" t="s">
         <v>93</v>
       </c>
     </row>
@@ -6339,53 +6502,53 @@
       <c r="A110" s="33">
         <v>109</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="61" t="s">
         <v>665</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="D110" s="31" t="s">
-        <v>850</v>
-      </c>
-      <c r="E110" s="43" t="s">
+      <c r="D110" s="63" t="s">
+        <v>840</v>
+      </c>
+      <c r="E110" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="F110" s="43" t="s">
-        <v>851</v>
-      </c>
-      <c r="G110" s="47"/>
-      <c r="H110" s="43" t="s">
-        <v>852</v>
-      </c>
-      <c r="I110" s="3" t="s">
+      <c r="F110" s="64" t="s">
+        <v>841</v>
+      </c>
+      <c r="G110" s="65"/>
+      <c r="H110" s="64" t="s">
+        <v>842</v>
+      </c>
+      <c r="I110" s="66" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A111" s="33">
         <v>110</v>
       </c>
-      <c r="B111" s="4" t="s">
-        <v>666</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D111" s="41" t="s">
-        <v>666</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G111" s="4"/>
-      <c r="H111" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I111" s="1" t="s">
+      <c r="B111" s="61" t="s">
+        <v>665</v>
+      </c>
+      <c r="C111" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="D111" s="63" t="s">
+        <v>850</v>
+      </c>
+      <c r="E111" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="F111" s="64" t="s">
+        <v>851</v>
+      </c>
+      <c r="G111" s="65"/>
+      <c r="H111" s="64" t="s">
+        <v>852</v>
+      </c>
+      <c r="I111" s="66" t="s">
         <v>93</v>
       </c>
     </row>
@@ -6393,26 +6556,26 @@
       <c r="A112" s="33">
         <v>111</v>
       </c>
-      <c r="B112" s="4" t="s">
-        <v>666</v>
-      </c>
-      <c r="C112" s="1" t="s">
+      <c r="B112" s="49" t="s">
+        <v>665</v>
+      </c>
+      <c r="C112" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="D112" s="31" t="s">
-        <v>594</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>763</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="G112" s="4"/>
-      <c r="H112" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="I112" s="43" t="s">
+      <c r="D112" s="67" t="s">
+        <v>947</v>
+      </c>
+      <c r="E112" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="F112" s="68" t="s">
+        <v>944</v>
+      </c>
+      <c r="G112" s="72"/>
+      <c r="H112" s="68" t="s">
+        <v>945</v>
+      </c>
+      <c r="I112" s="68" t="s">
         <v>93</v>
       </c>
     </row>
@@ -6420,30 +6583,30 @@
       <c r="A113" s="33">
         <v>112</v>
       </c>
-      <c r="B113" s="4" t="s">
-        <v>666</v>
-      </c>
-      <c r="C113" s="1" t="s">
+      <c r="B113" s="49" t="s">
+        <v>665</v>
+      </c>
+      <c r="C113" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="D113" s="31" t="s">
-        <v>827</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>764</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="G113" s="4"/>
-      <c r="H113" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="I113" s="43" t="s">
+      <c r="D113" s="67" t="s">
+        <v>948</v>
+      </c>
+      <c r="E113" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="F113" s="68" t="s">
+        <v>946</v>
+      </c>
+      <c r="G113" s="72"/>
+      <c r="H113" s="68" t="s">
+        <v>949</v>
+      </c>
+      <c r="I113" s="68" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="33">
         <v>113</v>
       </c>
@@ -6451,107 +6614,107 @@
         <v>666</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D114" s="31" t="s">
-        <v>596</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>765</v>
+        <v>4</v>
+      </c>
+      <c r="D114" s="41" t="s">
+        <v>666</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>762</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>645</v>
+        <v>74</v>
       </c>
       <c r="G114" s="4"/>
-      <c r="H114" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="I114" s="43" t="s">
+      <c r="H114" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I114" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A115" s="33">
         <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>88</v>
+        <v>666</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D115" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>77</v>
+        <v>94</v>
+      </c>
+      <c r="D115" s="31" t="s">
+        <v>594</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>763</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="G115" s="4"/>
       <c r="H115" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I115" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="I115" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A116" s="33">
         <v>115</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>88</v>
+        <v>666</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D116" s="31" t="s">
-        <v>597</v>
+        <v>827</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="4" t="s">
-        <v>694</v>
-      </c>
-      <c r="I116" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I116" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A117" s="33">
         <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>88</v>
+        <v>666</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D117" s="31" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>139</v>
+        <v>765</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>110</v>
+        <v>645</v>
       </c>
       <c r="G117" s="4"/>
       <c r="H117" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I117" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+        <v>713</v>
+      </c>
+      <c r="I117" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A118" s="33">
         <v>117</v>
       </c>
@@ -6559,26 +6722,26 @@
         <v>88</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D118" s="31" t="s">
-        <v>845</v>
-      </c>
-      <c r="E118" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F118" s="43" t="s">
-        <v>843</v>
-      </c>
-      <c r="G118" s="47"/>
-      <c r="H118" s="43" t="s">
-        <v>844</v>
-      </c>
-      <c r="I118" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D118" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I118" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="33">
         <v>118</v>
       </c>
@@ -6589,17 +6752,17 @@
         <v>94</v>
       </c>
       <c r="D119" s="31" t="s">
-        <v>853</v>
-      </c>
-      <c r="E119" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F119" s="43" t="s">
-        <v>854</v>
-      </c>
-      <c r="G119" s="47"/>
-      <c r="H119" s="43" t="s">
-        <v>855</v>
+        <v>597</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4" t="s">
+        <v>694</v>
       </c>
       <c r="I119" s="4" t="s">
         <v>93</v>
@@ -6610,324 +6773,356 @@
         <v>119</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>601</v>
+        <v>88</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D120" s="41" t="s">
-        <v>601</v>
+        <v>94</v>
+      </c>
+      <c r="D120" s="31" t="s">
+        <v>598</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>600</v>
+        <v>139</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>601</v>
+        <v>110</v>
       </c>
       <c r="G120" s="4"/>
       <c r="H120" s="4" t="s">
-        <v>599</v>
+        <v>140</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A121" s="33">
         <v>120</v>
       </c>
-      <c r="B121" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="D121" s="42" t="s">
-        <v>602</v>
-      </c>
-      <c r="E121" s="4"/>
-      <c r="F121" s="4"/>
-      <c r="G121" s="4"/>
-      <c r="H121" s="4"/>
-      <c r="I121" s="4"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B121" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="C121" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="D121" s="63" t="s">
+        <v>845</v>
+      </c>
+      <c r="E121" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="F121" s="64" t="s">
+        <v>843</v>
+      </c>
+      <c r="G121" s="65"/>
+      <c r="H121" s="64" t="s">
+        <v>844</v>
+      </c>
+      <c r="I121" s="61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A122" s="33">
         <v>121</v>
       </c>
-      <c r="B122" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="C122" s="1" t="s">
+      <c r="B122" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="C122" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="D122" s="31" t="s">
-        <v>826</v>
-      </c>
-      <c r="E122" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="F122" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G122" s="4"/>
-      <c r="H122" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="I122" s="43" t="s">
+      <c r="D122" s="63" t="s">
+        <v>853</v>
+      </c>
+      <c r="E122" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="F122" s="64" t="s">
+        <v>854</v>
+      </c>
+      <c r="G122" s="65"/>
+      <c r="H122" s="64" t="s">
+        <v>855</v>
+      </c>
+      <c r="I122" s="61" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A123" s="33">
         <v>122</v>
       </c>
-      <c r="B123" s="4" t="s">
-        <v>667</v>
-      </c>
-      <c r="C123" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D123" s="41" t="s">
-        <v>667</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="F123" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G123" s="4"/>
-      <c r="H123" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="I123" s="1" t="s">
+      <c r="B123" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C123" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="D123" s="67" t="s">
+        <v>954</v>
+      </c>
+      <c r="E123" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="F123" s="68" t="s">
+        <v>950</v>
+      </c>
+      <c r="G123" s="72"/>
+      <c r="H123" s="68" t="s">
+        <v>952</v>
+      </c>
+      <c r="I123" s="68" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A124" s="33">
         <v>123</v>
       </c>
-      <c r="B124" s="4" t="s">
-        <v>667</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="D124" s="42" t="s">
-        <v>583</v>
-      </c>
-      <c r="E124" s="4"/>
-      <c r="F124" s="4"/>
-      <c r="G124" s="4"/>
-      <c r="H124" s="4"/>
-      <c r="I124" s="43"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B124" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C124" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="D124" s="67" t="s">
+        <v>955</v>
+      </c>
+      <c r="E124" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="F124" s="68" t="s">
+        <v>951</v>
+      </c>
+      <c r="G124" s="72"/>
+      <c r="H124" s="68" t="s">
+        <v>953</v>
+      </c>
+      <c r="I124" s="68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="50" x14ac:dyDescent="0.35">
       <c r="A125" s="33">
         <v>124</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>667</v>
+        <v>601</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="D125" s="42" t="s">
-        <v>586</v>
-      </c>
-      <c r="E125" s="4"/>
-      <c r="F125" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="D125" s="41" t="s">
+        <v>601</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>601</v>
+      </c>
       <c r="G125" s="4"/>
-      <c r="H125" s="4"/>
-      <c r="I125" s="43"/>
+      <c r="H125" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="33">
         <v>125</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>667</v>
+        <v>601</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D126" s="30" t="s">
-        <v>825</v>
-      </c>
-      <c r="E126" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>109</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="D126" s="42" t="s">
+        <v>602</v>
+      </c>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
       <c r="G126" s="4"/>
-      <c r="H126" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="I126" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="H126" s="4"/>
+      <c r="I126" s="4"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="33">
         <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>667</v>
+        <v>601</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D127" s="30" t="s">
-        <v>603</v>
+      <c r="D127" s="31" t="s">
+        <v>826</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>605</v>
+        <v>116</v>
       </c>
       <c r="G127" s="4"/>
       <c r="H127" s="4" t="s">
-        <v>720</v>
+        <v>130</v>
       </c>
       <c r="I127" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="33">
         <v>127</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="C128" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D128" s="30" t="s">
-        <v>604</v>
+      <c r="C128" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D128" s="41" t="s">
+        <v>667</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>606</v>
+        <v>109</v>
       </c>
       <c r="G128" s="4"/>
       <c r="H128" s="4" t="s">
-        <v>721</v>
-      </c>
-      <c r="I128" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="I128" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="33">
         <v>128</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>81</v>
+        <v>667</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D129" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="F129" s="4" t="s">
-        <v>81</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="D129" s="42" t="s">
+        <v>583</v>
+      </c>
+      <c r="E129" s="4"/>
+      <c r="F129" s="4"/>
       <c r="G129" s="4"/>
-      <c r="H129" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="I129" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="H129" s="4"/>
+      <c r="I129" s="43"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="33">
         <v>129</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>81</v>
+        <v>667</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>648</v>
       </c>
       <c r="D130" s="42" t="s">
-        <v>556</v>
-      </c>
-      <c r="E130" s="1"/>
+        <v>586</v>
+      </c>
+      <c r="E130" s="4"/>
       <c r="F130" s="4"/>
       <c r="G130" s="4"/>
       <c r="H130" s="4"/>
-      <c r="I130" s="1"/>
+      <c r="I130" s="43"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="33">
         <v>130</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>81</v>
+        <v>667</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="D131" s="42" t="s">
-        <v>557</v>
-      </c>
-      <c r="E131" s="1"/>
-      <c r="F131" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="D131" s="30" t="s">
+        <v>825</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="G131" s="4"/>
-      <c r="H131" s="4"/>
-      <c r="I131" s="1"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H131" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="I131" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A132" s="33">
         <v>131</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>81</v>
+        <v>667</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="D132" s="42" t="s">
-        <v>563</v>
-      </c>
-      <c r="E132" s="1"/>
-      <c r="F132" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="D132" s="30" t="s">
+        <v>603</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>605</v>
+      </c>
       <c r="G132" s="4"/>
-      <c r="H132" s="4"/>
-      <c r="I132" s="1"/>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H132" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="I132" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A133" s="33">
         <v>132</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>81</v>
+        <v>667</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="D133" s="42" t="s">
-        <v>562</v>
-      </c>
-      <c r="E133" s="1"/>
-      <c r="F133" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="D133" s="30" t="s">
+        <v>604</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>606</v>
+      </c>
       <c r="G133" s="4"/>
-      <c r="H133" s="4"/>
-      <c r="I133" s="1"/>
-    </row>
-    <row r="134" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="H133" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="I133" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A134" s="33">
         <v>133</v>
       </c>
@@ -6935,184 +7130,152 @@
         <v>81</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D134" s="31" t="s">
-        <v>560</v>
+        <v>4</v>
+      </c>
+      <c r="D134" s="41" t="s">
+        <v>81</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G134" s="4"/>
       <c r="H134" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I134" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="75" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="33">
         <v>134</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>668</v>
+        <v>81</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D135" s="41" t="s">
-        <v>668</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="F135" s="4" t="s">
-        <v>85</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="D135" s="42" t="s">
+        <v>556</v>
+      </c>
+      <c r="E135" s="1"/>
+      <c r="F135" s="4"/>
       <c r="G135" s="4"/>
-      <c r="H135" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="I135" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="H135" s="4"/>
+      <c r="I135" s="1"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="33">
         <v>135</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>668</v>
+        <v>81</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D136" s="31" t="s">
-        <v>824</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="F136" s="4" t="s">
-        <v>146</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="D136" s="42" t="s">
+        <v>557</v>
+      </c>
+      <c r="E136" s="1"/>
+      <c r="F136" s="4"/>
       <c r="G136" s="4"/>
-      <c r="H136" s="4" t="s">
-        <v>643</v>
-      </c>
-      <c r="I136" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+      <c r="H136" s="4"/>
+      <c r="I136" s="1"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="33">
         <v>136</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>669</v>
+        <v>81</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D137" s="41" t="s">
-        <v>669</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="F137" s="4" t="s">
-        <v>30</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="D137" s="42" t="s">
+        <v>563</v>
+      </c>
+      <c r="E137" s="1"/>
+      <c r="F137" s="4"/>
       <c r="G137" s="4"/>
-      <c r="H137" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="I137" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="H137" s="4"/>
+      <c r="I137" s="1"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" s="33">
         <v>137</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>669</v>
+        <v>81</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D138" s="31" t="s">
-        <v>558</v>
-      </c>
-      <c r="E138" s="4" t="s">
-        <v>775</v>
-      </c>
-      <c r="F138" s="4" t="s">
-        <v>112</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="D138" s="42" t="s">
+        <v>562</v>
+      </c>
+      <c r="E138" s="1"/>
+      <c r="F138" s="4"/>
       <c r="G138" s="4"/>
-      <c r="H138" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="I138" s="43" t="s">
-        <v>93</v>
-      </c>
+      <c r="H138" s="4"/>
+      <c r="I138" s="1"/>
     </row>
     <row r="139" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A139" s="33">
         <v>138</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>669</v>
+        <v>81</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D139" s="31" t="s">
-        <v>823</v>
-      </c>
-      <c r="E139" s="4" t="s">
-        <v>776</v>
+        <v>560</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>772</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="G139" s="4"/>
       <c r="H139" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="I139" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="I139" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" ht="75" x14ac:dyDescent="0.35">
       <c r="A140" s="33">
         <v>139</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D140" s="46" t="s">
-        <v>559</v>
-      </c>
-      <c r="E140" s="33" t="s">
-        <v>777</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G140" s="33"/>
+        <v>4</v>
+      </c>
+      <c r="D140" s="41" t="s">
+        <v>668</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G140" s="4"/>
       <c r="H140" s="4" t="s">
-        <v>712</v>
-      </c>
-      <c r="I140" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="I140" s="1" t="s">
         <v>93</v>
       </c>
     </row>
@@ -7121,52 +7284,52 @@
         <v>140</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D141" s="41" t="s">
-        <v>672</v>
-      </c>
-      <c r="E141" s="4" t="s">
-        <v>678</v>
+        <v>94</v>
+      </c>
+      <c r="D141" s="31" t="s">
+        <v>824</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>773</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>672</v>
-      </c>
-      <c r="G141" s="35"/>
+        <v>146</v>
+      </c>
+      <c r="G141" s="4"/>
       <c r="H141" s="4" t="s">
-        <v>677</v>
+        <v>643</v>
       </c>
       <c r="I141" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" ht="50" x14ac:dyDescent="0.35">
       <c r="A142" s="33">
         <v>141</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D142" s="31" t="s">
-        <v>673</v>
-      </c>
-      <c r="E142" s="4" t="s">
-        <v>778</v>
+        <v>4</v>
+      </c>
+      <c r="D142" s="41" t="s">
+        <v>669</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>774</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>707</v>
-      </c>
-      <c r="G142" s="35"/>
+        <v>30</v>
+      </c>
+      <c r="G142" s="4"/>
       <c r="H142" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="I142" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="I142" s="1" t="s">
         <v>93</v>
       </c>
     </row>
@@ -7175,50 +7338,50 @@
         <v>142</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D143" s="31" t="s">
-        <v>674</v>
+        <v>558</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>706</v>
+        <v>112</v>
       </c>
       <c r="G143" s="4"/>
       <c r="H143" s="4" t="s">
-        <v>709</v>
+        <v>513</v>
       </c>
       <c r="I143" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A144" s="33">
         <v>143</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D144" s="31" t="s">
-        <v>675</v>
+        <v>823</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>679</v>
+        <v>113</v>
       </c>
       <c r="G144" s="4"/>
       <c r="H144" s="4" t="s">
-        <v>710</v>
+        <v>127</v>
       </c>
       <c r="I144" s="43" t="s">
         <v>93</v>
@@ -7229,23 +7392,23 @@
         <v>144</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D145" s="31" t="s">
-        <v>676</v>
-      </c>
-      <c r="E145" s="4" t="s">
-        <v>781</v>
-      </c>
-      <c r="F145" s="4" t="s">
-        <v>695</v>
-      </c>
-      <c r="G145" s="35"/>
+      <c r="D145" s="46" t="s">
+        <v>559</v>
+      </c>
+      <c r="E145" s="33" t="s">
+        <v>777</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="G145" s="33"/>
       <c r="H145" s="4" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="I145" s="43" t="s">
         <v>93</v>
@@ -7255,26 +7418,26 @@
       <c r="A146" s="33">
         <v>145</v>
       </c>
-      <c r="B146" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="C146" s="33" t="s">
-        <v>816</v>
+      <c r="B146" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D146" s="41" t="s">
-        <v>817</v>
-      </c>
-      <c r="E146" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="F146" s="33" t="s">
-        <v>818</v>
-      </c>
-      <c r="G146" s="33"/>
-      <c r="H146" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="I146" s="33" t="s">
+        <v>672</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="G146" s="35"/>
+      <c r="H146" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="I146" s="43" t="s">
         <v>93</v>
       </c>
     </row>
@@ -7282,20 +7445,26 @@
       <c r="A147" s="33">
         <v>146</v>
       </c>
-      <c r="B147" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="C147" s="33" t="s">
-        <v>648</v>
-      </c>
-      <c r="D147" s="48" t="s">
-        <v>820</v>
-      </c>
-      <c r="E147" s="33"/>
-      <c r="F147" s="33"/>
-      <c r="G147" s="33"/>
-      <c r="H147" s="33"/>
-      <c r="I147" s="33" t="s">
+      <c r="B147" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D147" s="31" t="s">
+        <v>673</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="G147" s="35"/>
+      <c r="H147" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="I147" s="43" t="s">
         <v>93</v>
       </c>
     </row>
@@ -7303,241 +7472,370 @@
       <c r="A148" s="33">
         <v>147</v>
       </c>
-      <c r="B148" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="C148" s="33" t="s">
-        <v>648</v>
-      </c>
-      <c r="D148" s="48" t="s">
-        <v>821</v>
-      </c>
-      <c r="E148" s="33"/>
-      <c r="F148" s="33"/>
-      <c r="G148" s="33"/>
-      <c r="H148" s="33"/>
-      <c r="I148" s="33" t="s">
+      <c r="B148" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D148" s="31" t="s">
+        <v>674</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="G148" s="4"/>
+      <c r="H148" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="I148" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="149" spans="1:9" s="51" customFormat="1" ht="25" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="33">
         <v>148</v>
       </c>
-      <c r="B149" s="33" t="s">
-        <v>865</v>
-      </c>
-      <c r="C149" s="60" t="s">
-        <v>816</v>
-      </c>
-      <c r="D149" s="41" t="s">
-        <v>817</v>
-      </c>
-      <c r="E149" s="59" t="s">
-        <v>892</v>
-      </c>
-      <c r="F149" s="43" t="s">
-        <v>865</v>
-      </c>
-      <c r="G149" s="47"/>
-      <c r="H149" s="43" t="s">
-        <v>893</v>
-      </c>
-      <c r="I149" s="33" t="s">
+      <c r="B149" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D149" s="31" t="s">
+        <v>675</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="G149" s="4"/>
+      <c r="H149" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="I149" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="150" spans="1:9" s="51" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A150" s="33">
         <v>149</v>
       </c>
-      <c r="B150" s="33" t="s">
-        <v>865</v>
-      </c>
-      <c r="C150" s="60" t="s">
+      <c r="B150" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D150" s="30" t="s">
-        <v>866</v>
-      </c>
-      <c r="E150" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="F150" s="43" t="s">
-        <v>873</v>
-      </c>
-      <c r="G150" s="47"/>
-      <c r="H150" s="43" t="s">
-        <v>874</v>
-      </c>
-      <c r="I150" s="33" t="s">
+      <c r="D150" s="31" t="s">
+        <v>676</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="G150" s="35"/>
+      <c r="H150" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="I150" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="151" spans="1:9" s="51" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A151" s="33">
         <v>150</v>
       </c>
-      <c r="B151" s="33" t="s">
-        <v>865</v>
-      </c>
-      <c r="C151" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D151" s="30" t="s">
-        <v>867</v>
-      </c>
-      <c r="E151" s="43" t="s">
+      <c r="B151" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C151" s="33" t="s">
+        <v>816</v>
+      </c>
+      <c r="D151" s="41" t="s">
+        <v>817</v>
+      </c>
+      <c r="E151" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="F151" s="43" t="s">
-        <v>875</v>
-      </c>
-      <c r="G151" s="47"/>
-      <c r="H151" s="43" t="s">
-        <v>876</v>
+      <c r="F151" s="33" t="s">
+        <v>818</v>
+      </c>
+      <c r="G151" s="33"/>
+      <c r="H151" s="1" t="s">
+        <v>819</v>
       </c>
       <c r="I151" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="152" spans="1:9" s="51" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" s="33">
         <v>151</v>
       </c>
-      <c r="B152" s="33" t="s">
-        <v>865</v>
-      </c>
-      <c r="C152" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D152" s="30" t="s">
-        <v>868</v>
-      </c>
-      <c r="E152" s="59" t="s">
-        <v>877</v>
-      </c>
-      <c r="F152" s="43" t="s">
-        <v>878</v>
-      </c>
-      <c r="G152" s="47"/>
-      <c r="H152" s="43" t="s">
-        <v>879</v>
-      </c>
+      <c r="B152" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C152" s="33" t="s">
+        <v>648</v>
+      </c>
+      <c r="D152" s="48" t="s">
+        <v>820</v>
+      </c>
+      <c r="E152" s="33"/>
+      <c r="F152" s="33"/>
+      <c r="G152" s="33"/>
+      <c r="H152" s="33"/>
       <c r="I152" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="153" spans="1:9" s="51" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A153" s="33">
         <v>152</v>
       </c>
-      <c r="B153" s="33" t="s">
-        <v>865</v>
-      </c>
-      <c r="C153" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D153" s="30" t="s">
-        <v>869</v>
-      </c>
-      <c r="E153" s="59" t="s">
-        <v>880</v>
-      </c>
-      <c r="F153" s="43" t="s">
-        <v>881</v>
-      </c>
-      <c r="G153" s="47"/>
-      <c r="H153" s="43" t="s">
-        <v>882</v>
-      </c>
+      <c r="B153" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C153" s="33" t="s">
+        <v>648</v>
+      </c>
+      <c r="D153" s="48" t="s">
+        <v>821</v>
+      </c>
+      <c r="E153" s="33"/>
+      <c r="F153" s="33"/>
+      <c r="G153" s="33"/>
+      <c r="H153" s="33"/>
       <c r="I153" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="154" spans="1:9" s="51" customFormat="1" ht="50" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" s="51" customFormat="1" ht="25" x14ac:dyDescent="0.35">
       <c r="A154" s="33">
         <v>153</v>
       </c>
       <c r="B154" s="33" t="s">
         <v>865</v>
       </c>
-      <c r="C154" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D154" s="30" t="s">
-        <v>870</v>
-      </c>
-      <c r="E154" s="59" t="s">
-        <v>883</v>
+      <c r="C154" s="55" t="s">
+        <v>816</v>
+      </c>
+      <c r="D154" s="41" t="s">
+        <v>817</v>
+      </c>
+      <c r="E154" s="54" t="s">
+        <v>892</v>
       </c>
       <c r="F154" s="43" t="s">
-        <v>884</v>
+        <v>865</v>
       </c>
       <c r="G154" s="47"/>
       <c r="H154" s="43" t="s">
-        <v>885</v>
+        <v>893</v>
       </c>
       <c r="I154" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="155" spans="1:9" s="51" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" s="51" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A155" s="33">
         <v>154</v>
       </c>
       <c r="B155" s="33" t="s">
         <v>865</v>
       </c>
-      <c r="C155" s="60" t="s">
+      <c r="C155" s="55" t="s">
         <v>94</v>
       </c>
       <c r="D155" s="30" t="s">
-        <v>871</v>
-      </c>
-      <c r="E155" s="59" t="s">
-        <v>886</v>
+        <v>866</v>
+      </c>
+      <c r="E155" s="54" t="s">
+        <v>16</v>
       </c>
       <c r="F155" s="43" t="s">
-        <v>887</v>
+        <v>873</v>
       </c>
       <c r="G155" s="47"/>
       <c r="H155" s="43" t="s">
-        <v>888</v>
+        <v>874</v>
       </c>
       <c r="I155" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="156" spans="1:9" s="51" customFormat="1" ht="25" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" s="51" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A156" s="33">
         <v>155</v>
       </c>
       <c r="B156" s="33" t="s">
         <v>865</v>
       </c>
-      <c r="C156" s="60" t="s">
+      <c r="C156" s="55" t="s">
         <v>94</v>
       </c>
       <c r="D156" s="30" t="s">
-        <v>872</v>
-      </c>
-      <c r="E156" s="59" t="s">
-        <v>889</v>
+        <v>867</v>
+      </c>
+      <c r="E156" s="43" t="s">
+        <v>16</v>
       </c>
       <c r="F156" s="43" t="s">
-        <v>890</v>
+        <v>875</v>
       </c>
       <c r="G156" s="47"/>
       <c r="H156" s="43" t="s">
-        <v>891</v>
+        <v>876</v>
       </c>
       <c r="I156" s="33" t="s">
         <v>93</v>
       </c>
     </row>
+    <row r="157" spans="1:9" s="51" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A157" s="33">
+        <v>156</v>
+      </c>
+      <c r="B157" s="33" t="s">
+        <v>865</v>
+      </c>
+      <c r="C157" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="D157" s="30" t="s">
+        <v>868</v>
+      </c>
+      <c r="E157" s="54" t="s">
+        <v>877</v>
+      </c>
+      <c r="F157" s="43" t="s">
+        <v>878</v>
+      </c>
+      <c r="G157" s="47"/>
+      <c r="H157" s="43" t="s">
+        <v>879</v>
+      </c>
+      <c r="I157" s="33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" s="51" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A158" s="33">
+        <v>157</v>
+      </c>
+      <c r="B158" s="33" t="s">
+        <v>865</v>
+      </c>
+      <c r="C158" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="D158" s="30" t="s">
+        <v>869</v>
+      </c>
+      <c r="E158" s="54" t="s">
+        <v>880</v>
+      </c>
+      <c r="F158" s="43" t="s">
+        <v>881</v>
+      </c>
+      <c r="G158" s="47"/>
+      <c r="H158" s="43" t="s">
+        <v>882</v>
+      </c>
+      <c r="I158" s="33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" s="51" customFormat="1" ht="50" x14ac:dyDescent="0.35">
+      <c r="A159" s="33">
+        <v>158</v>
+      </c>
+      <c r="B159" s="33" t="s">
+        <v>865</v>
+      </c>
+      <c r="C159" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="D159" s="30" t="s">
+        <v>870</v>
+      </c>
+      <c r="E159" s="54" t="s">
+        <v>883</v>
+      </c>
+      <c r="F159" s="43" t="s">
+        <v>884</v>
+      </c>
+      <c r="G159" s="47"/>
+      <c r="H159" s="43" t="s">
+        <v>885</v>
+      </c>
+      <c r="I159" s="33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" s="51" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A160" s="33">
+        <v>159</v>
+      </c>
+      <c r="B160" s="33" t="s">
+        <v>865</v>
+      </c>
+      <c r="C160" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="D160" s="30" t="s">
+        <v>871</v>
+      </c>
+      <c r="E160" s="54" t="s">
+        <v>886</v>
+      </c>
+      <c r="F160" s="43" t="s">
+        <v>887</v>
+      </c>
+      <c r="G160" s="47"/>
+      <c r="H160" s="43" t="s">
+        <v>888</v>
+      </c>
+      <c r="I160" s="33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" s="51" customFormat="1" ht="25" x14ac:dyDescent="0.35">
+      <c r="A161" s="33">
+        <v>160</v>
+      </c>
+      <c r="B161" s="33" t="s">
+        <v>865</v>
+      </c>
+      <c r="C161" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="D161" s="30" t="s">
+        <v>872</v>
+      </c>
+      <c r="E161" s="54" t="s">
+        <v>889</v>
+      </c>
+      <c r="F161" s="43" t="s">
+        <v>890</v>
+      </c>
+      <c r="G161" s="47"/>
+      <c r="H161" s="43" t="s">
+        <v>891</v>
+      </c>
+      <c r="I161" s="50" t="s">
+        <v>919</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I148" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I161" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7545,10 +7843,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N124"/>
+  <dimension ref="A1:N129"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
@@ -7565,14 +7863,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>506</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
       <c r="I1" s="6"/>
@@ -7583,16 +7881,16 @@
       <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:14" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="58" t="s">
         <v>505</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -7601,11 +7899,11 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:14" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="56" t="s">
         <v>507</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
       <c r="D3" s="32"/>
       <c r="E3" s="24"/>
       <c r="F3" s="20"/>
@@ -7629,10 +7927,10 @@
       <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:14" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="59" t="s">
         <v>156</v>
       </c>
-      <c r="B5" s="58"/>
+      <c r="B5" s="60"/>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
       <c r="E5" s="25"/>
@@ -10560,6 +10858,130 @@
       <c r="G124" s="19"/>
       <c r="H124" s="19" t="s">
         <v>323</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="25" x14ac:dyDescent="0.35">
+      <c r="A125" s="69" t="s">
+        <v>158</v>
+      </c>
+      <c r="B125" s="70" t="s">
+        <v>653</v>
+      </c>
+      <c r="C125" s="71" t="s">
+        <v>920</v>
+      </c>
+      <c r="D125" s="71" t="s">
+        <v>943</v>
+      </c>
+      <c r="E125" s="68" t="s">
+        <v>926</v>
+      </c>
+      <c r="F125" s="68" t="s">
+        <v>927</v>
+      </c>
+      <c r="G125" s="68" t="s">
+        <v>928</v>
+      </c>
+      <c r="H125" s="68" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="50" x14ac:dyDescent="0.35">
+      <c r="A126" s="69" t="s">
+        <v>158</v>
+      </c>
+      <c r="B126" s="70" t="s">
+        <v>653</v>
+      </c>
+      <c r="C126" s="71" t="s">
+        <v>920</v>
+      </c>
+      <c r="D126" s="71" t="s">
+        <v>943</v>
+      </c>
+      <c r="E126" s="68" t="s">
+        <v>930</v>
+      </c>
+      <c r="F126" s="68" t="s">
+        <v>931</v>
+      </c>
+      <c r="G126" s="68"/>
+      <c r="H126" s="68" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A127" s="69" t="s">
+        <v>158</v>
+      </c>
+      <c r="B127" s="70" t="s">
+        <v>653</v>
+      </c>
+      <c r="C127" s="71" t="s">
+        <v>920</v>
+      </c>
+      <c r="D127" s="71" t="s">
+        <v>943</v>
+      </c>
+      <c r="E127" s="68" t="s">
+        <v>933</v>
+      </c>
+      <c r="F127" s="68" t="s">
+        <v>934</v>
+      </c>
+      <c r="G127" s="68"/>
+      <c r="H127" s="68" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="25" x14ac:dyDescent="0.35">
+      <c r="A128" s="69" t="s">
+        <v>158</v>
+      </c>
+      <c r="B128" s="70" t="s">
+        <v>653</v>
+      </c>
+      <c r="C128" s="71" t="s">
+        <v>920</v>
+      </c>
+      <c r="D128" s="71" t="s">
+        <v>943</v>
+      </c>
+      <c r="E128" s="68" t="s">
+        <v>936</v>
+      </c>
+      <c r="F128" s="68" t="s">
+        <v>937</v>
+      </c>
+      <c r="G128" s="68"/>
+      <c r="H128" s="68" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="25" x14ac:dyDescent="0.35">
+      <c r="A129" s="69" t="s">
+        <v>158</v>
+      </c>
+      <c r="B129" s="70" t="s">
+        <v>653</v>
+      </c>
+      <c r="C129" s="71" t="s">
+        <v>920</v>
+      </c>
+      <c r="D129" s="71" t="s">
+        <v>943</v>
+      </c>
+      <c r="E129" s="68" t="s">
+        <v>939</v>
+      </c>
+      <c r="F129" s="68" t="s">
+        <v>940</v>
+      </c>
+      <c r="G129" s="68" t="s">
+        <v>941</v>
+      </c>
+      <c r="H129" s="68" t="s">
+        <v>942</v>
       </c>
     </row>
   </sheetData>
@@ -10575,6 +10997,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D9A8E34D4601248B4650C3759D604D8" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c234dc030e1d129322a3d56f76335218">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="de0c653c-2bd3-43b1-95fa-012c57f61cfe" xmlns:ns3="848a8810-16a6-4d79-96d3-e3dfb86099b7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a56d1a68c4d05b5a1e5a3c0b3fb5b1a8" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -10796,40 +11236,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19245E31-480A-4933-AB52-6FC5778D0ABF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B4CE896-D144-40A9-85D3-0684E5DFDA36}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="de0c653c-2bd3-43b1-95fa-012c57f61cfe"/>
-    <ds:schemaRef ds:uri="848a8810-16a6-4d79-96d3-e3dfb86099b7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10853,9 +11263,21 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B4CE896-D144-40A9-85D3-0684E5DFDA36}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19245E31-480A-4933-AB52-6FC5778D0ABF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="de0c653c-2bd3-43b1-95fa-012c57f61cfe"/>
+    <ds:schemaRef ds:uri="848a8810-16a6-4d79-96d3-e3dfb86099b7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Deliverables/CT/USDM_CT.xlsx
+++ b/Deliverables/CT/USDM_CT.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhlbradtee\Documents\GitHub\DDF-RA\Deliverables\CT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7736F939-4CF7-4C10-ADCC-CBD5A32FA39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8393429-7A46-4559-9F2C-CD999EC1CFA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="330" windowWidth="18740" windowHeight="9220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="320" windowWidth="19080" windowHeight="9880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DDF Entities&amp;Attributes" sheetId="4" r:id="rId1"/>
     <sheet name="DDF valid value sets" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DDF Entities&amp;Attributes'!$A$1:$I$161</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DDF Entities&amp;Attributes'!$A$1:$I$157</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DDF valid value sets'!$A$6:$N$124</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1907" uniqueCount="956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="944">
   <si>
     <t>Preferred Term</t>
   </si>
@@ -2622,24 +2622,6 @@
     <t>interventionDescription</t>
   </si>
   <si>
-    <t>activityIsOptional</t>
-  </si>
-  <si>
-    <t>Study Activity is Optional</t>
-  </si>
-  <si>
-    <t>An indication as to whether the study activity is available to be performed but is not obligatory.</t>
-  </si>
-  <si>
-    <t>Study Procedure is Optional</t>
-  </si>
-  <si>
-    <t>An indication as to whether the study procedure is available to be performed but is not obligatory.</t>
-  </si>
-  <si>
-    <t>procedureIsOptional</t>
-  </si>
-  <si>
     <t>studyIdentifiers</t>
   </si>
   <si>
@@ -2652,24 +2634,6 @@
     <t>encounterContactModes</t>
   </si>
   <si>
-    <t>activityIsOptionalReason</t>
-  </si>
-  <si>
-    <t>Study Activity is Optional Reason</t>
-  </si>
-  <si>
-    <t>The explanation for why the study activity is available to be performed but is not obligatory.</t>
-  </si>
-  <si>
-    <t>procedureIsOptionalReason</t>
-  </si>
-  <si>
-    <t>Study Procedure is Optional Reason</t>
-  </si>
-  <si>
-    <t>The explanation for why the study procedure is available to be performed but is not obligatory.</t>
-  </si>
-  <si>
     <t>studyAcronym</t>
   </si>
   <si>
@@ -2859,9 +2823,6 @@
     <t>An individual, company, institution, or organization that takes responsibility for the initiation, management, and/or financing of a clinical study. [After ICH E6, WHO, 21 CFR 50.3 (e), and after IDMP]</t>
   </si>
   <si>
-    <t>Y - ISO 3166-1 Alpha-3 Country code</t>
-  </si>
-  <si>
     <t>studyDesignBlindingScheme</t>
   </si>
   <si>
@@ -2877,9 +2838,6 @@
     <t>The type of experimental design used to describe the level of awareness of the study subjects and/ or study personnel as it relates to the respective intervention(s) or assessments being observed, received or administered.</t>
   </si>
   <si>
-    <t>Y - C66735</t>
-  </si>
-  <si>
     <t>C15228</t>
   </si>
   <si>
@@ -2968,13 +2926,19 @@
   </si>
   <si>
     <t>procedureIsConditionalReason</t>
+  </si>
+  <si>
+    <t>Y (C66735)</t>
+  </si>
+  <si>
+    <t>Y (Point out to ISO 3166-1 Alpha-3 Country code)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3067,20 +3031,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -3208,7 +3158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3389,42 +3339,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3717,7 +3631,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I161"/>
+  <dimension ref="A1:I157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3804,7 +3718,7 @@
         <v>648</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="4"/>
@@ -3823,7 +3737,7 @@
         <v>648</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="4"/>
@@ -3842,7 +3756,7 @@
         <v>648</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="4"/>
@@ -4002,17 +3916,17 @@
         <v>94</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>856</v>
+        <v>844</v>
       </c>
       <c r="E11" s="54" t="s">
-        <v>858</v>
+        <v>846</v>
       </c>
       <c r="F11" s="43" t="s">
-        <v>859</v>
+        <v>847</v>
       </c>
       <c r="G11" s="43"/>
       <c r="H11" s="43" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>93</v>
@@ -4029,17 +3943,17 @@
         <v>94</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>857</v>
+        <v>845</v>
       </c>
       <c r="E12" s="54" t="s">
-        <v>861</v>
+        <v>849</v>
       </c>
       <c r="F12" s="43" t="s">
-        <v>862</v>
+        <v>850</v>
       </c>
       <c r="G12" s="43"/>
       <c r="H12" s="43" t="s">
-        <v>863</v>
+        <v>851</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>93</v>
@@ -4401,7 +4315,7 @@
         <v>648</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="E26" s="49"/>
       <c r="F26" s="49"/>
@@ -4894,17 +4808,17 @@
         <v>94</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>897</v>
+        <v>885</v>
       </c>
       <c r="E47" s="54" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
       <c r="F47" s="43" t="s">
-        <v>895</v>
+        <v>883</v>
       </c>
       <c r="G47" s="43"/>
       <c r="H47" s="43" t="s">
-        <v>896</v>
+        <v>884</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>93</v>
@@ -4914,29 +4828,29 @@
       <c r="A48" s="33">
         <v>47</v>
       </c>
-      <c r="B48" s="49" t="s">
+      <c r="B48" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="C48" s="50" t="s">
+      <c r="C48" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D48" s="67" t="s">
-        <v>920</v>
-      </c>
-      <c r="E48" s="68" t="s">
-        <v>921</v>
-      </c>
-      <c r="F48" s="68" t="s">
-        <v>922</v>
-      </c>
-      <c r="G48" s="68" t="s">
-        <v>923</v>
-      </c>
-      <c r="H48" s="68" t="s">
-        <v>924</v>
-      </c>
-      <c r="I48" s="68" t="s">
-        <v>925</v>
+      <c r="D48" s="31" t="s">
+        <v>907</v>
+      </c>
+      <c r="E48" s="43" t="s">
+        <v>908</v>
+      </c>
+      <c r="F48" s="43" t="s">
+        <v>909</v>
+      </c>
+      <c r="G48" s="43" t="s">
+        <v>910</v>
+      </c>
+      <c r="H48" s="43" t="s">
+        <v>911</v>
+      </c>
+      <c r="I48" s="43" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="75" x14ac:dyDescent="0.35">
@@ -4960,7 +4874,7 @@
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="43" t="s">
-        <v>916</v>
+        <v>904</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>93</v>
@@ -5166,17 +5080,17 @@
         <v>94</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>898</v>
+        <v>886</v>
       </c>
       <c r="E57" s="54" t="s">
-        <v>902</v>
+        <v>890</v>
       </c>
       <c r="F57" s="43" t="s">
-        <v>903</v>
+        <v>891</v>
       </c>
       <c r="G57" s="43"/>
       <c r="H57" s="43" t="s">
-        <v>904</v>
+        <v>892</v>
       </c>
       <c r="I57" s="43" t="s">
         <v>93</v>
@@ -5193,17 +5107,17 @@
         <v>94</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>899</v>
+        <v>887</v>
       </c>
       <c r="E58" s="54" t="s">
-        <v>905</v>
+        <v>893</v>
       </c>
       <c r="F58" s="43" t="s">
-        <v>906</v>
+        <v>894</v>
       </c>
       <c r="G58" s="43"/>
       <c r="H58" s="43" t="s">
-        <v>907</v>
+        <v>895</v>
       </c>
       <c r="I58" s="43" t="s">
         <v>93</v>
@@ -5220,17 +5134,17 @@
         <v>94</v>
       </c>
       <c r="D59" s="30" t="s">
-        <v>900</v>
+        <v>888</v>
       </c>
       <c r="E59" s="54" t="s">
-        <v>908</v>
+        <v>896</v>
       </c>
       <c r="F59" s="43" t="s">
-        <v>909</v>
+        <v>897</v>
       </c>
       <c r="G59" s="43"/>
       <c r="H59" s="43" t="s">
-        <v>910</v>
+        <v>898</v>
       </c>
       <c r="I59" s="43" t="s">
         <v>93</v>
@@ -5247,20 +5161,20 @@
         <v>94</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
       <c r="E60" s="54" t="s">
-        <v>911</v>
+        <v>899</v>
       </c>
       <c r="F60" s="43" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
       <c r="G60" s="43"/>
       <c r="H60" s="43" t="s">
-        <v>913</v>
+        <v>901</v>
       </c>
       <c r="I60" s="43" t="s">
-        <v>914</v>
+        <v>902</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
@@ -5384,7 +5298,7 @@
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="43" t="s">
-        <v>917</v>
+        <v>905</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>93</v>
@@ -6309,7 +6223,7 @@
         <v>94</v>
       </c>
       <c r="D102" s="31" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>758</v>
@@ -6502,26 +6416,26 @@
       <c r="A110" s="33">
         <v>109</v>
       </c>
-      <c r="B110" s="61" t="s">
+      <c r="B110" s="4" t="s">
         <v>665</v>
       </c>
-      <c r="C110" s="62" t="s">
+      <c r="C110" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D110" s="63" t="s">
-        <v>840</v>
-      </c>
-      <c r="E110" s="64" t="s">
+      <c r="D110" s="31" t="s">
+        <v>933</v>
+      </c>
+      <c r="E110" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F110" s="64" t="s">
-        <v>841</v>
-      </c>
-      <c r="G110" s="65"/>
-      <c r="H110" s="64" t="s">
-        <v>842</v>
-      </c>
-      <c r="I110" s="66" t="s">
+      <c r="F110" s="43" t="s">
+        <v>930</v>
+      </c>
+      <c r="G110" s="47"/>
+      <c r="H110" s="43" t="s">
+        <v>931</v>
+      </c>
+      <c r="I110" s="43" t="s">
         <v>93</v>
       </c>
     </row>
@@ -6529,53 +6443,53 @@
       <c r="A111" s="33">
         <v>110</v>
       </c>
-      <c r="B111" s="61" t="s">
+      <c r="B111" s="4" t="s">
         <v>665</v>
       </c>
-      <c r="C111" s="62" t="s">
+      <c r="C111" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D111" s="63" t="s">
-        <v>850</v>
-      </c>
-      <c r="E111" s="64" t="s">
+      <c r="D111" s="31" t="s">
+        <v>934</v>
+      </c>
+      <c r="E111" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F111" s="64" t="s">
-        <v>851</v>
-      </c>
-      <c r="G111" s="65"/>
-      <c r="H111" s="64" t="s">
-        <v>852</v>
-      </c>
-      <c r="I111" s="66" t="s">
+      <c r="F111" s="43" t="s">
+        <v>932</v>
+      </c>
+      <c r="G111" s="47"/>
+      <c r="H111" s="43" t="s">
+        <v>935</v>
+      </c>
+      <c r="I111" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="33">
         <v>111</v>
       </c>
-      <c r="B112" s="49" t="s">
-        <v>665</v>
-      </c>
-      <c r="C112" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="D112" s="67" t="s">
-        <v>947</v>
-      </c>
-      <c r="E112" s="68" t="s">
-        <v>16</v>
-      </c>
-      <c r="F112" s="68" t="s">
-        <v>944</v>
-      </c>
-      <c r="G112" s="72"/>
-      <c r="H112" s="68" t="s">
-        <v>945</v>
-      </c>
-      <c r="I112" s="68" t="s">
+      <c r="B112" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D112" s="41" t="s">
+        <v>666</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G112" s="4"/>
+      <c r="H112" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I112" s="1" t="s">
         <v>93</v>
       </c>
     </row>
@@ -6583,30 +6497,30 @@
       <c r="A113" s="33">
         <v>112</v>
       </c>
-      <c r="B113" s="49" t="s">
-        <v>665</v>
-      </c>
-      <c r="C113" s="50" t="s">
+      <c r="B113" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D113" s="67" t="s">
-        <v>948</v>
-      </c>
-      <c r="E113" s="68" t="s">
-        <v>16</v>
-      </c>
-      <c r="F113" s="68" t="s">
-        <v>946</v>
-      </c>
-      <c r="G113" s="72"/>
-      <c r="H113" s="68" t="s">
-        <v>949</v>
-      </c>
-      <c r="I113" s="68" t="s">
+      <c r="D113" s="31" t="s">
+        <v>594</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="I113" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A114" s="33">
         <v>113</v>
       </c>
@@ -6614,22 +6528,22 @@
         <v>666</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D114" s="41" t="s">
-        <v>666</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>762</v>
+        <v>94</v>
+      </c>
+      <c r="D114" s="31" t="s">
+        <v>827</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>764</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="G114" s="4"/>
-      <c r="H114" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I114" s="1" t="s">
+      <c r="H114" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I114" s="43" t="s">
         <v>93</v>
       </c>
     </row>
@@ -6644,77 +6558,77 @@
         <v>94</v>
       </c>
       <c r="D115" s="31" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>150</v>
+        <v>645</v>
       </c>
       <c r="G115" s="4"/>
       <c r="H115" s="4" t="s">
-        <v>514</v>
+        <v>713</v>
       </c>
       <c r="I115" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A116" s="33">
         <v>115</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>666</v>
+        <v>88</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D116" s="31" t="s">
-        <v>827</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>764</v>
+        <v>4</v>
+      </c>
+      <c r="D116" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="I116" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="I116" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="33">
         <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>666</v>
+        <v>88</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D117" s="31" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>645</v>
+        <v>117</v>
       </c>
       <c r="G117" s="4"/>
       <c r="H117" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="I117" s="43" t="s">
+        <v>694</v>
+      </c>
+      <c r="I117" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" ht="50" x14ac:dyDescent="0.35">
       <c r="A118" s="33">
         <v>117</v>
       </c>
@@ -6722,26 +6636,26 @@
         <v>88</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D118" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>77</v>
+        <v>94</v>
+      </c>
+      <c r="D118" s="31" t="s">
+        <v>598</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="G118" s="4"/>
       <c r="H118" s="4" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A119" s="33">
         <v>118</v>
       </c>
@@ -6752,23 +6666,23 @@
         <v>94</v>
       </c>
       <c r="D119" s="31" t="s">
-        <v>597</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>766</v>
-      </c>
-      <c r="F119" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="G119" s="4"/>
-      <c r="H119" s="4" t="s">
-        <v>694</v>
-      </c>
-      <c r="I119" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="E119" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F119" s="43" t="s">
+        <v>936</v>
+      </c>
+      <c r="G119" s="47"/>
+      <c r="H119" s="43" t="s">
+        <v>938</v>
+      </c>
+      <c r="I119" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A120" s="33">
         <v>119</v>
       </c>
@@ -6779,231 +6693,215 @@
         <v>94</v>
       </c>
       <c r="D120" s="31" t="s">
-        <v>598</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G120" s="4"/>
-      <c r="H120" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I120" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+        <v>941</v>
+      </c>
+      <c r="E120" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F120" s="43" t="s">
+        <v>937</v>
+      </c>
+      <c r="G120" s="47"/>
+      <c r="H120" s="43" t="s">
+        <v>939</v>
+      </c>
+      <c r="I120" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="50" x14ac:dyDescent="0.35">
       <c r="A121" s="33">
         <v>120</v>
       </c>
-      <c r="B121" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="C121" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="D121" s="63" t="s">
-        <v>845</v>
-      </c>
-      <c r="E121" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="F121" s="64" t="s">
-        <v>843</v>
-      </c>
-      <c r="G121" s="65"/>
-      <c r="H121" s="64" t="s">
-        <v>844</v>
-      </c>
-      <c r="I121" s="61" t="s">
+      <c r="B121" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D121" s="41" t="s">
+        <v>601</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="G121" s="4"/>
+      <c r="H121" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="I121" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="33">
         <v>121</v>
       </c>
-      <c r="B122" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="C122" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="D122" s="63" t="s">
-        <v>853</v>
-      </c>
-      <c r="E122" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="F122" s="64" t="s">
-        <v>854</v>
-      </c>
-      <c r="G122" s="65"/>
-      <c r="H122" s="64" t="s">
-        <v>855</v>
-      </c>
-      <c r="I122" s="61" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="B122" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="D122" s="42" t="s">
+        <v>602</v>
+      </c>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
+      <c r="I122" s="4"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="33">
         <v>122</v>
       </c>
-      <c r="B123" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="C123" s="50" t="s">
+      <c r="B123" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D123" s="67" t="s">
-        <v>954</v>
-      </c>
-      <c r="E123" s="68" t="s">
-        <v>16</v>
-      </c>
-      <c r="F123" s="68" t="s">
-        <v>950</v>
-      </c>
-      <c r="G123" s="72"/>
-      <c r="H123" s="68" t="s">
-        <v>952</v>
-      </c>
-      <c r="I123" s="68" t="s">
+      <c r="D123" s="31" t="s">
+        <v>826</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I123" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="33">
         <v>123</v>
       </c>
-      <c r="B124" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="C124" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="D124" s="67" t="s">
-        <v>955</v>
-      </c>
-      <c r="E124" s="68" t="s">
-        <v>16</v>
-      </c>
-      <c r="F124" s="68" t="s">
-        <v>951</v>
-      </c>
-      <c r="G124" s="72"/>
-      <c r="H124" s="68" t="s">
-        <v>953</v>
-      </c>
-      <c r="I124" s="68" t="s">
+      <c r="B124" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="C124" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D124" s="41" t="s">
+        <v>667</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="I124" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="33">
         <v>124</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>601</v>
+        <v>667</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D125" s="41" t="s">
-        <v>601</v>
-      </c>
-      <c r="E125" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="F125" s="4" t="s">
-        <v>601</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="D125" s="42" t="s">
+        <v>583</v>
+      </c>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
       <c r="G125" s="4"/>
-      <c r="H125" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="I125" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="H125" s="4"/>
+      <c r="I125" s="43"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="33">
         <v>125</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>601</v>
+        <v>667</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>648</v>
       </c>
       <c r="D126" s="42" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
-      <c r="I126" s="4"/>
+      <c r="I126" s="43"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="33">
         <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>601</v>
+        <v>667</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D127" s="31" t="s">
-        <v>826</v>
+      <c r="D127" s="30" t="s">
+        <v>825</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>116</v>
+        <v>768</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="G127" s="4"/>
       <c r="H127" s="4" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="I127" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A128" s="33">
         <v>127</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="C128" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D128" s="41" t="s">
-        <v>667</v>
+      <c r="C128" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D128" s="30" t="s">
+        <v>603</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>109</v>
+        <v>605</v>
       </c>
       <c r="G128" s="4"/>
       <c r="H128" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="I128" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="I128" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A129" s="33">
         <v>128</v>
       </c>
@@ -7011,118 +6909,110 @@
         <v>667</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="D129" s="42" t="s">
-        <v>583</v>
-      </c>
-      <c r="E129" s="4"/>
-      <c r="F129" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="D129" s="30" t="s">
+        <v>604</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>606</v>
+      </c>
       <c r="G129" s="4"/>
-      <c r="H129" s="4"/>
-      <c r="I129" s="43"/>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H129" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="I129" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A130" s="33">
         <v>129</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>667</v>
+        <v>81</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="D130" s="42" t="s">
-        <v>586</v>
-      </c>
-      <c r="E130" s="4"/>
-      <c r="F130" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="D130" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="G130" s="4"/>
-      <c r="H130" s="4"/>
-      <c r="I130" s="43"/>
+      <c r="H130" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="33">
         <v>130</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>667</v>
+        <v>81</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D131" s="30" t="s">
-        <v>825</v>
-      </c>
-      <c r="E131" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>109</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="D131" s="42" t="s">
+        <v>556</v>
+      </c>
+      <c r="E131" s="1"/>
+      <c r="F131" s="4"/>
       <c r="G131" s="4"/>
-      <c r="H131" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="I131" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="H131" s="4"/>
+      <c r="I131" s="1"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="33">
         <v>131</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>667</v>
+        <v>81</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D132" s="30" t="s">
-        <v>603</v>
-      </c>
-      <c r="E132" s="4" t="s">
-        <v>769</v>
-      </c>
-      <c r="F132" s="4" t="s">
-        <v>605</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="D132" s="42" t="s">
+        <v>557</v>
+      </c>
+      <c r="E132" s="1"/>
+      <c r="F132" s="4"/>
       <c r="G132" s="4"/>
-      <c r="H132" s="4" t="s">
-        <v>720</v>
-      </c>
-      <c r="I132" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="H132" s="4"/>
+      <c r="I132" s="1"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" s="33">
         <v>132</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>667</v>
+        <v>81</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D133" s="30" t="s">
-        <v>604</v>
-      </c>
-      <c r="E133" s="4" t="s">
-        <v>770</v>
-      </c>
-      <c r="F133" s="4" t="s">
-        <v>606</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="D133" s="42" t="s">
+        <v>563</v>
+      </c>
+      <c r="E133" s="1"/>
+      <c r="F133" s="4"/>
       <c r="G133" s="4"/>
-      <c r="H133" s="4" t="s">
-        <v>721</v>
-      </c>
-      <c r="I133" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="H133" s="4"/>
+      <c r="I133" s="1"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" s="33">
         <v>133</v>
       </c>
@@ -7130,26 +7020,18 @@
         <v>81</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D134" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="F134" s="4" t="s">
-        <v>81</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="D134" s="42" t="s">
+        <v>562</v>
+      </c>
+      <c r="E134" s="1"/>
+      <c r="F134" s="4"/>
       <c r="G134" s="4"/>
-      <c r="H134" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="I134" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H134" s="4"/>
+      <c r="I134" s="1"/>
+    </row>
+    <row r="135" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A135" s="33">
         <v>134</v>
       </c>
@@ -7157,125 +7039,157 @@
         <v>81</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="D135" s="42" t="s">
-        <v>556</v>
-      </c>
-      <c r="E135" s="1"/>
-      <c r="F135" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="D135" s="31" t="s">
+        <v>560</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="G135" s="4"/>
-      <c r="H135" s="4"/>
-      <c r="I135" s="1"/>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H135" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="75" x14ac:dyDescent="0.35">
       <c r="A136" s="33">
         <v>135</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>81</v>
+        <v>668</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="D136" s="42" t="s">
-        <v>557</v>
-      </c>
-      <c r="E136" s="1"/>
-      <c r="F136" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="D136" s="41" t="s">
+        <v>668</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="G136" s="4"/>
-      <c r="H136" s="4"/>
-      <c r="I136" s="1"/>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H136" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A137" s="33">
         <v>136</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>81</v>
+        <v>668</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="D137" s="42" t="s">
-        <v>563</v>
-      </c>
-      <c r="E137" s="1"/>
-      <c r="F137" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="D137" s="31" t="s">
+        <v>824</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="G137" s="4"/>
-      <c r="H137" s="4"/>
-      <c r="I137" s="1"/>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H137" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="I137" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="50" x14ac:dyDescent="0.35">
       <c r="A138" s="33">
         <v>137</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>81</v>
+        <v>669</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="D138" s="42" t="s">
-        <v>562</v>
-      </c>
-      <c r="E138" s="1"/>
-      <c r="F138" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="D138" s="41" t="s">
+        <v>669</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="G138" s="4"/>
-      <c r="H138" s="4"/>
-      <c r="I138" s="1"/>
+      <c r="H138" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="139" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A139" s="33">
         <v>138</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>81</v>
+        <v>669</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D139" s="31" t="s">
-        <v>560</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>772</v>
+        <v>558</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>775</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="G139" s="4"/>
       <c r="H139" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I139" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I139" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="75" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A140" s="33">
         <v>139</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D140" s="41" t="s">
-        <v>668</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>773</v>
+        <v>94</v>
+      </c>
+      <c r="D140" s="31" t="s">
+        <v>823</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>776</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="G140" s="4"/>
       <c r="H140" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="I140" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I140" s="43" t="s">
         <v>93</v>
       </c>
     </row>
@@ -7284,77 +7198,77 @@
         <v>140</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D141" s="31" t="s">
-        <v>824</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="F141" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G141" s="4"/>
+      <c r="D141" s="46" t="s">
+        <v>559</v>
+      </c>
+      <c r="E141" s="33" t="s">
+        <v>777</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="G141" s="33"/>
       <c r="H141" s="4" t="s">
-        <v>643</v>
+        <v>712</v>
       </c>
       <c r="I141" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A142" s="33">
         <v>141</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D142" s="41" t="s">
-        <v>669</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>774</v>
+        <v>672</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>678</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G142" s="4"/>
+        <v>672</v>
+      </c>
+      <c r="G142" s="35"/>
       <c r="H142" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="I142" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="I142" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" s="33">
         <v>142</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D143" s="31" t="s">
-        <v>558</v>
+        <v>673</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G143" s="4"/>
+        <v>707</v>
+      </c>
+      <c r="G143" s="35"/>
       <c r="H143" s="4" t="s">
-        <v>513</v>
+        <v>708</v>
       </c>
       <c r="I143" s="43" t="s">
         <v>93</v>
@@ -7365,50 +7279,50 @@
         <v>143</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D144" s="31" t="s">
-        <v>823</v>
+        <v>674</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>113</v>
+        <v>706</v>
       </c>
       <c r="G144" s="4"/>
       <c r="H144" s="4" t="s">
-        <v>127</v>
+        <v>709</v>
       </c>
       <c r="I144" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="33">
         <v>144</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D145" s="46" t="s">
-        <v>559</v>
-      </c>
-      <c r="E145" s="33" t="s">
-        <v>777</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G145" s="33"/>
+      <c r="D145" s="31" t="s">
+        <v>675</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="G145" s="4"/>
       <c r="H145" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="I145" s="43" t="s">
         <v>93</v>
@@ -7422,271 +7336,271 @@
         <v>672</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D146" s="41" t="s">
-        <v>672</v>
+        <v>94</v>
+      </c>
+      <c r="D146" s="31" t="s">
+        <v>676</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>678</v>
+        <v>781</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>672</v>
+        <v>695</v>
       </c>
       <c r="G146" s="35"/>
       <c r="H146" s="4" t="s">
-        <v>677</v>
+        <v>711</v>
       </c>
       <c r="I146" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A147" s="33">
         <v>146</v>
       </c>
-      <c r="B147" s="4" t="s">
-        <v>672</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D147" s="31" t="s">
-        <v>673</v>
-      </c>
-      <c r="E147" s="4" t="s">
-        <v>778</v>
-      </c>
-      <c r="F147" s="4" t="s">
-        <v>707</v>
-      </c>
-      <c r="G147" s="35"/>
-      <c r="H147" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="I147" s="43" t="s">
+      <c r="B147" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C147" s="33" t="s">
+        <v>816</v>
+      </c>
+      <c r="D147" s="41" t="s">
+        <v>817</v>
+      </c>
+      <c r="E147" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F147" s="33" t="s">
+        <v>818</v>
+      </c>
+      <c r="G147" s="33"/>
+      <c r="H147" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="I147" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="33">
         <v>147</v>
       </c>
-      <c r="B148" s="4" t="s">
-        <v>672</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D148" s="31" t="s">
-        <v>674</v>
-      </c>
-      <c r="E148" s="4" t="s">
-        <v>779</v>
-      </c>
-      <c r="F148" s="4" t="s">
-        <v>706</v>
-      </c>
-      <c r="G148" s="4"/>
-      <c r="H148" s="4" t="s">
-        <v>709</v>
-      </c>
-      <c r="I148" s="43" t="s">
+      <c r="B148" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C148" s="33" t="s">
+        <v>648</v>
+      </c>
+      <c r="D148" s="48" t="s">
+        <v>820</v>
+      </c>
+      <c r="E148" s="33"/>
+      <c r="F148" s="33"/>
+      <c r="G148" s="33"/>
+      <c r="H148" s="33"/>
+      <c r="I148" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A149" s="33">
         <v>148</v>
       </c>
-      <c r="B149" s="4" t="s">
-        <v>672</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D149" s="31" t="s">
-        <v>675</v>
-      </c>
-      <c r="E149" s="4" t="s">
-        <v>780</v>
-      </c>
-      <c r="F149" s="4" t="s">
-        <v>679</v>
-      </c>
-      <c r="G149" s="4"/>
-      <c r="H149" s="4" t="s">
-        <v>710</v>
-      </c>
-      <c r="I149" s="43" t="s">
+      <c r="B149" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C149" s="33" t="s">
+        <v>648</v>
+      </c>
+      <c r="D149" s="48" t="s">
+        <v>821</v>
+      </c>
+      <c r="E149" s="33"/>
+      <c r="F149" s="33"/>
+      <c r="G149" s="33"/>
+      <c r="H149" s="33"/>
+      <c r="I149" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" s="51" customFormat="1" ht="25" x14ac:dyDescent="0.35">
       <c r="A150" s="33">
         <v>149</v>
       </c>
-      <c r="B150" s="4" t="s">
-        <v>672</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D150" s="31" t="s">
-        <v>676</v>
-      </c>
-      <c r="E150" s="4" t="s">
-        <v>781</v>
-      </c>
-      <c r="F150" s="4" t="s">
-        <v>695</v>
-      </c>
-      <c r="G150" s="35"/>
-      <c r="H150" s="4" t="s">
-        <v>711</v>
-      </c>
-      <c r="I150" s="43" t="s">
+      <c r="B150" s="33" t="s">
+        <v>853</v>
+      </c>
+      <c r="C150" s="55" t="s">
+        <v>816</v>
+      </c>
+      <c r="D150" s="41" t="s">
+        <v>817</v>
+      </c>
+      <c r="E150" s="54" t="s">
+        <v>880</v>
+      </c>
+      <c r="F150" s="43" t="s">
+        <v>853</v>
+      </c>
+      <c r="G150" s="47"/>
+      <c r="H150" s="43" t="s">
+        <v>881</v>
+      </c>
+      <c r="I150" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" s="51" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A151" s="33">
         <v>150</v>
       </c>
-      <c r="B151" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="C151" s="33" t="s">
-        <v>816</v>
-      </c>
-      <c r="D151" s="41" t="s">
-        <v>817</v>
-      </c>
-      <c r="E151" s="33" t="s">
+      <c r="B151" s="33" t="s">
+        <v>853</v>
+      </c>
+      <c r="C151" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="D151" s="30" t="s">
+        <v>854</v>
+      </c>
+      <c r="E151" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="F151" s="33" t="s">
-        <v>818</v>
-      </c>
-      <c r="G151" s="33"/>
-      <c r="H151" s="1" t="s">
-        <v>819</v>
+      <c r="F151" s="43" t="s">
+        <v>861</v>
+      </c>
+      <c r="G151" s="47"/>
+      <c r="H151" s="43" t="s">
+        <v>862</v>
       </c>
       <c r="I151" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" s="51" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A152" s="33">
         <v>151</v>
       </c>
-      <c r="B152" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="C152" s="33" t="s">
-        <v>648</v>
-      </c>
-      <c r="D152" s="48" t="s">
-        <v>820</v>
-      </c>
-      <c r="E152" s="33"/>
-      <c r="F152" s="33"/>
-      <c r="G152" s="33"/>
-      <c r="H152" s="33"/>
+      <c r="B152" s="33" t="s">
+        <v>853</v>
+      </c>
+      <c r="C152" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="D152" s="30" t="s">
+        <v>855</v>
+      </c>
+      <c r="E152" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F152" s="43" t="s">
+        <v>863</v>
+      </c>
+      <c r="G152" s="47"/>
+      <c r="H152" s="43" t="s">
+        <v>864</v>
+      </c>
       <c r="I152" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" s="51" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A153" s="33">
         <v>152</v>
       </c>
-      <c r="B153" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="C153" s="33" t="s">
-        <v>648</v>
-      </c>
-      <c r="D153" s="48" t="s">
-        <v>821</v>
-      </c>
-      <c r="E153" s="33"/>
-      <c r="F153" s="33"/>
-      <c r="G153" s="33"/>
-      <c r="H153" s="33"/>
+      <c r="B153" s="33" t="s">
+        <v>853</v>
+      </c>
+      <c r="C153" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="D153" s="30" t="s">
+        <v>856</v>
+      </c>
+      <c r="E153" s="54" t="s">
+        <v>865</v>
+      </c>
+      <c r="F153" s="43" t="s">
+        <v>866</v>
+      </c>
+      <c r="G153" s="47"/>
+      <c r="H153" s="43" t="s">
+        <v>867</v>
+      </c>
       <c r="I153" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="154" spans="1:9" s="51" customFormat="1" ht="25" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" s="51" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A154" s="33">
         <v>153</v>
       </c>
       <c r="B154" s="33" t="s">
-        <v>865</v>
+        <v>853</v>
       </c>
       <c r="C154" s="55" t="s">
-        <v>816</v>
-      </c>
-      <c r="D154" s="41" t="s">
-        <v>817</v>
+        <v>94</v>
+      </c>
+      <c r="D154" s="30" t="s">
+        <v>857</v>
       </c>
       <c r="E154" s="54" t="s">
-        <v>892</v>
+        <v>868</v>
       </c>
       <c r="F154" s="43" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="G154" s="47"/>
       <c r="H154" s="43" t="s">
-        <v>893</v>
+        <v>870</v>
       </c>
       <c r="I154" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="155" spans="1:9" s="51" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" s="51" customFormat="1" ht="50" x14ac:dyDescent="0.35">
       <c r="A155" s="33">
         <v>154</v>
       </c>
       <c r="B155" s="33" t="s">
-        <v>865</v>
+        <v>853</v>
       </c>
       <c r="C155" s="55" t="s">
         <v>94</v>
       </c>
       <c r="D155" s="30" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="E155" s="54" t="s">
-        <v>16</v>
+        <v>871</v>
       </c>
       <c r="F155" s="43" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="G155" s="47"/>
       <c r="H155" s="43" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="I155" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="156" spans="1:9" s="51" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" s="51" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A156" s="33">
         <v>155</v>
       </c>
       <c r="B156" s="33" t="s">
-        <v>865</v>
+        <v>853</v>
       </c>
       <c r="C156" s="55" t="s">
         <v>94</v>
       </c>
       <c r="D156" s="30" t="s">
-        <v>867</v>
-      </c>
-      <c r="E156" s="43" t="s">
-        <v>16</v>
+        <v>859</v>
+      </c>
+      <c r="E156" s="54" t="s">
+        <v>874</v>
       </c>
       <c r="F156" s="43" t="s">
         <v>875</v>
@@ -7699,18 +7613,18 @@
         <v>93</v>
       </c>
     </row>
-    <row r="157" spans="1:9" s="51" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" s="51" customFormat="1" ht="25" x14ac:dyDescent="0.35">
       <c r="A157" s="33">
         <v>156</v>
       </c>
       <c r="B157" s="33" t="s">
-        <v>865</v>
+        <v>853</v>
       </c>
       <c r="C157" s="55" t="s">
         <v>94</v>
       </c>
       <c r="D157" s="30" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="E157" s="54" t="s">
         <v>877</v>
@@ -7722,120 +7636,12 @@
       <c r="H157" s="43" t="s">
         <v>879</v>
       </c>
-      <c r="I157" s="33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" s="51" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A158" s="33">
-        <v>157</v>
-      </c>
-      <c r="B158" s="33" t="s">
-        <v>865</v>
-      </c>
-      <c r="C158" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="D158" s="30" t="s">
-        <v>869</v>
-      </c>
-      <c r="E158" s="54" t="s">
-        <v>880</v>
-      </c>
-      <c r="F158" s="43" t="s">
-        <v>881</v>
-      </c>
-      <c r="G158" s="47"/>
-      <c r="H158" s="43" t="s">
-        <v>882</v>
-      </c>
-      <c r="I158" s="33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" s="51" customFormat="1" ht="50" x14ac:dyDescent="0.35">
-      <c r="A159" s="33">
-        <v>158</v>
-      </c>
-      <c r="B159" s="33" t="s">
-        <v>865</v>
-      </c>
-      <c r="C159" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="D159" s="30" t="s">
-        <v>870</v>
-      </c>
-      <c r="E159" s="54" t="s">
-        <v>883</v>
-      </c>
-      <c r="F159" s="43" t="s">
-        <v>884</v>
-      </c>
-      <c r="G159" s="47"/>
-      <c r="H159" s="43" t="s">
-        <v>885</v>
-      </c>
-      <c r="I159" s="33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" s="51" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A160" s="33">
-        <v>159</v>
-      </c>
-      <c r="B160" s="33" t="s">
-        <v>865</v>
-      </c>
-      <c r="C160" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="D160" s="30" t="s">
-        <v>871</v>
-      </c>
-      <c r="E160" s="54" t="s">
-        <v>886</v>
-      </c>
-      <c r="F160" s="43" t="s">
-        <v>887</v>
-      </c>
-      <c r="G160" s="47"/>
-      <c r="H160" s="43" t="s">
-        <v>888</v>
-      </c>
-      <c r="I160" s="33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" s="51" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A161" s="33">
-        <v>160</v>
-      </c>
-      <c r="B161" s="33" t="s">
-        <v>865</v>
-      </c>
-      <c r="C161" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="D161" s="30" t="s">
-        <v>872</v>
-      </c>
-      <c r="E161" s="54" t="s">
-        <v>889</v>
-      </c>
-      <c r="F161" s="43" t="s">
-        <v>890</v>
-      </c>
-      <c r="G161" s="47"/>
-      <c r="H161" s="43" t="s">
-        <v>891</v>
-      </c>
-      <c r="I161" s="50" t="s">
-        <v>919</v>
+      <c r="I157" s="1" t="s">
+        <v>943</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I161" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I157" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7846,7 +7652,7 @@
   <dimension ref="A1:N129"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
@@ -8546,10 +8352,10 @@
         <v>722</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>915</v>
+        <v>903</v>
       </c>
       <c r="H29" s="19" t="s">
-        <v>918</v>
+        <v>906</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="14" customFormat="1" ht="25" x14ac:dyDescent="0.35">
@@ -10861,127 +10667,127 @@
       </c>
     </row>
     <row r="125" spans="1:8" ht="25" x14ac:dyDescent="0.35">
-      <c r="A125" s="69" t="s">
-        <v>158</v>
-      </c>
-      <c r="B125" s="70" t="s">
+      <c r="A125" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B125" s="36" t="s">
         <v>653</v>
       </c>
-      <c r="C125" s="71" t="s">
+      <c r="C125" s="19" t="s">
+        <v>907</v>
+      </c>
+      <c r="D125" s="19" t="s">
+        <v>929</v>
+      </c>
+      <c r="E125" s="43" t="s">
+        <v>912</v>
+      </c>
+      <c r="F125" s="43" t="s">
+        <v>913</v>
+      </c>
+      <c r="G125" s="43" t="s">
+        <v>914</v>
+      </c>
+      <c r="H125" s="43" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="50" x14ac:dyDescent="0.35">
+      <c r="A126" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B126" s="36" t="s">
+        <v>653</v>
+      </c>
+      <c r="C126" s="19" t="s">
+        <v>907</v>
+      </c>
+      <c r="D126" s="19" t="s">
+        <v>929</v>
+      </c>
+      <c r="E126" s="43" t="s">
+        <v>916</v>
+      </c>
+      <c r="F126" s="43" t="s">
+        <v>917</v>
+      </c>
+      <c r="G126" s="43"/>
+      <c r="H126" s="43" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A127" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B127" s="36" t="s">
+        <v>653</v>
+      </c>
+      <c r="C127" s="19" t="s">
+        <v>907</v>
+      </c>
+      <c r="D127" s="19" t="s">
+        <v>929</v>
+      </c>
+      <c r="E127" s="43" t="s">
+        <v>919</v>
+      </c>
+      <c r="F127" s="43" t="s">
         <v>920</v>
       </c>
-      <c r="D125" s="71" t="s">
-        <v>943</v>
-      </c>
-      <c r="E125" s="68" t="s">
+      <c r="G127" s="43"/>
+      <c r="H127" s="43" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="25" x14ac:dyDescent="0.35">
+      <c r="A128" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B128" s="36" t="s">
+        <v>653</v>
+      </c>
+      <c r="C128" s="19" t="s">
+        <v>907</v>
+      </c>
+      <c r="D128" s="19" t="s">
+        <v>929</v>
+      </c>
+      <c r="E128" s="43" t="s">
+        <v>922</v>
+      </c>
+      <c r="F128" s="43" t="s">
+        <v>923</v>
+      </c>
+      <c r="G128" s="43"/>
+      <c r="H128" s="43" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="25" x14ac:dyDescent="0.35">
+      <c r="A129" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B129" s="36" t="s">
+        <v>653</v>
+      </c>
+      <c r="C129" s="19" t="s">
+        <v>907</v>
+      </c>
+      <c r="D129" s="19" t="s">
+        <v>929</v>
+      </c>
+      <c r="E129" s="43" t="s">
+        <v>925</v>
+      </c>
+      <c r="F129" s="43" t="s">
         <v>926</v>
       </c>
-      <c r="F125" s="68" t="s">
+      <c r="G129" s="43" t="s">
         <v>927</v>
       </c>
-      <c r="G125" s="68" t="s">
+      <c r="H129" s="43" t="s">
         <v>928</v>
-      </c>
-      <c r="H125" s="68" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="50" x14ac:dyDescent="0.35">
-      <c r="A126" s="69" t="s">
-        <v>158</v>
-      </c>
-      <c r="B126" s="70" t="s">
-        <v>653</v>
-      </c>
-      <c r="C126" s="71" t="s">
-        <v>920</v>
-      </c>
-      <c r="D126" s="71" t="s">
-        <v>943</v>
-      </c>
-      <c r="E126" s="68" t="s">
-        <v>930</v>
-      </c>
-      <c r="F126" s="68" t="s">
-        <v>931</v>
-      </c>
-      <c r="G126" s="68"/>
-      <c r="H126" s="68" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A127" s="69" t="s">
-        <v>158</v>
-      </c>
-      <c r="B127" s="70" t="s">
-        <v>653</v>
-      </c>
-      <c r="C127" s="71" t="s">
-        <v>920</v>
-      </c>
-      <c r="D127" s="71" t="s">
-        <v>943</v>
-      </c>
-      <c r="E127" s="68" t="s">
-        <v>933</v>
-      </c>
-      <c r="F127" s="68" t="s">
-        <v>934</v>
-      </c>
-      <c r="G127" s="68"/>
-      <c r="H127" s="68" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="25" x14ac:dyDescent="0.35">
-      <c r="A128" s="69" t="s">
-        <v>158</v>
-      </c>
-      <c r="B128" s="70" t="s">
-        <v>653</v>
-      </c>
-      <c r="C128" s="71" t="s">
-        <v>920</v>
-      </c>
-      <c r="D128" s="71" t="s">
-        <v>943</v>
-      </c>
-      <c r="E128" s="68" t="s">
-        <v>936</v>
-      </c>
-      <c r="F128" s="68" t="s">
-        <v>937</v>
-      </c>
-      <c r="G128" s="68"/>
-      <c r="H128" s="68" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="25" x14ac:dyDescent="0.35">
-      <c r="A129" s="69" t="s">
-        <v>158</v>
-      </c>
-      <c r="B129" s="70" t="s">
-        <v>653</v>
-      </c>
-      <c r="C129" s="71" t="s">
-        <v>920</v>
-      </c>
-      <c r="D129" s="71" t="s">
-        <v>943</v>
-      </c>
-      <c r="E129" s="68" t="s">
-        <v>939</v>
-      </c>
-      <c r="F129" s="68" t="s">
-        <v>940</v>
-      </c>
-      <c r="G129" s="68" t="s">
-        <v>941</v>
-      </c>
-      <c r="H129" s="68" t="s">
-        <v>942</v>
       </c>
     </row>
   </sheetData>
@@ -10997,24 +10803,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D9A8E34D4601248B4650C3759D604D8" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c234dc030e1d129322a3d56f76335218">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="de0c653c-2bd3-43b1-95fa-012c57f61cfe" xmlns:ns3="848a8810-16a6-4d79-96d3-e3dfb86099b7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a56d1a68c4d05b5a1e5a3c0b3fb5b1a8" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -11236,10 +11024,40 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B4CE896-D144-40A9-85D3-0684E5DFDA36}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19245E31-480A-4933-AB52-6FC5778D0ABF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="de0c653c-2bd3-43b1-95fa-012c57f61cfe"/>
+    <ds:schemaRef ds:uri="848a8810-16a6-4d79-96d3-e3dfb86099b7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11263,21 +11081,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19245E31-480A-4933-AB52-6FC5778D0ABF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B4CE896-D144-40A9-85D3-0684E5DFDA36}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="de0c653c-2bd3-43b1-95fa-012c57f61cfe"/>
-    <ds:schemaRef ds:uri="848a8810-16a6-4d79-96d3-e3dfb86099b7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Deliverables/CT/USDM_CT.xlsx
+++ b/Deliverables/CT/USDM_CT.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhlbradtee\Documents\GitHub\DDF-RA\Deliverables\CT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8393429-7A46-4559-9F2C-CD999EC1CFA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C64FD21-E11E-4F04-9788-2A784559C2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="320" windowWidth="19080" windowHeight="9880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="160" windowWidth="17200" windowHeight="9880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DDF Entities&amp;Attributes" sheetId="4" r:id="rId1"/>
     <sheet name="DDF valid value sets" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DDF Entities&amp;Attributes'!$A$1:$I$157</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DDF Entities&amp;Attributes'!$A$1:$I$163</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DDF valid value sets'!$A$6:$N$124</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2091" uniqueCount="1025">
   <si>
     <t>Preferred Term</t>
   </si>
@@ -2933,12 +2933,256 @@
   <si>
     <t>Y (Point out to ISO 3166-1 Alpha-3 Country code)</t>
   </si>
+  <si>
+    <t>C66732</t>
+  </si>
+  <si>
+    <t>C49636</t>
+  </si>
+  <si>
+    <t>BOTH</t>
+  </si>
+  <si>
+    <t>One and the other; relating to or being two in conjunction. (NCI)</t>
+  </si>
+  <si>
+    <t>C16576</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>A person who belongs to the sex that normally produces ova. The term is used to indicate biological sex distinctions, or cultural gender role distinctions, or both. (NCI)</t>
+  </si>
+  <si>
+    <t>C20197</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>A person who belongs to the sex that normally produces sperm. The term is used to indicate biological sex distinctions, cultural gender role distinctions, or both. (NCI)</t>
+  </si>
+  <si>
+    <t>biomedicalConceptIds</t>
+  </si>
+  <si>
+    <t>bcCategoryIds</t>
+  </si>
+  <si>
+    <t>bcSurrogateIds</t>
+  </si>
+  <si>
+    <t>BiomedicalConcept</t>
+  </si>
+  <si>
+    <t>bcProperties</t>
+  </si>
+  <si>
+    <t>bcName</t>
+  </si>
+  <si>
+    <t>bcSynonyms</t>
+  </si>
+  <si>
+    <t>bcReference</t>
+  </si>
+  <si>
+    <t>bcConceptCode</t>
+  </si>
+  <si>
+    <t>biomedicalConceptId</t>
+  </si>
+  <si>
+    <t>Biomedical Concept</t>
+  </si>
+  <si>
+    <t>A unit of biomedical knowledge created from a unique combination of characteristics that include implementation details like variables and terminologies, used as building blocks for standardized, hierarchically structured clinical research information.</t>
+  </si>
+  <si>
+    <t>Biomedical Concept Name</t>
+  </si>
+  <si>
+    <t>The literal identifier (i.e., distinctive designation) of the biomedical concept.</t>
+  </si>
+  <si>
+    <t>Biomedical Concept Synonym</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A word or an expression that serves as a figurative, symbolic, or exact substitute for a biomedical concept, and which has the same meaning.
+</t>
+  </si>
+  <si>
+    <t>Biomedical Concept Reference</t>
+  </si>
+  <si>
+    <t>A citation to an authoritative source for a biomedical concept.</t>
+  </si>
+  <si>
+    <t>Biomedical Concept Concept Code</t>
+  </si>
+  <si>
+    <t>A concept unique identifier assigned to a biomedical concept that points to the meaning of that biomedical concept.</t>
+  </si>
+  <si>
+    <t>Biomedical Concept Identifier</t>
+  </si>
+  <si>
+    <t>A system identifier assigned to the biomedical concept.</t>
+  </si>
+  <si>
+    <t>BiomedicalConceptProperty</t>
+  </si>
+  <si>
+    <t>bcPropertyResponseCodes</t>
+  </si>
+  <si>
+    <t>Biomedical Concept Property</t>
+  </si>
+  <si>
+    <t>A characteristic from a set of characteristics used to define a biomedical concept.</t>
+  </si>
+  <si>
+    <t>Biomedical Concept Property Name</t>
+  </si>
+  <si>
+    <t>The literal identifier (i.e., distinctive designation) of the biomedical concept property.</t>
+  </si>
+  <si>
+    <t>Biomedical Concept Property Required Indicator</t>
+  </si>
+  <si>
+    <t>An indication as to whether the biomedical concept property is required.</t>
+  </si>
+  <si>
+    <t>Biomedical Concept Property Enabled Indicator</t>
+  </si>
+  <si>
+    <t>An indication as to whether the biomedical concept property is activated for use within a given usage context for a biomedical concept.</t>
+  </si>
+  <si>
+    <t>Biomedical Concept Property Response Data Type</t>
+  </si>
+  <si>
+    <t>The structural format of the biomedical concept property response value. The datatype is carried in the attribute and influences the set of allowable values the attribute may assume. (After HL7)</t>
+  </si>
+  <si>
+    <t>Biomedical Concept Property Concept Code</t>
+  </si>
+  <si>
+    <t>A concept unique identifier assigned to a biomedical concept property that points to the meaning of that biomedical concept property.</t>
+  </si>
+  <si>
+    <t>bcPropertyName</t>
+  </si>
+  <si>
+    <t>bcPropertyRequired</t>
+  </si>
+  <si>
+    <t>bcPropertyEnabled</t>
+  </si>
+  <si>
+    <t>bcPropertyDatatype</t>
+  </si>
+  <si>
+    <t>bcPropertyConceptCode</t>
+  </si>
+  <si>
+    <t>ResponseCode</t>
+  </si>
+  <si>
+    <t>responseCodeEnabled</t>
+  </si>
+  <si>
+    <t>Response Code</t>
+  </si>
+  <si>
+    <t>A symbol or combination of symbols representing the response to the question.</t>
+  </si>
+  <si>
+    <t>Response Code Enabled Indicator</t>
+  </si>
+  <si>
+    <t>An indication as to whether the response code is activated for use within a given usage context.</t>
+  </si>
+  <si>
+    <t>Biomedical Concept Surrogate Name</t>
+  </si>
+  <si>
+    <t>The literal identifier (i.e., distinctive designation) of the biomedical concept surrogate.</t>
+  </si>
+  <si>
+    <t>Biomedical Concept Surrogate Description</t>
+  </si>
+  <si>
+    <t>The textual representation of the biomedical concept surrogate.</t>
+  </si>
+  <si>
+    <t>Biomedical Concept Surrogate Reference</t>
+  </si>
+  <si>
+    <t>A citation to an authoritative source for a biomedical concept surrogate.</t>
+  </si>
+  <si>
+    <t>bcSurrograteName</t>
+  </si>
+  <si>
+    <t>bcSurrogateDescription</t>
+  </si>
+  <si>
+    <t>bcSurrogateReference</t>
+  </si>
+  <si>
+    <t>BiomedicalConceptSurrogate</t>
+  </si>
+  <si>
+    <t>BiomedicalConceptCategory</t>
+  </si>
+  <si>
+    <t>Biomedical Concept Category</t>
+  </si>
+  <si>
+    <t>A grouping of biomedical concepts based on some commonality or by user defined characteristics.</t>
+  </si>
+  <si>
+    <t>Biomedical Concept Category Name</t>
+  </si>
+  <si>
+    <t>The literal identifier (i.e., distinctive designation) of the biomedical concept category.</t>
+  </si>
+  <si>
+    <t>Biomedical Concept Category Description</t>
+  </si>
+  <si>
+    <t>The textual representation of the biomedical concept category.</t>
+  </si>
+  <si>
+    <t>bcCategoryMemberIds</t>
+  </si>
+  <si>
+    <t>bcCategoryParents</t>
+  </si>
+  <si>
+    <t>bcCategoryChildren</t>
+  </si>
+  <si>
+    <t>bcCategoryName</t>
+  </si>
+  <si>
+    <t>bcCategoryDescription</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3019,12 +3263,6 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3158,7 +3396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3298,9 +3536,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3316,7 +3551,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3324,6 +3559,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3631,7 +3890,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I157"/>
+  <dimension ref="A1:I190"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3918,7 +4177,7 @@
       <c r="D11" s="31" t="s">
         <v>844</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="53" t="s">
         <v>846</v>
       </c>
       <c r="F11" s="43" t="s">
@@ -3945,7 +4204,7 @@
       <c r="D12" s="31" t="s">
         <v>845</v>
       </c>
-      <c r="E12" s="54" t="s">
+      <c r="E12" s="53" t="s">
         <v>849</v>
       </c>
       <c r="F12" s="43" t="s">
@@ -4304,7 +4563,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" s="50" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="33">
         <v>25</v>
       </c>
@@ -4317,11 +4576,11 @@
       <c r="D26" s="42" t="s">
         <v>852</v>
       </c>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="50"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="49"/>
     </row>
     <row r="27" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A27" s="33">
@@ -4629,92 +4888,64 @@
       <c r="H40" s="28"/>
       <c r="I40" s="29"/>
     </row>
-    <row r="41" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="33">
         <v>40</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="49" t="s">
         <v>653</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D41" s="31" t="s">
-        <v>629</v>
-      </c>
-      <c r="E41" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G41" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="H41" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="I41" s="29" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
+      <c r="C41" s="49" t="s">
+        <v>648</v>
+      </c>
+      <c r="D41" s="59" t="s">
+        <v>956</v>
+      </c>
+      <c r="E41" s="29"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="29"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="33">
         <v>41</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="49" t="s">
         <v>653</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D42" s="31" t="s">
-        <v>630</v>
-      </c>
-      <c r="E42" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G42" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="H42" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
+      <c r="C42" s="49" t="s">
+        <v>648</v>
+      </c>
+      <c r="D42" s="59" t="s">
+        <v>957</v>
+      </c>
+      <c r="E42" s="29"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="29"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="33">
         <v>42</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="49" t="s">
         <v>653</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D43" s="31" t="s">
-        <v>631</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" s="45" customFormat="1" ht="112.5" x14ac:dyDescent="0.35">
+      <c r="C43" s="49" t="s">
+        <v>648</v>
+      </c>
+      <c r="D43" s="59" t="s">
+        <v>958</v>
+      </c>
+      <c r="E43" s="29"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="29"/>
+    </row>
+    <row r="44" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
       <c r="A44" s="33">
         <v>43</v>
       </c>
@@ -4725,22 +4956,22 @@
         <v>94</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>803</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>802</v>
+        <v>629</v>
+      </c>
+      <c r="E44" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G44" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="H44" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="I44" s="29" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
@@ -4754,23 +4985,25 @@
         <v>94</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>810</v>
-      </c>
-      <c r="E45" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45" s="43" t="s">
-        <v>811</v>
-      </c>
-      <c r="G45" s="47"/>
+        <v>630</v>
+      </c>
+      <c r="E45" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G45" s="43" t="s">
+        <v>36</v>
+      </c>
       <c r="H45" s="43" t="s">
-        <v>812</v>
+        <v>37</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" s="45" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
       <c r="A46" s="33">
         <v>45</v>
       </c>
@@ -4781,23 +5014,23 @@
         <v>94</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>822</v>
-      </c>
-      <c r="E46" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" s="43" t="s">
-        <v>813</v>
-      </c>
-      <c r="G46" s="47"/>
-      <c r="H46" s="43" t="s">
-        <v>814</v>
+        <v>631</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="52" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="45" customFormat="1" ht="112.5" x14ac:dyDescent="0.35">
       <c r="A47" s="33">
         <v>46</v>
       </c>
@@ -4808,23 +5041,25 @@
         <v>94</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>885</v>
-      </c>
-      <c r="E47" s="54" t="s">
-        <v>882</v>
-      </c>
-      <c r="F47" s="43" t="s">
-        <v>883</v>
-      </c>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43" t="s">
-        <v>884</v>
+        <v>803</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>815</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="52" customFormat="1" ht="75" x14ac:dyDescent="0.35">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
       <c r="A48" s="33">
         <v>47</v>
       </c>
@@ -4835,138 +5070,138 @@
         <v>94</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>907</v>
+        <v>810</v>
       </c>
       <c r="E48" s="43" t="s">
-        <v>908</v>
+        <v>16</v>
       </c>
       <c r="F48" s="43" t="s">
-        <v>909</v>
-      </c>
-      <c r="G48" s="43" t="s">
-        <v>910</v>
-      </c>
+        <v>811</v>
+      </c>
+      <c r="G48" s="43"/>
       <c r="H48" s="43" t="s">
-        <v>911</v>
-      </c>
-      <c r="I48" s="43" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="75" x14ac:dyDescent="0.35">
+        <v>812</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="33">
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="41" t="s">
-        <v>654</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G49" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>822</v>
+      </c>
+      <c r="E49" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" s="43" t="s">
+        <v>813</v>
+      </c>
+      <c r="G49" s="43"/>
       <c r="H49" s="43" t="s">
-        <v>904</v>
+        <v>814</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" s="51" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A50" s="33">
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D50" s="31" t="s">
-        <v>632</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>647</v>
-      </c>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4" t="s">
-        <v>692</v>
+        <v>885</v>
+      </c>
+      <c r="E50" s="53" t="s">
+        <v>882</v>
+      </c>
+      <c r="F50" s="43" t="s">
+        <v>883</v>
+      </c>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43" t="s">
+        <v>884</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="51" customFormat="1" ht="75" x14ac:dyDescent="0.35">
       <c r="A51" s="33">
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>839</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+        <v>907</v>
+      </c>
+      <c r="E51" s="43" t="s">
+        <v>908</v>
+      </c>
+      <c r="F51" s="43" t="s">
+        <v>909</v>
+      </c>
+      <c r="G51" s="43" t="s">
+        <v>910</v>
+      </c>
+      <c r="H51" s="43" t="s">
+        <v>911</v>
+      </c>
+      <c r="I51" s="43" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="75" x14ac:dyDescent="0.35">
       <c r="A52" s="33">
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D52" s="41" t="s">
-        <v>655</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>32</v>
+        <v>654</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="G52" s="4"/>
-      <c r="H52" s="4" t="s">
-        <v>31</v>
+      <c r="H52" s="43" t="s">
+        <v>904</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="75" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A53" s="33">
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>94</v>
@@ -4975,125 +5210,125 @@
         <v>632</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="75" x14ac:dyDescent="0.35">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A54" s="33">
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D54" s="31" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A55" s="33">
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D55" s="41" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4" t="s">
-        <v>642</v>
+        <v>31</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" ht="75" x14ac:dyDescent="0.35">
       <c r="A56" s="33">
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>824</v>
+        <v>632</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>145</v>
+        <v>646</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="I56" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
+        <v>693</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="75" x14ac:dyDescent="0.35">
       <c r="A57" s="33">
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D57" s="30" t="s">
-        <v>886</v>
-      </c>
-      <c r="E57" s="54" t="s">
-        <v>890</v>
-      </c>
-      <c r="F57" s="43" t="s">
-        <v>891</v>
-      </c>
-      <c r="G57" s="43"/>
-      <c r="H57" s="43" t="s">
-        <v>892</v>
-      </c>
-      <c r="I57" s="43" t="s">
-        <v>93</v>
+      <c r="D57" s="31" t="s">
+        <v>838</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
@@ -5104,22 +5339,22 @@
         <v>656</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D58" s="30" t="s">
-        <v>887</v>
-      </c>
-      <c r="E58" s="54" t="s">
-        <v>893</v>
-      </c>
-      <c r="F58" s="43" t="s">
-        <v>894</v>
-      </c>
-      <c r="G58" s="43"/>
-      <c r="H58" s="43" t="s">
-        <v>895</v>
-      </c>
-      <c r="I58" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="41" t="s">
+        <v>656</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="I58" s="1" t="s">
         <v>93</v>
       </c>
     </row>
@@ -5133,18 +5368,18 @@
       <c r="C59" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D59" s="30" t="s">
-        <v>888</v>
-      </c>
-      <c r="E59" s="54" t="s">
-        <v>896</v>
-      </c>
-      <c r="F59" s="43" t="s">
-        <v>897</v>
-      </c>
-      <c r="G59" s="43"/>
-      <c r="H59" s="43" t="s">
-        <v>898</v>
+      <c r="D59" s="31" t="s">
+        <v>824</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="I59" s="43" t="s">
         <v>93</v>
@@ -5161,93 +5396,101 @@
         <v>94</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>889</v>
-      </c>
-      <c r="E60" s="54" t="s">
-        <v>899</v>
+        <v>886</v>
+      </c>
+      <c r="E60" s="53" t="s">
+        <v>890</v>
       </c>
       <c r="F60" s="43" t="s">
-        <v>900</v>
+        <v>891</v>
       </c>
       <c r="G60" s="43"/>
       <c r="H60" s="43" t="s">
-        <v>901</v>
+        <v>892</v>
       </c>
       <c r="I60" s="43" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
       <c r="A61" s="33">
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D61" s="41" t="s">
-        <v>657</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+      <c r="D61" s="30" t="s">
+        <v>887</v>
+      </c>
+      <c r="E61" s="53" t="s">
+        <v>893</v>
+      </c>
+      <c r="F61" s="43" t="s">
+        <v>894</v>
+      </c>
+      <c r="G61" s="43"/>
+      <c r="H61" s="43" t="s">
+        <v>895</v>
+      </c>
+      <c r="I61" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
       <c r="A62" s="33">
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="D62" s="42" t="s">
-        <v>633</v>
-      </c>
-      <c r="E62" s="1"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+      <c r="D62" s="30" t="s">
+        <v>888</v>
+      </c>
+      <c r="E62" s="53" t="s">
+        <v>896</v>
+      </c>
+      <c r="F62" s="43" t="s">
+        <v>897</v>
+      </c>
+      <c r="G62" s="43"/>
+      <c r="H62" s="43" t="s">
+        <v>898</v>
+      </c>
+      <c r="I62" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
       <c r="A63" s="33">
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D63" s="31" t="s">
-        <v>837</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>93</v>
+      <c r="D63" s="30" t="s">
+        <v>889</v>
+      </c>
+      <c r="E63" s="53" t="s">
+        <v>899</v>
+      </c>
+      <c r="F63" s="43" t="s">
+        <v>900</v>
+      </c>
+      <c r="G63" s="43"/>
+      <c r="H63" s="43" t="s">
+        <v>901</v>
+      </c>
+      <c r="I63" s="43" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
@@ -5258,107 +5501,99 @@
         <v>657</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D64" s="31" t="s">
-        <v>634</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>736</v>
+        <v>4</v>
+      </c>
+      <c r="D64" s="41" t="s">
+        <v>657</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>153</v>
+        <v>20</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="87.5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="33">
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D65" s="41" t="s">
-        <v>658</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>23</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="D65" s="42" t="s">
+        <v>633</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="4"/>
       <c r="G65" s="4"/>
-      <c r="H65" s="43" t="s">
-        <v>905</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="H65" s="4"/>
+      <c r="I65" s="1"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="33">
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D66" s="30" t="s">
-        <v>836</v>
+      <c r="D66" s="31" t="s">
+        <v>837</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>739</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G66" s="3"/>
+        <v>122</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G66" s="4"/>
       <c r="H66" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="I66" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A67" s="33">
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D67" s="31" t="s">
-        <v>835</v>
+        <v>634</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+        <v>516</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="87.5" x14ac:dyDescent="0.35">
       <c r="A68" s="33">
         <v>67</v>
       </c>
@@ -5366,91 +5601,107 @@
         <v>658</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D68" s="31" t="s">
-        <v>635</v>
-      </c>
-      <c r="E68" s="43" t="s">
-        <v>741</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3" t="s">
-        <v>508</v>
+        <v>4</v>
+      </c>
+      <c r="D68" s="41" t="s">
+        <v>658</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G68" s="4"/>
+      <c r="H68" s="43" t="s">
+        <v>905</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="33">
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D69" s="41" t="s">
-        <v>659</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G69" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="D69" s="30" t="s">
+        <v>836</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G69" s="3"/>
       <c r="H69" s="4" t="s">
-        <v>644</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+      <c r="I69" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A70" s="33">
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="D70" s="42" t="s">
-        <v>636</v>
-      </c>
-      <c r="E70" s="1"/>
-      <c r="F70" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="D70" s="31" t="s">
+        <v>835</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H70" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A71" s="33">
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="D71" s="42" t="s">
-        <v>568</v>
-      </c>
-      <c r="E71" s="1"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="1"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+      <c r="D71" s="31" t="s">
+        <v>635</v>
+      </c>
+      <c r="E71" s="43" t="s">
+        <v>741</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A72" s="33">
         <v>71</v>
       </c>
@@ -5458,99 +5709,83 @@
         <v>659</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="D72" s="42" t="s">
-        <v>581</v>
-      </c>
-      <c r="E72" s="1"/>
-      <c r="F72" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="D72" s="41" t="s">
+        <v>659</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="1"/>
-    </row>
-    <row r="73" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+      <c r="H72" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="33">
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D73" s="41" t="s">
-        <v>660</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>51</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="D73" s="42" t="s">
+        <v>636</v>
+      </c>
+      <c r="E73" s="1"/>
+      <c r="F73" s="4"/>
       <c r="G73" s="4"/>
-      <c r="H73" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="H73" s="4"/>
+      <c r="I73" s="1"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="33">
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D74" s="31" t="s">
-        <v>637</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>105</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="D74" s="42" t="s">
+        <v>568</v>
+      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" s="4"/>
       <c r="G74" s="4"/>
-      <c r="H74" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="H74" s="3"/>
+      <c r="I74" s="1"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="33">
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D75" s="31" t="s">
-        <v>834</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>104</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="D75" s="42" t="s">
+        <v>581</v>
+      </c>
+      <c r="E75" s="1"/>
+      <c r="F75" s="4"/>
       <c r="G75" s="4"/>
-      <c r="H75" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="H75" s="4"/>
+      <c r="I75" s="1"/>
+    </row>
+    <row r="76" spans="1:9" ht="50" x14ac:dyDescent="0.35">
       <c r="A76" s="33">
         <v>75</v>
       </c>
@@ -5558,26 +5793,26 @@
         <v>660</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D76" s="31" t="s">
-        <v>638</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>743</v>
+        <v>4</v>
+      </c>
+      <c r="D76" s="41" t="s">
+        <v>660</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>522</v>
+        <v>51</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="4" t="s">
-        <v>523</v>
+        <v>52</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="33">
         <v>76</v>
       </c>
@@ -5588,23 +5823,23 @@
         <v>94</v>
       </c>
       <c r="D77" s="31" t="s">
-        <v>833</v>
+        <v>637</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>744</v>
+        <v>138</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="I77" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+        <v>509</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="33">
         <v>77</v>
       </c>
@@ -5615,96 +5850,104 @@
         <v>94</v>
       </c>
       <c r="D78" s="31" t="s">
-        <v>639</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>745</v>
+        <v>834</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="G78" s="4"/>
-      <c r="H78" s="3" t="s">
-        <v>54</v>
+      <c r="H78" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A79" s="33">
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D79" s="41" t="s">
-        <v>661</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>62</v>
+        <v>94</v>
+      </c>
+      <c r="D79" s="31" t="s">
+        <v>638</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>743</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>60</v>
+        <v>522</v>
       </c>
       <c r="G79" s="4"/>
-      <c r="H79" s="3" t="s">
-        <v>61</v>
+      <c r="H79" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A80" s="33">
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="D80" s="42" t="s">
-        <v>569</v>
-      </c>
-      <c r="E80" s="1"/>
-      <c r="F80" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="D80" s="31" t="s">
+        <v>833</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="G80" s="4"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+      <c r="H80" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="I80" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A81" s="33">
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D81" s="31" t="s">
-        <v>564</v>
+        <v>639</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>64</v>
+        <v>745</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="3" t="s">
-        <v>510</v>
+        <v>54</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A82" s="33">
         <v>81</v>
       </c>
@@ -5712,26 +5955,26 @@
         <v>661</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D82" s="31" t="s">
-        <v>832</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>746</v>
+        <v>4</v>
+      </c>
+      <c r="D82" s="41" t="s">
+        <v>661</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="G82" s="4"/>
-      <c r="H82" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="I82" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+      <c r="H82" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="33">
         <v>82</v>
       </c>
@@ -5739,26 +5982,18 @@
         <v>661</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D83" s="31" t="s">
-        <v>565</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>747</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>65</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="D83" s="42" t="s">
+        <v>569</v>
+      </c>
+      <c r="E83" s="1"/>
+      <c r="F83" s="4"/>
       <c r="G83" s="4"/>
-      <c r="H83" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I83" s="4" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="H83" s="3"/>
+      <c r="I83" s="1"/>
+    </row>
+    <row r="84" spans="1:9" ht="50" x14ac:dyDescent="0.35">
       <c r="A84" s="33">
         <v>83</v>
       </c>
@@ -5769,23 +6004,23 @@
         <v>94</v>
       </c>
       <c r="D84" s="31" t="s">
-        <v>566</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>748</v>
+        <v>564</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>579</v>
+        <v>63</v>
       </c>
       <c r="G84" s="4"/>
-      <c r="H84" s="4" t="s">
-        <v>714</v>
-      </c>
-      <c r="I84" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="H84" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="33">
         <v>84</v>
       </c>
@@ -5796,17 +6031,17 @@
         <v>94</v>
       </c>
       <c r="D85" s="31" t="s">
-        <v>567</v>
+        <v>832</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>580</v>
+        <v>106</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="4" t="s">
-        <v>715</v>
+        <v>133</v>
       </c>
       <c r="I85" s="43" t="s">
         <v>93</v>
@@ -5817,67 +6052,83 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D86" s="41" t="s">
-        <v>662</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>49</v>
+        <v>94</v>
+      </c>
+      <c r="D86" s="31" t="s">
+        <v>565</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>747</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A87" s="33">
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="D87" s="42" t="s">
-        <v>570</v>
-      </c>
-      <c r="E87" s="1"/>
-      <c r="F87" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="D87" s="31" t="s">
+        <v>566</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>579</v>
+      </c>
       <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="1"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H87" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="I87" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A88" s="33">
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="D88" s="42" t="s">
-        <v>571</v>
-      </c>
-      <c r="E88" s="1"/>
-      <c r="F88" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="D88" s="31" t="s">
+        <v>567</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>580</v>
+      </c>
       <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="1"/>
-    </row>
-    <row r="89" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="H88" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="I88" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="50" x14ac:dyDescent="0.35">
       <c r="A89" s="33">
         <v>88</v>
       </c>
@@ -5885,26 +6136,26 @@
         <v>662</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D89" s="31" t="s">
-        <v>582</v>
+        <v>4</v>
+      </c>
+      <c r="D89" s="41" t="s">
+        <v>662</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>750</v>
+        <v>49</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="4" t="s">
-        <v>511</v>
+        <v>48</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="33">
         <v>89</v>
       </c>
@@ -5912,145 +6163,145 @@
         <v>662</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D90" s="31" t="s">
-        <v>831</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>107</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="D90" s="42" t="s">
+        <v>570</v>
+      </c>
+      <c r="E90" s="1"/>
+      <c r="F90" s="4"/>
       <c r="G90" s="4"/>
-      <c r="H90" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="H90" s="4"/>
+      <c r="I90" s="1"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="33">
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D91" s="41" t="s">
-        <v>663</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>78</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="D91" s="42" t="s">
+        <v>571</v>
+      </c>
+      <c r="E91" s="1"/>
+      <c r="F91" s="4"/>
       <c r="G91" s="4"/>
-      <c r="H91" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H91" s="4"/>
+      <c r="I91" s="1"/>
+    </row>
+    <row r="92" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A92" s="33">
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D92" s="31" t="s">
-        <v>830</v>
+        <v>582</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="4" t="s">
-        <v>135</v>
+        <v>511</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A93" s="33">
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C93" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D93" s="31" t="s">
+        <v>831</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A94" s="33">
+        <v>93</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D93" s="41" t="s">
-        <v>664</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G93" s="4"/>
-      <c r="H93" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A94" s="33">
-        <v>93</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>664</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="D94" s="42" t="s">
-        <v>570</v>
-      </c>
-      <c r="E94" s="1"/>
-      <c r="F94" s="4"/>
+      <c r="D94" s="41" t="s">
+        <v>663</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="G94" s="4"/>
-      <c r="H94" s="3"/>
-      <c r="I94" s="1"/>
+      <c r="H94" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="33">
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="D95" s="42" t="s">
-        <v>571</v>
-      </c>
-      <c r="E95" s="1"/>
-      <c r="F95" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="D95" s="31" t="s">
+        <v>830</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="G95" s="4"/>
-      <c r="H95" s="3"/>
-      <c r="I95" s="1"/>
-    </row>
-    <row r="96" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="H95" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A96" s="33">
         <v>95</v>
       </c>
@@ -6058,26 +6309,26 @@
         <v>664</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D96" s="31" t="s">
-        <v>572</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>118</v>
+        <v>4</v>
+      </c>
+      <c r="D96" s="41" t="s">
+        <v>664</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="G96" s="4"/>
-      <c r="H96" s="4" t="s">
-        <v>512</v>
+      <c r="H96" s="3" t="s">
+        <v>705</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="33">
         <v>96</v>
       </c>
@@ -6085,26 +6336,18 @@
         <v>664</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D97" s="31" t="s">
-        <v>829</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="F97" s="4" t="s">
-        <v>120</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="D97" s="42" t="s">
+        <v>570</v>
+      </c>
+      <c r="E97" s="1"/>
+      <c r="F97" s="4"/>
       <c r="G97" s="4"/>
-      <c r="H97" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="I97" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="H97" s="3"/>
+      <c r="I97" s="1"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="33">
         <v>97</v>
       </c>
@@ -6112,24 +6355,16 @@
         <v>664</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D98" s="31" t="s">
-        <v>576</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>754</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>584</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="D98" s="42" t="s">
+        <v>571</v>
+      </c>
+      <c r="E98" s="1"/>
+      <c r="F98" s="4"/>
       <c r="G98" s="4"/>
-      <c r="H98" s="4" t="s">
-        <v>716</v>
-      </c>
-      <c r="I98" s="43" t="s">
-        <v>93</v>
-      </c>
+      <c r="H98" s="3"/>
+      <c r="I98" s="1"/>
     </row>
     <row r="99" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A99" s="33">
@@ -6142,23 +6377,23 @@
         <v>94</v>
       </c>
       <c r="D99" s="31" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>755</v>
+        <v>118</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>585</v>
+        <v>119</v>
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="4" t="s">
-        <v>717</v>
-      </c>
-      <c r="I99" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+        <v>512</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A100" s="33">
         <v>99</v>
       </c>
@@ -6169,20 +6404,20 @@
         <v>94</v>
       </c>
       <c r="D100" s="31" t="s">
-        <v>573</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>756</v>
+        <v>829</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>753</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="G100" s="4"/>
-      <c r="H100" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>786</v>
+      <c r="H100" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I100" s="43" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -6196,20 +6431,20 @@
         <v>94</v>
       </c>
       <c r="D101" s="31" t="s">
-        <v>574</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>757</v>
+        <v>576</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>754</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>70</v>
+        <v>584</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>703</v>
+        <v>716</v>
+      </c>
+      <c r="I101" s="43" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -6223,20 +6458,20 @@
         <v>94</v>
       </c>
       <c r="D102" s="31" t="s">
-        <v>843</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>758</v>
+        <v>577</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>755</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>72</v>
+        <v>585</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>704</v>
+        <v>717</v>
+      </c>
+      <c r="I102" s="43" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
@@ -6244,67 +6479,83 @@
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D103" s="41" t="s">
-        <v>665</v>
+        <v>94</v>
+      </c>
+      <c r="D103" s="31" t="s">
+        <v>573</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>87</v>
+        <v>756</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="3" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A104" s="33">
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="D104" s="42" t="s">
-        <v>587</v>
-      </c>
-      <c r="E104" s="1"/>
-      <c r="F104" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="D104" s="31" t="s">
+        <v>574</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="G104" s="4"/>
-      <c r="H104" s="3"/>
-      <c r="I104" s="1"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H104" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A105" s="33">
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="D105" s="42" t="s">
-        <v>588</v>
-      </c>
-      <c r="E105" s="1"/>
-      <c r="F105" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="D105" s="31" t="s">
+        <v>843</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="G105" s="4"/>
-      <c r="H105" s="3"/>
-      <c r="I105" s="1"/>
-    </row>
-    <row r="106" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="H105" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A106" s="33">
         <v>105</v>
       </c>
@@ -6312,26 +6563,26 @@
         <v>665</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D106" s="31" t="s">
-        <v>589</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>759</v>
+        <v>4</v>
+      </c>
+      <c r="D106" s="41" t="s">
+        <v>665</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>595</v>
+        <v>58</v>
       </c>
       <c r="G106" s="4"/>
-      <c r="H106" s="4" t="s">
-        <v>696</v>
-      </c>
-      <c r="I106" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="H106" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="33">
         <v>106</v>
       </c>
@@ -6339,26 +6590,18 @@
         <v>665</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D107" s="31" t="s">
-        <v>828</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>552</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="D107" s="42" t="s">
+        <v>587</v>
+      </c>
+      <c r="E107" s="1"/>
+      <c r="F107" s="4"/>
       <c r="G107" s="4"/>
-      <c r="H107" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="I107" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="H107" s="3"/>
+      <c r="I107" s="1"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="33">
         <v>107</v>
       </c>
@@ -6366,130 +6609,98 @@
         <v>665</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D108" s="31" t="s">
-        <v>590</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>760</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>592</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="D108" s="42" t="s">
+        <v>588</v>
+      </c>
+      <c r="E108" s="1"/>
+      <c r="F108" s="4"/>
       <c r="G108" s="4"/>
-      <c r="H108" s="4" t="s">
-        <v>718</v>
-      </c>
-      <c r="I108" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="H108" s="3"/>
+      <c r="I108" s="1"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="33">
         <v>108</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="48" t="s">
         <v>665</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D109" s="31" t="s">
-        <v>591</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>761</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>593</v>
-      </c>
+      <c r="C109" s="49" t="s">
+        <v>648</v>
+      </c>
+      <c r="D109" s="59" t="s">
+        <v>956</v>
+      </c>
+      <c r="E109" s="1"/>
+      <c r="F109" s="4"/>
       <c r="G109" s="4"/>
-      <c r="H109" s="4" t="s">
-        <v>719</v>
-      </c>
-      <c r="I109" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="H109" s="3"/>
+      <c r="I109" s="1"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="33">
         <v>109</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="48" t="s">
         <v>665</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D110" s="31" t="s">
-        <v>933</v>
-      </c>
-      <c r="E110" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F110" s="43" t="s">
-        <v>930</v>
-      </c>
-      <c r="G110" s="47"/>
-      <c r="H110" s="43" t="s">
-        <v>931</v>
-      </c>
-      <c r="I110" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="C110" s="49" t="s">
+        <v>648</v>
+      </c>
+      <c r="D110" s="59" t="s">
+        <v>957</v>
+      </c>
+      <c r="E110" s="1"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="1"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="33">
         <v>110</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B111" s="48" t="s">
         <v>665</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D111" s="31" t="s">
-        <v>934</v>
-      </c>
-      <c r="E111" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F111" s="43" t="s">
-        <v>932</v>
-      </c>
-      <c r="G111" s="47"/>
-      <c r="H111" s="43" t="s">
-        <v>935</v>
-      </c>
-      <c r="I111" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C111" s="49" t="s">
+        <v>648</v>
+      </c>
+      <c r="D111" s="59" t="s">
+        <v>958</v>
+      </c>
+      <c r="E111" s="1"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="1"/>
+    </row>
+    <row r="112" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A112" s="33">
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D112" s="41" t="s">
-        <v>666</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>762</v>
+        <v>94</v>
+      </c>
+      <c r="D112" s="31" t="s">
+        <v>589</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>759</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>74</v>
+        <v>595</v>
       </c>
       <c r="G112" s="4"/>
-      <c r="H112" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I112" s="1" t="s">
+      <c r="H112" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="I112" s="4" t="s">
         <v>93</v>
       </c>
     </row>
@@ -6498,25 +6709,25 @@
         <v>112</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D113" s="31" t="s">
-        <v>594</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>763</v>
+        <v>828</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>551</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>150</v>
+        <v>552</v>
       </c>
       <c r="G113" s="4"/>
-      <c r="H113" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="I113" s="43" t="s">
+      <c r="H113" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="I113" s="4" t="s">
         <v>93</v>
       </c>
     </row>
@@ -6525,23 +6736,23 @@
         <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D114" s="31" t="s">
-        <v>827</v>
+        <v>590</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>151</v>
+        <v>592</v>
       </c>
       <c r="G114" s="4"/>
       <c r="H114" s="4" t="s">
-        <v>126</v>
+        <v>718</v>
       </c>
       <c r="I114" s="43" t="s">
         <v>93</v>
@@ -6552,107 +6763,107 @@
         <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D115" s="31" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>645</v>
+        <v>593</v>
       </c>
       <c r="G115" s="4"/>
       <c r="H115" s="4" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="I115" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A116" s="33">
         <v>115</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>88</v>
+        <v>665</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D116" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G116" s="4"/>
-      <c r="H116" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I116" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+      <c r="D116" s="31" t="s">
+        <v>933</v>
+      </c>
+      <c r="E116" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F116" s="43" t="s">
+        <v>930</v>
+      </c>
+      <c r="G116" s="43"/>
+      <c r="H116" s="43" t="s">
+        <v>931</v>
+      </c>
+      <c r="I116" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A117" s="33">
         <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>88</v>
+        <v>665</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D117" s="31" t="s">
-        <v>597</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>766</v>
-      </c>
-      <c r="F117" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="G117" s="4"/>
-      <c r="H117" s="4" t="s">
-        <v>694</v>
-      </c>
-      <c r="I117" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+        <v>934</v>
+      </c>
+      <c r="E117" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F117" s="43" t="s">
+        <v>932</v>
+      </c>
+      <c r="G117" s="43"/>
+      <c r="H117" s="43" t="s">
+        <v>935</v>
+      </c>
+      <c r="I117" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="33">
         <v>117</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>88</v>
+        <v>666</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D118" s="31" t="s">
-        <v>598</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>139</v>
+        <v>4</v>
+      </c>
+      <c r="D118" s="41" t="s">
+        <v>666</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>762</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="G118" s="4"/>
-      <c r="H118" s="4" t="s">
-        <v>140</v>
+      <c r="H118" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -6660,23 +6871,23 @@
         <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>88</v>
+        <v>666</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D119" s="31" t="s">
-        <v>940</v>
-      </c>
-      <c r="E119" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F119" s="43" t="s">
-        <v>936</v>
-      </c>
-      <c r="G119" s="47"/>
-      <c r="H119" s="43" t="s">
-        <v>938</v>
+        <v>594</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4" t="s">
+        <v>514</v>
       </c>
       <c r="I119" s="43" t="s">
         <v>93</v>
@@ -6687,269 +6898,285 @@
         <v>119</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>88</v>
+        <v>666</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D120" s="31" t="s">
-        <v>941</v>
-      </c>
-      <c r="E120" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F120" s="43" t="s">
-        <v>937</v>
-      </c>
-      <c r="G120" s="47"/>
-      <c r="H120" s="43" t="s">
-        <v>939</v>
+        <v>827</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="I120" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A121" s="33">
         <v>120</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>601</v>
+        <v>666</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D121" s="41" t="s">
-        <v>601</v>
+        <v>94</v>
+      </c>
+      <c r="D121" s="31" t="s">
+        <v>596</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>600</v>
+        <v>765</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>601</v>
+        <v>645</v>
       </c>
       <c r="G121" s="4"/>
       <c r="H121" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="I121" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+        <v>713</v>
+      </c>
+      <c r="I121" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A122" s="33">
         <v>121</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>601</v>
+        <v>88</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="D122" s="42" t="s">
-        <v>602</v>
-      </c>
-      <c r="E122" s="4"/>
-      <c r="F122" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="D122" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="G122" s="4"/>
-      <c r="H122" s="4"/>
-      <c r="I122" s="4"/>
+      <c r="H122" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="33">
         <v>122</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>601</v>
+        <v>88</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D123" s="31" t="s">
-        <v>826</v>
+        <v>597</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G123" s="4"/>
       <c r="H123" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="I123" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+        <v>694</v>
+      </c>
+      <c r="I123" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="50" x14ac:dyDescent="0.35">
       <c r="A124" s="33">
         <v>123</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>667</v>
-      </c>
-      <c r="C124" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D124" s="41" t="s">
-        <v>667</v>
+        <v>88</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D124" s="31" t="s">
+        <v>598</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>768</v>
+        <v>139</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G124" s="4"/>
       <c r="H124" s="4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A125" s="33">
         <v>124</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>667</v>
+        <v>88</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="D125" s="42" t="s">
-        <v>583</v>
-      </c>
-      <c r="E125" s="4"/>
-      <c r="F125" s="4"/>
-      <c r="G125" s="4"/>
-      <c r="H125" s="4"/>
-      <c r="I125" s="43"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+      <c r="D125" s="31" t="s">
+        <v>940</v>
+      </c>
+      <c r="E125" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F125" s="43" t="s">
+        <v>936</v>
+      </c>
+      <c r="G125" s="43"/>
+      <c r="H125" s="43" t="s">
+        <v>938</v>
+      </c>
+      <c r="I125" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A126" s="33">
         <v>125</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>667</v>
+        <v>88</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="D126" s="42" t="s">
-        <v>586</v>
-      </c>
-      <c r="E126" s="4"/>
-      <c r="F126" s="4"/>
-      <c r="G126" s="4"/>
-      <c r="H126" s="4"/>
-      <c r="I126" s="43"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+      <c r="D126" s="31" t="s">
+        <v>941</v>
+      </c>
+      <c r="E126" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F126" s="43" t="s">
+        <v>937</v>
+      </c>
+      <c r="G126" s="43"/>
+      <c r="H126" s="43" t="s">
+        <v>939</v>
+      </c>
+      <c r="I126" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="50" x14ac:dyDescent="0.35">
       <c r="A127" s="33">
         <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>667</v>
+        <v>601</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D127" s="30" t="s">
-        <v>825</v>
+        <v>4</v>
+      </c>
+      <c r="D127" s="41" t="s">
+        <v>601</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>109</v>
+        <v>600</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>601</v>
       </c>
       <c r="G127" s="4"/>
       <c r="H127" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="I127" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+        <v>599</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="33">
         <v>127</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>667</v>
+        <v>601</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D128" s="30" t="s">
-        <v>603</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>769</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>605</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="D128" s="42" t="s">
+        <v>602</v>
+      </c>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
       <c r="G128" s="4"/>
-      <c r="H128" s="4" t="s">
-        <v>720</v>
-      </c>
-      <c r="I128" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="H128" s="4"/>
+      <c r="I128" s="4"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="33">
         <v>128</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>667</v>
+        <v>601</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D129" s="30" t="s">
-        <v>604</v>
+      <c r="D129" s="31" t="s">
+        <v>826</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>606</v>
+        <v>116</v>
       </c>
       <c r="G129" s="4"/>
       <c r="H129" s="4" t="s">
-        <v>721</v>
+        <v>130</v>
       </c>
       <c r="I129" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="33">
         <v>129</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C130" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="C130" s="43" t="s">
         <v>4</v>
       </c>
       <c r="D130" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>771</v>
+        <v>667</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>768</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="G130" s="4"/>
       <c r="H130" s="4" t="s">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="I130" s="1" t="s">
         <v>93</v>
@@ -6960,369 +7187,353 @@
         <v>130</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>81</v>
+        <v>667</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>648</v>
       </c>
       <c r="D131" s="42" t="s">
-        <v>556</v>
-      </c>
-      <c r="E131" s="1"/>
+        <v>583</v>
+      </c>
+      <c r="E131" s="4"/>
       <c r="F131" s="4"/>
       <c r="G131" s="4"/>
       <c r="H131" s="4"/>
-      <c r="I131" s="1"/>
+      <c r="I131" s="43"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="33">
         <v>131</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>81</v>
+        <v>667</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>648</v>
       </c>
       <c r="D132" s="42" t="s">
-        <v>557</v>
-      </c>
-      <c r="E132" s="1"/>
+        <v>586</v>
+      </c>
+      <c r="E132" s="4"/>
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
       <c r="H132" s="4"/>
-      <c r="I132" s="1"/>
+      <c r="I132" s="43"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" s="33">
         <v>132</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>81</v>
+        <v>667</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="D133" s="42" t="s">
-        <v>563</v>
-      </c>
-      <c r="E133" s="1"/>
-      <c r="F133" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="D133" s="30" t="s">
+        <v>825</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="G133" s="4"/>
-      <c r="H133" s="4"/>
-      <c r="I133" s="1"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H133" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="I133" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A134" s="33">
         <v>133</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>81</v>
+        <v>667</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="D134" s="42" t="s">
-        <v>562</v>
-      </c>
-      <c r="E134" s="1"/>
-      <c r="F134" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="D134" s="30" t="s">
+        <v>603</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>605</v>
+      </c>
       <c r="G134" s="4"/>
-      <c r="H134" s="4"/>
-      <c r="I134" s="1"/>
+      <c r="H134" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="I134" s="43" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="135" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A135" s="33">
         <v>134</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>81</v>
+        <v>667</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D135" s="31" t="s">
-        <v>560</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>772</v>
+      <c r="D135" s="30" t="s">
+        <v>604</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>770</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>83</v>
+        <v>606</v>
       </c>
       <c r="G135" s="4"/>
       <c r="H135" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I135" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="75" x14ac:dyDescent="0.35">
+        <v>721</v>
+      </c>
+      <c r="I135" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A136" s="33">
         <v>135</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>668</v>
+        <v>81</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D136" s="41" t="s">
-        <v>668</v>
+        <v>81</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G136" s="4"/>
       <c r="H136" s="4" t="s">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="I136" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="33">
         <v>136</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>668</v>
+        <v>81</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D137" s="31" t="s">
-        <v>824</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="F137" s="4" t="s">
-        <v>146</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="D137" s="42" t="s">
+        <v>556</v>
+      </c>
+      <c r="E137" s="1"/>
+      <c r="F137" s="4"/>
       <c r="G137" s="4"/>
-      <c r="H137" s="4" t="s">
-        <v>643</v>
-      </c>
-      <c r="I137" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+      <c r="H137" s="4"/>
+      <c r="I137" s="1"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" s="33">
         <v>137</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>669</v>
+        <v>81</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D138" s="41" t="s">
-        <v>669</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="F138" s="4" t="s">
-        <v>30</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="D138" s="42" t="s">
+        <v>557</v>
+      </c>
+      <c r="E138" s="1"/>
+      <c r="F138" s="4"/>
       <c r="G138" s="4"/>
-      <c r="H138" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="I138" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="H138" s="4"/>
+      <c r="I138" s="1"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="33">
         <v>138</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>669</v>
+        <v>81</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D139" s="31" t="s">
-        <v>558</v>
-      </c>
-      <c r="E139" s="4" t="s">
-        <v>775</v>
-      </c>
-      <c r="F139" s="4" t="s">
-        <v>112</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="D139" s="42" t="s">
+        <v>563</v>
+      </c>
+      <c r="E139" s="1"/>
+      <c r="F139" s="4"/>
       <c r="G139" s="4"/>
-      <c r="H139" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="I139" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="H139" s="4"/>
+      <c r="I139" s="1"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" s="33">
         <v>139</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>669</v>
+        <v>81</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D140" s="31" t="s">
-        <v>823</v>
-      </c>
-      <c r="E140" s="4" t="s">
-        <v>776</v>
-      </c>
-      <c r="F140" s="4" t="s">
-        <v>113</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="D140" s="42" t="s">
+        <v>562</v>
+      </c>
+      <c r="E140" s="1"/>
+      <c r="F140" s="4"/>
       <c r="G140" s="4"/>
-      <c r="H140" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="I140" s="43" t="s">
-        <v>93</v>
-      </c>
+      <c r="H140" s="4"/>
+      <c r="I140" s="1"/>
     </row>
     <row r="141" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A141" s="33">
         <v>140</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>669</v>
+        <v>81</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D141" s="46" t="s">
-        <v>559</v>
-      </c>
-      <c r="E141" s="33" t="s">
-        <v>777</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G141" s="33"/>
+      <c r="D141" s="31" t="s">
+        <v>560</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G141" s="4"/>
       <c r="H141" s="4" t="s">
-        <v>712</v>
-      </c>
-      <c r="I141" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="75" x14ac:dyDescent="0.35">
       <c r="A142" s="33">
         <v>141</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D142" s="41" t="s">
-        <v>672</v>
-      </c>
-      <c r="E142" s="4" t="s">
-        <v>678</v>
+        <v>668</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>773</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>672</v>
-      </c>
-      <c r="G142" s="35"/>
+        <v>85</v>
+      </c>
+      <c r="G142" s="4"/>
       <c r="H142" s="4" t="s">
-        <v>677</v>
-      </c>
-      <c r="I142" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A143" s="33">
         <v>142</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D143" s="31" t="s">
-        <v>673</v>
-      </c>
-      <c r="E143" s="4" t="s">
-        <v>778</v>
+        <v>824</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>773</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>707</v>
-      </c>
-      <c r="G143" s="35"/>
+        <v>146</v>
+      </c>
+      <c r="G143" s="4"/>
       <c r="H143" s="4" t="s">
-        <v>708</v>
+        <v>643</v>
       </c>
       <c r="I143" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" ht="50" x14ac:dyDescent="0.35">
       <c r="A144" s="33">
         <v>143</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D144" s="31" t="s">
-        <v>674</v>
-      </c>
-      <c r="E144" s="4" t="s">
-        <v>779</v>
+        <v>4</v>
+      </c>
+      <c r="D144" s="41" t="s">
+        <v>669</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>774</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>706</v>
+        <v>30</v>
       </c>
       <c r="G144" s="4"/>
       <c r="H144" s="4" t="s">
-        <v>709</v>
-      </c>
-      <c r="I144" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A145" s="33">
         <v>144</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D145" s="31" t="s">
-        <v>675</v>
+        <v>558</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>679</v>
+        <v>112</v>
       </c>
       <c r="G145" s="4"/>
       <c r="H145" s="4" t="s">
-        <v>710</v>
+        <v>513</v>
       </c>
       <c r="I145" s="43" t="s">
         <v>93</v>
@@ -7333,23 +7544,23 @@
         <v>145</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D146" s="31" t="s">
-        <v>676</v>
+        <v>823</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>695</v>
-      </c>
-      <c r="G146" s="35"/>
+        <v>113</v>
+      </c>
+      <c r="G146" s="4"/>
       <c r="H146" s="4" t="s">
-        <v>711</v>
+        <v>127</v>
       </c>
       <c r="I146" s="43" t="s">
         <v>93</v>
@@ -7359,289 +7570,1144 @@
       <c r="A147" s="33">
         <v>146</v>
       </c>
-      <c r="B147" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="C147" s="33" t="s">
-        <v>816</v>
-      </c>
-      <c r="D147" s="41" t="s">
-        <v>817</v>
+      <c r="B147" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D147" s="46" t="s">
+        <v>559</v>
       </c>
       <c r="E147" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="F147" s="33" t="s">
-        <v>818</v>
+        <v>777</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>578</v>
       </c>
       <c r="G147" s="33"/>
-      <c r="H147" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="I147" s="33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H147" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="I147" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A148" s="33">
         <v>147</v>
       </c>
-      <c r="B148" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="C148" s="33" t="s">
-        <v>648</v>
-      </c>
-      <c r="D148" s="48" t="s">
-        <v>820</v>
-      </c>
-      <c r="E148" s="33"/>
-      <c r="F148" s="33"/>
-      <c r="G148" s="33"/>
-      <c r="H148" s="33"/>
-      <c r="I148" s="33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="B148" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D148" s="41" t="s">
+        <v>672</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="G148" s="35"/>
+      <c r="H148" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="I148" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="33">
         <v>148</v>
       </c>
-      <c r="B149" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="C149" s="33" t="s">
-        <v>648</v>
-      </c>
-      <c r="D149" s="48" t="s">
-        <v>821</v>
-      </c>
-      <c r="E149" s="33"/>
-      <c r="F149" s="33"/>
-      <c r="G149" s="33"/>
-      <c r="H149" s="33"/>
-      <c r="I149" s="33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" s="51" customFormat="1" ht="25" x14ac:dyDescent="0.35">
+      <c r="B149" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D149" s="31" t="s">
+        <v>673</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="G149" s="35"/>
+      <c r="H149" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="I149" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A150" s="33">
         <v>149</v>
       </c>
-      <c r="B150" s="33" t="s">
-        <v>853</v>
-      </c>
-      <c r="C150" s="55" t="s">
-        <v>816</v>
-      </c>
-      <c r="D150" s="41" t="s">
-        <v>817</v>
-      </c>
-      <c r="E150" s="54" t="s">
-        <v>880</v>
-      </c>
-      <c r="F150" s="43" t="s">
-        <v>853</v>
-      </c>
-      <c r="G150" s="47"/>
-      <c r="H150" s="43" t="s">
-        <v>881</v>
-      </c>
-      <c r="I150" s="33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" s="51" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="B150" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D150" s="31" t="s">
+        <v>674</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="G150" s="4"/>
+      <c r="H150" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="I150" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="33">
         <v>150</v>
       </c>
-      <c r="B151" s="33" t="s">
-        <v>853</v>
-      </c>
-      <c r="C151" s="55" t="s">
+      <c r="B151" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D151" s="30" t="s">
-        <v>854</v>
-      </c>
-      <c r="E151" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="F151" s="43" t="s">
-        <v>861</v>
-      </c>
-      <c r="G151" s="47"/>
-      <c r="H151" s="43" t="s">
-        <v>862</v>
-      </c>
-      <c r="I151" s="33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" s="51" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="D151" s="31" t="s">
+        <v>675</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="G151" s="4"/>
+      <c r="H151" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="I151" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A152" s="33">
         <v>151</v>
       </c>
-      <c r="B152" s="33" t="s">
-        <v>853</v>
-      </c>
-      <c r="C152" s="55" t="s">
+      <c r="B152" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D152" s="30" t="s">
-        <v>855</v>
-      </c>
-      <c r="E152" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F152" s="43" t="s">
-        <v>863</v>
-      </c>
-      <c r="G152" s="47"/>
-      <c r="H152" s="43" t="s">
-        <v>864</v>
-      </c>
-      <c r="I152" s="33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" s="51" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="D152" s="31" t="s">
+        <v>676</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="G152" s="35"/>
+      <c r="H152" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="I152" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A153" s="33">
         <v>152</v>
       </c>
-      <c r="B153" s="33" t="s">
-        <v>853</v>
-      </c>
-      <c r="C153" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="D153" s="30" t="s">
-        <v>856</v>
-      </c>
-      <c r="E153" s="54" t="s">
-        <v>865</v>
-      </c>
-      <c r="F153" s="43" t="s">
-        <v>866</v>
-      </c>
-      <c r="G153" s="47"/>
-      <c r="H153" s="43" t="s">
-        <v>867</v>
+      <c r="B153" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C153" s="33" t="s">
+        <v>816</v>
+      </c>
+      <c r="D153" s="41" t="s">
+        <v>817</v>
+      </c>
+      <c r="E153" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F153" s="33" t="s">
+        <v>818</v>
+      </c>
+      <c r="G153" s="33"/>
+      <c r="H153" s="1" t="s">
+        <v>819</v>
       </c>
       <c r="I153" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="154" spans="1:9" s="51" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" s="33">
         <v>153</v>
       </c>
-      <c r="B154" s="33" t="s">
-        <v>853</v>
-      </c>
-      <c r="C154" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="D154" s="30" t="s">
-        <v>857</v>
-      </c>
-      <c r="E154" s="54" t="s">
-        <v>868</v>
-      </c>
-      <c r="F154" s="43" t="s">
-        <v>869</v>
-      </c>
-      <c r="G154" s="47"/>
-      <c r="H154" s="43" t="s">
-        <v>870</v>
-      </c>
+      <c r="B154" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C154" s="33" t="s">
+        <v>648</v>
+      </c>
+      <c r="D154" s="47" t="s">
+        <v>820</v>
+      </c>
+      <c r="E154" s="33"/>
+      <c r="F154" s="33"/>
+      <c r="G154" s="33"/>
+      <c r="H154" s="33"/>
       <c r="I154" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="155" spans="1:9" s="51" customFormat="1" ht="50" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A155" s="33">
         <v>154</v>
       </c>
-      <c r="B155" s="33" t="s">
-        <v>853</v>
-      </c>
-      <c r="C155" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="D155" s="30" t="s">
-        <v>858</v>
-      </c>
-      <c r="E155" s="54" t="s">
-        <v>871</v>
-      </c>
-      <c r="F155" s="43" t="s">
-        <v>872</v>
-      </c>
-      <c r="G155" s="47"/>
-      <c r="H155" s="43" t="s">
-        <v>873</v>
-      </c>
+      <c r="B155" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C155" s="33" t="s">
+        <v>648</v>
+      </c>
+      <c r="D155" s="47" t="s">
+        <v>821</v>
+      </c>
+      <c r="E155" s="33"/>
+      <c r="F155" s="33"/>
+      <c r="G155" s="33"/>
+      <c r="H155" s="33"/>
       <c r="I155" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="156" spans="1:9" s="51" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" s="50" customFormat="1" ht="25" x14ac:dyDescent="0.35">
       <c r="A156" s="33">
         <v>155</v>
       </c>
       <c r="B156" s="33" t="s">
         <v>853</v>
       </c>
-      <c r="C156" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="D156" s="30" t="s">
-        <v>859</v>
-      </c>
-      <c r="E156" s="54" t="s">
-        <v>874</v>
+      <c r="C156" s="54" t="s">
+        <v>816</v>
+      </c>
+      <c r="D156" s="41" t="s">
+        <v>817</v>
+      </c>
+      <c r="E156" s="53" t="s">
+        <v>880</v>
       </c>
       <c r="F156" s="43" t="s">
-        <v>875</v>
-      </c>
-      <c r="G156" s="47"/>
+        <v>853</v>
+      </c>
+      <c r="G156" s="43"/>
       <c r="H156" s="43" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="I156" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="157" spans="1:9" s="51" customFormat="1" ht="25" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" s="50" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A157" s="33">
         <v>156</v>
       </c>
       <c r="B157" s="33" t="s">
         <v>853</v>
       </c>
-      <c r="C157" s="55" t="s">
+      <c r="C157" s="54" t="s">
         <v>94</v>
       </c>
       <c r="D157" s="30" t="s">
+        <v>854</v>
+      </c>
+      <c r="E157" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="F157" s="43" t="s">
+        <v>861</v>
+      </c>
+      <c r="G157" s="43"/>
+      <c r="H157" s="43" t="s">
+        <v>862</v>
+      </c>
+      <c r="I157" s="33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" s="50" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A158" s="33">
+        <v>157</v>
+      </c>
+      <c r="B158" s="33" t="s">
+        <v>853</v>
+      </c>
+      <c r="C158" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="D158" s="30" t="s">
+        <v>855</v>
+      </c>
+      <c r="E158" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F158" s="43" t="s">
+        <v>863</v>
+      </c>
+      <c r="G158" s="43"/>
+      <c r="H158" s="43" t="s">
+        <v>864</v>
+      </c>
+      <c r="I158" s="33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" s="50" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A159" s="33">
+        <v>158</v>
+      </c>
+      <c r="B159" s="33" t="s">
+        <v>853</v>
+      </c>
+      <c r="C159" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="D159" s="30" t="s">
+        <v>856</v>
+      </c>
+      <c r="E159" s="53" t="s">
+        <v>865</v>
+      </c>
+      <c r="F159" s="43" t="s">
+        <v>866</v>
+      </c>
+      <c r="G159" s="43"/>
+      <c r="H159" s="43" t="s">
+        <v>867</v>
+      </c>
+      <c r="I159" s="33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" s="50" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A160" s="33">
+        <v>159</v>
+      </c>
+      <c r="B160" s="33" t="s">
+        <v>853</v>
+      </c>
+      <c r="C160" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="D160" s="30" t="s">
+        <v>857</v>
+      </c>
+      <c r="E160" s="53" t="s">
+        <v>868</v>
+      </c>
+      <c r="F160" s="43" t="s">
+        <v>869</v>
+      </c>
+      <c r="G160" s="43"/>
+      <c r="H160" s="43" t="s">
+        <v>870</v>
+      </c>
+      <c r="I160" s="33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" s="50" customFormat="1" ht="50" x14ac:dyDescent="0.35">
+      <c r="A161" s="33">
+        <v>160</v>
+      </c>
+      <c r="B161" s="33" t="s">
+        <v>853</v>
+      </c>
+      <c r="C161" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="D161" s="30" t="s">
+        <v>858</v>
+      </c>
+      <c r="E161" s="53" t="s">
+        <v>871</v>
+      </c>
+      <c r="F161" s="43" t="s">
+        <v>872</v>
+      </c>
+      <c r="G161" s="43"/>
+      <c r="H161" s="43" t="s">
+        <v>873</v>
+      </c>
+      <c r="I161" s="33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="33">
+        <v>161</v>
+      </c>
+      <c r="B162" s="33" t="s">
+        <v>853</v>
+      </c>
+      <c r="C162" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="D162" s="30" t="s">
+        <v>859</v>
+      </c>
+      <c r="E162" s="53" t="s">
+        <v>874</v>
+      </c>
+      <c r="F162" s="43" t="s">
+        <v>875</v>
+      </c>
+      <c r="G162" s="43"/>
+      <c r="H162" s="43" t="s">
+        <v>876</v>
+      </c>
+      <c r="I162" s="33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" s="50" customFormat="1" ht="25" x14ac:dyDescent="0.35">
+      <c r="A163" s="33">
+        <v>162</v>
+      </c>
+      <c r="B163" s="33" t="s">
+        <v>853</v>
+      </c>
+      <c r="C163" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="D163" s="30" t="s">
         <v>860</v>
       </c>
-      <c r="E157" s="54" t="s">
+      <c r="E163" s="53" t="s">
         <v>877</v>
       </c>
-      <c r="F157" s="43" t="s">
+      <c r="F163" s="43" t="s">
         <v>878</v>
       </c>
-      <c r="G157" s="47"/>
-      <c r="H157" s="43" t="s">
+      <c r="G163" s="43"/>
+      <c r="H163" s="43" t="s">
         <v>879</v>
       </c>
-      <c r="I157" s="1" t="s">
+      <c r="I163" s="1" t="s">
         <v>943</v>
       </c>
     </row>
+    <row r="164" spans="1:9" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="A164" s="33">
+        <v>163</v>
+      </c>
+      <c r="B164" s="49" t="s">
+        <v>959</v>
+      </c>
+      <c r="C164" s="60" t="s">
+        <v>816</v>
+      </c>
+      <c r="D164" s="61" t="s">
+        <v>959</v>
+      </c>
+      <c r="E164" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F164" s="56" t="s">
+        <v>966</v>
+      </c>
+      <c r="G164" s="56"/>
+      <c r="H164" s="56" t="s">
+        <v>967</v>
+      </c>
+      <c r="I164" s="56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A165" s="33">
+        <v>164</v>
+      </c>
+      <c r="B165" s="49" t="s">
+        <v>959</v>
+      </c>
+      <c r="C165" s="60" t="s">
+        <v>648</v>
+      </c>
+      <c r="D165" s="59" t="s">
+        <v>960</v>
+      </c>
+      <c r="E165" s="60"/>
+      <c r="F165" s="60"/>
+      <c r="G165" s="60"/>
+      <c r="H165" s="60"/>
+      <c r="I165" s="60" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A166" s="33">
+        <v>165</v>
+      </c>
+      <c r="B166" s="49" t="s">
+        <v>959</v>
+      </c>
+      <c r="C166" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="D166" s="62" t="s">
+        <v>961</v>
+      </c>
+      <c r="E166" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F166" s="56" t="s">
+        <v>968</v>
+      </c>
+      <c r="G166" s="56"/>
+      <c r="H166" s="56" t="s">
+        <v>969</v>
+      </c>
+      <c r="I166" s="56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+      <c r="A167" s="33">
+        <v>166</v>
+      </c>
+      <c r="B167" s="49" t="s">
+        <v>959</v>
+      </c>
+      <c r="C167" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="D167" s="62" t="s">
+        <v>962</v>
+      </c>
+      <c r="E167" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F167" s="56" t="s">
+        <v>970</v>
+      </c>
+      <c r="G167" s="56"/>
+      <c r="H167" s="56" t="s">
+        <v>971</v>
+      </c>
+      <c r="I167" s="56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A168" s="33">
+        <v>167</v>
+      </c>
+      <c r="B168" s="49" t="s">
+        <v>959</v>
+      </c>
+      <c r="C168" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="D168" s="62" t="s">
+        <v>963</v>
+      </c>
+      <c r="E168" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F168" s="56" t="s">
+        <v>972</v>
+      </c>
+      <c r="G168" s="56"/>
+      <c r="H168" s="56" t="s">
+        <v>973</v>
+      </c>
+      <c r="I168" s="56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A169" s="33">
+        <v>168</v>
+      </c>
+      <c r="B169" s="49" t="s">
+        <v>959</v>
+      </c>
+      <c r="C169" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="D169" s="62" t="s">
+        <v>964</v>
+      </c>
+      <c r="E169" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F169" s="56" t="s">
+        <v>974</v>
+      </c>
+      <c r="G169" s="56"/>
+      <c r="H169" s="56" t="s">
+        <v>975</v>
+      </c>
+      <c r="I169" s="56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A170" s="33">
+        <v>169</v>
+      </c>
+      <c r="B170" s="48" t="s">
+        <v>959</v>
+      </c>
+      <c r="C170" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="D170" s="62" t="s">
+        <v>965</v>
+      </c>
+      <c r="E170" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F170" s="56" t="s">
+        <v>976</v>
+      </c>
+      <c r="G170" s="56"/>
+      <c r="H170" s="56" t="s">
+        <v>977</v>
+      </c>
+      <c r="I170" s="56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A171" s="33">
+        <v>170</v>
+      </c>
+      <c r="B171" s="60" t="s">
+        <v>978</v>
+      </c>
+      <c r="C171" s="60" t="s">
+        <v>816</v>
+      </c>
+      <c r="D171" s="61" t="s">
+        <v>978</v>
+      </c>
+      <c r="E171" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F171" s="56" t="s">
+        <v>980</v>
+      </c>
+      <c r="G171" s="56"/>
+      <c r="H171" s="56" t="s">
+        <v>981</v>
+      </c>
+      <c r="I171" s="56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A172" s="33">
+        <v>171</v>
+      </c>
+      <c r="B172" s="49" t="s">
+        <v>978</v>
+      </c>
+      <c r="C172" s="60" t="s">
+        <v>648</v>
+      </c>
+      <c r="D172" s="59" t="s">
+        <v>979</v>
+      </c>
+      <c r="E172" s="60"/>
+      <c r="F172" s="60"/>
+      <c r="G172" s="60"/>
+      <c r="H172" s="60"/>
+      <c r="I172" s="56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A173" s="33">
+        <v>172</v>
+      </c>
+      <c r="B173" s="49" t="s">
+        <v>978</v>
+      </c>
+      <c r="C173" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="D173" s="62" t="s">
+        <v>992</v>
+      </c>
+      <c r="E173" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F173" s="56" t="s">
+        <v>982</v>
+      </c>
+      <c r="G173" s="56"/>
+      <c r="H173" s="56" t="s">
+        <v>983</v>
+      </c>
+      <c r="I173" s="56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A174" s="33">
+        <v>173</v>
+      </c>
+      <c r="B174" s="49" t="s">
+        <v>978</v>
+      </c>
+      <c r="C174" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="D174" s="62" t="s">
+        <v>993</v>
+      </c>
+      <c r="E174" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F174" s="56" t="s">
+        <v>984</v>
+      </c>
+      <c r="G174" s="56"/>
+      <c r="H174" s="56" t="s">
+        <v>985</v>
+      </c>
+      <c r="I174" s="56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A175" s="33">
+        <v>174</v>
+      </c>
+      <c r="B175" s="49" t="s">
+        <v>978</v>
+      </c>
+      <c r="C175" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="D175" s="62" t="s">
+        <v>994</v>
+      </c>
+      <c r="E175" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F175" s="56" t="s">
+        <v>986</v>
+      </c>
+      <c r="G175" s="56"/>
+      <c r="H175" s="56" t="s">
+        <v>987</v>
+      </c>
+      <c r="I175" s="56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+      <c r="A176" s="33">
+        <v>175</v>
+      </c>
+      <c r="B176" s="49" t="s">
+        <v>978</v>
+      </c>
+      <c r="C176" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="D176" s="62" t="s">
+        <v>995</v>
+      </c>
+      <c r="E176" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F176" s="56" t="s">
+        <v>988</v>
+      </c>
+      <c r="G176" s="56"/>
+      <c r="H176" s="56" t="s">
+        <v>989</v>
+      </c>
+      <c r="I176" s="56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A177" s="33">
+        <v>176</v>
+      </c>
+      <c r="B177" s="49" t="s">
+        <v>978</v>
+      </c>
+      <c r="C177" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="D177" s="62" t="s">
+        <v>996</v>
+      </c>
+      <c r="E177" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F177" s="56" t="s">
+        <v>990</v>
+      </c>
+      <c r="G177" s="56"/>
+      <c r="H177" s="56" t="s">
+        <v>991</v>
+      </c>
+      <c r="I177" s="56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A178" s="33">
+        <v>177</v>
+      </c>
+      <c r="B178" s="60" t="s">
+        <v>997</v>
+      </c>
+      <c r="C178" s="60" t="s">
+        <v>816</v>
+      </c>
+      <c r="D178" s="61" t="s">
+        <v>997</v>
+      </c>
+      <c r="E178" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F178" s="56" t="s">
+        <v>999</v>
+      </c>
+      <c r="G178" s="56"/>
+      <c r="H178" s="56" t="s">
+        <v>1000</v>
+      </c>
+      <c r="I178" s="56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A179" s="33">
+        <v>178</v>
+      </c>
+      <c r="B179" s="60" t="s">
+        <v>997</v>
+      </c>
+      <c r="C179" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="D179" s="62" t="s">
+        <v>998</v>
+      </c>
+      <c r="E179" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F179" s="56" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G179" s="56"/>
+      <c r="H179" s="56" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I179" s="56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A180" s="33">
+        <v>179</v>
+      </c>
+      <c r="B180" s="60" t="s">
+        <v>997</v>
+      </c>
+      <c r="C180" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="D180" s="62" t="s">
+        <v>673</v>
+      </c>
+      <c r="E180" s="49" t="s">
+        <v>678</v>
+      </c>
+      <c r="F180" s="49" t="s">
+        <v>672</v>
+      </c>
+      <c r="G180" s="60"/>
+      <c r="H180" s="49" t="s">
+        <v>677</v>
+      </c>
+      <c r="I180" s="56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A181" s="33">
+        <v>180</v>
+      </c>
+      <c r="B181" s="49" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C181" s="60" t="s">
+        <v>816</v>
+      </c>
+      <c r="D181" s="61" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E181" s="56"/>
+      <c r="F181" s="56"/>
+      <c r="G181" s="56"/>
+      <c r="H181" s="56"/>
+      <c r="I181" s="56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A182" s="33">
+        <v>181</v>
+      </c>
+      <c r="B182" s="49" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C182" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="D182" s="62" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E182" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F182" s="56" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G182" s="56"/>
+      <c r="H182" s="56" t="s">
+        <v>1004</v>
+      </c>
+      <c r="I182" s="56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A183" s="33">
+        <v>182</v>
+      </c>
+      <c r="B183" s="49" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C183" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="D183" s="62" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E183" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F183" s="56" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G183" s="56"/>
+      <c r="H183" s="56" t="s">
+        <v>1006</v>
+      </c>
+      <c r="I183" s="56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A184" s="33">
+        <v>183</v>
+      </c>
+      <c r="B184" s="49" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C184" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="D184" s="62" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E184" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F184" s="56" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G184" s="56"/>
+      <c r="H184" s="56" t="s">
+        <v>1008</v>
+      </c>
+      <c r="I184" s="56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A185" s="33">
+        <v>184</v>
+      </c>
+      <c r="B185" s="49" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C185" s="60" t="s">
+        <v>816</v>
+      </c>
+      <c r="D185" s="61" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E185" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F185" s="56" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G185" s="56"/>
+      <c r="H185" s="56" t="s">
+        <v>1015</v>
+      </c>
+      <c r="I185" s="56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A186" s="33">
+        <v>185</v>
+      </c>
+      <c r="B186" s="49" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C186" s="60" t="s">
+        <v>648</v>
+      </c>
+      <c r="D186" s="59" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E186" s="60"/>
+      <c r="F186" s="60"/>
+      <c r="G186" s="60"/>
+      <c r="H186" s="60"/>
+      <c r="I186" s="56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A187" s="33">
+        <v>186</v>
+      </c>
+      <c r="B187" s="49" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C187" s="60" t="s">
+        <v>648</v>
+      </c>
+      <c r="D187" s="59" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E187" s="60"/>
+      <c r="F187" s="60"/>
+      <c r="G187" s="60"/>
+      <c r="H187" s="60"/>
+      <c r="I187" s="56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A188" s="33">
+        <v>187</v>
+      </c>
+      <c r="B188" s="49" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C188" s="60" t="s">
+        <v>648</v>
+      </c>
+      <c r="D188" s="59" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E188" s="60"/>
+      <c r="F188" s="60"/>
+      <c r="G188" s="60"/>
+      <c r="H188" s="60"/>
+      <c r="I188" s="56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A189" s="33">
+        <v>188</v>
+      </c>
+      <c r="B189" s="49" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C189" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="D189" s="62" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E189" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F189" s="56" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G189" s="56"/>
+      <c r="H189" s="56" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I189" s="56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A190" s="33">
+        <v>189</v>
+      </c>
+      <c r="B190" s="49" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C190" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="D190" s="62" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E190" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F190" s="56" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G190" s="56"/>
+      <c r="H190" s="56" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I190" s="56" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I157" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I163" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7649,7 +8715,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N129"/>
+  <dimension ref="A1:N132"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
@@ -7669,14 +8735,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="63" t="s">
         <v>506</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
       <c r="I1" s="6"/>
@@ -7687,16 +8753,16 @@
       <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:14" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="65" t="s">
         <v>505</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -7705,11 +8771,11 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:14" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="63" t="s">
         <v>507</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
       <c r="D3" s="32"/>
       <c r="E3" s="24"/>
       <c r="F3" s="20"/>
@@ -7733,10 +8799,10 @@
       <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:14" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="66" t="s">
         <v>156</v>
       </c>
-      <c r="B5" s="60"/>
+      <c r="B5" s="67"/>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
       <c r="E5" s="25"/>
@@ -8348,7 +9414,7 @@
       <c r="E29" s="15" t="s">
         <v>725</v>
       </c>
-      <c r="F29" s="53" t="s">
+      <c r="F29" s="52" t="s">
         <v>722</v>
       </c>
       <c r="G29" s="19" t="s">
@@ -10788,6 +11854,82 @@
       </c>
       <c r="H129" s="43" t="s">
         <v>928</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A130" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="B130" s="58" t="s">
+        <v>656</v>
+      </c>
+      <c r="C130" s="57" t="s">
+        <v>889</v>
+      </c>
+      <c r="D130" s="57" t="s">
+        <v>944</v>
+      </c>
+      <c r="E130" s="56" t="s">
+        <v>945</v>
+      </c>
+      <c r="F130" s="56" t="s">
+        <v>946</v>
+      </c>
+      <c r="G130" s="56"/>
+      <c r="H130" s="56" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A131" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="B131" s="58" t="s">
+        <v>656</v>
+      </c>
+      <c r="C131" s="57" t="s">
+        <v>889</v>
+      </c>
+      <c r="D131" s="57" t="s">
+        <v>944</v>
+      </c>
+      <c r="E131" s="56" t="s">
+        <v>948</v>
+      </c>
+      <c r="F131" s="56" t="s">
+        <v>949</v>
+      </c>
+      <c r="G131" s="56" t="s">
+        <v>950</v>
+      </c>
+      <c r="H131" s="56" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A132" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="B132" s="58" t="s">
+        <v>656</v>
+      </c>
+      <c r="C132" s="57" t="s">
+        <v>889</v>
+      </c>
+      <c r="D132" s="57" t="s">
+        <v>944</v>
+      </c>
+      <c r="E132" s="56" t="s">
+        <v>952</v>
+      </c>
+      <c r="F132" s="56" t="s">
+        <v>953</v>
+      </c>
+      <c r="G132" s="56" t="s">
+        <v>954</v>
+      </c>
+      <c r="H132" s="56" t="s">
+        <v>955</v>
       </c>
     </row>
   </sheetData>
@@ -10803,6 +11945,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D9A8E34D4601248B4650C3759D604D8" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c234dc030e1d129322a3d56f76335218">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="de0c653c-2bd3-43b1-95fa-012c57f61cfe" xmlns:ns3="848a8810-16a6-4d79-96d3-e3dfb86099b7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a56d1a68c4d05b5a1e5a3c0b3fb5b1a8" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -11024,25 +12184,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6744B0D-B7F9-4CA7-A5DC-23D611E8ED20}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="de0c653c-2bd3-43b1-95fa-012c57f61cfe"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="848a8810-16a6-4d79-96d3-e3dfb86099b7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B4CE896-D144-40A9-85D3-0684E5DFDA36}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19245E31-480A-4933-AB52-6FC5778D0ABF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11060,30 +12228,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6744B0D-B7F9-4CA7-A5DC-23D611E8ED20}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="de0c653c-2bd3-43b1-95fa-012c57f61cfe"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="848a8810-16a6-4d79-96d3-e3dfb86099b7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B4CE896-D144-40A9-85D3-0684E5DFDA36}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Deliverables/CT/USDM_CT.xlsx
+++ b/Deliverables/CT/USDM_CT.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhlbradtee\Documents\GitHub\DDF-RA\Deliverables\CT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C64FD21-E11E-4F04-9788-2A784559C2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA531ADF-8F16-46A8-92E5-C4F3E83E5FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="160" windowWidth="17200" windowHeight="9880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="770" yWindow="120" windowWidth="17200" windowHeight="9880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DDF Entities&amp;Attributes" sheetId="4" r:id="rId1"/>
     <sheet name="DDF valid value sets" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DDF Entities&amp;Attributes'!$A$1:$I$163</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DDF Entities&amp;Attributes'!$A$1:$I$165</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DDF valid value sets'!$A$6:$N$124</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2091" uniqueCount="1025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="1024">
   <si>
     <t>Preferred Term</t>
   </si>
@@ -1790,16 +1790,10 @@
     <t>studyElementName</t>
   </si>
   <si>
-    <t>workflowItemEncounter</t>
-  </si>
-  <si>
     <t>Previous Encounter Identifier</t>
   </si>
   <si>
     <t>Next Encounter Identifier</t>
-  </si>
-  <si>
-    <t>workflowItemActivity</t>
   </si>
   <si>
     <t>studyDataCollection</t>
@@ -2997,9 +2991,6 @@
     <t>bcConceptCode</t>
   </si>
   <si>
-    <t>biomedicalConceptId</t>
-  </si>
-  <si>
     <t>Biomedical Concept</t>
   </si>
   <si>
@@ -3031,12 +3022,6 @@
     <t>A concept unique identifier assigned to a biomedical concept that points to the meaning of that biomedical concept.</t>
   </si>
   <si>
-    <t>Biomedical Concept Identifier</t>
-  </si>
-  <si>
-    <t>A system identifier assigned to the biomedical concept.</t>
-  </si>
-  <si>
     <t>BiomedicalConceptProperty</t>
   </si>
   <si>
@@ -3166,16 +3151,80 @@
     <t>bcCategoryMemberIds</t>
   </si>
   <si>
-    <t>bcCategoryParents</t>
-  </si>
-  <si>
-    <t>bcCategoryChildren</t>
-  </si>
-  <si>
     <t>bcCategoryName</t>
   </si>
   <si>
     <t>bcCategoryDescription</t>
+  </si>
+  <si>
+    <t>bcCategoryParentsIds</t>
+  </si>
+  <si>
+    <t>bcCategoryChildrenIds</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>workflowItemEncounter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>workflowItemEncounterId</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>workflowItemActivity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>workflowItemActivityId</t>
+    </r>
+  </si>
+  <si>
+    <t>previousActivityId</t>
+  </si>
+  <si>
+    <t>nextActivityId</t>
   </si>
 </sst>
 </file>
@@ -3396,7 +3445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3598,6 +3647,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3890,7 +3951,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I190"/>
+  <dimension ref="A1:I191"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3915,13 +3976,13 @@
         <v>95</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>114</v>
@@ -3944,13 +4005,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
@@ -3971,13 +4032,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="4"/>
@@ -3990,13 +4051,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="4"/>
@@ -4009,13 +4070,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="4"/>
@@ -4028,13 +4089,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>15</v>
@@ -4057,16 +4118,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>548</v>
@@ -4084,13 +4145,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>34</v>
@@ -4105,7 +4166,7 @@
         <v>33</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="100" x14ac:dyDescent="0.35">
@@ -4113,13 +4174,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>19</v>
@@ -4134,7 +4195,7 @@
         <v>18</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -4142,26 +4203,26 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="1" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
@@ -4169,23 +4230,23 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D11" s="31" t="s">
+        <v>842</v>
+      </c>
+      <c r="E11" s="53" t="s">
         <v>844</v>
       </c>
-      <c r="E11" s="53" t="s">
-        <v>846</v>
-      </c>
       <c r="F11" s="43" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="G11" s="43"/>
       <c r="H11" s="43" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>93</v>
@@ -4196,23 +4257,23 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E12" s="53" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F12" s="43" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="G12" s="43"/>
       <c r="H12" s="43" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>93</v>
@@ -4223,13 +4284,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>8</v>
@@ -4250,13 +4311,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E14" s="43" t="s">
         <v>538</v>
@@ -4279,13 +4340,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E15" s="43" t="s">
         <v>545</v>
@@ -4306,13 +4367,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E16" s="43" t="s">
         <v>546</v>
@@ -4333,13 +4394,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E17" s="43" t="s">
         <v>547</v>
@@ -4360,13 +4421,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>8</v>
@@ -4387,13 +4448,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>11</v>
@@ -4414,16 +4475,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>152</v>
@@ -4441,16 +4502,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>89</v>
@@ -4460,7 +4521,7 @@
         <v>141</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -4468,13 +4529,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>90</v>
@@ -4495,13 +4556,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -4514,13 +4575,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>90</v>
@@ -4571,10 +4632,10 @@
         <v>534</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E26" s="48"/>
       <c r="F26" s="48"/>
@@ -4593,13 +4654,13 @@
         <v>94</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4" t="s">
@@ -4620,7 +4681,7 @@
         <v>94</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>526</v>
@@ -4647,7 +4708,7 @@
         <v>94</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>529</v>
@@ -4674,10 +4735,10 @@
         <v>94</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>532</v>
@@ -4687,7 +4748,7 @@
         <v>533</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="50" x14ac:dyDescent="0.35">
@@ -4695,13 +4756,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>41</v>
@@ -4722,13 +4783,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D32" s="42" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E32" s="29"/>
       <c r="F32" s="4"/>
@@ -4741,13 +4802,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D33" s="42" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E33" s="29"/>
       <c r="F33" s="4"/>
@@ -4760,13 +4821,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D34" s="42" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E34" s="29"/>
       <c r="F34" s="4"/>
@@ -4779,10 +4840,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D35" s="42" t="s">
         <v>561</v>
@@ -4798,13 +4859,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D36" s="42" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E36" s="29"/>
       <c r="F36" s="4"/>
@@ -4817,10 +4878,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D37" s="42" t="s">
         <v>555</v>
@@ -4836,10 +4897,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D38" s="42" t="s">
         <v>554</v>
@@ -4855,10 +4916,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D39" s="42" t="s">
         <v>569</v>
@@ -4874,13 +4935,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D40" s="42" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E40" s="29"/>
       <c r="F40" s="4"/>
@@ -4893,13 +4954,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="49" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C41" s="49" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D41" s="59" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E41" s="29"/>
       <c r="F41" s="4"/>
@@ -4912,13 +4973,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="49" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C42" s="49" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D42" s="59" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="E42" s="29"/>
       <c r="F42" s="4"/>
@@ -4931,13 +4992,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="49" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C43" s="49" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D43" s="59" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="E43" s="29"/>
       <c r="F43" s="4"/>
@@ -4950,13 +5011,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E44" s="44" t="s">
         <v>44</v>
@@ -4971,7 +5032,7 @@
         <v>43</v>
       </c>
       <c r="I44" s="29" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
@@ -4979,13 +5040,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E45" s="44" t="s">
         <v>38</v>
@@ -5000,7 +5061,7 @@
         <v>37</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
@@ -5008,13 +5069,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>46</v>
@@ -5027,7 +5088,7 @@
         <v>45</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="45" customFormat="1" ht="112.5" x14ac:dyDescent="0.35">
@@ -5035,28 +5096,28 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D47" s="31" t="s">
+        <v>801</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>806</v>
-      </c>
       <c r="H47" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
@@ -5064,23 +5125,23 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E48" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F48" s="43" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G48" s="43"/>
       <c r="H48" s="43" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>93</v>
@@ -5091,23 +5152,23 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E49" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F49" s="43" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="G49" s="43"/>
       <c r="H49" s="43" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>93</v>
@@ -5118,23 +5179,23 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D50" s="31" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="E50" s="53" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F50" s="43" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G50" s="43"/>
       <c r="H50" s="43" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>93</v>
@@ -5145,28 +5206,28 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D51" s="31" t="s">
+        <v>905</v>
+      </c>
+      <c r="E51" s="43" t="s">
+        <v>906</v>
+      </c>
+      <c r="F51" s="43" t="s">
         <v>907</v>
       </c>
-      <c r="E51" s="43" t="s">
+      <c r="G51" s="43" t="s">
         <v>908</v>
       </c>
-      <c r="F51" s="43" t="s">
+      <c r="H51" s="43" t="s">
         <v>909</v>
       </c>
-      <c r="G51" s="43" t="s">
-        <v>910</v>
-      </c>
-      <c r="H51" s="43" t="s">
-        <v>911</v>
-      </c>
       <c r="I51" s="43" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="75" x14ac:dyDescent="0.35">
@@ -5174,13 +5235,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D52" s="41" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>27</v>
@@ -5190,7 +5251,7 @@
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="43" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>93</v>
@@ -5201,26 +5262,26 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -5228,13 +5289,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D54" s="31" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>100</v>
@@ -5255,13 +5316,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D55" s="41" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>32</v>
@@ -5282,26 +5343,26 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="75" x14ac:dyDescent="0.35">
@@ -5309,13 +5370,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D57" s="31" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>32</v>
@@ -5328,7 +5389,7 @@
         <v>31</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
@@ -5336,13 +5397,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D58" s="41" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>29</v>
@@ -5352,7 +5413,7 @@
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>93</v>
@@ -5363,16 +5424,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D59" s="31" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>145</v>
@@ -5390,23 +5451,23 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E60" s="53" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="F60" s="43" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="G60" s="43"/>
       <c r="H60" s="43" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="I60" s="43" t="s">
         <v>93</v>
@@ -5417,23 +5478,23 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E61" s="53" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="F61" s="43" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="G61" s="43"/>
       <c r="H61" s="43" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="I61" s="43" t="s">
         <v>93</v>
@@ -5444,23 +5505,23 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="E62" s="53" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="F62" s="43" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="G62" s="43"/>
       <c r="H62" s="43" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="I62" s="43" t="s">
         <v>93</v>
@@ -5471,26 +5532,26 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E63" s="53" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="F63" s="43" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="G63" s="43"/>
       <c r="H63" s="43" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="I63" s="43" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
@@ -5498,13 +5559,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D64" s="41" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>22</v>
@@ -5525,13 +5586,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D65" s="42" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="4"/>
@@ -5544,13 +5605,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D66" s="31" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>122</v>
@@ -5571,16 +5632,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D67" s="31" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>153</v>
@@ -5590,7 +5651,7 @@
         <v>516</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="87.5" x14ac:dyDescent="0.35">
@@ -5598,13 +5659,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D68" s="41" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>24</v>
@@ -5614,7 +5675,7 @@
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="43" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>93</v>
@@ -5625,16 +5686,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>144</v>
@@ -5652,16 +5713,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D70" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>103</v>
@@ -5679,16 +5740,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D71" s="31" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E71" s="43" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>25</v>
@@ -5698,7 +5759,7 @@
         <v>508</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
@@ -5706,23 +5767,23 @@
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D72" s="41" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>55</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="4" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>93</v>
@@ -5733,13 +5794,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D73" s="42" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="4"/>
@@ -5752,10 +5813,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D74" s="42" t="s">
         <v>568</v>
@@ -5771,10 +5832,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D75" s="42" t="s">
         <v>581</v>
@@ -5790,13 +5851,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D76" s="41" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>53</v>
@@ -5817,13 +5878,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D77" s="31" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>138</v>
@@ -5844,13 +5905,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D78" s="31" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>137</v>
@@ -5871,16 +5932,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D79" s="31" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>522</v>
@@ -5898,16 +5959,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D80" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>147</v>
@@ -5925,16 +5986,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D81" s="31" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>148</v>
@@ -5944,7 +6005,7 @@
         <v>54</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
@@ -5952,13 +6013,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D82" s="41" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>62</v>
@@ -5979,10 +6040,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D83" s="42" t="s">
         <v>569</v>
@@ -5998,7 +6059,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>94</v>
@@ -6025,16 +6086,16 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D85" s="31" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>106</v>
@@ -6052,7 +6113,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>94</v>
@@ -6061,7 +6122,7 @@
         <v>565</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>65</v>
@@ -6071,7 +6132,7 @@
         <v>66</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -6079,7 +6140,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>94</v>
@@ -6088,14 +6149,14 @@
         <v>566</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>579</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="I87" s="43" t="s">
         <v>93</v>
@@ -6106,7 +6167,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>94</v>
@@ -6115,14 +6176,14 @@
         <v>567</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>580</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="4" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="I88" s="43" t="s">
         <v>93</v>
@@ -6133,13 +6194,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D89" s="41" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>49</v>
@@ -6160,10 +6221,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D90" s="42" t="s">
         <v>570</v>
@@ -6179,10 +6240,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D91" s="42" t="s">
         <v>571</v>
@@ -6198,7 +6259,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>94</v>
@@ -6207,7 +6268,7 @@
         <v>582</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>50</v>
@@ -6225,16 +6286,16 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D93" s="31" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>107</v>
@@ -6252,13 +6313,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D94" s="41" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>80</v>
@@ -6279,16 +6340,16 @@
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D95" s="31" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>108</v>
@@ -6306,13 +6367,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D96" s="41" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>57</v>
@@ -6322,7 +6383,7 @@
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="3" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>93</v>
@@ -6333,10 +6394,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D97" s="42" t="s">
         <v>570</v>
@@ -6352,10 +6413,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D98" s="42" t="s">
         <v>571</v>
@@ -6371,7 +6432,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>94</v>
@@ -6398,16 +6459,16 @@
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D100" s="31" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>120</v>
@@ -6425,7 +6486,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>94</v>
@@ -6434,14 +6495,14 @@
         <v>576</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="4" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="I101" s="43" t="s">
         <v>93</v>
@@ -6452,7 +6513,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>94</v>
@@ -6461,14 +6522,14 @@
         <v>577</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="4" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="I102" s="43" t="s">
         <v>93</v>
@@ -6479,7 +6540,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>94</v>
@@ -6488,7 +6549,7 @@
         <v>573</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>67</v>
@@ -6498,7 +6559,7 @@
         <v>68</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -6506,7 +6567,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>94</v>
@@ -6515,7 +6576,7 @@
         <v>574</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>70</v>
@@ -6525,7 +6586,7 @@
         <v>71</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -6533,16 +6594,16 @@
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D105" s="31" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>72</v>
@@ -6552,7 +6613,7 @@
         <v>73</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
@@ -6560,13 +6621,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D106" s="41" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>87</v>
@@ -6587,13 +6648,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D107" s="42" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="4"/>
@@ -6606,13 +6667,13 @@
         <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D108" s="42" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="4"/>
@@ -6625,13 +6686,13 @@
         <v>108</v>
       </c>
       <c r="B109" s="48" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C109" s="49" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D109" s="59" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="4"/>
@@ -6644,13 +6705,13 @@
         <v>109</v>
       </c>
       <c r="B110" s="48" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C110" s="49" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D110" s="59" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="4"/>
@@ -6663,13 +6724,13 @@
         <v>110</v>
       </c>
       <c r="B111" s="48" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C111" s="49" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D111" s="59" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="4"/>
@@ -6677,84 +6738,68 @@
       <c r="H111" s="3"/>
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="33">
         <v>111</v>
       </c>
-      <c r="B112" s="4" t="s">
-        <v>665</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D112" s="31" t="s">
-        <v>589</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>759</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>595</v>
-      </c>
+      <c r="B112" s="48" t="s">
+        <v>663</v>
+      </c>
+      <c r="C112" s="49" t="s">
+        <v>646</v>
+      </c>
+      <c r="D112" s="59" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E112" s="1"/>
+      <c r="F112" s="4"/>
       <c r="G112" s="4"/>
-      <c r="H112" s="4" t="s">
-        <v>696</v>
-      </c>
-      <c r="I112" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="H112" s="3"/>
+      <c r="I112" s="1"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="33">
         <v>112</v>
       </c>
-      <c r="B113" s="4" t="s">
-        <v>665</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D113" s="31" t="s">
-        <v>828</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>552</v>
-      </c>
+      <c r="B113" s="48" t="s">
+        <v>663</v>
+      </c>
+      <c r="C113" s="49" t="s">
+        <v>646</v>
+      </c>
+      <c r="D113" s="59" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E113" s="1"/>
+      <c r="F113" s="4"/>
       <c r="G113" s="4"/>
-      <c r="H113" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="I113" s="4" t="s">
-        <v>93</v>
-      </c>
+      <c r="H113" s="3"/>
+      <c r="I113" s="1"/>
     </row>
     <row r="114" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A114" s="33">
         <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D114" s="31" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="G114" s="4"/>
       <c r="H114" s="4" t="s">
-        <v>718</v>
-      </c>
-      <c r="I114" s="43" t="s">
+        <v>694</v>
+      </c>
+      <c r="I114" s="4" t="s">
         <v>93</v>
       </c>
     </row>
@@ -6763,25 +6808,25 @@
         <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D115" s="31" t="s">
-        <v>591</v>
-      </c>
-      <c r="E115" s="4" t="s">
-        <v>761</v>
+        <v>826</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>551</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>593</v>
+        <v>552</v>
       </c>
       <c r="G115" s="4"/>
-      <c r="H115" s="4" t="s">
-        <v>719</v>
-      </c>
-      <c r="I115" s="43" t="s">
+      <c r="H115" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="I115" s="4" t="s">
         <v>93</v>
       </c>
     </row>
@@ -6789,26 +6834,26 @@
       <c r="A116" s="33">
         <v>115</v>
       </c>
-      <c r="B116" s="4" t="s">
-        <v>665</v>
-      </c>
-      <c r="C116" s="1" t="s">
+      <c r="B116" s="68" t="s">
+        <v>663</v>
+      </c>
+      <c r="C116" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="D116" s="31" t="s">
-        <v>933</v>
-      </c>
-      <c r="E116" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F116" s="43" t="s">
-        <v>930</v>
-      </c>
-      <c r="G116" s="43"/>
-      <c r="H116" s="43" t="s">
-        <v>931</v>
-      </c>
-      <c r="I116" s="43" t="s">
+      <c r="D116" s="70" t="s">
+        <v>588</v>
+      </c>
+      <c r="E116" s="68" t="s">
+        <v>758</v>
+      </c>
+      <c r="F116" s="68" t="s">
+        <v>590</v>
+      </c>
+      <c r="G116" s="68"/>
+      <c r="H116" s="68" t="s">
+        <v>716</v>
+      </c>
+      <c r="I116" s="71" t="s">
         <v>93</v>
       </c>
     </row>
@@ -6816,53 +6861,53 @@
       <c r="A117" s="33">
         <v>116</v>
       </c>
-      <c r="B117" s="4" t="s">
-        <v>665</v>
-      </c>
-      <c r="C117" s="1" t="s">
+      <c r="B117" s="68" t="s">
+        <v>663</v>
+      </c>
+      <c r="C117" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="D117" s="31" t="s">
-        <v>934</v>
-      </c>
-      <c r="E117" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F117" s="43" t="s">
-        <v>932</v>
-      </c>
-      <c r="G117" s="43"/>
-      <c r="H117" s="43" t="s">
-        <v>935</v>
-      </c>
-      <c r="I117" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D117" s="70" t="s">
+        <v>589</v>
+      </c>
+      <c r="E117" s="68" t="s">
+        <v>759</v>
+      </c>
+      <c r="F117" s="68" t="s">
+        <v>591</v>
+      </c>
+      <c r="G117" s="68"/>
+      <c r="H117" s="68" t="s">
+        <v>717</v>
+      </c>
+      <c r="I117" s="71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A118" s="33">
         <v>117</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D118" s="41" t="s">
-        <v>666</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="F118" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G118" s="4"/>
-      <c r="H118" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I118" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D118" s="31" t="s">
+        <v>931</v>
+      </c>
+      <c r="E118" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F118" s="43" t="s">
+        <v>928</v>
+      </c>
+      <c r="G118" s="43"/>
+      <c r="H118" s="43" t="s">
+        <v>929</v>
+      </c>
+      <c r="I118" s="43" t="s">
         <v>93</v>
       </c>
     </row>
@@ -6871,52 +6916,52 @@
         <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D119" s="31" t="s">
-        <v>594</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>763</v>
-      </c>
-      <c r="F119" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="G119" s="4"/>
-      <c r="H119" s="4" t="s">
-        <v>514</v>
+        <v>932</v>
+      </c>
+      <c r="E119" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F119" s="43" t="s">
+        <v>930</v>
+      </c>
+      <c r="G119" s="43"/>
+      <c r="H119" s="43" t="s">
+        <v>933</v>
       </c>
       <c r="I119" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="33">
         <v>119</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D120" s="31" t="s">
-        <v>827</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>764</v>
+        <v>4</v>
+      </c>
+      <c r="D120" s="41" t="s">
+        <v>664</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>760</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c r="G120" s="4"/>
-      <c r="H120" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="I120" s="43" t="s">
+      <c r="H120" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I120" s="1" t="s">
         <v>93</v>
       </c>
     </row>
@@ -6925,83 +6970,83 @@
         <v>120</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D121" s="31" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>645</v>
+        <v>150</v>
       </c>
       <c r="G121" s="4"/>
       <c r="H121" s="4" t="s">
-        <v>713</v>
+        <v>514</v>
       </c>
       <c r="I121" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A122" s="33">
         <v>121</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>88</v>
+        <v>664</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D122" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>77</v>
+        <v>94</v>
+      </c>
+      <c r="D122" s="31" t="s">
+        <v>825</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>762</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="G122" s="4"/>
       <c r="H122" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I122" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+      <c r="I122" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A123" s="33">
         <v>122</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>88</v>
+        <v>664</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D123" s="31" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>117</v>
+        <v>643</v>
       </c>
       <c r="G123" s="4"/>
       <c r="H123" s="4" t="s">
-        <v>694</v>
-      </c>
-      <c r="I123" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+        <v>711</v>
+      </c>
+      <c r="I123" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A124" s="33">
         <v>123</v>
       </c>
@@ -7009,26 +7054,26 @@
         <v>88</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D124" s="31" t="s">
-        <v>598</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>139</v>
+        <v>4</v>
+      </c>
+      <c r="D124" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="G124" s="4"/>
       <c r="H124" s="4" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="33">
         <v>124</v>
       </c>
@@ -7039,23 +7084,23 @@
         <v>94</v>
       </c>
       <c r="D125" s="31" t="s">
-        <v>940</v>
-      </c>
-      <c r="E125" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F125" s="43" t="s">
-        <v>936</v>
-      </c>
-      <c r="G125" s="43"/>
-      <c r="H125" s="43" t="s">
-        <v>938</v>
-      </c>
-      <c r="I125" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+        <v>595</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="I125" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="50" x14ac:dyDescent="0.35">
       <c r="A126" s="33">
         <v>125</v>
       </c>
@@ -7066,92 +7111,100 @@
         <v>94</v>
       </c>
       <c r="D126" s="31" t="s">
-        <v>941</v>
-      </c>
-      <c r="E126" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F126" s="43" t="s">
-        <v>937</v>
-      </c>
-      <c r="G126" s="43"/>
-      <c r="H126" s="43" t="s">
-        <v>939</v>
-      </c>
-      <c r="I126" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+        <v>596</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A127" s="33">
         <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>601</v>
+        <v>88</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D127" s="41" t="s">
-        <v>601</v>
-      </c>
-      <c r="E127" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="G127" s="4"/>
-      <c r="H127" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="I127" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+      <c r="D127" s="31" t="s">
+        <v>938</v>
+      </c>
+      <c r="E127" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F127" s="43" t="s">
+        <v>934</v>
+      </c>
+      <c r="G127" s="43"/>
+      <c r="H127" s="43" t="s">
+        <v>936</v>
+      </c>
+      <c r="I127" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A128" s="33">
         <v>127</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>601</v>
+        <v>88</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="D128" s="42" t="s">
-        <v>602</v>
-      </c>
-      <c r="E128" s="4"/>
-      <c r="F128" s="4"/>
-      <c r="G128" s="4"/>
-      <c r="H128" s="4"/>
-      <c r="I128" s="4"/>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+      <c r="D128" s="31" t="s">
+        <v>939</v>
+      </c>
+      <c r="E128" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F128" s="43" t="s">
+        <v>935</v>
+      </c>
+      <c r="G128" s="43"/>
+      <c r="H128" s="43" t="s">
+        <v>937</v>
+      </c>
+      <c r="I128" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="50" x14ac:dyDescent="0.35">
       <c r="A129" s="33">
         <v>128</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D129" s="31" t="s">
-        <v>826</v>
+        <v>4</v>
+      </c>
+      <c r="D129" s="41" t="s">
+        <v>599</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>767</v>
+        <v>598</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>116</v>
+        <v>599</v>
       </c>
       <c r="G129" s="4"/>
       <c r="H129" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="I129" s="43" t="s">
+        <v>597</v>
+      </c>
+      <c r="I129" s="1" t="s">
         <v>93</v>
       </c>
     </row>
@@ -7160,194 +7213,194 @@
         <v>129</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>667</v>
-      </c>
-      <c r="C130" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D130" s="41" t="s">
-        <v>667</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>109</v>
-      </c>
+        <v>599</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D130" s="42" t="s">
+        <v>600</v>
+      </c>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4"/>
       <c r="G130" s="4"/>
-      <c r="H130" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="I130" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="H130" s="4"/>
+      <c r="I130" s="4"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="33">
         <v>130</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>667</v>
+        <v>599</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="D131" s="42" t="s">
-        <v>583</v>
-      </c>
-      <c r="E131" s="4"/>
-      <c r="F131" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="D131" s="31" t="s">
+        <v>824</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="G131" s="4"/>
-      <c r="H131" s="4"/>
-      <c r="I131" s="43"/>
+      <c r="H131" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I131" s="43" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="33">
         <v>131</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>667</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="D132" s="42" t="s">
-        <v>586</v>
-      </c>
-      <c r="E132" s="4"/>
-      <c r="F132" s="4"/>
+        <v>665</v>
+      </c>
+      <c r="C132" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D132" s="41" t="s">
+        <v>665</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="G132" s="4"/>
-      <c r="H132" s="4"/>
-      <c r="I132" s="43"/>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H132" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A133" s="33">
         <v>132</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D133" s="30" t="s">
-        <v>825</v>
-      </c>
-      <c r="E133" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>109</v>
-      </c>
+        <v>646</v>
+      </c>
+      <c r="D133" s="42" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
       <c r="G133" s="4"/>
-      <c r="H133" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="I133" s="43" t="s">
-        <v>93</v>
-      </c>
+      <c r="H133" s="4"/>
+      <c r="I133" s="43"/>
     </row>
     <row r="134" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A134" s="33">
         <v>133</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D134" s="30" t="s">
-        <v>603</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>769</v>
-      </c>
-      <c r="F134" s="4" t="s">
-        <v>605</v>
-      </c>
+        <v>646</v>
+      </c>
+      <c r="D134" s="42" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4"/>
       <c r="G134" s="4"/>
-      <c r="H134" s="4" t="s">
-        <v>720</v>
-      </c>
-      <c r="I134" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="H134" s="4"/>
+      <c r="I134" s="43"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="33">
         <v>134</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D135" s="30" t="s">
-        <v>604</v>
+        <v>823</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>770</v>
-      </c>
-      <c r="F135" s="4" t="s">
-        <v>606</v>
+        <v>766</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="G135" s="4"/>
       <c r="H135" s="4" t="s">
-        <v>721</v>
+        <v>136</v>
       </c>
       <c r="I135" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A136" s="33">
         <v>135</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>81</v>
+        <v>665</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D136" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>771</v>
+        <v>94</v>
+      </c>
+      <c r="D136" s="30" t="s">
+        <v>601</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>767</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>81</v>
+        <v>603</v>
       </c>
       <c r="G136" s="4"/>
       <c r="H136" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="I136" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+        <v>718</v>
+      </c>
+      <c r="I136" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A137" s="33">
         <v>136</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>81</v>
+        <v>665</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="D137" s="42" t="s">
-        <v>556</v>
-      </c>
-      <c r="E137" s="1"/>
-      <c r="F137" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="D137" s="30" t="s">
+        <v>602</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>604</v>
+      </c>
       <c r="G137" s="4"/>
-      <c r="H137" s="4"/>
-      <c r="I137" s="1"/>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H137" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="I137" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A138" s="33">
         <v>137</v>
       </c>
@@ -7355,16 +7408,24 @@
         <v>81</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="D138" s="42" t="s">
-        <v>557</v>
-      </c>
-      <c r="E138" s="1"/>
-      <c r="F138" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="D138" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="G138" s="4"/>
-      <c r="H138" s="4"/>
-      <c r="I138" s="1"/>
+      <c r="H138" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="33">
@@ -7374,10 +7435,10 @@
         <v>81</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D139" s="42" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="4"/>
@@ -7393,10 +7454,10 @@
         <v>81</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D140" s="42" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="E140" s="1"/>
       <c r="F140" s="4"/>
@@ -7404,7 +7465,7 @@
       <c r="H140" s="4"/>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" s="33">
         <v>140</v>
       </c>
@@ -7412,101 +7473,85 @@
         <v>81</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D141" s="31" t="s">
-        <v>560</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="F141" s="4" t="s">
-        <v>83</v>
-      </c>
+        <v>646</v>
+      </c>
+      <c r="D141" s="42" t="s">
+        <v>563</v>
+      </c>
+      <c r="E141" s="1"/>
+      <c r="F141" s="4"/>
       <c r="G141" s="4"/>
-      <c r="H141" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I141" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" ht="75" x14ac:dyDescent="0.35">
+      <c r="H141" s="4"/>
+      <c r="I141" s="1"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" s="33">
         <v>141</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>668</v>
+        <v>81</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D142" s="41" t="s">
-        <v>668</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="F142" s="4" t="s">
-        <v>85</v>
-      </c>
+        <v>646</v>
+      </c>
+      <c r="D142" s="42" t="s">
+        <v>562</v>
+      </c>
+      <c r="E142" s="1"/>
+      <c r="F142" s="4"/>
       <c r="G142" s="4"/>
-      <c r="H142" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="I142" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="H142" s="4"/>
+      <c r="I142" s="1"/>
     </row>
     <row r="143" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A143" s="33">
         <v>142</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>668</v>
+        <v>81</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D143" s="31" t="s">
-        <v>824</v>
+        <v>560</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="G143" s="4"/>
       <c r="H143" s="4" t="s">
-        <v>643</v>
-      </c>
-      <c r="I143" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="75" x14ac:dyDescent="0.35">
       <c r="A144" s="33">
         <v>143</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D144" s="41" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="G144" s="4"/>
       <c r="H144" s="4" t="s">
-        <v>86</v>
+        <v>154</v>
       </c>
       <c r="I144" s="1" t="s">
         <v>93</v>
@@ -7517,52 +7562,52 @@
         <v>144</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D145" s="31" t="s">
-        <v>558</v>
-      </c>
-      <c r="E145" s="4" t="s">
-        <v>775</v>
+        <v>822</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>771</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="G145" s="4"/>
       <c r="H145" s="4" t="s">
-        <v>513</v>
+        <v>641</v>
       </c>
       <c r="I145" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" ht="50" x14ac:dyDescent="0.35">
       <c r="A146" s="33">
         <v>145</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D146" s="31" t="s">
-        <v>823</v>
-      </c>
-      <c r="E146" s="4" t="s">
-        <v>776</v>
+        <v>4</v>
+      </c>
+      <c r="D146" s="41" t="s">
+        <v>667</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>772</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="G146" s="4"/>
       <c r="H146" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="I146" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="I146" s="1" t="s">
         <v>93</v>
       </c>
     </row>
@@ -7571,23 +7616,23 @@
         <v>146</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D147" s="46" t="s">
-        <v>559</v>
-      </c>
-      <c r="E147" s="33" t="s">
-        <v>777</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G147" s="33"/>
+      <c r="D147" s="31" t="s">
+        <v>558</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G147" s="4"/>
       <c r="H147" s="4" t="s">
-        <v>712</v>
+        <v>513</v>
       </c>
       <c r="I147" s="43" t="s">
         <v>93</v>
@@ -7598,50 +7643,50 @@
         <v>147</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D148" s="41" t="s">
-        <v>672</v>
+        <v>94</v>
+      </c>
+      <c r="D148" s="31" t="s">
+        <v>821</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>678</v>
+        <v>774</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>672</v>
-      </c>
-      <c r="G148" s="35"/>
+        <v>113</v>
+      </c>
+      <c r="G148" s="4"/>
       <c r="H148" s="4" t="s">
-        <v>677</v>
+        <v>127</v>
       </c>
       <c r="I148" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A149" s="33">
         <v>148</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D149" s="31" t="s">
-        <v>673</v>
-      </c>
-      <c r="E149" s="4" t="s">
-        <v>778</v>
-      </c>
-      <c r="F149" s="4" t="s">
-        <v>707</v>
-      </c>
-      <c r="G149" s="35"/>
+      <c r="D149" s="46" t="s">
+        <v>559</v>
+      </c>
+      <c r="E149" s="33" t="s">
+        <v>775</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="G149" s="33"/>
       <c r="H149" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="I149" s="43" t="s">
         <v>93</v>
@@ -7652,23 +7697,23 @@
         <v>149</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D150" s="31" t="s">
-        <v>674</v>
+        <v>4</v>
+      </c>
+      <c r="D150" s="41" t="s">
+        <v>670</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>779</v>
+        <v>676</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>706</v>
-      </c>
-      <c r="G150" s="4"/>
+        <v>670</v>
+      </c>
+      <c r="G150" s="35"/>
       <c r="H150" s="4" t="s">
-        <v>709</v>
+        <v>675</v>
       </c>
       <c r="I150" s="43" t="s">
         <v>93</v>
@@ -7679,23 +7724,23 @@
         <v>150</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D151" s="31" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>679</v>
-      </c>
-      <c r="G151" s="4"/>
+        <v>705</v>
+      </c>
+      <c r="G151" s="35"/>
       <c r="H151" s="4" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="I151" s="43" t="s">
         <v>93</v>
@@ -7706,73 +7751,79 @@
         <v>151</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D152" s="31" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>695</v>
-      </c>
-      <c r="G152" s="35"/>
+        <v>704</v>
+      </c>
+      <c r="G152" s="4"/>
       <c r="H152" s="4" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="I152" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" s="33">
         <v>152</v>
       </c>
-      <c r="B153" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="C153" s="33" t="s">
-        <v>816</v>
-      </c>
-      <c r="D153" s="41" t="s">
-        <v>817</v>
-      </c>
-      <c r="E153" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="F153" s="33" t="s">
-        <v>818</v>
-      </c>
-      <c r="G153" s="33"/>
-      <c r="H153" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="I153" s="33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B153" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D153" s="31" t="s">
+        <v>673</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="G153" s="4"/>
+      <c r="H153" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="I153" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A154" s="33">
         <v>153</v>
       </c>
-      <c r="B154" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="C154" s="33" t="s">
-        <v>648</v>
-      </c>
-      <c r="D154" s="47" t="s">
-        <v>820</v>
-      </c>
-      <c r="E154" s="33"/>
-      <c r="F154" s="33"/>
-      <c r="G154" s="33"/>
-      <c r="H154" s="33"/>
-      <c r="I154" s="33" t="s">
+      <c r="B154" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D154" s="31" t="s">
+        <v>674</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="G154" s="35"/>
+      <c r="H154" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="I154" s="43" t="s">
         <v>93</v>
       </c>
     </row>
@@ -7781,98 +7832,92 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="C155" s="33" t="s">
+        <v>814</v>
+      </c>
+      <c r="D155" s="41" t="s">
+        <v>815</v>
+      </c>
+      <c r="E155" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F155" s="33" t="s">
+        <v>816</v>
+      </c>
+      <c r="G155" s="33"/>
+      <c r="H155" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="C155" s="33" t="s">
-        <v>648</v>
-      </c>
-      <c r="D155" s="47" t="s">
-        <v>821</v>
-      </c>
-      <c r="E155" s="33"/>
-      <c r="F155" s="33"/>
-      <c r="G155" s="33"/>
-      <c r="H155" s="33"/>
       <c r="I155" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="156" spans="1:9" s="50" customFormat="1" ht="25" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" s="33">
         <v>155</v>
       </c>
-      <c r="B156" s="33" t="s">
-        <v>853</v>
-      </c>
-      <c r="C156" s="54" t="s">
-        <v>816</v>
-      </c>
-      <c r="D156" s="41" t="s">
-        <v>817</v>
-      </c>
-      <c r="E156" s="53" t="s">
-        <v>880</v>
-      </c>
-      <c r="F156" s="43" t="s">
-        <v>853</v>
-      </c>
-      <c r="G156" s="43"/>
-      <c r="H156" s="43" t="s">
-        <v>881</v>
-      </c>
+      <c r="B156" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="C156" s="33" t="s">
+        <v>646</v>
+      </c>
+      <c r="D156" s="47" t="s">
+        <v>818</v>
+      </c>
+      <c r="E156" s="33"/>
+      <c r="F156" s="33"/>
+      <c r="G156" s="33"/>
+      <c r="H156" s="33"/>
       <c r="I156" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="157" spans="1:9" s="50" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A157" s="33">
         <v>156</v>
       </c>
-      <c r="B157" s="33" t="s">
-        <v>853</v>
-      </c>
-      <c r="C157" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="D157" s="30" t="s">
-        <v>854</v>
-      </c>
-      <c r="E157" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="F157" s="43" t="s">
-        <v>861</v>
-      </c>
-      <c r="G157" s="43"/>
-      <c r="H157" s="43" t="s">
-        <v>862</v>
-      </c>
+      <c r="B157" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="C157" s="33" t="s">
+        <v>646</v>
+      </c>
+      <c r="D157" s="47" t="s">
+        <v>819</v>
+      </c>
+      <c r="E157" s="33"/>
+      <c r="F157" s="33"/>
+      <c r="G157" s="33"/>
+      <c r="H157" s="33"/>
       <c r="I157" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="158" spans="1:9" s="50" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" s="50" customFormat="1" ht="25" x14ac:dyDescent="0.35">
       <c r="A158" s="33">
         <v>157</v>
       </c>
       <c r="B158" s="33" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C158" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="D158" s="30" t="s">
-        <v>855</v>
-      </c>
-      <c r="E158" s="43" t="s">
-        <v>16</v>
+        <v>814</v>
+      </c>
+      <c r="D158" s="41" t="s">
+        <v>815</v>
+      </c>
+      <c r="E158" s="53" t="s">
+        <v>878</v>
       </c>
       <c r="F158" s="43" t="s">
-        <v>863</v>
+        <v>851</v>
       </c>
       <c r="G158" s="43"/>
       <c r="H158" s="43" t="s">
-        <v>864</v>
+        <v>879</v>
       </c>
       <c r="I158" s="33" t="s">
         <v>93</v>
@@ -7883,23 +7928,23 @@
         <v>158</v>
       </c>
       <c r="B159" s="33" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C159" s="54" t="s">
         <v>94</v>
       </c>
       <c r="D159" s="30" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="E159" s="53" t="s">
-        <v>865</v>
+        <v>16</v>
       </c>
       <c r="F159" s="43" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="G159" s="43"/>
       <c r="H159" s="43" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="I159" s="33" t="s">
         <v>93</v>
@@ -7910,208 +7955,208 @@
         <v>159</v>
       </c>
       <c r="B160" s="33" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C160" s="54" t="s">
         <v>94</v>
       </c>
       <c r="D160" s="30" t="s">
-        <v>857</v>
-      </c>
-      <c r="E160" s="53" t="s">
-        <v>868</v>
+        <v>853</v>
+      </c>
+      <c r="E160" s="43" t="s">
+        <v>16</v>
       </c>
       <c r="F160" s="43" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="G160" s="43"/>
       <c r="H160" s="43" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="I160" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="161" spans="1:9" s="50" customFormat="1" ht="50" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" s="50" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A161" s="33">
         <v>160</v>
       </c>
       <c r="B161" s="33" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C161" s="54" t="s">
         <v>94</v>
       </c>
       <c r="D161" s="30" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="E161" s="53" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="F161" s="43" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="G161" s="43"/>
       <c r="H161" s="43" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="I161" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="162" spans="1:9" s="50" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" s="50" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A162" s="33">
         <v>161</v>
       </c>
       <c r="B162" s="33" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C162" s="54" t="s">
         <v>94</v>
       </c>
       <c r="D162" s="30" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="E162" s="53" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="F162" s="43" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="G162" s="43"/>
       <c r="H162" s="43" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="I162" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="163" spans="1:9" s="50" customFormat="1" ht="25" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" s="50" customFormat="1" ht="50" x14ac:dyDescent="0.35">
       <c r="A163" s="33">
         <v>162</v>
       </c>
       <c r="B163" s="33" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C163" s="54" t="s">
         <v>94</v>
       </c>
       <c r="D163" s="30" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="E163" s="53" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="F163" s="43" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="G163" s="43"/>
       <c r="H163" s="43" t="s">
-        <v>879</v>
-      </c>
-      <c r="I163" s="1" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" ht="62.5" x14ac:dyDescent="0.35">
+        <v>871</v>
+      </c>
+      <c r="I163" s="33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" s="50" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A164" s="33">
         <v>163</v>
       </c>
-      <c r="B164" s="49" t="s">
-        <v>959</v>
-      </c>
-      <c r="C164" s="60" t="s">
-        <v>816</v>
-      </c>
-      <c r="D164" s="61" t="s">
-        <v>959</v>
-      </c>
-      <c r="E164" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="F164" s="56" t="s">
-        <v>966</v>
-      </c>
-      <c r="G164" s="56"/>
-      <c r="H164" s="56" t="s">
-        <v>967</v>
-      </c>
-      <c r="I164" s="56" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B164" s="33" t="s">
+        <v>851</v>
+      </c>
+      <c r="C164" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="D164" s="30" t="s">
+        <v>857</v>
+      </c>
+      <c r="E164" s="53" t="s">
+        <v>872</v>
+      </c>
+      <c r="F164" s="43" t="s">
+        <v>873</v>
+      </c>
+      <c r="G164" s="43"/>
+      <c r="H164" s="43" t="s">
+        <v>874</v>
+      </c>
+      <c r="I164" s="33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" s="50" customFormat="1" ht="25" x14ac:dyDescent="0.35">
       <c r="A165" s="33">
         <v>164</v>
       </c>
-      <c r="B165" s="49" t="s">
-        <v>959</v>
-      </c>
-      <c r="C165" s="60" t="s">
-        <v>648</v>
-      </c>
-      <c r="D165" s="59" t="s">
-        <v>960</v>
-      </c>
-      <c r="E165" s="60"/>
-      <c r="F165" s="60"/>
-      <c r="G165" s="60"/>
-      <c r="H165" s="60"/>
-      <c r="I165" s="60" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="B165" s="33" t="s">
+        <v>851</v>
+      </c>
+      <c r="C165" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="D165" s="30" t="s">
+        <v>858</v>
+      </c>
+      <c r="E165" s="53" t="s">
+        <v>875</v>
+      </c>
+      <c r="F165" s="43" t="s">
+        <v>876</v>
+      </c>
+      <c r="G165" s="43"/>
+      <c r="H165" s="43" t="s">
+        <v>877</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A166" s="33">
         <v>165</v>
       </c>
       <c r="B166" s="49" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C166" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D166" s="62" t="s">
-        <v>961</v>
+        <v>814</v>
+      </c>
+      <c r="D166" s="61" t="s">
+        <v>957</v>
       </c>
       <c r="E166" s="56" t="s">
         <v>16</v>
       </c>
       <c r="F166" s="56" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="G166" s="56"/>
       <c r="H166" s="56" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="I166" s="56" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" s="33">
         <v>166</v>
       </c>
       <c r="B167" s="49" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C167" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D167" s="62" t="s">
-        <v>962</v>
-      </c>
-      <c r="E167" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="F167" s="56" t="s">
-        <v>970</v>
-      </c>
-      <c r="G167" s="56"/>
-      <c r="H167" s="56" t="s">
-        <v>971</v>
-      </c>
-      <c r="I167" s="56" t="s">
+        <v>646</v>
+      </c>
+      <c r="D167" s="59" t="s">
+        <v>958</v>
+      </c>
+      <c r="E167" s="60"/>
+      <c r="F167" s="60"/>
+      <c r="G167" s="60"/>
+      <c r="H167" s="60"/>
+      <c r="I167" s="60" t="s">
         <v>93</v>
       </c>
     </row>
@@ -8120,50 +8165,50 @@
         <v>167</v>
       </c>
       <c r="B168" s="49" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C168" s="60" t="s">
         <v>94</v>
       </c>
       <c r="D168" s="62" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="E168" s="56" t="s">
         <v>16</v>
       </c>
       <c r="F168" s="56" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="G168" s="56"/>
       <c r="H168" s="56" t="s">
-        <v>973</v>
+        <v>966</v>
       </c>
       <c r="I168" s="56" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" ht="50" x14ac:dyDescent="0.35">
       <c r="A169" s="33">
         <v>168</v>
       </c>
       <c r="B169" s="49" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C169" s="60" t="s">
         <v>94</v>
       </c>
       <c r="D169" s="62" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="E169" s="56" t="s">
         <v>16</v>
       </c>
       <c r="F169" s="56" t="s">
-        <v>974</v>
+        <v>967</v>
       </c>
       <c r="G169" s="56"/>
       <c r="H169" s="56" t="s">
-        <v>975</v>
+        <v>968</v>
       </c>
       <c r="I169" s="56" t="s">
         <v>93</v>
@@ -8173,24 +8218,24 @@
       <c r="A170" s="33">
         <v>169</v>
       </c>
-      <c r="B170" s="48" t="s">
-        <v>959</v>
+      <c r="B170" s="49" t="s">
+        <v>957</v>
       </c>
       <c r="C170" s="60" t="s">
         <v>94</v>
       </c>
       <c r="D170" s="62" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="E170" s="56" t="s">
         <v>16</v>
       </c>
       <c r="F170" s="56" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
       <c r="G170" s="56"/>
       <c r="H170" s="56" t="s">
-        <v>977</v>
+        <v>970</v>
       </c>
       <c r="I170" s="56" t="s">
         <v>93</v>
@@ -8200,24 +8245,24 @@
       <c r="A171" s="33">
         <v>170</v>
       </c>
-      <c r="B171" s="60" t="s">
-        <v>978</v>
+      <c r="B171" s="49" t="s">
+        <v>957</v>
       </c>
       <c r="C171" s="60" t="s">
-        <v>816</v>
-      </c>
-      <c r="D171" s="61" t="s">
-        <v>978</v>
+        <v>94</v>
+      </c>
+      <c r="D171" s="62" t="s">
+        <v>962</v>
       </c>
       <c r="E171" s="56" t="s">
         <v>16</v>
       </c>
       <c r="F171" s="56" t="s">
-        <v>980</v>
+        <v>971</v>
       </c>
       <c r="G171" s="56"/>
       <c r="H171" s="56" t="s">
-        <v>981</v>
+        <v>972</v>
       </c>
       <c r="I171" s="56" t="s">
         <v>93</v>
@@ -8227,19 +8272,25 @@
       <c r="A172" s="33">
         <v>171</v>
       </c>
-      <c r="B172" s="49" t="s">
-        <v>978</v>
+      <c r="B172" s="60" t="s">
+        <v>973</v>
       </c>
       <c r="C172" s="60" t="s">
-        <v>648</v>
-      </c>
-      <c r="D172" s="59" t="s">
-        <v>979</v>
-      </c>
-      <c r="E172" s="60"/>
-      <c r="F172" s="60"/>
-      <c r="G172" s="60"/>
-      <c r="H172" s="60"/>
+        <v>814</v>
+      </c>
+      <c r="D172" s="61" t="s">
+        <v>973</v>
+      </c>
+      <c r="E172" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F172" s="56" t="s">
+        <v>975</v>
+      </c>
+      <c r="G172" s="56"/>
+      <c r="H172" s="56" t="s">
+        <v>976</v>
+      </c>
       <c r="I172" s="56" t="s">
         <v>93</v>
       </c>
@@ -8249,24 +8300,18 @@
         <v>172</v>
       </c>
       <c r="B173" s="49" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="C173" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D173" s="62" t="s">
-        <v>992</v>
-      </c>
-      <c r="E173" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="F173" s="56" t="s">
-        <v>982</v>
-      </c>
-      <c r="G173" s="56"/>
-      <c r="H173" s="56" t="s">
-        <v>983</v>
-      </c>
+        <v>646</v>
+      </c>
+      <c r="D173" s="59" t="s">
+        <v>974</v>
+      </c>
+      <c r="E173" s="60"/>
+      <c r="F173" s="60"/>
+      <c r="G173" s="60"/>
+      <c r="H173" s="60"/>
       <c r="I173" s="56" t="s">
         <v>93</v>
       </c>
@@ -8276,131 +8321,131 @@
         <v>173</v>
       </c>
       <c r="B174" s="49" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="C174" s="60" t="s">
         <v>94</v>
       </c>
       <c r="D174" s="62" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="E174" s="56" t="s">
         <v>16</v>
       </c>
       <c r="F174" s="56" t="s">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="G174" s="56"/>
       <c r="H174" s="56" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="I174" s="56" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A175" s="33">
         <v>174</v>
       </c>
       <c r="B175" s="49" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="C175" s="60" t="s">
         <v>94</v>
       </c>
       <c r="D175" s="62" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="E175" s="56" t="s">
         <v>16</v>
       </c>
       <c r="F175" s="56" t="s">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="G175" s="56"/>
       <c r="H175" s="56" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="I175" s="56" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A176" s="33">
         <v>175</v>
       </c>
       <c r="B176" s="49" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="C176" s="60" t="s">
         <v>94</v>
       </c>
       <c r="D176" s="62" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="E176" s="56" t="s">
         <v>16</v>
       </c>
       <c r="F176" s="56" t="s">
-        <v>988</v>
+        <v>981</v>
       </c>
       <c r="G176" s="56"/>
       <c r="H176" s="56" t="s">
-        <v>989</v>
+        <v>982</v>
       </c>
       <c r="I176" s="56" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" ht="50" x14ac:dyDescent="0.35">
       <c r="A177" s="33">
         <v>176</v>
       </c>
       <c r="B177" s="49" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="C177" s="60" t="s">
         <v>94</v>
       </c>
       <c r="D177" s="62" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="E177" s="56" t="s">
         <v>16</v>
       </c>
       <c r="F177" s="56" t="s">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="G177" s="56"/>
       <c r="H177" s="56" t="s">
-        <v>991</v>
+        <v>984</v>
       </c>
       <c r="I177" s="56" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A178" s="33">
         <v>177</v>
       </c>
-      <c r="B178" s="60" t="s">
-        <v>997</v>
+      <c r="B178" s="49" t="s">
+        <v>973</v>
       </c>
       <c r="C178" s="60" t="s">
-        <v>816</v>
-      </c>
-      <c r="D178" s="61" t="s">
-        <v>997</v>
+        <v>94</v>
+      </c>
+      <c r="D178" s="62" t="s">
+        <v>991</v>
       </c>
       <c r="E178" s="56" t="s">
         <v>16</v>
       </c>
       <c r="F178" s="56" t="s">
-        <v>999</v>
+        <v>985</v>
       </c>
       <c r="G178" s="56"/>
       <c r="H178" s="56" t="s">
-        <v>1000</v>
+        <v>986</v>
       </c>
       <c r="I178" s="56" t="s">
         <v>93</v>
@@ -8411,23 +8456,23 @@
         <v>178</v>
       </c>
       <c r="B179" s="60" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="C179" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D179" s="62" t="s">
-        <v>998</v>
+        <v>814</v>
+      </c>
+      <c r="D179" s="61" t="s">
+        <v>992</v>
       </c>
       <c r="E179" s="56" t="s">
         <v>16</v>
       </c>
       <c r="F179" s="56" t="s">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="G179" s="56"/>
       <c r="H179" s="56" t="s">
-        <v>1002</v>
+        <v>995</v>
       </c>
       <c r="I179" s="56" t="s">
         <v>93</v>
@@ -8438,23 +8483,23 @@
         <v>179</v>
       </c>
       <c r="B180" s="60" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="C180" s="60" t="s">
         <v>94</v>
       </c>
       <c r="D180" s="62" t="s">
-        <v>673</v>
-      </c>
-      <c r="E180" s="49" t="s">
-        <v>678</v>
-      </c>
-      <c r="F180" s="49" t="s">
-        <v>672</v>
-      </c>
-      <c r="G180" s="60"/>
-      <c r="H180" s="49" t="s">
-        <v>677</v>
+        <v>993</v>
+      </c>
+      <c r="E180" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F180" s="56" t="s">
+        <v>996</v>
+      </c>
+      <c r="G180" s="56"/>
+      <c r="H180" s="56" t="s">
+        <v>997</v>
       </c>
       <c r="I180" s="56" t="s">
         <v>93</v>
@@ -8464,19 +8509,25 @@
       <c r="A181" s="33">
         <v>180</v>
       </c>
-      <c r="B181" s="49" t="s">
-        <v>1012</v>
+      <c r="B181" s="60" t="s">
+        <v>992</v>
       </c>
       <c r="C181" s="60" t="s">
-        <v>816</v>
-      </c>
-      <c r="D181" s="61" t="s">
-        <v>1012</v>
-      </c>
-      <c r="E181" s="56"/>
-      <c r="F181" s="56"/>
-      <c r="G181" s="56"/>
-      <c r="H181" s="56"/>
+        <v>94</v>
+      </c>
+      <c r="D181" s="62" t="s">
+        <v>671</v>
+      </c>
+      <c r="E181" s="49" t="s">
+        <v>676</v>
+      </c>
+      <c r="F181" s="49" t="s">
+        <v>670</v>
+      </c>
+      <c r="G181" s="60"/>
+      <c r="H181" s="49" t="s">
+        <v>675</v>
+      </c>
       <c r="I181" s="56" t="s">
         <v>93</v>
       </c>
@@ -8486,24 +8537,18 @@
         <v>181</v>
       </c>
       <c r="B182" s="49" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="C182" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D182" s="62" t="s">
-        <v>1009</v>
-      </c>
-      <c r="E182" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="F182" s="56" t="s">
-        <v>1003</v>
-      </c>
+        <v>814</v>
+      </c>
+      <c r="D182" s="61" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E182" s="56"/>
+      <c r="F182" s="56"/>
       <c r="G182" s="56"/>
-      <c r="H182" s="56" t="s">
-        <v>1004</v>
-      </c>
+      <c r="H182" s="56"/>
       <c r="I182" s="56" t="s">
         <v>93</v>
       </c>
@@ -8513,23 +8558,23 @@
         <v>182</v>
       </c>
       <c r="B183" s="49" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="C183" s="60" t="s">
         <v>94</v>
       </c>
       <c r="D183" s="62" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="E183" s="56" t="s">
         <v>16</v>
       </c>
       <c r="F183" s="56" t="s">
-        <v>1005</v>
+        <v>998</v>
       </c>
       <c r="G183" s="56"/>
       <c r="H183" s="56" t="s">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="I183" s="56" t="s">
         <v>93</v>
@@ -8540,23 +8585,23 @@
         <v>183</v>
       </c>
       <c r="B184" s="49" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="C184" s="60" t="s">
         <v>94</v>
       </c>
       <c r="D184" s="62" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="E184" s="56" t="s">
         <v>16</v>
       </c>
       <c r="F184" s="56" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="G184" s="56"/>
       <c r="H184" s="56" t="s">
-        <v>1008</v>
+        <v>1001</v>
       </c>
       <c r="I184" s="56" t="s">
         <v>93</v>
@@ -8567,23 +8612,23 @@
         <v>184</v>
       </c>
       <c r="B185" s="49" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="C185" s="60" t="s">
-        <v>816</v>
-      </c>
-      <c r="D185" s="61" t="s">
-        <v>1013</v>
+        <v>94</v>
+      </c>
+      <c r="D185" s="62" t="s">
+        <v>1006</v>
       </c>
       <c r="E185" s="56" t="s">
         <v>16</v>
       </c>
       <c r="F185" s="56" t="s">
-        <v>1014</v>
+        <v>1002</v>
       </c>
       <c r="G185" s="56"/>
       <c r="H185" s="56" t="s">
-        <v>1015</v>
+        <v>1003</v>
       </c>
       <c r="I185" s="56" t="s">
         <v>93</v>
@@ -8594,18 +8639,24 @@
         <v>185</v>
       </c>
       <c r="B186" s="49" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="C186" s="60" t="s">
-        <v>648</v>
-      </c>
-      <c r="D186" s="59" t="s">
-        <v>1020</v>
-      </c>
-      <c r="E186" s="60"/>
-      <c r="F186" s="60"/>
-      <c r="G186" s="60"/>
-      <c r="H186" s="60"/>
+        <v>814</v>
+      </c>
+      <c r="D186" s="61" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E186" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F186" s="56" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G186" s="56"/>
+      <c r="H186" s="56" t="s">
+        <v>1010</v>
+      </c>
       <c r="I186" s="56" t="s">
         <v>93</v>
       </c>
@@ -8615,13 +8666,13 @@
         <v>186</v>
       </c>
       <c r="B187" s="49" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="C187" s="60" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D187" s="59" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="E187" s="60"/>
       <c r="F187" s="60"/>
@@ -8636,13 +8687,13 @@
         <v>187</v>
       </c>
       <c r="B188" s="49" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="C188" s="60" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D188" s="59" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="E188" s="60"/>
       <c r="F188" s="60"/>
@@ -8657,24 +8708,18 @@
         <v>188</v>
       </c>
       <c r="B189" s="49" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="C189" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D189" s="62" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E189" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="F189" s="56" t="s">
-        <v>1016</v>
-      </c>
-      <c r="G189" s="56"/>
-      <c r="H189" s="56" t="s">
-        <v>1017</v>
-      </c>
+        <v>646</v>
+      </c>
+      <c r="D189" s="59" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E189" s="60"/>
+      <c r="F189" s="60"/>
+      <c r="G189" s="60"/>
+      <c r="H189" s="60"/>
       <c r="I189" s="56" t="s">
         <v>93</v>
       </c>
@@ -8684,30 +8729,57 @@
         <v>189</v>
       </c>
       <c r="B190" s="49" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="C190" s="60" t="s">
         <v>94</v>
       </c>
       <c r="D190" s="62" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="E190" s="56" t="s">
         <v>16</v>
       </c>
       <c r="F190" s="56" t="s">
-        <v>1018</v>
+        <v>1011</v>
       </c>
       <c r="G190" s="56"/>
       <c r="H190" s="56" t="s">
-        <v>1019</v>
+        <v>1012</v>
       </c>
       <c r="I190" s="56" t="s">
         <v>93</v>
       </c>
     </row>
+    <row r="191" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A191" s="33">
+        <v>190</v>
+      </c>
+      <c r="B191" s="49" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C191" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="D191" s="62" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E191" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F191" s="56" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G191" s="56"/>
+      <c r="H191" s="56" t="s">
+        <v>1014</v>
+      </c>
+      <c r="I191" s="56" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I163" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I165" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8827,10 +8899,10 @@
         <v>94</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>0</v>
@@ -8847,13 +8919,13 @@
         <v>158</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>179</v>
@@ -8871,13 +8943,13 @@
         <v>158</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>180</v>
@@ -8895,13 +8967,13 @@
         <v>158</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>181</v>
@@ -8919,13 +8991,13 @@
         <v>158</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>182</v>
@@ -8943,13 +9015,13 @@
         <v>158</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>226</v>
@@ -8969,13 +9041,13 @@
         <v>158</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>227</v>
@@ -8995,13 +9067,13 @@
         <v>158</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>228</v>
@@ -9021,13 +9093,13 @@
         <v>158</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>229</v>
@@ -9047,13 +9119,13 @@
         <v>158</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>230</v>
@@ -9073,13 +9145,13 @@
         <v>158</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>231</v>
@@ -9099,13 +9171,13 @@
         <v>158</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>232</v>
@@ -9125,13 +9197,13 @@
         <v>158</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>233</v>
@@ -9151,13 +9223,13 @@
         <v>158</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>234</v>
@@ -9177,13 +9249,13 @@
         <v>158</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>235</v>
@@ -9203,13 +9275,13 @@
         <v>158</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>236</v>
@@ -9229,13 +9301,13 @@
         <v>158</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E22" s="19" t="s">
         <v>237</v>
@@ -9255,13 +9327,13 @@
         <v>158</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E23" s="19" t="s">
         <v>238</v>
@@ -9281,13 +9353,13 @@
         <v>158</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>171</v>
@@ -9305,16 +9377,16 @@
         <v>158</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>162</v>
@@ -9331,13 +9403,13 @@
         <v>158</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E26" s="15" t="s">
         <v>172</v>
@@ -9355,13 +9427,13 @@
         <v>158</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>173</v>
@@ -9379,13 +9451,13 @@
         <v>158</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>174</v>
@@ -9406,22 +9478,22 @@
         <v>534</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F29" s="52" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H29" s="19" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="14" customFormat="1" ht="25" x14ac:dyDescent="0.35">
@@ -9432,20 +9504,20 @@
         <v>534</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="15" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="14" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.35">
@@ -9456,22 +9528,22 @@
         <v>534</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="G31" s="15" t="s">
+        <v>725</v>
+      </c>
+      <c r="H31" s="15" t="s">
         <v>727</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="14" customFormat="1" ht="25" x14ac:dyDescent="0.35">
@@ -9479,13 +9551,13 @@
         <v>158</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E32" s="19" t="s">
         <v>409</v>
@@ -9505,13 +9577,13 @@
         <v>158</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E33" s="19" t="s">
         <v>410</v>
@@ -9529,13 +9601,13 @@
         <v>158</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E34" s="19" t="s">
         <v>411</v>
@@ -9553,13 +9625,13 @@
         <v>158</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E35" s="19" t="s">
         <v>412</v>
@@ -9577,13 +9649,13 @@
         <v>158</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E36" s="19" t="s">
         <v>413</v>
@@ -9601,13 +9673,13 @@
         <v>158</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E37" s="19" t="s">
         <v>414</v>
@@ -9625,13 +9697,13 @@
         <v>158</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E38" s="19" t="s">
         <v>415</v>
@@ -9649,13 +9721,13 @@
         <v>158</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E39" s="19" t="s">
         <v>416</v>
@@ -9675,13 +9747,13 @@
         <v>158</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E40" s="19" t="s">
         <v>417</v>
@@ -9699,13 +9771,13 @@
         <v>158</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E41" s="19" t="s">
         <v>418</v>
@@ -9723,13 +9795,13 @@
         <v>158</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E42" s="19" t="s">
         <v>419</v>
@@ -9749,13 +9821,13 @@
         <v>158</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E43" s="19" t="s">
         <v>476</v>
@@ -9773,13 +9845,13 @@
         <v>158</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E44" s="19" t="s">
         <v>477</v>
@@ -9797,13 +9869,13 @@
         <v>158</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E45" s="19" t="s">
         <v>478</v>
@@ -9821,13 +9893,13 @@
         <v>158</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E46" s="19" t="s">
         <v>479</v>
@@ -9845,13 +9917,13 @@
         <v>158</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E47" s="19" t="s">
         <v>480</v>
@@ -9869,13 +9941,13 @@
         <v>158</v>
       </c>
       <c r="B48" s="36" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E48" s="19" t="s">
         <v>481</v>
@@ -9893,13 +9965,13 @@
         <v>158</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E49" s="19" t="s">
         <v>412</v>
@@ -9917,13 +9989,13 @@
         <v>158</v>
       </c>
       <c r="B50" s="36" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E50" s="19" t="s">
         <v>482</v>
@@ -9941,13 +10013,13 @@
         <v>158</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E51" s="19" t="s">
         <v>483</v>
@@ -9965,13 +10037,13 @@
         <v>158</v>
       </c>
       <c r="B52" s="36" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E52" s="19" t="s">
         <v>484</v>
@@ -9989,13 +10061,13 @@
         <v>158</v>
       </c>
       <c r="B53" s="36" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E53" s="19" t="s">
         <v>485</v>
@@ -10013,13 +10085,13 @@
         <v>158</v>
       </c>
       <c r="B54" s="36" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E54" s="19" t="s">
         <v>486</v>
@@ -10039,13 +10111,13 @@
         <v>158</v>
       </c>
       <c r="B55" s="36" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E55" s="19" t="s">
         <v>487</v>
@@ -10063,13 +10135,13 @@
         <v>158</v>
       </c>
       <c r="B56" s="36" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E56" s="19" t="s">
         <v>488</v>
@@ -10087,13 +10159,13 @@
         <v>158</v>
       </c>
       <c r="B57" s="36" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E57" s="19" t="s">
         <v>489</v>
@@ -10111,13 +10183,13 @@
         <v>158</v>
       </c>
       <c r="B58" s="36" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E58" s="19" t="s">
         <v>490</v>
@@ -10135,13 +10207,13 @@
         <v>158</v>
       </c>
       <c r="B59" s="36" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E59" s="19" t="s">
         <v>491</v>
@@ -10159,13 +10231,13 @@
         <v>158</v>
       </c>
       <c r="B60" s="36" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E60" s="19" t="s">
         <v>492</v>
@@ -10183,13 +10255,13 @@
         <v>158</v>
       </c>
       <c r="B61" s="36" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E61" s="19" t="s">
         <v>493</v>
@@ -10207,13 +10279,13 @@
         <v>158</v>
       </c>
       <c r="B62" s="36" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E62" s="19" t="s">
         <v>494</v>
@@ -10231,13 +10303,13 @@
         <v>158</v>
       </c>
       <c r="B63" s="36" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E63" s="19" t="s">
         <v>495</v>
@@ -10255,13 +10327,13 @@
         <v>158</v>
       </c>
       <c r="B64" s="36" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E64" s="19" t="s">
         <v>416</v>
@@ -10281,13 +10353,13 @@
         <v>158</v>
       </c>
       <c r="B65" s="36" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E65" s="19" t="s">
         <v>496</v>
@@ -10305,13 +10377,13 @@
         <v>158</v>
       </c>
       <c r="B66" s="36" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E66" s="19" t="s">
         <v>497</v>
@@ -10329,13 +10401,13 @@
         <v>158</v>
       </c>
       <c r="B67" s="36" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E67" s="19" t="s">
         <v>498</v>
@@ -10353,13 +10425,13 @@
         <v>158</v>
       </c>
       <c r="B68" s="36" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E68" s="19" t="s">
         <v>499</v>
@@ -10379,13 +10451,13 @@
         <v>158</v>
       </c>
       <c r="B69" s="36" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E69" s="19" t="s">
         <v>500</v>
@@ -10403,13 +10475,13 @@
         <v>158</v>
       </c>
       <c r="B70" s="36" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E70" s="19" t="s">
         <v>419</v>
@@ -10429,13 +10501,13 @@
         <v>158</v>
       </c>
       <c r="B71" s="36" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E71" s="19" t="s">
         <v>501</v>
@@ -10453,13 +10525,13 @@
         <v>158</v>
       </c>
       <c r="B72" s="36" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E72" s="19" t="s">
         <v>502</v>
@@ -10477,13 +10549,13 @@
         <v>158</v>
       </c>
       <c r="B73" s="36" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E73" s="19" t="s">
         <v>249</v>
@@ -10501,13 +10573,13 @@
         <v>158</v>
       </c>
       <c r="B74" s="36" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E74" s="19" t="s">
         <v>250</v>
@@ -10525,13 +10597,13 @@
         <v>158</v>
       </c>
       <c r="B75" s="36" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D75" s="19" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E75" s="19" t="s">
         <v>251</v>
@@ -10549,13 +10621,13 @@
         <v>158</v>
       </c>
       <c r="B76" s="36" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E76" s="19" t="s">
         <v>252</v>
@@ -10573,13 +10645,13 @@
         <v>158</v>
       </c>
       <c r="B77" s="36" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E77" s="19" t="s">
         <v>253</v>
@@ -10597,13 +10669,13 @@
         <v>158</v>
       </c>
       <c r="B78" s="36" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E78" s="15" t="s">
         <v>503</v>
@@ -10615,7 +10687,7 @@
         <v>520</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="25" x14ac:dyDescent="0.35">
@@ -10623,13 +10695,13 @@
         <v>158</v>
       </c>
       <c r="B79" s="36" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E79" s="15" t="s">
         <v>517</v>
@@ -10641,7 +10713,7 @@
         <v>521</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="37.5" x14ac:dyDescent="0.35">
@@ -10649,13 +10721,13 @@
         <v>158</v>
       </c>
       <c r="B80" s="36" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E80" s="19" t="s">
         <v>260</v>
@@ -10673,13 +10745,13 @@
         <v>158</v>
       </c>
       <c r="B81" s="36" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E81" s="19" t="s">
         <v>261</v>
@@ -10697,13 +10769,13 @@
         <v>158</v>
       </c>
       <c r="B82" s="36" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E82" s="19" t="s">
         <v>262</v>
@@ -10721,16 +10793,16 @@
         <v>158</v>
       </c>
       <c r="B83" s="36" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E83" s="19" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="F83" s="19" t="s">
         <v>263</v>
@@ -10745,13 +10817,13 @@
         <v>158</v>
       </c>
       <c r="B84" s="36" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D84" s="19" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E84" s="19" t="s">
         <v>272</v>
@@ -10769,13 +10841,13 @@
         <v>158</v>
       </c>
       <c r="B85" s="36" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E85" s="19" t="s">
         <v>273</v>
@@ -10793,16 +10865,16 @@
         <v>158</v>
       </c>
       <c r="B86" s="36" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E86" s="19" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F86" s="19" t="s">
         <v>268</v>
@@ -10817,16 +10889,16 @@
         <v>158</v>
       </c>
       <c r="B87" s="36" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E87" s="19" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="F87" s="19" t="s">
         <v>270</v>
@@ -10841,13 +10913,13 @@
         <v>158</v>
       </c>
       <c r="B88" s="36" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C88" s="19" t="s">
         <v>565</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E88" s="19" t="s">
         <v>298</v>
@@ -10865,13 +10937,13 @@
         <v>158</v>
       </c>
       <c r="B89" s="36" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C89" s="19" t="s">
         <v>565</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E89" s="19" t="s">
         <v>299</v>
@@ -10889,13 +10961,13 @@
         <v>158</v>
       </c>
       <c r="B90" s="36" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C90" s="19" t="s">
         <v>565</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E90" s="19" t="s">
         <v>300</v>
@@ -10915,13 +10987,13 @@
         <v>158</v>
       </c>
       <c r="B91" s="36" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C91" s="19" t="s">
         <v>565</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E91" s="19" t="s">
         <v>301</v>
@@ -10939,13 +11011,13 @@
         <v>158</v>
       </c>
       <c r="B92" s="36" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C92" s="19" t="s">
         <v>565</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E92" s="19" t="s">
         <v>302</v>
@@ -10965,13 +11037,13 @@
         <v>158</v>
       </c>
       <c r="B93" s="36" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C93" s="19" t="s">
         <v>565</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E93" s="19" t="s">
         <v>303</v>
@@ -10989,13 +11061,13 @@
         <v>158</v>
       </c>
       <c r="B94" s="36" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C94" s="19" t="s">
         <v>565</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E94" s="19" t="s">
         <v>304</v>
@@ -11013,13 +11085,13 @@
         <v>158</v>
       </c>
       <c r="B95" s="36" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C95" s="19" t="s">
         <v>565</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E95" s="19" t="s">
         <v>305</v>
@@ -11037,13 +11109,13 @@
         <v>158</v>
       </c>
       <c r="B96" s="36" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C96" s="19" t="s">
         <v>565</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E96" s="19" t="s">
         <v>306</v>
@@ -11061,13 +11133,13 @@
         <v>158</v>
       </c>
       <c r="B97" s="36" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C97" s="19" t="s">
         <v>565</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E97" s="19" t="s">
         <v>307</v>
@@ -11085,13 +11157,13 @@
         <v>158</v>
       </c>
       <c r="B98" s="36" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C98" s="19" t="s">
         <v>565</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E98" s="19" t="s">
         <v>308</v>
@@ -11101,7 +11173,7 @@
       </c>
       <c r="G98" s="19"/>
       <c r="H98" s="19" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="37.5" x14ac:dyDescent="0.35">
@@ -11109,13 +11181,13 @@
         <v>158</v>
       </c>
       <c r="B99" s="36" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C99" s="19" t="s">
         <v>565</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E99" s="19" t="s">
         <v>309</v>
@@ -11125,7 +11197,7 @@
       </c>
       <c r="G99" s="19"/>
       <c r="H99" s="19" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="25" x14ac:dyDescent="0.35">
@@ -11133,13 +11205,13 @@
         <v>158</v>
       </c>
       <c r="B100" s="36" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C100" s="15" t="s">
         <v>573</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E100" s="19" t="s">
         <v>384</v>
@@ -11157,13 +11229,13 @@
         <v>158</v>
       </c>
       <c r="B101" s="36" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C101" s="15" t="s">
         <v>574</v>
       </c>
       <c r="D101" s="19" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E101" s="19" t="s">
         <v>366</v>
@@ -11181,13 +11253,13 @@
         <v>158</v>
       </c>
       <c r="B102" s="36" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C102" s="15" t="s">
         <v>574</v>
       </c>
       <c r="D102" s="19" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E102" s="19" t="s">
         <v>367</v>
@@ -11205,13 +11277,13 @@
         <v>158</v>
       </c>
       <c r="B103" s="36" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C103" s="15" t="s">
         <v>574</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E103" s="19" t="s">
         <v>368</v>
@@ -11229,13 +11301,13 @@
         <v>158</v>
       </c>
       <c r="B104" s="36" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C104" s="15" t="s">
         <v>574</v>
       </c>
       <c r="D104" s="19" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E104" s="19" t="s">
         <v>369</v>
@@ -11253,13 +11325,13 @@
         <v>158</v>
       </c>
       <c r="B105" s="36" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C105" s="15" t="s">
         <v>574</v>
       </c>
       <c r="D105" s="19" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E105" s="19" t="s">
         <v>370</v>
@@ -11277,13 +11349,13 @@
         <v>158</v>
       </c>
       <c r="B106" s="36" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C106" s="15" t="s">
         <v>574</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E106" s="19" t="s">
         <v>371</v>
@@ -11301,13 +11373,13 @@
         <v>158</v>
       </c>
       <c r="B107" s="36" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C107" s="15" t="s">
         <v>574</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E107" s="19" t="s">
         <v>372</v>
@@ -11325,13 +11397,13 @@
         <v>158</v>
       </c>
       <c r="B108" s="36" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C108" s="15" t="s">
         <v>574</v>
       </c>
       <c r="D108" s="19" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E108" s="19" t="s">
         <v>373</v>
@@ -11349,13 +11421,13 @@
         <v>158</v>
       </c>
       <c r="B109" s="36" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C109" s="15" t="s">
         <v>574</v>
       </c>
       <c r="D109" s="19" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E109" s="19" t="s">
         <v>374</v>
@@ -11373,13 +11445,13 @@
         <v>158</v>
       </c>
       <c r="B110" s="36" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C110" s="15" t="s">
         <v>574</v>
       </c>
       <c r="D110" s="19" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E110" s="19" t="s">
         <v>375</v>
@@ -11397,13 +11469,13 @@
         <v>158</v>
       </c>
       <c r="B111" s="36" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C111" s="15" t="s">
         <v>574</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E111" s="19" t="s">
         <v>376</v>
@@ -11421,13 +11493,13 @@
         <v>158</v>
       </c>
       <c r="B112" s="36" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C112" s="15" t="s">
         <v>574</v>
       </c>
       <c r="D112" s="19" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E112" s="19" t="s">
         <v>377</v>
@@ -11445,13 +11517,13 @@
         <v>158</v>
       </c>
       <c r="B113" s="36" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C113" s="15" t="s">
         <v>574</v>
       </c>
       <c r="D113" s="19" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E113" s="19" t="s">
         <v>378</v>
@@ -11469,13 +11541,13 @@
         <v>158</v>
       </c>
       <c r="B114" s="36" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C114" s="15" t="s">
         <v>574</v>
       </c>
       <c r="D114" s="19" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E114" s="19" t="s">
         <v>379</v>
@@ -11493,13 +11565,13 @@
         <v>158</v>
       </c>
       <c r="B115" s="36" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C115" s="15" t="s">
         <v>574</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E115" s="19" t="s">
         <v>380</v>
@@ -11517,13 +11589,13 @@
         <v>158</v>
       </c>
       <c r="B116" s="36" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C116" s="15" t="s">
         <v>574</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E116" s="19" t="s">
         <v>381</v>
@@ -11541,13 +11613,13 @@
         <v>158</v>
       </c>
       <c r="B117" s="36" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C117" s="15" t="s">
         <v>574</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E117" s="19" t="s">
         <v>382</v>
@@ -11565,13 +11637,13 @@
         <v>158</v>
       </c>
       <c r="B118" s="36" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C118" s="15" t="s">
         <v>574</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E118" s="19" t="s">
         <v>383</v>
@@ -11589,13 +11661,13 @@
         <v>158</v>
       </c>
       <c r="B119" s="36" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C119" s="15" t="s">
         <v>575</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E119" s="19" t="s">
         <v>324</v>
@@ -11615,13 +11687,13 @@
         <v>158</v>
       </c>
       <c r="B120" s="36" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C120" s="15" t="s">
         <v>575</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E120" s="19" t="s">
         <v>325</v>
@@ -11641,13 +11713,13 @@
         <v>158</v>
       </c>
       <c r="B121" s="36" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C121" s="15" t="s">
         <v>575</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E121" s="19" t="s">
         <v>326</v>
@@ -11665,13 +11737,13 @@
         <v>158</v>
       </c>
       <c r="B122" s="36" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C122" s="15" t="s">
         <v>575</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E122" s="19" t="s">
         <v>327</v>
@@ -11689,13 +11761,13 @@
         <v>158</v>
       </c>
       <c r="B123" s="36" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C123" s="15" t="s">
         <v>575</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E123" s="19" t="s">
         <v>328</v>
@@ -11713,13 +11785,13 @@
         <v>158</v>
       </c>
       <c r="B124" s="36" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C124" s="15" t="s">
         <v>575</v>
       </c>
       <c r="D124" s="19" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E124" s="19" t="s">
         <v>329</v>
@@ -11737,25 +11809,25 @@
         <v>158</v>
       </c>
       <c r="B125" s="36" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E125" s="43" t="s">
+        <v>910</v>
+      </c>
+      <c r="F125" s="43" t="s">
+        <v>911</v>
+      </c>
+      <c r="G125" s="43" t="s">
         <v>912</v>
       </c>
-      <c r="F125" s="43" t="s">
+      <c r="H125" s="43" t="s">
         <v>913</v>
-      </c>
-      <c r="G125" s="43" t="s">
-        <v>914</v>
-      </c>
-      <c r="H125" s="43" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="50" x14ac:dyDescent="0.35">
@@ -11763,23 +11835,23 @@
         <v>158</v>
       </c>
       <c r="B126" s="36" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D126" s="19" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E126" s="43" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="F126" s="43" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G126" s="43"/>
       <c r="H126" s="43" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="37.5" x14ac:dyDescent="0.35">
@@ -11787,23 +11859,23 @@
         <v>158</v>
       </c>
       <c r="B127" s="36" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D127" s="19" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E127" s="43" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="F127" s="43" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="G127" s="43"/>
       <c r="H127" s="43" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="25" x14ac:dyDescent="0.35">
@@ -11811,23 +11883,23 @@
         <v>158</v>
       </c>
       <c r="B128" s="36" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D128" s="19" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E128" s="43" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F128" s="43" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="G128" s="43"/>
       <c r="H128" s="43" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="25" x14ac:dyDescent="0.35">
@@ -11835,25 +11907,25 @@
         <v>158</v>
       </c>
       <c r="B129" s="36" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D129" s="19" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E129" s="43" t="s">
+        <v>923</v>
+      </c>
+      <c r="F129" s="43" t="s">
+        <v>924</v>
+      </c>
+      <c r="G129" s="43" t="s">
         <v>925</v>
       </c>
-      <c r="F129" s="43" t="s">
+      <c r="H129" s="43" t="s">
         <v>926</v>
-      </c>
-      <c r="G129" s="43" t="s">
-        <v>927</v>
-      </c>
-      <c r="H129" s="43" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.35">
@@ -11861,23 +11933,23 @@
         <v>158</v>
       </c>
       <c r="B130" s="58" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C130" s="57" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D130" s="57" t="s">
+        <v>942</v>
+      </c>
+      <c r="E130" s="56" t="s">
+        <v>943</v>
+      </c>
+      <c r="F130" s="56" t="s">
         <v>944</v>
-      </c>
-      <c r="E130" s="56" t="s">
-        <v>945</v>
-      </c>
-      <c r="F130" s="56" t="s">
-        <v>946</v>
       </c>
       <c r="G130" s="56"/>
       <c r="H130" s="56" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="37.5" x14ac:dyDescent="0.35">
@@ -11885,25 +11957,25 @@
         <v>158</v>
       </c>
       <c r="B131" s="58" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C131" s="57" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D131" s="57" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="E131" s="56" t="s">
+        <v>946</v>
+      </c>
+      <c r="F131" s="56" t="s">
+        <v>947</v>
+      </c>
+      <c r="G131" s="56" t="s">
         <v>948</v>
       </c>
-      <c r="F131" s="56" t="s">
+      <c r="H131" s="56" t="s">
         <v>949</v>
-      </c>
-      <c r="G131" s="56" t="s">
-        <v>950</v>
-      </c>
-      <c r="H131" s="56" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="37.5" x14ac:dyDescent="0.35">
@@ -11911,25 +11983,25 @@
         <v>158</v>
       </c>
       <c r="B132" s="58" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C132" s="57" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D132" s="57" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="E132" s="56" t="s">
+        <v>950</v>
+      </c>
+      <c r="F132" s="56" t="s">
+        <v>951</v>
+      </c>
+      <c r="G132" s="56" t="s">
         <v>952</v>
       </c>
-      <c r="F132" s="56" t="s">
+      <c r="H132" s="56" t="s">
         <v>953</v>
-      </c>
-      <c r="G132" s="56" t="s">
-        <v>954</v>
-      </c>
-      <c r="H132" s="56" t="s">
-        <v>955</v>
       </c>
     </row>
   </sheetData>
@@ -11945,24 +12017,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D9A8E34D4601248B4650C3759D604D8" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c234dc030e1d129322a3d56f76335218">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="de0c653c-2bd3-43b1-95fa-012c57f61cfe" xmlns:ns3="848a8810-16a6-4d79-96d3-e3dfb86099b7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a56d1a68c4d05b5a1e5a3c0b3fb5b1a8" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -12184,33 +12238,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6744B0D-B7F9-4CA7-A5DC-23D611E8ED20}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="de0c653c-2bd3-43b1-95fa-012c57f61cfe"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="848a8810-16a6-4d79-96d3-e3dfb86099b7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B4CE896-D144-40A9-85D3-0684E5DFDA36}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19245E31-480A-4933-AB52-6FC5778D0ABF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12228,4 +12274,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B4CE896-D144-40A9-85D3-0684E5DFDA36}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6744B0D-B7F9-4CA7-A5DC-23D611E8ED20}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="de0c653c-2bd3-43b1-95fa-012c57f61cfe"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="848a8810-16a6-4d79-96d3-e3dfb86099b7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Deliverables/CT/USDM_CT.xlsx
+++ b/Deliverables/CT/USDM_CT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhlbradtee\Documents\GitHub\DDF-RA\Deliverables\CT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA531ADF-8F16-46A8-92E5-C4F3E83E5FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE20EE5C-C577-4863-A086-F0430603836B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="770" yWindow="120" windowWidth="17200" windowHeight="9880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5980" yWindow="0" windowWidth="17200" windowHeight="9880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DDF Entities&amp;Attributes" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="1024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="1027">
   <si>
     <t>Preferred Term</t>
   </si>
@@ -3225,6 +3225,15 @@
   </si>
   <si>
     <t>nextActivityId</t>
+  </si>
+  <si>
+    <t>biomedicalConcepts</t>
+  </si>
+  <si>
+    <t>bcCategories</t>
+  </si>
+  <si>
+    <t>bcSurrogates</t>
   </si>
 </sst>
 </file>
@@ -3633,6 +3642,18 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3647,18 +3668,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3954,8 +3963,8 @@
   <dimension ref="A1:I191"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.35"/>
@@ -4960,7 +4969,7 @@
         <v>646</v>
       </c>
       <c r="D41" s="59" t="s">
-        <v>954</v>
+        <v>1024</v>
       </c>
       <c r="E41" s="29"/>
       <c r="F41" s="4"/>
@@ -4979,7 +4988,7 @@
         <v>646</v>
       </c>
       <c r="D42" s="59" t="s">
-        <v>955</v>
+        <v>1025</v>
       </c>
       <c r="E42" s="29"/>
       <c r="F42" s="4"/>
@@ -4998,7 +5007,7 @@
         <v>646</v>
       </c>
       <c r="D43" s="59" t="s">
-        <v>956</v>
+        <v>1026</v>
       </c>
       <c r="E43" s="29"/>
       <c r="F43" s="4"/>
@@ -6834,26 +6843,26 @@
       <c r="A116" s="33">
         <v>115</v>
       </c>
-      <c r="B116" s="68" t="s">
+      <c r="B116" s="63" t="s">
         <v>663</v>
       </c>
-      <c r="C116" s="69" t="s">
+      <c r="C116" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="D116" s="70" t="s">
+      <c r="D116" s="65" t="s">
         <v>588</v>
       </c>
-      <c r="E116" s="68" t="s">
+      <c r="E116" s="63" t="s">
         <v>758</v>
       </c>
-      <c r="F116" s="68" t="s">
+      <c r="F116" s="63" t="s">
         <v>590</v>
       </c>
-      <c r="G116" s="68"/>
-      <c r="H116" s="68" t="s">
+      <c r="G116" s="63"/>
+      <c r="H116" s="63" t="s">
         <v>716</v>
       </c>
-      <c r="I116" s="71" t="s">
+      <c r="I116" s="66" t="s">
         <v>93</v>
       </c>
     </row>
@@ -6861,26 +6870,26 @@
       <c r="A117" s="33">
         <v>116</v>
       </c>
-      <c r="B117" s="68" t="s">
+      <c r="B117" s="63" t="s">
         <v>663</v>
       </c>
-      <c r="C117" s="69" t="s">
+      <c r="C117" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="D117" s="70" t="s">
+      <c r="D117" s="65" t="s">
         <v>589</v>
       </c>
-      <c r="E117" s="68" t="s">
+      <c r="E117" s="63" t="s">
         <v>759</v>
       </c>
-      <c r="F117" s="68" t="s">
+      <c r="F117" s="63" t="s">
         <v>591</v>
       </c>
-      <c r="G117" s="68"/>
-      <c r="H117" s="68" t="s">
+      <c r="G117" s="63"/>
+      <c r="H117" s="63" t="s">
         <v>717</v>
       </c>
-      <c r="I117" s="71" t="s">
+      <c r="I117" s="66" t="s">
         <v>93</v>
       </c>
     </row>
@@ -8807,14 +8816,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="67" t="s">
         <v>506</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
       <c r="I1" s="6"/>
@@ -8825,16 +8834,16 @@
       <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:14" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="69" t="s">
         <v>505</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -8843,11 +8852,11 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:14" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="67" t="s">
         <v>507</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
       <c r="D3" s="32"/>
       <c r="E3" s="24"/>
       <c r="F3" s="20"/>
@@ -8871,10 +8880,10 @@
       <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:14" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="70" t="s">
         <v>156</v>
       </c>
-      <c r="B5" s="67"/>
+      <c r="B5" s="71"/>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
       <c r="E5" s="25"/>
@@ -12017,6 +12026,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D9A8E34D4601248B4650C3759D604D8" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c234dc030e1d129322a3d56f76335218">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="de0c653c-2bd3-43b1-95fa-012c57f61cfe" xmlns:ns3="848a8810-16a6-4d79-96d3-e3dfb86099b7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a56d1a68c4d05b5a1e5a3c0b3fb5b1a8" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -12238,25 +12265,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6744B0D-B7F9-4CA7-A5DC-23D611E8ED20}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="de0c653c-2bd3-43b1-95fa-012c57f61cfe"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="848a8810-16a6-4d79-96d3-e3dfb86099b7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B4CE896-D144-40A9-85D3-0684E5DFDA36}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19245E31-480A-4933-AB52-6FC5778D0ABF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12274,30 +12309,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B4CE896-D144-40A9-85D3-0684E5DFDA36}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6744B0D-B7F9-4CA7-A5DC-23D611E8ED20}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="de0c653c-2bd3-43b1-95fa-012c57f61cfe"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="848a8810-16a6-4d79-96d3-e3dfb86099b7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Deliverables/CT/USDM_CT.xlsx
+++ b/Deliverables/CT/USDM_CT.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhlbradtee\Documents\GitHub\DDF-RA\Deliverables\CT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE20EE5C-C577-4863-A086-F0430603836B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B801E7-371D-409E-86D4-3C34FECBF848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5980" yWindow="0" windowWidth="17200" windowHeight="9880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="470" yWindow="2280" windowWidth="18730" windowHeight="8310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DDF Entities&amp;Attributes" sheetId="4" r:id="rId1"/>
     <sheet name="DDF valid value sets" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DDF Entities&amp;Attributes'!$A$1:$I$165</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DDF Entities&amp;Attributes'!$A$1:$I$163</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DDF valid value sets'!$A$6:$N$124</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="1027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="1019">
   <si>
     <t>Preferred Term</t>
   </si>
@@ -1805,18 +1805,6 @@
     <t>activityName</t>
   </si>
   <si>
-    <t>previousActivityID</t>
-  </si>
-  <si>
-    <t>nextActivityID</t>
-  </si>
-  <si>
-    <t>Previous Activity Identifier</t>
-  </si>
-  <si>
-    <t>Next Activity Identifier</t>
-  </si>
-  <si>
     <t>studyDataName</t>
   </si>
   <si>
@@ -2189,12 +2177,6 @@
     <t>A system identifier assigned to a clinical encounter that occurs immediately after the current clinical encounter.</t>
   </si>
   <si>
-    <t>A system identifier assigned to a study activity that occurs immediately prior to the current study activity.</t>
-  </si>
-  <si>
-    <t>A system identifier assigned to a study activity that occurs immediately after the current study activity.</t>
-  </si>
-  <si>
     <t>A system identifier assigned to a workflow item that occurs immediately prior to the current workflow item.</t>
   </si>
   <si>
@@ -2313,12 +2295,6 @@
   </si>
   <si>
     <t>C188842</t>
-  </si>
-  <si>
-    <t>C188843</t>
-  </si>
-  <si>
-    <t>C188844</t>
   </si>
   <si>
     <t>C188811</t>
@@ -3163,64 +3139,6 @@
     <t>bcCategoryChildrenIds</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>workflowItemEncounter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>workflowItemEncounterId</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>workflowItemActivity</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>workflowItemActivityId</t>
-    </r>
-  </si>
-  <si>
     <t>previousActivityId</t>
   </si>
   <si>
@@ -3234,6 +3152,12 @@
   </si>
   <si>
     <t>bcSurrogates</t>
+  </si>
+  <si>
+    <t>workflowItemEncounterId</t>
+  </si>
+  <si>
+    <t>workflowItemActivityId</t>
   </si>
 </sst>
 </file>
@@ -3454,7 +3378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3617,42 +3541,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3960,11 +3848,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I191"/>
+  <dimension ref="A1:I189"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.35"/>
@@ -3985,13 +3873,13 @@
         <v>95</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>114</v>
@@ -4010,17 +3898,15 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="33">
-        <v>1</v>
-      </c>
+      <c r="A2" s="33"/>
       <c r="B2" s="4" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
@@ -4037,17 +3923,15 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="33">
-        <v>2</v>
-      </c>
+      <c r="A3" s="33"/>
       <c r="B3" s="4" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="4"/>
@@ -4056,17 +3940,15 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="33">
-        <v>3</v>
-      </c>
+      <c r="A4" s="33"/>
       <c r="B4" s="4" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="4"/>
@@ -4075,17 +3957,15 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="33">
-        <v>4</v>
-      </c>
+      <c r="A5" s="33"/>
       <c r="B5" s="4" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="4"/>
@@ -4094,17 +3974,15 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A6" s="33">
-        <v>5</v>
-      </c>
+      <c r="A6" s="33"/>
       <c r="B6" s="4" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>15</v>
@@ -4123,20 +4001,18 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="33">
-        <v>6</v>
-      </c>
+      <c r="A7" s="33"/>
       <c r="B7" s="4" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>548</v>
@@ -4150,17 +4026,15 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A8" s="33">
-        <v>7</v>
-      </c>
+      <c r="A8" s="33"/>
       <c r="B8" s="4" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>34</v>
@@ -4175,21 +4049,19 @@
         <v>33</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="100" x14ac:dyDescent="0.35">
-      <c r="A9" s="33">
-        <v>8</v>
-      </c>
+      <c r="A9" s="33"/>
       <c r="B9" s="4" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>19</v>
@@ -4204,102 +4076,94 @@
         <v>18</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A10" s="33">
-        <v>9</v>
-      </c>
+      <c r="A10" s="33"/>
       <c r="B10" s="4" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="1" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="33">
-        <v>10</v>
-      </c>
+      <c r="A11" s="33"/>
       <c r="B11" s="4" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="E11" s="53" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="F11" s="43" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="G11" s="43"/>
       <c r="H11" s="43" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="50" x14ac:dyDescent="0.35">
-      <c r="A12" s="33">
-        <v>11</v>
-      </c>
+      <c r="A12" s="33"/>
       <c r="B12" s="4" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="E12" s="53" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="F12" s="43" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="G12" s="43"/>
       <c r="H12" s="43" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="33">
-        <v>12</v>
-      </c>
+      <c r="A13" s="33"/>
       <c r="B13" s="4" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>8</v>
@@ -4316,17 +4180,15 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="33">
-        <v>13</v>
-      </c>
+      <c r="A14" s="33"/>
       <c r="B14" s="4" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="E14" s="43" t="s">
         <v>538</v>
@@ -4345,17 +4207,15 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="33">
-        <v>14</v>
-      </c>
+      <c r="A15" s="33"/>
       <c r="B15" s="4" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="E15" s="43" t="s">
         <v>545</v>
@@ -4372,17 +4232,15 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A16" s="33">
-        <v>15</v>
-      </c>
+      <c r="A16" s="33"/>
       <c r="B16" s="4" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="E16" s="43" t="s">
         <v>546</v>
@@ -4399,17 +4257,15 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="33">
-        <v>16</v>
-      </c>
+      <c r="A17" s="33"/>
       <c r="B17" s="4" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="E17" s="43" t="s">
         <v>547</v>
@@ -4426,17 +4282,15 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="33">
-        <v>17</v>
-      </c>
+      <c r="A18" s="33"/>
       <c r="B18" s="4" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>8</v>
@@ -4453,17 +4307,15 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A19" s="33">
-        <v>18</v>
-      </c>
+      <c r="A19" s="33"/>
       <c r="B19" s="4" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>11</v>
@@ -4480,20 +4332,18 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A20" s="33">
-        <v>19</v>
-      </c>
+      <c r="A20" s="33"/>
       <c r="B20" s="4" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>152</v>
@@ -4507,20 +4357,18 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A21" s="33">
-        <v>20</v>
-      </c>
+      <c r="A21" s="33"/>
       <c r="B21" s="4" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>89</v>
@@ -4530,21 +4378,19 @@
         <v>141</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A22" s="33">
-        <v>21</v>
-      </c>
+      <c r="A22" s="33"/>
       <c r="B22" s="4" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>90</v>
@@ -4561,17 +4407,15 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="33">
-        <v>22</v>
-      </c>
+      <c r="A23" s="33"/>
       <c r="B23" s="4" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -4580,17 +4424,15 @@
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A24" s="33">
-        <v>23</v>
-      </c>
+      <c r="A24" s="33"/>
       <c r="B24" s="4" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>90</v>
@@ -4607,9 +4449,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="50" x14ac:dyDescent="0.35">
-      <c r="A25" s="33">
-        <v>24</v>
-      </c>
+      <c r="A25" s="33"/>
       <c r="B25" s="4" t="s">
         <v>534</v>
       </c>
@@ -4634,17 +4474,15 @@
       </c>
     </row>
     <row r="26" spans="1:9" s="50" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="33">
-        <v>25</v>
-      </c>
+      <c r="A26" s="33"/>
       <c r="B26" s="4" t="s">
         <v>534</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="E26" s="48"/>
       <c r="F26" s="48"/>
@@ -4653,9 +4491,7 @@
       <c r="I26" s="49"/>
     </row>
     <row r="27" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A27" s="33">
-        <v>26</v>
-      </c>
+      <c r="A27" s="33"/>
       <c r="B27" s="4" t="s">
         <v>534</v>
       </c>
@@ -4663,13 +4499,13 @@
         <v>94</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4" t="s">
@@ -4680,9 +4516,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A28" s="33">
-        <v>27</v>
-      </c>
+      <c r="A28" s="33"/>
       <c r="B28" s="4" t="s">
         <v>534</v>
       </c>
@@ -4690,7 +4524,7 @@
         <v>94</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>526</v>
@@ -4707,9 +4541,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="33">
-        <v>28</v>
-      </c>
+      <c r="A29" s="33"/>
       <c r="B29" s="4" t="s">
         <v>534</v>
       </c>
@@ -4717,7 +4549,7 @@
         <v>94</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>529</v>
@@ -4734,9 +4566,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="50" x14ac:dyDescent="0.35">
-      <c r="A30" s="33">
-        <v>29</v>
-      </c>
+      <c r="A30" s="33"/>
       <c r="B30" s="4" t="s">
         <v>534</v>
       </c>
@@ -4744,10 +4574,10 @@
         <v>94</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>532</v>
@@ -4757,21 +4587,19 @@
         <v>533</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="50" x14ac:dyDescent="0.35">
-      <c r="A31" s="33">
-        <v>30</v>
-      </c>
+      <c r="A31" s="33"/>
       <c r="B31" s="4" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>41</v>
@@ -4788,17 +4616,15 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="33">
-        <v>31</v>
-      </c>
+      <c r="A32" s="33"/>
       <c r="B32" s="4" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D32" s="42" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E32" s="29"/>
       <c r="F32" s="4"/>
@@ -4807,17 +4633,15 @@
       <c r="I32" s="29"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="33">
-        <v>32</v>
-      </c>
+      <c r="A33" s="33"/>
       <c r="B33" s="4" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D33" s="42" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="E33" s="29"/>
       <c r="F33" s="4"/>
@@ -4826,17 +4650,15 @@
       <c r="I33" s="29"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="33">
-        <v>33</v>
-      </c>
+      <c r="A34" s="33"/>
       <c r="B34" s="4" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D34" s="42" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="E34" s="29"/>
       <c r="F34" s="4"/>
@@ -4845,14 +4667,12 @@
       <c r="I34" s="29"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="33">
-        <v>34</v>
-      </c>
+      <c r="A35" s="33"/>
       <c r="B35" s="4" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D35" s="42" t="s">
         <v>561</v>
@@ -4864,17 +4684,15 @@
       <c r="I35" s="29"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="33">
-        <v>35</v>
-      </c>
+      <c r="A36" s="33"/>
       <c r="B36" s="4" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D36" s="42" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="E36" s="29"/>
       <c r="F36" s="4"/>
@@ -4883,14 +4701,12 @@
       <c r="I36" s="29"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="33">
-        <v>36</v>
-      </c>
+      <c r="A37" s="33"/>
       <c r="B37" s="4" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D37" s="42" t="s">
         <v>555</v>
@@ -4902,14 +4718,12 @@
       <c r="I37" s="29"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="33">
-        <v>37</v>
-      </c>
+      <c r="A38" s="33"/>
       <c r="B38" s="4" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D38" s="42" t="s">
         <v>554</v>
@@ -4921,14 +4735,12 @@
       <c r="I38" s="29"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="33">
-        <v>38</v>
-      </c>
+      <c r="A39" s="33"/>
       <c r="B39" s="1" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D39" s="42" t="s">
         <v>569</v>
@@ -4940,17 +4752,15 @@
       <c r="I39" s="29"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="33">
-        <v>39</v>
-      </c>
+      <c r="A40" s="33"/>
       <c r="B40" s="1" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D40" s="42" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="E40" s="29"/>
       <c r="F40" s="4"/>
@@ -4959,17 +4769,15 @@
       <c r="I40" s="29"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="33">
-        <v>40</v>
-      </c>
-      <c r="B41" s="49" t="s">
-        <v>651</v>
-      </c>
-      <c r="C41" s="49" t="s">
-        <v>646</v>
-      </c>
-      <c r="D41" s="59" t="s">
-        <v>1024</v>
+      <c r="A41" s="33"/>
+      <c r="B41" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D41" s="47" t="s">
+        <v>1014</v>
       </c>
       <c r="E41" s="29"/>
       <c r="F41" s="4"/>
@@ -4978,17 +4786,15 @@
       <c r="I41" s="29"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="33">
-        <v>41</v>
-      </c>
-      <c r="B42" s="49" t="s">
-        <v>651</v>
-      </c>
-      <c r="C42" s="49" t="s">
-        <v>646</v>
-      </c>
-      <c r="D42" s="59" t="s">
-        <v>1025</v>
+      <c r="A42" s="33"/>
+      <c r="B42" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D42" s="47" t="s">
+        <v>1015</v>
       </c>
       <c r="E42" s="29"/>
       <c r="F42" s="4"/>
@@ -4997,17 +4803,15 @@
       <c r="I42" s="29"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="33">
-        <v>42</v>
-      </c>
-      <c r="B43" s="49" t="s">
-        <v>651</v>
-      </c>
-      <c r="C43" s="49" t="s">
-        <v>646</v>
-      </c>
-      <c r="D43" s="59" t="s">
-        <v>1026</v>
+      <c r="A43" s="33"/>
+      <c r="B43" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D43" s="47" t="s">
+        <v>1016</v>
       </c>
       <c r="E43" s="29"/>
       <c r="F43" s="4"/>
@@ -5016,17 +4820,15 @@
       <c r="I43" s="29"/>
     </row>
     <row r="44" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A44" s="33">
-        <v>43</v>
-      </c>
+      <c r="A44" s="33"/>
       <c r="B44" s="4" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="E44" s="44" t="s">
         <v>44</v>
@@ -5041,21 +4843,19 @@
         <v>43</v>
       </c>
       <c r="I44" s="29" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A45" s="33">
-        <v>44</v>
-      </c>
+      <c r="A45" s="33"/>
       <c r="B45" s="4" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="E45" s="44" t="s">
         <v>38</v>
@@ -5070,21 +4870,19 @@
         <v>37</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A46" s="33">
-        <v>45</v>
-      </c>
+      <c r="A46" s="33"/>
       <c r="B46" s="4" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>46</v>
@@ -5097,160 +4895,148 @@
         <v>45</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="45" customFormat="1" ht="112.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="33">
-        <v>46</v>
-      </c>
+      <c r="A47" s="33"/>
       <c r="B47" s="4" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A48" s="33">
-        <v>47</v>
-      </c>
+      <c r="A48" s="33"/>
       <c r="B48" s="4" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="E48" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F48" s="43" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="G48" s="43"/>
       <c r="H48" s="43" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="33">
-        <v>48</v>
-      </c>
+      <c r="A49" s="33"/>
       <c r="B49" s="4" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="E49" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F49" s="43" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="G49" s="43"/>
       <c r="H49" s="43" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="51" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="33">
-        <v>49</v>
-      </c>
+      <c r="A50" s="33"/>
       <c r="B50" s="4" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D50" s="31" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="E50" s="53" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="F50" s="43" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="G50" s="43"/>
       <c r="H50" s="43" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="51" customFormat="1" ht="75" x14ac:dyDescent="0.35">
-      <c r="A51" s="33">
-        <v>50</v>
-      </c>
+      <c r="A51" s="33"/>
       <c r="B51" s="4" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="E51" s="43" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="F51" s="43" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="G51" s="43" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="H51" s="43" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="I51" s="43" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="75" x14ac:dyDescent="0.35">
-      <c r="A52" s="33">
-        <v>51</v>
-      </c>
+      <c r="A52" s="33"/>
       <c r="B52" s="4" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D52" s="41" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>27</v>
@@ -5260,51 +5046,47 @@
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="43" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="33">
-        <v>52</v>
-      </c>
+      <c r="A53" s="33"/>
       <c r="B53" s="4" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A54" s="33">
-        <v>53</v>
-      </c>
+      <c r="A54" s="33"/>
       <c r="B54" s="4" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D54" s="31" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>100</v>
@@ -5321,17 +5103,15 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A55" s="33">
-        <v>54</v>
-      </c>
+      <c r="A55" s="33"/>
       <c r="B55" s="4" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D55" s="41" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>32</v>
@@ -5348,44 +5128,40 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="75" x14ac:dyDescent="0.35">
-      <c r="A56" s="33">
-        <v>55</v>
-      </c>
+      <c r="A56" s="33"/>
       <c r="B56" s="4" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="75" x14ac:dyDescent="0.35">
-      <c r="A57" s="33">
-        <v>56</v>
-      </c>
+      <c r="A57" s="33"/>
       <c r="B57" s="4" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D57" s="31" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>32</v>
@@ -5398,21 +5174,19 @@
         <v>31</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A58" s="33">
-        <v>57</v>
-      </c>
+      <c r="A58" s="33"/>
       <c r="B58" s="4" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D58" s="41" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>29</v>
@@ -5422,27 +5196,25 @@
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A59" s="33">
-        <v>58</v>
-      </c>
+      <c r="A59" s="33"/>
       <c r="B59" s="4" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D59" s="31" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>145</v>
@@ -5456,125 +5228,115 @@
       </c>
     </row>
     <row r="60" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A60" s="33">
-        <v>59</v>
-      </c>
+      <c r="A60" s="33"/>
       <c r="B60" s="4" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="E60" s="53" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="F60" s="43" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="G60" s="43"/>
       <c r="H60" s="43" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="I60" s="43" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A61" s="33">
-        <v>60</v>
-      </c>
+      <c r="A61" s="33"/>
       <c r="B61" s="4" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="E61" s="53" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="F61" s="43" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="G61" s="43"/>
       <c r="H61" s="43" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="I61" s="43" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A62" s="33">
-        <v>61</v>
-      </c>
+      <c r="A62" s="33"/>
       <c r="B62" s="4" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D62" s="30" t="s">
+        <v>878</v>
+      </c>
+      <c r="E62" s="53" t="s">
         <v>886</v>
       </c>
-      <c r="E62" s="53" t="s">
-        <v>894</v>
-      </c>
       <c r="F62" s="43" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="G62" s="43"/>
       <c r="H62" s="43" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="I62" s="43" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A63" s="33">
-        <v>62</v>
-      </c>
+      <c r="A63" s="33"/>
       <c r="B63" s="4" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="E63" s="53" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="F63" s="43" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="G63" s="43"/>
       <c r="H63" s="43" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="I63" s="43" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="33">
-        <v>63</v>
-      </c>
+      <c r="A64" s="33"/>
       <c r="B64" s="4" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D64" s="41" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>22</v>
@@ -5591,17 +5353,15 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A65" s="33">
-        <v>64</v>
-      </c>
+      <c r="A65" s="33"/>
       <c r="B65" s="4" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D65" s="42" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="4"/>
@@ -5610,17 +5370,15 @@
       <c r="I65" s="1"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A66" s="33">
-        <v>65</v>
-      </c>
+      <c r="A66" s="33"/>
       <c r="B66" s="4" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D66" s="31" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>122</v>
@@ -5637,20 +5395,18 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="33">
-        <v>66</v>
-      </c>
+      <c r="A67" s="33"/>
       <c r="B67" s="4" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D67" s="31" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>153</v>
@@ -5660,21 +5416,19 @@
         <v>516</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="87.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="33">
-        <v>67</v>
-      </c>
+      <c r="A68" s="33"/>
       <c r="B68" s="4" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D68" s="41" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>24</v>
@@ -5684,27 +5438,25 @@
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="43" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A69" s="33">
-        <v>68</v>
-      </c>
+      <c r="A69" s="33"/>
       <c r="B69" s="4" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>144</v>
@@ -5718,20 +5470,18 @@
       </c>
     </row>
     <row r="70" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A70" s="33">
-        <v>69</v>
-      </c>
+      <c r="A70" s="33"/>
       <c r="B70" s="4" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D70" s="31" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>103</v>
@@ -5745,20 +5495,18 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="33">
-        <v>70</v>
-      </c>
+      <c r="A71" s="33"/>
       <c r="B71" s="4" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D71" s="31" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="E71" s="43" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>25</v>
@@ -5768,48 +5516,44 @@
         <v>508</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A72" s="33">
-        <v>71</v>
-      </c>
+      <c r="A72" s="33"/>
       <c r="B72" s="4" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D72" s="41" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>55</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A73" s="33"/>
+      <c r="B73" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="I72" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A73" s="33">
-        <v>72</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>657</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>646</v>
-      </c>
       <c r="D73" s="42" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="4"/>
@@ -5818,14 +5562,12 @@
       <c r="I73" s="1"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A74" s="33">
-        <v>73</v>
-      </c>
+      <c r="A74" s="33"/>
       <c r="B74" s="4" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D74" s="42" t="s">
         <v>568</v>
@@ -5837,14 +5579,12 @@
       <c r="I74" s="1"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A75" s="33">
-        <v>74</v>
-      </c>
+      <c r="A75" s="33"/>
       <c r="B75" s="4" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D75" s="42" t="s">
         <v>581</v>
@@ -5856,17 +5596,15 @@
       <c r="I75" s="1"/>
     </row>
     <row r="76" spans="1:9" ht="50" x14ac:dyDescent="0.35">
-      <c r="A76" s="33">
-        <v>75</v>
-      </c>
+      <c r="A76" s="33"/>
       <c r="B76" s="4" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D76" s="41" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>53</v>
@@ -5883,17 +5621,15 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A77" s="33">
-        <v>76</v>
-      </c>
+      <c r="A77" s="33"/>
       <c r="B77" s="4" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D77" s="31" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>138</v>
@@ -5910,17 +5646,15 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A78" s="33">
-        <v>77</v>
-      </c>
+      <c r="A78" s="33"/>
       <c r="B78" s="4" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D78" s="31" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>137</v>
@@ -5937,20 +5671,18 @@
       </c>
     </row>
     <row r="79" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A79" s="33">
-        <v>78</v>
-      </c>
+      <c r="A79" s="33"/>
       <c r="B79" s="4" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D79" s="31" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>522</v>
@@ -5964,20 +5696,18 @@
       </c>
     </row>
     <row r="80" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A80" s="33">
-        <v>79</v>
-      </c>
+      <c r="A80" s="33"/>
       <c r="B80" s="4" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D80" s="31" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>147</v>
@@ -5991,20 +5721,18 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A81" s="33">
-        <v>80</v>
-      </c>
+      <c r="A81" s="33"/>
       <c r="B81" s="4" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D81" s="31" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>148</v>
@@ -6014,21 +5742,19 @@
         <v>54</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A82" s="33">
-        <v>81</v>
-      </c>
+      <c r="A82" s="33"/>
       <c r="B82" s="4" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D82" s="41" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>62</v>
@@ -6045,14 +5771,12 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A83" s="33">
-        <v>82</v>
-      </c>
+      <c r="A83" s="33"/>
       <c r="B83" s="4" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D83" s="42" t="s">
         <v>569</v>
@@ -6064,11 +5788,9 @@
       <c r="I83" s="1"/>
     </row>
     <row r="84" spans="1:9" ht="50" x14ac:dyDescent="0.35">
-      <c r="A84" s="33">
-        <v>83</v>
-      </c>
+      <c r="A84" s="33"/>
       <c r="B84" s="4" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>94</v>
@@ -6091,20 +5813,18 @@
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A85" s="33">
-        <v>84</v>
-      </c>
+      <c r="A85" s="33"/>
       <c r="B85" s="4" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D85" s="31" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>106</v>
@@ -6118,11 +5838,9 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="50" x14ac:dyDescent="0.35">
-      <c r="A86" s="33">
-        <v>85</v>
-      </c>
+      <c r="A86" s="33"/>
       <c r="B86" s="4" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>94</v>
@@ -6131,7 +5849,7 @@
         <v>565</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>65</v>
@@ -6141,15 +5859,13 @@
         <v>66</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A87" s="33">
-        <v>86</v>
-      </c>
+      <c r="A87" s="33"/>
       <c r="B87" s="4" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>94</v>
@@ -6158,25 +5874,23 @@
         <v>566</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>579</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="I87" s="43" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A88" s="33">
-        <v>87</v>
-      </c>
+      <c r="A88" s="33"/>
       <c r="B88" s="4" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>94</v>
@@ -6185,31 +5899,29 @@
         <v>567</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>580</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="4" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="I88" s="43" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="50" x14ac:dyDescent="0.35">
-      <c r="A89" s="33">
-        <v>88</v>
-      </c>
+      <c r="A89" s="33"/>
       <c r="B89" s="4" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D89" s="41" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>49</v>
@@ -6226,14 +5938,12 @@
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A90" s="33">
-        <v>89</v>
-      </c>
+      <c r="A90" s="33"/>
       <c r="B90" s="4" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D90" s="42" t="s">
         <v>570</v>
@@ -6245,14 +5955,12 @@
       <c r="I90" s="1"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A91" s="33">
-        <v>90</v>
-      </c>
+      <c r="A91" s="33"/>
       <c r="B91" s="4" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D91" s="42" t="s">
         <v>571</v>
@@ -6264,11 +5972,9 @@
       <c r="I91" s="1"/>
     </row>
     <row r="92" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A92" s="33">
-        <v>91</v>
-      </c>
+      <c r="A92" s="33"/>
       <c r="B92" s="4" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>94</v>
@@ -6277,7 +5983,7 @@
         <v>582</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>50</v>
@@ -6291,20 +5997,18 @@
       </c>
     </row>
     <row r="93" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A93" s="33">
-        <v>92</v>
-      </c>
+      <c r="A93" s="33"/>
       <c r="B93" s="4" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D93" s="31" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>107</v>
@@ -6318,17 +6022,15 @@
       </c>
     </row>
     <row r="94" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A94" s="33">
-        <v>93</v>
-      </c>
+      <c r="A94" s="33"/>
       <c r="B94" s="4" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D94" s="41" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>80</v>
@@ -6345,20 +6047,18 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A95" s="33">
-        <v>94</v>
-      </c>
+      <c r="A95" s="33"/>
       <c r="B95" s="4" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D95" s="31" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>108</v>
@@ -6372,17 +6072,15 @@
       </c>
     </row>
     <row r="96" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A96" s="33">
-        <v>95</v>
-      </c>
+      <c r="A96" s="33"/>
       <c r="B96" s="4" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D96" s="41" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>57</v>
@@ -6392,21 +6090,19 @@
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="3" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A97" s="33">
-        <v>96</v>
-      </c>
+      <c r="A97" s="33"/>
       <c r="B97" s="4" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D97" s="42" t="s">
         <v>570</v>
@@ -6418,14 +6114,12 @@
       <c r="I97" s="1"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A98" s="33">
-        <v>97</v>
-      </c>
+      <c r="A98" s="33"/>
       <c r="B98" s="4" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D98" s="42" t="s">
         <v>571</v>
@@ -6437,11 +6131,9 @@
       <c r="I98" s="1"/>
     </row>
     <row r="99" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A99" s="33">
-        <v>98</v>
-      </c>
+      <c r="A99" s="33"/>
       <c r="B99" s="4" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>94</v>
@@ -6464,20 +6156,18 @@
       </c>
     </row>
     <row r="100" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A100" s="33">
-        <v>99</v>
-      </c>
+      <c r="A100" s="33"/>
       <c r="B100" s="4" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D100" s="31" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>120</v>
@@ -6491,11 +6181,9 @@
       </c>
     </row>
     <row r="101" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A101" s="33">
-        <v>100</v>
-      </c>
+      <c r="A101" s="33"/>
       <c r="B101" s="4" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>94</v>
@@ -6504,25 +6192,23 @@
         <v>576</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>583</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="4" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="I101" s="43" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A102" s="33">
-        <v>101</v>
-      </c>
+      <c r="A102" s="33"/>
       <c r="B102" s="4" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>94</v>
@@ -6531,25 +6217,23 @@
         <v>577</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>584</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="4" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="I102" s="43" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A103" s="33">
-        <v>102</v>
-      </c>
+      <c r="A103" s="33"/>
       <c r="B103" s="4" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>94</v>
@@ -6558,7 +6242,7 @@
         <v>573</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>67</v>
@@ -6568,15 +6252,13 @@
         <v>68</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A104" s="33">
-        <v>103</v>
-      </c>
+      <c r="A104" s="33"/>
       <c r="B104" s="4" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>94</v>
@@ -6585,7 +6267,7 @@
         <v>574</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>70</v>
@@ -6595,24 +6277,22 @@
         <v>71</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A105" s="33">
-        <v>104</v>
-      </c>
+      <c r="A105" s="33"/>
       <c r="B105" s="4" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D105" s="31" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>72</v>
@@ -6622,21 +6302,19 @@
         <v>73</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A106" s="33">
-        <v>105</v>
-      </c>
+      <c r="A106" s="33"/>
       <c r="B106" s="4" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D106" s="41" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>87</v>
@@ -6653,14 +6331,12 @@
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A107" s="33">
-        <v>106</v>
-      </c>
+      <c r="A107" s="33"/>
       <c r="B107" s="4" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D107" s="42" t="s">
         <v>585</v>
@@ -6672,14 +6348,12 @@
       <c r="I107" s="1"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A108" s="33">
-        <v>107</v>
-      </c>
+      <c r="A108" s="33"/>
       <c r="B108" s="4" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D108" s="42" t="s">
         <v>586</v>
@@ -6691,17 +6365,15 @@
       <c r="I108" s="1"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A109" s="33">
-        <v>108</v>
-      </c>
-      <c r="B109" s="48" t="s">
-        <v>663</v>
-      </c>
-      <c r="C109" s="49" t="s">
-        <v>646</v>
-      </c>
-      <c r="D109" s="59" t="s">
-        <v>954</v>
+      <c r="A109" s="33"/>
+      <c r="B109" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D109" s="47" t="s">
+        <v>946</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="4"/>
@@ -6710,17 +6382,15 @@
       <c r="I109" s="1"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A110" s="33">
-        <v>109</v>
-      </c>
-      <c r="B110" s="48" t="s">
-        <v>663</v>
-      </c>
-      <c r="C110" s="49" t="s">
-        <v>646</v>
-      </c>
-      <c r="D110" s="59" t="s">
-        <v>955</v>
+      <c r="A110" s="33"/>
+      <c r="B110" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D110" s="47" t="s">
+        <v>947</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="4"/>
@@ -6729,17 +6399,15 @@
       <c r="I110" s="1"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A111" s="33">
-        <v>110</v>
-      </c>
-      <c r="B111" s="48" t="s">
-        <v>663</v>
-      </c>
-      <c r="C111" s="49" t="s">
-        <v>646</v>
-      </c>
-      <c r="D111" s="59" t="s">
-        <v>956</v>
+      <c r="A111" s="33"/>
+      <c r="B111" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D111" s="47" t="s">
+        <v>948</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="4"/>
@@ -6748,17 +6416,15 @@
       <c r="I111" s="1"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A112" s="33">
-        <v>111</v>
-      </c>
-      <c r="B112" s="48" t="s">
-        <v>663</v>
-      </c>
-      <c r="C112" s="49" t="s">
-        <v>646</v>
-      </c>
-      <c r="D112" s="59" t="s">
-        <v>1022</v>
+      <c r="A112" s="33"/>
+      <c r="B112" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D112" s="47" t="s">
+        <v>1012</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="4"/>
@@ -6767,17 +6433,15 @@
       <c r="I112" s="1"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A113" s="33">
-        <v>112</v>
-      </c>
-      <c r="B113" s="48" t="s">
-        <v>663</v>
-      </c>
-      <c r="C113" s="49" t="s">
-        <v>646</v>
-      </c>
-      <c r="D113" s="59" t="s">
-        <v>1023</v>
+      <c r="A113" s="33"/>
+      <c r="B113" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D113" s="47" t="s">
+        <v>1013</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="4"/>
@@ -6786,11 +6450,9 @@
       <c r="I113" s="1"/>
     </row>
     <row r="114" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A114" s="33">
-        <v>113</v>
-      </c>
+      <c r="A114" s="33"/>
       <c r="B114" s="4" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>94</v>
@@ -6799,31 +6461,29 @@
         <v>587</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="G114" s="4"/>
       <c r="H114" s="4" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="I114" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A115" s="33">
-        <v>114</v>
-      </c>
+      <c r="A115" s="33"/>
       <c r="B115" s="4" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D115" s="31" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>551</v>
@@ -6840,252 +6500,232 @@
       </c>
     </row>
     <row r="116" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A116" s="33">
-        <v>115</v>
-      </c>
-      <c r="B116" s="63" t="s">
-        <v>663</v>
-      </c>
-      <c r="C116" s="64" t="s">
+      <c r="A116" s="33"/>
+      <c r="B116" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D116" s="65" t="s">
-        <v>588</v>
-      </c>
-      <c r="E116" s="63" t="s">
-        <v>758</v>
-      </c>
-      <c r="F116" s="63" t="s">
-        <v>590</v>
-      </c>
-      <c r="G116" s="63"/>
-      <c r="H116" s="63" t="s">
-        <v>716</v>
-      </c>
-      <c r="I116" s="66" t="s">
+      <c r="D116" s="31" t="s">
+        <v>923</v>
+      </c>
+      <c r="E116" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F116" s="43" t="s">
+        <v>920</v>
+      </c>
+      <c r="G116" s="43"/>
+      <c r="H116" s="43" t="s">
+        <v>921</v>
+      </c>
+      <c r="I116" s="43" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A117" s="33">
-        <v>116</v>
-      </c>
-      <c r="B117" s="63" t="s">
-        <v>663</v>
-      </c>
-      <c r="C117" s="64" t="s">
+      <c r="A117" s="33"/>
+      <c r="B117" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D117" s="65" t="s">
-        <v>589</v>
-      </c>
-      <c r="E117" s="63" t="s">
-        <v>759</v>
-      </c>
-      <c r="F117" s="63" t="s">
-        <v>591</v>
-      </c>
-      <c r="G117" s="63"/>
-      <c r="H117" s="63" t="s">
-        <v>717</v>
-      </c>
-      <c r="I117" s="66" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A118" s="33">
-        <v>117</v>
-      </c>
+      <c r="D117" s="31" t="s">
+        <v>924</v>
+      </c>
+      <c r="E117" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F117" s="43" t="s">
+        <v>922</v>
+      </c>
+      <c r="G117" s="43"/>
+      <c r="H117" s="43" t="s">
+        <v>925</v>
+      </c>
+      <c r="I117" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A118" s="33"/>
       <c r="B118" s="4" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D118" s="31" t="s">
-        <v>931</v>
-      </c>
-      <c r="E118" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F118" s="43" t="s">
-        <v>928</v>
-      </c>
-      <c r="G118" s="43"/>
-      <c r="H118" s="43" t="s">
-        <v>929</v>
-      </c>
-      <c r="I118" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D118" s="41" t="s">
+        <v>660</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G118" s="4"/>
+      <c r="H118" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I118" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A119" s="33">
-        <v>118</v>
-      </c>
+      <c r="A119" s="33"/>
       <c r="B119" s="4" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D119" s="31" t="s">
-        <v>932</v>
-      </c>
-      <c r="E119" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F119" s="43" t="s">
-        <v>930</v>
-      </c>
-      <c r="G119" s="43"/>
-      <c r="H119" s="43" t="s">
-        <v>933</v>
+        <v>588</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4" t="s">
+        <v>514</v>
       </c>
       <c r="I119" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A120" s="33">
-        <v>119</v>
-      </c>
+    <row r="120" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A120" s="33"/>
       <c r="B120" s="4" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D120" s="41" t="s">
-        <v>664</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>760</v>
+        <v>94</v>
+      </c>
+      <c r="D120" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>754</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="G120" s="4"/>
-      <c r="H120" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I120" s="1" t="s">
+      <c r="H120" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I120" s="43" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A121" s="33">
-        <v>120</v>
-      </c>
+      <c r="A121" s="33"/>
       <c r="B121" s="4" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D121" s="31" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>150</v>
+        <v>639</v>
       </c>
       <c r="G121" s="4"/>
       <c r="H121" s="4" t="s">
-        <v>514</v>
+        <v>707</v>
       </c>
       <c r="I121" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A122" s="33">
-        <v>121</v>
-      </c>
+    <row r="122" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A122" s="33"/>
       <c r="B122" s="4" t="s">
-        <v>664</v>
+        <v>88</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D122" s="31" t="s">
-        <v>825</v>
-      </c>
-      <c r="E122" s="4" t="s">
-        <v>762</v>
+        <v>4</v>
+      </c>
+      <c r="D122" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="G122" s="4"/>
       <c r="H122" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="I122" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A123" s="33">
-        <v>122</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A123" s="33"/>
       <c r="B123" s="4" t="s">
-        <v>664</v>
+        <v>88</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D123" s="31" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>643</v>
+        <v>117</v>
       </c>
       <c r="G123" s="4"/>
       <c r="H123" s="4" t="s">
-        <v>711</v>
-      </c>
-      <c r="I123" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A124" s="33">
-        <v>123</v>
-      </c>
+        <v>688</v>
+      </c>
+      <c r="I123" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+      <c r="A124" s="33"/>
       <c r="B124" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D124" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>77</v>
+        <v>94</v>
+      </c>
+      <c r="D124" s="31" t="s">
+        <v>592</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="G124" s="4"/>
       <c r="H124" s="4" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A125" s="33">
-        <v>124</v>
-      </c>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A125" s="33"/>
       <c r="B125" s="4" t="s">
         <v>88</v>
       </c>
@@ -7093,26 +6733,24 @@
         <v>94</v>
       </c>
       <c r="D125" s="31" t="s">
-        <v>595</v>
-      </c>
-      <c r="E125" s="4" t="s">
-        <v>764</v>
-      </c>
-      <c r="F125" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="G125" s="4"/>
-      <c r="H125" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="I125" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="50" x14ac:dyDescent="0.35">
-      <c r="A126" s="33">
-        <v>125</v>
-      </c>
+        <v>930</v>
+      </c>
+      <c r="E125" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F125" s="43" t="s">
+        <v>926</v>
+      </c>
+      <c r="G125" s="43"/>
+      <c r="H125" s="43" t="s">
+        <v>928</v>
+      </c>
+      <c r="I125" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A126" s="33"/>
       <c r="B126" s="4" t="s">
         <v>88</v>
       </c>
@@ -7120,334 +6758,292 @@
         <v>94</v>
       </c>
       <c r="D126" s="31" t="s">
+        <v>931</v>
+      </c>
+      <c r="E126" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F126" s="43" t="s">
+        <v>927</v>
+      </c>
+      <c r="G126" s="43"/>
+      <c r="H126" s="43" t="s">
+        <v>929</v>
+      </c>
+      <c r="I126" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+      <c r="A127" s="33"/>
+      <c r="B127" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D127" s="41" t="s">
+        <v>595</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A128" s="33"/>
+      <c r="B128" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D128" s="42" t="s">
         <v>596</v>
       </c>
-      <c r="E126" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G126" s="4"/>
-      <c r="H126" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I126" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A127" s="33">
-        <v>126</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C127" s="1" t="s">
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="4"/>
+      <c r="I128" s="4"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A129" s="33"/>
+      <c r="B129" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D127" s="31" t="s">
-        <v>938</v>
-      </c>
-      <c r="E127" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F127" s="43" t="s">
-        <v>934</v>
-      </c>
-      <c r="G127" s="43"/>
-      <c r="H127" s="43" t="s">
-        <v>936</v>
-      </c>
-      <c r="I127" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A128" s="33">
-        <v>127</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D128" s="31" t="s">
-        <v>939</v>
-      </c>
-      <c r="E128" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F128" s="43" t="s">
-        <v>935</v>
-      </c>
-      <c r="G128" s="43"/>
-      <c r="H128" s="43" t="s">
-        <v>937</v>
-      </c>
-      <c r="I128" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="50" x14ac:dyDescent="0.35">
-      <c r="A129" s="33">
-        <v>128</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D129" s="41" t="s">
-        <v>599</v>
+      <c r="D129" s="31" t="s">
+        <v>816</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>598</v>
+        <v>757</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>599</v>
+        <v>116</v>
       </c>
       <c r="G129" s="4"/>
       <c r="H129" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I129" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A130" s="33"/>
+      <c r="B130" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="C130" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D130" s="41" t="s">
+        <v>661</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G130" s="4"/>
+      <c r="H130" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A131" s="33"/>
+      <c r="B131" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D131" s="42" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="4"/>
+      <c r="I131" s="43"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A132" s="33"/>
+      <c r="B132" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D132" s="42" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E132" s="4"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="4"/>
+      <c r="I132" s="43"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A133" s="33"/>
+      <c r="B133" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D133" s="30" t="s">
+        <v>815</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G133" s="4"/>
+      <c r="H133" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="I133" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A134" s="33"/>
+      <c r="B134" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D134" s="30" t="s">
         <v>597</v>
       </c>
-      <c r="I129" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A130" s="33">
-        <v>129</v>
-      </c>
-      <c r="B130" s="4" t="s">
+      <c r="E134" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="F134" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="C130" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="D130" s="42" t="s">
-        <v>600</v>
-      </c>
-      <c r="E130" s="4"/>
-      <c r="F130" s="4"/>
-      <c r="G130" s="4"/>
-      <c r="H130" s="4"/>
-      <c r="I130" s="4"/>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A131" s="33">
-        <v>130</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D131" s="31" t="s">
-        <v>824</v>
-      </c>
-      <c r="E131" s="4" t="s">
-        <v>765</v>
-      </c>
-      <c r="F131" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G131" s="4"/>
-      <c r="H131" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="I131" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A132" s="33">
-        <v>131</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>665</v>
-      </c>
-      <c r="C132" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D132" s="41" t="s">
-        <v>665</v>
-      </c>
-      <c r="E132" s="4" t="s">
-        <v>766</v>
-      </c>
-      <c r="F132" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G132" s="4"/>
-      <c r="H132" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="I132" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A133" s="33">
-        <v>132</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>665</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="D133" s="42" t="s">
-        <v>1020</v>
-      </c>
-      <c r="E133" s="4"/>
-      <c r="F133" s="4"/>
-      <c r="G133" s="4"/>
-      <c r="H133" s="4"/>
-      <c r="I133" s="43"/>
-    </row>
-    <row r="134" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A134" s="33">
-        <v>133</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>665</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="D134" s="42" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E134" s="4"/>
-      <c r="F134" s="4"/>
       <c r="G134" s="4"/>
-      <c r="H134" s="4"/>
-      <c r="I134" s="43"/>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A135" s="33">
-        <v>134</v>
-      </c>
+      <c r="H134" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="I134" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A135" s="33"/>
       <c r="B135" s="4" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D135" s="30" t="s">
-        <v>823</v>
+        <v>598</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>766</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>109</v>
+        <v>760</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>600</v>
       </c>
       <c r="G135" s="4"/>
       <c r="H135" s="4" t="s">
-        <v>136</v>
+        <v>713</v>
       </c>
       <c r="I135" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A136" s="33">
-        <v>135</v>
-      </c>
+    <row r="136" spans="1:9" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="A136" s="33"/>
       <c r="B136" s="4" t="s">
-        <v>665</v>
+        <v>81</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D136" s="30" t="s">
-        <v>601</v>
-      </c>
-      <c r="E136" s="4" t="s">
-        <v>767</v>
+        <v>4</v>
+      </c>
+      <c r="D136" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>761</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>603</v>
+        <v>81</v>
       </c>
       <c r="G136" s="4"/>
       <c r="H136" s="4" t="s">
-        <v>718</v>
-      </c>
-      <c r="I136" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A137" s="33">
-        <v>136</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A137" s="33"/>
       <c r="B137" s="4" t="s">
-        <v>665</v>
+        <v>81</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D137" s="30" t="s">
-        <v>602</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="F137" s="4" t="s">
-        <v>604</v>
-      </c>
+        <v>642</v>
+      </c>
+      <c r="D137" s="42" t="s">
+        <v>556</v>
+      </c>
+      <c r="E137" s="1"/>
+      <c r="F137" s="4"/>
       <c r="G137" s="4"/>
-      <c r="H137" s="4" t="s">
-        <v>719</v>
-      </c>
-      <c r="I137" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A138" s="33">
-        <v>137</v>
-      </c>
+      <c r="H137" s="4"/>
+      <c r="I137" s="1"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A138" s="33"/>
       <c r="B138" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D138" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="F138" s="4" t="s">
-        <v>81</v>
-      </c>
+        <v>642</v>
+      </c>
+      <c r="D138" s="42" t="s">
+        <v>557</v>
+      </c>
+      <c r="E138" s="1"/>
+      <c r="F138" s="4"/>
       <c r="G138" s="4"/>
-      <c r="H138" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="I138" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="H138" s="4"/>
+      <c r="I138" s="1"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A139" s="33">
-        <v>138</v>
-      </c>
+      <c r="A139" s="33"/>
       <c r="B139" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D139" s="42" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="4"/>
@@ -7456,17 +7052,15 @@
       <c r="I139" s="1"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A140" s="33">
-        <v>139</v>
-      </c>
+      <c r="A140" s="33"/>
       <c r="B140" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D140" s="42" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="E140" s="1"/>
       <c r="F140" s="4"/>
@@ -7474,1321 +7068,1185 @@
       <c r="H140" s="4"/>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A141" s="33">
-        <v>140</v>
-      </c>
+    <row r="141" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A141" s="33"/>
       <c r="B141" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="D141" s="42" t="s">
-        <v>563</v>
-      </c>
-      <c r="E141" s="1"/>
-      <c r="F141" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="D141" s="31" t="s">
+        <v>560</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="G141" s="4"/>
-      <c r="H141" s="4"/>
-      <c r="I141" s="1"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A142" s="33">
-        <v>141</v>
-      </c>
+      <c r="H141" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="75" x14ac:dyDescent="0.35">
+      <c r="A142" s="33"/>
       <c r="B142" s="4" t="s">
-        <v>81</v>
+        <v>662</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="D142" s="42" t="s">
-        <v>562</v>
-      </c>
-      <c r="E142" s="1"/>
-      <c r="F142" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="D142" s="41" t="s">
+        <v>662</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="G142" s="4"/>
-      <c r="H142" s="4"/>
-      <c r="I142" s="1"/>
+      <c r="H142" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="143" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A143" s="33">
-        <v>142</v>
-      </c>
+      <c r="A143" s="33"/>
       <c r="B143" s="4" t="s">
-        <v>81</v>
+        <v>662</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D143" s="31" t="s">
-        <v>560</v>
+        <v>814</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="G143" s="4"/>
       <c r="H143" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I143" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" ht="75" x14ac:dyDescent="0.35">
-      <c r="A144" s="33">
-        <v>143</v>
-      </c>
+        <v>637</v>
+      </c>
+      <c r="I143" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+      <c r="A144" s="33"/>
       <c r="B144" s="4" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D144" s="41" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="G144" s="4"/>
       <c r="H144" s="4" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="I144" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A145" s="33">
-        <v>144</v>
-      </c>
+      <c r="A145" s="33"/>
       <c r="B145" s="4" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D145" s="31" t="s">
-        <v>822</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>771</v>
+        <v>558</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>765</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="G145" s="4"/>
       <c r="H145" s="4" t="s">
-        <v>641</v>
+        <v>513</v>
       </c>
       <c r="I145" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="50" x14ac:dyDescent="0.35">
-      <c r="A146" s="33">
-        <v>145</v>
-      </c>
+    <row r="146" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A146" s="33"/>
       <c r="B146" s="4" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D146" s="41" t="s">
-        <v>667</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>772</v>
+        <v>94</v>
+      </c>
+      <c r="D146" s="31" t="s">
+        <v>813</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>766</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="G146" s="4"/>
       <c r="H146" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="I146" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I146" s="43" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A147" s="33">
-        <v>146</v>
-      </c>
+      <c r="A147" s="33"/>
       <c r="B147" s="4" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D147" s="31" t="s">
-        <v>558</v>
-      </c>
-      <c r="E147" s="4" t="s">
-        <v>773</v>
-      </c>
-      <c r="F147" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G147" s="4"/>
+      <c r="D147" s="46" t="s">
+        <v>559</v>
+      </c>
+      <c r="E147" s="33" t="s">
+        <v>767</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="G147" s="33"/>
       <c r="H147" s="4" t="s">
-        <v>513</v>
+        <v>706</v>
       </c>
       <c r="I147" s="43" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A148" s="33">
-        <v>147</v>
-      </c>
+      <c r="A148" s="33"/>
       <c r="B148" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D148" s="31" t="s">
-        <v>821</v>
+        <v>4</v>
+      </c>
+      <c r="D148" s="41" t="s">
+        <v>666</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>774</v>
+        <v>672</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="G148" s="4"/>
+        <v>666</v>
+      </c>
+      <c r="G148" s="35"/>
       <c r="H148" s="4" t="s">
-        <v>127</v>
+        <v>671</v>
       </c>
       <c r="I148" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A149" s="33">
-        <v>148</v>
-      </c>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A149" s="33"/>
       <c r="B149" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D149" s="46" t="s">
-        <v>559</v>
-      </c>
-      <c r="E149" s="33" t="s">
-        <v>775</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G149" s="33"/>
+      <c r="D149" s="31" t="s">
+        <v>667</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="G149" s="35"/>
       <c r="H149" s="4" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="I149" s="43" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A150" s="33">
-        <v>149</v>
-      </c>
+      <c r="A150" s="33"/>
       <c r="B150" s="4" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D150" s="41" t="s">
-        <v>670</v>
+        <v>94</v>
+      </c>
+      <c r="D150" s="31" t="s">
+        <v>668</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>676</v>
+        <v>769</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>670</v>
-      </c>
-      <c r="G150" s="35"/>
+        <v>700</v>
+      </c>
+      <c r="G150" s="4"/>
       <c r="H150" s="4" t="s">
-        <v>675</v>
+        <v>703</v>
       </c>
       <c r="I150" s="43" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A151" s="33">
-        <v>150</v>
-      </c>
+      <c r="A151" s="33"/>
       <c r="B151" s="4" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D151" s="31" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>705</v>
-      </c>
-      <c r="G151" s="35"/>
+        <v>673</v>
+      </c>
+      <c r="G151" s="4"/>
       <c r="H151" s="4" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="I151" s="43" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A152" s="33">
-        <v>151</v>
-      </c>
+      <c r="A152" s="33"/>
       <c r="B152" s="4" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D152" s="31" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>704</v>
-      </c>
-      <c r="G152" s="4"/>
+        <v>689</v>
+      </c>
+      <c r="G152" s="35"/>
       <c r="H152" s="4" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="I152" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A153" s="33">
-        <v>152</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>670</v>
-      </c>
-      <c r="C153" s="1" t="s">
+    <row r="153" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A153" s="33"/>
+      <c r="B153" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="C153" s="33" t="s">
+        <v>806</v>
+      </c>
+      <c r="D153" s="41" t="s">
+        <v>807</v>
+      </c>
+      <c r="E153" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F153" s="33" t="s">
+        <v>808</v>
+      </c>
+      <c r="G153" s="33"/>
+      <c r="H153" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="I153" s="33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A154" s="33"/>
+      <c r="B154" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="C154" s="33" t="s">
+        <v>642</v>
+      </c>
+      <c r="D154" s="47" t="s">
+        <v>810</v>
+      </c>
+      <c r="E154" s="33"/>
+      <c r="F154" s="33"/>
+      <c r="G154" s="33"/>
+      <c r="H154" s="33"/>
+      <c r="I154" s="33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A155" s="33"/>
+      <c r="B155" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="C155" s="33" t="s">
+        <v>642</v>
+      </c>
+      <c r="D155" s="47" t="s">
+        <v>811</v>
+      </c>
+      <c r="E155" s="33"/>
+      <c r="F155" s="33"/>
+      <c r="G155" s="33"/>
+      <c r="H155" s="33"/>
+      <c r="I155" s="33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" s="50" customFormat="1" ht="25" x14ac:dyDescent="0.35">
+      <c r="A156" s="33"/>
+      <c r="B156" s="33" t="s">
+        <v>843</v>
+      </c>
+      <c r="C156" s="54" t="s">
+        <v>806</v>
+      </c>
+      <c r="D156" s="41" t="s">
+        <v>807</v>
+      </c>
+      <c r="E156" s="53" t="s">
+        <v>870</v>
+      </c>
+      <c r="F156" s="43" t="s">
+        <v>843</v>
+      </c>
+      <c r="G156" s="43"/>
+      <c r="H156" s="43" t="s">
+        <v>871</v>
+      </c>
+      <c r="I156" s="33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" s="50" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A157" s="33"/>
+      <c r="B157" s="33" t="s">
+        <v>843</v>
+      </c>
+      <c r="C157" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="D153" s="31" t="s">
-        <v>673</v>
-      </c>
-      <c r="E153" s="4" t="s">
-        <v>778</v>
-      </c>
-      <c r="F153" s="4" t="s">
-        <v>677</v>
-      </c>
-      <c r="G153" s="4"/>
-      <c r="H153" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="I153" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A154" s="33">
-        <v>153</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>670</v>
-      </c>
-      <c r="C154" s="1" t="s">
+      <c r="D157" s="30" t="s">
+        <v>844</v>
+      </c>
+      <c r="E157" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="F157" s="43" t="s">
+        <v>851</v>
+      </c>
+      <c r="G157" s="43"/>
+      <c r="H157" s="43" t="s">
+        <v>852</v>
+      </c>
+      <c r="I157" s="33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" s="50" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A158" s="33"/>
+      <c r="B158" s="33" t="s">
+        <v>843</v>
+      </c>
+      <c r="C158" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="D154" s="31" t="s">
-        <v>674</v>
-      </c>
-      <c r="E154" s="4" t="s">
-        <v>779</v>
-      </c>
-      <c r="F154" s="4" t="s">
-        <v>693</v>
-      </c>
-      <c r="G154" s="35"/>
-      <c r="H154" s="4" t="s">
-        <v>709</v>
-      </c>
-      <c r="I154" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A155" s="33">
-        <v>154</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="C155" s="33" t="s">
-        <v>814</v>
-      </c>
-      <c r="D155" s="41" t="s">
-        <v>815</v>
-      </c>
-      <c r="E155" s="33" t="s">
+      <c r="D158" s="30" t="s">
+        <v>845</v>
+      </c>
+      <c r="E158" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F155" s="33" t="s">
-        <v>816</v>
-      </c>
-      <c r="G155" s="33"/>
-      <c r="H155" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="I155" s="33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A156" s="33">
-        <v>155</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="C156" s="33" t="s">
-        <v>646</v>
-      </c>
-      <c r="D156" s="47" t="s">
-        <v>818</v>
-      </c>
-      <c r="E156" s="33"/>
-      <c r="F156" s="33"/>
-      <c r="G156" s="33"/>
-      <c r="H156" s="33"/>
-      <c r="I156" s="33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A157" s="33">
-        <v>156</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="C157" s="33" t="s">
-        <v>646</v>
-      </c>
-      <c r="D157" s="47" t="s">
-        <v>819</v>
-      </c>
-      <c r="E157" s="33"/>
-      <c r="F157" s="33"/>
-      <c r="G157" s="33"/>
-      <c r="H157" s="33"/>
-      <c r="I157" s="33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" s="50" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A158" s="33">
-        <v>157</v>
-      </c>
-      <c r="B158" s="33" t="s">
-        <v>851</v>
-      </c>
-      <c r="C158" s="54" t="s">
-        <v>814</v>
-      </c>
-      <c r="D158" s="41" t="s">
-        <v>815</v>
-      </c>
-      <c r="E158" s="53" t="s">
-        <v>878</v>
-      </c>
       <c r="F158" s="43" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="G158" s="43"/>
       <c r="H158" s="43" t="s">
-        <v>879</v>
+        <v>854</v>
       </c>
       <c r="I158" s="33" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="159" spans="1:9" s="50" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A159" s="33">
-        <v>158</v>
-      </c>
+      <c r="A159" s="33"/>
       <c r="B159" s="33" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="C159" s="54" t="s">
         <v>94</v>
       </c>
       <c r="D159" s="30" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="E159" s="53" t="s">
-        <v>16</v>
+        <v>855</v>
       </c>
       <c r="F159" s="43" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="G159" s="43"/>
       <c r="H159" s="43" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="I159" s="33" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="160" spans="1:9" s="50" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A160" s="33">
-        <v>159</v>
-      </c>
+      <c r="A160" s="33"/>
       <c r="B160" s="33" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="C160" s="54" t="s">
         <v>94</v>
       </c>
       <c r="D160" s="30" t="s">
-        <v>853</v>
-      </c>
-      <c r="E160" s="43" t="s">
-        <v>16</v>
+        <v>847</v>
+      </c>
+      <c r="E160" s="53" t="s">
+        <v>858</v>
       </c>
       <c r="F160" s="43" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G160" s="43"/>
       <c r="H160" s="43" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="I160" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="161" spans="1:9" s="50" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A161" s="33">
-        <v>160</v>
-      </c>
+    <row r="161" spans="1:9" s="50" customFormat="1" ht="50" x14ac:dyDescent="0.35">
+      <c r="A161" s="33"/>
       <c r="B161" s="33" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="C161" s="54" t="s">
         <v>94</v>
       </c>
       <c r="D161" s="30" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="E161" s="53" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F161" s="43" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="G161" s="43"/>
       <c r="H161" s="43" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="I161" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="162" spans="1:9" s="50" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A162" s="33">
-        <v>161</v>
-      </c>
+    <row r="162" spans="1:9" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="33"/>
       <c r="B162" s="33" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="C162" s="54" t="s">
         <v>94</v>
       </c>
       <c r="D162" s="30" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="E162" s="53" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="F162" s="43" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="G162" s="43"/>
       <c r="H162" s="43" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="I162" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="163" spans="1:9" s="50" customFormat="1" ht="50" x14ac:dyDescent="0.35">
-      <c r="A163" s="33">
-        <v>162</v>
-      </c>
+    <row r="163" spans="1:9" s="50" customFormat="1" ht="25" x14ac:dyDescent="0.35">
+      <c r="A163" s="33"/>
       <c r="B163" s="33" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="C163" s="54" t="s">
         <v>94</v>
       </c>
       <c r="D163" s="30" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="E163" s="53" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F163" s="43" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G163" s="43"/>
       <c r="H163" s="43" t="s">
-        <v>871</v>
-      </c>
-      <c r="I163" s="33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" s="50" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="33">
-        <v>163</v>
-      </c>
-      <c r="B164" s="33" t="s">
-        <v>851</v>
-      </c>
-      <c r="C164" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="D164" s="30" t="s">
-        <v>857</v>
-      </c>
-      <c r="E164" s="53" t="s">
-        <v>872</v>
+        <v>869</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="A164" s="33"/>
+      <c r="B164" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C164" s="33" t="s">
+        <v>806</v>
+      </c>
+      <c r="D164" s="41" t="s">
+        <v>949</v>
+      </c>
+      <c r="E164" s="43" t="s">
+        <v>16</v>
       </c>
       <c r="F164" s="43" t="s">
-        <v>873</v>
+        <v>955</v>
       </c>
       <c r="G164" s="43"/>
       <c r="H164" s="43" t="s">
-        <v>874</v>
-      </c>
-      <c r="I164" s="33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" s="50" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A165" s="33">
-        <v>164</v>
-      </c>
-      <c r="B165" s="33" t="s">
-        <v>851</v>
-      </c>
-      <c r="C165" s="54" t="s">
+        <v>956</v>
+      </c>
+      <c r="I164" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A165" s="33"/>
+      <c r="B165" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C165" s="33" t="s">
+        <v>642</v>
+      </c>
+      <c r="D165" s="47" t="s">
+        <v>950</v>
+      </c>
+      <c r="E165" s="33"/>
+      <c r="F165" s="33"/>
+      <c r="G165" s="33"/>
+      <c r="H165" s="33"/>
+      <c r="I165" s="33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A166" s="33"/>
+      <c r="B166" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C166" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D165" s="30" t="s">
-        <v>858</v>
-      </c>
-      <c r="E165" s="53" t="s">
-        <v>875</v>
-      </c>
-      <c r="F165" s="43" t="s">
-        <v>876</v>
-      </c>
-      <c r="G165" s="43"/>
-      <c r="H165" s="43" t="s">
-        <v>877</v>
-      </c>
-      <c r="I165" s="1" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A166" s="33">
-        <v>165</v>
-      </c>
-      <c r="B166" s="49" t="s">
+      <c r="D166" s="30" t="s">
+        <v>951</v>
+      </c>
+      <c r="E166" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F166" s="43" t="s">
         <v>957</v>
       </c>
-      <c r="C166" s="60" t="s">
-        <v>814</v>
-      </c>
-      <c r="D166" s="61" t="s">
-        <v>957</v>
-      </c>
-      <c r="E166" s="56" t="s">
+      <c r="G166" s="43"/>
+      <c r="H166" s="43" t="s">
+        <v>958</v>
+      </c>
+      <c r="I166" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+      <c r="A167" s="33"/>
+      <c r="B167" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C167" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D167" s="30" t="s">
+        <v>952</v>
+      </c>
+      <c r="E167" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F166" s="56" t="s">
+      <c r="F167" s="43" t="s">
+        <v>959</v>
+      </c>
+      <c r="G167" s="43"/>
+      <c r="H167" s="43" t="s">
+        <v>960</v>
+      </c>
+      <c r="I167" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A168" s="33"/>
+      <c r="B168" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C168" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D168" s="30" t="s">
+        <v>953</v>
+      </c>
+      <c r="E168" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F168" s="43" t="s">
+        <v>961</v>
+      </c>
+      <c r="G168" s="43"/>
+      <c r="H168" s="43" t="s">
+        <v>962</v>
+      </c>
+      <c r="I168" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A169" s="33"/>
+      <c r="B169" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C169" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D169" s="30" t="s">
+        <v>954</v>
+      </c>
+      <c r="E169" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F169" s="43" t="s">
         <v>963</v>
       </c>
-      <c r="G166" s="56"/>
-      <c r="H166" s="56" t="s">
+      <c r="G169" s="43"/>
+      <c r="H169" s="43" t="s">
         <v>964</v>
       </c>
-      <c r="I166" s="56" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A167" s="33">
-        <v>166</v>
-      </c>
-      <c r="B167" s="49" t="s">
-        <v>957</v>
-      </c>
-      <c r="C167" s="60" t="s">
-        <v>646</v>
-      </c>
-      <c r="D167" s="59" t="s">
-        <v>958</v>
-      </c>
-      <c r="E167" s="60"/>
-      <c r="F167" s="60"/>
-      <c r="G167" s="60"/>
-      <c r="H167" s="60"/>
-      <c r="I167" s="60" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A168" s="33">
-        <v>167</v>
-      </c>
-      <c r="B168" s="49" t="s">
-        <v>957</v>
-      </c>
-      <c r="C168" s="60" t="s">
+      <c r="I169" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A170" s="33"/>
+      <c r="B170" s="33" t="s">
+        <v>965</v>
+      </c>
+      <c r="C170" s="33" t="s">
+        <v>806</v>
+      </c>
+      <c r="D170" s="41" t="s">
+        <v>965</v>
+      </c>
+      <c r="E170" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F170" s="43" t="s">
+        <v>967</v>
+      </c>
+      <c r="G170" s="43"/>
+      <c r="H170" s="43" t="s">
+        <v>968</v>
+      </c>
+      <c r="I170" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A171" s="33"/>
+      <c r="B171" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="C171" s="33" t="s">
+        <v>642</v>
+      </c>
+      <c r="D171" s="47" t="s">
+        <v>966</v>
+      </c>
+      <c r="E171" s="33"/>
+      <c r="F171" s="33"/>
+      <c r="G171" s="33"/>
+      <c r="H171" s="33"/>
+      <c r="I171" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A172" s="33"/>
+      <c r="B172" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="C172" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D168" s="62" t="s">
-        <v>959</v>
-      </c>
-      <c r="E168" s="56" t="s">
+      <c r="D172" s="30" t="s">
+        <v>979</v>
+      </c>
+      <c r="E172" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F168" s="56" t="s">
+      <c r="F172" s="43" t="s">
+        <v>969</v>
+      </c>
+      <c r="G172" s="43"/>
+      <c r="H172" s="43" t="s">
+        <v>970</v>
+      </c>
+      <c r="I172" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A173" s="33"/>
+      <c r="B173" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="G168" s="56"/>
-      <c r="H168" s="56" t="s">
-        <v>966</v>
-      </c>
-      <c r="I168" s="56" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" ht="50" x14ac:dyDescent="0.35">
-      <c r="A169" s="33">
-        <v>168</v>
-      </c>
-      <c r="B169" s="49" t="s">
-        <v>957</v>
-      </c>
-      <c r="C169" s="60" t="s">
+      <c r="C173" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D169" s="62" t="s">
-        <v>960</v>
-      </c>
-      <c r="E169" s="56" t="s">
+      <c r="D173" s="30" t="s">
+        <v>980</v>
+      </c>
+      <c r="E173" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F169" s="56" t="s">
-        <v>967</v>
-      </c>
-      <c r="G169" s="56"/>
-      <c r="H169" s="56" t="s">
-        <v>968</v>
-      </c>
-      <c r="I169" s="56" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A170" s="33">
-        <v>169</v>
-      </c>
-      <c r="B170" s="49" t="s">
-        <v>957</v>
-      </c>
-      <c r="C170" s="60" t="s">
+      <c r="F173" s="43" t="s">
+        <v>971</v>
+      </c>
+      <c r="G173" s="43"/>
+      <c r="H173" s="43" t="s">
+        <v>972</v>
+      </c>
+      <c r="I173" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A174" s="33"/>
+      <c r="B174" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="C174" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D170" s="62" t="s">
-        <v>961</v>
-      </c>
-      <c r="E170" s="56" t="s">
+      <c r="D174" s="30" t="s">
+        <v>981</v>
+      </c>
+      <c r="E174" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F170" s="56" t="s">
-        <v>969</v>
-      </c>
-      <c r="G170" s="56"/>
-      <c r="H170" s="56" t="s">
-        <v>970</v>
-      </c>
-      <c r="I170" s="56" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A171" s="33">
-        <v>170</v>
-      </c>
-      <c r="B171" s="49" t="s">
-        <v>957</v>
-      </c>
-      <c r="C171" s="60" t="s">
+      <c r="F174" s="43" t="s">
+        <v>973</v>
+      </c>
+      <c r="G174" s="43"/>
+      <c r="H174" s="43" t="s">
+        <v>974</v>
+      </c>
+      <c r="I174" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+      <c r="A175" s="33"/>
+      <c r="B175" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="C175" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D171" s="62" t="s">
-        <v>962</v>
-      </c>
-      <c r="E171" s="56" t="s">
+      <c r="D175" s="30" t="s">
+        <v>982</v>
+      </c>
+      <c r="E175" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F171" s="56" t="s">
-        <v>971</v>
-      </c>
-      <c r="G171" s="56"/>
-      <c r="H171" s="56" t="s">
-        <v>972</v>
-      </c>
-      <c r="I171" s="56" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A172" s="33">
-        <v>171</v>
-      </c>
-      <c r="B172" s="60" t="s">
-        <v>973</v>
-      </c>
-      <c r="C172" s="60" t="s">
-        <v>814</v>
-      </c>
-      <c r="D172" s="61" t="s">
-        <v>973</v>
-      </c>
-      <c r="E172" s="56" t="s">
+      <c r="F175" s="43" t="s">
+        <v>975</v>
+      </c>
+      <c r="G175" s="43"/>
+      <c r="H175" s="43" t="s">
+        <v>976</v>
+      </c>
+      <c r="I175" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A176" s="33"/>
+      <c r="B176" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="C176" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D176" s="30" t="s">
+        <v>983</v>
+      </c>
+      <c r="E176" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F172" s="56" t="s">
-        <v>975</v>
-      </c>
-      <c r="G172" s="56"/>
-      <c r="H172" s="56" t="s">
-        <v>976</v>
-      </c>
-      <c r="I172" s="56" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A173" s="33">
-        <v>172</v>
-      </c>
-      <c r="B173" s="49" t="s">
-        <v>973</v>
-      </c>
-      <c r="C173" s="60" t="s">
-        <v>646</v>
-      </c>
-      <c r="D173" s="59" t="s">
-        <v>974</v>
-      </c>
-      <c r="E173" s="60"/>
-      <c r="F173" s="60"/>
-      <c r="G173" s="60"/>
-      <c r="H173" s="60"/>
-      <c r="I173" s="56" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A174" s="33">
-        <v>173</v>
-      </c>
-      <c r="B174" s="49" t="s">
-        <v>973</v>
-      </c>
-      <c r="C174" s="60" t="s">
+      <c r="F176" s="43" t="s">
+        <v>977</v>
+      </c>
+      <c r="G176" s="43"/>
+      <c r="H176" s="43" t="s">
+        <v>978</v>
+      </c>
+      <c r="I176" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A177" s="33"/>
+      <c r="B177" s="33" t="s">
+        <v>984</v>
+      </c>
+      <c r="C177" s="33" t="s">
+        <v>806</v>
+      </c>
+      <c r="D177" s="41" t="s">
+        <v>984</v>
+      </c>
+      <c r="E177" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F177" s="43" t="s">
+        <v>986</v>
+      </c>
+      <c r="G177" s="43"/>
+      <c r="H177" s="43" t="s">
+        <v>987</v>
+      </c>
+      <c r="I177" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A178" s="33"/>
+      <c r="B178" s="33" t="s">
+        <v>984</v>
+      </c>
+      <c r="C178" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D174" s="62" t="s">
-        <v>987</v>
-      </c>
-      <c r="E174" s="56" t="s">
+      <c r="D178" s="30" t="s">
+        <v>985</v>
+      </c>
+      <c r="E178" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F174" s="56" t="s">
-        <v>977</v>
-      </c>
-      <c r="G174" s="56"/>
-      <c r="H174" s="56" t="s">
-        <v>978</v>
-      </c>
-      <c r="I174" s="56" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A175" s="33">
-        <v>174</v>
-      </c>
-      <c r="B175" s="49" t="s">
-        <v>973</v>
-      </c>
-      <c r="C175" s="60" t="s">
+      <c r="F178" s="43" t="s">
+        <v>988</v>
+      </c>
+      <c r="G178" s="43"/>
+      <c r="H178" s="43" t="s">
+        <v>989</v>
+      </c>
+      <c r="I178" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A179" s="33"/>
+      <c r="B179" s="33" t="s">
+        <v>984</v>
+      </c>
+      <c r="C179" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D175" s="62" t="s">
-        <v>988</v>
-      </c>
-      <c r="E175" s="56" t="s">
+      <c r="D179" s="30" t="s">
+        <v>667</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="G179" s="33"/>
+      <c r="H179" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="I179" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A180" s="33"/>
+      <c r="B180" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C180" s="33" t="s">
+        <v>806</v>
+      </c>
+      <c r="D180" s="41" t="s">
+        <v>999</v>
+      </c>
+      <c r="E180" s="43"/>
+      <c r="F180" s="43"/>
+      <c r="G180" s="43"/>
+      <c r="H180" s="43"/>
+      <c r="I180" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A181" s="33"/>
+      <c r="B181" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C181" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D181" s="30" t="s">
+        <v>996</v>
+      </c>
+      <c r="E181" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F175" s="56" t="s">
-        <v>979</v>
-      </c>
-      <c r="G175" s="56"/>
-      <c r="H175" s="56" t="s">
-        <v>980</v>
-      </c>
-      <c r="I175" s="56" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A176" s="33">
-        <v>175</v>
-      </c>
-      <c r="B176" s="49" t="s">
-        <v>973</v>
-      </c>
-      <c r="C176" s="60" t="s">
+      <c r="F181" s="43" t="s">
+        <v>990</v>
+      </c>
+      <c r="G181" s="43"/>
+      <c r="H181" s="43" t="s">
+        <v>991</v>
+      </c>
+      <c r="I181" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A182" s="33"/>
+      <c r="B182" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C182" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D176" s="62" t="s">
-        <v>989</v>
-      </c>
-      <c r="E176" s="56" t="s">
+      <c r="D182" s="30" t="s">
+        <v>997</v>
+      </c>
+      <c r="E182" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F176" s="56" t="s">
-        <v>981</v>
-      </c>
-      <c r="G176" s="56"/>
-      <c r="H176" s="56" t="s">
-        <v>982</v>
-      </c>
-      <c r="I176" s="56" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" ht="50" x14ac:dyDescent="0.35">
-      <c r="A177" s="33">
-        <v>176</v>
-      </c>
-      <c r="B177" s="49" t="s">
-        <v>973</v>
-      </c>
-      <c r="C177" s="60" t="s">
+      <c r="F182" s="43" t="s">
+        <v>992</v>
+      </c>
+      <c r="G182" s="43"/>
+      <c r="H182" s="43" t="s">
+        <v>993</v>
+      </c>
+      <c r="I182" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A183" s="33"/>
+      <c r="B183" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C183" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D177" s="62" t="s">
-        <v>990</v>
-      </c>
-      <c r="E177" s="56" t="s">
+      <c r="D183" s="30" t="s">
+        <v>998</v>
+      </c>
+      <c r="E183" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F177" s="56" t="s">
-        <v>983</v>
-      </c>
-      <c r="G177" s="56"/>
-      <c r="H177" s="56" t="s">
-        <v>984</v>
-      </c>
-      <c r="I177" s="56" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A178" s="33">
-        <v>177</v>
-      </c>
-      <c r="B178" s="49" t="s">
-        <v>973</v>
-      </c>
-      <c r="C178" s="60" t="s">
+      <c r="F183" s="43" t="s">
+        <v>994</v>
+      </c>
+      <c r="G183" s="43"/>
+      <c r="H183" s="43" t="s">
+        <v>995</v>
+      </c>
+      <c r="I183" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A184" s="33"/>
+      <c r="B184" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C184" s="33" t="s">
+        <v>806</v>
+      </c>
+      <c r="D184" s="41" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E184" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F184" s="43" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G184" s="43"/>
+      <c r="H184" s="43" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I184" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A185" s="33"/>
+      <c r="B185" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C185" s="33" t="s">
+        <v>642</v>
+      </c>
+      <c r="D185" s="47" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E185" s="33"/>
+      <c r="F185" s="33"/>
+      <c r="G185" s="33"/>
+      <c r="H185" s="33"/>
+      <c r="I185" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A186" s="33"/>
+      <c r="B186" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C186" s="33" t="s">
+        <v>642</v>
+      </c>
+      <c r="D186" s="47" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E186" s="33"/>
+      <c r="F186" s="33"/>
+      <c r="G186" s="33"/>
+      <c r="H186" s="33"/>
+      <c r="I186" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A187" s="33"/>
+      <c r="B187" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C187" s="33" t="s">
+        <v>642</v>
+      </c>
+      <c r="D187" s="47" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E187" s="33"/>
+      <c r="F187" s="33"/>
+      <c r="G187" s="33"/>
+      <c r="H187" s="33"/>
+      <c r="I187" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A188" s="33"/>
+      <c r="B188" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C188" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D178" s="62" t="s">
-        <v>991</v>
-      </c>
-      <c r="E178" s="56" t="s">
+      <c r="D188" s="30" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E188" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F178" s="56" t="s">
-        <v>985</v>
-      </c>
-      <c r="G178" s="56"/>
-      <c r="H178" s="56" t="s">
-        <v>986</v>
-      </c>
-      <c r="I178" s="56" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A179" s="33">
-        <v>178</v>
-      </c>
-      <c r="B179" s="60" t="s">
-        <v>992</v>
-      </c>
-      <c r="C179" s="60" t="s">
-        <v>814</v>
-      </c>
-      <c r="D179" s="61" t="s">
-        <v>992</v>
-      </c>
-      <c r="E179" s="56" t="s">
+      <c r="F188" s="43" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G188" s="43"/>
+      <c r="H188" s="43" t="s">
+        <v>1004</v>
+      </c>
+      <c r="I188" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A189" s="33"/>
+      <c r="B189" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C189" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D189" s="30" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E189" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F179" s="56" t="s">
-        <v>994</v>
-      </c>
-      <c r="G179" s="56"/>
-      <c r="H179" s="56" t="s">
-        <v>995</v>
-      </c>
-      <c r="I179" s="56" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A180" s="33">
-        <v>179</v>
-      </c>
-      <c r="B180" s="60" t="s">
-        <v>992</v>
-      </c>
-      <c r="C180" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D180" s="62" t="s">
-        <v>993</v>
-      </c>
-      <c r="E180" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="F180" s="56" t="s">
-        <v>996</v>
-      </c>
-      <c r="G180" s="56"/>
-      <c r="H180" s="56" t="s">
-        <v>997</v>
-      </c>
-      <c r="I180" s="56" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A181" s="33">
-        <v>180</v>
-      </c>
-      <c r="B181" s="60" t="s">
-        <v>992</v>
-      </c>
-      <c r="C181" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D181" s="62" t="s">
-        <v>671</v>
-      </c>
-      <c r="E181" s="49" t="s">
-        <v>676</v>
-      </c>
-      <c r="F181" s="49" t="s">
-        <v>670</v>
-      </c>
-      <c r="G181" s="60"/>
-      <c r="H181" s="49" t="s">
-        <v>675</v>
-      </c>
-      <c r="I181" s="56" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A182" s="33">
-        <v>181</v>
-      </c>
-      <c r="B182" s="49" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C182" s="60" t="s">
-        <v>814</v>
-      </c>
-      <c r="D182" s="61" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E182" s="56"/>
-      <c r="F182" s="56"/>
-      <c r="G182" s="56"/>
-      <c r="H182" s="56"/>
-      <c r="I182" s="56" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A183" s="33">
-        <v>182</v>
-      </c>
-      <c r="B183" s="49" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C183" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D183" s="62" t="s">
-        <v>1004</v>
-      </c>
-      <c r="E183" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="F183" s="56" t="s">
-        <v>998</v>
-      </c>
-      <c r="G183" s="56"/>
-      <c r="H183" s="56" t="s">
-        <v>999</v>
-      </c>
-      <c r="I183" s="56" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A184" s="33">
-        <v>183</v>
-      </c>
-      <c r="B184" s="49" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C184" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D184" s="62" t="s">
+      <c r="F189" s="43" t="s">
         <v>1005</v>
       </c>
-      <c r="E184" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="F184" s="56" t="s">
-        <v>1000</v>
-      </c>
-      <c r="G184" s="56"/>
-      <c r="H184" s="56" t="s">
-        <v>1001</v>
-      </c>
-      <c r="I184" s="56" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A185" s="33">
-        <v>184</v>
-      </c>
-      <c r="B185" s="49" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C185" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D185" s="62" t="s">
+      <c r="G189" s="43"/>
+      <c r="H189" s="43" t="s">
         <v>1006</v>
       </c>
-      <c r="E185" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="F185" s="56" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G185" s="56"/>
-      <c r="H185" s="56" t="s">
-        <v>1003</v>
-      </c>
-      <c r="I185" s="56" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A186" s="33">
-        <v>185</v>
-      </c>
-      <c r="B186" s="49" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C186" s="60" t="s">
-        <v>814</v>
-      </c>
-      <c r="D186" s="61" t="s">
-        <v>1008</v>
-      </c>
-      <c r="E186" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="F186" s="56" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G186" s="56"/>
-      <c r="H186" s="56" t="s">
-        <v>1010</v>
-      </c>
-      <c r="I186" s="56" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A187" s="33">
-        <v>186</v>
-      </c>
-      <c r="B187" s="49" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C187" s="60" t="s">
-        <v>646</v>
-      </c>
-      <c r="D187" s="59" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E187" s="60"/>
-      <c r="F187" s="60"/>
-      <c r="G187" s="60"/>
-      <c r="H187" s="60"/>
-      <c r="I187" s="56" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A188" s="33">
-        <v>187</v>
-      </c>
-      <c r="B188" s="49" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C188" s="60" t="s">
-        <v>646</v>
-      </c>
-      <c r="D188" s="59" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E188" s="60"/>
-      <c r="F188" s="60"/>
-      <c r="G188" s="60"/>
-      <c r="H188" s="60"/>
-      <c r="I188" s="56" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A189" s="33">
-        <v>188</v>
-      </c>
-      <c r="B189" s="49" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C189" s="60" t="s">
-        <v>646</v>
-      </c>
-      <c r="D189" s="59" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E189" s="60"/>
-      <c r="F189" s="60"/>
-      <c r="G189" s="60"/>
-      <c r="H189" s="60"/>
-      <c r="I189" s="56" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A190" s="33">
-        <v>189</v>
-      </c>
-      <c r="B190" s="49" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C190" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D190" s="62" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E190" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="F190" s="56" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G190" s="56"/>
-      <c r="H190" s="56" t="s">
-        <v>1012</v>
-      </c>
-      <c r="I190" s="56" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A191" s="33">
-        <v>190</v>
-      </c>
-      <c r="B191" s="49" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C191" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D191" s="62" t="s">
-        <v>1017</v>
-      </c>
-      <c r="E191" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="F191" s="56" t="s">
-        <v>1013</v>
-      </c>
-      <c r="G191" s="56"/>
-      <c r="H191" s="56" t="s">
-        <v>1014</v>
-      </c>
-      <c r="I191" s="56" t="s">
+      <c r="I189" s="43" t="s">
         <v>93</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I165" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I163" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8798,7 +8256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N132"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:F1"/>
     </sheetView>
@@ -8816,14 +8274,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="55" t="s">
         <v>506</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
       <c r="I1" s="6"/>
@@ -8834,16 +8292,16 @@
       <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:14" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="57" t="s">
         <v>505</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -8852,11 +8310,11 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:14" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="55" t="s">
         <v>507</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
       <c r="D3" s="32"/>
       <c r="E3" s="24"/>
       <c r="F3" s="20"/>
@@ -8880,10 +8338,10 @@
       <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:14" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="B5" s="71"/>
+      <c r="B5" s="59"/>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
       <c r="E5" s="25"/>
@@ -8908,10 +8366,10 @@
         <v>94</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>0</v>
@@ -8928,13 +8386,13 @@
         <v>158</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>179</v>
@@ -8952,13 +8410,13 @@
         <v>158</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>180</v>
@@ -8976,13 +8434,13 @@
         <v>158</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>181</v>
@@ -9000,13 +8458,13 @@
         <v>158</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>182</v>
@@ -9024,13 +8482,13 @@
         <v>158</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>226</v>
@@ -9050,13 +8508,13 @@
         <v>158</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>227</v>
@@ -9076,13 +8534,13 @@
         <v>158</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>228</v>
@@ -9102,13 +8560,13 @@
         <v>158</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>229</v>
@@ -9128,13 +8586,13 @@
         <v>158</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>230</v>
@@ -9154,13 +8612,13 @@
         <v>158</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>231</v>
@@ -9180,13 +8638,13 @@
         <v>158</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>232</v>
@@ -9206,13 +8664,13 @@
         <v>158</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>233</v>
@@ -9232,13 +8690,13 @@
         <v>158</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>234</v>
@@ -9258,13 +8716,13 @@
         <v>158</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>235</v>
@@ -9284,13 +8742,13 @@
         <v>158</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>236</v>
@@ -9310,13 +8768,13 @@
         <v>158</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="E22" s="19" t="s">
         <v>237</v>
@@ -9336,13 +8794,13 @@
         <v>158</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="E23" s="19" t="s">
         <v>238</v>
@@ -9362,13 +8820,13 @@
         <v>158</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>171</v>
@@ -9386,16 +8844,16 @@
         <v>158</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>162</v>
@@ -9412,13 +8870,13 @@
         <v>158</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="E26" s="15" t="s">
         <v>172</v>
@@ -9436,13 +8894,13 @@
         <v>158</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>173</v>
@@ -9460,13 +8918,13 @@
         <v>158</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>174</v>
@@ -9487,22 +8945,22 @@
         <v>534</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="F29" s="52" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="H29" s="19" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="14" customFormat="1" ht="25" x14ac:dyDescent="0.35">
@@ -9513,20 +8971,20 @@
         <v>534</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="15" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="14" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.35">
@@ -9537,22 +8995,22 @@
         <v>534</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="14" customFormat="1" ht="25" x14ac:dyDescent="0.35">
@@ -9560,13 +9018,13 @@
         <v>158</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="E32" s="19" t="s">
         <v>409</v>
@@ -9586,13 +9044,13 @@
         <v>158</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="E33" s="19" t="s">
         <v>410</v>
@@ -9610,13 +9068,13 @@
         <v>158</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="E34" s="19" t="s">
         <v>411</v>
@@ -9634,13 +9092,13 @@
         <v>158</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="E35" s="19" t="s">
         <v>412</v>
@@ -9658,13 +9116,13 @@
         <v>158</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="E36" s="19" t="s">
         <v>413</v>
@@ -9682,13 +9140,13 @@
         <v>158</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="E37" s="19" t="s">
         <v>414</v>
@@ -9706,13 +9164,13 @@
         <v>158</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="E38" s="19" t="s">
         <v>415</v>
@@ -9730,13 +9188,13 @@
         <v>158</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="E39" s="19" t="s">
         <v>416</v>
@@ -9756,13 +9214,13 @@
         <v>158</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="E40" s="19" t="s">
         <v>417</v>
@@ -9780,13 +9238,13 @@
         <v>158</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="E41" s="19" t="s">
         <v>418</v>
@@ -9804,13 +9262,13 @@
         <v>158</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="E42" s="19" t="s">
         <v>419</v>
@@ -9830,13 +9288,13 @@
         <v>158</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E43" s="19" t="s">
         <v>476</v>
@@ -9854,13 +9312,13 @@
         <v>158</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E44" s="19" t="s">
         <v>477</v>
@@ -9878,13 +9336,13 @@
         <v>158</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E45" s="19" t="s">
         <v>478</v>
@@ -9902,13 +9360,13 @@
         <v>158</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E46" s="19" t="s">
         <v>479</v>
@@ -9926,13 +9384,13 @@
         <v>158</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E47" s="19" t="s">
         <v>480</v>
@@ -9950,13 +9408,13 @@
         <v>158</v>
       </c>
       <c r="B48" s="36" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E48" s="19" t="s">
         <v>481</v>
@@ -9974,13 +9432,13 @@
         <v>158</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E49" s="19" t="s">
         <v>412</v>
@@ -9998,13 +9456,13 @@
         <v>158</v>
       </c>
       <c r="B50" s="36" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E50" s="19" t="s">
         <v>482</v>
@@ -10022,13 +9480,13 @@
         <v>158</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E51" s="19" t="s">
         <v>483</v>
@@ -10046,13 +9504,13 @@
         <v>158</v>
       </c>
       <c r="B52" s="36" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E52" s="19" t="s">
         <v>484</v>
@@ -10070,13 +9528,13 @@
         <v>158</v>
       </c>
       <c r="B53" s="36" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E53" s="19" t="s">
         <v>485</v>
@@ -10094,13 +9552,13 @@
         <v>158</v>
       </c>
       <c r="B54" s="36" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E54" s="19" t="s">
         <v>486</v>
@@ -10120,13 +9578,13 @@
         <v>158</v>
       </c>
       <c r="B55" s="36" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E55" s="19" t="s">
         <v>487</v>
@@ -10144,13 +9602,13 @@
         <v>158</v>
       </c>
       <c r="B56" s="36" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E56" s="19" t="s">
         <v>488</v>
@@ -10168,13 +9626,13 @@
         <v>158</v>
       </c>
       <c r="B57" s="36" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E57" s="19" t="s">
         <v>489</v>
@@ -10192,13 +9650,13 @@
         <v>158</v>
       </c>
       <c r="B58" s="36" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E58" s="19" t="s">
         <v>490</v>
@@ -10216,13 +9674,13 @@
         <v>158</v>
       </c>
       <c r="B59" s="36" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E59" s="19" t="s">
         <v>491</v>
@@ -10240,13 +9698,13 @@
         <v>158</v>
       </c>
       <c r="B60" s="36" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E60" s="19" t="s">
         <v>492</v>
@@ -10264,13 +9722,13 @@
         <v>158</v>
       </c>
       <c r="B61" s="36" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E61" s="19" t="s">
         <v>493</v>
@@ -10288,13 +9746,13 @@
         <v>158</v>
       </c>
       <c r="B62" s="36" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E62" s="19" t="s">
         <v>494</v>
@@ -10312,13 +9770,13 @@
         <v>158</v>
       </c>
       <c r="B63" s="36" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E63" s="19" t="s">
         <v>495</v>
@@ -10336,13 +9794,13 @@
         <v>158</v>
       </c>
       <c r="B64" s="36" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E64" s="19" t="s">
         <v>416</v>
@@ -10362,13 +9820,13 @@
         <v>158</v>
       </c>
       <c r="B65" s="36" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E65" s="19" t="s">
         <v>496</v>
@@ -10386,13 +9844,13 @@
         <v>158</v>
       </c>
       <c r="B66" s="36" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E66" s="19" t="s">
         <v>497</v>
@@ -10410,13 +9868,13 @@
         <v>158</v>
       </c>
       <c r="B67" s="36" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E67" s="19" t="s">
         <v>498</v>
@@ -10434,13 +9892,13 @@
         <v>158</v>
       </c>
       <c r="B68" s="36" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E68" s="19" t="s">
         <v>499</v>
@@ -10460,13 +9918,13 @@
         <v>158</v>
       </c>
       <c r="B69" s="36" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E69" s="19" t="s">
         <v>500</v>
@@ -10484,13 +9942,13 @@
         <v>158</v>
       </c>
       <c r="B70" s="36" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E70" s="19" t="s">
         <v>419</v>
@@ -10510,13 +9968,13 @@
         <v>158</v>
       </c>
       <c r="B71" s="36" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E71" s="19" t="s">
         <v>501</v>
@@ -10534,13 +9992,13 @@
         <v>158</v>
       </c>
       <c r="B72" s="36" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E72" s="19" t="s">
         <v>502</v>
@@ -10558,13 +10016,13 @@
         <v>158</v>
       </c>
       <c r="B73" s="36" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="E73" s="19" t="s">
         <v>249</v>
@@ -10582,13 +10040,13 @@
         <v>158</v>
       </c>
       <c r="B74" s="36" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="E74" s="19" t="s">
         <v>250</v>
@@ -10606,13 +10064,13 @@
         <v>158</v>
       </c>
       <c r="B75" s="36" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D75" s="19" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="E75" s="19" t="s">
         <v>251</v>
@@ -10630,13 +10088,13 @@
         <v>158</v>
       </c>
       <c r="B76" s="36" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="E76" s="19" t="s">
         <v>252</v>
@@ -10654,13 +10112,13 @@
         <v>158</v>
       </c>
       <c r="B77" s="36" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="E77" s="19" t="s">
         <v>253</v>
@@ -10678,13 +10136,13 @@
         <v>158</v>
       </c>
       <c r="B78" s="36" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="E78" s="15" t="s">
         <v>503</v>
@@ -10696,7 +10154,7 @@
         <v>520</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="25" x14ac:dyDescent="0.35">
@@ -10704,13 +10162,13 @@
         <v>158</v>
       </c>
       <c r="B79" s="36" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="E79" s="15" t="s">
         <v>517</v>
@@ -10722,7 +10180,7 @@
         <v>521</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="37.5" x14ac:dyDescent="0.35">
@@ -10730,13 +10188,13 @@
         <v>158</v>
       </c>
       <c r="B80" s="36" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="E80" s="19" t="s">
         <v>260</v>
@@ -10754,13 +10212,13 @@
         <v>158</v>
       </c>
       <c r="B81" s="36" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="E81" s="19" t="s">
         <v>261</v>
@@ -10778,13 +10236,13 @@
         <v>158</v>
       </c>
       <c r="B82" s="36" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="E82" s="19" t="s">
         <v>262</v>
@@ -10802,16 +10260,16 @@
         <v>158</v>
       </c>
       <c r="B83" s="36" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="E83" s="19" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="F83" s="19" t="s">
         <v>263</v>
@@ -10826,13 +10284,13 @@
         <v>158</v>
       </c>
       <c r="B84" s="36" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D84" s="19" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="E84" s="19" t="s">
         <v>272</v>
@@ -10850,13 +10308,13 @@
         <v>158</v>
       </c>
       <c r="B85" s="36" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="E85" s="19" t="s">
         <v>273</v>
@@ -10874,16 +10332,16 @@
         <v>158</v>
       </c>
       <c r="B86" s="36" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="E86" s="19" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="F86" s="19" t="s">
         <v>268</v>
@@ -10898,16 +10356,16 @@
         <v>158</v>
       </c>
       <c r="B87" s="36" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="E87" s="19" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="F87" s="19" t="s">
         <v>270</v>
@@ -10922,13 +10380,13 @@
         <v>158</v>
       </c>
       <c r="B88" s="36" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C88" s="19" t="s">
         <v>565</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="E88" s="19" t="s">
         <v>298</v>
@@ -10946,13 +10404,13 @@
         <v>158</v>
       </c>
       <c r="B89" s="36" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C89" s="19" t="s">
         <v>565</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="E89" s="19" t="s">
         <v>299</v>
@@ -10970,13 +10428,13 @@
         <v>158</v>
       </c>
       <c r="B90" s="36" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C90" s="19" t="s">
         <v>565</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="E90" s="19" t="s">
         <v>300</v>
@@ -10996,13 +10454,13 @@
         <v>158</v>
       </c>
       <c r="B91" s="36" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C91" s="19" t="s">
         <v>565</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="E91" s="19" t="s">
         <v>301</v>
@@ -11020,13 +10478,13 @@
         <v>158</v>
       </c>
       <c r="B92" s="36" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C92" s="19" t="s">
         <v>565</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="E92" s="19" t="s">
         <v>302</v>
@@ -11046,13 +10504,13 @@
         <v>158</v>
       </c>
       <c r="B93" s="36" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C93" s="19" t="s">
         <v>565</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="E93" s="19" t="s">
         <v>303</v>
@@ -11070,13 +10528,13 @@
         <v>158</v>
       </c>
       <c r="B94" s="36" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C94" s="19" t="s">
         <v>565</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="E94" s="19" t="s">
         <v>304</v>
@@ -11094,13 +10552,13 @@
         <v>158</v>
       </c>
       <c r="B95" s="36" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C95" s="19" t="s">
         <v>565</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="E95" s="19" t="s">
         <v>305</v>
@@ -11118,13 +10576,13 @@
         <v>158</v>
       </c>
       <c r="B96" s="36" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C96" s="19" t="s">
         <v>565</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="E96" s="19" t="s">
         <v>306</v>
@@ -11142,13 +10600,13 @@
         <v>158</v>
       </c>
       <c r="B97" s="36" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C97" s="19" t="s">
         <v>565</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="E97" s="19" t="s">
         <v>307</v>
@@ -11166,13 +10624,13 @@
         <v>158</v>
       </c>
       <c r="B98" s="36" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C98" s="19" t="s">
         <v>565</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="E98" s="19" t="s">
         <v>308</v>
@@ -11182,7 +10640,7 @@
       </c>
       <c r="G98" s="19"/>
       <c r="H98" s="19" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="37.5" x14ac:dyDescent="0.35">
@@ -11190,13 +10648,13 @@
         <v>158</v>
       </c>
       <c r="B99" s="36" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C99" s="19" t="s">
         <v>565</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="E99" s="19" t="s">
         <v>309</v>
@@ -11206,7 +10664,7 @@
       </c>
       <c r="G99" s="19"/>
       <c r="H99" s="19" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="25" x14ac:dyDescent="0.35">
@@ -11214,13 +10672,13 @@
         <v>158</v>
       </c>
       <c r="B100" s="36" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C100" s="15" t="s">
         <v>573</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="E100" s="19" t="s">
         <v>384</v>
@@ -11238,13 +10696,13 @@
         <v>158</v>
       </c>
       <c r="B101" s="36" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C101" s="15" t="s">
         <v>574</v>
       </c>
       <c r="D101" s="19" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E101" s="19" t="s">
         <v>366</v>
@@ -11262,13 +10720,13 @@
         <v>158</v>
       </c>
       <c r="B102" s="36" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C102" s="15" t="s">
         <v>574</v>
       </c>
       <c r="D102" s="19" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E102" s="19" t="s">
         <v>367</v>
@@ -11286,13 +10744,13 @@
         <v>158</v>
       </c>
       <c r="B103" s="36" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C103" s="15" t="s">
         <v>574</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E103" s="19" t="s">
         <v>368</v>
@@ -11310,13 +10768,13 @@
         <v>158</v>
       </c>
       <c r="B104" s="36" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C104" s="15" t="s">
         <v>574</v>
       </c>
       <c r="D104" s="19" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E104" s="19" t="s">
         <v>369</v>
@@ -11334,13 +10792,13 @@
         <v>158</v>
       </c>
       <c r="B105" s="36" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C105" s="15" t="s">
         <v>574</v>
       </c>
       <c r="D105" s="19" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E105" s="19" t="s">
         <v>370</v>
@@ -11358,13 +10816,13 @@
         <v>158</v>
       </c>
       <c r="B106" s="36" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C106" s="15" t="s">
         <v>574</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E106" s="19" t="s">
         <v>371</v>
@@ -11382,13 +10840,13 @@
         <v>158</v>
       </c>
       <c r="B107" s="36" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C107" s="15" t="s">
         <v>574</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E107" s="19" t="s">
         <v>372</v>
@@ -11406,13 +10864,13 @@
         <v>158</v>
       </c>
       <c r="B108" s="36" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C108" s="15" t="s">
         <v>574</v>
       </c>
       <c r="D108" s="19" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E108" s="19" t="s">
         <v>373</v>
@@ -11430,13 +10888,13 @@
         <v>158</v>
       </c>
       <c r="B109" s="36" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C109" s="15" t="s">
         <v>574</v>
       </c>
       <c r="D109" s="19" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E109" s="19" t="s">
         <v>374</v>
@@ -11454,13 +10912,13 @@
         <v>158</v>
       </c>
       <c r="B110" s="36" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C110" s="15" t="s">
         <v>574</v>
       </c>
       <c r="D110" s="19" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E110" s="19" t="s">
         <v>375</v>
@@ -11478,13 +10936,13 @@
         <v>158</v>
       </c>
       <c r="B111" s="36" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C111" s="15" t="s">
         <v>574</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E111" s="19" t="s">
         <v>376</v>
@@ -11502,13 +10960,13 @@
         <v>158</v>
       </c>
       <c r="B112" s="36" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C112" s="15" t="s">
         <v>574</v>
       </c>
       <c r="D112" s="19" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E112" s="19" t="s">
         <v>377</v>
@@ -11526,13 +10984,13 @@
         <v>158</v>
       </c>
       <c r="B113" s="36" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C113" s="15" t="s">
         <v>574</v>
       </c>
       <c r="D113" s="19" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E113" s="19" t="s">
         <v>378</v>
@@ -11550,13 +11008,13 @@
         <v>158</v>
       </c>
       <c r="B114" s="36" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C114" s="15" t="s">
         <v>574</v>
       </c>
       <c r="D114" s="19" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E114" s="19" t="s">
         <v>379</v>
@@ -11574,13 +11032,13 @@
         <v>158</v>
       </c>
       <c r="B115" s="36" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C115" s="15" t="s">
         <v>574</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E115" s="19" t="s">
         <v>380</v>
@@ -11598,13 +11056,13 @@
         <v>158</v>
       </c>
       <c r="B116" s="36" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C116" s="15" t="s">
         <v>574</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E116" s="19" t="s">
         <v>381</v>
@@ -11622,13 +11080,13 @@
         <v>158</v>
       </c>
       <c r="B117" s="36" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C117" s="15" t="s">
         <v>574</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E117" s="19" t="s">
         <v>382</v>
@@ -11646,13 +11104,13 @@
         <v>158</v>
       </c>
       <c r="B118" s="36" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C118" s="15" t="s">
         <v>574</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E118" s="19" t="s">
         <v>383</v>
@@ -11670,13 +11128,13 @@
         <v>158</v>
       </c>
       <c r="B119" s="36" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C119" s="15" t="s">
         <v>575</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="E119" s="19" t="s">
         <v>324</v>
@@ -11696,13 +11154,13 @@
         <v>158</v>
       </c>
       <c r="B120" s="36" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C120" s="15" t="s">
         <v>575</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="E120" s="19" t="s">
         <v>325</v>
@@ -11722,13 +11180,13 @@
         <v>158</v>
       </c>
       <c r="B121" s="36" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C121" s="15" t="s">
         <v>575</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="E121" s="19" t="s">
         <v>326</v>
@@ -11746,13 +11204,13 @@
         <v>158</v>
       </c>
       <c r="B122" s="36" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C122" s="15" t="s">
         <v>575</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="E122" s="19" t="s">
         <v>327</v>
@@ -11770,13 +11228,13 @@
         <v>158</v>
       </c>
       <c r="B123" s="36" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C123" s="15" t="s">
         <v>575</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="E123" s="19" t="s">
         <v>328</v>
@@ -11794,13 +11252,13 @@
         <v>158</v>
       </c>
       <c r="B124" s="36" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C124" s="15" t="s">
         <v>575</v>
       </c>
       <c r="D124" s="19" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="E124" s="19" t="s">
         <v>329</v>
@@ -11818,25 +11276,25 @@
         <v>158</v>
       </c>
       <c r="B125" s="36" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C125" s="19" t="s">
+        <v>897</v>
+      </c>
+      <c r="D125" s="19" t="s">
+        <v>919</v>
+      </c>
+      <c r="E125" s="43" t="s">
+        <v>902</v>
+      </c>
+      <c r="F125" s="43" t="s">
+        <v>903</v>
+      </c>
+      <c r="G125" s="43" t="s">
+        <v>904</v>
+      </c>
+      <c r="H125" s="43" t="s">
         <v>905</v>
-      </c>
-      <c r="D125" s="19" t="s">
-        <v>927</v>
-      </c>
-      <c r="E125" s="43" t="s">
-        <v>910</v>
-      </c>
-      <c r="F125" s="43" t="s">
-        <v>911</v>
-      </c>
-      <c r="G125" s="43" t="s">
-        <v>912</v>
-      </c>
-      <c r="H125" s="43" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="50" x14ac:dyDescent="0.35">
@@ -11844,23 +11302,23 @@
         <v>158</v>
       </c>
       <c r="B126" s="36" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="D126" s="19" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="E126" s="43" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="F126" s="43" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
       <c r="G126" s="43"/>
       <c r="H126" s="43" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="37.5" x14ac:dyDescent="0.35">
@@ -11868,23 +11326,23 @@
         <v>158</v>
       </c>
       <c r="B127" s="36" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="D127" s="19" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="E127" s="43" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="F127" s="43" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="G127" s="43"/>
       <c r="H127" s="43" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="25" x14ac:dyDescent="0.35">
@@ -11892,23 +11350,23 @@
         <v>158</v>
       </c>
       <c r="B128" s="36" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="D128" s="19" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="E128" s="43" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="F128" s="43" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="G128" s="43"/>
       <c r="H128" s="43" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="25" x14ac:dyDescent="0.35">
@@ -11916,101 +11374,101 @@
         <v>158</v>
       </c>
       <c r="B129" s="36" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="D129" s="19" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="E129" s="43" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="F129" s="43" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="G129" s="43" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="H129" s="43" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A130" s="55" t="s">
-        <v>158</v>
-      </c>
-      <c r="B130" s="58" t="s">
-        <v>654</v>
-      </c>
-      <c r="C130" s="57" t="s">
-        <v>887</v>
-      </c>
-      <c r="D130" s="57" t="s">
+      <c r="A130" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B130" s="36" t="s">
+        <v>650</v>
+      </c>
+      <c r="C130" s="19" t="s">
+        <v>879</v>
+      </c>
+      <c r="D130" s="19" t="s">
+        <v>934</v>
+      </c>
+      <c r="E130" s="43" t="s">
+        <v>935</v>
+      </c>
+      <c r="F130" s="43" t="s">
+        <v>936</v>
+      </c>
+      <c r="G130" s="43"/>
+      <c r="H130" s="43" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A131" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B131" s="36" t="s">
+        <v>650</v>
+      </c>
+      <c r="C131" s="19" t="s">
+        <v>879</v>
+      </c>
+      <c r="D131" s="19" t="s">
+        <v>934</v>
+      </c>
+      <c r="E131" s="43" t="s">
+        <v>938</v>
+      </c>
+      <c r="F131" s="43" t="s">
+        <v>939</v>
+      </c>
+      <c r="G131" s="43" t="s">
+        <v>940</v>
+      </c>
+      <c r="H131" s="43" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A132" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B132" s="36" t="s">
+        <v>650</v>
+      </c>
+      <c r="C132" s="19" t="s">
+        <v>879</v>
+      </c>
+      <c r="D132" s="19" t="s">
+        <v>934</v>
+      </c>
+      <c r="E132" s="43" t="s">
         <v>942</v>
       </c>
-      <c r="E130" s="56" t="s">
+      <c r="F132" s="43" t="s">
         <v>943</v>
       </c>
-      <c r="F130" s="56" t="s">
+      <c r="G132" s="43" t="s">
         <v>944</v>
       </c>
-      <c r="G130" s="56"/>
-      <c r="H130" s="56" t="s">
+      <c r="H132" s="43" t="s">
         <v>945</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A131" s="55" t="s">
-        <v>158</v>
-      </c>
-      <c r="B131" s="58" t="s">
-        <v>654</v>
-      </c>
-      <c r="C131" s="57" t="s">
-        <v>887</v>
-      </c>
-      <c r="D131" s="57" t="s">
-        <v>942</v>
-      </c>
-      <c r="E131" s="56" t="s">
-        <v>946</v>
-      </c>
-      <c r="F131" s="56" t="s">
-        <v>947</v>
-      </c>
-      <c r="G131" s="56" t="s">
-        <v>948</v>
-      </c>
-      <c r="H131" s="56" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A132" s="55" t="s">
-        <v>158</v>
-      </c>
-      <c r="B132" s="58" t="s">
-        <v>654</v>
-      </c>
-      <c r="C132" s="57" t="s">
-        <v>887</v>
-      </c>
-      <c r="D132" s="57" t="s">
-        <v>942</v>
-      </c>
-      <c r="E132" s="56" t="s">
-        <v>950</v>
-      </c>
-      <c r="F132" s="56" t="s">
-        <v>951</v>
-      </c>
-      <c r="G132" s="56" t="s">
-        <v>952</v>
-      </c>
-      <c r="H132" s="56" t="s">
-        <v>953</v>
       </c>
     </row>
   </sheetData>
@@ -12026,21 +11484,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12266,6 +11724,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B4CE896-D144-40A9-85D3-0684E5DFDA36}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6744B0D-B7F9-4CA7-A5DC-23D611E8ED20}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="de0c653c-2bd3-43b1-95fa-012c57f61cfe"/>
@@ -12279,14 +11745,6 @@
     <ds:schemaRef ds:uri="848a8810-16a6-4d79-96d3-e3dfb86099b7"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B4CE896-D144-40A9-85D3-0684E5DFDA36}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Deliverables/CT/USDM_CT.xlsx
+++ b/Deliverables/CT/USDM_CT.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhlbradtee\Documents\GitHub\DDF-RA\Deliverables\CT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B801E7-371D-409E-86D4-3C34FECBF848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1E0F32-E481-47AC-B1A6-761C39EC49F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="470" yWindow="2280" windowWidth="18730" windowHeight="8310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="490" windowWidth="18730" windowHeight="8310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DDF Entities&amp;Attributes" sheetId="4" r:id="rId1"/>
     <sheet name="DDF valid value sets" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DDF Entities&amp;Attributes'!$A$1:$I$163</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DDF Entities&amp;Attributes'!$A$1:$I$217</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DDF valid value sets'!$A$6:$N$124</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="1019">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="1114">
   <si>
     <t>Preferred Term</t>
   </si>
@@ -2519,9 +2519,6 @@
     </r>
   </si>
   <si>
-    <t>Class</t>
-  </si>
-  <si>
     <t>AliasCode</t>
   </si>
   <si>
@@ -3158,13 +3155,354 @@
   </si>
   <si>
     <t>workflowItemActivityId</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>AliasCode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Address</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Entity</t>
+    </r>
+  </si>
+  <si>
+    <t>activityTimelineId</t>
+  </si>
+  <si>
+    <t>encounterScheduledAtTimingId</t>
+  </si>
+  <si>
+    <t>studyScheduleTimelines</t>
+  </si>
+  <si>
+    <t>ScheduledActivityInstance</t>
+  </si>
+  <si>
+    <t>ScheduledDecisionInstance</t>
+  </si>
+  <si>
+    <t>ScheduledInstance</t>
+  </si>
+  <si>
+    <t>ScheduleTimeline</t>
+  </si>
+  <si>
+    <t>ScheduleTimelineExit</t>
+  </si>
+  <si>
+    <t>Timing</t>
+  </si>
+  <si>
+    <t>activityIds</t>
+  </si>
+  <si>
+    <t>scheduleSequenceNumber</t>
+  </si>
+  <si>
+    <t>scheduledInstanceType</t>
+  </si>
+  <si>
+    <t>scheduleTimelineExitId</t>
+  </si>
+  <si>
+    <t>scheduledInstanceEncounterId</t>
+  </si>
+  <si>
+    <t>scheduledInstanceTimings</t>
+  </si>
+  <si>
+    <t>scheduledInstanceTimelineId</t>
+  </si>
+  <si>
+    <t>scheduleTimelineName</t>
+  </si>
+  <si>
+    <t>scheduleTimelineDescription</t>
+  </si>
+  <si>
+    <t>entryCondition</t>
+  </si>
+  <si>
+    <t>scheduleTimelineInstances</t>
+  </si>
+  <si>
+    <t>scheduleTimelineEntryId</t>
+  </si>
+  <si>
+    <t>scheduleTimelineExits</t>
+  </si>
+  <si>
+    <t>timingType</t>
+  </si>
+  <si>
+    <t>timingValue</t>
+  </si>
+  <si>
+    <t>timingRelativeToFrom</t>
+  </si>
+  <si>
+    <t>timingWindow</t>
+  </si>
+  <si>
+    <t>relativeFromScheduledInstanceId</t>
+  </si>
+  <si>
+    <t>relativeToScheduledInstanceId</t>
+  </si>
+  <si>
+    <t>Scheduled Activity Instance</t>
+  </si>
+  <si>
+    <t>A scheduled occurrence of an activity event.</t>
+  </si>
+  <si>
+    <t>Scheduled Decision Instance</t>
+  </si>
+  <si>
+    <t>A scheduled occurrence of a decision event.</t>
+  </si>
+  <si>
+    <t>Scheduled Instance</t>
+  </si>
+  <si>
+    <t>A scheduled occurrence of a temporal event.</t>
+  </si>
+  <si>
+    <t>Schedule Sequence Number</t>
+  </si>
+  <si>
+    <t>A numeral or string of numerals expressing a relative sequence of scheduled temporal events.</t>
+  </si>
+  <si>
+    <t>Scheduled Instance Type</t>
+  </si>
+  <si>
+    <t>A characterization or classification of the scheduled instance.</t>
+  </si>
+  <si>
+    <t>C43431</t>
+  </si>
+  <si>
+    <t>ACTIVITY</t>
+  </si>
+  <si>
+    <t>An active process; the act of performing.</t>
+  </si>
+  <si>
+    <t>C53285</t>
+  </si>
+  <si>
+    <t>DECISION</t>
+  </si>
+  <si>
+    <t>A position, opinion, or judgment reached on an issue under consideration.</t>
+  </si>
+  <si>
+    <t>Schedule Timeline</t>
+  </si>
+  <si>
+    <t>A chronological schedule of planned temporal events.</t>
+  </si>
+  <si>
+    <t>Schedule Timeline Name</t>
+  </si>
+  <si>
+    <t>The literal identifier (i.e., distinctive designation) of the schedule timeline.</t>
+  </si>
+  <si>
+    <t>Schedule Timeline Description</t>
+  </si>
+  <si>
+    <t>The textual representation of the schedule timeline.</t>
+  </si>
+  <si>
+    <t>Schedule Timeline Entry Condition</t>
+  </si>
+  <si>
+    <t>A logical evaluation on which rests the validity of entry into a schedule timeline.</t>
+  </si>
+  <si>
+    <t>Schedule Timeline Exit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To go out of or leave the schedule timeline.
+</t>
+  </si>
+  <si>
+    <t>C80484</t>
+  </si>
+  <si>
+    <t>The chronological relationship between temporal events.</t>
+  </si>
+  <si>
+    <t>Timing Type</t>
+  </si>
+  <si>
+    <t>A characterization or classification of the chronological relationship between temporal events.</t>
+  </si>
+  <si>
+    <t>Timing Value</t>
+  </si>
+  <si>
+    <t>The temporal value of the chronological relationship between temporal events.</t>
+  </si>
+  <si>
+    <t>Timing Relative To From</t>
+  </si>
+  <si>
+    <t>The name of the reference event used to define the temporal relationship with another event.</t>
+  </si>
+  <si>
+    <t>C48921</t>
+  </si>
+  <si>
+    <t>Timing Window</t>
+  </si>
+  <si>
+    <t>A time period, or other type of interval, during which a temporal event may be achieved, obtained, or observed.</t>
+  </si>
+  <si>
+    <t>Y (C66728/STENRF)</t>
+  </si>
+  <si>
+    <t>Y (CNEW)</t>
+  </si>
+  <si>
+    <t>C66728</t>
+  </si>
+  <si>
+    <t>AFTER</t>
+  </si>
+  <si>
+    <t>The time period following a point or another period of time. (NCI)</t>
+  </si>
+  <si>
+    <t>BEFORE</t>
+  </si>
+  <si>
+    <t>Earlier in time or order. (NCI)</t>
+  </si>
+  <si>
+    <t>BEFORE/DURING</t>
+  </si>
+  <si>
+    <t>Before or at some point in a given period of time.</t>
+  </si>
+  <si>
+    <t>COINCIDENT</t>
+  </si>
+  <si>
+    <t>Occurring or operating at the same time.</t>
+  </si>
+  <si>
+    <t>DURING</t>
+  </si>
+  <si>
+    <t>At some point in a given period of time. (NCI)</t>
+  </si>
+  <si>
+    <t>DURING/AFTER</t>
+  </si>
+  <si>
+    <t>Within a certain period of time or after a certain point or period in time. (NCI)</t>
+  </si>
+  <si>
+    <t>ONGOING</t>
+  </si>
+  <si>
+    <t>Continuous</t>
+  </si>
+  <si>
+    <t>Remain in force or carry on without letup; keep or maintain in unaltered condition; exist in time or space without stop or interruption. (NCI)</t>
+  </si>
+  <si>
+    <t>UNKNOWN</t>
+  </si>
+  <si>
+    <t>U; UNK; Unknown</t>
+  </si>
+  <si>
+    <t>Not known, not observed, not recorded, or refused. (NCI)</t>
+  </si>
+  <si>
+    <t>C38008</t>
+  </si>
+  <si>
+    <t>C25629</t>
+  </si>
+  <si>
+    <t>C184710</t>
+  </si>
+  <si>
+    <t>C25456</t>
+  </si>
+  <si>
+    <t>C25490</t>
+  </si>
+  <si>
+    <t>C49640</t>
+  </si>
+  <si>
+    <t>C53279</t>
+  </si>
+  <si>
+    <t>C17998</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3252,6 +3590,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -3303,7 +3648,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -3374,11 +3719,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3556,6 +3916,69 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3848,9 +4271,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I189"/>
+  <dimension ref="A1:I217"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -3898,7 +4321,9 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="33"/>
+      <c r="A2" s="33">
+        <v>1</v>
+      </c>
       <c r="B2" s="4" t="s">
         <v>644</v>
       </c>
@@ -3923,7 +4348,9 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="33"/>
+      <c r="A3" s="33">
+        <v>2</v>
+      </c>
       <c r="B3" s="4" t="s">
         <v>644</v>
       </c>
@@ -3931,7 +4358,7 @@
         <v>642</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="4"/>
@@ -3940,7 +4367,9 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="33"/>
+      <c r="A4" s="33">
+        <v>3</v>
+      </c>
       <c r="B4" s="4" t="s">
         <v>644</v>
       </c>
@@ -3948,7 +4377,7 @@
         <v>642</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="4"/>
@@ -3957,7 +4386,9 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="33"/>
+      <c r="A5" s="33">
+        <v>4</v>
+      </c>
       <c r="B5" s="4" t="s">
         <v>644</v>
       </c>
@@ -3965,7 +4396,7 @@
         <v>642</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="4"/>
@@ -3974,7 +4405,9 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A6" s="33"/>
+      <c r="A6" s="33">
+        <v>5</v>
+      </c>
       <c r="B6" s="4" t="s">
         <v>644</v>
       </c>
@@ -4001,7 +4434,9 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="33"/>
+      <c r="A7" s="33">
+        <v>6</v>
+      </c>
       <c r="B7" s="4" t="s">
         <v>644</v>
       </c>
@@ -4026,7 +4461,9 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A8" s="33"/>
+      <c r="A8" s="33">
+        <v>7</v>
+      </c>
       <c r="B8" s="4" t="s">
         <v>644</v>
       </c>
@@ -4053,7 +4490,9 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="100" x14ac:dyDescent="0.35">
-      <c r="A9" s="33"/>
+      <c r="A9" s="33">
+        <v>8</v>
+      </c>
       <c r="B9" s="4" t="s">
         <v>644</v>
       </c>
@@ -4080,7 +4519,9 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A10" s="33"/>
+      <c r="A10" s="33">
+        <v>9</v>
+      </c>
       <c r="B10" s="4" t="s">
         <v>644</v>
       </c>
@@ -4105,7 +4546,9 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="33"/>
+      <c r="A11" s="33">
+        <v>10</v>
+      </c>
       <c r="B11" s="4" t="s">
         <v>644</v>
       </c>
@@ -4113,24 +4556,26 @@
         <v>94</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E11" s="53" t="s">
+        <v>835</v>
+      </c>
+      <c r="F11" s="43" t="s">
         <v>836</v>
-      </c>
-      <c r="F11" s="43" t="s">
-        <v>837</v>
       </c>
       <c r="G11" s="43"/>
       <c r="H11" s="43" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="50" x14ac:dyDescent="0.35">
-      <c r="A12" s="33"/>
+      <c r="A12" s="33">
+        <v>11</v>
+      </c>
       <c r="B12" s="4" t="s">
         <v>644</v>
       </c>
@@ -4138,24 +4583,26 @@
         <v>94</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E12" s="53" t="s">
+        <v>838</v>
+      </c>
+      <c r="F12" s="43" t="s">
         <v>839</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>840</v>
       </c>
       <c r="G12" s="43"/>
       <c r="H12" s="43" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="33"/>
+      <c r="A13" s="33">
+        <v>12</v>
+      </c>
       <c r="B13" s="4" t="s">
         <v>645</v>
       </c>
@@ -4180,7 +4627,9 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="33"/>
+      <c r="A14" s="33">
+        <v>13</v>
+      </c>
       <c r="B14" s="4" t="s">
         <v>645</v>
       </c>
@@ -4207,7 +4656,9 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="33"/>
+      <c r="A15" s="33">
+        <v>14</v>
+      </c>
       <c r="B15" s="4" t="s">
         <v>645</v>
       </c>
@@ -4232,7 +4683,9 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A16" s="33"/>
+      <c r="A16" s="33">
+        <v>15</v>
+      </c>
       <c r="B16" s="4" t="s">
         <v>645</v>
       </c>
@@ -4257,7 +4710,9 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="33"/>
+      <c r="A17" s="33">
+        <v>16</v>
+      </c>
       <c r="B17" s="4" t="s">
         <v>645</v>
       </c>
@@ -4282,7 +4737,9 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="33"/>
+      <c r="A18" s="33">
+        <v>17</v>
+      </c>
       <c r="B18" s="4" t="s">
         <v>645</v>
       </c>
@@ -4307,7 +4764,9 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A19" s="33"/>
+      <c r="A19" s="33">
+        <v>18</v>
+      </c>
       <c r="B19" s="4" t="s">
         <v>645</v>
       </c>
@@ -4332,7 +4791,9 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A20" s="33"/>
+      <c r="A20" s="33">
+        <v>19</v>
+      </c>
       <c r="B20" s="4" t="s">
         <v>645</v>
       </c>
@@ -4357,7 +4818,9 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A21" s="33"/>
+      <c r="A21" s="33">
+        <v>20</v>
+      </c>
       <c r="B21" s="4" t="s">
         <v>645</v>
       </c>
@@ -4382,7 +4845,9 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A22" s="33"/>
+      <c r="A22" s="33">
+        <v>21</v>
+      </c>
       <c r="B22" s="4" t="s">
         <v>646</v>
       </c>
@@ -4407,7 +4872,9 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="33"/>
+      <c r="A23" s="33">
+        <v>22</v>
+      </c>
       <c r="B23" s="4" t="s">
         <v>646</v>
       </c>
@@ -4424,7 +4891,9 @@
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A24" s="33"/>
+      <c r="A24" s="33">
+        <v>23</v>
+      </c>
       <c r="B24" s="4" t="s">
         <v>646</v>
       </c>
@@ -4449,7 +4918,9 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="50" x14ac:dyDescent="0.35">
-      <c r="A25" s="33"/>
+      <c r="A25" s="33">
+        <v>24</v>
+      </c>
       <c r="B25" s="4" t="s">
         <v>534</v>
       </c>
@@ -4474,7 +4945,9 @@
       </c>
     </row>
     <row r="26" spans="1:9" s="50" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="33"/>
+      <c r="A26" s="33">
+        <v>25</v>
+      </c>
       <c r="B26" s="4" t="s">
         <v>534</v>
       </c>
@@ -4482,7 +4955,7 @@
         <v>642</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E26" s="48"/>
       <c r="F26" s="48"/>
@@ -4491,7 +4964,9 @@
       <c r="I26" s="49"/>
     </row>
     <row r="27" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A27" s="33"/>
+      <c r="A27" s="33">
+        <v>26</v>
+      </c>
       <c r="B27" s="4" t="s">
         <v>534</v>
       </c>
@@ -4516,7 +4991,9 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A28" s="33"/>
+      <c r="A28" s="33">
+        <v>27</v>
+      </c>
       <c r="B28" s="4" t="s">
         <v>534</v>
       </c>
@@ -4541,7 +5018,9 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="33"/>
+      <c r="A29" s="33">
+        <v>28</v>
+      </c>
       <c r="B29" s="4" t="s">
         <v>534</v>
       </c>
@@ -4566,7 +5045,9 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="50" x14ac:dyDescent="0.35">
-      <c r="A30" s="33"/>
+      <c r="A30" s="33">
+        <v>29</v>
+      </c>
       <c r="B30" s="4" t="s">
         <v>534</v>
       </c>
@@ -4591,7 +5072,9 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="50" x14ac:dyDescent="0.35">
-      <c r="A31" s="33"/>
+      <c r="A31" s="33">
+        <v>30</v>
+      </c>
       <c r="B31" s="4" t="s">
         <v>647</v>
       </c>
@@ -4616,7 +5099,9 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="33"/>
+      <c r="A32" s="33">
+        <v>31</v>
+      </c>
       <c r="B32" s="4" t="s">
         <v>647</v>
       </c>
@@ -4633,7 +5118,9 @@
       <c r="I32" s="29"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="33"/>
+      <c r="A33" s="33">
+        <v>32</v>
+      </c>
       <c r="B33" s="4" t="s">
         <v>647</v>
       </c>
@@ -4650,7 +5137,9 @@
       <c r="I33" s="29"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="33"/>
+      <c r="A34" s="33">
+        <v>33</v>
+      </c>
       <c r="B34" s="4" t="s">
         <v>647</v>
       </c>
@@ -4667,7 +5156,9 @@
       <c r="I34" s="29"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="33"/>
+      <c r="A35" s="33">
+        <v>34</v>
+      </c>
       <c r="B35" s="4" t="s">
         <v>647</v>
       </c>
@@ -4684,7 +5175,9 @@
       <c r="I35" s="29"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="33"/>
+      <c r="A36" s="33">
+        <v>35</v>
+      </c>
       <c r="B36" s="4" t="s">
         <v>647</v>
       </c>
@@ -4701,7 +5194,9 @@
       <c r="I36" s="29"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="33"/>
+      <c r="A37" s="33">
+        <v>36</v>
+      </c>
       <c r="B37" s="4" t="s">
         <v>647</v>
       </c>
@@ -4717,25 +5212,29 @@
       <c r="H37" s="28"/>
       <c r="I37" s="29"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="33"/>
-      <c r="B38" s="4" t="s">
+    <row r="38" spans="1:9" s="65" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="33">
+        <v>37</v>
+      </c>
+      <c r="B38" s="60" t="s">
         <v>647</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="61" t="s">
         <v>642</v>
       </c>
-      <c r="D38" s="42" t="s">
+      <c r="D38" s="62" t="s">
         <v>554</v>
       </c>
-      <c r="E38" s="29"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="29"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="64"/>
+      <c r="H38" s="64"/>
+      <c r="I38" s="63"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="33"/>
+      <c r="A39" s="33">
+        <v>38</v>
+      </c>
       <c r="B39" s="1" t="s">
         <v>647</v>
       </c>
@@ -4752,7 +5251,9 @@
       <c r="I39" s="29"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="33"/>
+      <c r="A40" s="33">
+        <v>39</v>
+      </c>
       <c r="B40" s="1" t="s">
         <v>647</v>
       </c>
@@ -4769,7 +5270,9 @@
       <c r="I40" s="29"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="33"/>
+      <c r="A41" s="33">
+        <v>40</v>
+      </c>
       <c r="B41" s="1" t="s">
         <v>647</v>
       </c>
@@ -4777,7 +5280,7 @@
         <v>642</v>
       </c>
       <c r="D41" s="47" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E41" s="29"/>
       <c r="F41" s="4"/>
@@ -4786,7 +5289,9 @@
       <c r="I41" s="29"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="33"/>
+      <c r="A42" s="33">
+        <v>41</v>
+      </c>
       <c r="B42" s="1" t="s">
         <v>647</v>
       </c>
@@ -4794,7 +5299,7 @@
         <v>642</v>
       </c>
       <c r="D42" s="47" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E42" s="29"/>
       <c r="F42" s="4"/>
@@ -4803,7 +5308,9 @@
       <c r="I42" s="29"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="33"/>
+      <c r="A43" s="33">
+        <v>42</v>
+      </c>
       <c r="B43" s="1" t="s">
         <v>647</v>
       </c>
@@ -4811,7 +5318,7 @@
         <v>642</v>
       </c>
       <c r="D43" s="47" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E43" s="29"/>
       <c r="F43" s="4"/>
@@ -4819,35 +5326,29 @@
       <c r="H43" s="28"/>
       <c r="I43" s="29"/>
     </row>
-    <row r="44" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A44" s="33"/>
-      <c r="B44" s="4" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="33">
+        <v>43</v>
+      </c>
+      <c r="B44" s="49" t="s">
         <v>647</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D44" s="31" t="s">
-        <v>623</v>
-      </c>
-      <c r="E44" s="44" t="s">
+      <c r="C44" s="49" t="s">
+        <v>642</v>
+      </c>
+      <c r="D44" s="66" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E44" s="29"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="29"/>
+    </row>
+    <row r="45" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
+      <c r="A45" s="33">
         <v>44</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G44" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="H44" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="I44" s="29" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A45" s="33"/>
       <c r="B45" s="4" t="s">
         <v>647</v>
       </c>
@@ -4855,26 +5356,28 @@
         <v>94</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E45" s="44" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G45" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="H45" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>694</v>
+        <v>42</v>
+      </c>
+      <c r="G45" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="H45" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="I45" s="29" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A46" s="33"/>
+      <c r="A46" s="33">
+        <v>45</v>
+      </c>
       <c r="B46" s="4" t="s">
         <v>647</v>
       </c>
@@ -4882,24 +5385,28 @@
         <v>94</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>625</v>
-      </c>
-      <c r="E46" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="E46" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G46" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="H46" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
+      <c r="A47" s="33">
         <v>46</v>
       </c>
-      <c r="F46" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="45" customFormat="1" ht="112.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="33"/>
       <c r="B47" s="4" t="s">
         <v>647</v>
       </c>
@@ -4907,26 +5414,26 @@
         <v>94</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>793</v>
+        <v>625</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>805</v>
+        <v>46</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A48" s="33"/>
+        <v>695</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="45" customFormat="1" ht="112.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="33">
+        <v>47</v>
+      </c>
       <c r="B48" s="4" t="s">
         <v>647</v>
       </c>
@@ -4934,24 +5441,28 @@
         <v>94</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>800</v>
-      </c>
-      <c r="E48" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" s="43" t="s">
-        <v>801</v>
-      </c>
-      <c r="G48" s="43"/>
-      <c r="H48" s="43" t="s">
-        <v>802</v>
+        <v>793</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>805</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="33"/>
+        <v>792</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
+      <c r="A49" s="33">
+        <v>48</v>
+      </c>
       <c r="B49" s="4" t="s">
         <v>647</v>
       </c>
@@ -4959,24 +5470,26 @@
         <v>94</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
       <c r="E49" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F49" s="43" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="G49" s="43"/>
       <c r="H49" s="43" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="51" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="33"/>
+    <row r="50" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="33">
+        <v>49</v>
+      </c>
       <c r="B50" s="4" t="s">
         <v>647</v>
       </c>
@@ -4984,24 +5497,26 @@
         <v>94</v>
       </c>
       <c r="D50" s="31" t="s">
-        <v>875</v>
-      </c>
-      <c r="E50" s="53" t="s">
-        <v>872</v>
+        <v>811</v>
+      </c>
+      <c r="E50" s="43" t="s">
+        <v>16</v>
       </c>
       <c r="F50" s="43" t="s">
-        <v>873</v>
+        <v>803</v>
       </c>
       <c r="G50" s="43"/>
       <c r="H50" s="43" t="s">
-        <v>874</v>
+        <v>804</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="51" customFormat="1" ht="75" x14ac:dyDescent="0.35">
-      <c r="A51" s="33"/>
+    <row r="51" spans="1:9" s="51" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="33">
+        <v>50</v>
+      </c>
       <c r="B51" s="4" t="s">
         <v>647</v>
       </c>
@@ -5009,76 +5524,82 @@
         <v>94</v>
       </c>
       <c r="D51" s="31" t="s">
+        <v>874</v>
+      </c>
+      <c r="E51" s="53" t="s">
+        <v>871</v>
+      </c>
+      <c r="F51" s="43" t="s">
+        <v>872</v>
+      </c>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43" t="s">
+        <v>873</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="51" customFormat="1" ht="75" x14ac:dyDescent="0.35">
+      <c r="A52" s="33">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" s="31" t="s">
+        <v>896</v>
+      </c>
+      <c r="E52" s="43" t="s">
         <v>897</v>
       </c>
-      <c r="E51" s="43" t="s">
+      <c r="F52" s="43" t="s">
         <v>898</v>
       </c>
-      <c r="F51" s="43" t="s">
+      <c r="G52" s="43" t="s">
         <v>899</v>
       </c>
-      <c r="G51" s="43" t="s">
+      <c r="H52" s="43" t="s">
         <v>900</v>
       </c>
-      <c r="H51" s="43" t="s">
-        <v>901</v>
-      </c>
-      <c r="I51" s="43" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="75" x14ac:dyDescent="0.35">
-      <c r="A52" s="33"/>
-      <c r="B52" s="4" t="s">
-        <v>648</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D52" s="41" t="s">
-        <v>648</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G52" s="4"/>
-      <c r="H52" s="43" t="s">
-        <v>894</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="33"/>
+      <c r="I52" s="43" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="75" x14ac:dyDescent="0.35">
+      <c r="A53" s="33">
+        <v>52</v>
+      </c>
       <c r="B53" s="4" t="s">
         <v>648</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D53" s="31" t="s">
-        <v>626</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>727</v>
+        <v>4</v>
+      </c>
+      <c r="D53" s="41" t="s">
+        <v>648</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>641</v>
+        <v>26</v>
       </c>
       <c r="G53" s="4"/>
-      <c r="H53" s="4" t="s">
-        <v>686</v>
+      <c r="H53" s="43" t="s">
+        <v>893</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A54" s="33"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="33">
+        <v>53</v>
+      </c>
       <c r="B54" s="4" t="s">
         <v>648</v>
       </c>
@@ -5086,74 +5607,80 @@
         <v>94</v>
       </c>
       <c r="D54" s="31" t="s">
-        <v>829</v>
+        <v>626</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>100</v>
+        <v>727</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>99</v>
+        <v>641</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4" t="s">
-        <v>124</v>
+        <v>686</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>93</v>
+        <v>664</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A55" s="33"/>
+      <c r="A55" s="33">
+        <v>54</v>
+      </c>
       <c r="B55" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D55" s="41" t="s">
-        <v>649</v>
+        <v>94</v>
+      </c>
+      <c r="D55" s="31" t="s">
+        <v>828</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="75" x14ac:dyDescent="0.35">
-      <c r="A56" s="33"/>
+    <row r="56" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A56" s="33">
+        <v>55</v>
+      </c>
       <c r="B56" s="4" t="s">
         <v>649</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D56" s="31" t="s">
-        <v>626</v>
+        <v>4</v>
+      </c>
+      <c r="D56" s="41" t="s">
+        <v>649</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>729</v>
+        <v>32</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>640</v>
+        <v>101</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4" t="s">
-        <v>687</v>
+        <v>31</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>665</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="75" x14ac:dyDescent="0.35">
-      <c r="A57" s="33"/>
+      <c r="A57" s="33">
+        <v>56</v>
+      </c>
       <c r="B57" s="4" t="s">
         <v>649</v>
       </c>
@@ -5161,99 +5688,107 @@
         <v>94</v>
       </c>
       <c r="D57" s="31" t="s">
-        <v>828</v>
+        <v>626</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>32</v>
+        <v>729</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>101</v>
+        <v>640</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4" t="s">
-        <v>31</v>
+        <v>687</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A58" s="33"/>
+    <row r="58" spans="1:9" ht="75" x14ac:dyDescent="0.35">
+      <c r="A58" s="33">
+        <v>57</v>
+      </c>
       <c r="B58" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D58" s="41" t="s">
-        <v>650</v>
+        <v>94</v>
+      </c>
+      <c r="D58" s="31" t="s">
+        <v>827</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4" t="s">
-        <v>636</v>
+        <v>31</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>93</v>
+        <v>665</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A59" s="33"/>
+      <c r="A59" s="33">
+        <v>58</v>
+      </c>
       <c r="B59" s="4" t="s">
         <v>650</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D59" s="31" t="s">
-        <v>814</v>
+        <v>4</v>
+      </c>
+      <c r="D59" s="41" t="s">
+        <v>650</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>730</v>
+        <v>29</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="I59" s="43" t="s">
+        <v>636</v>
+      </c>
+      <c r="I59" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A60" s="33"/>
+      <c r="A60" s="33">
+        <v>59</v>
+      </c>
       <c r="B60" s="4" t="s">
         <v>650</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D60" s="30" t="s">
-        <v>876</v>
-      </c>
-      <c r="E60" s="53" t="s">
-        <v>880</v>
-      </c>
-      <c r="F60" s="43" t="s">
-        <v>881</v>
-      </c>
-      <c r="G60" s="43"/>
-      <c r="H60" s="43" t="s">
-        <v>882</v>
+      <c r="D60" s="31" t="s">
+        <v>813</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="I60" s="43" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A61" s="33"/>
+      <c r="A61" s="33">
+        <v>60</v>
+      </c>
       <c r="B61" s="4" t="s">
         <v>650</v>
       </c>
@@ -5261,24 +5796,26 @@
         <v>94</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E61" s="53" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="F61" s="43" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="G61" s="43"/>
       <c r="H61" s="43" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="I61" s="43" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A62" s="33"/>
+      <c r="A62" s="33">
+        <v>61</v>
+      </c>
       <c r="B62" s="4" t="s">
         <v>650</v>
       </c>
@@ -5286,24 +5823,26 @@
         <v>94</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E62" s="53" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="F62" s="43" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="G62" s="43"/>
       <c r="H62" s="43" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="I62" s="43" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A63" s="33"/>
+      <c r="A63" s="33">
+        <v>62</v>
+      </c>
       <c r="B63" s="4" t="s">
         <v>650</v>
       </c>
@@ -5311,91 +5850,99 @@
         <v>94</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E63" s="53" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="F63" s="43" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="G63" s="43"/>
       <c r="H63" s="43" t="s">
+        <v>887</v>
+      </c>
+      <c r="I63" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
+      <c r="A64" s="33">
+        <v>63</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D64" s="30" t="s">
+        <v>878</v>
+      </c>
+      <c r="E64" s="53" t="s">
+        <v>888</v>
+      </c>
+      <c r="F64" s="43" t="s">
+        <v>889</v>
+      </c>
+      <c r="G64" s="43"/>
+      <c r="H64" s="43" t="s">
+        <v>890</v>
+      </c>
+      <c r="I64" s="43" t="s">
         <v>891</v>
       </c>
-      <c r="I63" s="43" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="33"/>
-      <c r="B64" s="4" t="s">
-        <v>651</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D64" s="41" t="s">
-        <v>651</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A65" s="33"/>
+    </row>
+    <row r="65" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A65" s="33">
+        <v>64</v>
+      </c>
       <c r="B65" s="4" t="s">
         <v>651</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="D65" s="42" t="s">
-        <v>627</v>
-      </c>
-      <c r="E65" s="1"/>
-      <c r="F65" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="D65" s="41" t="s">
+        <v>651</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="1"/>
+      <c r="H65" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A66" s="33"/>
+      <c r="A66" s="33">
+        <v>65</v>
+      </c>
       <c r="B66" s="4" t="s">
         <v>651</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D66" s="31" t="s">
-        <v>827</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>98</v>
-      </c>
+        <v>642</v>
+      </c>
+      <c r="D66" s="42" t="s">
+        <v>627</v>
+      </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="4"/>
       <c r="G66" s="4"/>
-      <c r="H66" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="33"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" s="33">
+        <v>66</v>
+      </c>
       <c r="B67" s="4" t="s">
         <v>651</v>
       </c>
@@ -5403,99 +5950,107 @@
         <v>94</v>
       </c>
       <c r="D67" s="31" t="s">
-        <v>628</v>
+        <v>826</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>728</v>
+        <v>122</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A68" s="33">
+        <v>67</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D68" s="31" t="s">
+        <v>628</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="I67" s="4" t="s">
+      <c r="I68" s="4" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="87.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="33"/>
-      <c r="B68" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D68" s="41" t="s">
-        <v>652</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G68" s="4"/>
-      <c r="H68" s="43" t="s">
-        <v>895</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A69" s="33"/>
+    <row r="69" spans="1:9" ht="87.5" x14ac:dyDescent="0.35">
+      <c r="A69" s="33">
+        <v>68</v>
+      </c>
       <c r="B69" s="4" t="s">
         <v>652</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D69" s="30" t="s">
-        <v>826</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>731</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G69" s="3"/>
-      <c r="H69" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="I69" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A70" s="33"/>
+        <v>4</v>
+      </c>
+      <c r="D69" s="41" t="s">
+        <v>652</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G69" s="4"/>
+      <c r="H69" s="43" t="s">
+        <v>894</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70" s="33">
+        <v>69</v>
+      </c>
       <c r="B70" s="4" t="s">
         <v>652</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D70" s="31" t="s">
+      <c r="D70" s="30" t="s">
         <v>825</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>732</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G70" s="4"/>
+        <v>731</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G70" s="3"/>
       <c r="H70" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="33"/>
+        <v>128</v>
+      </c>
+      <c r="I70" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A71" s="33">
+        <v>70</v>
+      </c>
       <c r="B71" s="4" t="s">
         <v>652</v>
       </c>
@@ -5503,66 +6058,80 @@
         <v>94</v>
       </c>
       <c r="D71" s="31" t="s">
+        <v>824</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A72" s="33">
+        <v>71</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D72" s="31" t="s">
         <v>629</v>
       </c>
-      <c r="E71" s="43" t="s">
+      <c r="E72" s="43" t="s">
         <v>733</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="F72" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3" t="s">
+      <c r="G72" s="3"/>
+      <c r="H72" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="I71" s="1" t="s">
+      <c r="I72" s="1" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A72" s="33"/>
-      <c r="B72" s="4" t="s">
-        <v>653</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D72" s="41" t="s">
-        <v>653</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4" t="s">
-        <v>638</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A73" s="33"/>
+    <row r="73" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A73" s="33">
+        <v>72</v>
+      </c>
       <c r="B73" s="4" t="s">
         <v>653</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="D73" s="42" t="s">
-        <v>630</v>
-      </c>
-      <c r="E73" s="1"/>
-      <c r="F73" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="D73" s="41" t="s">
+        <v>653</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="1"/>
+      <c r="H73" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A74" s="33"/>
+      <c r="A74" s="33">
+        <v>73</v>
+      </c>
       <c r="B74" s="4" t="s">
         <v>653</v>
       </c>
@@ -5570,16 +6139,18 @@
         <v>642</v>
       </c>
       <c r="D74" s="42" t="s">
-        <v>568</v>
+        <v>630</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
-      <c r="H74" s="3"/>
+      <c r="H74" s="4"/>
       <c r="I74" s="1"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A75" s="33"/>
+      <c r="A75" s="33">
+        <v>74</v>
+      </c>
       <c r="B75" s="4" t="s">
         <v>653</v>
       </c>
@@ -5587,66 +6158,64 @@
         <v>642</v>
       </c>
       <c r="D75" s="42" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
+      <c r="H75" s="3"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="1:9" ht="50" x14ac:dyDescent="0.35">
-      <c r="A76" s="33"/>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" s="33">
+        <v>75</v>
+      </c>
       <c r="B76" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D76" s="41" t="s">
-        <v>654</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>51</v>
-      </c>
+        <v>642</v>
+      </c>
+      <c r="D76" s="42" t="s">
+        <v>581</v>
+      </c>
+      <c r="E76" s="1"/>
+      <c r="F76" s="4"/>
       <c r="G76" s="4"/>
-      <c r="H76" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A77" s="33"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="1"/>
+    </row>
+    <row r="77" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+      <c r="A77" s="33">
+        <v>76</v>
+      </c>
       <c r="B77" s="4" t="s">
         <v>654</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D77" s="31" t="s">
-        <v>631</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>138</v>
+        <v>4</v>
+      </c>
+      <c r="D77" s="41" t="s">
+        <v>654</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="4" t="s">
-        <v>509</v>
+        <v>52</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A78" s="33"/>
+      <c r="A78" s="33">
+        <v>77</v>
+      </c>
       <c r="B78" s="4" t="s">
         <v>654</v>
       </c>
@@ -5654,24 +6223,26 @@
         <v>94</v>
       </c>
       <c r="D78" s="31" t="s">
-        <v>824</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>137</v>
+        <v>631</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="4" t="s">
-        <v>132</v>
+        <v>509</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A79" s="33"/>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79" s="33">
+        <v>78</v>
+      </c>
       <c r="B79" s="4" t="s">
         <v>654</v>
       </c>
@@ -5679,24 +6250,26 @@
         <v>94</v>
       </c>
       <c r="D79" s="31" t="s">
-        <v>632</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>735</v>
+        <v>823</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>522</v>
+        <v>104</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="4" t="s">
-        <v>523</v>
+        <v>132</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A80" s="33"/>
+      <c r="A80" s="33">
+        <v>79</v>
+      </c>
       <c r="B80" s="4" t="s">
         <v>654</v>
       </c>
@@ -5704,24 +6277,26 @@
         <v>94</v>
       </c>
       <c r="D80" s="31" t="s">
-        <v>823</v>
+        <v>632</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>147</v>
+        <v>522</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="I80" s="43" t="s">
+        <v>523</v>
+      </c>
+      <c r="I80" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A81" s="33"/>
+      <c r="A81" s="33">
+        <v>80</v>
+      </c>
       <c r="B81" s="4" t="s">
         <v>654</v>
       </c>
@@ -5729,91 +6304,99 @@
         <v>94</v>
       </c>
       <c r="D81" s="31" t="s">
+        <v>822</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="I81" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A82" s="33">
+        <v>81</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D82" s="31" t="s">
         <v>633</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E82" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="F81" s="4" t="s">
+      <c r="F82" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="G81" s="4"/>
-      <c r="H81" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A82" s="33"/>
-      <c r="B82" s="4" t="s">
-        <v>655</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D82" s="41" t="s">
-        <v>655</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A83" s="33"/>
+        <v>777</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A83" s="33">
+        <v>82</v>
+      </c>
       <c r="B83" s="4" t="s">
         <v>655</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="D83" s="42" t="s">
-        <v>569</v>
-      </c>
-      <c r="E83" s="1"/>
-      <c r="F83" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="D83" s="41" t="s">
+        <v>655</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G83" s="4"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="1"/>
-    </row>
-    <row r="84" spans="1:9" ht="50" x14ac:dyDescent="0.35">
-      <c r="A84" s="33"/>
+      <c r="H83" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84" s="33">
+        <v>83</v>
+      </c>
       <c r="B84" s="4" t="s">
         <v>655</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D84" s="31" t="s">
-        <v>564</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>63</v>
-      </c>
+        <v>642</v>
+      </c>
+      <c r="D84" s="42" t="s">
+        <v>569</v>
+      </c>
+      <c r="E84" s="1"/>
+      <c r="F84" s="4"/>
       <c r="G84" s="4"/>
-      <c r="H84" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A85" s="33"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="1"/>
+    </row>
+    <row r="85" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+      <c r="A85" s="33">
+        <v>84</v>
+      </c>
       <c r="B85" s="4" t="s">
         <v>655</v>
       </c>
@@ -5821,24 +6404,26 @@
         <v>94</v>
       </c>
       <c r="D85" s="31" t="s">
-        <v>822</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>738</v>
+        <v>564</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="G85" s="4"/>
-      <c r="H85" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="I85" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="50" x14ac:dyDescent="0.35">
-      <c r="A86" s="33"/>
+      <c r="H85" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A86" s="33">
+        <v>85</v>
+      </c>
       <c r="B86" s="4" t="s">
         <v>655</v>
       </c>
@@ -5846,24 +6431,26 @@
         <v>94</v>
       </c>
       <c r="D86" s="31" t="s">
-        <v>565</v>
+        <v>821</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I86" s="4" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A87" s="33"/>
+        <v>133</v>
+      </c>
+      <c r="I86" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+      <c r="A87" s="33">
+        <v>86</v>
+      </c>
       <c r="B87" s="4" t="s">
         <v>655</v>
       </c>
@@ -5871,24 +6458,26 @@
         <v>94</v>
       </c>
       <c r="D87" s="31" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>579</v>
+        <v>65</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="I87" s="43" t="s">
-        <v>93</v>
+        <v>66</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A88" s="33"/>
+      <c r="A88" s="33">
+        <v>87</v>
+      </c>
       <c r="B88" s="4" t="s">
         <v>655</v>
       </c>
@@ -5896,66 +6485,80 @@
         <v>94</v>
       </c>
       <c r="D88" s="31" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="I88" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="50" x14ac:dyDescent="0.35">
-      <c r="A89" s="33"/>
+    <row r="89" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A89" s="33">
+        <v>88</v>
+      </c>
       <c r="B89" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D89" s="41" t="s">
-        <v>656</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>49</v>
+        <v>94</v>
+      </c>
+      <c r="D89" s="31" t="s">
+        <v>567</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>741</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>47</v>
+        <v>580</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A90" s="33"/>
+        <v>709</v>
+      </c>
+      <c r="I89" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+      <c r="A90" s="33">
+        <v>89</v>
+      </c>
       <c r="B90" s="4" t="s">
         <v>656</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="D90" s="42" t="s">
-        <v>570</v>
-      </c>
-      <c r="E90" s="1"/>
-      <c r="F90" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="D90" s="41" t="s">
+        <v>656</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="1"/>
+      <c r="H90" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A91" s="33"/>
+      <c r="A91" s="33">
+        <v>90</v>
+      </c>
       <c r="B91" s="4" t="s">
         <v>656</v>
       </c>
@@ -5963,7 +6566,7 @@
         <v>642</v>
       </c>
       <c r="D91" s="42" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="4"/>
@@ -5971,33 +6574,29 @@
       <c r="H91" s="4"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A92" s="33"/>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A92" s="33">
+        <v>91</v>
+      </c>
       <c r="B92" s="4" t="s">
         <v>656</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D92" s="31" t="s">
-        <v>582</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>50</v>
-      </c>
+        <v>642</v>
+      </c>
+      <c r="D92" s="42" t="s">
+        <v>571</v>
+      </c>
+      <c r="E92" s="1"/>
+      <c r="F92" s="4"/>
       <c r="G92" s="4"/>
-      <c r="H92" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="H92" s="4"/>
+      <c r="I92" s="1"/>
     </row>
     <row r="93" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A93" s="33"/>
+      <c r="A93" s="33">
+        <v>92</v>
+      </c>
       <c r="B93" s="4" t="s">
         <v>656</v>
       </c>
@@ -6005,116 +6604,134 @@
         <v>94</v>
       </c>
       <c r="D93" s="31" t="s">
-        <v>821</v>
+        <v>582</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="4" t="s">
-        <v>134</v>
+        <v>511</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A94" s="33"/>
+    <row r="94" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A94" s="33">
+        <v>93</v>
+      </c>
       <c r="B94" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D94" s="41" t="s">
-        <v>657</v>
+        <v>94</v>
+      </c>
+      <c r="D94" s="31" t="s">
+        <v>820</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>80</v>
+        <v>743</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="4" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A95" s="33"/>
+    <row r="95" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A95" s="33">
+        <v>94</v>
+      </c>
       <c r="B95" s="4" t="s">
         <v>657</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D95" s="31" t="s">
-        <v>820</v>
+        <v>4</v>
+      </c>
+      <c r="D95" s="41" t="s">
+        <v>657</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>744</v>
+        <v>80</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="G95" s="4"/>
       <c r="H95" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A96" s="33">
+        <v>95</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D96" s="31" t="s">
+        <v>819</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="I95" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A96" s="33"/>
-      <c r="B96" s="4" t="s">
-        <v>658</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D96" s="41" t="s">
-        <v>658</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G96" s="4"/>
-      <c r="H96" s="3" t="s">
-        <v>699</v>
-      </c>
       <c r="I96" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A97" s="33"/>
+    <row r="97" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A97" s="33">
+        <v>96</v>
+      </c>
       <c r="B97" s="4" t="s">
         <v>658</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="D97" s="42" t="s">
-        <v>570</v>
-      </c>
-      <c r="E97" s="1"/>
-      <c r="F97" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="D97" s="41" t="s">
+        <v>658</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="G97" s="4"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="1"/>
+      <c r="H97" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A98" s="33"/>
+      <c r="A98" s="33">
+        <v>97</v>
+      </c>
       <c r="B98" s="4" t="s">
         <v>658</v>
       </c>
@@ -6122,7 +6739,7 @@
         <v>642</v>
       </c>
       <c r="D98" s="42" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="4"/>
@@ -6130,58 +6747,48 @@
       <c r="H98" s="3"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A99" s="33"/>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A99" s="33">
+        <v>98</v>
+      </c>
       <c r="B99" s="4" t="s">
         <v>658</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D99" s="31" t="s">
-        <v>572</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>119</v>
-      </c>
+        <v>642</v>
+      </c>
+      <c r="D99" s="42" t="s">
+        <v>571</v>
+      </c>
+      <c r="E99" s="1"/>
+      <c r="F99" s="4"/>
       <c r="G99" s="4"/>
-      <c r="H99" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A100" s="33"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="1"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A100" s="33">
+        <v>99</v>
+      </c>
       <c r="B100" s="4" t="s">
         <v>658</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D100" s="31" t="s">
-        <v>819</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>745</v>
-      </c>
-      <c r="F100" s="4" t="s">
-        <v>120</v>
-      </c>
+        <v>642</v>
+      </c>
+      <c r="D100" s="67" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E100" s="1"/>
+      <c r="F100" s="4"/>
       <c r="G100" s="4"/>
-      <c r="H100" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="I100" s="43" t="s">
-        <v>93</v>
-      </c>
+      <c r="H100" s="3"/>
+      <c r="I100" s="1"/>
     </row>
     <row r="101" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A101" s="33"/>
+      <c r="A101" s="33">
+        <v>100</v>
+      </c>
       <c r="B101" s="4" t="s">
         <v>658</v>
       </c>
@@ -6189,24 +6796,26 @@
         <v>94</v>
       </c>
       <c r="D101" s="31" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>746</v>
+        <v>118</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>583</v>
+        <v>119</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="4" t="s">
-        <v>710</v>
-      </c>
-      <c r="I101" s="43" t="s">
+        <v>512</v>
+      </c>
+      <c r="I101" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A102" s="33"/>
+      <c r="A102" s="33">
+        <v>101</v>
+      </c>
       <c r="B102" s="4" t="s">
         <v>658</v>
       </c>
@@ -6214,24 +6823,26 @@
         <v>94</v>
       </c>
       <c r="D102" s="31" t="s">
-        <v>577</v>
+        <v>818</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>584</v>
+        <v>120</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="4" t="s">
-        <v>711</v>
+        <v>121</v>
       </c>
       <c r="I102" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A103" s="33"/>
+    <row r="103" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A103" s="33">
+        <v>102</v>
+      </c>
       <c r="B103" s="4" t="s">
         <v>658</v>
       </c>
@@ -6239,24 +6850,26 @@
         <v>94</v>
       </c>
       <c r="D103" s="31" t="s">
-        <v>573</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>748</v>
+        <v>576</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>746</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>67</v>
+        <v>583</v>
       </c>
       <c r="G103" s="4"/>
-      <c r="H103" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>776</v>
+      <c r="H103" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="I103" s="43" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A104" s="33"/>
+      <c r="A104" s="33">
+        <v>103</v>
+      </c>
       <c r="B104" s="4" t="s">
         <v>658</v>
       </c>
@@ -6264,24 +6877,26 @@
         <v>94</v>
       </c>
       <c r="D104" s="31" t="s">
-        <v>574</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>749</v>
+        <v>577</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>747</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>70</v>
+        <v>584</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A105" s="33"/>
+        <v>711</v>
+      </c>
+      <c r="I104" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A105" s="33">
+        <v>104</v>
+      </c>
       <c r="B105" s="4" t="s">
         <v>658</v>
       </c>
@@ -6289,91 +6904,115 @@
         <v>94</v>
       </c>
       <c r="D105" s="31" t="s">
-        <v>833</v>
+        <v>573</v>
       </c>
       <c r="E105" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G105" s="4"/>
+      <c r="H105" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A106" s="33">
+        <v>105</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D106" s="31" t="s">
+        <v>574</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A107" s="33">
+        <v>106</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D107" s="31" t="s">
+        <v>832</v>
+      </c>
+      <c r="E107" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="F105" s="4" t="s">
+      <c r="F107" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G105" s="4"/>
-      <c r="H105" s="4" t="s">
+      <c r="G107" s="4"/>
+      <c r="H107" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="I105" s="1" t="s">
+      <c r="I107" s="1" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A106" s="33"/>
-      <c r="B106" s="4" t="s">
-        <v>659</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D106" s="41" t="s">
-        <v>659</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G106" s="4"/>
-      <c r="H106" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A107" s="33"/>
-      <c r="B107" s="4" t="s">
-        <v>659</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="D107" s="42" t="s">
-        <v>585</v>
-      </c>
-      <c r="E107" s="1"/>
-      <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="1"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A108" s="33"/>
+    <row r="108" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A108" s="33">
+        <v>107</v>
+      </c>
       <c r="B108" s="4" t="s">
         <v>659</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="D108" s="42" t="s">
-        <v>586</v>
-      </c>
-      <c r="E108" s="1"/>
-      <c r="F108" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="D108" s="41" t="s">
+        <v>659</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="G108" s="4"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="1"/>
+      <c r="H108" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A109" s="33"/>
+      <c r="A109" s="33">
+        <v>108</v>
+      </c>
       <c r="B109" s="4" t="s">
         <v>659</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="D109" s="47" t="s">
-        <v>946</v>
+      <c r="D109" s="42" t="s">
+        <v>585</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="4"/>
@@ -6382,15 +7021,17 @@
       <c r="I109" s="1"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A110" s="33"/>
+      <c r="A110" s="33">
+        <v>109</v>
+      </c>
       <c r="B110" s="4" t="s">
         <v>659</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="D110" s="47" t="s">
-        <v>947</v>
+      <c r="D110" s="42" t="s">
+        <v>586</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="4"/>
@@ -6399,7 +7040,9 @@
       <c r="I110" s="1"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A111" s="33"/>
+      <c r="A111" s="33">
+        <v>110</v>
+      </c>
       <c r="B111" s="4" t="s">
         <v>659</v>
       </c>
@@ -6407,7 +7050,7 @@
         <v>642</v>
       </c>
       <c r="D111" s="47" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="4"/>
@@ -6416,7 +7059,9 @@
       <c r="I111" s="1"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A112" s="33"/>
+      <c r="A112" s="33">
+        <v>111</v>
+      </c>
       <c r="B112" s="4" t="s">
         <v>659</v>
       </c>
@@ -6424,7 +7069,7 @@
         <v>642</v>
       </c>
       <c r="D112" s="47" t="s">
-        <v>1012</v>
+        <v>946</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="4"/>
@@ -6433,7 +7078,9 @@
       <c r="I112" s="1"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A113" s="33"/>
+      <c r="A113" s="33">
+        <v>112</v>
+      </c>
       <c r="B113" s="4" t="s">
         <v>659</v>
       </c>
@@ -6441,7 +7088,7 @@
         <v>642</v>
       </c>
       <c r="D113" s="47" t="s">
-        <v>1013</v>
+        <v>947</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="4"/>
@@ -6449,83 +7096,67 @@
       <c r="H113" s="3"/>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A114" s="33"/>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A114" s="33">
+        <v>113</v>
+      </c>
       <c r="B114" s="4" t="s">
         <v>659</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D114" s="31" t="s">
-        <v>587</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>751</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>589</v>
-      </c>
+        <v>642</v>
+      </c>
+      <c r="D114" s="47" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E114" s="1"/>
+      <c r="F114" s="4"/>
       <c r="G114" s="4"/>
-      <c r="H114" s="4" t="s">
-        <v>690</v>
-      </c>
-      <c r="I114" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A115" s="33"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="1"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A115" s="33">
+        <v>114</v>
+      </c>
       <c r="B115" s="4" t="s">
         <v>659</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D115" s="31" t="s">
-        <v>818</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="F115" s="4" t="s">
-        <v>552</v>
-      </c>
+        <v>642</v>
+      </c>
+      <c r="D115" s="47" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E115" s="1"/>
+      <c r="F115" s="4"/>
       <c r="G115" s="4"/>
-      <c r="H115" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="I115" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A116" s="33"/>
-      <c r="B116" s="4" t="s">
+      <c r="H115" s="3"/>
+      <c r="I115" s="1"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A116" s="33">
+        <v>115</v>
+      </c>
+      <c r="B116" s="48" t="s">
         <v>659</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D116" s="31" t="s">
-        <v>923</v>
-      </c>
-      <c r="E116" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F116" s="43" t="s">
-        <v>920</v>
-      </c>
-      <c r="G116" s="43"/>
-      <c r="H116" s="43" t="s">
-        <v>921</v>
-      </c>
-      <c r="I116" s="43" t="s">
-        <v>93</v>
-      </c>
+      <c r="C116" s="49" t="s">
+        <v>642</v>
+      </c>
+      <c r="D116" s="66" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E116" s="1"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="3"/>
+      <c r="I116" s="1"/>
     </row>
     <row r="117" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A117" s="33"/>
+      <c r="A117" s="33">
+        <v>116</v>
+      </c>
       <c r="B117" s="4" t="s">
         <v>659</v>
       </c>
@@ -6533,224 +7164,242 @@
         <v>94</v>
       </c>
       <c r="D117" s="31" t="s">
-        <v>924</v>
-      </c>
-      <c r="E117" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F117" s="43" t="s">
-        <v>922</v>
-      </c>
-      <c r="G117" s="43"/>
-      <c r="H117" s="43" t="s">
-        <v>925</v>
-      </c>
-      <c r="I117" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A118" s="33"/>
+        <v>587</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A118" s="33">
+        <v>117</v>
+      </c>
       <c r="B118" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D118" s="41" t="s">
-        <v>660</v>
+        <v>94</v>
+      </c>
+      <c r="D118" s="31" t="s">
+        <v>817</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>752</v>
+        <v>551</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>74</v>
+        <v>552</v>
       </c>
       <c r="G118" s="4"/>
       <c r="H118" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I118" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="I118" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A119" s="33"/>
+      <c r="A119" s="33">
+        <v>118</v>
+      </c>
       <c r="B119" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D119" s="31" t="s">
-        <v>588</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="F119" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="G119" s="4"/>
-      <c r="H119" s="4" t="s">
-        <v>514</v>
+        <v>922</v>
+      </c>
+      <c r="E119" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F119" s="43" t="s">
+        <v>919</v>
+      </c>
+      <c r="G119" s="43"/>
+      <c r="H119" s="43" t="s">
+        <v>920</v>
       </c>
       <c r="I119" s="43" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A120" s="33"/>
+      <c r="A120" s="33">
+        <v>119</v>
+      </c>
       <c r="B120" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D120" s="31" t="s">
-        <v>817</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>754</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="G120" s="4"/>
-      <c r="H120" s="4" t="s">
-        <v>126</v>
+        <v>923</v>
+      </c>
+      <c r="E120" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F120" s="43" t="s">
+        <v>921</v>
+      </c>
+      <c r="G120" s="43"/>
+      <c r="H120" s="43" t="s">
+        <v>924</v>
       </c>
       <c r="I120" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A121" s="33"/>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A121" s="33">
+        <v>120</v>
+      </c>
       <c r="B121" s="4" t="s">
         <v>660</v>
       </c>
       <c r="C121" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D121" s="41" t="s">
+        <v>660</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G121" s="4"/>
+      <c r="H121" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A122" s="33">
+        <v>121</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D121" s="31" t="s">
-        <v>590</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="F121" s="4" t="s">
-        <v>639</v>
-      </c>
-      <c r="G121" s="4"/>
-      <c r="H121" s="4" t="s">
-        <v>707</v>
-      </c>
-      <c r="I121" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A122" s="33"/>
-      <c r="B122" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D122" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>77</v>
+      <c r="D122" s="31" t="s">
+        <v>588</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>753</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="G122" s="4"/>
       <c r="H122" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I122" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A123" s="33"/>
+        <v>514</v>
+      </c>
+      <c r="I122" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A123" s="33">
+        <v>122</v>
+      </c>
       <c r="B123" s="4" t="s">
-        <v>88</v>
+        <v>660</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D123" s="31" t="s">
-        <v>591</v>
+        <v>816</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="G123" s="4"/>
       <c r="H123" s="4" t="s">
-        <v>688</v>
-      </c>
-      <c r="I123" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="50" x14ac:dyDescent="0.35">
-      <c r="A124" s="33"/>
+        <v>126</v>
+      </c>
+      <c r="I123" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A124" s="33">
+        <v>123</v>
+      </c>
       <c r="B124" s="4" t="s">
-        <v>88</v>
+        <v>660</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D124" s="31" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>139</v>
+        <v>755</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>110</v>
+        <v>639</v>
       </c>
       <c r="G124" s="4"/>
       <c r="H124" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I124" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A125" s="33"/>
+        <v>707</v>
+      </c>
+      <c r="I124" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A125" s="33">
+        <v>124</v>
+      </c>
       <c r="B125" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D125" s="31" t="s">
-        <v>930</v>
-      </c>
-      <c r="E125" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F125" s="43" t="s">
-        <v>926</v>
-      </c>
-      <c r="G125" s="43"/>
-      <c r="H125" s="43" t="s">
-        <v>928</v>
-      </c>
-      <c r="I125" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A126" s="33"/>
+        <v>4</v>
+      </c>
+      <c r="D125" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A126" s="33">
+        <v>125</v>
+      </c>
       <c r="B126" s="4" t="s">
         <v>88</v>
       </c>
@@ -6758,301 +7407,353 @@
         <v>94</v>
       </c>
       <c r="D126" s="31" t="s">
-        <v>931</v>
-      </c>
-      <c r="E126" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F126" s="43" t="s">
-        <v>927</v>
-      </c>
-      <c r="G126" s="43"/>
-      <c r="H126" s="43" t="s">
-        <v>929</v>
-      </c>
-      <c r="I126" s="43" t="s">
+        <v>591</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="I126" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="50" x14ac:dyDescent="0.35">
-      <c r="A127" s="33"/>
+      <c r="A127" s="33">
+        <v>126</v>
+      </c>
       <c r="B127" s="4" t="s">
-        <v>595</v>
+        <v>88</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D127" s="41" t="s">
-        <v>595</v>
+        <v>94</v>
+      </c>
+      <c r="D127" s="31" t="s">
+        <v>592</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>594</v>
+        <v>139</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>595</v>
+        <v>110</v>
       </c>
       <c r="G127" s="4"/>
       <c r="H127" s="4" t="s">
-        <v>593</v>
+        <v>140</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A128" s="33"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A128" s="33">
+        <v>127</v>
+      </c>
       <c r="B128" s="4" t="s">
-        <v>595</v>
+        <v>88</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="D128" s="42" t="s">
-        <v>596</v>
-      </c>
-      <c r="E128" s="4"/>
-      <c r="F128" s="4"/>
-      <c r="G128" s="4"/>
-      <c r="H128" s="4"/>
-      <c r="I128" s="4"/>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A129" s="33"/>
+        <v>94</v>
+      </c>
+      <c r="D128" s="31" t="s">
+        <v>929</v>
+      </c>
+      <c r="E128" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F128" s="43" t="s">
+        <v>925</v>
+      </c>
+      <c r="G128" s="43"/>
+      <c r="H128" s="43" t="s">
+        <v>927</v>
+      </c>
+      <c r="I128" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A129" s="33">
+        <v>128</v>
+      </c>
       <c r="B129" s="4" t="s">
-        <v>595</v>
+        <v>88</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D129" s="31" t="s">
-        <v>816</v>
-      </c>
-      <c r="E129" s="4" t="s">
-        <v>757</v>
-      </c>
-      <c r="F129" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G129" s="4"/>
-      <c r="H129" s="4" t="s">
-        <v>130</v>
+        <v>930</v>
+      </c>
+      <c r="E129" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F129" s="43" t="s">
+        <v>926</v>
+      </c>
+      <c r="G129" s="43"/>
+      <c r="H129" s="43" t="s">
+        <v>928</v>
       </c>
       <c r="I129" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A130" s="33"/>
+    <row r="130" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+      <c r="A130" s="33">
+        <v>129</v>
+      </c>
       <c r="B130" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="C130" s="43" t="s">
+        <v>595</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D130" s="41" t="s">
-        <v>661</v>
+        <v>595</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>758</v>
+        <v>594</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>109</v>
+        <v>595</v>
       </c>
       <c r="G130" s="4"/>
       <c r="H130" s="4" t="s">
-        <v>136</v>
+        <v>593</v>
       </c>
       <c r="I130" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A131" s="33"/>
+      <c r="A131" s="33">
+        <v>130</v>
+      </c>
       <c r="B131" s="4" t="s">
-        <v>661</v>
+        <v>595</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>642</v>
       </c>
       <c r="D131" s="42" t="s">
-        <v>1017</v>
+        <v>596</v>
       </c>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
       <c r="G131" s="4"/>
       <c r="H131" s="4"/>
-      <c r="I131" s="43"/>
+      <c r="I131" s="4"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A132" s="33"/>
+      <c r="A132" s="33">
+        <v>131</v>
+      </c>
       <c r="B132" s="4" t="s">
-        <v>661</v>
+        <v>595</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="D132" s="42" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E132" s="4"/>
-      <c r="F132" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="D132" s="31" t="s">
+        <v>815</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="G132" s="4"/>
-      <c r="H132" s="4"/>
-      <c r="I132" s="43"/>
+      <c r="H132" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I132" s="43" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A133" s="33"/>
+      <c r="A133" s="33">
+        <v>132</v>
+      </c>
       <c r="B133" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="C133" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D133" s="30" t="s">
-        <v>815</v>
+      <c r="C133" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D133" s="41" t="s">
+        <v>661</v>
       </c>
       <c r="E133" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="F133" s="1" t="s">
+      <c r="F133" s="4" t="s">
         <v>109</v>
       </c>
       <c r="G133" s="4"/>
       <c r="H133" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="I133" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A134" s="33"/>
+      <c r="I133" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A134" s="33">
+        <v>133</v>
+      </c>
       <c r="B134" s="4" t="s">
         <v>661</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D134" s="30" t="s">
-        <v>597</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>759</v>
-      </c>
-      <c r="F134" s="4" t="s">
-        <v>599</v>
-      </c>
+        <v>642</v>
+      </c>
+      <c r="D134" s="42" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4"/>
       <c r="G134" s="4"/>
-      <c r="H134" s="4" t="s">
-        <v>712</v>
-      </c>
-      <c r="I134" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A135" s="33"/>
+      <c r="H134" s="4"/>
+      <c r="I134" s="43"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A135" s="33">
+        <v>134</v>
+      </c>
       <c r="B135" s="4" t="s">
         <v>661</v>
       </c>
       <c r="C135" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D135" s="42" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="4"/>
+      <c r="I135" s="43"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A136" s="33">
+        <v>135</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D135" s="30" t="s">
-        <v>598</v>
-      </c>
-      <c r="E135" s="4" t="s">
-        <v>760</v>
-      </c>
-      <c r="F135" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="G135" s="4"/>
-      <c r="H135" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="I135" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A136" s="33"/>
-      <c r="B136" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D136" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="F136" s="4" t="s">
-        <v>81</v>
+      <c r="D136" s="30" t="s">
+        <v>814</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="G136" s="4"/>
       <c r="H136" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="I136" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A137" s="33"/>
+        <v>136</v>
+      </c>
+      <c r="I136" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A137" s="33">
+        <v>136</v>
+      </c>
       <c r="B137" s="4" t="s">
-        <v>81</v>
+        <v>661</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="D137" s="42" t="s">
-        <v>556</v>
-      </c>
-      <c r="E137" s="1"/>
-      <c r="F137" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="D137" s="30" t="s">
+        <v>597</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>599</v>
+      </c>
       <c r="G137" s="4"/>
-      <c r="H137" s="4"/>
-      <c r="I137" s="1"/>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A138" s="33"/>
+      <c r="H137" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="I137" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A138" s="33">
+        <v>137</v>
+      </c>
       <c r="B138" s="4" t="s">
-        <v>81</v>
+        <v>661</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="D138" s="42" t="s">
-        <v>557</v>
-      </c>
-      <c r="E138" s="1"/>
-      <c r="F138" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="D138" s="30" t="s">
+        <v>598</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>600</v>
+      </c>
       <c r="G138" s="4"/>
-      <c r="H138" s="4"/>
-      <c r="I138" s="1"/>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A139" s="33"/>
+      <c r="H138" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="I138" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="A139" s="33">
+        <v>138</v>
+      </c>
       <c r="B139" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="D139" s="42" t="s">
-        <v>563</v>
-      </c>
-      <c r="E139" s="1"/>
-      <c r="F139" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="D139" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="G139" s="4"/>
-      <c r="H139" s="4"/>
-      <c r="I139" s="1"/>
+      <c r="H139" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A140" s="33"/>
+      <c r="A140" s="33">
+        <v>139</v>
+      </c>
       <c r="B140" s="4" t="s">
         <v>81</v>
       </c>
@@ -7060,7 +7761,7 @@
         <v>642</v>
       </c>
       <c r="D140" s="42" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E140" s="1"/>
       <c r="F140" s="4"/>
@@ -7068,135 +7769,123 @@
       <c r="H140" s="4"/>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A141" s="33"/>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A141" s="33">
+        <v>140</v>
+      </c>
       <c r="B141" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C141" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D141" s="42" t="s">
+        <v>557</v>
+      </c>
+      <c r="E141" s="1"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="4"/>
+      <c r="H141" s="4"/>
+      <c r="I141" s="1"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A142" s="33">
+        <v>141</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D142" s="42" t="s">
+        <v>563</v>
+      </c>
+      <c r="E142" s="1"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="4"/>
+      <c r="H142" s="4"/>
+      <c r="I142" s="1"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A143" s="33">
+        <v>142</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D143" s="42" t="s">
+        <v>562</v>
+      </c>
+      <c r="E143" s="1"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="4"/>
+      <c r="H143" s="4"/>
+      <c r="I143" s="1"/>
+    </row>
+    <row r="144" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A144" s="33">
+        <v>143</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D141" s="31" t="s">
+      <c r="D144" s="31" t="s">
         <v>560</v>
       </c>
-      <c r="E141" s="1" t="s">
+      <c r="E144" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="F141" s="4" t="s">
+      <c r="F144" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="G141" s="4"/>
-      <c r="H141" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I141" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" ht="75" x14ac:dyDescent="0.35">
-      <c r="A142" s="33"/>
-      <c r="B142" s="4" t="s">
-        <v>662</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D142" s="41" t="s">
-        <v>662</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="F142" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G142" s="4"/>
-      <c r="H142" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="I142" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A143" s="33"/>
-      <c r="B143" s="4" t="s">
-        <v>662</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D143" s="31" t="s">
-        <v>814</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="F143" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G143" s="4"/>
-      <c r="H143" s="4" t="s">
-        <v>637</v>
-      </c>
-      <c r="I143" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" ht="50" x14ac:dyDescent="0.35">
-      <c r="A144" s="33"/>
-      <c r="B144" s="4" t="s">
-        <v>663</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D144" s="41" t="s">
-        <v>663</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="F144" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="G144" s="4"/>
       <c r="H144" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I144" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A145" s="33"/>
+    <row r="145" spans="1:9" ht="75" x14ac:dyDescent="0.35">
+      <c r="A145" s="33">
+        <v>144</v>
+      </c>
       <c r="B145" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D145" s="31" t="s">
-        <v>558</v>
-      </c>
-      <c r="E145" s="4" t="s">
-        <v>765</v>
+        <v>4</v>
+      </c>
+      <c r="D145" s="41" t="s">
+        <v>662</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>763</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="G145" s="4"/>
       <c r="H145" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="I145" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="I145" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A146" s="33"/>
+      <c r="A146" s="33">
+        <v>145</v>
+      </c>
       <c r="B146" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>94</v>
@@ -7204,147 +7893,159 @@
       <c r="D146" s="31" t="s">
         <v>813</v>
       </c>
-      <c r="E146" s="4" t="s">
-        <v>766</v>
+      <c r="E146" s="1" t="s">
+        <v>763</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="G146" s="4"/>
       <c r="H146" s="4" t="s">
-        <v>127</v>
+        <v>637</v>
       </c>
       <c r="I146" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A147" s="33"/>
+    <row r="147" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+      <c r="A147" s="33">
+        <v>146</v>
+      </c>
       <c r="B147" s="4" t="s">
         <v>663</v>
       </c>
       <c r="C147" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D147" s="41" t="s">
+        <v>663</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G147" s="4"/>
+      <c r="H147" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A148" s="33">
+        <v>147</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D147" s="46" t="s">
-        <v>559</v>
-      </c>
-      <c r="E147" s="33" t="s">
-        <v>767</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G147" s="33"/>
-      <c r="H147" s="4" t="s">
-        <v>706</v>
-      </c>
-      <c r="I147" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A148" s="33"/>
-      <c r="B148" s="4" t="s">
-        <v>666</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D148" s="41" t="s">
-        <v>666</v>
+      <c r="D148" s="31" t="s">
+        <v>558</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>672</v>
+        <v>765</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>666</v>
-      </c>
-      <c r="G148" s="35"/>
+        <v>112</v>
+      </c>
+      <c r="G148" s="4"/>
       <c r="H148" s="4" t="s">
-        <v>671</v>
+        <v>513</v>
       </c>
       <c r="I148" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A149" s="33"/>
+    <row r="149" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A149" s="33">
+        <v>148</v>
+      </c>
       <c r="B149" s="4" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D149" s="31" t="s">
-        <v>667</v>
+        <v>812</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>701</v>
-      </c>
-      <c r="G149" s="35"/>
+        <v>113</v>
+      </c>
+      <c r="G149" s="4"/>
       <c r="H149" s="4" t="s">
-        <v>702</v>
+        <v>127</v>
       </c>
       <c r="I149" s="43" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A150" s="33"/>
+      <c r="A150" s="33">
+        <v>149</v>
+      </c>
       <c r="B150" s="4" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D150" s="31" t="s">
-        <v>668</v>
-      </c>
-      <c r="E150" s="4" t="s">
-        <v>769</v>
-      </c>
-      <c r="F150" s="4" t="s">
-        <v>700</v>
-      </c>
-      <c r="G150" s="4"/>
+      <c r="D150" s="46" t="s">
+        <v>559</v>
+      </c>
+      <c r="E150" s="33" t="s">
+        <v>767</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="G150" s="33"/>
       <c r="H150" s="4" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="I150" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A151" s="33"/>
+    <row r="151" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A151" s="33">
+        <v>150</v>
+      </c>
       <c r="B151" s="4" t="s">
         <v>666</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D151" s="31" t="s">
-        <v>669</v>
+        <v>4</v>
+      </c>
+      <c r="D151" s="41" t="s">
+        <v>666</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>770</v>
+        <v>672</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>673</v>
-      </c>
-      <c r="G151" s="4"/>
+        <v>666</v>
+      </c>
+      <c r="G151" s="35"/>
       <c r="H151" s="4" t="s">
-        <v>704</v>
+        <v>671</v>
       </c>
       <c r="I151" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A152" s="33"/>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A152" s="33">
+        <v>151</v>
+      </c>
       <c r="B152" s="4" t="s">
         <v>666</v>
       </c>
@@ -7352,901 +8053,1671 @@
         <v>94</v>
       </c>
       <c r="D152" s="31" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>689</v>
+        <v>701</v>
       </c>
       <c r="G152" s="35"/>
       <c r="H152" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="I152" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A153" s="33">
+        <v>152</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D153" s="31" t="s">
+        <v>668</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="G153" s="4"/>
+      <c r="H153" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="I153" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A154" s="33">
+        <v>153</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D154" s="31" t="s">
+        <v>669</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="G154" s="4"/>
+      <c r="H154" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="I154" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A155" s="33">
+        <v>154</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D155" s="31" t="s">
+        <v>670</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="G155" s="35"/>
+      <c r="H155" s="4" t="s">
         <v>705</v>
       </c>
-      <c r="I152" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A153" s="33"/>
-      <c r="B153" s="1" t="s">
+      <c r="I155" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A156" s="33">
+        <v>155</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D156" s="41" t="s">
+        <v>806</v>
+      </c>
+      <c r="E156" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F156" s="33" t="s">
         <v>807</v>
       </c>
-      <c r="C153" s="33" t="s">
+      <c r="G156" s="33"/>
+      <c r="H156" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="I156" s="33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A157" s="33">
+        <v>156</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="D153" s="41" t="s">
-        <v>807</v>
-      </c>
-      <c r="E153" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="F153" s="33" t="s">
-        <v>808</v>
-      </c>
-      <c r="G153" s="33"/>
-      <c r="H153" s="1" t="s">
+      <c r="C157" s="33" t="s">
+        <v>642</v>
+      </c>
+      <c r="D157" s="47" t="s">
         <v>809</v>
       </c>
-      <c r="I153" s="33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A154" s="33"/>
-      <c r="B154" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="C154" s="33" t="s">
+      <c r="E157" s="33"/>
+      <c r="F157" s="33"/>
+      <c r="G157" s="33"/>
+      <c r="H157" s="33"/>
+      <c r="I157" s="33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A158" s="33">
+        <v>157</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="C158" s="33" t="s">
         <v>642</v>
       </c>
-      <c r="D154" s="47" t="s">
+      <c r="D158" s="47" t="s">
         <v>810</v>
       </c>
-      <c r="E154" s="33"/>
-      <c r="F154" s="33"/>
-      <c r="G154" s="33"/>
-      <c r="H154" s="33"/>
-      <c r="I154" s="33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A155" s="33"/>
-      <c r="B155" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="C155" s="33" t="s">
-        <v>642</v>
-      </c>
-      <c r="D155" s="47" t="s">
-        <v>811</v>
-      </c>
-      <c r="E155" s="33"/>
-      <c r="F155" s="33"/>
-      <c r="G155" s="33"/>
-      <c r="H155" s="33"/>
-      <c r="I155" s="33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" s="50" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A156" s="33"/>
-      <c r="B156" s="33" t="s">
-        <v>843</v>
-      </c>
-      <c r="C156" s="54" t="s">
-        <v>806</v>
-      </c>
-      <c r="D156" s="41" t="s">
-        <v>807</v>
-      </c>
-      <c r="E156" s="53" t="s">
-        <v>870</v>
-      </c>
-      <c r="F156" s="43" t="s">
-        <v>843</v>
-      </c>
-      <c r="G156" s="43"/>
-      <c r="H156" s="43" t="s">
-        <v>871</v>
-      </c>
-      <c r="I156" s="33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" s="50" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A157" s="33"/>
-      <c r="B157" s="33" t="s">
-        <v>843</v>
-      </c>
-      <c r="C157" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="D157" s="30" t="s">
-        <v>844</v>
-      </c>
-      <c r="E157" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="F157" s="43" t="s">
-        <v>851</v>
-      </c>
-      <c r="G157" s="43"/>
-      <c r="H157" s="43" t="s">
-        <v>852</v>
-      </c>
-      <c r="I157" s="33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" s="50" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A158" s="33"/>
-      <c r="B158" s="33" t="s">
-        <v>843</v>
-      </c>
-      <c r="C158" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="D158" s="30" t="s">
-        <v>845</v>
-      </c>
-      <c r="E158" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F158" s="43" t="s">
-        <v>853</v>
-      </c>
-      <c r="G158" s="43"/>
-      <c r="H158" s="43" t="s">
-        <v>854</v>
-      </c>
+      <c r="E158" s="33"/>
+      <c r="F158" s="33"/>
+      <c r="G158" s="33"/>
+      <c r="H158" s="33"/>
       <c r="I158" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="159" spans="1:9" s="50" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A159" s="33"/>
+    <row r="159" spans="1:9" s="50" customFormat="1" ht="25" x14ac:dyDescent="0.35">
+      <c r="A159" s="33">
+        <v>158</v>
+      </c>
       <c r="B159" s="33" t="s">
-        <v>843</v>
-      </c>
-      <c r="C159" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="D159" s="30" t="s">
-        <v>846</v>
+        <v>842</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D159" s="41" t="s">
+        <v>1018</v>
       </c>
       <c r="E159" s="53" t="s">
-        <v>855</v>
+        <v>869</v>
       </c>
       <c r="F159" s="43" t="s">
-        <v>856</v>
+        <v>842</v>
       </c>
       <c r="G159" s="43"/>
       <c r="H159" s="43" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
       <c r="I159" s="33" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="160" spans="1:9" s="50" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A160" s="33"/>
+      <c r="A160" s="33">
+        <v>159</v>
+      </c>
       <c r="B160" s="33" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C160" s="54" t="s">
         <v>94</v>
       </c>
       <c r="D160" s="30" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="E160" s="53" t="s">
-        <v>858</v>
+        <v>16</v>
       </c>
       <c r="F160" s="43" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="G160" s="43"/>
       <c r="H160" s="43" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="I160" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="161" spans="1:9" s="50" customFormat="1" ht="50" x14ac:dyDescent="0.35">
-      <c r="A161" s="33"/>
+    <row r="161" spans="1:9" s="50" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A161" s="33">
+        <v>160</v>
+      </c>
       <c r="B161" s="33" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C161" s="54" t="s">
         <v>94</v>
       </c>
       <c r="D161" s="30" t="s">
-        <v>848</v>
-      </c>
-      <c r="E161" s="53" t="s">
-        <v>861</v>
+        <v>844</v>
+      </c>
+      <c r="E161" s="43" t="s">
+        <v>16</v>
       </c>
       <c r="F161" s="43" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="G161" s="43"/>
       <c r="H161" s="43" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="I161" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="162" spans="1:9" s="50" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="33"/>
+    <row r="162" spans="1:9" s="50" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A162" s="33">
+        <v>161</v>
+      </c>
       <c r="B162" s="33" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C162" s="54" t="s">
         <v>94</v>
       </c>
       <c r="D162" s="30" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="E162" s="53" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="F162" s="43" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="G162" s="43"/>
       <c r="H162" s="43" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="I162" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="163" spans="1:9" s="50" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A163" s="33"/>
+    <row r="163" spans="1:9" s="50" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A163" s="33">
+        <v>162</v>
+      </c>
       <c r="B163" s="33" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C163" s="54" t="s">
         <v>94</v>
       </c>
       <c r="D163" s="30" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="E163" s="53" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="F163" s="43" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="G163" s="43"/>
       <c r="H163" s="43" t="s">
-        <v>869</v>
-      </c>
-      <c r="I163" s="1" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A164" s="33"/>
-      <c r="B164" s="1" t="s">
-        <v>949</v>
-      </c>
-      <c r="C164" s="33" t="s">
-        <v>806</v>
-      </c>
-      <c r="D164" s="41" t="s">
-        <v>949</v>
-      </c>
-      <c r="E164" s="43" t="s">
-        <v>16</v>
+        <v>859</v>
+      </c>
+      <c r="I163" s="33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" s="50" customFormat="1" ht="50" x14ac:dyDescent="0.35">
+      <c r="A164" s="33">
+        <v>163</v>
+      </c>
+      <c r="B164" s="33" t="s">
+        <v>842</v>
+      </c>
+      <c r="C164" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="D164" s="30" t="s">
+        <v>847</v>
+      </c>
+      <c r="E164" s="53" t="s">
+        <v>860</v>
       </c>
       <c r="F164" s="43" t="s">
-        <v>955</v>
+        <v>861</v>
       </c>
       <c r="G164" s="43"/>
       <c r="H164" s="43" t="s">
-        <v>956</v>
-      </c>
-      <c r="I164" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A165" s="33"/>
-      <c r="B165" s="1" t="s">
-        <v>949</v>
-      </c>
-      <c r="C165" s="33" t="s">
-        <v>642</v>
-      </c>
-      <c r="D165" s="47" t="s">
-        <v>950</v>
-      </c>
-      <c r="E165" s="33"/>
-      <c r="F165" s="33"/>
-      <c r="G165" s="33"/>
-      <c r="H165" s="33"/>
+        <v>862</v>
+      </c>
+      <c r="I164" s="33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="33">
+        <v>164</v>
+      </c>
+      <c r="B165" s="33" t="s">
+        <v>842</v>
+      </c>
+      <c r="C165" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="D165" s="30" t="s">
+        <v>848</v>
+      </c>
+      <c r="E165" s="53" t="s">
+        <v>863</v>
+      </c>
+      <c r="F165" s="43" t="s">
+        <v>864</v>
+      </c>
+      <c r="G165" s="43"/>
+      <c r="H165" s="43" t="s">
+        <v>865</v>
+      </c>
       <c r="I165" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A166" s="33"/>
-      <c r="B166" s="1" t="s">
-        <v>949</v>
-      </c>
-      <c r="C166" s="33" t="s">
+    <row r="166" spans="1:9" s="50" customFormat="1" ht="25" x14ac:dyDescent="0.35">
+      <c r="A166" s="33">
+        <v>165</v>
+      </c>
+      <c r="B166" s="33" t="s">
+        <v>842</v>
+      </c>
+      <c r="C166" s="54" t="s">
         <v>94</v>
       </c>
       <c r="D166" s="30" t="s">
-        <v>951</v>
-      </c>
-      <c r="E166" s="43" t="s">
-        <v>16</v>
+        <v>849</v>
+      </c>
+      <c r="E166" s="53" t="s">
+        <v>866</v>
       </c>
       <c r="F166" s="43" t="s">
-        <v>957</v>
+        <v>867</v>
       </c>
       <c r="G166" s="43"/>
       <c r="H166" s="43" t="s">
-        <v>958</v>
-      </c>
-      <c r="I166" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" ht="50" x14ac:dyDescent="0.35">
-      <c r="A167" s="33"/>
+        <v>868</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="A167" s="33">
+        <v>166</v>
+      </c>
       <c r="B167" s="1" t="s">
-        <v>949</v>
-      </c>
-      <c r="C167" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="D167" s="30" t="s">
-        <v>952</v>
+        <v>948</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D167" s="41" t="s">
+        <v>948</v>
       </c>
       <c r="E167" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F167" s="43" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="G167" s="43"/>
       <c r="H167" s="43" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="I167" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A168" s="33"/>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A168" s="33">
+        <v>167</v>
+      </c>
       <c r="B168" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="C168" s="33" t="s">
+        <v>642</v>
+      </c>
+      <c r="D168" s="47" t="s">
         <v>949</v>
       </c>
-      <c r="C168" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="D168" s="30" t="s">
-        <v>953</v>
-      </c>
-      <c r="E168" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F168" s="43" t="s">
-        <v>961</v>
-      </c>
-      <c r="G168" s="43"/>
-      <c r="H168" s="43" t="s">
-        <v>962</v>
-      </c>
-      <c r="I168" s="43" t="s">
+      <c r="E168" s="33"/>
+      <c r="F168" s="33"/>
+      <c r="G168" s="33"/>
+      <c r="H168" s="33"/>
+      <c r="I168" s="33" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A169" s="33"/>
+      <c r="A169" s="33">
+        <v>168</v>
+      </c>
       <c r="B169" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C169" s="33" t="s">
         <v>94</v>
       </c>
       <c r="D169" s="30" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="E169" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F169" s="43" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
       <c r="G169" s="43"/>
       <c r="H169" s="43" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="I169" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A170" s="33"/>
-      <c r="B170" s="33" t="s">
-        <v>965</v>
+    <row r="170" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+      <c r="A170" s="33">
+        <v>169</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>948</v>
       </c>
       <c r="C170" s="33" t="s">
-        <v>806</v>
-      </c>
-      <c r="D170" s="41" t="s">
-        <v>965</v>
+        <v>94</v>
+      </c>
+      <c r="D170" s="30" t="s">
+        <v>951</v>
       </c>
       <c r="E170" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F170" s="43" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="G170" s="43"/>
       <c r="H170" s="43" t="s">
-        <v>968</v>
+        <v>959</v>
       </c>
       <c r="I170" s="43" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A171" s="33"/>
+      <c r="A171" s="33">
+        <v>170</v>
+      </c>
       <c r="B171" s="1" t="s">
-        <v>965</v>
+        <v>948</v>
       </c>
       <c r="C171" s="33" t="s">
-        <v>642</v>
-      </c>
-      <c r="D171" s="47" t="s">
-        <v>966</v>
-      </c>
-      <c r="E171" s="33"/>
-      <c r="F171" s="33"/>
-      <c r="G171" s="33"/>
-      <c r="H171" s="33"/>
+        <v>94</v>
+      </c>
+      <c r="D171" s="30" t="s">
+        <v>952</v>
+      </c>
+      <c r="E171" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F171" s="43" t="s">
+        <v>960</v>
+      </c>
+      <c r="G171" s="43"/>
+      <c r="H171" s="43" t="s">
+        <v>961</v>
+      </c>
       <c r="I171" s="43" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A172" s="33"/>
+      <c r="A172" s="33">
+        <v>171</v>
+      </c>
       <c r="B172" s="1" t="s">
-        <v>965</v>
+        <v>948</v>
       </c>
       <c r="C172" s="33" t="s">
         <v>94</v>
       </c>
       <c r="D172" s="30" t="s">
-        <v>979</v>
+        <v>953</v>
       </c>
       <c r="E172" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F172" s="43" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="G172" s="43"/>
       <c r="H172" s="43" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="I172" s="43" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A173" s="33"/>
-      <c r="B173" s="1" t="s">
-        <v>965</v>
-      </c>
-      <c r="C173" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="D173" s="30" t="s">
-        <v>980</v>
+      <c r="A173" s="33">
+        <v>172</v>
+      </c>
+      <c r="B173" s="33" t="s">
+        <v>964</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D173" s="41" t="s">
+        <v>964</v>
       </c>
       <c r="E173" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F173" s="43" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="G173" s="43"/>
       <c r="H173" s="43" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="I173" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A174" s="33"/>
+    <row r="174" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A174" s="33">
+        <v>173</v>
+      </c>
       <c r="B174" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="C174" s="33" t="s">
+        <v>642</v>
+      </c>
+      <c r="D174" s="47" t="s">
         <v>965</v>
       </c>
-      <c r="C174" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="D174" s="30" t="s">
-        <v>981</v>
-      </c>
-      <c r="E174" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F174" s="43" t="s">
-        <v>973</v>
-      </c>
-      <c r="G174" s="43"/>
-      <c r="H174" s="43" t="s">
-        <v>974</v>
-      </c>
+      <c r="E174" s="33"/>
+      <c r="F174" s="33"/>
+      <c r="G174" s="33"/>
+      <c r="H174" s="33"/>
       <c r="I174" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="50" x14ac:dyDescent="0.35">
-      <c r="A175" s="33"/>
+    <row r="175" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A175" s="33">
+        <v>174</v>
+      </c>
       <c r="B175" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C175" s="33" t="s">
         <v>94</v>
       </c>
       <c r="D175" s="30" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="E175" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F175" s="43" t="s">
-        <v>975</v>
+        <v>968</v>
       </c>
       <c r="G175" s="43"/>
       <c r="H175" s="43" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
       <c r="I175" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A176" s="33"/>
+    <row r="176" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A176" s="33">
+        <v>175</v>
+      </c>
       <c r="B176" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C176" s="33" t="s">
         <v>94</v>
       </c>
       <c r="D176" s="30" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="E176" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F176" s="43" t="s">
-        <v>977</v>
+        <v>970</v>
       </c>
       <c r="G176" s="43"/>
       <c r="H176" s="43" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
       <c r="I176" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A177" s="33"/>
-      <c r="B177" s="33" t="s">
-        <v>984</v>
+    <row r="177" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A177" s="33">
+        <v>176</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>964</v>
       </c>
       <c r="C177" s="33" t="s">
-        <v>806</v>
-      </c>
-      <c r="D177" s="41" t="s">
-        <v>984</v>
+        <v>94</v>
+      </c>
+      <c r="D177" s="30" t="s">
+        <v>980</v>
       </c>
       <c r="E177" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F177" s="43" t="s">
-        <v>986</v>
+        <v>972</v>
       </c>
       <c r="G177" s="43"/>
       <c r="H177" s="43" t="s">
-        <v>987</v>
+        <v>973</v>
       </c>
       <c r="I177" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A178" s="33"/>
-      <c r="B178" s="33" t="s">
-        <v>984</v>
+    <row r="178" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+      <c r="A178" s="33">
+        <v>177</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>964</v>
       </c>
       <c r="C178" s="33" t="s">
         <v>94</v>
       </c>
       <c r="D178" s="30" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="E178" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F178" s="43" t="s">
-        <v>988</v>
+        <v>974</v>
       </c>
       <c r="G178" s="43"/>
       <c r="H178" s="43" t="s">
-        <v>989</v>
+        <v>975</v>
       </c>
       <c r="I178" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A179" s="33"/>
-      <c r="B179" s="33" t="s">
-        <v>984</v>
+    <row r="179" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A179" s="33">
+        <v>178</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>964</v>
       </c>
       <c r="C179" s="33" t="s">
         <v>94</v>
       </c>
       <c r="D179" s="30" t="s">
-        <v>667</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="F179" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="G179" s="33"/>
-      <c r="H179" s="1" t="s">
-        <v>671</v>
+        <v>982</v>
+      </c>
+      <c r="E179" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F179" s="43" t="s">
+        <v>976</v>
+      </c>
+      <c r="G179" s="43"/>
+      <c r="H179" s="43" t="s">
+        <v>977</v>
       </c>
       <c r="I179" s="43" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A180" s="33"/>
-      <c r="B180" s="1" t="s">
-        <v>999</v>
-      </c>
-      <c r="C180" s="33" t="s">
-        <v>806</v>
+      <c r="A180" s="33">
+        <v>179</v>
+      </c>
+      <c r="B180" s="33" t="s">
+        <v>983</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>1019</v>
       </c>
       <c r="D180" s="41" t="s">
-        <v>999</v>
-      </c>
-      <c r="E180" s="43"/>
-      <c r="F180" s="43"/>
+        <v>983</v>
+      </c>
+      <c r="E180" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F180" s="43" t="s">
+        <v>985</v>
+      </c>
       <c r="G180" s="43"/>
-      <c r="H180" s="43"/>
+      <c r="H180" s="43" t="s">
+        <v>986</v>
+      </c>
       <c r="I180" s="43" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A181" s="33"/>
-      <c r="B181" s="1" t="s">
-        <v>999</v>
+      <c r="A181" s="33">
+        <v>180</v>
+      </c>
+      <c r="B181" s="33" t="s">
+        <v>983</v>
       </c>
       <c r="C181" s="33" t="s">
         <v>94</v>
       </c>
       <c r="D181" s="30" t="s">
-        <v>996</v>
+        <v>984</v>
       </c>
       <c r="E181" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F181" s="43" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="G181" s="43"/>
       <c r="H181" s="43" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="I181" s="43" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A182" s="33"/>
-      <c r="B182" s="1" t="s">
-        <v>999</v>
+      <c r="A182" s="33">
+        <v>181</v>
+      </c>
+      <c r="B182" s="33" t="s">
+        <v>983</v>
       </c>
       <c r="C182" s="33" t="s">
         <v>94</v>
       </c>
       <c r="D182" s="30" t="s">
-        <v>997</v>
-      </c>
-      <c r="E182" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F182" s="43" t="s">
-        <v>992</v>
-      </c>
-      <c r="G182" s="43"/>
-      <c r="H182" s="43" t="s">
-        <v>993</v>
+        <v>667</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="G182" s="33"/>
+      <c r="H182" s="1" t="s">
+        <v>671</v>
       </c>
       <c r="I182" s="43" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A183" s="33"/>
+      <c r="A183" s="33">
+        <v>182</v>
+      </c>
       <c r="B183" s="1" t="s">
-        <v>999</v>
-      </c>
-      <c r="C183" s="33" t="s">
+        <v>998</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D183" s="41" t="s">
+        <v>998</v>
+      </c>
+      <c r="E183" s="43"/>
+      <c r="F183" s="43"/>
+      <c r="G183" s="43"/>
+      <c r="H183" s="43"/>
+      <c r="I183" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A184" s="33">
+        <v>183</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="C184" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D183" s="30" t="s">
-        <v>998</v>
-      </c>
-      <c r="E183" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F183" s="43" t="s">
-        <v>994</v>
-      </c>
-      <c r="G183" s="43"/>
-      <c r="H183" s="43" t="s">
+      <c r="D184" s="30" t="s">
         <v>995</v>
-      </c>
-      <c r="I183" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A184" s="33"/>
-      <c r="B184" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C184" s="33" t="s">
-        <v>806</v>
-      </c>
-      <c r="D184" s="41" t="s">
-        <v>1000</v>
       </c>
       <c r="E184" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F184" s="43" t="s">
-        <v>1001</v>
+        <v>989</v>
       </c>
       <c r="G184" s="43"/>
       <c r="H184" s="43" t="s">
+        <v>990</v>
+      </c>
+      <c r="I184" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A185" s="33">
+        <v>184</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="C185" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D185" s="30" t="s">
+        <v>996</v>
+      </c>
+      <c r="E185" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F185" s="43" t="s">
+        <v>991</v>
+      </c>
+      <c r="G185" s="43"/>
+      <c r="H185" s="43" t="s">
+        <v>992</v>
+      </c>
+      <c r="I185" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A186" s="33">
+        <v>185</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="C186" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D186" s="30" t="s">
+        <v>997</v>
+      </c>
+      <c r="E186" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F186" s="43" t="s">
+        <v>993</v>
+      </c>
+      <c r="G186" s="43"/>
+      <c r="H186" s="43" t="s">
+        <v>994</v>
+      </c>
+      <c r="I186" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A187" s="33">
+        <v>186</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D187" s="41" t="s">
+        <v>999</v>
+      </c>
+      <c r="E187" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F187" s="43" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G187" s="43"/>
+      <c r="H187" s="43" t="s">
+        <v>1001</v>
+      </c>
+      <c r="I187" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A188" s="33">
+        <v>187</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C188" s="33" t="s">
+        <v>642</v>
+      </c>
+      <c r="D188" s="47" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E188" s="33"/>
+      <c r="F188" s="33"/>
+      <c r="G188" s="33"/>
+      <c r="H188" s="33"/>
+      <c r="I188" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A189" s="33">
+        <v>188</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C189" s="33" t="s">
+        <v>642</v>
+      </c>
+      <c r="D189" s="47" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E189" s="33"/>
+      <c r="F189" s="33"/>
+      <c r="G189" s="33"/>
+      <c r="H189" s="33"/>
+      <c r="I189" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A190" s="33">
+        <v>189</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C190" s="33" t="s">
+        <v>642</v>
+      </c>
+      <c r="D190" s="47" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E190" s="33"/>
+      <c r="F190" s="33"/>
+      <c r="G190" s="33"/>
+      <c r="H190" s="33"/>
+      <c r="I190" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A191" s="33">
+        <v>190</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C191" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D191" s="30" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E191" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F191" s="43" t="s">
         <v>1002</v>
       </c>
-      <c r="I184" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A185" s="33"/>
-      <c r="B185" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C185" s="33" t="s">
+      <c r="G191" s="43"/>
+      <c r="H191" s="43" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I191" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A192" s="33">
+        <v>191</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C192" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D192" s="30" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E192" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F192" s="43" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G192" s="43"/>
+      <c r="H192" s="43" t="s">
+        <v>1005</v>
+      </c>
+      <c r="I192" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A193" s="33">
+        <v>192</v>
+      </c>
+      <c r="B193" s="49" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C193" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D193" s="71" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E193" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="F193" s="49" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G193" s="69"/>
+      <c r="H193" s="68" t="s">
+        <v>1049</v>
+      </c>
+      <c r="I193" s="68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A194" s="33">
+        <v>193</v>
+      </c>
+      <c r="B194" s="49" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C194" s="48" t="s">
         <v>642</v>
       </c>
-      <c r="D185" s="47" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E185" s="33"/>
-      <c r="F185" s="33"/>
-      <c r="G185" s="33"/>
-      <c r="H185" s="33"/>
-      <c r="I185" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A186" s="33"/>
-      <c r="B186" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C186" s="33" t="s">
+      <c r="D194" s="67" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E194" s="68"/>
+      <c r="F194" s="49"/>
+      <c r="G194" s="69"/>
+      <c r="H194" s="68"/>
+      <c r="I194" s="68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A195" s="33">
+        <v>194</v>
+      </c>
+      <c r="B195" s="49" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C195" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D195" s="71" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E195" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="F195" s="49" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G195" s="69"/>
+      <c r="H195" s="68" t="s">
+        <v>1051</v>
+      </c>
+      <c r="I195" s="68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A196" s="33">
+        <v>195</v>
+      </c>
+      <c r="B196" s="68" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C196" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D196" s="72" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E196" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="F196" s="49" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G196" s="69"/>
+      <c r="H196" s="68" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I196" s="68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A197" s="33">
+        <v>196</v>
+      </c>
+      <c r="B197" s="68" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C197" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="D197" s="73" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E197" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="F197" s="49" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G197" s="69"/>
+      <c r="H197" s="68" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I197" s="68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A198" s="33">
+        <v>197</v>
+      </c>
+      <c r="B198" s="68" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C198" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="D198" s="73" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E198" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="F198" s="49" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G198" s="69"/>
+      <c r="H198" s="68" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I198" s="68" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A199" s="33">
+        <v>198</v>
+      </c>
+      <c r="B199" s="68" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C199" s="48" t="s">
         <v>642</v>
       </c>
-      <c r="D186" s="47" t="s">
-        <v>1010</v>
-      </c>
-      <c r="E186" s="33"/>
-      <c r="F186" s="33"/>
-      <c r="G186" s="33"/>
-      <c r="H186" s="33"/>
-      <c r="I186" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A187" s="33"/>
-      <c r="B187" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C187" s="33" t="s">
+      <c r="D199" s="66" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E199" s="68"/>
+      <c r="F199" s="69"/>
+      <c r="G199" s="69"/>
+      <c r="H199" s="69"/>
+      <c r="I199" s="68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A200" s="33">
+        <v>199</v>
+      </c>
+      <c r="B200" s="68" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C200" s="48" t="s">
         <v>642</v>
       </c>
-      <c r="D187" s="47" t="s">
-        <v>1011</v>
-      </c>
-      <c r="E187" s="33"/>
-      <c r="F187" s="33"/>
-      <c r="G187" s="33"/>
-      <c r="H187" s="33"/>
-      <c r="I187" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A188" s="33"/>
-      <c r="B188" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C188" s="33" t="s">
+      <c r="D200" s="66" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E200" s="68"/>
+      <c r="F200" s="69"/>
+      <c r="G200" s="69"/>
+      <c r="H200" s="69"/>
+      <c r="I200" s="68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A201" s="33">
+        <v>200</v>
+      </c>
+      <c r="B201" s="68" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C201" s="48" t="s">
+        <v>642</v>
+      </c>
+      <c r="D201" s="66" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E201" s="68"/>
+      <c r="F201" s="69"/>
+      <c r="G201" s="68"/>
+      <c r="H201" s="68"/>
+      <c r="I201" s="68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A202" s="33">
+        <v>201</v>
+      </c>
+      <c r="B202" s="68" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C202" s="48" t="s">
+        <v>642</v>
+      </c>
+      <c r="D202" s="66" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E202" s="68"/>
+      <c r="F202" s="69"/>
+      <c r="G202" s="69"/>
+      <c r="H202" s="69"/>
+      <c r="I202" s="68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A203" s="33">
+        <v>202</v>
+      </c>
+      <c r="B203" s="49" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C203" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D203" s="71" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E203" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="F203" s="68" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G203" s="69"/>
+      <c r="H203" s="68" t="s">
+        <v>1065</v>
+      </c>
+      <c r="I203" s="68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A204" s="33">
+        <v>203</v>
+      </c>
+      <c r="B204" s="49" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C204" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="D188" s="30" t="s">
-        <v>1008</v>
-      </c>
-      <c r="E188" s="43" t="s">
+      <c r="D204" s="74" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E204" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="F188" s="43" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G188" s="43"/>
-      <c r="H188" s="43" t="s">
-        <v>1004</v>
-      </c>
-      <c r="I188" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" ht="25" x14ac:dyDescent="0.35">
-      <c r="A189" s="33"/>
-      <c r="B189" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C189" s="33" t="s">
+      <c r="F204" s="49" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G204" s="69"/>
+      <c r="H204" s="68" t="s">
+        <v>1067</v>
+      </c>
+      <c r="I204" s="68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A205" s="33">
+        <v>204</v>
+      </c>
+      <c r="B205" s="49" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C205" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="D189" s="30" t="s">
-        <v>1009</v>
-      </c>
-      <c r="E189" s="43" t="s">
+      <c r="D205" s="74" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E205" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="F189" s="43" t="s">
-        <v>1005</v>
-      </c>
-      <c r="G189" s="43"/>
-      <c r="H189" s="43" t="s">
-        <v>1006</v>
-      </c>
-      <c r="I189" s="43" t="s">
+      <c r="F205" s="49" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G205" s="69"/>
+      <c r="H205" s="68" t="s">
+        <v>1069</v>
+      </c>
+      <c r="I205" s="68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A206" s="33">
+        <v>205</v>
+      </c>
+      <c r="B206" s="49" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C206" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="D206" s="74" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E206" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="F206" s="49" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G206" s="69"/>
+      <c r="H206" s="68" t="s">
+        <v>1071</v>
+      </c>
+      <c r="I206" s="68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A207" s="33">
+        <v>206</v>
+      </c>
+      <c r="B207" s="49" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C207" s="48" t="s">
+        <v>642</v>
+      </c>
+      <c r="D207" s="67" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E207" s="68"/>
+      <c r="F207" s="49"/>
+      <c r="G207" s="69"/>
+      <c r="H207" s="68"/>
+      <c r="I207" s="68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A208" s="33">
+        <v>207</v>
+      </c>
+      <c r="B208" s="49" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C208" s="48" t="s">
+        <v>642</v>
+      </c>
+      <c r="D208" s="67" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E208" s="68"/>
+      <c r="F208" s="69"/>
+      <c r="G208" s="69"/>
+      <c r="H208" s="69"/>
+      <c r="I208" s="68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A209" s="33">
+        <v>208</v>
+      </c>
+      <c r="B209" s="49" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C209" s="48" t="s">
+        <v>642</v>
+      </c>
+      <c r="D209" s="67" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E209" s="68"/>
+      <c r="F209" s="69"/>
+      <c r="G209" s="69"/>
+      <c r="H209" s="69"/>
+      <c r="I209" s="68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A210" s="33">
+        <v>209</v>
+      </c>
+      <c r="B210" s="49" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C210" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D210" s="71" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E210" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="F210" s="49" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G210" s="69"/>
+      <c r="H210" s="68" t="s">
+        <v>1073</v>
+      </c>
+      <c r="I210" s="68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A211" s="33">
+        <v>210</v>
+      </c>
+      <c r="B211" s="49" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C211" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D211" s="71" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E211" s="68" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F211" s="68" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G211" s="69"/>
+      <c r="H211" s="68" t="s">
+        <v>1075</v>
+      </c>
+      <c r="I211" s="68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A212" s="33">
+        <v>211</v>
+      </c>
+      <c r="B212" s="49" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C212" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="D212" s="74" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E212" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="F212" s="49" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G212" s="69"/>
+      <c r="H212" s="68" t="s">
+        <v>1077</v>
+      </c>
+      <c r="I212" s="68" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A213" s="33">
+        <v>212</v>
+      </c>
+      <c r="B213" s="49" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C213" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="D213" s="74" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E213" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="F213" s="49" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G213" s="69"/>
+      <c r="H213" s="68" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I213" s="68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A214" s="33">
+        <v>213</v>
+      </c>
+      <c r="B214" s="49" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C214" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="D214" s="74" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E214" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="F214" s="49" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G214" s="69"/>
+      <c r="H214" s="68" t="s">
+        <v>1081</v>
+      </c>
+      <c r="I214" s="68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A215" s="33">
+        <v>214</v>
+      </c>
+      <c r="B215" s="49" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C215" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="D215" s="74" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E215" s="68" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F215" s="49" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G215" s="69"/>
+      <c r="H215" s="68" t="s">
+        <v>1084</v>
+      </c>
+      <c r="I215" s="68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A216" s="33">
+        <v>215</v>
+      </c>
+      <c r="B216" s="49" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C216" s="48" t="s">
+        <v>642</v>
+      </c>
+      <c r="D216" s="67" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E216" s="69"/>
+      <c r="F216" s="69"/>
+      <c r="G216" s="69"/>
+      <c r="H216" s="69"/>
+      <c r="I216" s="68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A217" s="33">
+        <v>216</v>
+      </c>
+      <c r="B217" s="49" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C217" s="48" t="s">
+        <v>642</v>
+      </c>
+      <c r="D217" s="67" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E217" s="69"/>
+      <c r="F217" s="69"/>
+      <c r="G217" s="69"/>
+      <c r="H217" s="69"/>
+      <c r="I217" s="68" t="s">
         <v>93</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I163" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I217" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8254,9 +9725,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N132"/>
+  <dimension ref="A1:N142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:F1"/>
     </sheetView>
@@ -8957,10 +10428,10 @@
         <v>714</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H29" s="19" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="14" customFormat="1" ht="25" x14ac:dyDescent="0.35">
@@ -11279,22 +12750,22 @@
         <v>647</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E125" s="43" t="s">
+        <v>901</v>
+      </c>
+      <c r="F125" s="43" t="s">
         <v>902</v>
       </c>
-      <c r="F125" s="43" t="s">
+      <c r="G125" s="43" t="s">
         <v>903</v>
       </c>
-      <c r="G125" s="43" t="s">
+      <c r="H125" s="43" t="s">
         <v>904</v>
-      </c>
-      <c r="H125" s="43" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="50" x14ac:dyDescent="0.35">
@@ -11305,20 +12776,20 @@
         <v>647</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D126" s="19" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E126" s="43" t="s">
+        <v>905</v>
+      </c>
+      <c r="F126" s="43" t="s">
         <v>906</v>
-      </c>
-      <c r="F126" s="43" t="s">
-        <v>907</v>
       </c>
       <c r="G126" s="43"/>
       <c r="H126" s="43" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="37.5" x14ac:dyDescent="0.35">
@@ -11329,20 +12800,20 @@
         <v>647</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D127" s="19" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E127" s="43" t="s">
+        <v>908</v>
+      </c>
+      <c r="F127" s="43" t="s">
         <v>909</v>
-      </c>
-      <c r="F127" s="43" t="s">
-        <v>910</v>
       </c>
       <c r="G127" s="43"/>
       <c r="H127" s="43" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="25" x14ac:dyDescent="0.35">
@@ -11353,20 +12824,20 @@
         <v>647</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D128" s="19" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E128" s="43" t="s">
+        <v>911</v>
+      </c>
+      <c r="F128" s="43" t="s">
         <v>912</v>
-      </c>
-      <c r="F128" s="43" t="s">
-        <v>913</v>
       </c>
       <c r="G128" s="43"/>
       <c r="H128" s="43" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="25" x14ac:dyDescent="0.35">
@@ -11377,22 +12848,22 @@
         <v>647</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D129" s="19" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E129" s="43" t="s">
+        <v>914</v>
+      </c>
+      <c r="F129" s="43" t="s">
         <v>915</v>
       </c>
-      <c r="F129" s="43" t="s">
+      <c r="G129" s="43" t="s">
         <v>916</v>
       </c>
-      <c r="G129" s="43" t="s">
+      <c r="H129" s="43" t="s">
         <v>917</v>
-      </c>
-      <c r="H129" s="43" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.35">
@@ -11403,20 +12874,20 @@
         <v>650</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D130" s="19" t="s">
+        <v>933</v>
+      </c>
+      <c r="E130" s="43" t="s">
         <v>934</v>
       </c>
-      <c r="E130" s="43" t="s">
+      <c r="F130" s="43" t="s">
         <v>935</v>
-      </c>
-      <c r="F130" s="43" t="s">
-        <v>936</v>
       </c>
       <c r="G130" s="43"/>
       <c r="H130" s="43" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="37.5" x14ac:dyDescent="0.35">
@@ -11427,22 +12898,22 @@
         <v>650</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D131" s="19" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E131" s="43" t="s">
+        <v>937</v>
+      </c>
+      <c r="F131" s="43" t="s">
         <v>938</v>
       </c>
-      <c r="F131" s="43" t="s">
+      <c r="G131" s="43" t="s">
         <v>939</v>
       </c>
-      <c r="G131" s="43" t="s">
+      <c r="H131" s="43" t="s">
         <v>940</v>
-      </c>
-      <c r="H131" s="43" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="37.5" x14ac:dyDescent="0.35">
@@ -11453,22 +12924,266 @@
         <v>650</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D132" s="19" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E132" s="43" t="s">
+        <v>941</v>
+      </c>
+      <c r="F132" s="43" t="s">
         <v>942</v>
       </c>
-      <c r="F132" s="43" t="s">
+      <c r="G132" s="43" t="s">
         <v>943</v>
       </c>
-      <c r="G132" s="43" t="s">
+      <c r="H132" s="43" t="s">
         <v>944</v>
       </c>
-      <c r="H132" s="43" t="s">
-        <v>945</v>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A133" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="B133" s="77" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C133" s="78" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D133" s="78" t="s">
+        <v>16</v>
+      </c>
+      <c r="E133" s="70" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F133" s="70" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G133" s="70"/>
+      <c r="H133" s="70" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A134" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="B134" s="77" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C134" s="78" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D134" s="78" t="s">
+        <v>16</v>
+      </c>
+      <c r="E134" s="70" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F134" s="70" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G134" s="75"/>
+      <c r="H134" s="70" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A135" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="B135" s="79" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C135" s="78" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D135" s="78" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E135" s="80" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F135" s="80" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G135" s="80"/>
+      <c r="H135" s="80" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A136" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="B136" s="79" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C136" s="78" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D136" s="78" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E136" s="80" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F136" s="80" t="s">
+        <v>1090</v>
+      </c>
+      <c r="G136" s="80"/>
+      <c r="H136" s="80" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A137" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="B137" s="79" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C137" s="78" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D137" s="78" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E137" s="80" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F137" s="80" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G137" s="80"/>
+      <c r="H137" s="80" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A138" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="B138" s="79" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C138" s="78" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D138" s="78" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E138" s="80" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F138" s="80" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G138" s="80"/>
+      <c r="H138" s="80" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A139" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="B139" s="79" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C139" s="78" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D139" s="78" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E139" s="80" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F139" s="80" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G139" s="80"/>
+      <c r="H139" s="80" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A140" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="B140" s="79" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C140" s="78" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D140" s="78" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E140" s="80" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F140" s="80" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G140" s="80"/>
+      <c r="H140" s="80" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="25" x14ac:dyDescent="0.35">
+      <c r="A141" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="B141" s="79" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C141" s="78" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D141" s="78" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E141" s="80" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F141" s="80" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G141" s="80" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H141" s="80" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A142" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="B142" s="79" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C142" s="78" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D142" s="78" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E142" s="80" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F142" s="80" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G142" s="80" t="s">
+        <v>1104</v>
+      </c>
+      <c r="H142" s="80" t="s">
+        <v>1105</v>
       </c>
     </row>
   </sheetData>
@@ -11484,24 +13199,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D9A8E34D4601248B4650C3759D604D8" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c234dc030e1d129322a3d56f76335218">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="de0c653c-2bd3-43b1-95fa-012c57f61cfe" xmlns:ns3="848a8810-16a6-4d79-96d3-e3dfb86099b7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a56d1a68c4d05b5a1e5a3c0b3fb5b1a8" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -11723,10 +13420,40 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B4CE896-D144-40A9-85D3-0684E5DFDA36}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19245E31-480A-4933-AB52-6FC5778D0ABF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="de0c653c-2bd3-43b1-95fa-012c57f61cfe"/>
+    <ds:schemaRef ds:uri="848a8810-16a6-4d79-96d3-e3dfb86099b7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11750,21 +13477,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19245E31-480A-4933-AB52-6FC5778D0ABF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B4CE896-D144-40A9-85D3-0684E5DFDA36}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="de0c653c-2bd3-43b1-95fa-012c57f61cfe"/>
-    <ds:schemaRef ds:uri="848a8810-16a6-4d79-96d3-e3dfb86099b7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Deliverables/CT/USDM_CT.xlsx
+++ b/Deliverables/CT/USDM_CT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhlbradtee\Documents\GitHub\DDF-RA\Deliverables\CT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47645CBD-9D7E-46C2-95F4-473F3945FC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC75A355-D485-43E8-87D1-25CC284E3CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="740" windowWidth="18290" windowHeight="9460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="730" yWindow="700" windowWidth="18290" windowHeight="9460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DDF Entities&amp;Attributes" sheetId="4" r:id="rId1"/>
@@ -2487,35 +2487,6 @@
     <t>The textual representation of the study design.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>A knowledge field that focuses on research and development of specific treatments for diseases and pathologic findings, as well as prevention of conditions that negatively impact the health of an individual. (NCI)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>A categorization of a disease, disorder, or other condition based on common characteristics and often associated with a medical specialty focusing on research and development of specific therapeutic interventions for the purpose of treatment and prevention.</t>
-    </r>
-  </si>
-  <si>
     <t>AliasCode</t>
   </si>
   <si>
@@ -2528,10 +2499,6 @@
     <t>standardCode</t>
   </si>
   <si>
-    <t xml:space="preserve">standardCodeAliases
-</t>
-  </si>
-  <si>
     <t>studyDesignDescription</t>
   </si>
   <si>
@@ -2976,10 +2943,6 @@
     <t>Biomedical Concept Synonym</t>
   </si>
   <si>
-    <t xml:space="preserve">A word or an expression that serves as a figurative, symbolic, or exact substitute for a biomedical concept, and which has the same meaning.
-</t>
-  </si>
-  <si>
     <t>Biomedical Concept Reference</t>
   </si>
   <si>
@@ -3313,10 +3276,6 @@
     <t>Schedule Timeline Exit</t>
   </si>
   <si>
-    <t xml:space="preserve">To go out of or leave the schedule timeline.
-</t>
-  </si>
-  <si>
     <t>C80484</t>
   </si>
   <si>
@@ -3438,6 +3397,18 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>A categorization of a disease, disorder, or other condition based on common characteristics and often associated with a medical specialty focusing on research and development of specific therapeutic interventions for the purpose of treatment and prevention.</t>
+  </si>
+  <si>
+    <t>standardCodeAliases</t>
+  </si>
+  <si>
+    <t>A word or an expression that serves as a figurative, symbolic, or exact substitute for a biomedical concept, and which has the same meaning.</t>
+  </si>
+  <si>
+    <t>To go out of or leave the schedule timeline.</t>
   </si>
 </sst>
 </file>
@@ -3834,21 +3805,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3902,6 +3858,21 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4281,14 +4252,14 @@
         <v>641</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -4302,14 +4273,14 @@
         <v>641</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -4323,14 +4294,14 @@
         <v>641</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -4485,17 +4456,17 @@
         <v>94</v>
       </c>
       <c r="D11" s="31" t="s">
+        <v>830</v>
+      </c>
+      <c r="E11" s="52" t="s">
         <v>832</v>
       </c>
-      <c r="E11" s="52" t="s">
-        <v>834</v>
-      </c>
       <c r="F11" s="43" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="G11" s="43"/>
       <c r="H11" s="43" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>93</v>
@@ -4512,17 +4483,17 @@
         <v>94</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E12" s="52" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F12" s="43" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="G12" s="43"/>
       <c r="H12" s="43" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>93</v>
@@ -4818,7 +4789,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -4886,14 +4857,14 @@
         <v>641</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E26" s="48"/>
       <c r="F26" s="48"/>
       <c r="G26" s="48"/>
       <c r="H26" s="48"/>
       <c r="I26" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -5049,7 +5020,7 @@
       <c r="G32" s="28"/>
       <c r="H32" s="28"/>
       <c r="I32" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -5070,7 +5041,7 @@
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
       <c r="I33" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -5091,7 +5062,7 @@
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
       <c r="I34" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -5112,7 +5083,7 @@
       <c r="G35" s="28"/>
       <c r="H35" s="28"/>
       <c r="I35" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -5133,7 +5104,7 @@
       <c r="G36" s="28"/>
       <c r="H36" s="28"/>
       <c r="I36" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -5154,7 +5125,7 @@
       <c r="G37" s="28"/>
       <c r="H37" s="28"/>
       <c r="I37" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -5175,7 +5146,7 @@
       <c r="G38" s="28"/>
       <c r="H38" s="28"/>
       <c r="I38" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -5196,7 +5167,7 @@
       <c r="G39" s="28"/>
       <c r="H39" s="28"/>
       <c r="I39" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -5210,14 +5181,14 @@
         <v>641</v>
       </c>
       <c r="D40" s="47" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="E40" s="29"/>
       <c r="F40" s="4"/>
       <c r="G40" s="28"/>
       <c r="H40" s="28"/>
       <c r="I40" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -5231,14 +5202,14 @@
         <v>641</v>
       </c>
       <c r="D41" s="47" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="E41" s="29"/>
       <c r="F41" s="4"/>
       <c r="G41" s="28"/>
       <c r="H41" s="28"/>
       <c r="I41" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
@@ -5252,35 +5223,35 @@
         <v>641</v>
       </c>
       <c r="D42" s="47" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="E42" s="29"/>
       <c r="F42" s="4"/>
       <c r="G42" s="28"/>
       <c r="H42" s="28"/>
       <c r="I42" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="33">
         <v>43</v>
       </c>
-      <c r="B43" s="60" t="s">
+      <c r="B43" s="55" t="s">
         <v>646</v>
       </c>
-      <c r="C43" s="60" t="s">
+      <c r="C43" s="55" t="s">
         <v>641</v>
       </c>
-      <c r="D43" s="61" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E43" s="62"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="64"/>
+      <c r="D43" s="56" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E43" s="57"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
       <c r="I43" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
@@ -5368,7 +5339,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="45" customFormat="1" ht="112.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" s="45" customFormat="1" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A47" s="33">
         <v>47</v>
       </c>
@@ -5390,8 +5361,8 @@
       <c r="G47" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="H47" s="1" t="s">
-        <v>804</v>
+      <c r="H47" s="55" t="s">
+        <v>1108</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>791</v>
@@ -5435,7 +5406,7 @@
         <v>94</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E49" s="43" t="s">
         <v>16</v>
@@ -5462,17 +5433,17 @@
         <v>94</v>
       </c>
       <c r="D50" s="31" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E50" s="52" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F50" s="43" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="G50" s="43"/>
       <c r="H50" s="43" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>93</v>
@@ -5489,22 +5460,22 @@
         <v>94</v>
       </c>
       <c r="D51" s="31" t="s">
+        <v>893</v>
+      </c>
+      <c r="E51" s="43" t="s">
+        <v>894</v>
+      </c>
+      <c r="F51" s="43" t="s">
         <v>895</v>
       </c>
-      <c r="E51" s="43" t="s">
+      <c r="G51" s="43" t="s">
         <v>896</v>
       </c>
-      <c r="F51" s="43" t="s">
+      <c r="H51" s="43" t="s">
         <v>897</v>
       </c>
-      <c r="G51" s="43" t="s">
-        <v>898</v>
-      </c>
-      <c r="H51" s="43" t="s">
-        <v>899</v>
-      </c>
       <c r="I51" s="43" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="75" x14ac:dyDescent="0.35">
@@ -5528,7 +5499,7 @@
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="43" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>93</v>
@@ -5572,7 +5543,7 @@
         <v>94</v>
       </c>
       <c r="D54" s="31" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>100</v>
@@ -5653,7 +5624,7 @@
         <v>94</v>
       </c>
       <c r="D57" s="31" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>32</v>
@@ -5707,7 +5678,7 @@
         <v>94</v>
       </c>
       <c r="D59" s="31" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>729</v>
@@ -5734,17 +5705,17 @@
         <v>94</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="E60" s="52" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F60" s="43" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="G60" s="43"/>
       <c r="H60" s="43" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="I60" s="43" t="s">
         <v>93</v>
@@ -5761,17 +5732,17 @@
         <v>94</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E61" s="52" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F61" s="43" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="G61" s="43"/>
       <c r="H61" s="43" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="I61" s="43" t="s">
         <v>93</v>
@@ -5788,17 +5759,17 @@
         <v>94</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E62" s="52" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="F62" s="43" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="G62" s="43"/>
       <c r="H62" s="43" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="I62" s="43" t="s">
         <v>93</v>
@@ -5815,20 +5786,20 @@
         <v>94</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E63" s="52" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="F63" s="43" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="G63" s="43"/>
       <c r="H63" s="43" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="I63" s="43" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
@@ -5876,7 +5847,7 @@
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="I65" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
@@ -5890,7 +5861,7 @@
         <v>94</v>
       </c>
       <c r="D66" s="31" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>122</v>
@@ -5954,7 +5925,7 @@
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="43" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>93</v>
@@ -5971,7 +5942,7 @@
         <v>94</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>730</v>
@@ -5998,7 +5969,7 @@
         <v>94</v>
       </c>
       <c r="D70" s="31" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>731</v>
@@ -6086,7 +6057,7 @@
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="I73" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
@@ -6107,7 +6078,7 @@
       <c r="G74" s="4"/>
       <c r="H74" s="3"/>
       <c r="I74" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
@@ -6128,7 +6099,7 @@
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="50" x14ac:dyDescent="0.35">
@@ -6196,7 +6167,7 @@
         <v>94</v>
       </c>
       <c r="D78" s="31" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>137</v>
@@ -6250,7 +6221,7 @@
         <v>94</v>
       </c>
       <c r="D80" s="31" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>735</v>
@@ -6338,7 +6309,7 @@
       <c r="G83" s="4"/>
       <c r="H83" s="3"/>
       <c r="I83" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="50" x14ac:dyDescent="0.35">
@@ -6379,7 +6350,7 @@
         <v>94</v>
       </c>
       <c r="D85" s="31" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>737</v>
@@ -6521,7 +6492,7 @@
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
       <c r="I90" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
@@ -6542,7 +6513,7 @@
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
       <c r="I91" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -6583,7 +6554,7 @@
         <v>94</v>
       </c>
       <c r="D93" s="31" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>742</v>
@@ -6637,7 +6608,7 @@
         <v>94</v>
       </c>
       <c r="D95" s="31" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>743</v>
@@ -6698,7 +6669,7 @@
       <c r="G97" s="4"/>
       <c r="H97" s="3"/>
       <c r="I97" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
@@ -6719,7 +6690,7 @@
       <c r="G98" s="4"/>
       <c r="H98" s="3"/>
       <c r="I98" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
@@ -6732,15 +6703,15 @@
       <c r="C99" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="D99" s="68" t="s">
-        <v>1018</v>
+      <c r="D99" s="63" t="s">
+        <v>1015</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
       <c r="H99" s="3"/>
       <c r="I99" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -6781,7 +6752,7 @@
         <v>94</v>
       </c>
       <c r="D101" s="31" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>744</v>
@@ -6916,7 +6887,7 @@
         <v>94</v>
       </c>
       <c r="D106" s="31" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>749</v>
@@ -6977,7 +6948,7 @@
       <c r="G108" s="4"/>
       <c r="H108" s="3"/>
       <c r="I108" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
@@ -6998,7 +6969,7 @@
       <c r="G109" s="4"/>
       <c r="H109" s="3"/>
       <c r="I109" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
@@ -7012,14 +6983,14 @@
         <v>641</v>
       </c>
       <c r="D110" s="47" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
       <c r="H110" s="3"/>
       <c r="I110" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
@@ -7033,14 +7004,14 @@
         <v>641</v>
       </c>
       <c r="D111" s="47" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
       <c r="H111" s="3"/>
       <c r="I111" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
@@ -7054,14 +7025,14 @@
         <v>641</v>
       </c>
       <c r="D112" s="47" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
       <c r="H112" s="3"/>
       <c r="I112" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
@@ -7075,14 +7046,14 @@
         <v>641</v>
       </c>
       <c r="D113" s="47" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
       <c r="H113" s="3"/>
       <c r="I113" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
@@ -7096,35 +7067,35 @@
         <v>641</v>
       </c>
       <c r="D114" s="47" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
       <c r="H114" s="3"/>
       <c r="I114" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="33">
         <v>115</v>
       </c>
-      <c r="B115" s="63" t="s">
+      <c r="B115" s="58" t="s">
         <v>658</v>
       </c>
-      <c r="C115" s="60" t="s">
+      <c r="C115" s="55" t="s">
         <v>641</v>
       </c>
-      <c r="D115" s="61" t="s">
-        <v>1017</v>
-      </c>
-      <c r="E115" s="60"/>
-      <c r="F115" s="63"/>
-      <c r="G115" s="63"/>
-      <c r="H115" s="65"/>
+      <c r="D115" s="56" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E115" s="55"/>
+      <c r="F115" s="58"/>
+      <c r="G115" s="58"/>
+      <c r="H115" s="60"/>
       <c r="I115" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -7165,7 +7136,7 @@
         <v>94</v>
       </c>
       <c r="D117" s="31" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>551</v>
@@ -7192,17 +7163,17 @@
         <v>94</v>
       </c>
       <c r="D118" s="31" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="E118" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F118" s="43" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="G118" s="43"/>
       <c r="H118" s="43" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="I118" s="43" t="s">
         <v>93</v>
@@ -7219,17 +7190,17 @@
         <v>94</v>
       </c>
       <c r="D119" s="31" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E119" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F119" s="43" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="G119" s="43"/>
       <c r="H119" s="43" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I119" s="43" t="s">
         <v>93</v>
@@ -7300,7 +7271,7 @@
         <v>94</v>
       </c>
       <c r="D122" s="31" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>753</v>
@@ -7435,17 +7406,17 @@
         <v>94</v>
       </c>
       <c r="D127" s="31" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="E127" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F127" s="43" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="G127" s="43"/>
       <c r="H127" s="43" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="I127" s="43" t="s">
         <v>93</v>
@@ -7462,17 +7433,17 @@
         <v>94</v>
       </c>
       <c r="D128" s="31" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E128" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F128" s="43" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="G128" s="43"/>
       <c r="H128" s="43" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="I128" s="43" t="s">
         <v>93</v>
@@ -7523,7 +7494,7 @@
       <c r="G130" s="4"/>
       <c r="H130" s="4"/>
       <c r="I130" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.35">
@@ -7537,7 +7508,7 @@
         <v>94</v>
       </c>
       <c r="D131" s="31" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E131" s="4" t="s">
         <v>756</v>
@@ -7591,14 +7562,14 @@
         <v>641</v>
       </c>
       <c r="D133" s="42" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
       <c r="G133" s="4"/>
       <c r="H133" s="4"/>
       <c r="I133" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.35">
@@ -7612,14 +7583,14 @@
         <v>641</v>
       </c>
       <c r="D134" s="42" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
       <c r="G134" s="4"/>
       <c r="H134" s="4"/>
       <c r="I134" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.35">
@@ -7633,7 +7604,7 @@
         <v>94</v>
       </c>
       <c r="D135" s="30" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E135" s="4" t="s">
         <v>757</v>
@@ -7748,7 +7719,7 @@
       <c r="G139" s="4"/>
       <c r="H139" s="4"/>
       <c r="I139" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.35">
@@ -7769,7 +7740,7 @@
       <c r="G140" s="4"/>
       <c r="H140" s="4"/>
       <c r="I140" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.35">
@@ -7790,7 +7761,7 @@
       <c r="G141" s="4"/>
       <c r="H141" s="4"/>
       <c r="I141" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.35">
@@ -7811,7 +7782,7 @@
       <c r="G142" s="4"/>
       <c r="H142" s="4"/>
       <c r="I142" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -7879,7 +7850,7 @@
         <v>94</v>
       </c>
       <c r="D145" s="31" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>762</v>
@@ -7960,7 +7931,7 @@
         <v>94</v>
       </c>
       <c r="D148" s="31" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>765</v>
@@ -8143,23 +8114,23 @@
         <v>155</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D155" s="41" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E155" s="33" t="s">
         <v>16</v>
       </c>
       <c r="F155" s="33" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G155" s="33"/>
       <c r="H155" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I155" s="33" t="s">
         <v>93</v>
@@ -8170,41 +8141,41 @@
         <v>156</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C156" s="33" t="s">
         <v>641</v>
       </c>
       <c r="D156" s="47" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E156" s="33"/>
       <c r="F156" s="33"/>
       <c r="G156" s="33"/>
       <c r="H156" s="33"/>
       <c r="I156" s="1" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" s="33">
         <v>157</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C157" s="33" t="s">
         <v>641</v>
       </c>
       <c r="D157" s="47" t="s">
-        <v>809</v>
+        <v>1109</v>
       </c>
       <c r="E157" s="33"/>
       <c r="F157" s="33"/>
       <c r="G157" s="33"/>
       <c r="H157" s="33"/>
       <c r="I157" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="158" spans="1:9" s="49" customFormat="1" ht="25" x14ac:dyDescent="0.35">
@@ -8212,23 +8183,23 @@
         <v>158</v>
       </c>
       <c r="B158" s="33" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D158" s="59" t="s">
-        <v>841</v>
+      <c r="D158" s="54" t="s">
+        <v>839</v>
       </c>
       <c r="E158" s="52" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="F158" s="43" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="G158" s="43"/>
       <c r="H158" s="43" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="I158" s="33" t="s">
         <v>93</v>
@@ -8239,23 +8210,23 @@
         <v>159</v>
       </c>
       <c r="B159" s="33" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C159" s="53" t="s">
         <v>94</v>
       </c>
       <c r="D159" s="30" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E159" s="52" t="s">
         <v>16</v>
       </c>
       <c r="F159" s="43" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="G159" s="43"/>
       <c r="H159" s="43" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="I159" s="33" t="s">
         <v>93</v>
@@ -8266,23 +8237,23 @@
         <v>160</v>
       </c>
       <c r="B160" s="33" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C160" s="53" t="s">
         <v>94</v>
       </c>
       <c r="D160" s="30" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E160" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F160" s="43" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="G160" s="43"/>
       <c r="H160" s="43" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="I160" s="33" t="s">
         <v>93</v>
@@ -8293,23 +8264,23 @@
         <v>161</v>
       </c>
       <c r="B161" s="33" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C161" s="53" t="s">
         <v>94</v>
       </c>
       <c r="D161" s="30" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E161" s="52" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F161" s="43" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="G161" s="43"/>
       <c r="H161" s="43" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="I161" s="33" t="s">
         <v>93</v>
@@ -8320,23 +8291,23 @@
         <v>162</v>
       </c>
       <c r="B162" s="33" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C162" s="53" t="s">
         <v>94</v>
       </c>
       <c r="D162" s="30" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E162" s="52" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="F162" s="43" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G162" s="43"/>
       <c r="H162" s="43" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="I162" s="33" t="s">
         <v>93</v>
@@ -8347,23 +8318,23 @@
         <v>163</v>
       </c>
       <c r="B163" s="33" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C163" s="53" t="s">
         <v>94</v>
       </c>
       <c r="D163" s="30" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E163" s="52" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="F163" s="43" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="G163" s="43"/>
       <c r="H163" s="43" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="I163" s="33" t="s">
         <v>93</v>
@@ -8374,23 +8345,23 @@
         <v>164</v>
       </c>
       <c r="B164" s="33" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C164" s="53" t="s">
         <v>94</v>
       </c>
       <c r="D164" s="30" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E164" s="52" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="F164" s="43" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="G164" s="43"/>
       <c r="H164" s="43" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="I164" s="33" t="s">
         <v>93</v>
@@ -8401,26 +8372,26 @@
         <v>165</v>
       </c>
       <c r="B165" s="33" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C165" s="53" t="s">
         <v>94</v>
       </c>
       <c r="D165" s="30" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E165" s="52" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F165" s="43" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G165" s="43"/>
       <c r="H165" s="43" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="62.5" x14ac:dyDescent="0.35">
@@ -8428,23 +8399,23 @@
         <v>166</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D166" s="41" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E166" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F166" s="43" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="G166" s="43"/>
       <c r="H166" s="43" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="I166" s="43" t="s">
         <v>93</v>
@@ -8455,20 +8426,20 @@
         <v>167</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C167" s="33" t="s">
         <v>641</v>
       </c>
       <c r="D167" s="47" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E167" s="33"/>
       <c r="F167" s="33"/>
       <c r="G167" s="33"/>
       <c r="H167" s="33"/>
       <c r="I167" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -8476,50 +8447,50 @@
         <v>168</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C168" s="33" t="s">
         <v>94</v>
       </c>
       <c r="D168" s="30" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="E168" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F168" s="43" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="G168" s="43"/>
       <c r="H168" s="43" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="I168" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A169" s="33">
         <v>169</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C169" s="33" t="s">
         <v>94</v>
       </c>
       <c r="D169" s="30" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="E169" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F169" s="43" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="G169" s="43"/>
       <c r="H169" s="43" t="s">
-        <v>958</v>
+        <v>1110</v>
       </c>
       <c r="I169" s="43" t="s">
         <v>93</v>
@@ -8530,23 +8501,23 @@
         <v>170</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C170" s="33" t="s">
         <v>94</v>
       </c>
       <c r="D170" s="30" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="E170" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F170" s="43" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="G170" s="43"/>
       <c r="H170" s="43" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="I170" s="43" t="s">
         <v>93</v>
@@ -8557,23 +8528,23 @@
         <v>171</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C171" s="33" t="s">
         <v>94</v>
       </c>
       <c r="D171" s="30" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="E171" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F171" s="43" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="G171" s="43"/>
       <c r="H171" s="43" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="I171" s="43" t="s">
         <v>93</v>
@@ -8584,23 +8555,23 @@
         <v>172</v>
       </c>
       <c r="B172" s="33" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D172" s="41" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="E172" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F172" s="43" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G172" s="43"/>
       <c r="H172" s="43" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="I172" s="43" t="s">
         <v>93</v>
@@ -8611,20 +8582,20 @@
         <v>173</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="C173" s="33" t="s">
         <v>641</v>
       </c>
       <c r="D173" s="47" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="E173" s="33"/>
       <c r="F173" s="33"/>
       <c r="G173" s="33"/>
       <c r="H173" s="33"/>
       <c r="I173" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -8632,23 +8603,23 @@
         <v>174</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="C174" s="33" t="s">
         <v>94</v>
       </c>
       <c r="D174" s="30" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="E174" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F174" s="43" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="G174" s="43"/>
       <c r="H174" s="43" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="I174" s="43" t="s">
         <v>93</v>
@@ -8659,23 +8630,23 @@
         <v>175</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="C175" s="33" t="s">
         <v>94</v>
       </c>
       <c r="D175" s="30" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="E175" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F175" s="43" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="G175" s="43"/>
       <c r="H175" s="43" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="I175" s="43" t="s">
         <v>93</v>
@@ -8686,23 +8657,23 @@
         <v>176</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="C176" s="33" t="s">
         <v>94</v>
       </c>
       <c r="D176" s="30" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="E176" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F176" s="43" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="G176" s="43"/>
       <c r="H176" s="43" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="I176" s="43" t="s">
         <v>93</v>
@@ -8713,23 +8684,23 @@
         <v>177</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="C177" s="33" t="s">
         <v>94</v>
       </c>
       <c r="D177" s="30" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="E177" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F177" s="43" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="G177" s="43"/>
       <c r="H177" s="43" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="I177" s="43" t="s">
         <v>93</v>
@@ -8740,23 +8711,23 @@
         <v>178</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="C178" s="33" t="s">
         <v>94</v>
       </c>
       <c r="D178" s="30" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="E178" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F178" s="43" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="G178" s="43"/>
       <c r="H178" s="43" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="I178" s="43" t="s">
         <v>93</v>
@@ -8767,23 +8738,23 @@
         <v>179</v>
       </c>
       <c r="B179" s="33" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D179" s="41" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="E179" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F179" s="43" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="G179" s="43"/>
       <c r="H179" s="43" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="I179" s="43" t="s">
         <v>93</v>
@@ -8794,23 +8765,23 @@
         <v>180</v>
       </c>
       <c r="B180" s="33" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="C180" s="33" t="s">
         <v>94</v>
       </c>
       <c r="D180" s="30" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="E180" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F180" s="43" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="G180" s="43"/>
       <c r="H180" s="43" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="I180" s="43" t="s">
         <v>93</v>
@@ -8821,7 +8792,7 @@
         <v>181</v>
       </c>
       <c r="B181" s="33" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="C181" s="33" t="s">
         <v>94</v>
@@ -8848,13 +8819,13 @@
         <v>182</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D182" s="41" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="E182" s="43"/>
       <c r="F182" s="43"/>
@@ -8869,23 +8840,23 @@
         <v>183</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="C183" s="33" t="s">
         <v>94</v>
       </c>
       <c r="D183" s="30" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="E183" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F183" s="43" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="G183" s="43"/>
       <c r="H183" s="43" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="I183" s="43" t="s">
         <v>93</v>
@@ -8896,23 +8867,23 @@
         <v>184</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="C184" s="33" t="s">
         <v>94</v>
       </c>
       <c r="D184" s="30" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="E184" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F184" s="43" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="G184" s="43"/>
       <c r="H184" s="43" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="I184" s="43" t="s">
         <v>93</v>
@@ -8923,23 +8894,23 @@
         <v>185</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="C185" s="33" t="s">
         <v>94</v>
       </c>
       <c r="D185" s="30" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="E185" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F185" s="43" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="G185" s="43"/>
       <c r="H185" s="43" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="I185" s="43" t="s">
         <v>93</v>
@@ -8950,23 +8921,23 @@
         <v>186</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D186" s="41" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="E186" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F186" s="43" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="G186" s="43"/>
       <c r="H186" s="43" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="I186" s="43" t="s">
         <v>93</v>
@@ -8977,20 +8948,20 @@
         <v>187</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="C187" s="33" t="s">
         <v>641</v>
       </c>
       <c r="D187" s="47" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="E187" s="33"/>
       <c r="F187" s="33"/>
       <c r="G187" s="33"/>
       <c r="H187" s="33"/>
       <c r="I187" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -8998,20 +8969,20 @@
         <v>188</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="C188" s="33" t="s">
         <v>641</v>
       </c>
       <c r="D188" s="47" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="E188" s="33"/>
       <c r="F188" s="33"/>
       <c r="G188" s="33"/>
       <c r="H188" s="33"/>
       <c r="I188" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -9019,20 +8990,20 @@
         <v>189</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="C189" s="33" t="s">
         <v>641</v>
       </c>
       <c r="D189" s="47" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="E189" s="33"/>
       <c r="F189" s="33"/>
       <c r="G189" s="33"/>
       <c r="H189" s="33"/>
       <c r="I189" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -9040,23 +9011,23 @@
         <v>190</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="C190" s="33" t="s">
         <v>94</v>
       </c>
       <c r="D190" s="30" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="E190" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F190" s="43" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="G190" s="43"/>
       <c r="H190" s="43" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="I190" s="43" t="s">
         <v>93</v>
@@ -9067,23 +9038,23 @@
         <v>191</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="C191" s="33" t="s">
         <v>94</v>
       </c>
       <c r="D191" s="30" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="E191" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F191" s="43" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="G191" s="43"/>
       <c r="H191" s="43" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="I191" s="43" t="s">
         <v>93</v>
@@ -9093,26 +9064,26 @@
       <c r="A192" s="33">
         <v>192</v>
       </c>
-      <c r="B192" s="60" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C192" s="63" t="s">
+      <c r="B192" s="55" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C192" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D192" s="59" t="s">
-        <v>1020</v>
-      </c>
-      <c r="E192" s="66" t="s">
+      <c r="D192" s="54" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E192" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="F192" s="60" t="s">
-        <v>1045</v>
-      </c>
-      <c r="G192" s="67"/>
-      <c r="H192" s="66" t="s">
-        <v>1046</v>
-      </c>
-      <c r="I192" s="66" t="s">
+      <c r="F192" s="55" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G192" s="62"/>
+      <c r="H192" s="61" t="s">
+        <v>1043</v>
+      </c>
+      <c r="I192" s="61" t="s">
         <v>93</v>
       </c>
     </row>
@@ -9120,47 +9091,47 @@
       <c r="A193" s="33">
         <v>193</v>
       </c>
-      <c r="B193" s="60" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C193" s="63" t="s">
+      <c r="B193" s="55" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C193" s="58" t="s">
         <v>641</v>
       </c>
-      <c r="D193" s="68" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E193" s="66"/>
-      <c r="F193" s="60"/>
-      <c r="G193" s="67"/>
-      <c r="H193" s="66"/>
+      <c r="D193" s="63" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E193" s="61"/>
+      <c r="F193" s="55"/>
+      <c r="G193" s="62"/>
+      <c r="H193" s="61"/>
       <c r="I193" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A194" s="33">
         <v>194</v>
       </c>
-      <c r="B194" s="60" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C194" s="63" t="s">
+      <c r="B194" s="55" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C194" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D194" s="59" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E194" s="66" t="s">
+      <c r="D194" s="54" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E194" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="F194" s="60" t="s">
-        <v>1047</v>
-      </c>
-      <c r="G194" s="67"/>
-      <c r="H194" s="66" t="s">
-        <v>1048</v>
-      </c>
-      <c r="I194" s="66" t="s">
+      <c r="F194" s="55" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G194" s="62"/>
+      <c r="H194" s="61" t="s">
+        <v>1045</v>
+      </c>
+      <c r="I194" s="61" t="s">
         <v>93</v>
       </c>
     </row>
@@ -9168,26 +9139,26 @@
       <c r="A195" s="33">
         <v>195</v>
       </c>
-      <c r="B195" s="66" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C195" s="63" t="s">
+      <c r="B195" s="61" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C195" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D195" s="69" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E195" s="66" t="s">
+      <c r="D195" s="64" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E195" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="F195" s="60" t="s">
-        <v>1049</v>
-      </c>
-      <c r="G195" s="67"/>
-      <c r="H195" s="66" t="s">
-        <v>1050</v>
-      </c>
-      <c r="I195" s="66" t="s">
+      <c r="F195" s="55" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G195" s="62"/>
+      <c r="H195" s="61" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I195" s="61" t="s">
         <v>93</v>
       </c>
     </row>
@@ -9195,26 +9166,26 @@
       <c r="A196" s="33">
         <v>196</v>
       </c>
-      <c r="B196" s="66" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C196" s="65" t="s">
+      <c r="B196" s="61" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C196" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="D196" s="70" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E196" s="66" t="s">
+      <c r="D196" s="65" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E196" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="F196" s="60" t="s">
-        <v>1051</v>
-      </c>
-      <c r="G196" s="67"/>
-      <c r="H196" s="66" t="s">
-        <v>1052</v>
-      </c>
-      <c r="I196" s="66" t="s">
+      <c r="F196" s="55" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G196" s="62"/>
+      <c r="H196" s="61" t="s">
+        <v>1049</v>
+      </c>
+      <c r="I196" s="61" t="s">
         <v>93</v>
       </c>
     </row>
@@ -9222,137 +9193,137 @@
       <c r="A197" s="33">
         <v>197</v>
       </c>
-      <c r="B197" s="66" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C197" s="65" t="s">
+      <c r="B197" s="61" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C197" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="D197" s="70" t="s">
-        <v>1028</v>
-      </c>
-      <c r="E197" s="66" t="s">
+      <c r="D197" s="65" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E197" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="F197" s="60" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G197" s="67"/>
-      <c r="H197" s="66" t="s">
-        <v>1054</v>
-      </c>
-      <c r="I197" s="66" t="s">
-        <v>1083</v>
+      <c r="F197" s="55" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G197" s="62"/>
+      <c r="H197" s="61" t="s">
+        <v>1051</v>
+      </c>
+      <c r="I197" s="61" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A198" s="33">
         <v>198</v>
       </c>
-      <c r="B198" s="66" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C198" s="63" t="s">
+      <c r="B198" s="61" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C198" s="58" t="s">
         <v>641</v>
       </c>
-      <c r="D198" s="61" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E198" s="66"/>
-      <c r="F198" s="67"/>
-      <c r="G198" s="67"/>
-      <c r="H198" s="67"/>
+      <c r="D198" s="56" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E198" s="61"/>
+      <c r="F198" s="62"/>
+      <c r="G198" s="62"/>
+      <c r="H198" s="62"/>
       <c r="I198" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A199" s="33">
         <v>199</v>
       </c>
-      <c r="B199" s="66" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C199" s="63" t="s">
+      <c r="B199" s="61" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C199" s="58" t="s">
         <v>641</v>
       </c>
-      <c r="D199" s="61" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E199" s="66"/>
-      <c r="F199" s="67"/>
-      <c r="G199" s="67"/>
-      <c r="H199" s="67"/>
+      <c r="D199" s="56" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E199" s="61"/>
+      <c r="F199" s="62"/>
+      <c r="G199" s="62"/>
+      <c r="H199" s="62"/>
       <c r="I199" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A200" s="33">
         <v>200</v>
       </c>
-      <c r="B200" s="66" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C200" s="63" t="s">
+      <c r="B200" s="61" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C200" s="58" t="s">
         <v>641</v>
       </c>
-      <c r="D200" s="61" t="s">
-        <v>1031</v>
-      </c>
-      <c r="E200" s="66"/>
-      <c r="F200" s="67"/>
-      <c r="G200" s="66"/>
-      <c r="H200" s="66"/>
+      <c r="D200" s="56" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E200" s="61"/>
+      <c r="F200" s="62"/>
+      <c r="G200" s="61"/>
+      <c r="H200" s="61"/>
       <c r="I200" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="201" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A201" s="33">
         <v>201</v>
       </c>
-      <c r="B201" s="66" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C201" s="63" t="s">
+      <c r="B201" s="61" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C201" s="58" t="s">
         <v>641</v>
       </c>
-      <c r="D201" s="61" t="s">
-        <v>1032</v>
-      </c>
-      <c r="E201" s="66"/>
-      <c r="F201" s="67"/>
-      <c r="G201" s="67"/>
-      <c r="H201" s="67"/>
+      <c r="D201" s="56" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E201" s="61"/>
+      <c r="F201" s="62"/>
+      <c r="G201" s="62"/>
+      <c r="H201" s="62"/>
       <c r="I201" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="202" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A202" s="33">
         <v>202</v>
       </c>
-      <c r="B202" s="60" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C202" s="63" t="s">
+      <c r="B202" s="55" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C202" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D202" s="59" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E202" s="66" t="s">
+      <c r="D202" s="54" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E202" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="F202" s="66" t="s">
-        <v>1061</v>
-      </c>
-      <c r="G202" s="67"/>
-      <c r="H202" s="66" t="s">
-        <v>1062</v>
-      </c>
-      <c r="I202" s="66" t="s">
+      <c r="F202" s="61" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G202" s="62"/>
+      <c r="H202" s="61" t="s">
+        <v>1059</v>
+      </c>
+      <c r="I202" s="61" t="s">
         <v>93</v>
       </c>
     </row>
@@ -9360,26 +9331,26 @@
       <c r="A203" s="33">
         <v>203</v>
       </c>
-      <c r="B203" s="60" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C203" s="65" t="s">
+      <c r="B203" s="55" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C203" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="D203" s="71" t="s">
-        <v>1033</v>
-      </c>
-      <c r="E203" s="66" t="s">
+      <c r="D203" s="66" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E203" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="F203" s="60" t="s">
-        <v>1063</v>
-      </c>
-      <c r="G203" s="67"/>
-      <c r="H203" s="66" t="s">
-        <v>1064</v>
-      </c>
-      <c r="I203" s="66" t="s">
+      <c r="F203" s="55" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G203" s="62"/>
+      <c r="H203" s="61" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I203" s="61" t="s">
         <v>93</v>
       </c>
     </row>
@@ -9387,26 +9358,26 @@
       <c r="A204" s="33">
         <v>204</v>
       </c>
-      <c r="B204" s="60" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C204" s="65" t="s">
+      <c r="B204" s="55" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C204" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="D204" s="71" t="s">
-        <v>1034</v>
-      </c>
-      <c r="E204" s="66" t="s">
+      <c r="D204" s="66" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E204" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="F204" s="60" t="s">
-        <v>1065</v>
-      </c>
-      <c r="G204" s="67"/>
-      <c r="H204" s="66" t="s">
-        <v>1066</v>
-      </c>
-      <c r="I204" s="66" t="s">
+      <c r="F204" s="55" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G204" s="62"/>
+      <c r="H204" s="61" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I204" s="61" t="s">
         <v>93</v>
       </c>
     </row>
@@ -9414,26 +9385,26 @@
       <c r="A205" s="33">
         <v>205</v>
       </c>
-      <c r="B205" s="60" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C205" s="65" t="s">
+      <c r="B205" s="55" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C205" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="D205" s="71" t="s">
-        <v>1035</v>
-      </c>
-      <c r="E205" s="66" t="s">
+      <c r="D205" s="66" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E205" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="F205" s="60" t="s">
-        <v>1067</v>
-      </c>
-      <c r="G205" s="67"/>
-      <c r="H205" s="66" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I205" s="66" t="s">
+      <c r="F205" s="55" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G205" s="62"/>
+      <c r="H205" s="61" t="s">
+        <v>1065</v>
+      </c>
+      <c r="I205" s="61" t="s">
         <v>93</v>
       </c>
     </row>
@@ -9441,89 +9412,89 @@
       <c r="A206" s="33">
         <v>206</v>
       </c>
-      <c r="B206" s="60" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C206" s="63" t="s">
+      <c r="B206" s="55" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C206" s="58" t="s">
         <v>641</v>
       </c>
-      <c r="D206" s="68" t="s">
-        <v>1036</v>
-      </c>
-      <c r="E206" s="66"/>
-      <c r="F206" s="60"/>
-      <c r="G206" s="67"/>
-      <c r="H206" s="66"/>
+      <c r="D206" s="63" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E206" s="61"/>
+      <c r="F206" s="55"/>
+      <c r="G206" s="62"/>
+      <c r="H206" s="61"/>
       <c r="I206" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A207" s="33">
         <v>207</v>
       </c>
-      <c r="B207" s="60" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C207" s="63" t="s">
+      <c r="B207" s="55" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C207" s="58" t="s">
         <v>641</v>
       </c>
-      <c r="D207" s="68" t="s">
-        <v>1037</v>
-      </c>
-      <c r="E207" s="66"/>
-      <c r="F207" s="67"/>
-      <c r="G207" s="67"/>
-      <c r="H207" s="67"/>
+      <c r="D207" s="63" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E207" s="61"/>
+      <c r="F207" s="62"/>
+      <c r="G207" s="62"/>
+      <c r="H207" s="62"/>
       <c r="I207" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A208" s="33">
         <v>208</v>
       </c>
-      <c r="B208" s="60" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C208" s="63" t="s">
+      <c r="B208" s="55" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C208" s="58" t="s">
         <v>641</v>
       </c>
-      <c r="D208" s="68" t="s">
-        <v>1038</v>
-      </c>
-      <c r="E208" s="66"/>
-      <c r="F208" s="67"/>
-      <c r="G208" s="67"/>
-      <c r="H208" s="67"/>
+      <c r="D208" s="63" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E208" s="61"/>
+      <c r="F208" s="62"/>
+      <c r="G208" s="62"/>
+      <c r="H208" s="62"/>
       <c r="I208" s="1" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A209" s="33">
         <v>209</v>
       </c>
-      <c r="B209" s="60" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C209" s="63" t="s">
+      <c r="B209" s="55" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C209" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D209" s="59" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E209" s="66" t="s">
+      <c r="D209" s="54" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E209" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="F209" s="60" t="s">
-        <v>1069</v>
-      </c>
-      <c r="G209" s="67"/>
-      <c r="H209" s="66" t="s">
-        <v>1070</v>
-      </c>
-      <c r="I209" s="66" t="s">
+      <c r="F209" s="55" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G209" s="62"/>
+      <c r="H209" s="61" t="s">
+        <v>1111</v>
+      </c>
+      <c r="I209" s="61" t="s">
         <v>93</v>
       </c>
     </row>
@@ -9531,26 +9502,26 @@
       <c r="A210" s="33">
         <v>210</v>
       </c>
-      <c r="B210" s="60" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C210" s="63" t="s">
+      <c r="B210" s="55" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C210" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D210" s="59" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E210" s="66" t="s">
-        <v>1071</v>
-      </c>
-      <c r="F210" s="66" t="s">
-        <v>1025</v>
-      </c>
-      <c r="G210" s="67"/>
-      <c r="H210" s="66" t="s">
-        <v>1072</v>
-      </c>
-      <c r="I210" s="66" t="s">
+      <c r="D210" s="54" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E210" s="61" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F210" s="61" t="s">
+        <v>1022</v>
+      </c>
+      <c r="G210" s="62"/>
+      <c r="H210" s="61" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I210" s="61" t="s">
         <v>93</v>
       </c>
     </row>
@@ -9558,53 +9529,53 @@
       <c r="A211" s="33">
         <v>211</v>
       </c>
-      <c r="B211" s="60" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C211" s="65" t="s">
+      <c r="B211" s="55" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C211" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="D211" s="71" t="s">
-        <v>1039</v>
-      </c>
-      <c r="E211" s="66" t="s">
+      <c r="D211" s="66" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E211" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="F211" s="60" t="s">
-        <v>1073</v>
-      </c>
-      <c r="G211" s="67"/>
-      <c r="H211" s="66" t="s">
-        <v>1074</v>
-      </c>
-      <c r="I211" s="66" t="s">
-        <v>1082</v>
+      <c r="F211" s="55" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G211" s="62"/>
+      <c r="H211" s="61" t="s">
+        <v>1070</v>
+      </c>
+      <c r="I211" s="61" t="s">
+        <v>1078</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A212" s="33">
         <v>212</v>
       </c>
-      <c r="B212" s="60" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C212" s="65" t="s">
+      <c r="B212" s="55" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C212" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="D212" s="71" t="s">
-        <v>1040</v>
-      </c>
-      <c r="E212" s="66" t="s">
+      <c r="D212" s="66" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E212" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="F212" s="60" t="s">
-        <v>1075</v>
-      </c>
-      <c r="G212" s="67"/>
-      <c r="H212" s="66" t="s">
-        <v>1076</v>
-      </c>
-      <c r="I212" s="66" t="s">
+      <c r="F212" s="55" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G212" s="62"/>
+      <c r="H212" s="61" t="s">
+        <v>1072</v>
+      </c>
+      <c r="I212" s="61" t="s">
         <v>93</v>
       </c>
     </row>
@@ -9612,26 +9583,26 @@
       <c r="A213" s="33">
         <v>213</v>
       </c>
-      <c r="B213" s="60" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C213" s="65" t="s">
+      <c r="B213" s="55" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C213" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="D213" s="71" t="s">
-        <v>1041</v>
-      </c>
-      <c r="E213" s="66" t="s">
+      <c r="D213" s="66" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E213" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="F213" s="60" t="s">
-        <v>1077</v>
-      </c>
-      <c r="G213" s="67"/>
-      <c r="H213" s="66" t="s">
-        <v>1078</v>
-      </c>
-      <c r="I213" s="66" t="s">
+      <c r="F213" s="55" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G213" s="62"/>
+      <c r="H213" s="61" t="s">
+        <v>1074</v>
+      </c>
+      <c r="I213" s="61" t="s">
         <v>93</v>
       </c>
     </row>
@@ -9639,26 +9610,26 @@
       <c r="A214" s="33">
         <v>214</v>
       </c>
-      <c r="B214" s="60" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C214" s="65" t="s">
+      <c r="B214" s="55" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C214" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="D214" s="71" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E214" s="66" t="s">
-        <v>1079</v>
-      </c>
-      <c r="F214" s="60" t="s">
-        <v>1080</v>
-      </c>
-      <c r="G214" s="67"/>
-      <c r="H214" s="66" t="s">
-        <v>1081</v>
-      </c>
-      <c r="I214" s="66" t="s">
+      <c r="D214" s="66" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E214" s="61" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F214" s="55" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G214" s="62"/>
+      <c r="H214" s="61" t="s">
+        <v>1077</v>
+      </c>
+      <c r="I214" s="61" t="s">
         <v>93</v>
       </c>
     </row>
@@ -9666,42 +9637,42 @@
       <c r="A215" s="33">
         <v>215</v>
       </c>
-      <c r="B215" s="60" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C215" s="63" t="s">
+      <c r="B215" s="55" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C215" s="58" t="s">
         <v>641</v>
       </c>
-      <c r="D215" s="68" t="s">
-        <v>1043</v>
-      </c>
-      <c r="E215" s="67"/>
-      <c r="F215" s="67"/>
-      <c r="G215" s="67"/>
-      <c r="H215" s="67"/>
+      <c r="D215" s="63" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E215" s="62"/>
+      <c r="F215" s="62"/>
+      <c r="G215" s="62"/>
+      <c r="H215" s="62"/>
       <c r="I215" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="216" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A216" s="33">
         <v>216</v>
       </c>
-      <c r="B216" s="60" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C216" s="63" t="s">
+      <c r="B216" s="55" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C216" s="58" t="s">
         <v>641</v>
       </c>
-      <c r="D216" s="68" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E216" s="67"/>
-      <c r="F216" s="67"/>
-      <c r="G216" s="67"/>
-      <c r="H216" s="67"/>
+      <c r="D216" s="63" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E216" s="62"/>
+      <c r="F216" s="62"/>
+      <c r="G216" s="62"/>
+      <c r="H216" s="62"/>
       <c r="I216" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
   </sheetData>
@@ -9733,14 +9704,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="72" t="s">
         <v>506</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
       <c r="I1" s="6"/>
@@ -9751,16 +9722,16 @@
       <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:14" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="74" t="s">
         <v>505</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -9769,11 +9740,11 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:14" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="72" t="s">
         <v>507</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
       <c r="D3" s="32"/>
       <c r="E3" s="24"/>
       <c r="F3" s="20"/>
@@ -9797,10 +9768,10 @@
       <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:14" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="75" t="s">
         <v>156</v>
       </c>
-      <c r="B5" s="58"/>
+      <c r="B5" s="76"/>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
       <c r="E5" s="25"/>
@@ -10416,10 +10387,10 @@
         <v>713</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="H29" s="19" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="14" customFormat="1" ht="25" x14ac:dyDescent="0.35">
@@ -12738,22 +12709,22 @@
         <v>646</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="E125" s="43" t="s">
+        <v>898</v>
+      </c>
+      <c r="F125" s="43" t="s">
+        <v>899</v>
+      </c>
+      <c r="G125" s="43" t="s">
         <v>900</v>
       </c>
-      <c r="F125" s="43" t="s">
+      <c r="H125" s="43" t="s">
         <v>901</v>
-      </c>
-      <c r="G125" s="43" t="s">
-        <v>902</v>
-      </c>
-      <c r="H125" s="43" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="50" x14ac:dyDescent="0.35">
@@ -12764,20 +12735,20 @@
         <v>646</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D126" s="19" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="E126" s="43" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="F126" s="43" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="G126" s="43"/>
       <c r="H126" s="43" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="37.5" x14ac:dyDescent="0.35">
@@ -12788,20 +12759,20 @@
         <v>646</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D127" s="19" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="E127" s="43" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="F127" s="43" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="G127" s="43"/>
       <c r="H127" s="43" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="25" x14ac:dyDescent="0.35">
@@ -12812,20 +12783,20 @@
         <v>646</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D128" s="19" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="E128" s="43" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="F128" s="43" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="G128" s="43"/>
       <c r="H128" s="43" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="25" x14ac:dyDescent="0.35">
@@ -12836,22 +12807,22 @@
         <v>646</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D129" s="19" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="E129" s="43" t="s">
+        <v>911</v>
+      </c>
+      <c r="F129" s="43" t="s">
+        <v>912</v>
+      </c>
+      <c r="G129" s="43" t="s">
         <v>913</v>
       </c>
-      <c r="F129" s="43" t="s">
+      <c r="H129" s="43" t="s">
         <v>914</v>
-      </c>
-      <c r="G129" s="43" t="s">
-        <v>915</v>
-      </c>
-      <c r="H129" s="43" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.35">
@@ -12862,20 +12833,20 @@
         <v>649</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D130" s="19" t="s">
+        <v>930</v>
+      </c>
+      <c r="E130" s="43" t="s">
+        <v>931</v>
+      </c>
+      <c r="F130" s="43" t="s">
         <v>932</v>
-      </c>
-      <c r="E130" s="43" t="s">
-        <v>933</v>
-      </c>
-      <c r="F130" s="43" t="s">
-        <v>934</v>
       </c>
       <c r="G130" s="43"/>
       <c r="H130" s="43" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="37.5" x14ac:dyDescent="0.35">
@@ -12886,22 +12857,22 @@
         <v>649</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D131" s="19" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="E131" s="43" t="s">
+        <v>934</v>
+      </c>
+      <c r="F131" s="43" t="s">
+        <v>935</v>
+      </c>
+      <c r="G131" s="43" t="s">
         <v>936</v>
       </c>
-      <c r="F131" s="43" t="s">
+      <c r="H131" s="43" t="s">
         <v>937</v>
-      </c>
-      <c r="G131" s="43" t="s">
-        <v>938</v>
-      </c>
-      <c r="H131" s="43" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="37.5" x14ac:dyDescent="0.35">
@@ -12912,266 +12883,266 @@
         <v>649</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D132" s="19" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="E132" s="43" t="s">
+        <v>938</v>
+      </c>
+      <c r="F132" s="43" t="s">
+        <v>939</v>
+      </c>
+      <c r="G132" s="43" t="s">
         <v>940</v>
       </c>
-      <c r="F132" s="43" t="s">
+      <c r="H132" s="43" t="s">
         <v>941</v>
       </c>
-      <c r="G132" s="43" t="s">
-        <v>942</v>
-      </c>
-      <c r="H132" s="43" t="s">
-        <v>943</v>
-      </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A133" s="72" t="s">
-        <v>158</v>
-      </c>
-      <c r="B133" s="73" t="s">
-        <v>1022</v>
+      <c r="A133" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="B133" s="68" t="s">
+        <v>1019</v>
       </c>
       <c r="C133" s="51" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="D133" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="E133" s="65" t="s">
-        <v>1055</v>
-      </c>
-      <c r="F133" s="65" t="s">
-        <v>1056</v>
-      </c>
-      <c r="G133" s="65"/>
-      <c r="H133" s="65" t="s">
-        <v>1057</v>
+      <c r="E133" s="60" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F133" s="60" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G133" s="60"/>
+      <c r="H133" s="60" t="s">
+        <v>1054</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A134" s="72" t="s">
-        <v>158</v>
-      </c>
-      <c r="B134" s="73" t="s">
-        <v>1022</v>
+      <c r="A134" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="B134" s="68" t="s">
+        <v>1019</v>
       </c>
       <c r="C134" s="51" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="D134" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="E134" s="65" t="s">
-        <v>1058</v>
-      </c>
-      <c r="F134" s="65" t="s">
-        <v>1059</v>
-      </c>
-      <c r="G134" s="74"/>
-      <c r="H134" s="65" t="s">
-        <v>1060</v>
+      <c r="E134" s="60" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F134" s="60" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G134" s="69"/>
+      <c r="H134" s="60" t="s">
+        <v>1057</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A135" s="72" t="s">
-        <v>158</v>
-      </c>
-      <c r="B135" s="76" t="s">
-        <v>1025</v>
+      <c r="A135" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="B135" s="71" t="s">
+        <v>1022</v>
       </c>
       <c r="C135" s="51" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="D135" s="51" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E135" s="70" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F135" s="70" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G135" s="70"/>
+      <c r="H135" s="70" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A136" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="B136" s="71" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C136" s="51" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D136" s="51" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E136" s="70" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F136" s="70" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G136" s="70"/>
+      <c r="H136" s="70" t="s">
         <v>1084</v>
       </c>
-      <c r="E135" s="75" t="s">
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A137" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="B137" s="71" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C137" s="51" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D137" s="51" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E137" s="70" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F137" s="70" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G137" s="70"/>
+      <c r="H137" s="70" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A138" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="B138" s="71" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C138" s="51" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D138" s="51" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E138" s="70" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F138" s="70" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G138" s="70"/>
+      <c r="H138" s="70" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A139" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="B139" s="71" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C139" s="51" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D139" s="51" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E139" s="70" t="s">
         <v>1103</v>
       </c>
-      <c r="F135" s="75" t="s">
-        <v>1085</v>
-      </c>
-      <c r="G135" s="75"/>
-      <c r="H135" s="75" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A136" s="72" t="s">
-        <v>158</v>
-      </c>
-      <c r="B136" s="76" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C136" s="51" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D136" s="51" t="s">
-        <v>1084</v>
-      </c>
-      <c r="E136" s="75" t="s">
+      <c r="F139" s="70" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G139" s="70"/>
+      <c r="H139" s="70" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A140" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="B140" s="71" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C140" s="51" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D140" s="51" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E140" s="70" t="s">
         <v>1104</v>
       </c>
-      <c r="F136" s="75" t="s">
-        <v>1087</v>
-      </c>
-      <c r="G136" s="75"/>
-      <c r="H136" s="75" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A137" s="72" t="s">
-        <v>158</v>
-      </c>
-      <c r="B137" s="76" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C137" s="51" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D137" s="51" t="s">
-        <v>1084</v>
-      </c>
-      <c r="E137" s="75" t="s">
+      <c r="F140" s="70" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G140" s="70"/>
+      <c r="H140" s="70" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="25" x14ac:dyDescent="0.35">
+      <c r="A141" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="B141" s="71" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C141" s="51" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D141" s="51" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E141" s="70" t="s">
         <v>1105</v>
       </c>
-      <c r="F137" s="75" t="s">
-        <v>1089</v>
-      </c>
-      <c r="G137" s="75"/>
-      <c r="H137" s="75" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A138" s="72" t="s">
-        <v>158</v>
-      </c>
-      <c r="B138" s="76" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C138" s="51" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D138" s="51" t="s">
-        <v>1084</v>
-      </c>
-      <c r="E138" s="75" t="s">
+      <c r="F141" s="70" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G141" s="70" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H141" s="70" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A142" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="B142" s="71" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C142" s="51" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D142" s="51" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E142" s="70" t="s">
         <v>1106</v>
       </c>
-      <c r="F138" s="75" t="s">
-        <v>1091</v>
-      </c>
-      <c r="G138" s="75"/>
-      <c r="H138" s="75" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A139" s="72" t="s">
-        <v>158</v>
-      </c>
-      <c r="B139" s="76" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C139" s="51" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D139" s="51" t="s">
-        <v>1084</v>
-      </c>
-      <c r="E139" s="75" t="s">
-        <v>1107</v>
-      </c>
-      <c r="F139" s="75" t="s">
-        <v>1093</v>
-      </c>
-      <c r="G139" s="75"/>
-      <c r="H139" s="75" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A140" s="72" t="s">
-        <v>158</v>
-      </c>
-      <c r="B140" s="76" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C140" s="51" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D140" s="51" t="s">
-        <v>1084</v>
-      </c>
-      <c r="E140" s="75" t="s">
-        <v>1108</v>
-      </c>
-      <c r="F140" s="75" t="s">
-        <v>1095</v>
-      </c>
-      <c r="G140" s="75"/>
-      <c r="H140" s="75" t="s">
+      <c r="F142" s="70" t="s">
         <v>1096</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" ht="25" x14ac:dyDescent="0.35">
-      <c r="A141" s="72" t="s">
-        <v>158</v>
-      </c>
-      <c r="B141" s="76" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C141" s="51" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D141" s="51" t="s">
-        <v>1084</v>
-      </c>
-      <c r="E141" s="75" t="s">
-        <v>1109</v>
-      </c>
-      <c r="F141" s="75" t="s">
+      <c r="G142" s="70" t="s">
         <v>1097</v>
       </c>
-      <c r="G141" s="75" t="s">
+      <c r="H142" s="70" t="s">
         <v>1098</v>
-      </c>
-      <c r="H141" s="75" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A142" s="72" t="s">
-        <v>158</v>
-      </c>
-      <c r="B142" s="76" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C142" s="51" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D142" s="51" t="s">
-        <v>1084</v>
-      </c>
-      <c r="E142" s="75" t="s">
-        <v>1110</v>
-      </c>
-      <c r="F142" s="75" t="s">
-        <v>1100</v>
-      </c>
-      <c r="G142" s="75" t="s">
-        <v>1101</v>
-      </c>
-      <c r="H142" s="75" t="s">
-        <v>1102</v>
       </c>
     </row>
   </sheetData>
@@ -13187,24 +13158,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D9A8E34D4601248B4650C3759D604D8" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c234dc030e1d129322a3d56f76335218">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="de0c653c-2bd3-43b1-95fa-012c57f61cfe" xmlns:ns3="848a8810-16a6-4d79-96d3-e3dfb86099b7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a56d1a68c4d05b5a1e5a3c0b3fb5b1a8" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -13426,10 +13379,40 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B4CE896-D144-40A9-85D3-0684E5DFDA36}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19245E31-480A-4933-AB52-6FC5778D0ABF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="de0c653c-2bd3-43b1-95fa-012c57f61cfe"/>
+    <ds:schemaRef ds:uri="848a8810-16a6-4d79-96d3-e3dfb86099b7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13453,21 +13436,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19245E31-480A-4933-AB52-6FC5778D0ABF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B4CE896-D144-40A9-85D3-0684E5DFDA36}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="de0c653c-2bd3-43b1-95fa-012c57f61cfe"/>
-    <ds:schemaRef ds:uri="848a8810-16a6-4d79-96d3-e3dfb86099b7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Deliverables/CT/USDM_CT.xlsx
+++ b/Deliverables/CT/USDM_CT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhlbradtee\Documents\GitHub\DDF-RA\Deliverables\CT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC75A355-D485-43E8-87D1-25CC284E3CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C86D8A-70E2-44F8-B1A1-18433FBC4446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="730" yWindow="700" windowWidth="18290" windowHeight="9460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="0" windowWidth="18290" windowHeight="9460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DDF Entities&amp;Attributes" sheetId="4" r:id="rId1"/>
@@ -3048,9 +3048,6 @@
     <t>A citation to an authoritative source for a biomedical concept surrogate.</t>
   </si>
   <si>
-    <t>bcSurrograteName</t>
-  </si>
-  <si>
     <t>bcSurrogateDescription</t>
   </si>
   <si>
@@ -3090,9 +3087,6 @@
     <t>bcCategoryDescription</t>
   </si>
   <si>
-    <t>bcCategoryParentsIds</t>
-  </si>
-  <si>
     <t>bcCategoryChildrenIds</t>
   </si>
   <si>
@@ -3409,6 +3403,12 @@
   </si>
   <si>
     <t>To go out of or leave the schedule timeline.</t>
+  </si>
+  <si>
+    <t>bcSurrogateName</t>
+  </si>
+  <si>
+    <t>bcCategoryParentIds</t>
   </si>
 </sst>
 </file>
@@ -4259,7 +4259,7 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -4280,7 +4280,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -4301,7 +4301,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -4789,7 +4789,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -4864,7 +4864,7 @@
       <c r="G26" s="48"/>
       <c r="H26" s="48"/>
       <c r="I26" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -5020,7 +5020,7 @@
       <c r="G32" s="28"/>
       <c r="H32" s="28"/>
       <c r="I32" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -5041,7 +5041,7 @@
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
       <c r="I33" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -5062,7 +5062,7 @@
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
       <c r="I34" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -5083,7 +5083,7 @@
       <c r="G35" s="28"/>
       <c r="H35" s="28"/>
       <c r="I35" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -5104,7 +5104,7 @@
       <c r="G36" s="28"/>
       <c r="H36" s="28"/>
       <c r="I36" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -5125,7 +5125,7 @@
       <c r="G37" s="28"/>
       <c r="H37" s="28"/>
       <c r="I37" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -5146,7 +5146,7 @@
       <c r="G38" s="28"/>
       <c r="H38" s="28"/>
       <c r="I38" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -5167,7 +5167,7 @@
       <c r="G39" s="28"/>
       <c r="H39" s="28"/>
       <c r="I39" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -5181,14 +5181,14 @@
         <v>641</v>
       </c>
       <c r="D40" s="47" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="E40" s="29"/>
       <c r="F40" s="4"/>
       <c r="G40" s="28"/>
       <c r="H40" s="28"/>
       <c r="I40" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -5202,14 +5202,14 @@
         <v>641</v>
       </c>
       <c r="D41" s="47" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="E41" s="29"/>
       <c r="F41" s="4"/>
       <c r="G41" s="28"/>
       <c r="H41" s="28"/>
       <c r="I41" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
@@ -5223,14 +5223,14 @@
         <v>641</v>
       </c>
       <c r="D42" s="47" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E42" s="29"/>
       <c r="F42" s="4"/>
       <c r="G42" s="28"/>
       <c r="H42" s="28"/>
       <c r="I42" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
@@ -5244,14 +5244,14 @@
         <v>641</v>
       </c>
       <c r="D43" s="56" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E43" s="57"/>
       <c r="F43" s="58"/>
       <c r="G43" s="59"/>
       <c r="H43" s="59"/>
       <c r="I43" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
@@ -5362,7 +5362,7 @@
         <v>795</v>
       </c>
       <c r="H47" s="55" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>791</v>
@@ -5847,7 +5847,7 @@
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="I65" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
@@ -6057,7 +6057,7 @@
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="I73" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
@@ -6078,7 +6078,7 @@
       <c r="G74" s="4"/>
       <c r="H74" s="3"/>
       <c r="I74" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
@@ -6099,7 +6099,7 @@
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="50" x14ac:dyDescent="0.35">
@@ -6309,7 +6309,7 @@
       <c r="G83" s="4"/>
       <c r="H83" s="3"/>
       <c r="I83" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="50" x14ac:dyDescent="0.35">
@@ -6492,7 +6492,7 @@
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
       <c r="I90" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
@@ -6513,7 +6513,7 @@
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
       <c r="I91" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -6669,7 +6669,7 @@
       <c r="G97" s="4"/>
       <c r="H97" s="3"/>
       <c r="I97" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
@@ -6690,7 +6690,7 @@
       <c r="G98" s="4"/>
       <c r="H98" s="3"/>
       <c r="I98" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
@@ -6704,14 +6704,14 @@
         <v>641</v>
       </c>
       <c r="D99" s="63" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
       <c r="H99" s="3"/>
       <c r="I99" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -6948,7 +6948,7 @@
       <c r="G108" s="4"/>
       <c r="H108" s="3"/>
       <c r="I108" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
@@ -6969,7 +6969,7 @@
       <c r="G109" s="4"/>
       <c r="H109" s="3"/>
       <c r="I109" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
@@ -6990,7 +6990,7 @@
       <c r="G110" s="4"/>
       <c r="H110" s="3"/>
       <c r="I110" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
@@ -7011,7 +7011,7 @@
       <c r="G111" s="4"/>
       <c r="H111" s="3"/>
       <c r="I111" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
@@ -7032,7 +7032,7 @@
       <c r="G112" s="4"/>
       <c r="H112" s="3"/>
       <c r="I112" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
@@ -7046,14 +7046,14 @@
         <v>641</v>
       </c>
       <c r="D113" s="47" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
       <c r="H113" s="3"/>
       <c r="I113" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
@@ -7067,14 +7067,14 @@
         <v>641</v>
       </c>
       <c r="D114" s="47" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
       <c r="H114" s="3"/>
       <c r="I114" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
@@ -7088,14 +7088,14 @@
         <v>641</v>
       </c>
       <c r="D115" s="56" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="E115" s="55"/>
       <c r="F115" s="58"/>
       <c r="G115" s="58"/>
       <c r="H115" s="60"/>
       <c r="I115" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -7494,7 +7494,7 @@
       <c r="G130" s="4"/>
       <c r="H130" s="4"/>
       <c r="I130" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.35">
@@ -7562,14 +7562,14 @@
         <v>641</v>
       </c>
       <c r="D133" s="42" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
       <c r="G133" s="4"/>
       <c r="H133" s="4"/>
       <c r="I133" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.35">
@@ -7583,14 +7583,14 @@
         <v>641</v>
       </c>
       <c r="D134" s="42" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
       <c r="G134" s="4"/>
       <c r="H134" s="4"/>
       <c r="I134" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.35">
@@ -7719,7 +7719,7 @@
       <c r="G139" s="4"/>
       <c r="H139" s="4"/>
       <c r="I139" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.35">
@@ -7740,7 +7740,7 @@
       <c r="G140" s="4"/>
       <c r="H140" s="4"/>
       <c r="I140" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.35">
@@ -7761,7 +7761,7 @@
       <c r="G141" s="4"/>
       <c r="H141" s="4"/>
       <c r="I141" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.35">
@@ -7782,7 +7782,7 @@
       <c r="G142" s="4"/>
       <c r="H142" s="4"/>
       <c r="I142" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -8154,7 +8154,7 @@
       <c r="G156" s="33"/>
       <c r="H156" s="33"/>
       <c r="I156" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.35">
@@ -8168,14 +8168,14 @@
         <v>641</v>
       </c>
       <c r="D157" s="47" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="E157" s="33"/>
       <c r="F157" s="33"/>
       <c r="G157" s="33"/>
       <c r="H157" s="33"/>
       <c r="I157" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="158" spans="1:9" s="49" customFormat="1" ht="25" x14ac:dyDescent="0.35">
@@ -8439,7 +8439,7 @@
       <c r="G167" s="33"/>
       <c r="H167" s="33"/>
       <c r="I167" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -8490,7 +8490,7 @@
       </c>
       <c r="G169" s="43"/>
       <c r="H169" s="43" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="I169" s="43" t="s">
         <v>93</v>
@@ -8595,7 +8595,7 @@
       <c r="G173" s="33"/>
       <c r="H173" s="33"/>
       <c r="I173" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -8819,13 +8819,13 @@
         <v>182</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D182" s="41" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E182" s="43"/>
       <c r="F182" s="43"/>
@@ -8840,13 +8840,13 @@
         <v>183</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C183" s="33" t="s">
         <v>94</v>
       </c>
       <c r="D183" s="30" t="s">
-        <v>991</v>
+        <v>1110</v>
       </c>
       <c r="E183" s="43" t="s">
         <v>16</v>
@@ -8867,13 +8867,13 @@
         <v>184</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C184" s="33" t="s">
         <v>94</v>
       </c>
       <c r="D184" s="30" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E184" s="43" t="s">
         <v>16</v>
@@ -8894,13 +8894,13 @@
         <v>185</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C185" s="33" t="s">
         <v>94</v>
       </c>
       <c r="D185" s="30" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E185" s="43" t="s">
         <v>16</v>
@@ -8921,23 +8921,23 @@
         <v>186</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D186" s="41" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E186" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F186" s="43" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="G186" s="43"/>
       <c r="H186" s="43" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="I186" s="43" t="s">
         <v>93</v>
@@ -8948,20 +8948,20 @@
         <v>187</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C187" s="33" t="s">
         <v>641</v>
       </c>
       <c r="D187" s="47" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E187" s="33"/>
       <c r="F187" s="33"/>
       <c r="G187" s="33"/>
       <c r="H187" s="33"/>
       <c r="I187" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -8969,20 +8969,20 @@
         <v>188</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C188" s="33" t="s">
         <v>641</v>
       </c>
       <c r="D188" s="47" t="s">
-        <v>1005</v>
+        <v>1111</v>
       </c>
       <c r="E188" s="33"/>
       <c r="F188" s="33"/>
       <c r="G188" s="33"/>
       <c r="H188" s="33"/>
       <c r="I188" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -8990,20 +8990,20 @@
         <v>189</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C189" s="33" t="s">
         <v>641</v>
       </c>
       <c r="D189" s="47" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E189" s="33"/>
       <c r="F189" s="33"/>
       <c r="G189" s="33"/>
       <c r="H189" s="33"/>
       <c r="I189" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -9011,23 +9011,23 @@
         <v>190</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C190" s="33" t="s">
         <v>94</v>
       </c>
       <c r="D190" s="30" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E190" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F190" s="43" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="G190" s="43"/>
       <c r="H190" s="43" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="I190" s="43" t="s">
         <v>93</v>
@@ -9038,23 +9038,23 @@
         <v>191</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C191" s="33" t="s">
         <v>94</v>
       </c>
       <c r="D191" s="30" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E191" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F191" s="43" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="G191" s="43"/>
       <c r="H191" s="43" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="I191" s="43" t="s">
         <v>93</v>
@@ -9065,23 +9065,23 @@
         <v>192</v>
       </c>
       <c r="B192" s="55" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="C192" s="58" t="s">
         <v>4</v>
       </c>
       <c r="D192" s="54" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E192" s="61" t="s">
         <v>16</v>
       </c>
       <c r="F192" s="55" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="G192" s="62"/>
       <c r="H192" s="61" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="I192" s="61" t="s">
         <v>93</v>
@@ -9092,20 +9092,20 @@
         <v>193</v>
       </c>
       <c r="B193" s="55" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="C193" s="58" t="s">
         <v>641</v>
       </c>
       <c r="D193" s="63" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E193" s="61"/>
       <c r="F193" s="55"/>
       <c r="G193" s="62"/>
       <c r="H193" s="61"/>
       <c r="I193" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -9113,23 +9113,23 @@
         <v>194</v>
       </c>
       <c r="B194" s="55" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C194" s="58" t="s">
         <v>4</v>
       </c>
       <c r="D194" s="54" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E194" s="61" t="s">
         <v>16</v>
       </c>
       <c r="F194" s="55" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="G194" s="62"/>
       <c r="H194" s="61" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="I194" s="61" t="s">
         <v>93</v>
@@ -9140,23 +9140,23 @@
         <v>195</v>
       </c>
       <c r="B195" s="61" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="C195" s="58" t="s">
         <v>4</v>
       </c>
       <c r="D195" s="64" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E195" s="61" t="s">
         <v>16</v>
       </c>
       <c r="F195" s="55" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="G195" s="62"/>
       <c r="H195" s="61" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="I195" s="61" t="s">
         <v>93</v>
@@ -9167,23 +9167,23 @@
         <v>196</v>
       </c>
       <c r="B196" s="61" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="C196" s="60" t="s">
         <v>94</v>
       </c>
       <c r="D196" s="65" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="E196" s="61" t="s">
         <v>16</v>
       </c>
       <c r="F196" s="55" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="G196" s="62"/>
       <c r="H196" s="61" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="I196" s="61" t="s">
         <v>93</v>
@@ -9194,26 +9194,26 @@
         <v>197</v>
       </c>
       <c r="B197" s="61" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="C197" s="60" t="s">
         <v>94</v>
       </c>
       <c r="D197" s="65" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E197" s="61" t="s">
         <v>16</v>
       </c>
       <c r="F197" s="55" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="G197" s="62"/>
       <c r="H197" s="61" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="I197" s="61" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -9221,20 +9221,20 @@
         <v>198</v>
       </c>
       <c r="B198" s="61" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="C198" s="58" t="s">
         <v>641</v>
       </c>
       <c r="D198" s="56" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="E198" s="61"/>
       <c r="F198" s="62"/>
       <c r="G198" s="62"/>
       <c r="H198" s="62"/>
       <c r="I198" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -9242,20 +9242,20 @@
         <v>199</v>
       </c>
       <c r="B199" s="61" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="C199" s="58" t="s">
         <v>641</v>
       </c>
       <c r="D199" s="56" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="E199" s="61"/>
       <c r="F199" s="62"/>
       <c r="G199" s="62"/>
       <c r="H199" s="62"/>
       <c r="I199" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -9263,20 +9263,20 @@
         <v>200</v>
       </c>
       <c r="B200" s="61" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="C200" s="58" t="s">
         <v>641</v>
       </c>
       <c r="D200" s="56" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="E200" s="61"/>
       <c r="F200" s="62"/>
       <c r="G200" s="61"/>
       <c r="H200" s="61"/>
       <c r="I200" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="201" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -9284,20 +9284,20 @@
         <v>201</v>
       </c>
       <c r="B201" s="61" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="C201" s="58" t="s">
         <v>641</v>
       </c>
       <c r="D201" s="56" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="E201" s="61"/>
       <c r="F201" s="62"/>
       <c r="G201" s="62"/>
       <c r="H201" s="62"/>
       <c r="I201" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="202" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -9305,23 +9305,23 @@
         <v>202</v>
       </c>
       <c r="B202" s="55" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C202" s="58" t="s">
         <v>4</v>
       </c>
       <c r="D202" s="54" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E202" s="61" t="s">
         <v>16</v>
       </c>
       <c r="F202" s="61" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="G202" s="62"/>
       <c r="H202" s="61" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="I202" s="61" t="s">
         <v>93</v>
@@ -9332,23 +9332,23 @@
         <v>203</v>
       </c>
       <c r="B203" s="55" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C203" s="60" t="s">
         <v>94</v>
       </c>
       <c r="D203" s="66" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="E203" s="61" t="s">
         <v>16</v>
       </c>
       <c r="F203" s="55" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="G203" s="62"/>
       <c r="H203" s="61" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="I203" s="61" t="s">
         <v>93</v>
@@ -9359,23 +9359,23 @@
         <v>204</v>
       </c>
       <c r="B204" s="55" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C204" s="60" t="s">
         <v>94</v>
       </c>
       <c r="D204" s="66" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="E204" s="61" t="s">
         <v>16</v>
       </c>
       <c r="F204" s="55" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="G204" s="62"/>
       <c r="H204" s="61" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="I204" s="61" t="s">
         <v>93</v>
@@ -9386,23 +9386,23 @@
         <v>205</v>
       </c>
       <c r="B205" s="55" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C205" s="60" t="s">
         <v>94</v>
       </c>
       <c r="D205" s="66" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="E205" s="61" t="s">
         <v>16</v>
       </c>
       <c r="F205" s="55" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="G205" s="62"/>
       <c r="H205" s="61" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="I205" s="61" t="s">
         <v>93</v>
@@ -9413,20 +9413,20 @@
         <v>206</v>
       </c>
       <c r="B206" s="55" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C206" s="58" t="s">
         <v>641</v>
       </c>
       <c r="D206" s="63" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="E206" s="61"/>
       <c r="F206" s="55"/>
       <c r="G206" s="62"/>
       <c r="H206" s="61"/>
       <c r="I206" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -9434,20 +9434,20 @@
         <v>207</v>
       </c>
       <c r="B207" s="55" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C207" s="58" t="s">
         <v>641</v>
       </c>
       <c r="D207" s="63" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="E207" s="61"/>
       <c r="F207" s="62"/>
       <c r="G207" s="62"/>
       <c r="H207" s="62"/>
       <c r="I207" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -9455,20 +9455,20 @@
         <v>208</v>
       </c>
       <c r="B208" s="55" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C208" s="58" t="s">
         <v>641</v>
       </c>
       <c r="D208" s="63" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="E208" s="61"/>
       <c r="F208" s="62"/>
       <c r="G208" s="62"/>
       <c r="H208" s="62"/>
       <c r="I208" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -9476,23 +9476,23 @@
         <v>209</v>
       </c>
       <c r="B209" s="55" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="C209" s="58" t="s">
         <v>4</v>
       </c>
       <c r="D209" s="54" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E209" s="61" t="s">
         <v>16</v>
       </c>
       <c r="F209" s="55" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="G209" s="62"/>
       <c r="H209" s="61" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="I209" s="61" t="s">
         <v>93</v>
@@ -9503,23 +9503,23 @@
         <v>210</v>
       </c>
       <c r="B210" s="55" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C210" s="58" t="s">
         <v>4</v>
       </c>
       <c r="D210" s="54" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E210" s="61" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="F210" s="61" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="G210" s="62"/>
       <c r="H210" s="61" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="I210" s="61" t="s">
         <v>93</v>
@@ -9530,26 +9530,26 @@
         <v>211</v>
       </c>
       <c r="B211" s="55" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C211" s="60" t="s">
         <v>94</v>
       </c>
       <c r="D211" s="66" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="E211" s="61" t="s">
         <v>16</v>
       </c>
       <c r="F211" s="55" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="G211" s="62"/>
       <c r="H211" s="61" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="I211" s="61" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -9557,23 +9557,23 @@
         <v>212</v>
       </c>
       <c r="B212" s="55" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C212" s="60" t="s">
         <v>94</v>
       </c>
       <c r="D212" s="66" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="E212" s="61" t="s">
         <v>16</v>
       </c>
       <c r="F212" s="55" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="G212" s="62"/>
       <c r="H212" s="61" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="I212" s="61" t="s">
         <v>93</v>
@@ -9584,23 +9584,23 @@
         <v>213</v>
       </c>
       <c r="B213" s="55" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C213" s="60" t="s">
         <v>94</v>
       </c>
       <c r="D213" s="66" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="E213" s="61" t="s">
         <v>16</v>
       </c>
       <c r="F213" s="55" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="G213" s="62"/>
       <c r="H213" s="61" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="I213" s="61" t="s">
         <v>93</v>
@@ -9611,23 +9611,23 @@
         <v>214</v>
       </c>
       <c r="B214" s="55" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C214" s="60" t="s">
         <v>94</v>
       </c>
       <c r="D214" s="66" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="E214" s="61" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="F214" s="55" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="G214" s="62"/>
       <c r="H214" s="61" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="I214" s="61" t="s">
         <v>93</v>
@@ -9638,20 +9638,20 @@
         <v>215</v>
       </c>
       <c r="B215" s="55" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C215" s="58" t="s">
         <v>641</v>
       </c>
       <c r="D215" s="63" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E215" s="62"/>
       <c r="F215" s="62"/>
       <c r="G215" s="62"/>
       <c r="H215" s="62"/>
       <c r="I215" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="216" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -9659,20 +9659,20 @@
         <v>216</v>
       </c>
       <c r="B216" s="55" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C216" s="58" t="s">
         <v>641</v>
       </c>
       <c r="D216" s="63" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="E216" s="62"/>
       <c r="F216" s="62"/>
       <c r="G216" s="62"/>
       <c r="H216" s="62"/>
       <c r="I216" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
   </sheetData>
@@ -12906,23 +12906,23 @@
         <v>158</v>
       </c>
       <c r="B133" s="68" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="C133" s="51" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="D133" s="51" t="s">
         <v>16</v>
       </c>
       <c r="E133" s="60" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="F133" s="60" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="G133" s="60"/>
       <c r="H133" s="60" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -12930,23 +12930,23 @@
         <v>158</v>
       </c>
       <c r="B134" s="68" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="C134" s="51" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="D134" s="51" t="s">
         <v>16</v>
       </c>
       <c r="E134" s="60" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="F134" s="60" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="G134" s="69"/>
       <c r="H134" s="60" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.35">
@@ -12954,23 +12954,23 @@
         <v>158</v>
       </c>
       <c r="B135" s="71" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C135" s="51" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="D135" s="51" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="E135" s="70" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="F135" s="70" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="G135" s="70"/>
       <c r="H135" s="70" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.35">
@@ -12978,23 +12978,23 @@
         <v>158</v>
       </c>
       <c r="B136" s="71" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C136" s="51" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="D136" s="51" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="E136" s="70" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="F136" s="70" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="G136" s="70"/>
       <c r="H136" s="70" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.35">
@@ -13002,23 +13002,23 @@
         <v>158</v>
       </c>
       <c r="B137" s="71" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C137" s="51" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="D137" s="51" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="E137" s="70" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F137" s="70" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="G137" s="70"/>
       <c r="H137" s="70" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
@@ -13026,23 +13026,23 @@
         <v>158</v>
       </c>
       <c r="B138" s="71" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C138" s="51" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="D138" s="51" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="E138" s="70" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="F138" s="70" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="G138" s="70"/>
       <c r="H138" s="70" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.35">
@@ -13050,23 +13050,23 @@
         <v>158</v>
       </c>
       <c r="B139" s="71" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C139" s="51" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="D139" s="51" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="E139" s="70" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="F139" s="70" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="G139" s="70"/>
       <c r="H139" s="70" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.35">
@@ -13074,23 +13074,23 @@
         <v>158</v>
       </c>
       <c r="B140" s="71" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C140" s="51" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="D140" s="51" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="E140" s="70" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="F140" s="70" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="G140" s="70"/>
       <c r="H140" s="70" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="25" x14ac:dyDescent="0.35">
@@ -13098,25 +13098,25 @@
         <v>158</v>
       </c>
       <c r="B141" s="71" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C141" s="51" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="D141" s="51" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="E141" s="70" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="F141" s="70" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G141" s="70" t="s">
+        <v>1092</v>
+      </c>
+      <c r="H141" s="70" t="s">
         <v>1093</v>
-      </c>
-      <c r="G141" s="70" t="s">
-        <v>1094</v>
-      </c>
-      <c r="H141" s="70" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.35">
@@ -13124,25 +13124,25 @@
         <v>158</v>
       </c>
       <c r="B142" s="71" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C142" s="51" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="D142" s="51" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="E142" s="70" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="F142" s="70" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G142" s="70" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H142" s="70" t="s">
         <v>1096</v>
-      </c>
-      <c r="G142" s="70" t="s">
-        <v>1097</v>
-      </c>
-      <c r="H142" s="70" t="s">
-        <v>1098</v>
       </c>
     </row>
   </sheetData>
@@ -13158,6 +13158,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D9A8E34D4601248B4650C3759D604D8" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c234dc030e1d129322a3d56f76335218">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="de0c653c-2bd3-43b1-95fa-012c57f61cfe" xmlns:ns3="848a8810-16a6-4d79-96d3-e3dfb86099b7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a56d1a68c4d05b5a1e5a3c0b3fb5b1a8" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -13379,40 +13397,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19245E31-480A-4933-AB52-6FC5778D0ABF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B4CE896-D144-40A9-85D3-0684E5DFDA36}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="de0c653c-2bd3-43b1-95fa-012c57f61cfe"/>
-    <ds:schemaRef ds:uri="848a8810-16a6-4d79-96d3-e3dfb86099b7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13436,9 +13424,21 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B4CE896-D144-40A9-85D3-0684E5DFDA36}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19245E31-480A-4933-AB52-6FC5778D0ABF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="de0c653c-2bd3-43b1-95fa-012c57f61cfe"/>
+    <ds:schemaRef ds:uri="848a8810-16a6-4d79-96d3-e3dfb86099b7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Deliverables/CT/USDM_CT.xlsx
+++ b/Deliverables/CT/USDM_CT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhlbradtee\Documents\GitHub\DDF-RA\Deliverables\CT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C86D8A-70E2-44F8-B1A1-18433FBC4446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5668E2-FF5D-4CDA-ACE1-2757C2B6864F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="0" windowWidth="18290" windowHeight="9460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="910" yWindow="0" windowWidth="18290" windowHeight="9460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DDF Entities&amp;Attributes" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2341" uniqueCount="1112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2341" uniqueCount="1113">
   <si>
     <t>Preferred Term</t>
   </si>
@@ -3409,6 +3409,9 @@
   </si>
   <si>
     <t>bcCategoryParentIds</t>
+  </si>
+  <si>
+    <t>InvestigationalIntervention</t>
   </si>
 </sst>
 </file>
@@ -5489,7 +5492,7 @@
         <v>4</v>
       </c>
       <c r="D52" s="41" t="s">
-        <v>647</v>
+        <v>1112</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>27</v>
@@ -13158,24 +13161,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D9A8E34D4601248B4650C3759D604D8" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c234dc030e1d129322a3d56f76335218">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="de0c653c-2bd3-43b1-95fa-012c57f61cfe" xmlns:ns3="848a8810-16a6-4d79-96d3-e3dfb86099b7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a56d1a68c4d05b5a1e5a3c0b3fb5b1a8" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -13397,10 +13382,40 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B4CE896-D144-40A9-85D3-0684E5DFDA36}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19245E31-480A-4933-AB52-6FC5778D0ABF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="de0c653c-2bd3-43b1-95fa-012c57f61cfe"/>
+    <ds:schemaRef ds:uri="848a8810-16a6-4d79-96d3-e3dfb86099b7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13424,21 +13439,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19245E31-480A-4933-AB52-6FC5778D0ABF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B4CE896-D144-40A9-85D3-0684E5DFDA36}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="de0c653c-2bd3-43b1-95fa-012c57f61cfe"/>
-    <ds:schemaRef ds:uri="848a8810-16a6-4d79-96d3-e3dfb86099b7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Deliverables/CT/USDM_CT.xlsx
+++ b/Deliverables/CT/USDM_CT.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhlbradtee\Documents\GitHub\DDF-RA\Deliverables\CT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39E8892-4D63-494B-B391-10B95C99E89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378468BD-4820-42DB-8DB9-8AA920EF9AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1630" yWindow="1070" windowWidth="17570" windowHeight="9730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="550" yWindow="20" windowWidth="13750" windowHeight="9710" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DDF Entities&amp;Attributes" sheetId="4" r:id="rId1"/>
     <sheet name="DDF valid value sets" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DDF Entities&amp;Attributes'!$A$1:$I$202</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DDF valid value sets'!$A$6:$N$124</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DDF Entities&amp;Attributes'!$A$1:$I$205</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DDF valid value sets'!$A$6:$M$124</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2255" uniqueCount="1073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2305" uniqueCount="1086">
   <si>
     <t>Preferred Term</t>
   </si>
@@ -1577,12 +1577,6 @@
     <t>Trial Secondary Objective; Study Secondary Objective</t>
   </si>
   <si>
-    <t>Study Arm Type Name</t>
-  </si>
-  <si>
-    <t>The literal identifier (i.e., distinctive designation) of the study arm type.</t>
-  </si>
-  <si>
     <t>C19711</t>
   </si>
   <si>
@@ -1727,9 +1721,6 @@
     <t>encounterEnvironmentalSetting</t>
   </si>
   <si>
-    <t>encounterContactMode</t>
-  </si>
-  <si>
     <t>previousEncounterId</t>
   </si>
   <si>
@@ -1910,9 +1901,6 @@
     <t>StudyDesign</t>
   </si>
   <si>
-    <t>InvestigationalInterventions</t>
-  </si>
-  <si>
     <t>Indication</t>
   </si>
   <si>
@@ -2318,46 +2306,6 @@
     <t>Therapeutic Area</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>The principal purpose of the trial.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-A principle objective of the study.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>The auxiliary purpose of the trial.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-An auxiliary objective of the study.</t>
-    </r>
-  </si>
-  <si>
     <t>activities</t>
   </si>
   <si>
@@ -3099,24 +3047,6 @@
     <t>A characterization or classification of the scheduled instance.</t>
   </si>
   <si>
-    <t>C43431</t>
-  </si>
-  <si>
-    <t>ACTIVITY</t>
-  </si>
-  <si>
-    <t>An active process; the act of performing.</t>
-  </si>
-  <si>
-    <t>C53285</t>
-  </si>
-  <si>
-    <t>DECISION</t>
-  </si>
-  <si>
-    <t>A position, opinion, or judgment reached on an issue under consideration.</t>
-  </si>
-  <si>
     <t>Schedule Timeline</t>
   </si>
   <si>
@@ -3177,93 +3107,9 @@
     <t>A time period, or other type of interval, during which a temporal event may be achieved, obtained, or observed.</t>
   </si>
   <si>
-    <t>Y (C66728/STENRF)</t>
-  </si>
-  <si>
     <t>Y (CNEW)</t>
   </si>
   <si>
-    <t>C66728</t>
-  </si>
-  <si>
-    <t>AFTER</t>
-  </si>
-  <si>
-    <t>The time period following a point or another period of time. (NCI)</t>
-  </si>
-  <si>
-    <t>BEFORE</t>
-  </si>
-  <si>
-    <t>Earlier in time or order. (NCI)</t>
-  </si>
-  <si>
-    <t>BEFORE/DURING</t>
-  </si>
-  <si>
-    <t>Before or at some point in a given period of time.</t>
-  </si>
-  <si>
-    <t>COINCIDENT</t>
-  </si>
-  <si>
-    <t>Occurring or operating at the same time.</t>
-  </si>
-  <si>
-    <t>DURING</t>
-  </si>
-  <si>
-    <t>At some point in a given period of time. (NCI)</t>
-  </si>
-  <si>
-    <t>DURING/AFTER</t>
-  </si>
-  <si>
-    <t>Within a certain period of time or after a certain point or period in time. (NCI)</t>
-  </si>
-  <si>
-    <t>ONGOING</t>
-  </si>
-  <si>
-    <t>Continuous</t>
-  </si>
-  <si>
-    <t>Remain in force or carry on without letup; keep or maintain in unaltered condition; exist in time or space without stop or interruption. (NCI)</t>
-  </si>
-  <si>
-    <t>UNKNOWN</t>
-  </si>
-  <si>
-    <t>U; UNK; Unknown</t>
-  </si>
-  <si>
-    <t>Not known, not observed, not recorded, or refused. (NCI)</t>
-  </si>
-  <si>
-    <t>C38008</t>
-  </si>
-  <si>
-    <t>C25629</t>
-  </si>
-  <si>
-    <t>C184710</t>
-  </si>
-  <si>
-    <t>C25456</t>
-  </si>
-  <si>
-    <t>C25490</t>
-  </si>
-  <si>
-    <t>C49640</t>
-  </si>
-  <si>
-    <t>C53279</t>
-  </si>
-  <si>
-    <t>C17998</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -3292,13 +3138,172 @@
   </si>
   <si>
     <t>nextStudyEpochId</t>
+  </si>
+  <si>
+    <t>conditionAssignments</t>
+  </si>
+  <si>
+    <t>Condition Assignments</t>
+  </si>
+  <si>
+    <t>An allotting or appointment to a set of conditions that are to be met in order to make a logical decision.</t>
+  </si>
+  <si>
+    <t>Start to Start</t>
+  </si>
+  <si>
+    <t>A timing relationship defined as the start of one event to the start of another event.</t>
+  </si>
+  <si>
+    <t>Start to End</t>
+  </si>
+  <si>
+    <t>A timing relationship defined as the start of one event to the end of another event.</t>
+  </si>
+  <si>
+    <t>End to Start</t>
+  </si>
+  <si>
+    <t>A timing relationship defined as the end of one event to the start of another event.</t>
+  </si>
+  <si>
+    <t>End to End</t>
+  </si>
+  <si>
+    <t>A timing relationship defined as the end of one event to the end of another event.</t>
+  </si>
+  <si>
+    <t>After</t>
+  </si>
+  <si>
+    <t>A type of time point relationship that follows a point or period of time within a timeline.</t>
+  </si>
+  <si>
+    <t>Before</t>
+  </si>
+  <si>
+    <t>A type of time point relationship that comes before a point or period of time within a timeline.</t>
+  </si>
+  <si>
+    <t>Fixed Reference</t>
+  </si>
+  <si>
+    <t>A type of time point relationship that is fixed with respect to a timeline.</t>
+  </si>
+  <si>
+    <t>procedureName</t>
+  </si>
+  <si>
+    <t>procedureDescription</t>
+  </si>
+  <si>
+    <t>Procedure Name</t>
+  </si>
+  <si>
+    <t>The literal identifier (i.e., distinctive designation) of the procedure.</t>
+  </si>
+  <si>
+    <t>Procedure Description</t>
+  </si>
+  <si>
+    <t>The textual representation of the procedure.</t>
+  </si>
+  <si>
+    <t>C174222</t>
+  </si>
+  <si>
+    <t>C174267</t>
+  </si>
+  <si>
+    <t>Active Comparator Arm</t>
+  </si>
+  <si>
+    <t>An arm describing the active comparator.</t>
+  </si>
+  <si>
+    <t>C174226</t>
+  </si>
+  <si>
+    <t>Control Arm</t>
+  </si>
+  <si>
+    <t>An arm describing the intervention or treatment plan for a group of participants in the study receiving a control. The control may comprise a non-investigational product (active control) or regimen, placebo, or no treatment.</t>
+  </si>
+  <si>
+    <t>C174266</t>
+  </si>
+  <si>
+    <t>Experimental Arm</t>
+  </si>
+  <si>
+    <t>Investigational Arm</t>
+  </si>
+  <si>
+    <t>An arm describing the intervention or treatment plan for a group of participants in the study receiving test product(s).</t>
+  </si>
+  <si>
+    <t>C174270</t>
+  </si>
+  <si>
+    <t>No Intervention Arm</t>
+  </si>
+  <si>
+    <t>A study arm without an intervention or treatment.</t>
+  </si>
+  <si>
+    <t>C174268</t>
+  </si>
+  <si>
+    <t>Placebo Comparator Arm</t>
+  </si>
+  <si>
+    <t>Placebo Control Arm</t>
+  </si>
+  <si>
+    <t>An arm describing the placebo comparator.</t>
+  </si>
+  <si>
+    <t>C174269</t>
+  </si>
+  <si>
+    <t>Sham Comparator Arm</t>
+  </si>
+  <si>
+    <t>Sham Intervention Arm</t>
+  </si>
+  <si>
+    <t>An arm describing the sham comparator.</t>
+  </si>
+  <si>
+    <t>C15538</t>
+  </si>
+  <si>
+    <t>Treatment Arm</t>
+  </si>
+  <si>
+    <t>An arm describing the intervention or treatment plan for a group of participants in the study. Treatment may consist of either experimental or control products under investigation.</t>
+  </si>
+  <si>
+    <t>A principle objective of the study.</t>
+  </si>
+  <si>
+    <t>An auxiliary objective of the study.</t>
+  </si>
+  <si>
+    <t>Study Arm Type</t>
+  </si>
+  <si>
+    <t>A characterization or classification of the study arm.</t>
+  </si>
+  <si>
+    <t>Y (C174222)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3365,12 +3370,6 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -3518,16 +3517,14 @@
       <top style="thin">
         <color theme="1" tint="0.499984740745262"/>
       </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3670,16 +3667,16 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3688,58 +3685,52 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3756,6 +3747,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4048,9 +4054,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I202"/>
+  <dimension ref="A1:I205"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -4073,13 +4079,13 @@
         <v>93</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>111</v>
@@ -4102,13 +4108,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
@@ -4129,20 +4135,20 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="1" t="s">
-        <v>1063</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -4150,20 +4156,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="1" t="s">
-        <v>1063</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -4171,20 +4177,20 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="1" t="s">
-        <v>1063</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -4192,13 +4198,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>15</v>
@@ -4221,23 +4227,23 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>91</v>
@@ -4248,13 +4254,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>34</v>
@@ -4269,7 +4275,7 @@
         <v>33</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="100" x14ac:dyDescent="0.35">
@@ -4277,13 +4283,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>19</v>
@@ -4298,7 +4304,7 @@
         <v>18</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -4306,26 +4312,26 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="1" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
@@ -4333,23 +4339,23 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="E11" s="52" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="F11" s="43" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="G11" s="43"/>
       <c r="H11" s="43" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>91</v>
@@ -4360,23 +4366,23 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="E12" s="52" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="F12" s="43" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="G12" s="43"/>
       <c r="H12" s="43" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>91</v>
@@ -4387,13 +4393,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>8</v>
@@ -4414,25 +4420,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F14" s="43" t="s">
+        <v>523</v>
+      </c>
+      <c r="G14" s="43" t="s">
+        <v>524</v>
+      </c>
+      <c r="H14" s="43" t="s">
         <v>525</v>
-      </c>
-      <c r="G14" s="43" t="s">
-        <v>526</v>
-      </c>
-      <c r="H14" s="43" t="s">
-        <v>527</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>91</v>
@@ -4443,23 +4449,23 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F15" s="43" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G15" s="43"/>
       <c r="H15" s="43" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>91</v>
@@ -4470,23 +4476,23 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E16" s="43" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F16" s="43" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G16" s="43"/>
       <c r="H16" s="43" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>91</v>
@@ -4497,23 +4503,23 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E17" s="43" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F17" s="43" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G17" s="43"/>
       <c r="H17" s="43" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>91</v>
@@ -4524,13 +4530,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>8</v>
@@ -4551,13 +4557,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>11</v>
@@ -4578,16 +4584,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>143</v>
@@ -4605,16 +4611,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>87</v>
@@ -4624,7 +4630,7 @@
         <v>134</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -4632,13 +4638,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>88</v>
@@ -4659,20 +4665,20 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="1" t="s">
-        <v>1063</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -4680,13 +4686,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>88</v>
@@ -4707,23 +4713,23 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>91</v>
@@ -4734,20 +4740,20 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="E26" s="48"/>
       <c r="F26" s="48"/>
       <c r="G26" s="48"/>
       <c r="H26" s="48"/>
       <c r="I26" s="1" t="s">
-        <v>1063</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -4755,23 +4761,23 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>91</v>
@@ -4782,23 +4788,23 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>91</v>
@@ -4809,23 +4815,23 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>91</v>
@@ -4836,26 +4842,26 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="50" x14ac:dyDescent="0.35">
@@ -4863,13 +4869,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>41</v>
@@ -4890,20 +4896,20 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D32" s="42" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="E32" s="29"/>
       <c r="F32" s="4"/>
       <c r="G32" s="28"/>
       <c r="H32" s="28"/>
       <c r="I32" s="1" t="s">
-        <v>1063</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -4911,20 +4917,20 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D33" s="42" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E33" s="29"/>
       <c r="F33" s="4"/>
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
       <c r="I33" s="1" t="s">
-        <v>1063</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -4932,20 +4938,20 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D34" s="42" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="E34" s="29"/>
       <c r="F34" s="4"/>
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
       <c r="I34" s="1" t="s">
-        <v>1063</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -4953,20 +4959,20 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D35" s="42" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E35" s="29"/>
       <c r="F35" s="4"/>
       <c r="G35" s="28"/>
       <c r="H35" s="28"/>
       <c r="I35" s="1" t="s">
-        <v>1063</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -4974,20 +4980,20 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D36" s="42" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="E36" s="29"/>
       <c r="F36" s="4"/>
       <c r="G36" s="28"/>
       <c r="H36" s="28"/>
       <c r="I36" s="1" t="s">
-        <v>1063</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -4995,20 +5001,20 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D37" s="42" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E37" s="29"/>
       <c r="F37" s="4"/>
       <c r="G37" s="28"/>
       <c r="H37" s="28"/>
       <c r="I37" s="1" t="s">
-        <v>1063</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -5016,20 +5022,20 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D38" s="42" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E38" s="29"/>
       <c r="F38" s="4"/>
       <c r="G38" s="28"/>
       <c r="H38" s="28"/>
       <c r="I38" s="1" t="s">
-        <v>1063</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -5037,20 +5043,20 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D39" s="42" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="E39" s="29"/>
       <c r="F39" s="4"/>
       <c r="G39" s="28"/>
       <c r="H39" s="28"/>
       <c r="I39" s="1" t="s">
-        <v>1063</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -5058,20 +5064,20 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D40" s="47" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="E40" s="29"/>
       <c r="F40" s="4"/>
       <c r="G40" s="28"/>
       <c r="H40" s="28"/>
       <c r="I40" s="1" t="s">
-        <v>1063</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -5079,20 +5085,20 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D41" s="47" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="E41" s="29"/>
       <c r="F41" s="4"/>
       <c r="G41" s="28"/>
       <c r="H41" s="28"/>
       <c r="I41" s="1" t="s">
-        <v>1063</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
@@ -5100,20 +5106,20 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D42" s="47" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="E42" s="29"/>
       <c r="F42" s="4"/>
       <c r="G42" s="28"/>
       <c r="H42" s="28"/>
       <c r="I42" s="1" t="s">
-        <v>1063</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
@@ -5121,20 +5127,20 @@
         <v>42</v>
       </c>
       <c r="B43" s="55" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C43" s="55" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D43" s="56" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="E43" s="57"/>
       <c r="F43" s="58"/>
       <c r="G43" s="59"/>
       <c r="H43" s="59"/>
       <c r="I43" s="1" t="s">
-        <v>1063</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
@@ -5142,13 +5148,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="E44" s="44" t="s">
         <v>44</v>
@@ -5163,7 +5169,7 @@
         <v>43</v>
       </c>
       <c r="I44" s="29" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
@@ -5171,13 +5177,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="E45" s="44" t="s">
         <v>38</v>
@@ -5192,7 +5198,7 @@
         <v>37</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
@@ -5200,13 +5206,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>46</v>
@@ -5219,7 +5225,7 @@
         <v>45</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="45" customFormat="1" ht="62.5" x14ac:dyDescent="0.35">
@@ -5227,28 +5233,28 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="H47" s="55" t="s">
-        <v>1064</v>
+        <v>1024</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
@@ -5256,23 +5262,23 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="E48" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F48" s="43" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="G48" s="43"/>
       <c r="H48" s="43" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>91</v>
@@ -5283,23 +5289,23 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="E49" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F49" s="43" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="G49" s="43"/>
       <c r="H49" s="43" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>91</v>
@@ -5310,23 +5316,23 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D50" s="31" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="E50" s="52" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="F50" s="43" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="G50" s="43"/>
       <c r="H50" s="43" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>91</v>
@@ -5337,28 +5343,28 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="E51" s="43" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="F51" s="43" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="G51" s="43" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="H51" s="43" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="I51" s="43" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="75" x14ac:dyDescent="0.35">
@@ -5366,13 +5372,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>623</v>
+        <v>1030</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D52" s="41" t="s">
-        <v>1070</v>
+        <v>1030</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>27</v>
@@ -5382,7 +5388,7 @@
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="43" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>91</v>
@@ -5393,26 +5399,26 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>623</v>
+        <v>1030</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -5420,13 +5426,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>623</v>
+        <v>1030</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D54" s="31" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>98</v>
@@ -5447,13 +5453,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D55" s="41" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>32</v>
@@ -5474,26 +5480,26 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="75" x14ac:dyDescent="0.35">
@@ -5501,13 +5507,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D57" s="31" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>32</v>
@@ -5520,7 +5526,7 @@
         <v>31</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
@@ -5528,13 +5534,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D58" s="41" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>29</v>
@@ -5544,7 +5550,7 @@
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>91</v>
@@ -5555,16 +5561,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D59" s="31" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>138</v>
@@ -5582,23 +5588,23 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="E60" s="52" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="F60" s="43" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="G60" s="43"/>
       <c r="H60" s="43" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="I60" s="43" t="s">
         <v>91</v>
@@ -5609,23 +5615,23 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D61" s="30" t="s">
+        <v>827</v>
+      </c>
+      <c r="E61" s="52" t="s">
         <v>833</v>
       </c>
-      <c r="E61" s="52" t="s">
-        <v>839</v>
-      </c>
       <c r="F61" s="43" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="G61" s="43"/>
       <c r="H61" s="43" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="I61" s="43" t="s">
         <v>91</v>
@@ -5636,23 +5642,23 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="E62" s="52" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="F62" s="43" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="G62" s="43"/>
       <c r="H62" s="43" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="I62" s="43" t="s">
         <v>91</v>
@@ -5663,26 +5669,26 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="E63" s="52" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="F63" s="43" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="G63" s="43"/>
       <c r="H63" s="43" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="I63" s="43" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
@@ -5690,13 +5696,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D64" s="41" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>22</v>
@@ -5717,20 +5723,20 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D65" s="42" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="I65" s="1" t="s">
-        <v>1063</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
@@ -5738,13 +5744,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D66" s="31" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>118</v>
@@ -5765,16 +5771,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D67" s="31" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>144</v>
@@ -5784,7 +5790,7 @@
         <v>506</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="87.5" x14ac:dyDescent="0.35">
@@ -5792,13 +5798,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D68" s="41" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>24</v>
@@ -5808,7 +5814,7 @@
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="43" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>91</v>
@@ -5819,16 +5825,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>137</v>
@@ -5846,16 +5852,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D70" s="31" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>101</v>
@@ -5873,16 +5879,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D71" s="31" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E71" s="43" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>25</v>
@@ -5892,7 +5898,7 @@
         <v>499</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
@@ -5900,23 +5906,23 @@
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D72" s="41" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>55</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="4" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>91</v>
@@ -5927,20 +5933,20 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D73" s="42" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="I73" s="1" t="s">
-        <v>1063</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
@@ -5948,20 +5954,20 @@
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D74" s="42" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
       <c r="H74" s="3"/>
       <c r="I74" s="1" t="s">
-        <v>1063</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
@@ -5969,20 +5975,20 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D75" s="42" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="1" t="s">
-        <v>1063</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="50" x14ac:dyDescent="0.35">
@@ -5990,13 +5996,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D76" s="41" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>53</v>
@@ -6017,13 +6023,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D77" s="31" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>131</v>
@@ -6044,13 +6050,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D78" s="31" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>130</v>
@@ -6066,31 +6072,31 @@
         <v>91</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="33">
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D79" s="31" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>512</v>
+        <v>1083</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="4" t="s">
-        <v>513</v>
+        <v>1084</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>91</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -6098,16 +6104,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D80" s="31" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>140</v>
@@ -6125,16 +6131,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D81" s="31" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>141</v>
@@ -6144,7 +6150,7 @@
         <v>54</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
@@ -6152,13 +6158,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D82" s="41" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>62</v>
@@ -6179,20 +6185,20 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D83" s="42" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
       <c r="H83" s="3"/>
       <c r="I83" s="1" t="s">
-        <v>1063</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="50" x14ac:dyDescent="0.35">
@@ -6200,13 +6206,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D84" s="31" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>64</v>
@@ -6227,16 +6233,16 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D85" s="31" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>104</v>
@@ -6254,16 +6260,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D86" s="31" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>65</v>
@@ -6273,7 +6279,7 @@
         <v>66</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -6281,23 +6287,23 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D87" s="31" t="s">
-        <v>1071</v>
+        <v>1031</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="4" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="I87" s="43" t="s">
         <v>91</v>
@@ -6308,23 +6314,23 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D88" s="31" t="s">
-        <v>1072</v>
+        <v>1032</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="4" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="I88" s="43" t="s">
         <v>91</v>
@@ -6335,13 +6341,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D89" s="41" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>49</v>
@@ -6362,20 +6368,20 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D90" s="42" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
       <c r="I90" s="1" t="s">
-        <v>1063</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
@@ -6383,20 +6389,20 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D91" s="42" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
       <c r="I91" s="1" t="s">
-        <v>1063</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -6404,16 +6410,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D92" s="31" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>50</v>
@@ -6431,16 +6437,16 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D93" s="31" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>105</v>
@@ -6458,13 +6464,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D94" s="41" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>78</v>
@@ -6485,16 +6491,16 @@
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D95" s="31" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>106</v>
@@ -6512,13 +6518,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D96" s="41" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>57</v>
@@ -6528,7 +6534,7 @@
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="3" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>91</v>
@@ -6539,20 +6545,20 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D97" s="42" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
       <c r="H97" s="3"/>
       <c r="I97" s="1" t="s">
-        <v>1063</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
@@ -6560,20 +6566,20 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D98" s="42" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
       <c r="H98" s="3"/>
       <c r="I98" s="1" t="s">
-        <v>1063</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
@@ -6581,20 +6587,20 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D99" s="63" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
       <c r="H99" s="3"/>
       <c r="I99" s="1" t="s">
-        <v>1063</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -6602,13 +6608,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D100" s="31" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>114</v>
@@ -6629,16 +6635,16 @@
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D101" s="31" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>116</v>
@@ -6656,23 +6662,23 @@
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D102" s="31" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="4" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="I102" s="43" t="s">
         <v>91</v>
@@ -6683,23 +6689,23 @@
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D103" s="31" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="4" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="I103" s="43" t="s">
         <v>91</v>
@@ -6710,16 +6716,16 @@
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D104" s="31" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>67</v>
@@ -6729,7 +6735,7 @@
         <v>68</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -6737,16 +6743,16 @@
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D105" s="31" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>70</v>
@@ -6756,7 +6762,7 @@
         <v>71</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -6764,16 +6770,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D106" s="31" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="F106" s="4" t="s">
         <v>72</v>
@@ -6783,7 +6789,7 @@
         <v>73</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
@@ -6791,13 +6797,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D107" s="41" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>85</v>
@@ -6818,20 +6824,20 @@
         <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D108" s="42" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
       <c r="H108" s="3"/>
       <c r="I108" s="1" t="s">
-        <v>1063</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
@@ -6839,20 +6845,20 @@
         <v>108</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D109" s="47" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
       <c r="H109" s="3"/>
       <c r="I109" s="1" t="s">
-        <v>1063</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
@@ -6860,20 +6866,20 @@
         <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D110" s="47" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
       <c r="H110" s="3"/>
       <c r="I110" s="1" t="s">
-        <v>1063</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
@@ -6881,20 +6887,20 @@
         <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D111" s="47" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
       <c r="H111" s="3"/>
       <c r="I111" s="1" t="s">
-        <v>1063</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
@@ -6902,20 +6908,20 @@
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D112" s="47" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
       <c r="H112" s="3"/>
       <c r="I112" s="1" t="s">
-        <v>1063</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
@@ -6923,20 +6929,20 @@
         <v>112</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D113" s="47" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
       <c r="H113" s="3"/>
       <c r="I113" s="1" t="s">
-        <v>1063</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
@@ -6944,20 +6950,20 @@
         <v>113</v>
       </c>
       <c r="B114" s="58" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C114" s="55" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D114" s="56" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="E114" s="55"/>
       <c r="F114" s="58"/>
       <c r="G114" s="58"/>
       <c r="H114" s="60"/>
       <c r="I114" s="1" t="s">
-        <v>1063</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -6965,23 +6971,23 @@
         <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D115" s="31" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G115" s="4"/>
       <c r="H115" s="4" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I115" s="4" t="s">
         <v>91</v>
@@ -6992,23 +6998,23 @@
         <v>115</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D116" s="31" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="I116" s="4" t="s">
         <v>91</v>
@@ -7019,23 +7025,23 @@
         <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D117" s="31" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="E117" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F117" s="43" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="G117" s="43"/>
       <c r="H117" s="43" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="I117" s="43" t="s">
         <v>91</v>
@@ -7046,23 +7052,23 @@
         <v>117</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D118" s="31" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="E118" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F118" s="43" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="G118" s="43"/>
       <c r="H118" s="43" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="I118" s="43" t="s">
         <v>91</v>
@@ -7106,17 +7112,17 @@
         <v>92</v>
       </c>
       <c r="D120" s="31" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="F120" s="4" t="s">
         <v>113</v>
       </c>
       <c r="G120" s="4"/>
       <c r="H120" s="4" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="I120" s="4" t="s">
         <v>91</v>
@@ -7133,7 +7139,7 @@
         <v>92</v>
       </c>
       <c r="D121" s="31" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>132</v>
@@ -7160,17 +7166,17 @@
         <v>92</v>
       </c>
       <c r="D122" s="31" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="E122" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F122" s="43" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="G122" s="43"/>
       <c r="H122" s="43" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="I122" s="43" t="s">
         <v>91</v>
@@ -7187,71 +7193,77 @@
         <v>92</v>
       </c>
       <c r="D123" s="31" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="E123" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F123" s="43" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="G123" s="43"/>
       <c r="H123" s="43" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="I123" s="43" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A124" s="33">
         <v>123</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D124" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="F124" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G124" s="4"/>
-      <c r="H124" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I124" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D124" s="31" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E124" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F124" s="43" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G124" s="61"/>
+      <c r="H124" s="61" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I124" s="43" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A125" s="33">
         <v>124</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="D125" s="42" t="s">
-        <v>545</v>
-      </c>
-      <c r="E125" s="1"/>
-      <c r="F125" s="4"/>
-      <c r="G125" s="4"/>
-      <c r="H125" s="4"/>
-      <c r="I125" s="1" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+      <c r="D125" s="76" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E125" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F125" s="61" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G125" s="61"/>
+      <c r="H125" s="61" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I125" s="43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A126" s="33">
         <v>125</v>
       </c>
@@ -7259,17 +7271,23 @@
         <v>79</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="D126" s="42" t="s">
-        <v>546</v>
-      </c>
-      <c r="E126" s="1"/>
-      <c r="F126" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="D126" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="G126" s="4"/>
-      <c r="H126" s="4"/>
+      <c r="H126" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="I126" s="1" t="s">
-        <v>1063</v>
+        <v>91</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.35">
@@ -7280,17 +7298,17 @@
         <v>79</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D127" s="42" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="E127" s="1"/>
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
       <c r="I127" s="1" t="s">
-        <v>1063</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.35">
@@ -7301,20 +7319,20 @@
         <v>79</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D128" s="42" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="4"/>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
       <c r="I128" s="1" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="33">
         <v>128</v>
       </c>
@@ -7322,50 +7340,38 @@
         <v>79</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D129" s="31" t="s">
-        <v>549</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="F129" s="4" t="s">
-        <v>81</v>
-      </c>
+        <v>614</v>
+      </c>
+      <c r="D129" s="42" t="s">
+        <v>550</v>
+      </c>
+      <c r="E129" s="1"/>
+      <c r="F129" s="4"/>
       <c r="G129" s="4"/>
-      <c r="H129" s="4" t="s">
-        <v>82</v>
-      </c>
+      <c r="H129" s="4"/>
       <c r="I129" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="75" x14ac:dyDescent="0.35">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="33">
         <v>129</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>635</v>
+        <v>79</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D130" s="41" t="s">
-        <v>635</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>83</v>
-      </c>
+        <v>614</v>
+      </c>
+      <c r="D130" s="42" t="s">
+        <v>549</v>
+      </c>
+      <c r="E130" s="1"/>
+      <c r="F130" s="4"/>
       <c r="G130" s="4"/>
-      <c r="H130" s="4" t="s">
-        <v>145</v>
-      </c>
+      <c r="H130" s="4"/>
       <c r="I130" s="1" t="s">
-        <v>91</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -7373,50 +7379,50 @@
         <v>130</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>635</v>
+        <v>79</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D131" s="31" t="s">
-        <v>773</v>
+        <v>547</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="G131" s="4"/>
       <c r="H131" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="I131" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="I131" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" ht="75" x14ac:dyDescent="0.35">
       <c r="A132" s="33">
         <v>131</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D132" s="41" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="G132" s="4"/>
       <c r="H132" s="4" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="I132" s="1" t="s">
         <v>91</v>
@@ -7427,52 +7433,52 @@
         <v>132</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D133" s="31" t="s">
-        <v>547</v>
-      </c>
-      <c r="E133" s="4" t="s">
-        <v>727</v>
+        <v>767</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>721</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="G133" s="4"/>
       <c r="H133" s="4" t="s">
-        <v>504</v>
+        <v>610</v>
       </c>
       <c r="I133" s="43" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" ht="50" x14ac:dyDescent="0.35">
       <c r="A134" s="33">
         <v>133</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D134" s="31" t="s">
-        <v>772</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>728</v>
+        <v>4</v>
+      </c>
+      <c r="D134" s="41" t="s">
+        <v>632</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>722</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="G134" s="4"/>
       <c r="H134" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="I134" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="I134" s="1" t="s">
         <v>91</v>
       </c>
     </row>
@@ -7481,23 +7487,23 @@
         <v>134</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D135" s="46" t="s">
-        <v>548</v>
-      </c>
-      <c r="E135" s="33" t="s">
-        <v>729</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="G135" s="33"/>
+      <c r="D135" s="31" t="s">
+        <v>545</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G135" s="4"/>
       <c r="H135" s="4" t="s">
-        <v>679</v>
+        <v>504</v>
       </c>
       <c r="I135" s="43" t="s">
         <v>91</v>
@@ -7508,48 +7514,48 @@
         <v>135</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D136" s="41" t="s">
-        <v>639</v>
+        <v>92</v>
+      </c>
+      <c r="D136" s="31" t="s">
+        <v>766</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>645</v>
+        <v>724</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>639</v>
-      </c>
-      <c r="G136" s="35"/>
+        <v>110</v>
+      </c>
+      <c r="G136" s="4"/>
       <c r="H136" s="4" t="s">
-        <v>644</v>
+        <v>122</v>
       </c>
       <c r="I136" s="43" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A137" s="33">
         <v>136</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D137" s="31" t="s">
-        <v>640</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>730</v>
-      </c>
-      <c r="F137" s="4" t="s">
-        <v>674</v>
-      </c>
-      <c r="G137" s="35"/>
+      <c r="D137" s="46" t="s">
+        <v>546</v>
+      </c>
+      <c r="E137" s="33" t="s">
+        <v>725</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="G137" s="33"/>
       <c r="H137" s="4" t="s">
         <v>675</v>
       </c>
@@ -7562,23 +7568,23 @@
         <v>137</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D138" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D138" s="41" t="s">
+        <v>635</v>
+      </c>
+      <c r="E138" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="E138" s="4" t="s">
-        <v>731</v>
-      </c>
       <c r="F138" s="4" t="s">
-        <v>673</v>
-      </c>
-      <c r="G138" s="4"/>
+        <v>635</v>
+      </c>
+      <c r="G138" s="35"/>
       <c r="H138" s="4" t="s">
-        <v>676</v>
+        <v>640</v>
       </c>
       <c r="I138" s="43" t="s">
         <v>91</v>
@@ -7589,23 +7595,23 @@
         <v>138</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D139" s="31" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>646</v>
-      </c>
-      <c r="G139" s="4"/>
+        <v>670</v>
+      </c>
+      <c r="G139" s="35"/>
       <c r="H139" s="4" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="I139" s="43" t="s">
         <v>91</v>
@@ -7616,173 +7622,173 @@
         <v>139</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D140" s="31" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>662</v>
-      </c>
-      <c r="G140" s="35"/>
+        <v>669</v>
+      </c>
+      <c r="G140" s="4"/>
       <c r="H140" s="4" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="I140" s="43" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" s="33">
         <v>140</v>
       </c>
-      <c r="B141" s="1" t="s">
-        <v>767</v>
+      <c r="B141" s="4" t="s">
+        <v>635</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D141" s="41" t="s">
-        <v>767</v>
-      </c>
-      <c r="E141" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="F141" s="33" t="s">
-        <v>768</v>
-      </c>
-      <c r="G141" s="33"/>
-      <c r="H141" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="I141" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D141" s="31" t="s">
+        <v>638</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="G141" s="4"/>
+      <c r="H141" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="I141" s="43" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A142" s="33">
         <v>141</v>
       </c>
-      <c r="B142" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="C142" s="33" t="s">
-        <v>617</v>
-      </c>
-      <c r="D142" s="47" t="s">
-        <v>770</v>
-      </c>
-      <c r="E142" s="33"/>
-      <c r="F142" s="33"/>
-      <c r="G142" s="33"/>
-      <c r="H142" s="33"/>
-      <c r="I142" s="1" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B142" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D142" s="31" t="s">
+        <v>639</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="G142" s="35"/>
+      <c r="H142" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="I142" s="43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A143" s="33">
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="C143" s="33" t="s">
-        <v>617</v>
-      </c>
-      <c r="D143" s="47" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E143" s="33"/>
-      <c r="F143" s="33"/>
+        <v>761</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D143" s="41" t="s">
+        <v>761</v>
+      </c>
+      <c r="E143" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F143" s="33" t="s">
+        <v>762</v>
+      </c>
       <c r="G143" s="33"/>
-      <c r="H143" s="33"/>
-      <c r="I143" s="1" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" s="49" customFormat="1" ht="25" x14ac:dyDescent="0.35">
+      <c r="H143" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="I143" s="33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" s="33">
         <v>143</v>
       </c>
-      <c r="B144" s="33" t="s">
-        <v>799</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D144" s="54" t="s">
-        <v>799</v>
-      </c>
-      <c r="E144" s="52" t="s">
-        <v>826</v>
-      </c>
-      <c r="F144" s="43" t="s">
-        <v>799</v>
-      </c>
-      <c r="G144" s="43"/>
-      <c r="H144" s="43" t="s">
-        <v>827</v>
-      </c>
-      <c r="I144" s="33" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" s="49" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="B144" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="C144" s="33" t="s">
+        <v>614</v>
+      </c>
+      <c r="D144" s="47" t="s">
+        <v>764</v>
+      </c>
+      <c r="E144" s="33"/>
+      <c r="F144" s="33"/>
+      <c r="G144" s="33"/>
+      <c r="H144" s="33"/>
+      <c r="I144" s="1" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="33">
         <v>144</v>
       </c>
-      <c r="B145" s="33" t="s">
-        <v>799</v>
-      </c>
-      <c r="C145" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="D145" s="30" t="s">
-        <v>800</v>
-      </c>
-      <c r="E145" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="F145" s="43" t="s">
-        <v>807</v>
-      </c>
-      <c r="G145" s="43"/>
-      <c r="H145" s="43" t="s">
-        <v>808</v>
-      </c>
-      <c r="I145" s="33" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" s="49" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="B145" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="C145" s="33" t="s">
+        <v>614</v>
+      </c>
+      <c r="D145" s="47" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E145" s="33"/>
+      <c r="F145" s="33"/>
+      <c r="G145" s="33"/>
+      <c r="H145" s="33"/>
+      <c r="I145" s="1" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" s="49" customFormat="1" ht="25" x14ac:dyDescent="0.35">
       <c r="A146" s="33">
         <v>145</v>
       </c>
       <c r="B146" s="33" t="s">
-        <v>799</v>
-      </c>
-      <c r="C146" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="D146" s="30" t="s">
-        <v>801</v>
-      </c>
-      <c r="E146" s="43" t="s">
-        <v>16</v>
+        <v>793</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D146" s="54" t="s">
+        <v>793</v>
+      </c>
+      <c r="E146" s="52" t="s">
+        <v>820</v>
       </c>
       <c r="F146" s="43" t="s">
-        <v>809</v>
+        <v>793</v>
       </c>
       <c r="G146" s="43"/>
       <c r="H146" s="43" t="s">
-        <v>810</v>
+        <v>821</v>
       </c>
       <c r="I146" s="33" t="s">
         <v>91</v>
@@ -7793,23 +7799,23 @@
         <v>146</v>
       </c>
       <c r="B147" s="33" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="C147" s="53" t="s">
         <v>92</v>
       </c>
       <c r="D147" s="30" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="E147" s="52" t="s">
-        <v>811</v>
+        <v>16</v>
       </c>
       <c r="F147" s="43" t="s">
-        <v>812</v>
+        <v>801</v>
       </c>
       <c r="G147" s="43"/>
       <c r="H147" s="43" t="s">
-        <v>813</v>
+        <v>802</v>
       </c>
       <c r="I147" s="33" t="s">
         <v>91</v>
@@ -7820,209 +7826,209 @@
         <v>147</v>
       </c>
       <c r="B148" s="33" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="C148" s="53" t="s">
         <v>92</v>
       </c>
       <c r="D148" s="30" t="s">
+        <v>795</v>
+      </c>
+      <c r="E148" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F148" s="43" t="s">
         <v>803</v>
-      </c>
-      <c r="E148" s="52" t="s">
-        <v>814</v>
-      </c>
-      <c r="F148" s="43" t="s">
-        <v>815</v>
       </c>
       <c r="G148" s="43"/>
       <c r="H148" s="43" t="s">
-        <v>816</v>
+        <v>804</v>
       </c>
       <c r="I148" s="33" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="149" spans="1:9" s="49" customFormat="1" ht="50" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" s="49" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A149" s="33">
         <v>148</v>
       </c>
       <c r="B149" s="33" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="C149" s="53" t="s">
         <v>92</v>
       </c>
       <c r="D149" s="30" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="E149" s="52" t="s">
-        <v>817</v>
+        <v>805</v>
       </c>
       <c r="F149" s="43" t="s">
-        <v>818</v>
+        <v>806</v>
       </c>
       <c r="G149" s="43"/>
       <c r="H149" s="43" t="s">
-        <v>819</v>
+        <v>807</v>
       </c>
       <c r="I149" s="33" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="150" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" s="49" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A150" s="33">
         <v>149</v>
       </c>
       <c r="B150" s="33" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="C150" s="53" t="s">
         <v>92</v>
       </c>
       <c r="D150" s="30" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="E150" s="52" t="s">
-        <v>820</v>
+        <v>808</v>
       </c>
       <c r="F150" s="43" t="s">
-        <v>821</v>
+        <v>809</v>
       </c>
       <c r="G150" s="43"/>
       <c r="H150" s="43" t="s">
-        <v>822</v>
+        <v>810</v>
       </c>
       <c r="I150" s="33" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="151" spans="1:9" s="49" customFormat="1" ht="25" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" s="49" customFormat="1" ht="50" x14ac:dyDescent="0.35">
       <c r="A151" s="33">
         <v>150</v>
       </c>
       <c r="B151" s="33" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="C151" s="53" t="s">
         <v>92</v>
       </c>
       <c r="D151" s="30" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="E151" s="52" t="s">
-        <v>823</v>
+        <v>811</v>
       </c>
       <c r="F151" s="43" t="s">
-        <v>824</v>
+        <v>812</v>
       </c>
       <c r="G151" s="43"/>
       <c r="H151" s="43" t="s">
-        <v>825</v>
-      </c>
-      <c r="I151" s="1" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" ht="62.5" x14ac:dyDescent="0.35">
+        <v>813</v>
+      </c>
+      <c r="I151" s="33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A152" s="33">
         <v>151</v>
       </c>
-      <c r="B152" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D152" s="41" t="s">
-        <v>905</v>
-      </c>
-      <c r="E152" s="43" t="s">
-        <v>16</v>
+      <c r="B152" s="33" t="s">
+        <v>793</v>
+      </c>
+      <c r="C152" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="D152" s="30" t="s">
+        <v>799</v>
+      </c>
+      <c r="E152" s="52" t="s">
+        <v>814</v>
       </c>
       <c r="F152" s="43" t="s">
-        <v>911</v>
+        <v>815</v>
       </c>
       <c r="G152" s="43"/>
       <c r="H152" s="43" t="s">
-        <v>912</v>
-      </c>
-      <c r="I152" s="43" t="s">
+        <v>816</v>
+      </c>
+      <c r="I152" s="33" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" s="49" customFormat="1" ht="25" x14ac:dyDescent="0.35">
       <c r="A153" s="33">
         <v>152</v>
       </c>
-      <c r="B153" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="C153" s="33" t="s">
-        <v>617</v>
-      </c>
-      <c r="D153" s="47" t="s">
-        <v>906</v>
-      </c>
-      <c r="E153" s="33"/>
-      <c r="F153" s="33"/>
-      <c r="G153" s="33"/>
-      <c r="H153" s="33"/>
+      <c r="B153" s="33" t="s">
+        <v>793</v>
+      </c>
+      <c r="C153" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="D153" s="30" t="s">
+        <v>800</v>
+      </c>
+      <c r="E153" s="52" t="s">
+        <v>817</v>
+      </c>
+      <c r="F153" s="43" t="s">
+        <v>818</v>
+      </c>
+      <c r="G153" s="43"/>
+      <c r="H153" s="43" t="s">
+        <v>819</v>
+      </c>
       <c r="I153" s="1" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A154" s="33">
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="C154" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="D154" s="30" t="s">
-        <v>907</v>
+        <v>899</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D154" s="41" t="s">
+        <v>899</v>
       </c>
       <c r="E154" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F154" s="43" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="G154" s="43"/>
       <c r="H154" s="43" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="I154" s="43" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" s="33">
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="C155" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="D155" s="30" t="s">
-        <v>908</v>
-      </c>
-      <c r="E155" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F155" s="43" t="s">
-        <v>915</v>
-      </c>
-      <c r="G155" s="43"/>
-      <c r="H155" s="43" t="s">
-        <v>1066</v>
-      </c>
-      <c r="I155" s="43" t="s">
-        <v>91</v>
+        <v>614</v>
+      </c>
+      <c r="D155" s="47" t="s">
+        <v>900</v>
+      </c>
+      <c r="E155" s="33"/>
+      <c r="F155" s="33"/>
+      <c r="G155" s="33"/>
+      <c r="H155" s="33"/>
+      <c r="I155" s="1" t="s">
+        <v>1023</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -8030,50 +8036,50 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="C156" s="33" t="s">
         <v>92</v>
       </c>
       <c r="D156" s="30" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="E156" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F156" s="43" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
       <c r="G156" s="43"/>
       <c r="H156" s="43" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
       <c r="I156" s="43" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A157" s="33">
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="C157" s="33" t="s">
         <v>92</v>
       </c>
       <c r="D157" s="30" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="E157" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F157" s="43" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
       <c r="G157" s="43"/>
       <c r="H157" s="43" t="s">
-        <v>919</v>
+        <v>1026</v>
       </c>
       <c r="I157" s="43" t="s">
         <v>91</v>
@@ -8083,24 +8089,24 @@
       <c r="A158" s="33">
         <v>157</v>
       </c>
-      <c r="B158" s="33" t="s">
-        <v>920</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D158" s="41" t="s">
-        <v>920</v>
+      <c r="B158" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="C158" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D158" s="30" t="s">
+        <v>903</v>
       </c>
       <c r="E158" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F158" s="43" t="s">
-        <v>922</v>
+        <v>910</v>
       </c>
       <c r="G158" s="43"/>
       <c r="H158" s="43" t="s">
-        <v>923</v>
+        <v>911</v>
       </c>
       <c r="I158" s="43" t="s">
         <v>91</v>
@@ -8111,44 +8117,50 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="C159" s="33" t="s">
-        <v>617</v>
-      </c>
-      <c r="D159" s="47" t="s">
-        <v>921</v>
-      </c>
-      <c r="E159" s="33"/>
-      <c r="F159" s="33"/>
-      <c r="G159" s="33"/>
-      <c r="H159" s="33"/>
-      <c r="I159" s="1" t="s">
-        <v>1063</v>
+        <v>92</v>
+      </c>
+      <c r="D159" s="30" t="s">
+        <v>904</v>
+      </c>
+      <c r="E159" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F159" s="43" t="s">
+        <v>912</v>
+      </c>
+      <c r="G159" s="43"/>
+      <c r="H159" s="43" t="s">
+        <v>913</v>
+      </c>
+      <c r="I159" s="43" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A160" s="33">
         <v>159</v>
       </c>
-      <c r="B160" s="1" t="s">
-        <v>920</v>
-      </c>
-      <c r="C160" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="D160" s="30" t="s">
-        <v>934</v>
+      <c r="B160" s="33" t="s">
+        <v>914</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D160" s="41" t="s">
+        <v>914</v>
       </c>
       <c r="E160" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F160" s="43" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="G160" s="43"/>
       <c r="H160" s="43" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="I160" s="43" t="s">
         <v>91</v>
@@ -8159,77 +8171,71 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="C161" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="D161" s="30" t="s">
-        <v>935</v>
-      </c>
-      <c r="E161" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F161" s="43" t="s">
-        <v>926</v>
-      </c>
-      <c r="G161" s="43"/>
-      <c r="H161" s="43" t="s">
-        <v>927</v>
-      </c>
-      <c r="I161" s="43" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+        <v>614</v>
+      </c>
+      <c r="D161" s="47" t="s">
+        <v>915</v>
+      </c>
+      <c r="E161" s="33"/>
+      <c r="F161" s="33"/>
+      <c r="G161" s="33"/>
+      <c r="H161" s="33"/>
+      <c r="I161" s="1" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A162" s="33">
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="C162" s="33" t="s">
         <v>92</v>
       </c>
       <c r="D162" s="30" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="E162" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F162" s="43" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="G162" s="43"/>
       <c r="H162" s="43" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
       <c r="I162" s="43" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A163" s="33">
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="C163" s="33" t="s">
         <v>92</v>
       </c>
       <c r="D163" s="30" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="E163" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F163" s="43" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
       <c r="G163" s="43"/>
       <c r="H163" s="43" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
       <c r="I163" s="43" t="s">
         <v>91</v>
@@ -8240,77 +8246,77 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="C164" s="33" t="s">
         <v>92</v>
       </c>
       <c r="D164" s="30" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="E164" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F164" s="43" t="s">
-        <v>932</v>
+        <v>922</v>
       </c>
       <c r="G164" s="43"/>
       <c r="H164" s="43" t="s">
-        <v>933</v>
+        <v>923</v>
       </c>
       <c r="I164" s="43" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" ht="50" x14ac:dyDescent="0.35">
       <c r="A165" s="33">
         <v>164</v>
       </c>
-      <c r="B165" s="33" t="s">
-        <v>939</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D165" s="41" t="s">
-        <v>939</v>
+      <c r="B165" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="C165" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D165" s="30" t="s">
+        <v>931</v>
       </c>
       <c r="E165" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F165" s="43" t="s">
-        <v>941</v>
+        <v>924</v>
       </c>
       <c r="G165" s="43"/>
       <c r="H165" s="43" t="s">
-        <v>942</v>
+        <v>925</v>
       </c>
       <c r="I165" s="43" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A166" s="33">
         <v>165</v>
       </c>
-      <c r="B166" s="33" t="s">
-        <v>939</v>
+      <c r="B166" s="1" t="s">
+        <v>914</v>
       </c>
       <c r="C166" s="33" t="s">
         <v>92</v>
       </c>
       <c r="D166" s="30" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="E166" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F166" s="43" t="s">
-        <v>943</v>
+        <v>926</v>
       </c>
       <c r="G166" s="43"/>
       <c r="H166" s="43" t="s">
-        <v>944</v>
+        <v>927</v>
       </c>
       <c r="I166" s="43" t="s">
         <v>91</v>
@@ -8321,23 +8327,23 @@
         <v>166</v>
       </c>
       <c r="B167" s="33" t="s">
-        <v>939</v>
-      </c>
-      <c r="C167" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="D167" s="30" t="s">
-        <v>640</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="F167" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="G167" s="33"/>
-      <c r="H167" s="1" t="s">
-        <v>644</v>
+        <v>933</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D167" s="41" t="s">
+        <v>933</v>
+      </c>
+      <c r="E167" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F167" s="43" t="s">
+        <v>935</v>
+      </c>
+      <c r="G167" s="43"/>
+      <c r="H167" s="43" t="s">
+        <v>936</v>
       </c>
       <c r="I167" s="43" t="s">
         <v>91</v>
@@ -8347,19 +8353,25 @@
       <c r="A168" s="33">
         <v>167</v>
       </c>
-      <c r="B168" s="1" t="s">
-        <v>953</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D168" s="41" t="s">
-        <v>953</v>
-      </c>
-      <c r="E168" s="43"/>
-      <c r="F168" s="43"/>
+      <c r="B168" s="33" t="s">
+        <v>933</v>
+      </c>
+      <c r="C168" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D168" s="30" t="s">
+        <v>934</v>
+      </c>
+      <c r="E168" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F168" s="43" t="s">
+        <v>937</v>
+      </c>
       <c r="G168" s="43"/>
-      <c r="H168" s="43"/>
+      <c r="H168" s="43" t="s">
+        <v>938</v>
+      </c>
       <c r="I168" s="43" t="s">
         <v>91</v>
       </c>
@@ -8368,24 +8380,24 @@
       <c r="A169" s="33">
         <v>168</v>
       </c>
-      <c r="B169" s="1" t="s">
-        <v>953</v>
+      <c r="B169" s="33" t="s">
+        <v>933</v>
       </c>
       <c r="C169" s="33" t="s">
         <v>92</v>
       </c>
       <c r="D169" s="30" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E169" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F169" s="43" t="s">
-        <v>945</v>
-      </c>
-      <c r="G169" s="43"/>
-      <c r="H169" s="43" t="s">
-        <v>946</v>
+        <v>636</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="G169" s="33"/>
+      <c r="H169" s="1" t="s">
+        <v>640</v>
       </c>
       <c r="I169" s="43" t="s">
         <v>91</v>
@@ -8396,24 +8408,18 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>953</v>
-      </c>
-      <c r="C170" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="D170" s="30" t="s">
-        <v>951</v>
-      </c>
-      <c r="E170" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F170" s="43" t="s">
         <v>947</v>
       </c>
+      <c r="C170" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D170" s="41" t="s">
+        <v>947</v>
+      </c>
+      <c r="E170" s="43"/>
+      <c r="F170" s="43"/>
       <c r="G170" s="43"/>
-      <c r="H170" s="43" t="s">
-        <v>948</v>
-      </c>
+      <c r="H170" s="43"/>
       <c r="I170" s="43" t="s">
         <v>91</v>
       </c>
@@ -8423,23 +8429,23 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="C171" s="33" t="s">
         <v>92</v>
       </c>
       <c r="D171" s="30" t="s">
-        <v>952</v>
+        <v>1028</v>
       </c>
       <c r="E171" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F171" s="43" t="s">
-        <v>949</v>
+        <v>939</v>
       </c>
       <c r="G171" s="43"/>
       <c r="H171" s="43" t="s">
-        <v>950</v>
+        <v>940</v>
       </c>
       <c r="I171" s="43" t="s">
         <v>91</v>
@@ -8450,23 +8456,23 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>954</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D172" s="41" t="s">
-        <v>954</v>
+        <v>947</v>
+      </c>
+      <c r="C172" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D172" s="30" t="s">
+        <v>945</v>
       </c>
       <c r="E172" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F172" s="43" t="s">
-        <v>955</v>
+        <v>941</v>
       </c>
       <c r="G172" s="43"/>
       <c r="H172" s="43" t="s">
-        <v>956</v>
+        <v>942</v>
       </c>
       <c r="I172" s="43" t="s">
         <v>91</v>
@@ -8477,20 +8483,26 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
       <c r="C173" s="33" t="s">
-        <v>617</v>
-      </c>
-      <c r="D173" s="47" t="s">
-        <v>961</v>
-      </c>
-      <c r="E173" s="33"/>
-      <c r="F173" s="33"/>
-      <c r="G173" s="33"/>
-      <c r="H173" s="33"/>
-      <c r="I173" s="1" t="s">
-        <v>1063</v>
+        <v>92</v>
+      </c>
+      <c r="D173" s="30" t="s">
+        <v>946</v>
+      </c>
+      <c r="E173" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F173" s="43" t="s">
+        <v>943</v>
+      </c>
+      <c r="G173" s="43"/>
+      <c r="H173" s="43" t="s">
+        <v>944</v>
+      </c>
+      <c r="I173" s="43" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -8498,20 +8510,26 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>954</v>
-      </c>
-      <c r="C174" s="33" t="s">
-        <v>617</v>
-      </c>
-      <c r="D174" s="47" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E174" s="33"/>
-      <c r="F174" s="33"/>
-      <c r="G174" s="33"/>
-      <c r="H174" s="33"/>
-      <c r="I174" s="1" t="s">
-        <v>1063</v>
+        <v>948</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D174" s="41" t="s">
+        <v>948</v>
+      </c>
+      <c r="E174" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F174" s="43" t="s">
+        <v>949</v>
+      </c>
+      <c r="G174" s="43"/>
+      <c r="H174" s="43" t="s">
+        <v>950</v>
+      </c>
+      <c r="I174" s="43" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -8519,20 +8537,20 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="C175" s="33" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D175" s="47" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="E175" s="33"/>
       <c r="F175" s="33"/>
       <c r="G175" s="33"/>
       <c r="H175" s="33"/>
       <c r="I175" s="1" t="s">
-        <v>1063</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -8540,26 +8558,20 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="C176" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="D176" s="30" t="s">
-        <v>962</v>
-      </c>
-      <c r="E176" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F176" s="43" t="s">
-        <v>957</v>
-      </c>
-      <c r="G176" s="43"/>
-      <c r="H176" s="43" t="s">
-        <v>958</v>
-      </c>
-      <c r="I176" s="43" t="s">
-        <v>91</v>
+        <v>614</v>
+      </c>
+      <c r="D176" s="47" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E176" s="33"/>
+      <c r="F176" s="33"/>
+      <c r="G176" s="33"/>
+      <c r="H176" s="33"/>
+      <c r="I176" s="1" t="s">
+        <v>1023</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -8567,52 +8579,46 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="C177" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="D177" s="30" t="s">
-        <v>963</v>
-      </c>
-      <c r="E177" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F177" s="43" t="s">
-        <v>959</v>
-      </c>
-      <c r="G177" s="43"/>
-      <c r="H177" s="43" t="s">
-        <v>960</v>
-      </c>
-      <c r="I177" s="43" t="s">
-        <v>91</v>
+        <v>614</v>
+      </c>
+      <c r="D177" s="47" t="s">
+        <v>958</v>
+      </c>
+      <c r="E177" s="33"/>
+      <c r="F177" s="33"/>
+      <c r="G177" s="33"/>
+      <c r="H177" s="33"/>
+      <c r="I177" s="1" t="s">
+        <v>1023</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A178" s="33">
         <v>177</v>
       </c>
-      <c r="B178" s="55" t="s">
-        <v>973</v>
-      </c>
-      <c r="C178" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="D178" s="54" t="s">
-        <v>973</v>
-      </c>
-      <c r="E178" s="61" t="s">
+      <c r="B178" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="C178" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D178" s="30" t="s">
+        <v>956</v>
+      </c>
+      <c r="E178" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F178" s="55" t="s">
-        <v>998</v>
-      </c>
-      <c r="G178" s="62"/>
-      <c r="H178" s="61" t="s">
-        <v>999</v>
-      </c>
-      <c r="I178" s="61" t="s">
+      <c r="F178" s="43" t="s">
+        <v>951</v>
+      </c>
+      <c r="G178" s="43"/>
+      <c r="H178" s="43" t="s">
+        <v>952</v>
+      </c>
+      <c r="I178" s="43" t="s">
         <v>91</v>
       </c>
     </row>
@@ -8620,21 +8626,27 @@
       <c r="A179" s="33">
         <v>178</v>
       </c>
-      <c r="B179" s="55" t="s">
-        <v>973</v>
-      </c>
-      <c r="C179" s="58" t="s">
-        <v>617</v>
-      </c>
-      <c r="D179" s="63" t="s">
-        <v>979</v>
-      </c>
-      <c r="E179" s="61"/>
-      <c r="F179" s="55"/>
-      <c r="G179" s="62"/>
-      <c r="H179" s="61"/>
-      <c r="I179" s="1" t="s">
-        <v>1063</v>
+      <c r="B179" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="C179" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D179" s="30" t="s">
+        <v>957</v>
+      </c>
+      <c r="E179" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F179" s="43" t="s">
+        <v>953</v>
+      </c>
+      <c r="G179" s="43"/>
+      <c r="H179" s="43" t="s">
+        <v>954</v>
+      </c>
+      <c r="I179" s="43" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -8642,107 +8654,101 @@
         <v>179</v>
       </c>
       <c r="B180" s="55" t="s">
-        <v>974</v>
+        <v>967</v>
       </c>
       <c r="C180" s="58" t="s">
         <v>4</v>
       </c>
       <c r="D180" s="54" t="s">
-        <v>974</v>
+        <v>967</v>
       </c>
       <c r="E180" s="61" t="s">
         <v>16</v>
       </c>
       <c r="F180" s="55" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="G180" s="62"/>
       <c r="H180" s="61" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="I180" s="61" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A181" s="33">
         <v>180</v>
       </c>
-      <c r="B181" s="61" t="s">
-        <v>975</v>
+      <c r="B181" s="55" t="s">
+        <v>967</v>
       </c>
       <c r="C181" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="D181" s="64" t="s">
-        <v>975</v>
-      </c>
-      <c r="E181" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="F181" s="55" t="s">
-        <v>1002</v>
-      </c>
+        <v>614</v>
+      </c>
+      <c r="D181" s="63" t="s">
+        <v>973</v>
+      </c>
+      <c r="E181" s="61"/>
+      <c r="F181" s="55"/>
       <c r="G181" s="62"/>
-      <c r="H181" s="61" t="s">
-        <v>1003</v>
-      </c>
-      <c r="I181" s="61" t="s">
-        <v>91</v>
+      <c r="H181" s="61"/>
+      <c r="I181" s="1" t="s">
+        <v>1023</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A182" s="33">
         <v>181</v>
       </c>
-      <c r="B182" s="61" t="s">
-        <v>975</v>
-      </c>
-      <c r="C182" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="D182" s="65" t="s">
-        <v>980</v>
+      <c r="B182" s="55" t="s">
+        <v>968</v>
+      </c>
+      <c r="C182" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D182" s="54" t="s">
+        <v>968</v>
       </c>
       <c r="E182" s="61" t="s">
         <v>16</v>
       </c>
       <c r="F182" s="55" t="s">
-        <v>1004</v>
+        <v>994</v>
       </c>
       <c r="G182" s="62"/>
       <c r="H182" s="61" t="s">
-        <v>1005</v>
+        <v>995</v>
       </c>
       <c r="I182" s="61" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A183" s="33">
         <v>182</v>
       </c>
-      <c r="B183" s="61" t="s">
-        <v>975</v>
-      </c>
-      <c r="C183" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="D183" s="65" t="s">
-        <v>981</v>
-      </c>
-      <c r="E183" s="61" t="s">
+      <c r="B183" s="55" t="s">
+        <v>968</v>
+      </c>
+      <c r="C183" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D183" s="30" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E183" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="F183" s="55" t="s">
-        <v>1006</v>
-      </c>
-      <c r="G183" s="62"/>
-      <c r="H183" s="61" t="s">
-        <v>1007</v>
+      <c r="F183" s="43" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G183" s="75"/>
+      <c r="H183" s="43" t="s">
+        <v>1035</v>
       </c>
       <c r="I183" s="61" t="s">
-        <v>1035</v>
+        <v>91</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -8750,41 +8756,53 @@
         <v>183</v>
       </c>
       <c r="B184" s="61" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="C184" s="58" t="s">
-        <v>617</v>
-      </c>
-      <c r="D184" s="56" t="s">
-        <v>982</v>
-      </c>
-      <c r="E184" s="61"/>
-      <c r="F184" s="62"/>
+        <v>4</v>
+      </c>
+      <c r="D184" s="64" t="s">
+        <v>969</v>
+      </c>
+      <c r="E184" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="F184" s="55" t="s">
+        <v>996</v>
+      </c>
       <c r="G184" s="62"/>
-      <c r="H184" s="62"/>
-      <c r="I184" s="1" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="H184" s="61" t="s">
+        <v>997</v>
+      </c>
+      <c r="I184" s="61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A185" s="33">
         <v>184</v>
       </c>
       <c r="B185" s="61" t="s">
-        <v>975</v>
-      </c>
-      <c r="C185" s="58" t="s">
-        <v>617</v>
-      </c>
-      <c r="D185" s="56" t="s">
-        <v>983</v>
-      </c>
-      <c r="E185" s="61"/>
-      <c r="F185" s="62"/>
+        <v>969</v>
+      </c>
+      <c r="C185" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="D185" s="65" t="s">
+        <v>974</v>
+      </c>
+      <c r="E185" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="F185" s="55" t="s">
+        <v>998</v>
+      </c>
       <c r="G185" s="62"/>
-      <c r="H185" s="62"/>
-      <c r="I185" s="1" t="s">
-        <v>1063</v>
+      <c r="H185" s="61" t="s">
+        <v>999</v>
+      </c>
+      <c r="I185" s="61" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -8792,20 +8810,26 @@
         <v>185</v>
       </c>
       <c r="B186" s="61" t="s">
+        <v>969</v>
+      </c>
+      <c r="C186" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="D186" s="65" t="s">
         <v>975</v>
       </c>
-      <c r="C186" s="58" t="s">
-        <v>617</v>
-      </c>
-      <c r="D186" s="56" t="s">
-        <v>984</v>
-      </c>
-      <c r="E186" s="61"/>
-      <c r="F186" s="62"/>
-      <c r="G186" s="61"/>
-      <c r="H186" s="61"/>
-      <c r="I186" s="1" t="s">
-        <v>1063</v>
+      <c r="E186" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="F186" s="55" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G186" s="62"/>
+      <c r="H186" s="61" t="s">
+        <v>1001</v>
+      </c>
+      <c r="I186" s="61" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -8813,191 +8837,191 @@
         <v>186</v>
       </c>
       <c r="B187" s="61" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="C187" s="58" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D187" s="56" t="s">
-        <v>985</v>
+        <v>976</v>
       </c>
       <c r="E187" s="61"/>
       <c r="F187" s="62"/>
       <c r="G187" s="62"/>
       <c r="H187" s="62"/>
       <c r="I187" s="1" t="s">
-        <v>1063</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A188" s="33">
         <v>187</v>
       </c>
-      <c r="B188" s="55" t="s">
-        <v>976</v>
+      <c r="B188" s="61" t="s">
+        <v>969</v>
       </c>
       <c r="C188" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="D188" s="54" t="s">
-        <v>976</v>
-      </c>
-      <c r="E188" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="F188" s="61" t="s">
-        <v>1014</v>
-      </c>
+        <v>614</v>
+      </c>
+      <c r="D188" s="56" t="s">
+        <v>977</v>
+      </c>
+      <c r="E188" s="61"/>
+      <c r="F188" s="62"/>
       <c r="G188" s="62"/>
-      <c r="H188" s="61" t="s">
-        <v>1015</v>
-      </c>
-      <c r="I188" s="61" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="H188" s="62"/>
+      <c r="I188" s="1" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A189" s="33">
         <v>188</v>
       </c>
-      <c r="B189" s="55" t="s">
-        <v>976</v>
-      </c>
-      <c r="C189" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="D189" s="66" t="s">
-        <v>986</v>
-      </c>
-      <c r="E189" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="F189" s="55" t="s">
-        <v>1016</v>
-      </c>
-      <c r="G189" s="62"/>
-      <c r="H189" s="61" t="s">
-        <v>1017</v>
-      </c>
-      <c r="I189" s="61" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="B189" s="61" t="s">
+        <v>969</v>
+      </c>
+      <c r="C189" s="58" t="s">
+        <v>614</v>
+      </c>
+      <c r="D189" s="56" t="s">
+        <v>978</v>
+      </c>
+      <c r="E189" s="61"/>
+      <c r="F189" s="62"/>
+      <c r="G189" s="61"/>
+      <c r="H189" s="61"/>
+      <c r="I189" s="1" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A190" s="33">
         <v>189</v>
       </c>
-      <c r="B190" s="55" t="s">
-        <v>976</v>
-      </c>
-      <c r="C190" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="D190" s="66" t="s">
-        <v>987</v>
-      </c>
-      <c r="E190" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="F190" s="55" t="s">
-        <v>1018</v>
-      </c>
+      <c r="B190" s="61" t="s">
+        <v>969</v>
+      </c>
+      <c r="C190" s="58" t="s">
+        <v>614</v>
+      </c>
+      <c r="D190" s="56" t="s">
+        <v>979</v>
+      </c>
+      <c r="E190" s="61"/>
+      <c r="F190" s="62"/>
       <c r="G190" s="62"/>
-      <c r="H190" s="61" t="s">
-        <v>1019</v>
-      </c>
-      <c r="I190" s="61" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="H190" s="62"/>
+      <c r="I190" s="1" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A191" s="33">
         <v>190</v>
       </c>
       <c r="B191" s="55" t="s">
-        <v>976</v>
-      </c>
-      <c r="C191" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="D191" s="66" t="s">
-        <v>988</v>
+        <v>970</v>
+      </c>
+      <c r="C191" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D191" s="54" t="s">
+        <v>970</v>
       </c>
       <c r="E191" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="F191" s="55" t="s">
-        <v>1020</v>
+      <c r="F191" s="61" t="s">
+        <v>1002</v>
       </c>
       <c r="G191" s="62"/>
       <c r="H191" s="61" t="s">
-        <v>1021</v>
+        <v>1003</v>
       </c>
       <c r="I191" s="61" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A192" s="33">
         <v>191</v>
       </c>
       <c r="B192" s="55" t="s">
-        <v>976</v>
-      </c>
-      <c r="C192" s="58" t="s">
-        <v>617</v>
-      </c>
-      <c r="D192" s="63" t="s">
-        <v>989</v>
-      </c>
-      <c r="E192" s="61"/>
-      <c r="F192" s="55"/>
+        <v>970</v>
+      </c>
+      <c r="C192" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="D192" s="66" t="s">
+        <v>980</v>
+      </c>
+      <c r="E192" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="F192" s="55" t="s">
+        <v>1004</v>
+      </c>
       <c r="G192" s="62"/>
-      <c r="H192" s="61"/>
-      <c r="I192" s="1" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="H192" s="61" t="s">
+        <v>1005</v>
+      </c>
+      <c r="I192" s="61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A193" s="33">
         <v>192</v>
       </c>
       <c r="B193" s="55" t="s">
-        <v>976</v>
-      </c>
-      <c r="C193" s="58" t="s">
-        <v>617</v>
-      </c>
-      <c r="D193" s="63" t="s">
-        <v>990</v>
-      </c>
-      <c r="E193" s="61"/>
-      <c r="F193" s="62"/>
+        <v>970</v>
+      </c>
+      <c r="C193" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="D193" s="66" t="s">
+        <v>981</v>
+      </c>
+      <c r="E193" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="F193" s="55" t="s">
+        <v>1006</v>
+      </c>
       <c r="G193" s="62"/>
-      <c r="H193" s="62"/>
-      <c r="I193" s="1" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="H193" s="61" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I193" s="61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A194" s="33">
         <v>193</v>
       </c>
       <c r="B194" s="55" t="s">
-        <v>976</v>
-      </c>
-      <c r="C194" s="58" t="s">
-        <v>617</v>
-      </c>
-      <c r="D194" s="63" t="s">
-        <v>991</v>
-      </c>
-      <c r="E194" s="61"/>
-      <c r="F194" s="62"/>
+        <v>970</v>
+      </c>
+      <c r="C194" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="D194" s="66" t="s">
+        <v>982</v>
+      </c>
+      <c r="E194" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="F194" s="55" t="s">
+        <v>1008</v>
+      </c>
       <c r="G194" s="62"/>
-      <c r="H194" s="62"/>
-      <c r="I194" s="1" t="s">
-        <v>1063</v>
+      <c r="H194" s="61" t="s">
+        <v>1009</v>
+      </c>
+      <c r="I194" s="61" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -9005,26 +9029,20 @@
         <v>194</v>
       </c>
       <c r="B195" s="55" t="s">
-        <v>977</v>
+        <v>970</v>
       </c>
       <c r="C195" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="D195" s="54" t="s">
-        <v>977</v>
-      </c>
-      <c r="E195" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="F195" s="55" t="s">
-        <v>1022</v>
-      </c>
+        <v>614</v>
+      </c>
+      <c r="D195" s="63" t="s">
+        <v>983</v>
+      </c>
+      <c r="E195" s="61"/>
+      <c r="F195" s="55"/>
       <c r="G195" s="62"/>
-      <c r="H195" s="61" t="s">
-        <v>1067</v>
-      </c>
-      <c r="I195" s="61" t="s">
-        <v>91</v>
+      <c r="H195" s="61"/>
+      <c r="I195" s="1" t="s">
+        <v>1023</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -9032,104 +9050,92 @@
         <v>195</v>
       </c>
       <c r="B196" s="55" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="C196" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="D196" s="54" t="s">
-        <v>978</v>
-      </c>
-      <c r="E196" s="61" t="s">
+        <v>614</v>
+      </c>
+      <c r="D196" s="63" t="s">
+        <v>984</v>
+      </c>
+      <c r="E196" s="61"/>
+      <c r="F196" s="62"/>
+      <c r="G196" s="62"/>
+      <c r="H196" s="62"/>
+      <c r="I196" s="1" t="s">
         <v>1023</v>
       </c>
-      <c r="F196" s="61" t="s">
-        <v>978</v>
-      </c>
-      <c r="G196" s="62"/>
-      <c r="H196" s="61" t="s">
-        <v>1024</v>
-      </c>
-      <c r="I196" s="61" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="197" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A197" s="33">
         <v>196</v>
       </c>
       <c r="B197" s="55" t="s">
-        <v>978</v>
-      </c>
-      <c r="C197" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="D197" s="66" t="s">
-        <v>992</v>
-      </c>
-      <c r="E197" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="F197" s="55" t="s">
-        <v>1025</v>
-      </c>
+        <v>970</v>
+      </c>
+      <c r="C197" s="58" t="s">
+        <v>614</v>
+      </c>
+      <c r="D197" s="63" t="s">
+        <v>985</v>
+      </c>
+      <c r="E197" s="61"/>
+      <c r="F197" s="62"/>
       <c r="G197" s="62"/>
-      <c r="H197" s="61" t="s">
-        <v>1026</v>
-      </c>
-      <c r="I197" s="61" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="H197" s="62"/>
+      <c r="I197" s="1" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A198" s="33">
         <v>197</v>
       </c>
       <c r="B198" s="55" t="s">
-        <v>978</v>
-      </c>
-      <c r="C198" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="D198" s="66" t="s">
-        <v>993</v>
+        <v>971</v>
+      </c>
+      <c r="C198" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D198" s="54" t="s">
+        <v>971</v>
       </c>
       <c r="E198" s="61" t="s">
         <v>16</v>
       </c>
       <c r="F198" s="55" t="s">
-        <v>1027</v>
+        <v>1010</v>
       </c>
       <c r="G198" s="62"/>
       <c r="H198" s="61" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="I198" s="61" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A199" s="33">
         <v>198</v>
       </c>
       <c r="B199" s="55" t="s">
-        <v>978</v>
-      </c>
-      <c r="C199" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="D199" s="66" t="s">
-        <v>994</v>
+        <v>972</v>
+      </c>
+      <c r="C199" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D199" s="54" t="s">
+        <v>972</v>
       </c>
       <c r="E199" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="F199" s="55" t="s">
-        <v>1029</v>
+        <v>1011</v>
+      </c>
+      <c r="F199" s="61" t="s">
+        <v>972</v>
       </c>
       <c r="G199" s="62"/>
       <c r="H199" s="61" t="s">
-        <v>1030</v>
+        <v>1012</v>
       </c>
       <c r="I199" s="61" t="s">
         <v>91</v>
@@ -9140,72 +9146,153 @@
         <v>199</v>
       </c>
       <c r="B200" s="55" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="C200" s="60" t="s">
         <v>92</v>
       </c>
       <c r="D200" s="66" t="s">
-        <v>995</v>
+        <v>986</v>
       </c>
       <c r="E200" s="61" t="s">
-        <v>1031</v>
+        <v>16</v>
       </c>
       <c r="F200" s="55" t="s">
-        <v>1032</v>
+        <v>1013</v>
       </c>
       <c r="G200" s="62"/>
       <c r="H200" s="61" t="s">
-        <v>1033</v>
-      </c>
-      <c r="I200" s="61" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+        <v>1014</v>
+      </c>
+      <c r="I200" s="43" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A201" s="33">
         <v>200</v>
       </c>
       <c r="B201" s="55" t="s">
-        <v>978</v>
-      </c>
-      <c r="C201" s="58" t="s">
-        <v>617</v>
-      </c>
-      <c r="D201" s="63" t="s">
-        <v>996</v>
-      </c>
-      <c r="E201" s="62"/>
-      <c r="F201" s="62"/>
+        <v>972</v>
+      </c>
+      <c r="C201" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="D201" s="66" t="s">
+        <v>987</v>
+      </c>
+      <c r="E201" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="F201" s="55" t="s">
+        <v>1015</v>
+      </c>
       <c r="G201" s="62"/>
-      <c r="H201" s="62"/>
-      <c r="I201" s="1" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="H201" s="61" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I201" s="61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A202" s="33">
         <v>201</v>
       </c>
       <c r="B202" s="55" t="s">
-        <v>978</v>
-      </c>
-      <c r="C202" s="58" t="s">
-        <v>617</v>
-      </c>
-      <c r="D202" s="63" t="s">
-        <v>997</v>
-      </c>
-      <c r="E202" s="62"/>
-      <c r="F202" s="62"/>
+        <v>972</v>
+      </c>
+      <c r="C202" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="D202" s="66" t="s">
+        <v>988</v>
+      </c>
+      <c r="E202" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="F202" s="55" t="s">
+        <v>1017</v>
+      </c>
       <c r="G202" s="62"/>
-      <c r="H202" s="62"/>
-      <c r="I202" s="1" t="s">
-        <v>1063</v>
+      <c r="H202" s="61" t="s">
+        <v>1018</v>
+      </c>
+      <c r="I202" s="43" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="A203" s="33">
+        <v>202</v>
+      </c>
+      <c r="B203" s="55" t="s">
+        <v>972</v>
+      </c>
+      <c r="C203" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="D203" s="66" t="s">
+        <v>989</v>
+      </c>
+      <c r="E203" s="61" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F203" s="55" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G203" s="62"/>
+      <c r="H203" s="61" t="s">
+        <v>1021</v>
+      </c>
+      <c r="I203" s="61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A204" s="33">
+        <v>203</v>
+      </c>
+      <c r="B204" s="55" t="s">
+        <v>972</v>
+      </c>
+      <c r="C204" s="58" t="s">
+        <v>614</v>
+      </c>
+      <c r="D204" s="63" t="s">
+        <v>990</v>
+      </c>
+      <c r="E204" s="62"/>
+      <c r="F204" s="62"/>
+      <c r="G204" s="62"/>
+      <c r="H204" s="62"/>
+      <c r="I204" s="1" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A205" s="33">
+        <v>204</v>
+      </c>
+      <c r="B205" s="55" t="s">
+        <v>972</v>
+      </c>
+      <c r="C205" s="58" t="s">
+        <v>614</v>
+      </c>
+      <c r="D205" s="63" t="s">
+        <v>991</v>
+      </c>
+      <c r="E205" s="62"/>
+      <c r="F205" s="62"/>
+      <c r="G205" s="62"/>
+      <c r="H205" s="62"/>
+      <c r="I205" s="1" t="s">
+        <v>1023</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I202" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I205" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9213,9 +9300,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N142"/>
+  <dimension ref="A1:M146"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:F1"/>
     </sheetView>
@@ -9232,48 +9319,46 @@
     <col min="9" max="16384" width="9.1796875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="72" t="s">
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="70" t="s">
         <v>497</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="5"/>
-    </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="74" t="s">
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" spans="1:13" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="72" t="s">
         <v>496</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="9"/>
-    </row>
-    <row r="3" spans="1:14" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="72" t="s">
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" spans="1:13" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="70" t="s">
         <v>498</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
       <c r="D3" s="32"/>
       <c r="E3" s="24"/>
       <c r="F3" s="20"/>
@@ -9283,10 +9368,9 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="5"/>
-    </row>
-    <row r="4" spans="1:14" s="7" customFormat="1" ht="14" x14ac:dyDescent="0.35">
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" s="7" customFormat="1" ht="14" x14ac:dyDescent="0.35">
       <c r="A4" s="18"/>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
@@ -9296,11 +9380,11 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:14" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="75" t="s">
+    <row r="5" spans="1:13" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="73" t="s">
         <v>147</v>
       </c>
-      <c r="B5" s="76"/>
+      <c r="B5" s="74"/>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
       <c r="E5" s="25"/>
@@ -9311,10 +9395,9 @@
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="10"/>
-    </row>
-    <row r="6" spans="1:14" s="14" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M5" s="10"/>
+    </row>
+    <row r="6" spans="1:13" s="14" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>150</v>
       </c>
@@ -9325,10 +9408,10 @@
         <v>92</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>0</v>
@@ -9340,18 +9423,18 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="14" customFormat="1" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" s="14" customFormat="1" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>149</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>170</v>
@@ -9364,18 +9447,18 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="14" customFormat="1" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" s="14" customFormat="1" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>149</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>171</v>
@@ -9388,18 +9471,18 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="14" customFormat="1" ht="50" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" s="14" customFormat="1" ht="50" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
         <v>149</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>172</v>
@@ -9412,18 +9495,18 @@
         <v>176</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="14" customFormat="1" ht="87.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" s="14" customFormat="1" ht="87.5" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>149</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>173</v>
@@ -9436,18 +9519,18 @@
         <v>177</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="14" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" s="14" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
         <v>149</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>217</v>
@@ -9462,18 +9545,18 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="14" customFormat="1" ht="137.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" s="14" customFormat="1" ht="137.5" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
         <v>149</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>218</v>
@@ -9488,18 +9571,18 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="14" customFormat="1" ht="175" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" s="14" customFormat="1" ht="175" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
         <v>149</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>219</v>
@@ -9514,18 +9597,18 @@
         <v>186</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="14" customFormat="1" ht="25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" s="14" customFormat="1" ht="25" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
         <v>149</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>220</v>
@@ -9540,18 +9623,18 @@
         <v>189</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="14" customFormat="1" ht="87.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" s="14" customFormat="1" ht="87.5" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
         <v>149</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>221</v>
@@ -9566,18 +9649,18 @@
         <v>192</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="14" customFormat="1" ht="25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" s="14" customFormat="1" ht="25" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
         <v>149</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>222</v>
@@ -9597,13 +9680,13 @@
         <v>149</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>223</v>
@@ -9623,13 +9706,13 @@
         <v>149</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>224</v>
@@ -9649,13 +9732,13 @@
         <v>149</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>225</v>
@@ -9675,13 +9758,13 @@
         <v>149</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>226</v>
@@ -9701,13 +9784,13 @@
         <v>149</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>227</v>
@@ -9727,13 +9810,13 @@
         <v>149</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E22" s="19" t="s">
         <v>228</v>
@@ -9753,13 +9836,13 @@
         <v>149</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E23" s="19" t="s">
         <v>229</v>
@@ -9779,13 +9862,13 @@
         <v>149</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>162</v>
@@ -9803,16 +9886,16 @@
         <v>149</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>153</v>
@@ -9829,13 +9912,13 @@
         <v>149</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="E26" s="15" t="s">
         <v>163</v>
@@ -9853,13 +9936,13 @@
         <v>149</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>164</v>
@@ -9877,13 +9960,13 @@
         <v>149</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>165</v>
@@ -9901,25 +9984,25 @@
         <v>149</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="F29" s="51" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="H29" s="19" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="14" customFormat="1" ht="25" x14ac:dyDescent="0.35">
@@ -9927,23 +10010,23 @@
         <v>149</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="15" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="14" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.35">
@@ -9951,25 +10034,25 @@
         <v>149</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="14" customFormat="1" ht="25" x14ac:dyDescent="0.35">
@@ -9977,13 +10060,13 @@
         <v>149</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E32" s="19" t="s">
         <v>400</v>
@@ -10003,13 +10086,13 @@
         <v>149</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E33" s="19" t="s">
         <v>401</v>
@@ -10027,13 +10110,13 @@
         <v>149</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E34" s="19" t="s">
         <v>402</v>
@@ -10051,13 +10134,13 @@
         <v>149</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E35" s="19" t="s">
         <v>403</v>
@@ -10075,13 +10158,13 @@
         <v>149</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E36" s="19" t="s">
         <v>404</v>
@@ -10099,13 +10182,13 @@
         <v>149</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E37" s="19" t="s">
         <v>405</v>
@@ -10123,13 +10206,13 @@
         <v>149</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E38" s="19" t="s">
         <v>406</v>
@@ -10147,13 +10230,13 @@
         <v>149</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E39" s="19" t="s">
         <v>407</v>
@@ -10173,13 +10256,13 @@
         <v>149</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E40" s="19" t="s">
         <v>408</v>
@@ -10197,13 +10280,13 @@
         <v>149</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E41" s="19" t="s">
         <v>409</v>
@@ -10221,13 +10304,13 @@
         <v>149</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E42" s="19" t="s">
         <v>410</v>
@@ -10247,13 +10330,13 @@
         <v>149</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E43" s="19" t="s">
         <v>467</v>
@@ -10271,13 +10354,13 @@
         <v>149</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E44" s="19" t="s">
         <v>468</v>
@@ -10295,13 +10378,13 @@
         <v>149</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E45" s="19" t="s">
         <v>469</v>
@@ -10319,13 +10402,13 @@
         <v>149</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E46" s="19" t="s">
         <v>470</v>
@@ -10343,13 +10426,13 @@
         <v>149</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E47" s="19" t="s">
         <v>471</v>
@@ -10367,13 +10450,13 @@
         <v>149</v>
       </c>
       <c r="B48" s="36" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E48" s="19" t="s">
         <v>472</v>
@@ -10391,13 +10474,13 @@
         <v>149</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E49" s="19" t="s">
         <v>403</v>
@@ -10415,13 +10498,13 @@
         <v>149</v>
       </c>
       <c r="B50" s="36" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E50" s="19" t="s">
         <v>473</v>
@@ -10439,13 +10522,13 @@
         <v>149</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E51" s="19" t="s">
         <v>474</v>
@@ -10463,13 +10546,13 @@
         <v>149</v>
       </c>
       <c r="B52" s="36" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E52" s="19" t="s">
         <v>475</v>
@@ -10487,13 +10570,13 @@
         <v>149</v>
       </c>
       <c r="B53" s="36" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E53" s="19" t="s">
         <v>476</v>
@@ -10511,13 +10594,13 @@
         <v>149</v>
       </c>
       <c r="B54" s="36" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E54" s="19" t="s">
         <v>477</v>
@@ -10537,13 +10620,13 @@
         <v>149</v>
       </c>
       <c r="B55" s="36" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E55" s="19" t="s">
         <v>478</v>
@@ -10561,13 +10644,13 @@
         <v>149</v>
       </c>
       <c r="B56" s="36" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E56" s="19" t="s">
         <v>479</v>
@@ -10585,13 +10668,13 @@
         <v>149</v>
       </c>
       <c r="B57" s="36" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E57" s="19" t="s">
         <v>480</v>
@@ -10609,13 +10692,13 @@
         <v>149</v>
       </c>
       <c r="B58" s="36" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E58" s="19" t="s">
         <v>481</v>
@@ -10633,13 +10716,13 @@
         <v>149</v>
       </c>
       <c r="B59" s="36" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E59" s="19" t="s">
         <v>482</v>
@@ -10657,13 +10740,13 @@
         <v>149</v>
       </c>
       <c r="B60" s="36" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E60" s="19" t="s">
         <v>483</v>
@@ -10676,18 +10759,18 @@
         <v>445</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="14" customFormat="1" ht="25" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" s="14" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A61" s="15" t="s">
         <v>149</v>
       </c>
       <c r="B61" s="36" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E61" s="19" t="s">
         <v>484</v>
@@ -10705,13 +10788,13 @@
         <v>149</v>
       </c>
       <c r="B62" s="36" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E62" s="19" t="s">
         <v>485</v>
@@ -10729,13 +10812,13 @@
         <v>149</v>
       </c>
       <c r="B63" s="36" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E63" s="19" t="s">
         <v>486</v>
@@ -10753,13 +10836,13 @@
         <v>149</v>
       </c>
       <c r="B64" s="36" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E64" s="19" t="s">
         <v>407</v>
@@ -10779,13 +10862,13 @@
         <v>149</v>
       </c>
       <c r="B65" s="36" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E65" s="19" t="s">
         <v>487</v>
@@ -10803,13 +10886,13 @@
         <v>149</v>
       </c>
       <c r="B66" s="36" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E66" s="19" t="s">
         <v>488</v>
@@ -10827,13 +10910,13 @@
         <v>149</v>
       </c>
       <c r="B67" s="36" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E67" s="19" t="s">
         <v>489</v>
@@ -10851,13 +10934,13 @@
         <v>149</v>
       </c>
       <c r="B68" s="36" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E68" s="19" t="s">
         <v>490</v>
@@ -10877,13 +10960,13 @@
         <v>149</v>
       </c>
       <c r="B69" s="36" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E69" s="19" t="s">
         <v>491</v>
@@ -10901,13 +10984,13 @@
         <v>149</v>
       </c>
       <c r="B70" s="36" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E70" s="19" t="s">
         <v>410</v>
@@ -10927,13 +11010,13 @@
         <v>149</v>
       </c>
       <c r="B71" s="36" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E71" s="19" t="s">
         <v>492</v>
@@ -10951,13 +11034,13 @@
         <v>149</v>
       </c>
       <c r="B72" s="36" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E72" s="19" t="s">
         <v>493</v>
@@ -10975,13 +11058,13 @@
         <v>149</v>
       </c>
       <c r="B73" s="36" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E73" s="19" t="s">
         <v>240</v>
@@ -10999,13 +11082,13 @@
         <v>149</v>
       </c>
       <c r="B74" s="36" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E74" s="19" t="s">
         <v>241</v>
@@ -11023,13 +11106,13 @@
         <v>149</v>
       </c>
       <c r="B75" s="36" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D75" s="19" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E75" s="19" t="s">
         <v>242</v>
@@ -11047,13 +11130,13 @@
         <v>149</v>
       </c>
       <c r="B76" s="36" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E76" s="19" t="s">
         <v>243</v>
@@ -11071,13 +11154,13 @@
         <v>149</v>
       </c>
       <c r="B77" s="36" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E77" s="19" t="s">
         <v>244</v>
@@ -11095,13 +11178,13 @@
         <v>149</v>
       </c>
       <c r="B78" s="36" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="E78" s="15" t="s">
         <v>494</v>
@@ -11113,7 +11196,7 @@
         <v>510</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>759</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="25" x14ac:dyDescent="0.35">
@@ -11121,13 +11204,13 @@
         <v>149</v>
       </c>
       <c r="B79" s="36" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="E79" s="15" t="s">
         <v>507</v>
@@ -11139,7 +11222,7 @@
         <v>511</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>760</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="37.5" x14ac:dyDescent="0.35">
@@ -11147,13 +11230,13 @@
         <v>149</v>
       </c>
       <c r="B80" s="36" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="E80" s="19" t="s">
         <v>251</v>
@@ -11171,13 +11254,13 @@
         <v>149</v>
       </c>
       <c r="B81" s="36" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="E81" s="19" t="s">
         <v>252</v>
@@ -11195,13 +11278,13 @@
         <v>149</v>
       </c>
       <c r="B82" s="36" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="E82" s="19" t="s">
         <v>253</v>
@@ -11219,16 +11302,16 @@
         <v>149</v>
       </c>
       <c r="B83" s="36" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D83" s="19" t="s">
+        <v>740</v>
+      </c>
+      <c r="E83" s="19" t="s">
         <v>744</v>
-      </c>
-      <c r="E83" s="19" t="s">
-        <v>748</v>
       </c>
       <c r="F83" s="19" t="s">
         <v>254</v>
@@ -11243,13 +11326,13 @@
         <v>149</v>
       </c>
       <c r="B84" s="36" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D84" s="19" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="E84" s="19" t="s">
         <v>263</v>
@@ -11267,13 +11350,13 @@
         <v>149</v>
       </c>
       <c r="B85" s="36" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="E85" s="19" t="s">
         <v>264</v>
@@ -11291,16 +11374,16 @@
         <v>149</v>
       </c>
       <c r="B86" s="36" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="E86" s="19" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="F86" s="19" t="s">
         <v>259</v>
@@ -11315,16 +11398,16 @@
         <v>149</v>
       </c>
       <c r="B87" s="36" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="E87" s="19" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="F87" s="19" t="s">
         <v>261</v>
@@ -11339,13 +11422,13 @@
         <v>149</v>
       </c>
       <c r="B88" s="36" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E88" s="19" t="s">
         <v>289</v>
@@ -11363,13 +11446,13 @@
         <v>149</v>
       </c>
       <c r="B89" s="36" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E89" s="19" t="s">
         <v>290</v>
@@ -11387,13 +11470,13 @@
         <v>149</v>
       </c>
       <c r="B90" s="36" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E90" s="19" t="s">
         <v>291</v>
@@ -11413,13 +11496,13 @@
         <v>149</v>
       </c>
       <c r="B91" s="36" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E91" s="19" t="s">
         <v>292</v>
@@ -11437,13 +11520,13 @@
         <v>149</v>
       </c>
       <c r="B92" s="36" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E92" s="19" t="s">
         <v>293</v>
@@ -11463,13 +11546,13 @@
         <v>149</v>
       </c>
       <c r="B93" s="36" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E93" s="19" t="s">
         <v>294</v>
@@ -11487,13 +11570,13 @@
         <v>149</v>
       </c>
       <c r="B94" s="36" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E94" s="19" t="s">
         <v>295</v>
@@ -11511,13 +11594,13 @@
         <v>149</v>
       </c>
       <c r="B95" s="36" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E95" s="19" t="s">
         <v>296</v>
@@ -11535,13 +11618,13 @@
         <v>149</v>
       </c>
       <c r="B96" s="36" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E96" s="19" t="s">
         <v>297</v>
@@ -11559,13 +11642,13 @@
         <v>149</v>
       </c>
       <c r="B97" s="36" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E97" s="19" t="s">
         <v>298</v>
@@ -11583,13 +11666,13 @@
         <v>149</v>
       </c>
       <c r="B98" s="36" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E98" s="19" t="s">
         <v>299</v>
@@ -11599,7 +11682,7 @@
       </c>
       <c r="G98" s="19"/>
       <c r="H98" s="19" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="37.5" x14ac:dyDescent="0.35">
@@ -11607,13 +11690,13 @@
         <v>149</v>
       </c>
       <c r="B99" s="36" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E99" s="19" t="s">
         <v>300</v>
@@ -11623,7 +11706,7 @@
       </c>
       <c r="G99" s="19"/>
       <c r="H99" s="19" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="25" x14ac:dyDescent="0.35">
@@ -11631,13 +11714,13 @@
         <v>149</v>
       </c>
       <c r="B100" s="36" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="E100" s="19" t="s">
         <v>375</v>
@@ -11655,13 +11738,13 @@
         <v>149</v>
       </c>
       <c r="B101" s="36" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D101" s="19" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E101" s="19" t="s">
         <v>357</v>
@@ -11679,13 +11762,13 @@
         <v>149</v>
       </c>
       <c r="B102" s="36" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D102" s="19" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E102" s="19" t="s">
         <v>358</v>
@@ -11703,13 +11786,13 @@
         <v>149</v>
       </c>
       <c r="B103" s="36" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E103" s="19" t="s">
         <v>359</v>
@@ -11727,13 +11810,13 @@
         <v>149</v>
       </c>
       <c r="B104" s="36" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D104" s="19" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E104" s="19" t="s">
         <v>360</v>
@@ -11751,13 +11834,13 @@
         <v>149</v>
       </c>
       <c r="B105" s="36" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D105" s="19" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E105" s="19" t="s">
         <v>361</v>
@@ -11775,13 +11858,13 @@
         <v>149</v>
       </c>
       <c r="B106" s="36" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E106" s="19" t="s">
         <v>362</v>
@@ -11799,13 +11882,13 @@
         <v>149</v>
       </c>
       <c r="B107" s="36" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E107" s="19" t="s">
         <v>363</v>
@@ -11823,13 +11906,13 @@
         <v>149</v>
       </c>
       <c r="B108" s="36" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D108" s="19" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E108" s="19" t="s">
         <v>364</v>
@@ -11847,13 +11930,13 @@
         <v>149</v>
       </c>
       <c r="B109" s="36" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D109" s="19" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E109" s="19" t="s">
         <v>365</v>
@@ -11871,13 +11954,13 @@
         <v>149</v>
       </c>
       <c r="B110" s="36" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D110" s="19" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E110" s="19" t="s">
         <v>366</v>
@@ -11895,13 +11978,13 @@
         <v>149</v>
       </c>
       <c r="B111" s="36" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E111" s="19" t="s">
         <v>367</v>
@@ -11919,13 +12002,13 @@
         <v>149</v>
       </c>
       <c r="B112" s="36" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D112" s="19" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E112" s="19" t="s">
         <v>368</v>
@@ -11943,13 +12026,13 @@
         <v>149</v>
       </c>
       <c r="B113" s="36" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D113" s="19" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E113" s="19" t="s">
         <v>369</v>
@@ -11967,13 +12050,13 @@
         <v>149</v>
       </c>
       <c r="B114" s="36" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D114" s="19" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E114" s="19" t="s">
         <v>370</v>
@@ -11991,13 +12074,13 @@
         <v>149</v>
       </c>
       <c r="B115" s="36" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E115" s="19" t="s">
         <v>371</v>
@@ -12015,13 +12098,13 @@
         <v>149</v>
       </c>
       <c r="B116" s="36" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E116" s="19" t="s">
         <v>372</v>
@@ -12039,13 +12122,13 @@
         <v>149</v>
       </c>
       <c r="B117" s="36" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E117" s="19" t="s">
         <v>373</v>
@@ -12063,13 +12146,13 @@
         <v>149</v>
       </c>
       <c r="B118" s="36" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E118" s="19" t="s">
         <v>374</v>
@@ -12087,13 +12170,13 @@
         <v>149</v>
       </c>
       <c r="B119" s="36" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>562</v>
+        <v>783</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="E119" s="19" t="s">
         <v>315</v>
@@ -12113,13 +12196,13 @@
         <v>149</v>
       </c>
       <c r="B120" s="36" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C120" s="15" t="s">
-        <v>562</v>
+        <v>783</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="E120" s="19" t="s">
         <v>316</v>
@@ -12139,13 +12222,13 @@
         <v>149</v>
       </c>
       <c r="B121" s="36" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>562</v>
+        <v>783</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="E121" s="19" t="s">
         <v>317</v>
@@ -12163,13 +12246,13 @@
         <v>149</v>
       </c>
       <c r="B122" s="36" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C122" s="15" t="s">
-        <v>562</v>
+        <v>783</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="E122" s="19" t="s">
         <v>318</v>
@@ -12187,13 +12270,13 @@
         <v>149</v>
       </c>
       <c r="B123" s="36" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>562</v>
+        <v>783</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="E123" s="19" t="s">
         <v>319</v>
@@ -12211,13 +12294,13 @@
         <v>149</v>
       </c>
       <c r="B124" s="36" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C124" s="15" t="s">
-        <v>562</v>
+        <v>783</v>
       </c>
       <c r="D124" s="19" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="E124" s="19" t="s">
         <v>320</v>
@@ -12235,25 +12318,25 @@
         <v>149</v>
       </c>
       <c r="B125" s="36" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C125" s="19" t="s">
+        <v>847</v>
+      </c>
+      <c r="D125" s="19" t="s">
+        <v>869</v>
+      </c>
+      <c r="E125" s="43" t="s">
+        <v>852</v>
+      </c>
+      <c r="F125" s="43" t="s">
         <v>853</v>
       </c>
-      <c r="D125" s="19" t="s">
-        <v>875</v>
-      </c>
-      <c r="E125" s="43" t="s">
-        <v>858</v>
-      </c>
-      <c r="F125" s="43" t="s">
-        <v>859</v>
-      </c>
       <c r="G125" s="43" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="H125" s="43" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="50" x14ac:dyDescent="0.35">
@@ -12261,23 +12344,23 @@
         <v>149</v>
       </c>
       <c r="B126" s="36" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="D126" s="19" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="E126" s="43" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="F126" s="43" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="G126" s="43"/>
       <c r="H126" s="43" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="37.5" x14ac:dyDescent="0.35">
@@ -12285,23 +12368,23 @@
         <v>149</v>
       </c>
       <c r="B127" s="36" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="D127" s="19" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="E127" s="43" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="F127" s="43" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="G127" s="43"/>
       <c r="H127" s="43" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="25" x14ac:dyDescent="0.35">
@@ -12309,23 +12392,23 @@
         <v>149</v>
       </c>
       <c r="B128" s="36" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="D128" s="19" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="E128" s="43" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="F128" s="43" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="G128" s="43"/>
       <c r="H128" s="43" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="25" x14ac:dyDescent="0.35">
@@ -12333,25 +12416,25 @@
         <v>149</v>
       </c>
       <c r="B129" s="36" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="D129" s="19" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="E129" s="43" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="F129" s="43" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="G129" s="43" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="H129" s="43" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.35">
@@ -12359,23 +12442,23 @@
         <v>149</v>
       </c>
       <c r="B130" s="36" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="D130" s="19" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="E130" s="43" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="F130" s="43" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="G130" s="43"/>
       <c r="H130" s="43" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="37.5" x14ac:dyDescent="0.35">
@@ -12383,25 +12466,25 @@
         <v>149</v>
       </c>
       <c r="B131" s="36" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="D131" s="19" t="s">
+        <v>884</v>
+      </c>
+      <c r="E131" s="43" t="s">
+        <v>888</v>
+      </c>
+      <c r="F131" s="43" t="s">
+        <v>889</v>
+      </c>
+      <c r="G131" s="43" t="s">
         <v>890</v>
       </c>
-      <c r="E131" s="43" t="s">
-        <v>894</v>
-      </c>
-      <c r="F131" s="43" t="s">
-        <v>895</v>
-      </c>
-      <c r="G131" s="43" t="s">
-        <v>896</v>
-      </c>
       <c r="H131" s="43" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="37.5" x14ac:dyDescent="0.35">
@@ -12409,273 +12492,371 @@
         <v>149</v>
       </c>
       <c r="B132" s="36" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="D132" s="19" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="E132" s="43" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="F132" s="43" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="G132" s="43" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="H132" s="43" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="25" x14ac:dyDescent="0.35">
       <c r="A133" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="B133" s="68" t="s">
-        <v>975</v>
-      </c>
-      <c r="C133" s="51" t="s">
-        <v>981</v>
+      <c r="B133" s="69" t="s">
+        <v>972</v>
+      </c>
+      <c r="C133" s="19" t="s">
+        <v>988</v>
       </c>
       <c r="D133" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="E133" s="60" t="s">
-        <v>1008</v>
-      </c>
-      <c r="F133" s="60" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G133" s="60"/>
-      <c r="H133" s="60" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="E133" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="F133" s="55" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G133" s="51"/>
+      <c r="H133" s="55" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="25" x14ac:dyDescent="0.35">
       <c r="A134" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="B134" s="68" t="s">
-        <v>975</v>
-      </c>
-      <c r="C134" s="51" t="s">
-        <v>981</v>
+      <c r="B134" s="69" t="s">
+        <v>972</v>
+      </c>
+      <c r="C134" s="19" t="s">
+        <v>988</v>
       </c>
       <c r="D134" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="E134" s="60" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F134" s="60" t="s">
-        <v>1012</v>
-      </c>
-      <c r="G134" s="69"/>
-      <c r="H134" s="60" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E134" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="F134" s="55" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G134" s="61"/>
+      <c r="H134" s="55" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="25" x14ac:dyDescent="0.35">
       <c r="A135" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="B135" s="71" t="s">
-        <v>978</v>
-      </c>
-      <c r="C135" s="51" t="s">
-        <v>992</v>
+      <c r="B135" s="69" t="s">
+        <v>972</v>
+      </c>
+      <c r="C135" s="19" t="s">
+        <v>988</v>
       </c>
       <c r="D135" s="51" t="s">
-        <v>1036</v>
-      </c>
-      <c r="E135" s="70" t="s">
-        <v>1055</v>
-      </c>
-      <c r="F135" s="70" t="s">
-        <v>1037</v>
-      </c>
-      <c r="G135" s="70"/>
-      <c r="H135" s="70" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="E135" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="F135" s="55" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G135" s="61"/>
+      <c r="H135" s="55" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="25" x14ac:dyDescent="0.35">
       <c r="A136" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="B136" s="71" t="s">
-        <v>978</v>
-      </c>
-      <c r="C136" s="51" t="s">
-        <v>992</v>
+      <c r="B136" s="69" t="s">
+        <v>972</v>
+      </c>
+      <c r="C136" s="19" t="s">
+        <v>988</v>
       </c>
       <c r="D136" s="51" t="s">
-        <v>1036</v>
-      </c>
-      <c r="E136" s="70" t="s">
-        <v>1056</v>
-      </c>
-      <c r="F136" s="70" t="s">
-        <v>1039</v>
-      </c>
-      <c r="G136" s="70"/>
-      <c r="H136" s="70" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="E136" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="F136" s="55" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G136" s="61"/>
+      <c r="H136" s="1" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="25" x14ac:dyDescent="0.35">
       <c r="A137" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="B137" s="71" t="s">
-        <v>978</v>
-      </c>
-      <c r="C137" s="51" t="s">
-        <v>992</v>
+      <c r="B137" s="69" t="s">
+        <v>972</v>
+      </c>
+      <c r="C137" s="19" t="s">
+        <v>986</v>
       </c>
       <c r="D137" s="51" t="s">
-        <v>1036</v>
-      </c>
-      <c r="E137" s="70" t="s">
-        <v>1057</v>
-      </c>
-      <c r="F137" s="70" t="s">
-        <v>1041</v>
-      </c>
-      <c r="G137" s="70"/>
-      <c r="H137" s="70" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="E137" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="F137" s="43" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G137" s="61"/>
+      <c r="H137" s="43" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="25" x14ac:dyDescent="0.35">
       <c r="A138" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="B138" s="71" t="s">
-        <v>978</v>
-      </c>
-      <c r="C138" s="51" t="s">
-        <v>992</v>
+      <c r="B138" s="69" t="s">
+        <v>972</v>
+      </c>
+      <c r="C138" s="19" t="s">
+        <v>986</v>
       </c>
       <c r="D138" s="51" t="s">
-        <v>1036</v>
-      </c>
-      <c r="E138" s="70" t="s">
-        <v>1058</v>
-      </c>
-      <c r="F138" s="70" t="s">
-        <v>1043</v>
-      </c>
-      <c r="G138" s="70"/>
-      <c r="H138" s="70" t="s">
-        <v>1044</v>
+        <v>16</v>
+      </c>
+      <c r="E138" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="F138" s="43" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G138" s="61"/>
+      <c r="H138" s="43" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="B139" s="71" t="s">
-        <v>978</v>
-      </c>
-      <c r="C139" s="51" t="s">
-        <v>992</v>
+      <c r="B139" s="69" t="s">
+        <v>972</v>
+      </c>
+      <c r="C139" s="19" t="s">
+        <v>986</v>
       </c>
       <c r="D139" s="51" t="s">
-        <v>1036</v>
-      </c>
-      <c r="E139" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="E139" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="F139" s="43" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G139" s="43"/>
+      <c r="H139" s="43" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A140" s="67" t="s">
+        <v>149</v>
+      </c>
+      <c r="B140" s="68" t="s">
+        <v>625</v>
+      </c>
+      <c r="C140" s="19" t="s">
+        <v>605</v>
+      </c>
+      <c r="D140" s="77" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E140" s="79" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F140" s="79" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G140" s="78"/>
+      <c r="H140" s="78" t="s">
         <v>1059</v>
       </c>
-      <c r="F139" s="70" t="s">
-        <v>1045</v>
-      </c>
-      <c r="G139" s="70"/>
-      <c r="H139" s="70" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A140" s="67" t="s">
-        <v>149</v>
-      </c>
-      <c r="B140" s="71" t="s">
-        <v>978</v>
-      </c>
-      <c r="C140" s="51" t="s">
-        <v>992</v>
-      </c>
-      <c r="D140" s="51" t="s">
-        <v>1036</v>
-      </c>
-      <c r="E140" s="70" t="s">
+    </row>
+    <row r="141" spans="1:8" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A141" s="67" t="s">
+        <v>149</v>
+      </c>
+      <c r="B141" s="68" t="s">
+        <v>625</v>
+      </c>
+      <c r="C141" s="19" t="s">
+        <v>605</v>
+      </c>
+      <c r="D141" s="77" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E141" s="61" t="s">
         <v>1060</v>
       </c>
-      <c r="F140" s="70" t="s">
-        <v>1047</v>
-      </c>
-      <c r="G140" s="70"/>
-      <c r="H140" s="70" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="25" x14ac:dyDescent="0.35">
-      <c r="A141" s="67" t="s">
-        <v>149</v>
-      </c>
-      <c r="B141" s="71" t="s">
-        <v>978</v>
-      </c>
-      <c r="C141" s="51" t="s">
-        <v>992</v>
-      </c>
-      <c r="D141" s="51" t="s">
-        <v>1036</v>
-      </c>
-      <c r="E141" s="70" t="s">
+      <c r="F141" s="61" t="s">
         <v>1061</v>
       </c>
-      <c r="F141" s="70" t="s">
-        <v>1049</v>
-      </c>
-      <c r="G141" s="70" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H141" s="70" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G141" s="61"/>
+      <c r="H141" s="61" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="25" x14ac:dyDescent="0.35">
       <c r="A142" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="B142" s="71" t="s">
-        <v>978</v>
-      </c>
-      <c r="C142" s="51" t="s">
-        <v>992</v>
-      </c>
-      <c r="D142" s="51" t="s">
-        <v>1036</v>
-      </c>
-      <c r="E142" s="70" t="s">
-        <v>1062</v>
-      </c>
-      <c r="F142" s="70" t="s">
-        <v>1052</v>
-      </c>
-      <c r="G142" s="70" t="s">
-        <v>1053</v>
-      </c>
-      <c r="H142" s="70" t="s">
-        <v>1054</v>
+      <c r="B142" s="68" t="s">
+        <v>625</v>
+      </c>
+      <c r="C142" s="19" t="s">
+        <v>605</v>
+      </c>
+      <c r="D142" s="77" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E142" s="61" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F142" s="61" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G142" s="61" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H142" s="61" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A143" s="67" t="s">
+        <v>149</v>
+      </c>
+      <c r="B143" s="68" t="s">
+        <v>625</v>
+      </c>
+      <c r="C143" s="19" t="s">
+        <v>605</v>
+      </c>
+      <c r="D143" s="77" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E143" s="61" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F143" s="61" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G143" s="61"/>
+      <c r="H143" s="61" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A144" s="67" t="s">
+        <v>149</v>
+      </c>
+      <c r="B144" s="68" t="s">
+        <v>625</v>
+      </c>
+      <c r="C144" s="19" t="s">
+        <v>605</v>
+      </c>
+      <c r="D144" s="77" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E144" s="61" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F144" s="61" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G144" s="61" t="s">
+        <v>1072</v>
+      </c>
+      <c r="H144" s="61" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A145" s="67" t="s">
+        <v>149</v>
+      </c>
+      <c r="B145" s="68" t="s">
+        <v>625</v>
+      </c>
+      <c r="C145" s="19" t="s">
+        <v>605</v>
+      </c>
+      <c r="D145" s="77" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E145" s="61" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F145" s="61" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G145" s="61" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H145" s="61" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A146" s="67" t="s">
+        <v>149</v>
+      </c>
+      <c r="B146" s="68" t="s">
+        <v>625</v>
+      </c>
+      <c r="C146" s="19" t="s">
+        <v>605</v>
+      </c>
+      <c r="D146" s="77" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E146" s="61" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F146" s="61" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G146" s="61"/>
+      <c r="H146" s="61" t="s">
+        <v>1080</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A6:N124" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A6:M124" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <mergeCells count="4">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:H2"/>
@@ -12683,28 +12864,11 @@
     <mergeCell ref="A5:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D9A8E34D4601248B4650C3759D604D8" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c234dc030e1d129322a3d56f76335218">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="de0c653c-2bd3-43b1-95fa-012c57f61cfe" xmlns:ns3="848a8810-16a6-4d79-96d3-e3dfb86099b7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a56d1a68c4d05b5a1e5a3c0b3fb5b1a8" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -12926,10 +13090,40 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B4CE896-D144-40A9-85D3-0684E5DFDA36}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19245E31-480A-4933-AB52-6FC5778D0ABF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="de0c653c-2bd3-43b1-95fa-012c57f61cfe"/>
+    <ds:schemaRef ds:uri="848a8810-16a6-4d79-96d3-e3dfb86099b7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12953,21 +13147,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19245E31-480A-4933-AB52-6FC5778D0ABF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B4CE896-D144-40A9-85D3-0684E5DFDA36}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="de0c653c-2bd3-43b1-95fa-012c57f61cfe"/>
-    <ds:schemaRef ds:uri="848a8810-16a6-4d79-96d3-e3dfb86099b7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Deliverables/CT/USDM_CT.xlsx
+++ b/Deliverables/CT/USDM_CT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhlbradtee\Documents\GitHub\DDF-RA\Deliverables\CT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378468BD-4820-42DB-8DB9-8AA920EF9AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3529E558-8E59-411D-9B47-E0761D6B7FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="550" yWindow="20" windowWidth="13750" windowHeight="9710" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="18200" windowHeight="9820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DDF Entities&amp;Attributes" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2305" uniqueCount="1086">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2305" uniqueCount="1087">
   <si>
     <t>Preferred Term</t>
   </si>
@@ -1829,9 +1829,6 @@
     <t>studyObjectives</t>
   </si>
   <si>
-    <t>trialIntentType</t>
-  </si>
-  <si>
     <t>trialType</t>
   </si>
   <si>
@@ -3297,6 +3294,12 @@
   </si>
   <si>
     <t>Y (C174222)</t>
+  </si>
+  <si>
+    <t>encounterIds</t>
+  </si>
+  <si>
+    <t>trialIntentTypes</t>
   </si>
 </sst>
 </file>
@@ -3733,6 +3736,21 @@
     <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3747,21 +3765,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4056,7 +4059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I205"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -4079,13 +4082,13 @@
         <v>93</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>111</v>
@@ -4108,13 +4111,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
@@ -4135,20 +4138,20 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -4156,20 +4159,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -4177,20 +4180,20 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -4198,7 +4201,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>92</v>
@@ -4227,7 +4230,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>92</v>
@@ -4236,7 +4239,7 @@
         <v>576</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>536</v>
@@ -4254,7 +4257,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>92</v>
@@ -4275,7 +4278,7 @@
         <v>33</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="100" x14ac:dyDescent="0.35">
@@ -4283,7 +4286,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>92</v>
@@ -4304,7 +4307,7 @@
         <v>18</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -4312,26 +4315,26 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>749</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
@@ -4339,23 +4342,23 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E11" s="52" t="s">
+        <v>785</v>
+      </c>
+      <c r="F11" s="43" t="s">
         <v>786</v>
-      </c>
-      <c r="F11" s="43" t="s">
-        <v>787</v>
       </c>
       <c r="G11" s="43"/>
       <c r="H11" s="43" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>91</v>
@@ -4366,23 +4369,23 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E12" s="52" t="s">
+        <v>788</v>
+      </c>
+      <c r="F12" s="43" t="s">
         <v>789</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>790</v>
       </c>
       <c r="G12" s="43"/>
       <c r="H12" s="43" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>91</v>
@@ -4393,13 +4396,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>8</v>
@@ -4420,7 +4423,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>92</v>
@@ -4449,7 +4452,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>92</v>
@@ -4476,7 +4479,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>92</v>
@@ -4503,7 +4506,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>92</v>
@@ -4530,7 +4533,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>92</v>
@@ -4557,7 +4560,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>92</v>
@@ -4584,7 +4587,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>92</v>
@@ -4593,7 +4596,7 @@
         <v>585</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>143</v>
@@ -4611,7 +4614,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>92</v>
@@ -4620,7 +4623,7 @@
         <v>586</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>87</v>
@@ -4630,7 +4633,7 @@
         <v>134</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -4638,13 +4641,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>88</v>
@@ -4665,10 +4668,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D23" s="42" t="s">
         <v>587</v>
@@ -4678,7 +4681,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -4686,7 +4689,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>92</v>
@@ -4743,17 +4746,17 @@
         <v>522</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E26" s="48"/>
       <c r="F26" s="48"/>
       <c r="G26" s="48"/>
       <c r="H26" s="48"/>
       <c r="I26" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -4770,10 +4773,10 @@
         <v>588</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4" t="s">
@@ -4851,7 +4854,7 @@
         <v>591</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>520</v>
@@ -4861,7 +4864,7 @@
         <v>521</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="50" x14ac:dyDescent="0.35">
@@ -4869,13 +4872,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>41</v>
@@ -4896,10 +4899,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D32" s="42" t="s">
         <v>592</v>
@@ -4909,7 +4912,7 @@
       <c r="G32" s="28"/>
       <c r="H32" s="28"/>
       <c r="I32" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -4917,10 +4920,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D33" s="42" t="s">
         <v>593</v>
@@ -4930,7 +4933,7 @@
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
       <c r="I33" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -4938,10 +4941,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D34" s="42" t="s">
         <v>594</v>
@@ -4951,7 +4954,7 @@
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
       <c r="I34" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -4959,10 +4962,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D35" s="42" t="s">
         <v>548</v>
@@ -4972,7 +4975,7 @@
       <c r="G35" s="28"/>
       <c r="H35" s="28"/>
       <c r="I35" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -4980,10 +4983,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D36" s="42" t="s">
         <v>595</v>
@@ -4993,7 +4996,7 @@
       <c r="G36" s="28"/>
       <c r="H36" s="28"/>
       <c r="I36" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -5001,10 +5004,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D37" s="42" t="s">
         <v>542</v>
@@ -5014,7 +5017,7 @@
       <c r="G37" s="28"/>
       <c r="H37" s="28"/>
       <c r="I37" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -5022,10 +5025,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D38" s="42" t="s">
         <v>554</v>
@@ -5035,7 +5038,7 @@
       <c r="G38" s="28"/>
       <c r="H38" s="28"/>
       <c r="I38" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -5043,20 +5046,20 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D39" s="42" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E39" s="29"/>
       <c r="F39" s="4"/>
       <c r="G39" s="28"/>
       <c r="H39" s="28"/>
       <c r="I39" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -5064,20 +5067,20 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D40" s="47" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E40" s="29"/>
       <c r="F40" s="4"/>
       <c r="G40" s="28"/>
       <c r="H40" s="28"/>
       <c r="I40" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -5085,20 +5088,20 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D41" s="47" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E41" s="29"/>
       <c r="F41" s="4"/>
       <c r="G41" s="28"/>
       <c r="H41" s="28"/>
       <c r="I41" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
@@ -5106,20 +5109,20 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D42" s="47" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E42" s="29"/>
       <c r="F42" s="4"/>
       <c r="G42" s="28"/>
       <c r="H42" s="28"/>
       <c r="I42" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
@@ -5127,20 +5130,20 @@
         <v>42</v>
       </c>
       <c r="B43" s="55" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C43" s="55" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D43" s="56" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E43" s="57"/>
       <c r="F43" s="58"/>
       <c r="G43" s="59"/>
       <c r="H43" s="59"/>
       <c r="I43" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
@@ -5148,13 +5151,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>596</v>
+        <v>1086</v>
       </c>
       <c r="E44" s="44" t="s">
         <v>44</v>
@@ -5169,7 +5172,7 @@
         <v>43</v>
       </c>
       <c r="I44" s="29" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
@@ -5177,13 +5180,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E45" s="44" t="s">
         <v>38</v>
@@ -5198,7 +5201,7 @@
         <v>37</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
@@ -5206,13 +5209,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>46</v>
@@ -5225,7 +5228,7 @@
         <v>45</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="45" customFormat="1" ht="62.5" x14ac:dyDescent="0.35">
@@ -5233,28 +5236,28 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D47" s="31" t="s">
+        <v>750</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>754</v>
-      </c>
       <c r="H47" s="55" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
@@ -5262,23 +5265,23 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E48" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F48" s="43" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G48" s="43"/>
       <c r="H48" s="43" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>91</v>
@@ -5289,23 +5292,23 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E49" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F49" s="43" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G49" s="43"/>
       <c r="H49" s="43" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>91</v>
@@ -5316,23 +5319,23 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D50" s="31" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E50" s="52" t="s">
+        <v>821</v>
+      </c>
+      <c r="F50" s="43" t="s">
         <v>822</v>
-      </c>
-      <c r="F50" s="43" t="s">
-        <v>823</v>
       </c>
       <c r="G50" s="43"/>
       <c r="H50" s="43" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>91</v>
@@ -5343,28 +5346,28 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D51" s="31" t="s">
+        <v>846</v>
+      </c>
+      <c r="E51" s="43" t="s">
         <v>847</v>
       </c>
-      <c r="E51" s="43" t="s">
+      <c r="F51" s="43" t="s">
         <v>848</v>
       </c>
-      <c r="F51" s="43" t="s">
+      <c r="G51" s="43" t="s">
         <v>849</v>
       </c>
-      <c r="G51" s="43" t="s">
+      <c r="H51" s="43" t="s">
         <v>850</v>
       </c>
-      <c r="H51" s="43" t="s">
-        <v>851</v>
-      </c>
       <c r="I51" s="43" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="75" x14ac:dyDescent="0.35">
@@ -5372,13 +5375,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D52" s="41" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>27</v>
@@ -5388,7 +5391,7 @@
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="43" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>91</v>
@@ -5399,26 +5402,26 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -5426,13 +5429,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D54" s="31" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>98</v>
@@ -5453,13 +5456,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D55" s="41" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>32</v>
@@ -5480,26 +5483,26 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="75" x14ac:dyDescent="0.35">
@@ -5507,13 +5510,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D57" s="31" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>32</v>
@@ -5526,7 +5529,7 @@
         <v>31</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="45" customFormat="1" ht="25" x14ac:dyDescent="0.35">
@@ -5534,13 +5537,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D58" s="41" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>29</v>
@@ -5550,7 +5553,7 @@
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>91</v>
@@ -5561,16 +5564,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D59" s="31" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>138</v>
@@ -5588,23 +5591,23 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E60" s="52" t="s">
+        <v>829</v>
+      </c>
+      <c r="F60" s="43" t="s">
         <v>830</v>
-      </c>
-      <c r="F60" s="43" t="s">
-        <v>831</v>
       </c>
       <c r="G60" s="43"/>
       <c r="H60" s="43" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="I60" s="43" t="s">
         <v>91</v>
@@ -5615,23 +5618,23 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E61" s="52" t="s">
+        <v>832</v>
+      </c>
+      <c r="F61" s="43" t="s">
         <v>833</v>
-      </c>
-      <c r="F61" s="43" t="s">
-        <v>834</v>
       </c>
       <c r="G61" s="43"/>
       <c r="H61" s="43" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="I61" s="43" t="s">
         <v>91</v>
@@ -5642,23 +5645,23 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E62" s="52" t="s">
+        <v>835</v>
+      </c>
+      <c r="F62" s="43" t="s">
         <v>836</v>
-      </c>
-      <c r="F62" s="43" t="s">
-        <v>837</v>
       </c>
       <c r="G62" s="43"/>
       <c r="H62" s="43" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="I62" s="43" t="s">
         <v>91</v>
@@ -5669,26 +5672,26 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E63" s="52" t="s">
+        <v>838</v>
+      </c>
+      <c r="F63" s="43" t="s">
         <v>839</v>
-      </c>
-      <c r="F63" s="43" t="s">
-        <v>840</v>
       </c>
       <c r="G63" s="43"/>
       <c r="H63" s="43" t="s">
+        <v>840</v>
+      </c>
+      <c r="I63" s="43" t="s">
         <v>841</v>
-      </c>
-      <c r="I63" s="43" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
@@ -5696,13 +5699,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D64" s="41" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>22</v>
@@ -5723,20 +5726,20 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D65" s="42" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="I65" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
@@ -5744,13 +5747,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D66" s="31" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>118</v>
@@ -5771,16 +5774,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D67" s="31" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>144</v>
@@ -5790,7 +5793,7 @@
         <v>506</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="87.5" x14ac:dyDescent="0.35">
@@ -5798,13 +5801,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D68" s="41" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>24</v>
@@ -5814,7 +5817,7 @@
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="43" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>91</v>
@@ -5825,16 +5828,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>137</v>
@@ -5852,16 +5855,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D70" s="31" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>101</v>
@@ -5879,16 +5882,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D71" s="31" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E71" s="43" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>25</v>
@@ -5898,7 +5901,7 @@
         <v>499</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
@@ -5906,23 +5909,23 @@
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D72" s="41" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>55</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>91</v>
@@ -5933,20 +5936,20 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D73" s="42" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="I73" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
@@ -5954,10 +5957,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D74" s="42" t="s">
         <v>553</v>
@@ -5967,7 +5970,7 @@
       <c r="G74" s="4"/>
       <c r="H74" s="3"/>
       <c r="I74" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
@@ -5975,10 +5978,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D75" s="42" t="s">
         <v>565</v>
@@ -5988,7 +5991,7 @@
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="50" x14ac:dyDescent="0.35">
@@ -5996,13 +5999,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D76" s="41" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>53</v>
@@ -6023,13 +6026,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D77" s="31" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>131</v>
@@ -6050,13 +6053,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D78" s="31" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>130</v>
@@ -6077,26 +6080,26 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D79" s="31" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="I79" s="1" t="s">
         <v>1084</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -6104,16 +6107,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D80" s="31" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>140</v>
@@ -6131,16 +6134,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D81" s="31" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>141</v>
@@ -6150,7 +6153,7 @@
         <v>54</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
@@ -6158,13 +6161,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D82" s="41" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>62</v>
@@ -6185,20 +6188,20 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D83" s="42" t="s">
-        <v>554</v>
+        <v>1085</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
       <c r="H83" s="3"/>
       <c r="I83" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="50" x14ac:dyDescent="0.35">
@@ -6206,7 +6209,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>92</v>
@@ -6233,16 +6236,16 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D85" s="31" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>104</v>
@@ -6260,7 +6263,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>92</v>
@@ -6269,7 +6272,7 @@
         <v>552</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>65</v>
@@ -6279,7 +6282,7 @@
         <v>66</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -6287,23 +6290,23 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D87" s="31" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>563</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I87" s="43" t="s">
         <v>91</v>
@@ -6314,23 +6317,23 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D88" s="31" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>564</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I88" s="43" t="s">
         <v>91</v>
@@ -6341,13 +6344,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D89" s="41" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>49</v>
@@ -6368,10 +6371,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D90" s="42" t="s">
         <v>555</v>
@@ -6381,7 +6384,7 @@
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
       <c r="I90" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
@@ -6389,10 +6392,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D91" s="42" t="s">
         <v>556</v>
@@ -6402,7 +6405,7 @@
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
       <c r="I91" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -6410,7 +6413,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>92</v>
@@ -6419,7 +6422,7 @@
         <v>566</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>50</v>
@@ -6437,16 +6440,16 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D93" s="31" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>105</v>
@@ -6464,13 +6467,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D94" s="41" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>78</v>
@@ -6491,16 +6494,16 @@
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D95" s="31" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>106</v>
@@ -6518,13 +6521,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D96" s="41" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>57</v>
@@ -6534,7 +6537,7 @@
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>91</v>
@@ -6545,10 +6548,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D97" s="42" t="s">
         <v>555</v>
@@ -6558,7 +6561,7 @@
       <c r="G97" s="4"/>
       <c r="H97" s="3"/>
       <c r="I97" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
@@ -6566,10 +6569,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D98" s="42" t="s">
         <v>556</v>
@@ -6579,7 +6582,7 @@
       <c r="G98" s="4"/>
       <c r="H98" s="3"/>
       <c r="I98" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
@@ -6587,20 +6590,20 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D99" s="63" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
       <c r="H99" s="3"/>
       <c r="I99" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -6608,7 +6611,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>92</v>
@@ -6635,16 +6638,16 @@
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D101" s="31" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>116</v>
@@ -6662,7 +6665,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>92</v>
@@ -6671,14 +6674,14 @@
         <v>560</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>567</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I102" s="43" t="s">
         <v>91</v>
@@ -6689,7 +6692,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>92</v>
@@ -6698,14 +6701,14 @@
         <v>561</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>568</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I103" s="43" t="s">
         <v>91</v>
@@ -6716,7 +6719,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>92</v>
@@ -6725,7 +6728,7 @@
         <v>558</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>67</v>
@@ -6735,7 +6738,7 @@
         <v>68</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -6743,7 +6746,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>92</v>
@@ -6752,7 +6755,7 @@
         <v>559</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>70</v>
@@ -6762,7 +6765,7 @@
         <v>71</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -6770,16 +6773,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D106" s="31" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F106" s="4" t="s">
         <v>72</v>
@@ -6789,7 +6792,7 @@
         <v>73</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
@@ -6797,13 +6800,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D107" s="41" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>85</v>
@@ -6824,10 +6827,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D108" s="42" t="s">
         <v>569</v>
@@ -6837,7 +6840,7 @@
       <c r="G108" s="4"/>
       <c r="H108" s="3"/>
       <c r="I108" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
@@ -6845,20 +6848,20 @@
         <v>108</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D109" s="47" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
       <c r="H109" s="3"/>
       <c r="I109" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
@@ -6866,20 +6869,20 @@
         <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D110" s="47" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
       <c r="H110" s="3"/>
       <c r="I110" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
@@ -6887,20 +6890,20 @@
         <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D111" s="47" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
       <c r="H111" s="3"/>
       <c r="I111" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
@@ -6908,20 +6911,20 @@
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D112" s="47" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
       <c r="H112" s="3"/>
       <c r="I112" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
@@ -6929,20 +6932,20 @@
         <v>112</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D113" s="47" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
       <c r="H113" s="3"/>
       <c r="I113" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
@@ -6950,20 +6953,20 @@
         <v>113</v>
       </c>
       <c r="B114" s="58" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C114" s="55" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D114" s="56" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E114" s="55"/>
       <c r="F114" s="58"/>
       <c r="G114" s="58"/>
       <c r="H114" s="60"/>
       <c r="I114" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -6971,7 +6974,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>92</v>
@@ -6980,14 +6983,14 @@
         <v>570</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F115" s="4" t="s">
         <v>571</v>
       </c>
       <c r="G115" s="4"/>
       <c r="H115" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I115" s="4" t="s">
         <v>91</v>
@@ -6998,13 +7001,13 @@
         <v>115</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D116" s="31" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>539</v>
@@ -7025,23 +7028,23 @@
         <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D117" s="31" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E117" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F117" s="43" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="G117" s="43"/>
       <c r="H117" s="43" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="I117" s="43" t="s">
         <v>91</v>
@@ -7052,23 +7055,23 @@
         <v>117</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D118" s="31" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E118" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F118" s="43" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="G118" s="43"/>
       <c r="H118" s="43" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I118" s="43" t="s">
         <v>91</v>
@@ -7115,14 +7118,14 @@
         <v>572</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F120" s="4" t="s">
         <v>113</v>
       </c>
       <c r="G120" s="4"/>
       <c r="H120" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I120" s="4" t="s">
         <v>91</v>
@@ -7166,17 +7169,17 @@
         <v>92</v>
       </c>
       <c r="D122" s="31" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E122" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F122" s="43" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="G122" s="43"/>
       <c r="H122" s="43" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="I122" s="43" t="s">
         <v>91</v>
@@ -7193,23 +7196,23 @@
         <v>92</v>
       </c>
       <c r="D123" s="31" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E123" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F123" s="43" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="G123" s="43"/>
       <c r="H123" s="43" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="I123" s="43" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="33">
         <v>123</v>
       </c>
@@ -7220,17 +7223,17 @@
         <v>92</v>
       </c>
       <c r="D124" s="31" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="E124" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F124" s="43" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="G124" s="61"/>
       <c r="H124" s="61" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="I124" s="43" t="s">
         <v>91</v>
@@ -7246,18 +7249,18 @@
       <c r="C125" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D125" s="76" t="s">
-        <v>1051</v>
+      <c r="D125" s="71" t="s">
+        <v>1050</v>
       </c>
       <c r="E125" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F125" s="61" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="G125" s="61"/>
       <c r="H125" s="61" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I125" s="43" t="s">
         <v>91</v>
@@ -7277,7 +7280,7 @@
         <v>79</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F126" s="4" t="s">
         <v>79</v>
@@ -7298,7 +7301,7 @@
         <v>79</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D127" s="42" t="s">
         <v>543</v>
@@ -7308,7 +7311,7 @@
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
       <c r="I127" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.35">
@@ -7319,7 +7322,7 @@
         <v>79</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D128" s="42" t="s">
         <v>544</v>
@@ -7329,7 +7332,7 @@
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
       <c r="I128" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.35">
@@ -7340,7 +7343,7 @@
         <v>79</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D129" s="42" t="s">
         <v>550</v>
@@ -7350,7 +7353,7 @@
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
       <c r="I129" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.35">
@@ -7361,7 +7364,7 @@
         <v>79</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D130" s="42" t="s">
         <v>549</v>
@@ -7371,7 +7374,7 @@
       <c r="G130" s="4"/>
       <c r="H130" s="4"/>
       <c r="I130" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="25" x14ac:dyDescent="0.35">
@@ -7388,7 +7391,7 @@
         <v>547</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F131" s="4" t="s">
         <v>81</v>
@@ -7406,16 +7409,16 @@
         <v>131</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D132" s="41" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F132" s="4" t="s">
         <v>83</v>
@@ -7433,23 +7436,23 @@
         <v>132</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D133" s="31" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F133" s="4" t="s">
         <v>139</v>
       </c>
       <c r="G133" s="4"/>
       <c r="H133" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I133" s="43" t="s">
         <v>91</v>
@@ -7460,16 +7463,16 @@
         <v>133</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D134" s="41" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F134" s="4" t="s">
         <v>30</v>
@@ -7487,7 +7490,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>92</v>
@@ -7496,7 +7499,7 @@
         <v>545</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F135" s="4" t="s">
         <v>109</v>
@@ -7514,16 +7517,16 @@
         <v>135</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D136" s="31" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F136" s="4" t="s">
         <v>110</v>
@@ -7541,7 +7544,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>92</v>
@@ -7550,14 +7553,14 @@
         <v>546</v>
       </c>
       <c r="E137" s="33" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>562</v>
       </c>
       <c r="G137" s="33"/>
       <c r="H137" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I137" s="43" t="s">
         <v>91</v>
@@ -7568,23 +7571,23 @@
         <v>137</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D138" s="41" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G138" s="35"/>
       <c r="H138" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I138" s="43" t="s">
         <v>91</v>
@@ -7595,23 +7598,23 @@
         <v>138</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D139" s="31" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G139" s="35"/>
       <c r="H139" s="4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I139" s="43" t="s">
         <v>91</v>
@@ -7622,23 +7625,23 @@
         <v>139</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D140" s="31" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G140" s="4"/>
       <c r="H140" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I140" s="43" t="s">
         <v>91</v>
@@ -7649,23 +7652,23 @@
         <v>140</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D141" s="31" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G141" s="4"/>
       <c r="H141" s="4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I141" s="43" t="s">
         <v>91</v>
@@ -7676,23 +7679,23 @@
         <v>141</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D142" s="31" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G142" s="35"/>
       <c r="H142" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I142" s="43" t="s">
         <v>91</v>
@@ -7703,23 +7706,23 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D143" s="41" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E143" s="33" t="s">
         <v>16</v>
       </c>
       <c r="F143" s="33" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G143" s="33"/>
       <c r="H143" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="I143" s="33" t="s">
         <v>91</v>
@@ -7730,20 +7733,20 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C144" s="33" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D144" s="47" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E144" s="33"/>
       <c r="F144" s="33"/>
       <c r="G144" s="33"/>
       <c r="H144" s="33"/>
       <c r="I144" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.35">
@@ -7751,20 +7754,20 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C145" s="33" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D145" s="47" t="s">
-        <v>1025</v